--- a/src/main/resources/Gradingtable.xlsx
+++ b/src/main/resources/Gradingtable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonhard Baumann\Documents\GitHub\ReviewYou\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonhard Baumann\Documents\GitHub\ReviewYou\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1181,7 +1181,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1254,427 +1254,430 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1955,8 +1958,8 @@
   </sheetPr>
   <dimension ref="A1:U191"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A51" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56:U56"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="Q68" sqref="Q68:U68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -1969,112 +1972,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="106">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94">
         <v>43388</v>
       </c>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="O1" s="108" t="s">
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="O1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
     </row>
     <row r="2" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93" t="str">
         <f>IFERROR(VLOOKUP(A4,#REF!,3,TRUE),"")</f>
         <v/>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="O2" s="108" t="s">
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="O2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
     </row>
     <row r="3" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="O3" s="107" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="O3" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
     </row>
     <row r="4" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="O4" s="107" t="s">
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="O4" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="str">
+      <c r="A5" s="93" t="str">
         <f>IFERROR(VLOOKUP(A4,#REF!,2,TRUE),"")</f>
         <v/>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:21" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="O6" s="155" t="s">
+      <c r="O6" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="155"/>
-      <c r="Q6" s="155"/>
-      <c r="R6" s="155"/>
-      <c r="S6" s="155"/>
-      <c r="T6" s="155"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
       <c r="U6" s="23"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -2096,1218 +2099,1222 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="73"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="73"/>
-      <c r="H49" s="156" t="s">
+      <c r="B49" s="125"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="156"/>
-      <c r="J49" s="156"/>
-      <c r="K49" s="156"/>
-      <c r="L49" s="156"/>
-      <c r="M49" s="156"/>
-      <c r="N49" s="156"/>
-      <c r="O49" s="156"/>
-      <c r="P49" s="156"/>
-      <c r="Q49" s="156"/>
-      <c r="R49" s="156"/>
-      <c r="S49" s="156"/>
-      <c r="T49" s="156"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
       <c r="U49" s="7"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="74" t="s">
+      <c r="A51" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="126"/>
+      <c r="G51" s="126"/>
+      <c r="H51" s="126"/>
+      <c r="I51" s="126"/>
+      <c r="J51" s="126"/>
+      <c r="K51" s="126"/>
+      <c r="L51" s="126"/>
+      <c r="M51" s="126"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="75" t="s">
+      <c r="A53" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="75"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="75"/>
-      <c r="R53" s="75"/>
-      <c r="S53" s="75"/>
-      <c r="T53" s="75"/>
-      <c r="U53" s="75"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="93"/>
+      <c r="L53" s="93"/>
+      <c r="M53" s="93"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="93"/>
+      <c r="P53" s="93"/>
+      <c r="Q53" s="93"/>
+      <c r="R53" s="93"/>
+      <c r="S53" s="93"/>
+      <c r="T53" s="93"/>
+      <c r="U53" s="93"/>
     </row>
     <row r="54" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="76" t="s">
+      <c r="A55" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="77"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="77" t="s">
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="N55" s="77"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="77"/>
-      <c r="Q55" s="77"/>
-      <c r="R55" s="77"/>
-      <c r="S55" s="77"/>
-      <c r="T55" s="77"/>
-      <c r="U55" s="79"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="33"/>
     </row>
     <row r="56" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="162"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
-      <c r="E56" s="163"/>
-      <c r="F56" s="163"/>
-      <c r="G56" s="163"/>
-      <c r="H56" s="163"/>
-      <c r="I56" s="163"/>
-      <c r="J56" s="163"/>
-      <c r="K56" s="163"/>
-      <c r="L56" s="164"/>
-      <c r="M56" s="78"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="78"/>
-      <c r="Q56" s="78"/>
-      <c r="R56" s="78"/>
-      <c r="S56" s="78"/>
-      <c r="T56" s="78"/>
-      <c r="U56" s="78"/>
+      <c r="A56" s="127"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
+      <c r="G56" s="128"/>
+      <c r="H56" s="128"/>
+      <c r="I56" s="128"/>
+      <c r="J56" s="128"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="129"/>
+      <c r="M56" s="130"/>
+      <c r="N56" s="130"/>
+      <c r="O56" s="130"/>
+      <c r="P56" s="130"/>
+      <c r="Q56" s="130"/>
+      <c r="R56" s="130"/>
+      <c r="S56" s="130"/>
+      <c r="T56" s="130"/>
+      <c r="U56" s="130"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="80" t="s">
+      <c r="A57" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="81" t="s">
+      <c r="B57" s="132"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="132"/>
+      <c r="L57" s="132"/>
+      <c r="M57" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="N57" s="84"/>
-      <c r="O57" s="84"/>
-      <c r="P57" s="84"/>
-      <c r="Q57" s="81" t="s">
+      <c r="N57" s="135"/>
+      <c r="O57" s="135"/>
+      <c r="P57" s="135"/>
+      <c r="Q57" s="132" t="s">
         <v>20</v>
       </c>
-      <c r="R57" s="84"/>
-      <c r="S57" s="84"/>
-      <c r="T57" s="84"/>
-      <c r="U57" s="86"/>
+      <c r="R57" s="135"/>
+      <c r="S57" s="135"/>
+      <c r="T57" s="135"/>
+      <c r="U57" s="137"/>
     </row>
     <row r="58" spans="1:21" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="82"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="85"/>
-      <c r="N58" s="83"/>
-      <c r="O58" s="83"/>
-      <c r="P58" s="83"/>
-      <c r="Q58" s="85"/>
-      <c r="R58" s="83"/>
-      <c r="S58" s="83"/>
-      <c r="T58" s="83"/>
-      <c r="U58" s="87"/>
+      <c r="A58" s="133"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
+      <c r="J58" s="134"/>
+      <c r="K58" s="134"/>
+      <c r="L58" s="134"/>
+      <c r="M58" s="136"/>
+      <c r="N58" s="134"/>
+      <c r="O58" s="134"/>
+      <c r="P58" s="134"/>
+      <c r="Q58" s="136"/>
+      <c r="R58" s="134"/>
+      <c r="S58" s="134"/>
+      <c r="T58" s="134"/>
+      <c r="U58" s="138"/>
     </row>
     <row r="59" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="76" t="s">
+      <c r="A60" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="77"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="77"/>
-      <c r="M60" s="77"/>
-      <c r="N60" s="77"/>
-      <c r="O60" s="77"/>
-      <c r="P60" s="77"/>
-      <c r="Q60" s="77"/>
-      <c r="R60" s="77"/>
-      <c r="S60" s="77"/>
-      <c r="T60" s="77"/>
-      <c r="U60" s="79"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="33"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="88" t="s">
+      <c r="A61" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="90" t="s">
+      <c r="B61" s="140"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="89"/>
-      <c r="J61" s="89"/>
-      <c r="K61" s="89"/>
-      <c r="L61" s="89"/>
-      <c r="M61" s="90" t="s">
+      <c r="G61" s="140"/>
+      <c r="H61" s="140"/>
+      <c r="I61" s="140"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="140"/>
+      <c r="L61" s="140"/>
+      <c r="M61" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="89"/>
-      <c r="O61" s="89"/>
-      <c r="P61" s="89"/>
-      <c r="Q61" s="89"/>
-      <c r="R61" s="89"/>
-      <c r="S61" s="89"/>
-      <c r="T61" s="89"/>
-      <c r="U61" s="91"/>
+      <c r="N61" s="140"/>
+      <c r="O61" s="140"/>
+      <c r="P61" s="140"/>
+      <c r="Q61" s="140"/>
+      <c r="R61" s="140"/>
+      <c r="S61" s="140"/>
+      <c r="T61" s="140"/>
+      <c r="U61" s="142"/>
     </row>
     <row r="62" spans="1:21" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="92"/>
-      <c r="B62" s="93"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="93"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="93"/>
-      <c r="J62" s="93"/>
-      <c r="K62" s="93"/>
-      <c r="L62" s="93"/>
-      <c r="M62" s="85"/>
-      <c r="N62" s="83"/>
-      <c r="O62" s="83"/>
-      <c r="P62" s="83"/>
-      <c r="Q62" s="83"/>
-      <c r="R62" s="83"/>
-      <c r="S62" s="83"/>
-      <c r="T62" s="83"/>
-      <c r="U62" s="87"/>
+      <c r="A62" s="143"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="145"/>
+      <c r="G62" s="144"/>
+      <c r="H62" s="144"/>
+      <c r="I62" s="144"/>
+      <c r="J62" s="144"/>
+      <c r="K62" s="144"/>
+      <c r="L62" s="144"/>
+      <c r="M62" s="136"/>
+      <c r="N62" s="134"/>
+      <c r="O62" s="134"/>
+      <c r="P62" s="134"/>
+      <c r="Q62" s="134"/>
+      <c r="R62" s="134"/>
+      <c r="S62" s="134"/>
+      <c r="T62" s="134"/>
+      <c r="U62" s="138"/>
     </row>
     <row r="63" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="95"/>
-      <c r="G64" s="95"/>
-      <c r="H64" s="95"/>
-      <c r="I64" s="95"/>
-      <c r="J64" s="95"/>
-      <c r="K64" s="95"/>
-      <c r="L64" s="95"/>
-      <c r="M64" s="95"/>
-      <c r="N64" s="95"/>
-      <c r="O64" s="95"/>
-      <c r="P64" s="95"/>
-      <c r="Q64" s="95"/>
-      <c r="R64" s="95"/>
-      <c r="S64" s="95"/>
-      <c r="T64" s="95"/>
-      <c r="U64" s="96"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="147"/>
+      <c r="F64" s="147"/>
+      <c r="G64" s="147"/>
+      <c r="H64" s="147"/>
+      <c r="I64" s="147"/>
+      <c r="J64" s="147"/>
+      <c r="K64" s="147"/>
+      <c r="L64" s="147"/>
+      <c r="M64" s="147"/>
+      <c r="N64" s="147"/>
+      <c r="O64" s="147"/>
+      <c r="P64" s="147"/>
+      <c r="Q64" s="147"/>
+      <c r="R64" s="147"/>
+      <c r="S64" s="147"/>
+      <c r="T64" s="147"/>
+      <c r="U64" s="148"/>
     </row>
     <row r="65" spans="1:21" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="34"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="36"/>
+      <c r="A65" s="100"/>
+      <c r="B65" s="101"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="101"/>
+      <c r="I65" s="101"/>
+      <c r="J65" s="101"/>
+      <c r="K65" s="101"/>
+      <c r="L65" s="101"/>
+      <c r="M65" s="101"/>
+      <c r="N65" s="101"/>
+      <c r="O65" s="101"/>
+      <c r="P65" s="101"/>
+      <c r="Q65" s="101"/>
+      <c r="R65" s="101"/>
+      <c r="S65" s="101"/>
+      <c r="T65" s="101"/>
+      <c r="U65" s="102"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="97" t="s">
+      <c r="A66" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="98"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="98"/>
-      <c r="F66" s="98"/>
-      <c r="G66" s="98"/>
-      <c r="H66" s="98"/>
-      <c r="I66" s="98"/>
-      <c r="J66" s="98"/>
-      <c r="K66" s="98"/>
-      <c r="L66" s="98"/>
-      <c r="M66" s="98"/>
-      <c r="N66" s="98"/>
-      <c r="O66" s="98"/>
-      <c r="P66" s="98"/>
-      <c r="Q66" s="98"/>
-      <c r="R66" s="98"/>
-      <c r="S66" s="98"/>
-      <c r="T66" s="98"/>
-      <c r="U66" s="99"/>
+      <c r="B66" s="150"/>
+      <c r="C66" s="150"/>
+      <c r="D66" s="150"/>
+      <c r="E66" s="150"/>
+      <c r="F66" s="150"/>
+      <c r="G66" s="150"/>
+      <c r="H66" s="150"/>
+      <c r="I66" s="150"/>
+      <c r="J66" s="150"/>
+      <c r="K66" s="150"/>
+      <c r="L66" s="150"/>
+      <c r="M66" s="150"/>
+      <c r="N66" s="150"/>
+      <c r="O66" s="150"/>
+      <c r="P66" s="150"/>
+      <c r="Q66" s="150"/>
+      <c r="R66" s="150"/>
+      <c r="S66" s="150"/>
+      <c r="T66" s="150"/>
+      <c r="U66" s="151"/>
     </row>
     <row r="67" spans="1:21" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="34"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="36"/>
+      <c r="A67" s="100"/>
+      <c r="B67" s="101"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="101"/>
+      <c r="I67" s="101"/>
+      <c r="J67" s="101"/>
+      <c r="K67" s="101"/>
+      <c r="L67" s="101"/>
+      <c r="M67" s="101"/>
+      <c r="N67" s="101"/>
+      <c r="O67" s="101"/>
+      <c r="P67" s="101"/>
+      <c r="Q67" s="101"/>
+      <c r="R67" s="101"/>
+      <c r="S67" s="101"/>
+      <c r="T67" s="101"/>
+      <c r="U67" s="102"/>
     </row>
     <row r="68" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="24"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="24"/>
-      <c r="T68" s="24"/>
-      <c r="U68" s="25"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="82"/>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82"/>
+      <c r="I68" s="82"/>
+      <c r="J68" s="82"/>
+      <c r="K68" s="82"/>
+      <c r="L68" s="82"/>
+      <c r="M68" s="82"/>
+      <c r="N68" s="82"/>
+      <c r="O68" s="82"/>
+      <c r="P68" s="82"/>
+      <c r="Q68" s="162"/>
+      <c r="R68" s="162"/>
+      <c r="S68" s="162"/>
+      <c r="T68" s="162"/>
+      <c r="U68" s="163"/>
     </row>
     <row r="69" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="34" t="s">
+      <c r="A69" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="U69" s="26"/>
+      <c r="B69" s="101"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="101"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="101"/>
+      <c r="Q69" s="164"/>
+      <c r="R69" s="164"/>
+      <c r="S69" s="164"/>
+      <c r="T69" s="164"/>
+      <c r="U69" s="165"/>
     </row>
     <row r="70" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="39" t="s">
+      <c r="B70" s="153"/>
+      <c r="C70" s="153"/>
+      <c r="D70" s="153"/>
+      <c r="E70" s="153"/>
+      <c r="F70" s="153"/>
+      <c r="G70" s="153"/>
+      <c r="H70" s="153"/>
+      <c r="I70" s="153"/>
+      <c r="J70" s="154"/>
+      <c r="K70" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="L70" s="40"/>
-      <c r="M70" s="40"/>
-      <c r="N70" s="40"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
-      <c r="T70" s="40"/>
-      <c r="U70" s="41"/>
+      <c r="L70" s="153"/>
+      <c r="M70" s="153"/>
+      <c r="N70" s="153"/>
+      <c r="O70" s="153"/>
+      <c r="P70" s="153"/>
+      <c r="Q70" s="153"/>
+      <c r="R70" s="153"/>
+      <c r="S70" s="153"/>
+      <c r="T70" s="153"/>
+      <c r="U70" s="154"/>
     </row>
     <row r="71" spans="1:21" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="42"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="45"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="46"/>
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
-      <c r="Q71" s="46"/>
-      <c r="R71" s="46"/>
-      <c r="S71" s="46"/>
-      <c r="T71" s="46"/>
-      <c r="U71" s="47"/>
+      <c r="A71" s="155"/>
+      <c r="B71" s="156"/>
+      <c r="C71" s="156"/>
+      <c r="D71" s="156"/>
+      <c r="E71" s="156"/>
+      <c r="F71" s="156"/>
+      <c r="G71" s="156"/>
+      <c r="H71" s="156"/>
+      <c r="I71" s="156"/>
+      <c r="J71" s="157"/>
+      <c r="K71" s="158"/>
+      <c r="L71" s="159"/>
+      <c r="M71" s="159"/>
+      <c r="N71" s="159"/>
+      <c r="O71" s="159"/>
+      <c r="P71" s="159"/>
+      <c r="Q71" s="159"/>
+      <c r="R71" s="159"/>
+      <c r="S71" s="159"/>
+      <c r="T71" s="159"/>
+      <c r="U71" s="160"/>
     </row>
     <row r="72" spans="1:21" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="124" t="s">
+      <c r="A72" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="125"/>
-      <c r="C72" s="125"/>
-      <c r="D72" s="125"/>
-      <c r="E72" s="125"/>
-      <c r="F72" s="125"/>
-      <c r="G72" s="125"/>
-      <c r="H72" s="125"/>
-      <c r="I72" s="125"/>
-      <c r="J72" s="126"/>
-      <c r="K72" s="124" t="s">
+      <c r="B72" s="88"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="88"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="88"/>
+      <c r="G72" s="88"/>
+      <c r="H72" s="88"/>
+      <c r="I72" s="88"/>
+      <c r="J72" s="89"/>
+      <c r="K72" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="L72" s="125"/>
-      <c r="M72" s="125"/>
-      <c r="N72" s="125"/>
-      <c r="O72" s="125"/>
-      <c r="P72" s="125"/>
-      <c r="Q72" s="125"/>
-      <c r="R72" s="125"/>
-      <c r="S72" s="125"/>
-      <c r="T72" s="125"/>
-      <c r="U72" s="126"/>
+      <c r="L72" s="88"/>
+      <c r="M72" s="88"/>
+      <c r="N72" s="88"/>
+      <c r="O72" s="88"/>
+      <c r="P72" s="88"/>
+      <c r="Q72" s="88"/>
+      <c r="R72" s="88"/>
+      <c r="S72" s="88"/>
+      <c r="T72" s="88"/>
+      <c r="U72" s="89"/>
     </row>
     <row r="73" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="129" t="s">
+      <c r="A73" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="105"/>
-      <c r="C73" s="104" t="s">
+      <c r="B73" s="37"/>
+      <c r="C73" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="105"/>
-      <c r="E73" s="104" t="s">
+      <c r="D73" s="37"/>
+      <c r="E73" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="127"/>
-      <c r="G73" s="105"/>
-      <c r="H73" s="104" t="s">
+      <c r="F73" s="91"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="I73" s="127"/>
-      <c r="J73" s="128"/>
-      <c r="K73" s="129" t="s">
+      <c r="I73" s="91"/>
+      <c r="J73" s="92"/>
+      <c r="K73" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L73" s="105"/>
-      <c r="M73" s="104" t="s">
+      <c r="L73" s="37"/>
+      <c r="M73" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="N73" s="105"/>
-      <c r="O73" s="104" t="s">
+      <c r="N73" s="37"/>
+      <c r="O73" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="P73" s="127"/>
-      <c r="Q73" s="105"/>
-      <c r="R73" s="121" t="s">
+      <c r="P73" s="91"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="S73" s="122"/>
-      <c r="T73" s="122"/>
-      <c r="U73" s="123"/>
+      <c r="S73" s="85"/>
+      <c r="T73" s="85"/>
+      <c r="U73" s="86"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="112"/>
-      <c r="B74" s="113"/>
-      <c r="C74" s="114"/>
-      <c r="D74" s="113"/>
-      <c r="E74" s="109"/>
-      <c r="F74" s="110"/>
-      <c r="G74" s="115"/>
-      <c r="H74" s="109"/>
-      <c r="I74" s="110"/>
-      <c r="J74" s="111"/>
-      <c r="K74" s="112"/>
-      <c r="L74" s="113"/>
-      <c r="M74" s="114"/>
-      <c r="N74" s="113"/>
-      <c r="O74" s="109"/>
-      <c r="P74" s="110"/>
-      <c r="Q74" s="115"/>
-      <c r="R74" s="116"/>
-      <c r="S74" s="117"/>
-      <c r="T74" s="117"/>
-      <c r="U74" s="118"/>
+      <c r="A74" s="78"/>
+      <c r="B74" s="79"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="81"/>
+      <c r="I74" s="82"/>
+      <c r="J74" s="96"/>
+      <c r="K74" s="78"/>
+      <c r="L74" s="79"/>
+      <c r="M74" s="80"/>
+      <c r="N74" s="79"/>
+      <c r="O74" s="81"/>
+      <c r="P74" s="82"/>
+      <c r="Q74" s="83"/>
+      <c r="R74" s="97"/>
+      <c r="S74" s="98"/>
+      <c r="T74" s="98"/>
+      <c r="U74" s="99"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="119"/>
-      <c r="B75" s="120"/>
-      <c r="C75" s="130"/>
-      <c r="D75" s="120"/>
-      <c r="E75" s="143"/>
-      <c r="F75" s="144"/>
-      <c r="G75" s="145"/>
-      <c r="H75" s="143"/>
-      <c r="I75" s="144"/>
-      <c r="J75" s="146"/>
-      <c r="K75" s="119"/>
-      <c r="L75" s="120"/>
-      <c r="M75" s="130"/>
-      <c r="N75" s="120"/>
-      <c r="O75" s="143"/>
-      <c r="P75" s="144"/>
-      <c r="Q75" s="145"/>
-      <c r="R75" s="152"/>
-      <c r="S75" s="153"/>
-      <c r="T75" s="153"/>
-      <c r="U75" s="154"/>
+      <c r="A75" s="56"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="53"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="55"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="52"/>
+      <c r="Q75" s="53"/>
+      <c r="R75" s="45"/>
+      <c r="S75" s="46"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="47"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="119"/>
-      <c r="B76" s="120"/>
-      <c r="C76" s="130"/>
-      <c r="D76" s="120"/>
-      <c r="E76" s="143"/>
-      <c r="F76" s="144"/>
-      <c r="G76" s="145"/>
-      <c r="H76" s="143"/>
-      <c r="I76" s="144"/>
-      <c r="J76" s="146"/>
-      <c r="K76" s="119"/>
-      <c r="L76" s="120"/>
-      <c r="M76" s="130"/>
-      <c r="N76" s="120"/>
-      <c r="O76" s="143"/>
-      <c r="P76" s="144"/>
-      <c r="Q76" s="145"/>
-      <c r="R76" s="152"/>
-      <c r="S76" s="153"/>
-      <c r="T76" s="153"/>
-      <c r="U76" s="154"/>
+      <c r="A76" s="56"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="54"/>
+      <c r="N76" s="55"/>
+      <c r="O76" s="51"/>
+      <c r="P76" s="52"/>
+      <c r="Q76" s="53"/>
+      <c r="R76" s="45"/>
+      <c r="S76" s="46"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="47"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="119"/>
-      <c r="B77" s="120"/>
-      <c r="C77" s="130"/>
-      <c r="D77" s="120"/>
-      <c r="E77" s="143"/>
-      <c r="F77" s="144"/>
-      <c r="G77" s="145"/>
-      <c r="H77" s="143"/>
-      <c r="I77" s="144"/>
-      <c r="J77" s="146"/>
-      <c r="K77" s="119"/>
-      <c r="L77" s="120"/>
-      <c r="M77" s="130"/>
-      <c r="N77" s="120"/>
-      <c r="O77" s="143"/>
-      <c r="P77" s="144"/>
-      <c r="Q77" s="145"/>
-      <c r="R77" s="152"/>
-      <c r="S77" s="153"/>
-      <c r="T77" s="153"/>
-      <c r="U77" s="154"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="53"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="55"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="55"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="52"/>
+      <c r="Q77" s="53"/>
+      <c r="R77" s="45"/>
+      <c r="S77" s="46"/>
+      <c r="T77" s="46"/>
+      <c r="U77" s="47"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="119"/>
-      <c r="B78" s="120"/>
-      <c r="C78" s="130"/>
-      <c r="D78" s="120"/>
-      <c r="E78" s="143"/>
-      <c r="F78" s="144"/>
-      <c r="G78" s="145"/>
-      <c r="H78" s="143"/>
-      <c r="I78" s="144"/>
-      <c r="J78" s="146"/>
-      <c r="K78" s="119"/>
-      <c r="L78" s="120"/>
-      <c r="M78" s="130"/>
-      <c r="N78" s="120"/>
-      <c r="O78" s="143"/>
-      <c r="P78" s="144"/>
-      <c r="Q78" s="145"/>
-      <c r="R78" s="152"/>
-      <c r="S78" s="153"/>
-      <c r="T78" s="153"/>
-      <c r="U78" s="154"/>
+      <c r="A78" s="56"/>
+      <c r="B78" s="55"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="55"/>
+      <c r="M78" s="54"/>
+      <c r="N78" s="55"/>
+      <c r="O78" s="51"/>
+      <c r="P78" s="52"/>
+      <c r="Q78" s="53"/>
+      <c r="R78" s="45"/>
+      <c r="S78" s="46"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="47"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="119"/>
-      <c r="B79" s="120"/>
-      <c r="C79" s="130"/>
-      <c r="D79" s="120"/>
-      <c r="E79" s="143"/>
-      <c r="F79" s="144"/>
-      <c r="G79" s="145"/>
-      <c r="H79" s="143"/>
-      <c r="I79" s="144"/>
-      <c r="J79" s="146"/>
-      <c r="K79" s="119"/>
-      <c r="L79" s="120"/>
-      <c r="M79" s="130"/>
-      <c r="N79" s="120"/>
-      <c r="O79" s="143"/>
-      <c r="P79" s="144"/>
-      <c r="Q79" s="145"/>
-      <c r="R79" s="152"/>
-      <c r="S79" s="153"/>
-      <c r="T79" s="153"/>
-      <c r="U79" s="154"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="55"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="53"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="52"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="55"/>
+      <c r="M79" s="54"/>
+      <c r="N79" s="55"/>
+      <c r="O79" s="51"/>
+      <c r="P79" s="52"/>
+      <c r="Q79" s="53"/>
+      <c r="R79" s="45"/>
+      <c r="S79" s="46"/>
+      <c r="T79" s="46"/>
+      <c r="U79" s="47"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="119"/>
-      <c r="B80" s="120"/>
-      <c r="C80" s="130"/>
-      <c r="D80" s="120"/>
-      <c r="E80" s="143"/>
-      <c r="F80" s="144"/>
-      <c r="G80" s="145"/>
-      <c r="H80" s="143"/>
-      <c r="I80" s="144"/>
-      <c r="J80" s="146"/>
-      <c r="K80" s="119"/>
-      <c r="L80" s="120"/>
-      <c r="M80" s="130"/>
-      <c r="N80" s="120"/>
-      <c r="O80" s="143"/>
-      <c r="P80" s="144"/>
-      <c r="Q80" s="145"/>
-      <c r="R80" s="152"/>
-      <c r="S80" s="153"/>
-      <c r="T80" s="153"/>
-      <c r="U80" s="154"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="55"/>
+      <c r="M80" s="54"/>
+      <c r="N80" s="55"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="52"/>
+      <c r="Q80" s="53"/>
+      <c r="R80" s="45"/>
+      <c r="S80" s="46"/>
+      <c r="T80" s="46"/>
+      <c r="U80" s="47"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="119"/>
-      <c r="B81" s="120"/>
-      <c r="C81" s="130"/>
-      <c r="D81" s="120"/>
-      <c r="E81" s="143"/>
-      <c r="F81" s="144"/>
-      <c r="G81" s="145"/>
-      <c r="H81" s="143"/>
-      <c r="I81" s="144"/>
-      <c r="J81" s="146"/>
-      <c r="K81" s="119"/>
-      <c r="L81" s="120"/>
-      <c r="M81" s="130"/>
-      <c r="N81" s="120"/>
-      <c r="O81" s="143"/>
-      <c r="P81" s="144"/>
-      <c r="Q81" s="145"/>
-      <c r="R81" s="152"/>
-      <c r="S81" s="153"/>
-      <c r="T81" s="153"/>
-      <c r="U81" s="154"/>
+      <c r="A81" s="56"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="55"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="53"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="52"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="55"/>
+      <c r="M81" s="54"/>
+      <c r="N81" s="55"/>
+      <c r="O81" s="51"/>
+      <c r="P81" s="52"/>
+      <c r="Q81" s="53"/>
+      <c r="R81" s="45"/>
+      <c r="S81" s="46"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="47"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="119"/>
-      <c r="B82" s="120"/>
-      <c r="C82" s="130"/>
-      <c r="D82" s="120"/>
-      <c r="E82" s="143"/>
-      <c r="F82" s="144"/>
-      <c r="G82" s="145"/>
-      <c r="H82" s="143"/>
-      <c r="I82" s="144"/>
-      <c r="J82" s="146"/>
-      <c r="K82" s="119"/>
-      <c r="L82" s="120"/>
-      <c r="M82" s="130"/>
-      <c r="N82" s="120"/>
-      <c r="O82" s="143"/>
-      <c r="P82" s="144"/>
-      <c r="Q82" s="145"/>
-      <c r="R82" s="152"/>
-      <c r="S82" s="153"/>
-      <c r="T82" s="153"/>
-      <c r="U82" s="154"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="55"/>
+      <c r="M82" s="54"/>
+      <c r="N82" s="55"/>
+      <c r="O82" s="51"/>
+      <c r="P82" s="52"/>
+      <c r="Q82" s="53"/>
+      <c r="R82" s="45"/>
+      <c r="S82" s="46"/>
+      <c r="T82" s="46"/>
+      <c r="U82" s="47"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="119"/>
-      <c r="B83" s="120"/>
-      <c r="C83" s="130"/>
-      <c r="D83" s="120"/>
-      <c r="E83" s="143"/>
-      <c r="F83" s="144"/>
-      <c r="G83" s="145"/>
-      <c r="H83" s="143"/>
-      <c r="I83" s="144"/>
-      <c r="J83" s="146"/>
-      <c r="K83" s="119"/>
-      <c r="L83" s="120"/>
-      <c r="M83" s="130"/>
-      <c r="N83" s="120"/>
-      <c r="O83" s="143"/>
-      <c r="P83" s="144"/>
-      <c r="Q83" s="145"/>
-      <c r="R83" s="152"/>
-      <c r="S83" s="153"/>
-      <c r="T83" s="153"/>
-      <c r="U83" s="154"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="55"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="55"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="53"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="57"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="54"/>
+      <c r="N83" s="55"/>
+      <c r="O83" s="51"/>
+      <c r="P83" s="52"/>
+      <c r="Q83" s="53"/>
+      <c r="R83" s="45"/>
+      <c r="S83" s="46"/>
+      <c r="T83" s="46"/>
+      <c r="U83" s="47"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="119"/>
-      <c r="B84" s="120"/>
-      <c r="C84" s="130"/>
-      <c r="D84" s="120"/>
-      <c r="E84" s="143"/>
-      <c r="F84" s="144"/>
-      <c r="G84" s="145"/>
-      <c r="H84" s="143"/>
-      <c r="I84" s="144"/>
-      <c r="J84" s="146"/>
-      <c r="K84" s="119"/>
-      <c r="L84" s="120"/>
-      <c r="M84" s="130"/>
-      <c r="N84" s="120"/>
-      <c r="O84" s="143"/>
-      <c r="P84" s="144"/>
-      <c r="Q84" s="145"/>
-      <c r="R84" s="152"/>
-      <c r="S84" s="153"/>
-      <c r="T84" s="153"/>
-      <c r="U84" s="154"/>
+      <c r="A84" s="56"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="52"/>
+      <c r="J84" s="57"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="55"/>
+      <c r="M84" s="54"/>
+      <c r="N84" s="55"/>
+      <c r="O84" s="51"/>
+      <c r="P84" s="52"/>
+      <c r="Q84" s="53"/>
+      <c r="R84" s="45"/>
+      <c r="S84" s="46"/>
+      <c r="T84" s="46"/>
+      <c r="U84" s="47"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="119"/>
-      <c r="B85" s="120"/>
-      <c r="C85" s="130"/>
-      <c r="D85" s="120"/>
-      <c r="E85" s="143"/>
-      <c r="F85" s="144"/>
-      <c r="G85" s="145"/>
-      <c r="H85" s="143"/>
-      <c r="I85" s="144"/>
-      <c r="J85" s="146"/>
-      <c r="K85" s="119"/>
-      <c r="L85" s="120"/>
-      <c r="M85" s="130"/>
-      <c r="N85" s="120"/>
-      <c r="O85" s="143"/>
-      <c r="P85" s="144"/>
-      <c r="Q85" s="145"/>
-      <c r="R85" s="152"/>
-      <c r="S85" s="153"/>
-      <c r="T85" s="153"/>
-      <c r="U85" s="154"/>
+      <c r="A85" s="56"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="53"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="52"/>
+      <c r="J85" s="57"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="55"/>
+      <c r="M85" s="54"/>
+      <c r="N85" s="55"/>
+      <c r="O85" s="51"/>
+      <c r="P85" s="52"/>
+      <c r="Q85" s="53"/>
+      <c r="R85" s="45"/>
+      <c r="S85" s="46"/>
+      <c r="T85" s="46"/>
+      <c r="U85" s="47"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A86" s="119"/>
-      <c r="B86" s="120"/>
-      <c r="C86" s="130"/>
-      <c r="D86" s="120"/>
-      <c r="E86" s="143"/>
-      <c r="F86" s="144"/>
-      <c r="G86" s="145"/>
-      <c r="H86" s="143"/>
-      <c r="I86" s="144"/>
-      <c r="J86" s="146"/>
-      <c r="K86" s="119"/>
-      <c r="L86" s="120"/>
-      <c r="M86" s="130"/>
-      <c r="N86" s="120"/>
-      <c r="O86" s="143"/>
-      <c r="P86" s="144"/>
-      <c r="Q86" s="145"/>
-      <c r="R86" s="152"/>
-      <c r="S86" s="153"/>
-      <c r="T86" s="153"/>
-      <c r="U86" s="154"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="55"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="52"/>
+      <c r="J86" s="57"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="54"/>
+      <c r="N86" s="55"/>
+      <c r="O86" s="51"/>
+      <c r="P86" s="52"/>
+      <c r="Q86" s="53"/>
+      <c r="R86" s="45"/>
+      <c r="S86" s="46"/>
+      <c r="T86" s="46"/>
+      <c r="U86" s="47"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="119"/>
-      <c r="B87" s="120"/>
-      <c r="C87" s="130"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="143"/>
-      <c r="F87" s="144"/>
-      <c r="G87" s="145"/>
-      <c r="H87" s="143"/>
-      <c r="I87" s="144"/>
-      <c r="J87" s="146"/>
-      <c r="K87" s="119"/>
-      <c r="L87" s="120"/>
-      <c r="M87" s="130"/>
-      <c r="N87" s="120"/>
-      <c r="O87" s="143"/>
-      <c r="P87" s="144"/>
-      <c r="Q87" s="145"/>
-      <c r="R87" s="152"/>
-      <c r="S87" s="153"/>
-      <c r="T87" s="153"/>
-      <c r="U87" s="154"/>
+      <c r="A87" s="56"/>
+      <c r="B87" s="55"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="53"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="57"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="55"/>
+      <c r="M87" s="54"/>
+      <c r="N87" s="55"/>
+      <c r="O87" s="51"/>
+      <c r="P87" s="52"/>
+      <c r="Q87" s="53"/>
+      <c r="R87" s="45"/>
+      <c r="S87" s="46"/>
+      <c r="T87" s="46"/>
+      <c r="U87" s="47"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A88" s="119"/>
-      <c r="B88" s="120"/>
-      <c r="C88" s="130"/>
-      <c r="D88" s="120"/>
-      <c r="E88" s="143"/>
-      <c r="F88" s="144"/>
-      <c r="G88" s="145"/>
-      <c r="H88" s="143"/>
-      <c r="I88" s="144"/>
-      <c r="J88" s="146"/>
-      <c r="K88" s="119"/>
-      <c r="L88" s="120"/>
-      <c r="M88" s="130"/>
-      <c r="N88" s="120"/>
-      <c r="O88" s="143"/>
-      <c r="P88" s="144"/>
-      <c r="Q88" s="145"/>
-      <c r="R88" s="152"/>
-      <c r="S88" s="153"/>
-      <c r="T88" s="153"/>
-      <c r="U88" s="154"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="52"/>
+      <c r="J88" s="57"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="55"/>
+      <c r="M88" s="54"/>
+      <c r="N88" s="55"/>
+      <c r="O88" s="51"/>
+      <c r="P88" s="52"/>
+      <c r="Q88" s="53"/>
+      <c r="R88" s="45"/>
+      <c r="S88" s="46"/>
+      <c r="T88" s="46"/>
+      <c r="U88" s="47"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="119"/>
-      <c r="B89" s="120"/>
-      <c r="C89" s="130"/>
-      <c r="D89" s="120"/>
-      <c r="E89" s="143"/>
-      <c r="F89" s="144"/>
-      <c r="G89" s="145"/>
-      <c r="H89" s="143"/>
-      <c r="I89" s="144"/>
-      <c r="J89" s="146"/>
-      <c r="K89" s="119"/>
-      <c r="L89" s="120"/>
-      <c r="M89" s="130"/>
-      <c r="N89" s="120"/>
-      <c r="O89" s="143"/>
-      <c r="P89" s="144"/>
-      <c r="Q89" s="145"/>
-      <c r="R89" s="152"/>
-      <c r="S89" s="153"/>
-      <c r="T89" s="153"/>
-      <c r="U89" s="154"/>
+      <c r="A89" s="56"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="53"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="52"/>
+      <c r="J89" s="57"/>
+      <c r="K89" s="56"/>
+      <c r="L89" s="55"/>
+      <c r="M89" s="54"/>
+      <c r="N89" s="55"/>
+      <c r="O89" s="51"/>
+      <c r="P89" s="52"/>
+      <c r="Q89" s="53"/>
+      <c r="R89" s="45"/>
+      <c r="S89" s="46"/>
+      <c r="T89" s="46"/>
+      <c r="U89" s="47"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="119"/>
-      <c r="B90" s="120"/>
-      <c r="C90" s="130"/>
-      <c r="D90" s="120"/>
-      <c r="E90" s="143"/>
-      <c r="F90" s="144"/>
-      <c r="G90" s="145"/>
-      <c r="H90" s="143"/>
-      <c r="I90" s="144"/>
-      <c r="J90" s="146"/>
-      <c r="K90" s="119"/>
-      <c r="L90" s="120"/>
-      <c r="M90" s="130"/>
-      <c r="N90" s="120"/>
-      <c r="O90" s="143"/>
-      <c r="P90" s="144"/>
-      <c r="Q90" s="145"/>
-      <c r="R90" s="152"/>
-      <c r="S90" s="153"/>
-      <c r="T90" s="153"/>
-      <c r="U90" s="154"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="57"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="55"/>
+      <c r="M90" s="54"/>
+      <c r="N90" s="55"/>
+      <c r="O90" s="51"/>
+      <c r="P90" s="52"/>
+      <c r="Q90" s="53"/>
+      <c r="R90" s="45"/>
+      <c r="S90" s="46"/>
+      <c r="T90" s="46"/>
+      <c r="U90" s="47"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="119"/>
-      <c r="B91" s="120"/>
-      <c r="C91" s="130"/>
-      <c r="D91" s="120"/>
-      <c r="E91" s="143"/>
-      <c r="F91" s="144"/>
-      <c r="G91" s="145"/>
-      <c r="H91" s="143"/>
-      <c r="I91" s="144"/>
-      <c r="J91" s="146"/>
-      <c r="K91" s="119"/>
-      <c r="L91" s="120"/>
-      <c r="M91" s="130"/>
-      <c r="N91" s="120"/>
-      <c r="O91" s="143"/>
-      <c r="P91" s="144"/>
-      <c r="Q91" s="145"/>
-      <c r="R91" s="152"/>
-      <c r="S91" s="153"/>
-      <c r="T91" s="153"/>
-      <c r="U91" s="154"/>
+      <c r="A91" s="56"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="53"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="57"/>
+      <c r="K91" s="56"/>
+      <c r="L91" s="55"/>
+      <c r="M91" s="54"/>
+      <c r="N91" s="55"/>
+      <c r="O91" s="51"/>
+      <c r="P91" s="52"/>
+      <c r="Q91" s="53"/>
+      <c r="R91" s="45"/>
+      <c r="S91" s="46"/>
+      <c r="T91" s="46"/>
+      <c r="U91" s="47"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="119"/>
-      <c r="B92" s="120"/>
-      <c r="C92" s="130"/>
-      <c r="D92" s="120"/>
-      <c r="E92" s="143"/>
-      <c r="F92" s="144"/>
-      <c r="G92" s="145"/>
-      <c r="H92" s="143"/>
-      <c r="I92" s="144"/>
-      <c r="J92" s="146"/>
-      <c r="K92" s="119"/>
-      <c r="L92" s="120"/>
-      <c r="M92" s="130"/>
-      <c r="N92" s="120"/>
-      <c r="O92" s="143"/>
-      <c r="P92" s="144"/>
-      <c r="Q92" s="145"/>
-      <c r="R92" s="152"/>
-      <c r="S92" s="153"/>
-      <c r="T92" s="153"/>
-      <c r="U92" s="154"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="55"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="53"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="52"/>
+      <c r="J92" s="57"/>
+      <c r="K92" s="56"/>
+      <c r="L92" s="55"/>
+      <c r="M92" s="54"/>
+      <c r="N92" s="55"/>
+      <c r="O92" s="51"/>
+      <c r="P92" s="52"/>
+      <c r="Q92" s="53"/>
+      <c r="R92" s="45"/>
+      <c r="S92" s="46"/>
+      <c r="T92" s="46"/>
+      <c r="U92" s="47"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="119"/>
-      <c r="B93" s="120"/>
-      <c r="C93" s="130"/>
-      <c r="D93" s="120"/>
-      <c r="E93" s="143"/>
-      <c r="F93" s="144"/>
-      <c r="G93" s="145"/>
-      <c r="H93" s="143"/>
-      <c r="I93" s="144"/>
-      <c r="J93" s="146"/>
-      <c r="K93" s="119"/>
-      <c r="L93" s="120"/>
-      <c r="M93" s="130"/>
-      <c r="N93" s="120"/>
-      <c r="O93" s="143"/>
-      <c r="P93" s="144"/>
-      <c r="Q93" s="145"/>
-      <c r="R93" s="152"/>
-      <c r="S93" s="153"/>
-      <c r="T93" s="153"/>
-      <c r="U93" s="154"/>
+      <c r="A93" s="56"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="53"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="52"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="56"/>
+      <c r="L93" s="55"/>
+      <c r="M93" s="54"/>
+      <c r="N93" s="55"/>
+      <c r="O93" s="51"/>
+      <c r="P93" s="52"/>
+      <c r="Q93" s="53"/>
+      <c r="R93" s="45"/>
+      <c r="S93" s="46"/>
+      <c r="T93" s="46"/>
+      <c r="U93" s="47"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="119"/>
-      <c r="B94" s="120"/>
-      <c r="C94" s="130"/>
-      <c r="D94" s="120"/>
-      <c r="E94" s="143"/>
-      <c r="F94" s="144"/>
-      <c r="G94" s="145"/>
-      <c r="H94" s="143"/>
-      <c r="I94" s="144"/>
-      <c r="J94" s="146"/>
-      <c r="K94" s="119"/>
-      <c r="L94" s="120"/>
-      <c r="M94" s="130"/>
-      <c r="N94" s="120"/>
-      <c r="O94" s="143"/>
-      <c r="P94" s="144"/>
-      <c r="Q94" s="145"/>
-      <c r="R94" s="152"/>
-      <c r="S94" s="153"/>
-      <c r="T94" s="153"/>
-      <c r="U94" s="154"/>
+      <c r="A94" s="56"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="52"/>
+      <c r="J94" s="57"/>
+      <c r="K94" s="56"/>
+      <c r="L94" s="55"/>
+      <c r="M94" s="54"/>
+      <c r="N94" s="55"/>
+      <c r="O94" s="51"/>
+      <c r="P94" s="52"/>
+      <c r="Q94" s="53"/>
+      <c r="R94" s="45"/>
+      <c r="S94" s="46"/>
+      <c r="T94" s="46"/>
+      <c r="U94" s="47"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="119"/>
-      <c r="B95" s="120"/>
-      <c r="C95" s="130"/>
-      <c r="D95" s="120"/>
-      <c r="E95" s="143"/>
-      <c r="F95" s="144"/>
-      <c r="G95" s="145"/>
-      <c r="H95" s="143"/>
-      <c r="I95" s="144"/>
-      <c r="J95" s="146"/>
-      <c r="K95" s="119"/>
-      <c r="L95" s="120"/>
-      <c r="M95" s="130"/>
-      <c r="N95" s="120"/>
-      <c r="O95" s="143"/>
-      <c r="P95" s="144"/>
-      <c r="Q95" s="145"/>
-      <c r="R95" s="152"/>
-      <c r="S95" s="153"/>
-      <c r="T95" s="153"/>
-      <c r="U95" s="154"/>
+      <c r="A95" s="56"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="52"/>
+      <c r="J95" s="57"/>
+      <c r="K95" s="56"/>
+      <c r="L95" s="55"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="55"/>
+      <c r="O95" s="51"/>
+      <c r="P95" s="52"/>
+      <c r="Q95" s="53"/>
+      <c r="R95" s="45"/>
+      <c r="S95" s="46"/>
+      <c r="T95" s="46"/>
+      <c r="U95" s="47"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="119"/>
-      <c r="B96" s="120"/>
-      <c r="C96" s="130"/>
-      <c r="D96" s="120"/>
-      <c r="E96" s="143"/>
-      <c r="F96" s="144"/>
-      <c r="G96" s="145"/>
-      <c r="H96" s="143"/>
-      <c r="I96" s="144"/>
-      <c r="J96" s="146"/>
-      <c r="K96" s="119"/>
-      <c r="L96" s="120"/>
-      <c r="M96" s="130"/>
-      <c r="N96" s="120"/>
-      <c r="O96" s="143"/>
-      <c r="P96" s="144"/>
-      <c r="Q96" s="145"/>
-      <c r="R96" s="152"/>
-      <c r="S96" s="153"/>
-      <c r="T96" s="153"/>
-      <c r="U96" s="154"/>
+      <c r="A96" s="56"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="52"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="56"/>
+      <c r="L96" s="55"/>
+      <c r="M96" s="54"/>
+      <c r="N96" s="55"/>
+      <c r="O96" s="51"/>
+      <c r="P96" s="52"/>
+      <c r="Q96" s="53"/>
+      <c r="R96" s="45"/>
+      <c r="S96" s="46"/>
+      <c r="T96" s="46"/>
+      <c r="U96" s="47"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="119"/>
-      <c r="B97" s="120"/>
-      <c r="C97" s="130"/>
-      <c r="D97" s="120"/>
-      <c r="E97" s="143"/>
-      <c r="F97" s="144"/>
-      <c r="G97" s="145"/>
-      <c r="H97" s="143"/>
-      <c r="I97" s="144"/>
-      <c r="J97" s="146"/>
-      <c r="K97" s="119"/>
-      <c r="L97" s="120"/>
-      <c r="M97" s="130"/>
-      <c r="N97" s="120"/>
-      <c r="O97" s="143"/>
-      <c r="P97" s="144"/>
-      <c r="Q97" s="145"/>
-      <c r="R97" s="152"/>
-      <c r="S97" s="153"/>
-      <c r="T97" s="153"/>
-      <c r="U97" s="154"/>
+      <c r="A97" s="56"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="52"/>
+      <c r="J97" s="57"/>
+      <c r="K97" s="56"/>
+      <c r="L97" s="55"/>
+      <c r="M97" s="54"/>
+      <c r="N97" s="55"/>
+      <c r="O97" s="51"/>
+      <c r="P97" s="52"/>
+      <c r="Q97" s="53"/>
+      <c r="R97" s="45"/>
+      <c r="S97" s="46"/>
+      <c r="T97" s="46"/>
+      <c r="U97" s="47"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="119"/>
-      <c r="B98" s="120"/>
-      <c r="C98" s="130"/>
-      <c r="D98" s="120"/>
-      <c r="E98" s="143"/>
-      <c r="F98" s="144"/>
-      <c r="G98" s="145"/>
-      <c r="H98" s="143"/>
-      <c r="I98" s="144"/>
-      <c r="J98" s="146"/>
-      <c r="K98" s="119"/>
-      <c r="L98" s="120"/>
-      <c r="M98" s="130"/>
-      <c r="N98" s="120"/>
-      <c r="O98" s="143"/>
-      <c r="P98" s="144"/>
-      <c r="Q98" s="145"/>
-      <c r="R98" s="152"/>
-      <c r="S98" s="153"/>
-      <c r="T98" s="153"/>
-      <c r="U98" s="154"/>
+      <c r="A98" s="56"/>
+      <c r="B98" s="55"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="53"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="57"/>
+      <c r="K98" s="56"/>
+      <c r="L98" s="55"/>
+      <c r="M98" s="54"/>
+      <c r="N98" s="55"/>
+      <c r="O98" s="51"/>
+      <c r="P98" s="52"/>
+      <c r="Q98" s="53"/>
+      <c r="R98" s="45"/>
+      <c r="S98" s="46"/>
+      <c r="T98" s="46"/>
+      <c r="U98" s="47"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="119"/>
-      <c r="B99" s="120"/>
-      <c r="C99" s="130"/>
-      <c r="D99" s="120"/>
-      <c r="E99" s="143"/>
-      <c r="F99" s="144"/>
-      <c r="G99" s="145"/>
-      <c r="H99" s="143"/>
-      <c r="I99" s="144"/>
-      <c r="J99" s="146"/>
-      <c r="K99" s="119"/>
-      <c r="L99" s="120"/>
-      <c r="M99" s="130"/>
-      <c r="N99" s="120"/>
-      <c r="O99" s="143"/>
-      <c r="P99" s="144"/>
-      <c r="Q99" s="145"/>
-      <c r="R99" s="152"/>
-      <c r="S99" s="153"/>
-      <c r="T99" s="153"/>
-      <c r="U99" s="154"/>
+      <c r="A99" s="56"/>
+      <c r="B99" s="55"/>
+      <c r="C99" s="54"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="52"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="56"/>
+      <c r="L99" s="55"/>
+      <c r="M99" s="54"/>
+      <c r="N99" s="55"/>
+      <c r="O99" s="51"/>
+      <c r="P99" s="52"/>
+      <c r="Q99" s="53"/>
+      <c r="R99" s="45"/>
+      <c r="S99" s="46"/>
+      <c r="T99" s="46"/>
+      <c r="U99" s="47"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A100" s="119"/>
-      <c r="B100" s="120"/>
-      <c r="C100" s="130"/>
-      <c r="D100" s="120"/>
-      <c r="E100" s="143"/>
-      <c r="F100" s="144"/>
-      <c r="G100" s="145"/>
-      <c r="H100" s="143"/>
-      <c r="I100" s="144"/>
-      <c r="J100" s="146"/>
-      <c r="K100" s="119"/>
-      <c r="L100" s="120"/>
-      <c r="M100" s="130"/>
-      <c r="N100" s="120"/>
-      <c r="O100" s="143"/>
-      <c r="P100" s="144"/>
-      <c r="Q100" s="145"/>
-      <c r="R100" s="152"/>
-      <c r="S100" s="153"/>
-      <c r="T100" s="153"/>
-      <c r="U100" s="154"/>
+      <c r="A100" s="56"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="53"/>
+      <c r="H100" s="51"/>
+      <c r="I100" s="52"/>
+      <c r="J100" s="57"/>
+      <c r="K100" s="56"/>
+      <c r="L100" s="55"/>
+      <c r="M100" s="54"/>
+      <c r="N100" s="55"/>
+      <c r="O100" s="51"/>
+      <c r="P100" s="52"/>
+      <c r="Q100" s="53"/>
+      <c r="R100" s="45"/>
+      <c r="S100" s="46"/>
+      <c r="T100" s="46"/>
+      <c r="U100" s="47"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="119"/>
-      <c r="B101" s="120"/>
-      <c r="C101" s="130"/>
-      <c r="D101" s="120"/>
-      <c r="E101" s="143"/>
-      <c r="F101" s="144"/>
-      <c r="G101" s="145"/>
-      <c r="H101" s="143"/>
-      <c r="I101" s="144"/>
-      <c r="J101" s="146"/>
-      <c r="K101" s="119"/>
-      <c r="L101" s="120"/>
-      <c r="M101" s="130"/>
-      <c r="N101" s="120"/>
-      <c r="O101" s="143"/>
-      <c r="P101" s="144"/>
-      <c r="Q101" s="145"/>
-      <c r="R101" s="152"/>
-      <c r="S101" s="153"/>
-      <c r="T101" s="153"/>
-      <c r="U101" s="154"/>
+      <c r="A101" s="56"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="53"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="52"/>
+      <c r="J101" s="57"/>
+      <c r="K101" s="56"/>
+      <c r="L101" s="55"/>
+      <c r="M101" s="54"/>
+      <c r="N101" s="55"/>
+      <c r="O101" s="51"/>
+      <c r="P101" s="52"/>
+      <c r="Q101" s="53"/>
+      <c r="R101" s="45"/>
+      <c r="S101" s="46"/>
+      <c r="T101" s="46"/>
+      <c r="U101" s="47"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="119"/>
-      <c r="B102" s="120"/>
-      <c r="C102" s="130"/>
-      <c r="D102" s="120"/>
-      <c r="E102" s="143"/>
-      <c r="F102" s="144"/>
-      <c r="G102" s="145"/>
-      <c r="H102" s="143"/>
-      <c r="I102" s="144"/>
-      <c r="J102" s="146"/>
-      <c r="K102" s="119"/>
-      <c r="L102" s="120"/>
-      <c r="M102" s="130"/>
-      <c r="N102" s="120"/>
-      <c r="O102" s="143"/>
-      <c r="P102" s="144"/>
-      <c r="Q102" s="145"/>
-      <c r="R102" s="152"/>
-      <c r="S102" s="153"/>
-      <c r="T102" s="153"/>
-      <c r="U102" s="154"/>
+      <c r="A102" s="56"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="53"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="52"/>
+      <c r="J102" s="57"/>
+      <c r="K102" s="56"/>
+      <c r="L102" s="55"/>
+      <c r="M102" s="54"/>
+      <c r="N102" s="55"/>
+      <c r="O102" s="51"/>
+      <c r="P102" s="52"/>
+      <c r="Q102" s="53"/>
+      <c r="R102" s="45"/>
+      <c r="S102" s="46"/>
+      <c r="T102" s="46"/>
+      <c r="U102" s="47"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="119"/>
-      <c r="B103" s="120"/>
-      <c r="C103" s="130"/>
-      <c r="D103" s="120"/>
-      <c r="E103" s="143"/>
-      <c r="F103" s="144"/>
-      <c r="G103" s="145"/>
-      <c r="H103" s="143"/>
-      <c r="I103" s="144"/>
-      <c r="J103" s="146"/>
-      <c r="K103" s="119"/>
-      <c r="L103" s="120"/>
-      <c r="M103" s="130"/>
-      <c r="N103" s="120"/>
-      <c r="O103" s="143"/>
-      <c r="P103" s="144"/>
-      <c r="Q103" s="145"/>
-      <c r="R103" s="152"/>
-      <c r="S103" s="153"/>
-      <c r="T103" s="153"/>
-      <c r="U103" s="154"/>
+      <c r="A103" s="56"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="55"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="52"/>
+      <c r="J103" s="57"/>
+      <c r="K103" s="56"/>
+      <c r="L103" s="55"/>
+      <c r="M103" s="54"/>
+      <c r="N103" s="55"/>
+      <c r="O103" s="51"/>
+      <c r="P103" s="52"/>
+      <c r="Q103" s="53"/>
+      <c r="R103" s="45"/>
+      <c r="S103" s="46"/>
+      <c r="T103" s="46"/>
+      <c r="U103" s="47"/>
     </row>
     <row r="104" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="157"/>
-      <c r="B104" s="148"/>
-      <c r="C104" s="147"/>
-      <c r="D104" s="148"/>
-      <c r="E104" s="149"/>
-      <c r="F104" s="150"/>
-      <c r="G104" s="151"/>
-      <c r="H104" s="149"/>
-      <c r="I104" s="150"/>
-      <c r="J104" s="158"/>
-      <c r="K104" s="157"/>
-      <c r="L104" s="148"/>
-      <c r="M104" s="147"/>
-      <c r="N104" s="148"/>
-      <c r="O104" s="149"/>
-      <c r="P104" s="150"/>
-      <c r="Q104" s="151"/>
-      <c r="R104" s="159"/>
-      <c r="S104" s="160"/>
-      <c r="T104" s="160"/>
-      <c r="U104" s="161"/>
+      <c r="A104" s="38"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="44"/>
+      <c r="K104" s="38"/>
+      <c r="L104" s="39"/>
+      <c r="M104" s="40"/>
+      <c r="N104" s="39"/>
+      <c r="O104" s="41"/>
+      <c r="P104" s="42"/>
+      <c r="Q104" s="43"/>
+      <c r="R104" s="48"/>
+      <c r="S104" s="49"/>
+      <c r="T104" s="49"/>
+      <c r="U104" s="50"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
@@ -3333,300 +3340,300 @@
       <c r="U105" s="10"/>
     </row>
     <row r="106" spans="1:21" s="3" customFormat="1" ht="152.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="131" t="s">
+      <c r="A106" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B106" s="131"/>
-      <c r="C106" s="131"/>
-      <c r="D106" s="131"/>
-      <c r="E106" s="131"/>
-      <c r="F106" s="131"/>
-      <c r="G106" s="131"/>
-      <c r="H106" s="131"/>
-      <c r="I106" s="131"/>
-      <c r="J106" s="131"/>
-      <c r="K106" s="131"/>
-      <c r="L106" s="131"/>
-      <c r="M106" s="131"/>
-      <c r="N106" s="131"/>
-      <c r="O106" s="131"/>
-      <c r="P106" s="131"/>
-      <c r="Q106" s="131"/>
-      <c r="R106" s="131"/>
-      <c r="S106" s="131"/>
-      <c r="T106" s="131"/>
-      <c r="U106" s="131"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="77"/>
+      <c r="J106" s="77"/>
+      <c r="K106" s="77"/>
+      <c r="L106" s="77"/>
+      <c r="M106" s="77"/>
+      <c r="N106" s="77"/>
+      <c r="O106" s="77"/>
+      <c r="P106" s="77"/>
+      <c r="Q106" s="77"/>
+      <c r="R106" s="77"/>
+      <c r="S106" s="77"/>
+      <c r="T106" s="77"/>
+      <c r="U106" s="77"/>
     </row>
     <row r="107" spans="1:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="A107" s="108" t="s">
+      <c r="A107" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B107" s="108"/>
-      <c r="C107" s="108"/>
-      <c r="D107" s="108"/>
-      <c r="E107" s="108"/>
-      <c r="F107" s="108"/>
-      <c r="G107" s="108"/>
-      <c r="H107" s="108"/>
-      <c r="I107" s="108"/>
-      <c r="J107" s="108"/>
-      <c r="K107" s="108"/>
-      <c r="L107" s="108"/>
-      <c r="M107" s="108"/>
-      <c r="N107" s="108"/>
-      <c r="O107" s="108"/>
-      <c r="P107" s="108"/>
-      <c r="Q107" s="108"/>
-      <c r="R107" s="108"/>
-      <c r="S107" s="108"/>
-      <c r="T107" s="108"/>
-      <c r="U107" s="108"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="59"/>
+      <c r="K107" s="59"/>
+      <c r="L107" s="59"/>
+      <c r="M107" s="59"/>
+      <c r="N107" s="59"/>
+      <c r="O107" s="59"/>
+      <c r="P107" s="59"/>
+      <c r="Q107" s="59"/>
+      <c r="R107" s="59"/>
+      <c r="S107" s="59"/>
+      <c r="T107" s="59"/>
+      <c r="U107" s="59"/>
     </row>
     <row r="108" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="132" t="s">
+      <c r="A109" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B109" s="133"/>
-      <c r="C109" s="133"/>
-      <c r="D109" s="133"/>
-      <c r="E109" s="133"/>
-      <c r="F109" s="133"/>
-      <c r="G109" s="133"/>
-      <c r="H109" s="133"/>
-      <c r="I109" s="133"/>
-      <c r="J109" s="133"/>
-      <c r="K109" s="133"/>
-      <c r="L109" s="133"/>
-      <c r="M109" s="133"/>
-      <c r="N109" s="133"/>
-      <c r="O109" s="133"/>
-      <c r="P109" s="133"/>
-      <c r="Q109" s="133"/>
-      <c r="R109" s="133"/>
-      <c r="S109" s="133"/>
-      <c r="T109" s="133"/>
-      <c r="U109" s="134"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="61"/>
+      <c r="D109" s="61"/>
+      <c r="E109" s="61"/>
+      <c r="F109" s="61"/>
+      <c r="G109" s="61"/>
+      <c r="H109" s="61"/>
+      <c r="I109" s="61"/>
+      <c r="J109" s="61"/>
+      <c r="K109" s="61"/>
+      <c r="L109" s="61"/>
+      <c r="M109" s="61"/>
+      <c r="N109" s="61"/>
+      <c r="O109" s="61"/>
+      <c r="P109" s="61"/>
+      <c r="Q109" s="61"/>
+      <c r="R109" s="61"/>
+      <c r="S109" s="61"/>
+      <c r="T109" s="61"/>
+      <c r="U109" s="62"/>
     </row>
     <row r="110" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="138"/>
-      <c r="B110" s="139"/>
-      <c r="C110" s="139"/>
-      <c r="D110" s="139"/>
-      <c r="E110" s="139"/>
-      <c r="F110" s="139"/>
-      <c r="G110" s="139"/>
-      <c r="H110" s="139"/>
-      <c r="I110" s="139"/>
-      <c r="J110" s="139"/>
-      <c r="K110" s="139"/>
-      <c r="L110" s="139"/>
-      <c r="M110" s="139"/>
-      <c r="N110" s="139"/>
-      <c r="O110" s="139"/>
-      <c r="P110" s="139"/>
-      <c r="Q110" s="139"/>
-      <c r="R110" s="139"/>
-      <c r="S110" s="139"/>
-      <c r="T110" s="139"/>
-      <c r="U110" s="140"/>
+      <c r="A110" s="66"/>
+      <c r="B110" s="67"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
+      <c r="G110" s="67"/>
+      <c r="H110" s="67"/>
+      <c r="I110" s="67"/>
+      <c r="J110" s="67"/>
+      <c r="K110" s="67"/>
+      <c r="L110" s="67"/>
+      <c r="M110" s="67"/>
+      <c r="N110" s="67"/>
+      <c r="O110" s="67"/>
+      <c r="P110" s="67"/>
+      <c r="Q110" s="67"/>
+      <c r="R110" s="67"/>
+      <c r="S110" s="67"/>
+      <c r="T110" s="67"/>
+      <c r="U110" s="68"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="132" t="s">
+      <c r="A111" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B111" s="133"/>
-      <c r="C111" s="133"/>
-      <c r="D111" s="133"/>
-      <c r="E111" s="133"/>
-      <c r="F111" s="133"/>
-      <c r="G111" s="133"/>
-      <c r="H111" s="133"/>
-      <c r="I111" s="133"/>
-      <c r="J111" s="133"/>
-      <c r="K111" s="133"/>
-      <c r="L111" s="133"/>
-      <c r="M111" s="133"/>
-      <c r="N111" s="133"/>
-      <c r="O111" s="133"/>
-      <c r="P111" s="133"/>
-      <c r="Q111" s="133"/>
-      <c r="R111" s="133"/>
-      <c r="S111" s="133"/>
-      <c r="T111" s="133"/>
-      <c r="U111" s="134"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="61"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="61"/>
+      <c r="F111" s="61"/>
+      <c r="G111" s="61"/>
+      <c r="H111" s="61"/>
+      <c r="I111" s="61"/>
+      <c r="J111" s="61"/>
+      <c r="K111" s="61"/>
+      <c r="L111" s="61"/>
+      <c r="M111" s="61"/>
+      <c r="N111" s="61"/>
+      <c r="O111" s="61"/>
+      <c r="P111" s="61"/>
+      <c r="Q111" s="61"/>
+      <c r="R111" s="61"/>
+      <c r="S111" s="61"/>
+      <c r="T111" s="61"/>
+      <c r="U111" s="62"/>
     </row>
     <row r="112" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="135"/>
-      <c r="B112" s="136"/>
-      <c r="C112" s="136"/>
-      <c r="D112" s="136"/>
-      <c r="E112" s="136"/>
-      <c r="F112" s="136"/>
-      <c r="G112" s="136"/>
-      <c r="H112" s="136"/>
-      <c r="I112" s="136"/>
-      <c r="J112" s="136"/>
-      <c r="K112" s="136"/>
-      <c r="L112" s="136"/>
-      <c r="M112" s="136"/>
-      <c r="N112" s="136"/>
-      <c r="O112" s="136"/>
-      <c r="P112" s="136"/>
-      <c r="Q112" s="136"/>
-      <c r="R112" s="136"/>
-      <c r="S112" s="136"/>
-      <c r="T112" s="136"/>
-      <c r="U112" s="137"/>
+      <c r="A112" s="63"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="64"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="64"/>
+      <c r="H112" s="64"/>
+      <c r="I112" s="64"/>
+      <c r="J112" s="64"/>
+      <c r="K112" s="64"/>
+      <c r="L112" s="64"/>
+      <c r="M112" s="64"/>
+      <c r="N112" s="64"/>
+      <c r="O112" s="64"/>
+      <c r="P112" s="64"/>
+      <c r="Q112" s="64"/>
+      <c r="R112" s="64"/>
+      <c r="S112" s="64"/>
+      <c r="T112" s="64"/>
+      <c r="U112" s="65"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="132" t="s">
+      <c r="A113" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B113" s="133"/>
-      <c r="C113" s="133"/>
-      <c r="D113" s="133"/>
-      <c r="E113" s="133"/>
-      <c r="F113" s="133"/>
-      <c r="G113" s="133"/>
-      <c r="H113" s="133"/>
-      <c r="I113" s="133"/>
-      <c r="J113" s="133"/>
-      <c r="K113" s="133"/>
-      <c r="L113" s="133"/>
-      <c r="M113" s="133"/>
-      <c r="N113" s="133"/>
-      <c r="O113" s="133"/>
-      <c r="P113" s="133"/>
-      <c r="Q113" s="133"/>
-      <c r="R113" s="133"/>
-      <c r="S113" s="133"/>
-      <c r="T113" s="133"/>
-      <c r="U113" s="134"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="61"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="61"/>
+      <c r="H113" s="61"/>
+      <c r="I113" s="61"/>
+      <c r="J113" s="61"/>
+      <c r="K113" s="61"/>
+      <c r="L113" s="61"/>
+      <c r="M113" s="61"/>
+      <c r="N113" s="61"/>
+      <c r="O113" s="61"/>
+      <c r="P113" s="61"/>
+      <c r="Q113" s="61"/>
+      <c r="R113" s="61"/>
+      <c r="S113" s="61"/>
+      <c r="T113" s="61"/>
+      <c r="U113" s="62"/>
     </row>
     <row r="114" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="135"/>
-      <c r="B114" s="136"/>
-      <c r="C114" s="136"/>
-      <c r="D114" s="136"/>
-      <c r="E114" s="136"/>
-      <c r="F114" s="136"/>
-      <c r="G114" s="136"/>
-      <c r="H114" s="136"/>
-      <c r="I114" s="136"/>
-      <c r="J114" s="136"/>
-      <c r="K114" s="136"/>
-      <c r="L114" s="136"/>
-      <c r="M114" s="136"/>
-      <c r="N114" s="136"/>
-      <c r="O114" s="136"/>
-      <c r="P114" s="136"/>
-      <c r="Q114" s="136"/>
-      <c r="R114" s="136"/>
-      <c r="S114" s="136"/>
-      <c r="T114" s="136"/>
-      <c r="U114" s="137"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="64"/>
+      <c r="D114" s="64"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="64"/>
+      <c r="H114" s="64"/>
+      <c r="I114" s="64"/>
+      <c r="J114" s="64"/>
+      <c r="K114" s="64"/>
+      <c r="L114" s="64"/>
+      <c r="M114" s="64"/>
+      <c r="N114" s="64"/>
+      <c r="O114" s="64"/>
+      <c r="P114" s="64"/>
+      <c r="Q114" s="64"/>
+      <c r="R114" s="64"/>
+      <c r="S114" s="64"/>
+      <c r="T114" s="64"/>
+      <c r="U114" s="65"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="132" t="s">
+      <c r="A115" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="B115" s="133"/>
-      <c r="C115" s="133"/>
-      <c r="D115" s="133"/>
-      <c r="E115" s="133"/>
-      <c r="F115" s="133"/>
-      <c r="G115" s="133"/>
-      <c r="H115" s="133"/>
-      <c r="I115" s="133"/>
-      <c r="J115" s="133"/>
-      <c r="K115" s="133"/>
-      <c r="L115" s="133"/>
-      <c r="M115" s="133"/>
-      <c r="N115" s="133"/>
-      <c r="O115" s="133"/>
-      <c r="P115" s="133"/>
-      <c r="Q115" s="133"/>
-      <c r="R115" s="133"/>
-      <c r="S115" s="133"/>
-      <c r="T115" s="133"/>
-      <c r="U115" s="134"/>
+      <c r="B115" s="61"/>
+      <c r="C115" s="61"/>
+      <c r="D115" s="61"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="61"/>
+      <c r="G115" s="61"/>
+      <c r="H115" s="61"/>
+      <c r="I115" s="61"/>
+      <c r="J115" s="61"/>
+      <c r="K115" s="61"/>
+      <c r="L115" s="61"/>
+      <c r="M115" s="61"/>
+      <c r="N115" s="61"/>
+      <c r="O115" s="61"/>
+      <c r="P115" s="61"/>
+      <c r="Q115" s="61"/>
+      <c r="R115" s="61"/>
+      <c r="S115" s="61"/>
+      <c r="T115" s="61"/>
+      <c r="U115" s="62"/>
     </row>
     <row r="116" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="135"/>
-      <c r="B116" s="136"/>
-      <c r="C116" s="136"/>
-      <c r="D116" s="136"/>
-      <c r="E116" s="136"/>
-      <c r="F116" s="136"/>
-      <c r="G116" s="136"/>
-      <c r="H116" s="136"/>
-      <c r="I116" s="136"/>
-      <c r="J116" s="136"/>
-      <c r="K116" s="136"/>
-      <c r="L116" s="136"/>
-      <c r="M116" s="136"/>
-      <c r="N116" s="136"/>
-      <c r="O116" s="136"/>
-      <c r="P116" s="136"/>
-      <c r="Q116" s="136"/>
-      <c r="R116" s="136"/>
-      <c r="S116" s="136"/>
-      <c r="T116" s="136"/>
-      <c r="U116" s="137"/>
+      <c r="A116" s="63"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="64"/>
+      <c r="D116" s="64"/>
+      <c r="E116" s="64"/>
+      <c r="F116" s="64"/>
+      <c r="G116" s="64"/>
+      <c r="H116" s="64"/>
+      <c r="I116" s="64"/>
+      <c r="J116" s="64"/>
+      <c r="K116" s="64"/>
+      <c r="L116" s="64"/>
+      <c r="M116" s="64"/>
+      <c r="N116" s="64"/>
+      <c r="O116" s="64"/>
+      <c r="P116" s="64"/>
+      <c r="Q116" s="64"/>
+      <c r="R116" s="64"/>
+      <c r="S116" s="64"/>
+      <c r="T116" s="64"/>
+      <c r="U116" s="65"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="132" t="s">
+      <c r="A117" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B117" s="133"/>
-      <c r="C117" s="133"/>
-      <c r="D117" s="133"/>
-      <c r="E117" s="133"/>
-      <c r="F117" s="133"/>
-      <c r="G117" s="133"/>
-      <c r="H117" s="133"/>
-      <c r="I117" s="133"/>
-      <c r="J117" s="133"/>
-      <c r="K117" s="133"/>
-      <c r="L117" s="133"/>
-      <c r="M117" s="133"/>
-      <c r="N117" s="133"/>
-      <c r="O117" s="133"/>
-      <c r="P117" s="133"/>
-      <c r="Q117" s="133"/>
-      <c r="R117" s="133"/>
-      <c r="S117" s="133"/>
-      <c r="T117" s="133"/>
-      <c r="U117" s="134"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="61"/>
+      <c r="D117" s="61"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="61"/>
+      <c r="G117" s="61"/>
+      <c r="H117" s="61"/>
+      <c r="I117" s="61"/>
+      <c r="J117" s="61"/>
+      <c r="K117" s="61"/>
+      <c r="L117" s="61"/>
+      <c r="M117" s="61"/>
+      <c r="N117" s="61"/>
+      <c r="O117" s="61"/>
+      <c r="P117" s="61"/>
+      <c r="Q117" s="61"/>
+      <c r="R117" s="61"/>
+      <c r="S117" s="61"/>
+      <c r="T117" s="61"/>
+      <c r="U117" s="62"/>
     </row>
     <row r="118" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="135"/>
-      <c r="B118" s="136"/>
-      <c r="C118" s="136"/>
-      <c r="D118" s="136"/>
-      <c r="E118" s="136"/>
-      <c r="F118" s="136"/>
-      <c r="G118" s="136"/>
-      <c r="H118" s="136"/>
-      <c r="I118" s="136"/>
-      <c r="J118" s="136"/>
-      <c r="K118" s="136"/>
-      <c r="L118" s="136"/>
-      <c r="M118" s="136"/>
-      <c r="N118" s="136"/>
-      <c r="O118" s="136"/>
-      <c r="P118" s="136"/>
-      <c r="Q118" s="136"/>
-      <c r="R118" s="136"/>
-      <c r="S118" s="136"/>
-      <c r="T118" s="136"/>
-      <c r="U118" s="137"/>
+      <c r="A118" s="63"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="64"/>
+      <c r="H118" s="64"/>
+      <c r="I118" s="64"/>
+      <c r="J118" s="64"/>
+      <c r="K118" s="64"/>
+      <c r="L118" s="64"/>
+      <c r="M118" s="64"/>
+      <c r="N118" s="64"/>
+      <c r="O118" s="64"/>
+      <c r="P118" s="64"/>
+      <c r="Q118" s="64"/>
+      <c r="R118" s="64"/>
+      <c r="S118" s="64"/>
+      <c r="T118" s="64"/>
+      <c r="U118" s="65"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A120" s="28" t="s">
+      <c r="A120" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B120"/>
@@ -3638,29 +3645,29 @@
       <c r="C121"/>
     </row>
     <row r="122" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="102" t="s">
+      <c r="A122" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B122" s="102"/>
-      <c r="C122" s="102"/>
-      <c r="D122" s="102"/>
-      <c r="E122" s="102"/>
-      <c r="F122" s="102"/>
-      <c r="G122" s="102"/>
-      <c r="H122" s="102"/>
-      <c r="I122" s="102"/>
-      <c r="J122" s="102"/>
-      <c r="K122" s="102"/>
-      <c r="L122" s="102"/>
-      <c r="M122" s="102"/>
-      <c r="N122" s="102"/>
-      <c r="O122" s="102"/>
-      <c r="P122" s="102"/>
-      <c r="Q122" s="102"/>
-      <c r="R122" s="102"/>
-      <c r="S122" s="102"/>
-      <c r="T122" s="102"/>
-      <c r="U122" s="102"/>
+      <c r="B122" s="76"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="76"/>
+      <c r="E122" s="76"/>
+      <c r="F122" s="76"/>
+      <c r="G122" s="76"/>
+      <c r="H122" s="76"/>
+      <c r="I122" s="76"/>
+      <c r="J122" s="76"/>
+      <c r="K122" s="76"/>
+      <c r="L122" s="76"/>
+      <c r="M122" s="76"/>
+      <c r="N122" s="76"/>
+      <c r="O122" s="76"/>
+      <c r="P122" s="76"/>
+      <c r="Q122" s="76"/>
+      <c r="R122" s="76"/>
+      <c r="S122" s="76"/>
+      <c r="T122" s="76"/>
+      <c r="U122" s="76"/>
     </row>
     <row r="123" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
@@ -3680,24 +3687,24 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="102" t="s">
+      <c r="F125" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="G125" s="102"/>
-      <c r="H125" s="102"/>
-      <c r="I125" s="102"/>
-      <c r="J125" s="102"/>
-      <c r="K125" s="102"/>
-      <c r="L125" s="102"/>
-      <c r="M125" s="102"/>
-      <c r="N125" s="102"/>
-      <c r="O125" s="102"/>
-      <c r="P125" s="102"/>
-      <c r="Q125" s="102"/>
-      <c r="R125" s="102"/>
-      <c r="S125" s="102"/>
-      <c r="T125" s="102"/>
-      <c r="U125" s="102"/>
+      <c r="G125" s="76"/>
+      <c r="H125" s="76"/>
+      <c r="I125" s="76"/>
+      <c r="J125" s="76"/>
+      <c r="K125" s="76"/>
+      <c r="L125" s="76"/>
+      <c r="M125" s="76"/>
+      <c r="N125" s="76"/>
+      <c r="O125" s="76"/>
+      <c r="P125" s="76"/>
+      <c r="Q125" s="76"/>
+      <c r="R125" s="76"/>
+      <c r="S125" s="76"/>
+      <c r="T125" s="76"/>
+      <c r="U125" s="76"/>
     </row>
     <row r="126" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
@@ -3705,24 +3712,24 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="102" t="s">
+      <c r="F126" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="G126" s="102"/>
-      <c r="H126" s="102"/>
-      <c r="I126" s="102"/>
-      <c r="J126" s="102"/>
-      <c r="K126" s="102"/>
-      <c r="L126" s="102"/>
-      <c r="M126" s="102"/>
-      <c r="N126" s="102"/>
-      <c r="O126" s="102"/>
-      <c r="P126" s="102"/>
-      <c r="Q126" s="102"/>
-      <c r="R126" s="102"/>
-      <c r="S126" s="102"/>
-      <c r="T126" s="102"/>
-      <c r="U126" s="102"/>
+      <c r="G126" s="76"/>
+      <c r="H126" s="76"/>
+      <c r="I126" s="76"/>
+      <c r="J126" s="76"/>
+      <c r="K126" s="76"/>
+      <c r="L126" s="76"/>
+      <c r="M126" s="76"/>
+      <c r="N126" s="76"/>
+      <c r="O126" s="76"/>
+      <c r="P126" s="76"/>
+      <c r="Q126" s="76"/>
+      <c r="R126" s="76"/>
+      <c r="S126" s="76"/>
+      <c r="T126" s="76"/>
+      <c r="U126" s="76"/>
     </row>
     <row r="127" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
@@ -3731,24 +3738,24 @@
       <c r="B127"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
-      <c r="F127" s="102" t="s">
+      <c r="F127" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="G127" s="102"/>
-      <c r="H127" s="102"/>
-      <c r="I127" s="102"/>
-      <c r="J127" s="102"/>
-      <c r="K127" s="102"/>
-      <c r="L127" s="102"/>
-      <c r="M127" s="102"/>
-      <c r="N127" s="102"/>
-      <c r="O127" s="102"/>
-      <c r="P127" s="102"/>
-      <c r="Q127" s="102"/>
-      <c r="R127" s="102"/>
-      <c r="S127" s="102"/>
-      <c r="T127" s="102"/>
-      <c r="U127" s="102"/>
+      <c r="G127" s="76"/>
+      <c r="H127" s="76"/>
+      <c r="I127" s="76"/>
+      <c r="J127" s="76"/>
+      <c r="K127" s="76"/>
+      <c r="L127" s="76"/>
+      <c r="M127" s="76"/>
+      <c r="N127" s="76"/>
+      <c r="O127" s="76"/>
+      <c r="P127" s="76"/>
+      <c r="Q127" s="76"/>
+      <c r="R127" s="76"/>
+      <c r="S127" s="76"/>
+      <c r="T127" s="76"/>
+      <c r="U127" s="76"/>
     </row>
     <row r="128" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
@@ -3757,24 +3764,24 @@
       <c r="B128"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="102" t="s">
+      <c r="F128" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="G128" s="102"/>
-      <c r="H128" s="102"/>
-      <c r="I128" s="102"/>
-      <c r="J128" s="102"/>
-      <c r="K128" s="102"/>
-      <c r="L128" s="102"/>
-      <c r="M128" s="102"/>
-      <c r="N128" s="102"/>
-      <c r="O128" s="102"/>
-      <c r="P128" s="102"/>
-      <c r="Q128" s="102"/>
-      <c r="R128" s="102"/>
-      <c r="S128" s="102"/>
-      <c r="T128" s="102"/>
-      <c r="U128" s="102"/>
+      <c r="G128" s="76"/>
+      <c r="H128" s="76"/>
+      <c r="I128" s="76"/>
+      <c r="J128" s="76"/>
+      <c r="K128" s="76"/>
+      <c r="L128" s="76"/>
+      <c r="M128" s="76"/>
+      <c r="N128" s="76"/>
+      <c r="O128" s="76"/>
+      <c r="P128" s="76"/>
+      <c r="Q128" s="76"/>
+      <c r="R128" s="76"/>
+      <c r="S128" s="76"/>
+      <c r="T128" s="76"/>
+      <c r="U128" s="76"/>
     </row>
     <row r="129" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
@@ -3783,24 +3790,24 @@
       <c r="B129"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="102" t="s">
+      <c r="F129" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="G129" s="102"/>
-      <c r="H129" s="102"/>
-      <c r="I129" s="102"/>
-      <c r="J129" s="102"/>
-      <c r="K129" s="102"/>
-      <c r="L129" s="102"/>
-      <c r="M129" s="102"/>
-      <c r="N129" s="102"/>
-      <c r="O129" s="102"/>
-      <c r="P129" s="102"/>
-      <c r="Q129" s="102"/>
-      <c r="R129" s="102"/>
-      <c r="S129" s="102"/>
-      <c r="T129" s="102"/>
-      <c r="U129" s="102"/>
+      <c r="G129" s="76"/>
+      <c r="H129" s="76"/>
+      <c r="I129" s="76"/>
+      <c r="J129" s="76"/>
+      <c r="K129" s="76"/>
+      <c r="L129" s="76"/>
+      <c r="M129" s="76"/>
+      <c r="N129" s="76"/>
+      <c r="O129" s="76"/>
+      <c r="P129" s="76"/>
+      <c r="Q129" s="76"/>
+      <c r="R129" s="76"/>
+      <c r="S129" s="76"/>
+      <c r="T129" s="76"/>
+      <c r="U129" s="76"/>
     </row>
     <row r="130" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
@@ -3809,24 +3816,24 @@
       <c r="B130"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="102" t="s">
+      <c r="F130" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="G130" s="102"/>
-      <c r="H130" s="102"/>
-      <c r="I130" s="102"/>
-      <c r="J130" s="102"/>
-      <c r="K130" s="102"/>
-      <c r="L130" s="102"/>
-      <c r="M130" s="102"/>
-      <c r="N130" s="102"/>
-      <c r="O130" s="102"/>
-      <c r="P130" s="102"/>
-      <c r="Q130" s="102"/>
-      <c r="R130" s="102"/>
-      <c r="S130" s="102"/>
-      <c r="T130" s="102"/>
-      <c r="U130" s="102"/>
+      <c r="G130" s="76"/>
+      <c r="H130" s="76"/>
+      <c r="I130" s="76"/>
+      <c r="J130" s="76"/>
+      <c r="K130" s="76"/>
+      <c r="L130" s="76"/>
+      <c r="M130" s="76"/>
+      <c r="N130" s="76"/>
+      <c r="O130" s="76"/>
+      <c r="P130" s="76"/>
+      <c r="Q130" s="76"/>
+      <c r="R130" s="76"/>
+      <c r="S130" s="76"/>
+      <c r="T130" s="76"/>
+      <c r="U130" s="76"/>
     </row>
     <row r="131" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
@@ -3834,104 +3841,104 @@
       <c r="C131"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="67" t="s">
+      <c r="A132" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="B132" s="68"/>
-      <c r="C132" s="68"/>
-      <c r="D132" s="69"/>
-      <c r="E132" s="54" t="s">
+      <c r="B132" s="106"/>
+      <c r="C132" s="106"/>
+      <c r="D132" s="107"/>
+      <c r="E132" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="F132" s="52"/>
-      <c r="G132" s="55"/>
-      <c r="H132" s="51" t="s">
+      <c r="F132" s="72"/>
+      <c r="G132" s="73"/>
+      <c r="H132" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="I132" s="52"/>
-      <c r="J132" s="53"/>
-      <c r="K132" s="54" t="s">
+      <c r="I132" s="72"/>
+      <c r="J132" s="75"/>
+      <c r="K132" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="L132" s="52"/>
-      <c r="M132" s="55"/>
-      <c r="N132" s="51" t="s">
+      <c r="L132" s="72"/>
+      <c r="M132" s="73"/>
+      <c r="N132" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="O132" s="52"/>
-      <c r="P132" s="53"/>
-      <c r="Q132" s="54" t="s">
+      <c r="O132" s="72"/>
+      <c r="P132" s="75"/>
+      <c r="Q132" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="R132" s="52"/>
-      <c r="S132" s="55"/>
-      <c r="T132" s="51" t="s">
+      <c r="R132" s="72"/>
+      <c r="S132" s="73"/>
+      <c r="T132" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="U132" s="55"/>
+      <c r="U132" s="73"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="70"/>
-      <c r="B133" s="71"/>
-      <c r="C133" s="71"/>
-      <c r="D133" s="72"/>
-      <c r="E133" s="29">
+      <c r="A133" s="108"/>
+      <c r="B133" s="109"/>
+      <c r="C133" s="109"/>
+      <c r="D133" s="110"/>
+      <c r="E133" s="26">
         <v>15</v>
       </c>
-      <c r="F133" s="30">
+      <c r="F133" s="27">
         <v>14</v>
       </c>
-      <c r="G133" s="31">
+      <c r="G133" s="28">
         <v>13</v>
       </c>
-      <c r="H133" s="32">
+      <c r="H133" s="29">
         <v>12</v>
       </c>
-      <c r="I133" s="30">
+      <c r="I133" s="27">
         <v>11</v>
       </c>
-      <c r="J133" s="33">
+      <c r="J133" s="30">
         <v>10</v>
       </c>
-      <c r="K133" s="29">
+      <c r="K133" s="26">
         <v>9</v>
       </c>
-      <c r="L133" s="30">
+      <c r="L133" s="27">
         <v>8</v>
       </c>
-      <c r="M133" s="31">
+      <c r="M133" s="28">
         <v>7</v>
       </c>
-      <c r="N133" s="32">
+      <c r="N133" s="29">
         <v>6</v>
       </c>
-      <c r="O133" s="30">
+      <c r="O133" s="27">
         <v>5</v>
       </c>
-      <c r="P133" s="33">
+      <c r="P133" s="30">
         <v>4</v>
       </c>
-      <c r="Q133" s="29">
+      <c r="Q133" s="26">
         <v>3</v>
       </c>
-      <c r="R133" s="30">
+      <c r="R133" s="27">
         <v>2</v>
       </c>
-      <c r="S133" s="31">
+      <c r="S133" s="28">
         <v>1</v>
       </c>
-      <c r="T133" s="56">
+      <c r="T133" s="111">
         <v>0</v>
       </c>
-      <c r="U133" s="57"/>
+      <c r="U133" s="112"/>
     </row>
     <row r="134" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="58" t="s">
+      <c r="A134" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="B134" s="59"/>
-      <c r="C134" s="59"/>
-      <c r="D134" s="60"/>
+      <c r="B134" s="114"/>
+      <c r="C134" s="114"/>
+      <c r="D134" s="115"/>
       <c r="E134" s="12"/>
       <c r="F134" s="13"/>
       <c r="G134" s="14"/>
@@ -3951,12 +3958,12 @@
       <c r="U134" s="14"/>
     </row>
     <row r="135" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="48" t="s">
+      <c r="A135" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="B135" s="49"/>
-      <c r="C135" s="49"/>
-      <c r="D135" s="50"/>
+      <c r="B135" s="120"/>
+      <c r="C135" s="120"/>
+      <c r="D135" s="121"/>
       <c r="E135" s="12"/>
       <c r="F135" s="13"/>
       <c r="G135" s="14"/>
@@ -3976,12 +3983,12 @@
       <c r="U135" s="14"/>
     </row>
     <row r="136" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="64" t="s">
+      <c r="A136" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="B136" s="65"/>
-      <c r="C136" s="65"/>
-      <c r="D136" s="66"/>
+      <c r="B136" s="117"/>
+      <c r="C136" s="117"/>
+      <c r="D136" s="118"/>
       <c r="E136" s="17"/>
       <c r="F136" s="18"/>
       <c r="G136" s="19"/>
@@ -4002,104 +4009,104 @@
     </row>
     <row r="137" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="67" t="s">
+      <c r="A138" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="B138" s="68"/>
-      <c r="C138" s="68"/>
-      <c r="D138" s="69"/>
-      <c r="E138" s="54" t="s">
+      <c r="B138" s="106"/>
+      <c r="C138" s="106"/>
+      <c r="D138" s="107"/>
+      <c r="E138" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="F138" s="52"/>
-      <c r="G138" s="55"/>
-      <c r="H138" s="51" t="s">
+      <c r="F138" s="72"/>
+      <c r="G138" s="73"/>
+      <c r="H138" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="I138" s="52"/>
-      <c r="J138" s="53"/>
-      <c r="K138" s="54" t="s">
+      <c r="I138" s="72"/>
+      <c r="J138" s="75"/>
+      <c r="K138" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="L138" s="52"/>
-      <c r="M138" s="55"/>
-      <c r="N138" s="51" t="s">
+      <c r="L138" s="72"/>
+      <c r="M138" s="73"/>
+      <c r="N138" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="O138" s="52"/>
-      <c r="P138" s="53"/>
-      <c r="Q138" s="54" t="s">
+      <c r="O138" s="72"/>
+      <c r="P138" s="75"/>
+      <c r="Q138" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="R138" s="52"/>
-      <c r="S138" s="55"/>
-      <c r="T138" s="51" t="s">
+      <c r="R138" s="72"/>
+      <c r="S138" s="73"/>
+      <c r="T138" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="U138" s="55"/>
+      <c r="U138" s="73"/>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A139" s="70"/>
-      <c r="B139" s="71"/>
-      <c r="C139" s="71"/>
-      <c r="D139" s="72"/>
-      <c r="E139" s="29">
+      <c r="A139" s="108"/>
+      <c r="B139" s="109"/>
+      <c r="C139" s="109"/>
+      <c r="D139" s="110"/>
+      <c r="E139" s="26">
         <v>15</v>
       </c>
-      <c r="F139" s="30">
+      <c r="F139" s="27">
         <v>14</v>
       </c>
-      <c r="G139" s="31">
+      <c r="G139" s="28">
         <v>13</v>
       </c>
-      <c r="H139" s="32">
+      <c r="H139" s="29">
         <v>12</v>
       </c>
-      <c r="I139" s="30">
+      <c r="I139" s="27">
         <v>11</v>
       </c>
-      <c r="J139" s="33">
+      <c r="J139" s="30">
         <v>10</v>
       </c>
-      <c r="K139" s="29">
+      <c r="K139" s="26">
         <v>9</v>
       </c>
-      <c r="L139" s="30">
+      <c r="L139" s="27">
         <v>8</v>
       </c>
-      <c r="M139" s="31">
+      <c r="M139" s="28">
         <v>7</v>
       </c>
-      <c r="N139" s="32">
+      <c r="N139" s="29">
         <v>6</v>
       </c>
-      <c r="O139" s="30">
+      <c r="O139" s="27">
         <v>5</v>
       </c>
-      <c r="P139" s="33">
+      <c r="P139" s="30">
         <v>4</v>
       </c>
-      <c r="Q139" s="29">
+      <c r="Q139" s="26">
         <v>3</v>
       </c>
-      <c r="R139" s="30">
+      <c r="R139" s="27">
         <v>2</v>
       </c>
-      <c r="S139" s="31">
+      <c r="S139" s="28">
         <v>1</v>
       </c>
-      <c r="T139" s="56">
+      <c r="T139" s="111">
         <v>0</v>
       </c>
-      <c r="U139" s="57"/>
+      <c r="U139" s="112"/>
     </row>
     <row r="140" spans="1:21" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="58" t="s">
+      <c r="A140" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="B140" s="59"/>
-      <c r="C140" s="59"/>
-      <c r="D140" s="60"/>
+      <c r="B140" s="114"/>
+      <c r="C140" s="114"/>
+      <c r="D140" s="115"/>
       <c r="E140" s="12"/>
       <c r="F140" s="13"/>
       <c r="G140" s="14"/>
@@ -4119,12 +4126,12 @@
       <c r="U140" s="14"/>
     </row>
     <row r="141" spans="1:21" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="61" t="s">
+      <c r="A141" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="B141" s="62"/>
-      <c r="C141" s="62"/>
-      <c r="D141" s="63"/>
+      <c r="B141" s="123"/>
+      <c r="C141" s="123"/>
+      <c r="D141" s="124"/>
       <c r="E141" s="12"/>
       <c r="F141" s="13"/>
       <c r="G141" s="14"/>
@@ -4144,12 +4151,12 @@
       <c r="U141" s="14"/>
     </row>
     <row r="142" spans="1:21" ht="42.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="64" t="s">
+      <c r="A142" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="B142" s="65"/>
-      <c r="C142" s="65"/>
-      <c r="D142" s="66"/>
+      <c r="B142" s="117"/>
+      <c r="C142" s="117"/>
+      <c r="D142" s="118"/>
       <c r="E142" s="17"/>
       <c r="F142" s="18"/>
       <c r="G142" s="19"/>
@@ -4170,104 +4177,104 @@
     </row>
     <row r="143" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="67" t="s">
+      <c r="A144" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B144" s="68"/>
-      <c r="C144" s="68"/>
-      <c r="D144" s="69"/>
-      <c r="E144" s="54" t="s">
+      <c r="B144" s="106"/>
+      <c r="C144" s="106"/>
+      <c r="D144" s="107"/>
+      <c r="E144" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="F144" s="52"/>
-      <c r="G144" s="55"/>
-      <c r="H144" s="51" t="s">
+      <c r="F144" s="72"/>
+      <c r="G144" s="73"/>
+      <c r="H144" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="I144" s="52"/>
-      <c r="J144" s="53"/>
-      <c r="K144" s="54" t="s">
+      <c r="I144" s="72"/>
+      <c r="J144" s="75"/>
+      <c r="K144" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="L144" s="52"/>
-      <c r="M144" s="55"/>
-      <c r="N144" s="51" t="s">
+      <c r="L144" s="72"/>
+      <c r="M144" s="73"/>
+      <c r="N144" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="O144" s="52"/>
-      <c r="P144" s="53"/>
-      <c r="Q144" s="54" t="s">
+      <c r="O144" s="72"/>
+      <c r="P144" s="75"/>
+      <c r="Q144" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="R144" s="52"/>
-      <c r="S144" s="55"/>
-      <c r="T144" s="51" t="s">
+      <c r="R144" s="72"/>
+      <c r="S144" s="73"/>
+      <c r="T144" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="U144" s="55"/>
+      <c r="U144" s="73"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="70"/>
-      <c r="B145" s="71"/>
-      <c r="C145" s="71"/>
-      <c r="D145" s="72"/>
-      <c r="E145" s="29">
+      <c r="A145" s="108"/>
+      <c r="B145" s="109"/>
+      <c r="C145" s="109"/>
+      <c r="D145" s="110"/>
+      <c r="E145" s="26">
         <v>15</v>
       </c>
-      <c r="F145" s="30">
+      <c r="F145" s="27">
         <v>14</v>
       </c>
-      <c r="G145" s="31">
+      <c r="G145" s="28">
         <v>13</v>
       </c>
-      <c r="H145" s="32">
+      <c r="H145" s="29">
         <v>12</v>
       </c>
-      <c r="I145" s="30">
+      <c r="I145" s="27">
         <v>11</v>
       </c>
-      <c r="J145" s="33">
+      <c r="J145" s="30">
         <v>10</v>
       </c>
-      <c r="K145" s="29">
+      <c r="K145" s="26">
         <v>9</v>
       </c>
-      <c r="L145" s="30">
+      <c r="L145" s="27">
         <v>8</v>
       </c>
-      <c r="M145" s="31">
+      <c r="M145" s="28">
         <v>7</v>
       </c>
-      <c r="N145" s="32">
+      <c r="N145" s="29">
         <v>6</v>
       </c>
-      <c r="O145" s="30">
+      <c r="O145" s="27">
         <v>5</v>
       </c>
-      <c r="P145" s="33">
+      <c r="P145" s="30">
         <v>4</v>
       </c>
-      <c r="Q145" s="29">
+      <c r="Q145" s="26">
         <v>3</v>
       </c>
-      <c r="R145" s="30">
+      <c r="R145" s="27">
         <v>2</v>
       </c>
-      <c r="S145" s="31">
+      <c r="S145" s="28">
         <v>1</v>
       </c>
-      <c r="T145" s="56">
+      <c r="T145" s="111">
         <v>0</v>
       </c>
-      <c r="U145" s="57"/>
+      <c r="U145" s="112"/>
     </row>
     <row r="146" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="58" t="s">
+      <c r="A146" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="B146" s="59"/>
-      <c r="C146" s="59"/>
-      <c r="D146" s="60"/>
+      <c r="B146" s="114"/>
+      <c r="C146" s="114"/>
+      <c r="D146" s="115"/>
       <c r="E146" s="12"/>
       <c r="F146" s="13"/>
       <c r="G146" s="14"/>
@@ -4287,12 +4294,12 @@
       <c r="U146" s="14"/>
     </row>
     <row r="147" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="61" t="s">
+      <c r="A147" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="B147" s="62"/>
-      <c r="C147" s="62"/>
-      <c r="D147" s="63"/>
+      <c r="B147" s="123"/>
+      <c r="C147" s="123"/>
+      <c r="D147" s="124"/>
       <c r="E147" s="12"/>
       <c r="F147" s="13"/>
       <c r="G147" s="14"/>
@@ -4312,12 +4319,12 @@
       <c r="U147" s="14"/>
     </row>
     <row r="148" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="61" t="s">
+      <c r="A148" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="B148" s="62"/>
-      <c r="C148" s="62"/>
-      <c r="D148" s="63"/>
+      <c r="B148" s="123"/>
+      <c r="C148" s="123"/>
+      <c r="D148" s="124"/>
       <c r="E148" s="12"/>
       <c r="F148" s="13"/>
       <c r="G148" s="14"/>
@@ -4337,12 +4344,12 @@
       <c r="U148" s="14"/>
     </row>
     <row r="149" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="61" t="s">
+      <c r="A149" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="B149" s="62"/>
-      <c r="C149" s="62"/>
-      <c r="D149" s="63"/>
+      <c r="B149" s="123"/>
+      <c r="C149" s="123"/>
+      <c r="D149" s="124"/>
       <c r="E149" s="12"/>
       <c r="F149" s="13"/>
       <c r="G149" s="14"/>
@@ -4362,12 +4369,12 @@
       <c r="U149" s="14"/>
     </row>
     <row r="150" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="61" t="s">
+      <c r="A150" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="B150" s="62"/>
-      <c r="C150" s="62"/>
-      <c r="D150" s="63"/>
+      <c r="B150" s="123"/>
+      <c r="C150" s="123"/>
+      <c r="D150" s="124"/>
       <c r="E150" s="12"/>
       <c r="F150" s="13"/>
       <c r="G150" s="14"/>
@@ -4387,12 +4394,12 @@
       <c r="U150" s="14"/>
     </row>
     <row r="151" spans="1:21" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="64" t="s">
+      <c r="A151" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="B151" s="65"/>
-      <c r="C151" s="65"/>
-      <c r="D151" s="66"/>
+      <c r="B151" s="117"/>
+      <c r="C151" s="117"/>
+      <c r="D151" s="118"/>
       <c r="E151" s="17"/>
       <c r="F151" s="18"/>
       <c r="G151" s="19"/>
@@ -4413,104 +4420,104 @@
     </row>
     <row r="152" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A153" s="67" t="s">
+      <c r="A153" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="B153" s="68"/>
-      <c r="C153" s="68"/>
-      <c r="D153" s="69"/>
-      <c r="E153" s="54" t="s">
+      <c r="B153" s="106"/>
+      <c r="C153" s="106"/>
+      <c r="D153" s="107"/>
+      <c r="E153" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="F153" s="52"/>
-      <c r="G153" s="55"/>
-      <c r="H153" s="51" t="s">
+      <c r="F153" s="72"/>
+      <c r="G153" s="73"/>
+      <c r="H153" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="I153" s="52"/>
-      <c r="J153" s="53"/>
-      <c r="K153" s="54" t="s">
+      <c r="I153" s="72"/>
+      <c r="J153" s="75"/>
+      <c r="K153" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="L153" s="52"/>
-      <c r="M153" s="55"/>
-      <c r="N153" s="51" t="s">
+      <c r="L153" s="72"/>
+      <c r="M153" s="73"/>
+      <c r="N153" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="O153" s="52"/>
-      <c r="P153" s="53"/>
-      <c r="Q153" s="54" t="s">
+      <c r="O153" s="72"/>
+      <c r="P153" s="75"/>
+      <c r="Q153" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="R153" s="52"/>
-      <c r="S153" s="55"/>
-      <c r="T153" s="51" t="s">
+      <c r="R153" s="72"/>
+      <c r="S153" s="73"/>
+      <c r="T153" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="U153" s="55"/>
+      <c r="U153" s="73"/>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A154" s="70"/>
-      <c r="B154" s="71"/>
-      <c r="C154" s="71"/>
-      <c r="D154" s="72"/>
-      <c r="E154" s="29">
+      <c r="A154" s="108"/>
+      <c r="B154" s="109"/>
+      <c r="C154" s="109"/>
+      <c r="D154" s="110"/>
+      <c r="E154" s="26">
         <v>15</v>
       </c>
-      <c r="F154" s="30">
+      <c r="F154" s="27">
         <v>14</v>
       </c>
-      <c r="G154" s="31">
+      <c r="G154" s="28">
         <v>13</v>
       </c>
-      <c r="H154" s="32">
+      <c r="H154" s="29">
         <v>12</v>
       </c>
-      <c r="I154" s="30">
+      <c r="I154" s="27">
         <v>11</v>
       </c>
-      <c r="J154" s="33">
+      <c r="J154" s="30">
         <v>10</v>
       </c>
-      <c r="K154" s="29">
+      <c r="K154" s="26">
         <v>9</v>
       </c>
-      <c r="L154" s="30">
+      <c r="L154" s="27">
         <v>8</v>
       </c>
-      <c r="M154" s="31">
+      <c r="M154" s="28">
         <v>7</v>
       </c>
-      <c r="N154" s="32">
+      <c r="N154" s="29">
         <v>6</v>
       </c>
-      <c r="O154" s="30">
+      <c r="O154" s="27">
         <v>5</v>
       </c>
-      <c r="P154" s="33">
+      <c r="P154" s="30">
         <v>4</v>
       </c>
-      <c r="Q154" s="29">
+      <c r="Q154" s="26">
         <v>3</v>
       </c>
-      <c r="R154" s="30">
+      <c r="R154" s="27">
         <v>2</v>
       </c>
-      <c r="S154" s="31">
+      <c r="S154" s="28">
         <v>1</v>
       </c>
-      <c r="T154" s="56">
+      <c r="T154" s="111">
         <v>0</v>
       </c>
-      <c r="U154" s="57"/>
+      <c r="U154" s="112"/>
     </row>
     <row r="155" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="58" t="s">
+      <c r="A155" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="B155" s="59"/>
-      <c r="C155" s="59"/>
-      <c r="D155" s="60"/>
+      <c r="B155" s="114"/>
+      <c r="C155" s="114"/>
+      <c r="D155" s="115"/>
       <c r="E155" s="12"/>
       <c r="F155" s="13"/>
       <c r="G155" s="14"/>
@@ -4530,12 +4537,12 @@
       <c r="U155" s="14"/>
     </row>
     <row r="156" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="61" t="s">
+      <c r="A156" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="B156" s="62"/>
-      <c r="C156" s="62"/>
-      <c r="D156" s="63"/>
+      <c r="B156" s="123"/>
+      <c r="C156" s="123"/>
+      <c r="D156" s="124"/>
       <c r="E156" s="12"/>
       <c r="F156" s="13"/>
       <c r="G156" s="14"/>
@@ -4555,12 +4562,12 @@
       <c r="U156" s="14"/>
     </row>
     <row r="157" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="61" t="s">
+      <c r="A157" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="B157" s="62"/>
-      <c r="C157" s="62"/>
-      <c r="D157" s="63"/>
+      <c r="B157" s="123"/>
+      <c r="C157" s="123"/>
+      <c r="D157" s="124"/>
       <c r="E157" s="12"/>
       <c r="F157" s="13"/>
       <c r="G157" s="14"/>
@@ -4580,12 +4587,12 @@
       <c r="U157" s="14"/>
     </row>
     <row r="158" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="61" t="s">
+      <c r="A158" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="B158" s="62"/>
-      <c r="C158" s="62"/>
-      <c r="D158" s="63"/>
+      <c r="B158" s="123"/>
+      <c r="C158" s="123"/>
+      <c r="D158" s="124"/>
       <c r="E158" s="12"/>
       <c r="F158" s="13"/>
       <c r="G158" s="14"/>
@@ -4605,12 +4612,12 @@
       <c r="U158" s="14"/>
     </row>
     <row r="159" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="61" t="s">
+      <c r="A159" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="B159" s="62"/>
-      <c r="C159" s="62"/>
-      <c r="D159" s="63"/>
+      <c r="B159" s="123"/>
+      <c r="C159" s="123"/>
+      <c r="D159" s="124"/>
       <c r="E159" s="12"/>
       <c r="F159" s="13"/>
       <c r="G159" s="14"/>
@@ -4630,12 +4637,12 @@
       <c r="U159" s="14"/>
     </row>
     <row r="160" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="48" t="s">
+      <c r="A160" s="119" t="s">
         <v>81</v>
       </c>
-      <c r="B160" s="49"/>
-      <c r="C160" s="49"/>
-      <c r="D160" s="50"/>
+      <c r="B160" s="120"/>
+      <c r="C160" s="120"/>
+      <c r="D160" s="121"/>
       <c r="E160" s="12"/>
       <c r="F160" s="13"/>
       <c r="G160" s="14"/>
@@ -4655,12 +4662,12 @@
       <c r="U160" s="14"/>
     </row>
     <row r="161" spans="1:21" ht="48.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="64" t="s">
+      <c r="A161" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="B161" s="65"/>
-      <c r="C161" s="65"/>
-      <c r="D161" s="66"/>
+      <c r="B161" s="117"/>
+      <c r="C161" s="117"/>
+      <c r="D161" s="118"/>
       <c r="E161" s="17"/>
       <c r="F161" s="18"/>
       <c r="G161" s="19"/>
@@ -4680,44 +4687,44 @@
       <c r="U161" s="19"/>
     </row>
     <row r="163" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="102" t="s">
+      <c r="A163" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="B163" s="102"/>
-      <c r="C163" s="102"/>
-      <c r="D163" s="102"/>
-      <c r="E163" s="102"/>
-      <c r="F163" s="102"/>
-      <c r="G163" s="102"/>
-      <c r="H163" s="102"/>
-      <c r="I163" s="102"/>
-      <c r="J163" s="102"/>
-      <c r="K163" s="102"/>
-      <c r="L163" s="102"/>
-      <c r="M163" s="102"/>
-      <c r="N163" s="102"/>
-      <c r="O163" s="102"/>
-      <c r="P163" s="102"/>
-      <c r="Q163" s="102"/>
-      <c r="R163" s="102"/>
-      <c r="S163" s="102"/>
-      <c r="T163" s="102"/>
-      <c r="U163" s="102"/>
+      <c r="B163" s="76"/>
+      <c r="C163" s="76"/>
+      <c r="D163" s="76"/>
+      <c r="E163" s="76"/>
+      <c r="F163" s="76"/>
+      <c r="G163" s="76"/>
+      <c r="H163" s="76"/>
+      <c r="I163" s="76"/>
+      <c r="J163" s="76"/>
+      <c r="K163" s="76"/>
+      <c r="L163" s="76"/>
+      <c r="M163" s="76"/>
+      <c r="N163" s="76"/>
+      <c r="O163" s="76"/>
+      <c r="P163" s="76"/>
+      <c r="Q163" s="76"/>
+      <c r="R163" s="76"/>
+      <c r="S163" s="76"/>
+      <c r="T163" s="76"/>
+      <c r="U163" s="76"/>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A165" s="141" t="s">
+      <c r="A165" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="B165" s="141"/>
-      <c r="C165" s="141"/>
-      <c r="D165" s="141"/>
-      <c r="E165" s="141"/>
-      <c r="F165" s="141"/>
-      <c r="G165" s="141"/>
-      <c r="H165" s="141"/>
+      <c r="B165" s="69"/>
+      <c r="C165" s="69"/>
+      <c r="D165" s="69"/>
+      <c r="E165" s="69"/>
+      <c r="F165" s="69"/>
+      <c r="G165" s="69"/>
+      <c r="H165" s="69"/>
       <c r="I165" s="22"/>
       <c r="J165" s="22"/>
       <c r="K165" s="22"/>
@@ -4733,7 +4740,7 @@
       <c r="U165" s="22"/>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A166" s="28"/>
+      <c r="A166" s="25"/>
       <c r="B166" s="22"/>
       <c r="C166" s="22"/>
       <c r="D166" s="22"/>
@@ -4756,82 +4763,82 @@
       <c r="U166" s="22"/>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A167" s="142" t="s">
+      <c r="A167" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B167" s="142"/>
-      <c r="C167" s="142"/>
-      <c r="D167" s="142"/>
-      <c r="E167" s="142"/>
-      <c r="F167" s="142"/>
-      <c r="G167" s="142"/>
-      <c r="H167" s="142"/>
-      <c r="I167" s="142"/>
-      <c r="J167" s="142"/>
-      <c r="K167" s="142"/>
-      <c r="L167" s="142"/>
-      <c r="M167" s="142"/>
-      <c r="N167" s="142"/>
-      <c r="O167" s="142"/>
-      <c r="P167" s="142"/>
-      <c r="Q167" s="142"/>
-      <c r="R167" s="142"/>
-      <c r="S167" s="142"/>
-      <c r="T167" s="142"/>
-      <c r="U167" s="142"/>
+      <c r="B167" s="70"/>
+      <c r="C167" s="70"/>
+      <c r="D167" s="70"/>
+      <c r="E167" s="70"/>
+      <c r="F167" s="70"/>
+      <c r="G167" s="70"/>
+      <c r="H167" s="70"/>
+      <c r="I167" s="70"/>
+      <c r="J167" s="70"/>
+      <c r="K167" s="70"/>
+      <c r="L167" s="70"/>
+      <c r="M167" s="70"/>
+      <c r="N167" s="70"/>
+      <c r="O167" s="70"/>
+      <c r="P167" s="70"/>
+      <c r="Q167" s="70"/>
+      <c r="R167" s="70"/>
+      <c r="S167" s="70"/>
+      <c r="T167" s="70"/>
+      <c r="U167" s="70"/>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A168" s="142" t="s">
+      <c r="A168" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="B168" s="142"/>
-      <c r="C168" s="142"/>
-      <c r="D168" s="142"/>
-      <c r="E168" s="142"/>
-      <c r="F168" s="142"/>
-      <c r="G168" s="142"/>
-      <c r="H168" s="142"/>
-      <c r="I168" s="142"/>
-      <c r="J168" s="142"/>
-      <c r="K168" s="142"/>
-      <c r="L168" s="142"/>
-      <c r="M168" s="142"/>
-      <c r="N168" s="142"/>
-      <c r="O168" s="142"/>
-      <c r="P168" s="142"/>
-      <c r="Q168" s="142"/>
-      <c r="R168" s="142"/>
-      <c r="S168" s="142"/>
-      <c r="T168" s="142"/>
-      <c r="U168" s="142"/>
+      <c r="B168" s="70"/>
+      <c r="C168" s="70"/>
+      <c r="D168" s="70"/>
+      <c r="E168" s="70"/>
+      <c r="F168" s="70"/>
+      <c r="G168" s="70"/>
+      <c r="H168" s="70"/>
+      <c r="I168" s="70"/>
+      <c r="J168" s="70"/>
+      <c r="K168" s="70"/>
+      <c r="L168" s="70"/>
+      <c r="M168" s="70"/>
+      <c r="N168" s="70"/>
+      <c r="O168" s="70"/>
+      <c r="P168" s="70"/>
+      <c r="Q168" s="70"/>
+      <c r="R168" s="70"/>
+      <c r="S168" s="70"/>
+      <c r="T168" s="70"/>
+      <c r="U168" s="70"/>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A169" s="142" t="s">
+      <c r="A169" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="B169" s="142"/>
-      <c r="C169" s="142"/>
-      <c r="D169" s="142"/>
-      <c r="E169" s="142"/>
-      <c r="F169" s="142"/>
-      <c r="G169" s="142"/>
-      <c r="H169" s="142"/>
-      <c r="I169" s="142"/>
-      <c r="J169" s="142"/>
-      <c r="K169" s="142"/>
-      <c r="L169" s="142"/>
-      <c r="M169" s="142"/>
-      <c r="N169" s="142"/>
-      <c r="O169" s="142"/>
-      <c r="P169" s="142"/>
-      <c r="Q169" s="142"/>
-      <c r="R169" s="142"/>
-      <c r="S169" s="142"/>
-      <c r="T169" s="142"/>
-      <c r="U169" s="142"/>
+      <c r="B169" s="70"/>
+      <c r="C169" s="70"/>
+      <c r="D169" s="70"/>
+      <c r="E169" s="70"/>
+      <c r="F169" s="70"/>
+      <c r="G169" s="70"/>
+      <c r="H169" s="70"/>
+      <c r="I169" s="70"/>
+      <c r="J169" s="70"/>
+      <c r="K169" s="70"/>
+      <c r="L169" s="70"/>
+      <c r="M169" s="70"/>
+      <c r="N169" s="70"/>
+      <c r="O169" s="70"/>
+      <c r="P169" s="70"/>
+      <c r="Q169" s="70"/>
+      <c r="R169" s="70"/>
+      <c r="S169" s="70"/>
+      <c r="T169" s="70"/>
+      <c r="U169" s="70"/>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A170" s="28"/>
+      <c r="A170" s="25"/>
       <c r="B170" s="22"/>
       <c r="C170" s="22"/>
       <c r="D170" s="22"/>
@@ -4854,57 +4861,57 @@
       <c r="U170" s="22"/>
     </row>
     <row r="171" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="103" t="s">
+      <c r="A171" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="B171" s="103"/>
-      <c r="C171" s="103"/>
-      <c r="D171" s="103"/>
-      <c r="E171" s="103"/>
-      <c r="F171" s="103"/>
-      <c r="G171" s="103"/>
-      <c r="H171" s="103"/>
-      <c r="I171" s="103"/>
-      <c r="J171" s="103"/>
-      <c r="K171" s="103"/>
-      <c r="L171" s="103"/>
-      <c r="M171" s="103"/>
-      <c r="N171" s="103"/>
-      <c r="O171" s="103"/>
-      <c r="P171" s="103"/>
-      <c r="Q171" s="103"/>
-      <c r="R171" s="103"/>
-      <c r="S171" s="103"/>
-      <c r="T171" s="103"/>
-      <c r="U171" s="103"/>
+      <c r="B171" s="104"/>
+      <c r="C171" s="104"/>
+      <c r="D171" s="104"/>
+      <c r="E171" s="104"/>
+      <c r="F171" s="104"/>
+      <c r="G171" s="104"/>
+      <c r="H171" s="104"/>
+      <c r="I171" s="104"/>
+      <c r="J171" s="104"/>
+      <c r="K171" s="104"/>
+      <c r="L171" s="104"/>
+      <c r="M171" s="104"/>
+      <c r="N171" s="104"/>
+      <c r="O171" s="104"/>
+      <c r="P171" s="104"/>
+      <c r="Q171" s="104"/>
+      <c r="R171" s="104"/>
+      <c r="S171" s="104"/>
+      <c r="T171" s="104"/>
+      <c r="U171" s="104"/>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
     </row>
     <row r="173" spans="1:21" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="102" t="s">
+      <c r="A173" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="B173" s="102"/>
-      <c r="C173" s="102"/>
-      <c r="D173" s="102"/>
-      <c r="E173" s="102"/>
-      <c r="F173" s="102"/>
-      <c r="G173" s="102"/>
-      <c r="H173" s="102"/>
-      <c r="I173" s="102"/>
-      <c r="J173" s="102"/>
-      <c r="K173" s="102"/>
-      <c r="L173" s="102"/>
-      <c r="M173" s="102"/>
-      <c r="N173" s="102"/>
-      <c r="O173" s="102"/>
-      <c r="P173" s="102"/>
-      <c r="Q173" s="102"/>
-      <c r="R173" s="102"/>
-      <c r="S173" s="102"/>
-      <c r="T173" s="102"/>
-      <c r="U173" s="102"/>
+      <c r="B173" s="76"/>
+      <c r="C173" s="76"/>
+      <c r="D173" s="76"/>
+      <c r="E173" s="76"/>
+      <c r="F173" s="76"/>
+      <c r="G173" s="76"/>
+      <c r="H173" s="76"/>
+      <c r="I173" s="76"/>
+      <c r="J173" s="76"/>
+      <c r="K173" s="76"/>
+      <c r="L173" s="76"/>
+      <c r="M173" s="76"/>
+      <c r="N173" s="76"/>
+      <c r="O173" s="76"/>
+      <c r="P173" s="76"/>
+      <c r="Q173" s="76"/>
+      <c r="R173" s="76"/>
+      <c r="S173" s="76"/>
+      <c r="T173" s="76"/>
+      <c r="U173" s="76"/>
     </row>
     <row r="175" spans="1:21" ht="47.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
@@ -4918,26 +4925,26 @@
       </c>
     </row>
     <row r="178" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E178" s="100" t="s">
+      <c r="E178" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="F178" s="100"/>
-      <c r="G178" s="100"/>
-      <c r="H178" s="100"/>
-      <c r="I178" s="100"/>
-      <c r="J178" s="100"/>
-      <c r="K178" s="100"/>
-      <c r="L178" s="100"/>
-      <c r="N178" s="101" t="s">
+      <c r="F178" s="58"/>
+      <c r="G178" s="58"/>
+      <c r="H178" s="58"/>
+      <c r="I178" s="58"/>
+      <c r="J178" s="58"/>
+      <c r="K178" s="58"/>
+      <c r="L178" s="58"/>
+      <c r="N178" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="O178" s="101"/>
-      <c r="P178" s="101"/>
-      <c r="Q178" s="101"/>
-      <c r="R178" s="101"/>
-      <c r="S178" s="101"/>
-      <c r="T178" s="101"/>
-      <c r="U178" s="101"/>
+      <c r="O178" s="103"/>
+      <c r="P178" s="103"/>
+      <c r="Q178" s="103"/>
+      <c r="R178" s="103"/>
+      <c r="S178" s="103"/>
+      <c r="T178" s="103"/>
+      <c r="U178" s="103"/>
     </row>
     <row r="179" spans="1:21" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="180" spans="1:21" x14ac:dyDescent="0.3">
@@ -4948,50 +4955,50 @@
     <row r="181" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
-      <c r="E181" s="100" t="s">
+      <c r="E181" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F181" s="100"/>
-      <c r="G181" s="100"/>
-      <c r="H181" s="100"/>
-      <c r="I181" s="100"/>
-      <c r="J181" s="100"/>
-      <c r="K181" s="100"/>
-      <c r="L181" s="100"/>
-      <c r="M181" s="100"/>
-      <c r="N181" s="100"/>
+      <c r="F181" s="58"/>
+      <c r="G181" s="58"/>
+      <c r="H181" s="58"/>
+      <c r="I181" s="58"/>
+      <c r="J181" s="58"/>
+      <c r="K181" s="58"/>
+      <c r="L181" s="58"/>
+      <c r="M181" s="58"/>
+      <c r="N181" s="58"/>
       <c r="O181" s="7"/>
       <c r="P181" s="7"/>
     </row>
     <row r="182" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="27"/>
-      <c r="K182" s="27"/>
-      <c r="L182" s="27"/>
-      <c r="M182" s="27"/>
-      <c r="N182" s="27"/>
+      <c r="E182" s="24"/>
+      <c r="F182" s="24"/>
+      <c r="G182" s="24"/>
+      <c r="H182" s="24"/>
+      <c r="I182" s="24"/>
+      <c r="J182" s="24"/>
+      <c r="K182" s="24"/>
+      <c r="L182" s="24"/>
+      <c r="M182" s="24"/>
+      <c r="N182" s="24"/>
       <c r="O182" s="7"/>
       <c r="P182" s="7"/>
     </row>
     <row r="183" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C183" s="7"/>
       <c r="D183" s="7"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="27"/>
-      <c r="G183" s="27"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="27"/>
-      <c r="K183" s="27"/>
-      <c r="L183" s="27"/>
-      <c r="M183" s="27"/>
-      <c r="N183" s="27"/>
+      <c r="E183" s="24"/>
+      <c r="F183" s="24"/>
+      <c r="G183" s="24"/>
+      <c r="H183" s="24"/>
+      <c r="I183" s="24"/>
+      <c r="J183" s="24"/>
+      <c r="K183" s="24"/>
+      <c r="L183" s="24"/>
+      <c r="M183" s="24"/>
+      <c r="N183" s="24"/>
       <c r="O183" s="7"/>
       <c r="P183" s="7"/>
     </row>
@@ -5028,7 +5035,367 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="384">
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="Q68:U68"/>
+    <mergeCell ref="Q69:U69"/>
+    <mergeCell ref="A67:U67"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="K70:U70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="K71:U71"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="N153:P153"/>
+    <mergeCell ref="Q153:S153"/>
+    <mergeCell ref="T153:U153"/>
+    <mergeCell ref="T154:U154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A153:D154"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A53:U53"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="M55:U55"/>
+    <mergeCell ref="M56:U56"/>
+    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q57:U57"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="F61:L61"/>
+    <mergeCell ref="M61:U61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="F62:L62"/>
+    <mergeCell ref="M62:U62"/>
+    <mergeCell ref="A64:U64"/>
+    <mergeCell ref="K153:M153"/>
+    <mergeCell ref="A66:U66"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A144:D145"/>
+    <mergeCell ref="E144:G144"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="K144:M144"/>
+    <mergeCell ref="N144:P144"/>
+    <mergeCell ref="Q144:S144"/>
+    <mergeCell ref="T144:U144"/>
+    <mergeCell ref="T145:U145"/>
+    <mergeCell ref="E178:L178"/>
+    <mergeCell ref="N178:U178"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="A163:U163"/>
+    <mergeCell ref="A171:U171"/>
+    <mergeCell ref="A173:U173"/>
+    <mergeCell ref="Q132:S132"/>
+    <mergeCell ref="T132:U132"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="T133:U133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A138:D139"/>
+    <mergeCell ref="E138:G138"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="K138:M138"/>
+    <mergeCell ref="N138:P138"/>
+    <mergeCell ref="Q138:S138"/>
+    <mergeCell ref="T138:U138"/>
+    <mergeCell ref="T139:U139"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A122:U122"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="R74:U74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A65:U65"/>
+    <mergeCell ref="R73:U73"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="K72:U72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="A106:U106"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E181:N181"/>
+    <mergeCell ref="A107:U107"/>
+    <mergeCell ref="A109:U109"/>
+    <mergeCell ref="A111:U111"/>
+    <mergeCell ref="A113:U113"/>
+    <mergeCell ref="A115:U115"/>
+    <mergeCell ref="A117:U117"/>
+    <mergeCell ref="A118:U118"/>
+    <mergeCell ref="A116:U116"/>
+    <mergeCell ref="A114:U114"/>
+    <mergeCell ref="A112:U112"/>
+    <mergeCell ref="A110:U110"/>
+    <mergeCell ref="A165:H165"/>
+    <mergeCell ref="A169:U169"/>
+    <mergeCell ref="A168:U168"/>
+    <mergeCell ref="A167:U167"/>
+    <mergeCell ref="K132:M132"/>
+    <mergeCell ref="N132:P132"/>
+    <mergeCell ref="F127:U127"/>
+    <mergeCell ref="F126:U126"/>
+    <mergeCell ref="F125:U125"/>
+    <mergeCell ref="F128:U128"/>
+    <mergeCell ref="F129:U129"/>
+    <mergeCell ref="F130:U130"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="O104:Q104"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="O96:Q96"/>
+    <mergeCell ref="O97:Q97"/>
+    <mergeCell ref="O98:Q98"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="O100:Q100"/>
+    <mergeCell ref="O101:Q101"/>
+    <mergeCell ref="O102:Q102"/>
+    <mergeCell ref="O103:Q103"/>
+    <mergeCell ref="O90:Q90"/>
+    <mergeCell ref="O91:Q91"/>
+    <mergeCell ref="O92:Q92"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="R75:U75"/>
+    <mergeCell ref="R76:U76"/>
+    <mergeCell ref="R77:U77"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="R79:U79"/>
+    <mergeCell ref="O85:Q85"/>
+    <mergeCell ref="O86:Q86"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="O88:Q88"/>
+    <mergeCell ref="O89:Q89"/>
+    <mergeCell ref="O80:Q80"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="O83:Q83"/>
+    <mergeCell ref="O84:Q84"/>
+    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="O76:Q76"/>
+    <mergeCell ref="O77:Q77"/>
+    <mergeCell ref="O78:Q78"/>
+    <mergeCell ref="R85:U85"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="R86:U86"/>
+    <mergeCell ref="R87:U87"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="R89:U89"/>
+    <mergeCell ref="R80:U80"/>
+    <mergeCell ref="R81:U81"/>
+    <mergeCell ref="R82:U82"/>
+    <mergeCell ref="R83:U83"/>
+    <mergeCell ref="R84:U84"/>
     <mergeCell ref="A60:U60"/>
     <mergeCell ref="O6:T6"/>
     <mergeCell ref="H49:T49"/>
@@ -5053,364 +5420,6 @@
     <mergeCell ref="R92:U92"/>
     <mergeCell ref="R93:U93"/>
     <mergeCell ref="R94:U94"/>
-    <mergeCell ref="R85:U85"/>
-    <mergeCell ref="O79:Q79"/>
-    <mergeCell ref="R86:U86"/>
-    <mergeCell ref="R87:U87"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="R89:U89"/>
-    <mergeCell ref="R80:U80"/>
-    <mergeCell ref="R81:U81"/>
-    <mergeCell ref="R82:U82"/>
-    <mergeCell ref="R83:U83"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="O90:Q90"/>
-    <mergeCell ref="O91:Q91"/>
-    <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="R75:U75"/>
-    <mergeCell ref="R76:U76"/>
-    <mergeCell ref="R77:U77"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="R79:U79"/>
-    <mergeCell ref="O85:Q85"/>
-    <mergeCell ref="O86:Q86"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="O88:Q88"/>
-    <mergeCell ref="O89:Q89"/>
-    <mergeCell ref="O80:Q80"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="O83:Q83"/>
-    <mergeCell ref="O84:Q84"/>
-    <mergeCell ref="O75:Q75"/>
-    <mergeCell ref="O76:Q76"/>
-    <mergeCell ref="O77:Q77"/>
-    <mergeCell ref="O78:Q78"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="O104:Q104"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="O96:Q96"/>
-    <mergeCell ref="O97:Q97"/>
-    <mergeCell ref="O98:Q98"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="O100:Q100"/>
-    <mergeCell ref="O101:Q101"/>
-    <mergeCell ref="O102:Q102"/>
-    <mergeCell ref="O103:Q103"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="E181:N181"/>
-    <mergeCell ref="A107:U107"/>
-    <mergeCell ref="A109:U109"/>
-    <mergeCell ref="A111:U111"/>
-    <mergeCell ref="A113:U113"/>
-    <mergeCell ref="A115:U115"/>
-    <mergeCell ref="A117:U117"/>
-    <mergeCell ref="A118:U118"/>
-    <mergeCell ref="A116:U116"/>
-    <mergeCell ref="A114:U114"/>
-    <mergeCell ref="A112:U112"/>
-    <mergeCell ref="A110:U110"/>
-    <mergeCell ref="A165:H165"/>
-    <mergeCell ref="A169:U169"/>
-    <mergeCell ref="A168:U168"/>
-    <mergeCell ref="A167:U167"/>
-    <mergeCell ref="K132:M132"/>
-    <mergeCell ref="N132:P132"/>
-    <mergeCell ref="F127:U127"/>
-    <mergeCell ref="F126:U126"/>
-    <mergeCell ref="F125:U125"/>
-    <mergeCell ref="F128:U128"/>
-    <mergeCell ref="F129:U129"/>
-    <mergeCell ref="F130:U130"/>
-    <mergeCell ref="A106:U106"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="R73:U73"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="K72:U72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="A122:U122"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="R74:U74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A65:U65"/>
-    <mergeCell ref="E178:L178"/>
-    <mergeCell ref="N178:U178"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="H132:J132"/>
-    <mergeCell ref="A163:U163"/>
-    <mergeCell ref="A171:U171"/>
-    <mergeCell ref="A173:U173"/>
-    <mergeCell ref="Q132:S132"/>
-    <mergeCell ref="T132:U132"/>
-    <mergeCell ref="A132:D133"/>
-    <mergeCell ref="T133:U133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A138:D139"/>
-    <mergeCell ref="E138:G138"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="K138:M138"/>
-    <mergeCell ref="N138:P138"/>
-    <mergeCell ref="Q138:S138"/>
-    <mergeCell ref="T138:U138"/>
-    <mergeCell ref="T139:U139"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="H153:J153"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A144:D145"/>
-    <mergeCell ref="E144:G144"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="K144:M144"/>
-    <mergeCell ref="N144:P144"/>
-    <mergeCell ref="Q144:S144"/>
-    <mergeCell ref="T144:U144"/>
-    <mergeCell ref="T145:U145"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A53:U53"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="M55:U55"/>
-    <mergeCell ref="M56:U56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q57:U57"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="F61:L61"/>
-    <mergeCell ref="M61:U61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="F62:L62"/>
-    <mergeCell ref="M62:U62"/>
-    <mergeCell ref="A64:U64"/>
-    <mergeCell ref="K153:M153"/>
-    <mergeCell ref="A66:U66"/>
-    <mergeCell ref="A67:U67"/>
-    <mergeCell ref="A68:O68"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="K70:U70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="K71:U71"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="N153:P153"/>
-    <mergeCell ref="Q153:S153"/>
-    <mergeCell ref="T153:U153"/>
-    <mergeCell ref="T154:U154"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A153:D154"/>
-    <mergeCell ref="E153:G153"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:G4">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
@@ -5661,18 +5670,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5695,26 +5704,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEEF2B8-1878-4C75-81E0-5896CFFB1B75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1F3D8C2-E839-4AD6-B75F-D1A823A8A73C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2c1f1416-e3be-4c01-8a0c-4f2b39b116d4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ec64a3f8-7fd2-436e-b243-5177b60c59f8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1F3D8C2-E839-4AD6-B75F-D1A823A8A73C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEEF2B8-1878-4C75-81E0-5896CFFB1B75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="ec64a3f8-7fd2-436e-b243-5177b60c59f8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2c1f1416-e3be-4c01-8a0c-4f2b39b116d4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/main/resources/Gradingtable.xlsx
+++ b/src/main/resources/Gradingtable.xlsx
@@ -1181,7 +1181,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1275,57 +1275,402 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1335,350 +1680,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1958,8 +1970,8 @@
   </sheetPr>
   <dimension ref="A1:U191"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="Q68" sqref="Q68:U68"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A154" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="T159" sqref="T159:U159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -1972,112 +1984,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="111">
         <v>43388</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="O1" s="59" t="s">
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="O1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
     </row>
     <row r="2" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93" t="str">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76" t="str">
         <f>IFERROR(VLOOKUP(A4,#REF!,3,TRUE),"")</f>
         <v/>
       </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="O2" s="59" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="O2" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
     </row>
     <row r="3" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="O3" s="95" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="O3" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
     </row>
     <row r="4" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="O4" s="95" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="O4" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="93" t="str">
+      <c r="A5" s="76" t="str">
         <f>IFERROR(VLOOKUP(A4,#REF!,2,TRUE),"")</f>
         <v/>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:21" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="159"/>
       <c r="U6" s="23"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -2099,1222 +2111,1222 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="125" t="s">
+      <c r="A49" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="125"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="35" t="s">
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
+      <c r="I49" s="160"/>
+      <c r="J49" s="160"/>
+      <c r="K49" s="160"/>
+      <c r="L49" s="160"/>
+      <c r="M49" s="160"/>
+      <c r="N49" s="160"/>
+      <c r="O49" s="160"/>
+      <c r="P49" s="160"/>
+      <c r="Q49" s="160"/>
+      <c r="R49" s="160"/>
+      <c r="S49" s="160"/>
+      <c r="T49" s="160"/>
       <c r="U49" s="7"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="126" t="s">
+      <c r="A51" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="126"/>
-      <c r="K51" s="126"/>
-      <c r="L51" s="126"/>
-      <c r="M51" s="126"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="93" t="s">
+      <c r="A53" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="93"/>
-      <c r="M53" s="93"/>
-      <c r="N53" s="93"/>
-      <c r="O53" s="93"/>
-      <c r="P53" s="93"/>
-      <c r="Q53" s="93"/>
-      <c r="R53" s="93"/>
-      <c r="S53" s="93"/>
-      <c r="T53" s="93"/>
-      <c r="U53" s="93"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="76"/>
+      <c r="S53" s="76"/>
+      <c r="T53" s="76"/>
+      <c r="U53" s="76"/>
     </row>
     <row r="54" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="31" t="s">
+      <c r="A55" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32" t="s">
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="78"/>
+      <c r="L55" s="78"/>
+      <c r="M55" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="33"/>
+      <c r="N55" s="78"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="78"/>
+      <c r="R55" s="78"/>
+      <c r="S55" s="78"/>
+      <c r="T55" s="78"/>
+      <c r="U55" s="82"/>
     </row>
     <row r="56" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="127"/>
-      <c r="B56" s="128"/>
-      <c r="C56" s="128"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="128"/>
-      <c r="H56" s="128"/>
-      <c r="I56" s="128"/>
-      <c r="J56" s="128"/>
-      <c r="K56" s="128"/>
-      <c r="L56" s="129"/>
-      <c r="M56" s="130"/>
-      <c r="N56" s="130"/>
-      <c r="O56" s="130"/>
-      <c r="P56" s="130"/>
-      <c r="Q56" s="130"/>
-      <c r="R56" s="130"/>
-      <c r="S56" s="130"/>
-      <c r="T56" s="130"/>
-      <c r="U56" s="130"/>
+      <c r="A56" s="79"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="80"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="83"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="83"/>
+      <c r="T56" s="83"/>
+      <c r="U56" s="83"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="131" t="s">
+      <c r="A57" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="132"/>
-      <c r="C57" s="132"/>
-      <c r="D57" s="132"/>
-      <c r="E57" s="132"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="132"/>
-      <c r="L57" s="132"/>
-      <c r="M57" s="132" t="s">
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="N57" s="135"/>
-      <c r="O57" s="135"/>
-      <c r="P57" s="135"/>
-      <c r="Q57" s="132" t="s">
+      <c r="N57" s="88"/>
+      <c r="O57" s="88"/>
+      <c r="P57" s="88"/>
+      <c r="Q57" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="R57" s="135"/>
-      <c r="S57" s="135"/>
-      <c r="T57" s="135"/>
-      <c r="U57" s="137"/>
+      <c r="R57" s="88"/>
+      <c r="S57" s="88"/>
+      <c r="T57" s="88"/>
+      <c r="U57" s="90"/>
     </row>
     <row r="58" spans="1:21" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="133"/>
-      <c r="B58" s="134"/>
-      <c r="C58" s="134"/>
-      <c r="D58" s="134"/>
-      <c r="E58" s="134"/>
-      <c r="F58" s="134"/>
-      <c r="G58" s="134"/>
-      <c r="H58" s="134"/>
-      <c r="I58" s="134"/>
-      <c r="J58" s="134"/>
-      <c r="K58" s="134"/>
-      <c r="L58" s="134"/>
-      <c r="M58" s="136"/>
-      <c r="N58" s="134"/>
-      <c r="O58" s="134"/>
-      <c r="P58" s="134"/>
-      <c r="Q58" s="136"/>
-      <c r="R58" s="134"/>
-      <c r="S58" s="134"/>
-      <c r="T58" s="134"/>
-      <c r="U58" s="138"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="87"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="87"/>
+      <c r="O58" s="87"/>
+      <c r="P58" s="87"/>
+      <c r="Q58" s="89"/>
+      <c r="R58" s="87"/>
+      <c r="S58" s="87"/>
+      <c r="T58" s="87"/>
+      <c r="U58" s="91"/>
     </row>
     <row r="59" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="32"/>
-      <c r="U60" s="33"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="78"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="78"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="78"/>
+      <c r="S60" s="78"/>
+      <c r="T60" s="78"/>
+      <c r="U60" s="82"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="139" t="s">
+      <c r="A61" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="140"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="141" t="s">
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="140"/>
-      <c r="H61" s="140"/>
-      <c r="I61" s="140"/>
-      <c r="J61" s="140"/>
-      <c r="K61" s="140"/>
-      <c r="L61" s="140"/>
-      <c r="M61" s="141" t="s">
+      <c r="G61" s="93"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="93"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="93"/>
+      <c r="L61" s="93"/>
+      <c r="M61" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="140"/>
-      <c r="O61" s="140"/>
-      <c r="P61" s="140"/>
-      <c r="Q61" s="140"/>
-      <c r="R61" s="140"/>
-      <c r="S61" s="140"/>
-      <c r="T61" s="140"/>
-      <c r="U61" s="142"/>
+      <c r="N61" s="93"/>
+      <c r="O61" s="93"/>
+      <c r="P61" s="93"/>
+      <c r="Q61" s="93"/>
+      <c r="R61" s="93"/>
+      <c r="S61" s="93"/>
+      <c r="T61" s="93"/>
+      <c r="U61" s="95"/>
     </row>
     <row r="62" spans="1:21" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="143"/>
-      <c r="B62" s="144"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="144"/>
-      <c r="E62" s="144"/>
-      <c r="F62" s="145"/>
-      <c r="G62" s="144"/>
-      <c r="H62" s="144"/>
-      <c r="I62" s="144"/>
-      <c r="J62" s="144"/>
-      <c r="K62" s="144"/>
-      <c r="L62" s="144"/>
-      <c r="M62" s="136"/>
-      <c r="N62" s="134"/>
-      <c r="O62" s="134"/>
-      <c r="P62" s="134"/>
-      <c r="Q62" s="134"/>
-      <c r="R62" s="134"/>
-      <c r="S62" s="134"/>
-      <c r="T62" s="134"/>
-      <c r="U62" s="138"/>
+      <c r="A62" s="96"/>
+      <c r="B62" s="97"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="98"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="97"/>
+      <c r="L62" s="97"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="87"/>
+      <c r="O62" s="87"/>
+      <c r="P62" s="87"/>
+      <c r="Q62" s="87"/>
+      <c r="R62" s="87"/>
+      <c r="S62" s="87"/>
+      <c r="T62" s="87"/>
+      <c r="U62" s="91"/>
     </row>
     <row r="63" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="146" t="s">
+      <c r="A64" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B64" s="147"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="147"/>
-      <c r="E64" s="147"/>
-      <c r="F64" s="147"/>
-      <c r="G64" s="147"/>
-      <c r="H64" s="147"/>
-      <c r="I64" s="147"/>
-      <c r="J64" s="147"/>
-      <c r="K64" s="147"/>
-      <c r="L64" s="147"/>
-      <c r="M64" s="147"/>
-      <c r="N64" s="147"/>
-      <c r="O64" s="147"/>
-      <c r="P64" s="147"/>
-      <c r="Q64" s="147"/>
-      <c r="R64" s="147"/>
-      <c r="S64" s="147"/>
-      <c r="T64" s="147"/>
-      <c r="U64" s="148"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="100"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="100"/>
+      <c r="G64" s="100"/>
+      <c r="H64" s="100"/>
+      <c r="I64" s="100"/>
+      <c r="J64" s="100"/>
+      <c r="K64" s="100"/>
+      <c r="L64" s="100"/>
+      <c r="M64" s="100"/>
+      <c r="N64" s="100"/>
+      <c r="O64" s="100"/>
+      <c r="P64" s="100"/>
+      <c r="Q64" s="100"/>
+      <c r="R64" s="100"/>
+      <c r="S64" s="100"/>
+      <c r="T64" s="100"/>
+      <c r="U64" s="101"/>
     </row>
     <row r="65" spans="1:21" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="100"/>
-      <c r="B65" s="101"/>
-      <c r="C65" s="101"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
-      <c r="H65" s="101"/>
-      <c r="I65" s="101"/>
-      <c r="J65" s="101"/>
-      <c r="K65" s="101"/>
-      <c r="L65" s="101"/>
-      <c r="M65" s="101"/>
-      <c r="N65" s="101"/>
-      <c r="O65" s="101"/>
-      <c r="P65" s="101"/>
-      <c r="Q65" s="101"/>
-      <c r="R65" s="101"/>
-      <c r="S65" s="101"/>
-      <c r="T65" s="101"/>
-      <c r="U65" s="102"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="39"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="149" t="s">
+      <c r="A66" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="150"/>
-      <c r="C66" s="150"/>
-      <c r="D66" s="150"/>
-      <c r="E66" s="150"/>
-      <c r="F66" s="150"/>
-      <c r="G66" s="150"/>
-      <c r="H66" s="150"/>
-      <c r="I66" s="150"/>
-      <c r="J66" s="150"/>
-      <c r="K66" s="150"/>
-      <c r="L66" s="150"/>
-      <c r="M66" s="150"/>
-      <c r="N66" s="150"/>
-      <c r="O66" s="150"/>
-      <c r="P66" s="150"/>
-      <c r="Q66" s="150"/>
-      <c r="R66" s="150"/>
-      <c r="S66" s="150"/>
-      <c r="T66" s="150"/>
-      <c r="U66" s="151"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="103"/>
+      <c r="H66" s="103"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="103"/>
+      <c r="K66" s="103"/>
+      <c r="L66" s="103"/>
+      <c r="M66" s="103"/>
+      <c r="N66" s="103"/>
+      <c r="O66" s="103"/>
+      <c r="P66" s="103"/>
+      <c r="Q66" s="103"/>
+      <c r="R66" s="103"/>
+      <c r="S66" s="103"/>
+      <c r="T66" s="103"/>
+      <c r="U66" s="104"/>
     </row>
     <row r="67" spans="1:21" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="100"/>
-      <c r="B67" s="101"/>
-      <c r="C67" s="101"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="101"/>
-      <c r="G67" s="101"/>
-      <c r="H67" s="101"/>
-      <c r="I67" s="101"/>
-      <c r="J67" s="101"/>
-      <c r="K67" s="101"/>
-      <c r="L67" s="101"/>
-      <c r="M67" s="101"/>
-      <c r="N67" s="101"/>
-      <c r="O67" s="101"/>
-      <c r="P67" s="101"/>
-      <c r="Q67" s="101"/>
-      <c r="R67" s="101"/>
-      <c r="S67" s="101"/>
-      <c r="T67" s="101"/>
-      <c r="U67" s="102"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="38"/>
+      <c r="S67" s="38"/>
+      <c r="T67" s="38"/>
+      <c r="U67" s="39"/>
     </row>
     <row r="68" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="161" t="s">
+      <c r="A68" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="82"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="82"/>
-      <c r="I68" s="82"/>
-      <c r="J68" s="82"/>
-      <c r="K68" s="82"/>
-      <c r="L68" s="82"/>
-      <c r="M68" s="82"/>
-      <c r="N68" s="82"/>
-      <c r="O68" s="82"/>
-      <c r="P68" s="82"/>
-      <c r="Q68" s="162"/>
-      <c r="R68" s="162"/>
-      <c r="S68" s="162"/>
-      <c r="T68" s="162"/>
-      <c r="U68" s="163"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="34"/>
     </row>
     <row r="69" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="100" t="s">
+      <c r="A69" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="101"/>
-      <c r="C69" s="101"/>
-      <c r="D69" s="101"/>
-      <c r="E69" s="101"/>
-      <c r="F69" s="101"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="101"/>
-      <c r="Q69" s="164"/>
-      <c r="R69" s="164"/>
-      <c r="S69" s="164"/>
-      <c r="T69" s="164"/>
-      <c r="U69" s="165"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="36"/>
     </row>
     <row r="70" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="152" t="s">
+      <c r="A70" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="153"/>
-      <c r="C70" s="153"/>
-      <c r="D70" s="153"/>
-      <c r="E70" s="153"/>
-      <c r="F70" s="153"/>
-      <c r="G70" s="153"/>
-      <c r="H70" s="153"/>
-      <c r="I70" s="153"/>
-      <c r="J70" s="154"/>
-      <c r="K70" s="152" t="s">
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="L70" s="153"/>
-      <c r="M70" s="153"/>
-      <c r="N70" s="153"/>
-      <c r="O70" s="153"/>
-      <c r="P70" s="153"/>
-      <c r="Q70" s="153"/>
-      <c r="R70" s="153"/>
-      <c r="S70" s="153"/>
-      <c r="T70" s="153"/>
-      <c r="U70" s="154"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="41"/>
+      <c r="T70" s="41"/>
+      <c r="U70" s="42"/>
     </row>
     <row r="71" spans="1:21" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="155"/>
-      <c r="B71" s="156"/>
-      <c r="C71" s="156"/>
-      <c r="D71" s="156"/>
-      <c r="E71" s="156"/>
-      <c r="F71" s="156"/>
-      <c r="G71" s="156"/>
-      <c r="H71" s="156"/>
-      <c r="I71" s="156"/>
-      <c r="J71" s="157"/>
-      <c r="K71" s="158"/>
-      <c r="L71" s="159"/>
-      <c r="M71" s="159"/>
-      <c r="N71" s="159"/>
-      <c r="O71" s="159"/>
-      <c r="P71" s="159"/>
-      <c r="Q71" s="159"/>
-      <c r="R71" s="159"/>
-      <c r="S71" s="159"/>
-      <c r="T71" s="159"/>
-      <c r="U71" s="160"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="47"/>
+      <c r="S71" s="47"/>
+      <c r="T71" s="47"/>
+      <c r="U71" s="48"/>
     </row>
     <row r="72" spans="1:21" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="87" t="s">
+      <c r="A72" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="88"/>
-      <c r="C72" s="88"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="88"/>
-      <c r="G72" s="88"/>
-      <c r="H72" s="88"/>
-      <c r="I72" s="88"/>
-      <c r="J72" s="89"/>
-      <c r="K72" s="87" t="s">
+      <c r="B72" s="129"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="129"/>
+      <c r="G72" s="129"/>
+      <c r="H72" s="129"/>
+      <c r="I72" s="129"/>
+      <c r="J72" s="130"/>
+      <c r="K72" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="L72" s="88"/>
-      <c r="M72" s="88"/>
-      <c r="N72" s="88"/>
-      <c r="O72" s="88"/>
-      <c r="P72" s="88"/>
-      <c r="Q72" s="88"/>
-      <c r="R72" s="88"/>
-      <c r="S72" s="88"/>
-      <c r="T72" s="88"/>
-      <c r="U72" s="89"/>
+      <c r="L72" s="129"/>
+      <c r="M72" s="129"/>
+      <c r="N72" s="129"/>
+      <c r="O72" s="129"/>
+      <c r="P72" s="129"/>
+      <c r="Q72" s="129"/>
+      <c r="R72" s="129"/>
+      <c r="S72" s="129"/>
+      <c r="T72" s="129"/>
+      <c r="U72" s="130"/>
     </row>
     <row r="73" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="37"/>
-      <c r="C73" s="90" t="s">
+      <c r="B73" s="110"/>
+      <c r="C73" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="37"/>
-      <c r="E73" s="90" t="s">
+      <c r="D73" s="110"/>
+      <c r="E73" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="91"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="90" t="s">
+      <c r="F73" s="131"/>
+      <c r="G73" s="110"/>
+      <c r="H73" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="I73" s="91"/>
-      <c r="J73" s="92"/>
-      <c r="K73" s="36" t="s">
+      <c r="I73" s="131"/>
+      <c r="J73" s="132"/>
+      <c r="K73" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="L73" s="37"/>
-      <c r="M73" s="90" t="s">
+      <c r="L73" s="110"/>
+      <c r="M73" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="N73" s="37"/>
-      <c r="O73" s="90" t="s">
+      <c r="N73" s="110"/>
+      <c r="O73" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="P73" s="91"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="84" t="s">
+      <c r="P73" s="131"/>
+      <c r="Q73" s="110"/>
+      <c r="R73" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="S73" s="85"/>
-      <c r="T73" s="85"/>
-      <c r="U73" s="86"/>
+      <c r="S73" s="126"/>
+      <c r="T73" s="126"/>
+      <c r="U73" s="127"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="78"/>
-      <c r="B74" s="79"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="81"/>
-      <c r="F74" s="82"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="81"/>
-      <c r="I74" s="82"/>
-      <c r="J74" s="96"/>
-      <c r="K74" s="78"/>
-      <c r="L74" s="79"/>
-      <c r="M74" s="80"/>
-      <c r="N74" s="79"/>
-      <c r="O74" s="81"/>
-      <c r="P74" s="82"/>
-      <c r="Q74" s="83"/>
-      <c r="R74" s="97"/>
-      <c r="S74" s="98"/>
-      <c r="T74" s="98"/>
-      <c r="U74" s="99"/>
+      <c r="A74" s="116"/>
+      <c r="B74" s="117"/>
+      <c r="C74" s="118"/>
+      <c r="D74" s="117"/>
+      <c r="E74" s="114"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="119"/>
+      <c r="H74" s="114"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="115"/>
+      <c r="K74" s="116"/>
+      <c r="L74" s="117"/>
+      <c r="M74" s="118"/>
+      <c r="N74" s="117"/>
+      <c r="O74" s="114"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="119"/>
+      <c r="R74" s="120"/>
+      <c r="S74" s="121"/>
+      <c r="T74" s="121"/>
+      <c r="U74" s="122"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="56"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="53"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="57"/>
-      <c r="K75" s="56"/>
-      <c r="L75" s="55"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="55"/>
-      <c r="O75" s="51"/>
-      <c r="P75" s="52"/>
-      <c r="Q75" s="53"/>
-      <c r="R75" s="45"/>
-      <c r="S75" s="46"/>
-      <c r="T75" s="46"/>
-      <c r="U75" s="47"/>
+      <c r="A75" s="123"/>
+      <c r="B75" s="124"/>
+      <c r="C75" s="134"/>
+      <c r="D75" s="124"/>
+      <c r="E75" s="147"/>
+      <c r="F75" s="148"/>
+      <c r="G75" s="149"/>
+      <c r="H75" s="147"/>
+      <c r="I75" s="148"/>
+      <c r="J75" s="150"/>
+      <c r="K75" s="123"/>
+      <c r="L75" s="124"/>
+      <c r="M75" s="134"/>
+      <c r="N75" s="124"/>
+      <c r="O75" s="147"/>
+      <c r="P75" s="148"/>
+      <c r="Q75" s="149"/>
+      <c r="R75" s="156"/>
+      <c r="S75" s="157"/>
+      <c r="T75" s="157"/>
+      <c r="U75" s="158"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="56"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="57"/>
-      <c r="K76" s="56"/>
-      <c r="L76" s="55"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="55"/>
-      <c r="O76" s="51"/>
-      <c r="P76" s="52"/>
-      <c r="Q76" s="53"/>
-      <c r="R76" s="45"/>
-      <c r="S76" s="46"/>
-      <c r="T76" s="46"/>
-      <c r="U76" s="47"/>
+      <c r="A76" s="123"/>
+      <c r="B76" s="124"/>
+      <c r="C76" s="134"/>
+      <c r="D76" s="124"/>
+      <c r="E76" s="147"/>
+      <c r="F76" s="148"/>
+      <c r="G76" s="149"/>
+      <c r="H76" s="147"/>
+      <c r="I76" s="148"/>
+      <c r="J76" s="150"/>
+      <c r="K76" s="123"/>
+      <c r="L76" s="124"/>
+      <c r="M76" s="134"/>
+      <c r="N76" s="124"/>
+      <c r="O76" s="147"/>
+      <c r="P76" s="148"/>
+      <c r="Q76" s="149"/>
+      <c r="R76" s="156"/>
+      <c r="S76" s="157"/>
+      <c r="T76" s="157"/>
+      <c r="U76" s="158"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="56"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="51"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="53"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="57"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="55"/>
-      <c r="M77" s="54"/>
-      <c r="N77" s="55"/>
-      <c r="O77" s="51"/>
-      <c r="P77" s="52"/>
-      <c r="Q77" s="53"/>
-      <c r="R77" s="45"/>
-      <c r="S77" s="46"/>
-      <c r="T77" s="46"/>
-      <c r="U77" s="47"/>
+      <c r="A77" s="123"/>
+      <c r="B77" s="124"/>
+      <c r="C77" s="134"/>
+      <c r="D77" s="124"/>
+      <c r="E77" s="147"/>
+      <c r="F77" s="148"/>
+      <c r="G77" s="149"/>
+      <c r="H77" s="147"/>
+      <c r="I77" s="148"/>
+      <c r="J77" s="150"/>
+      <c r="K77" s="123"/>
+      <c r="L77" s="124"/>
+      <c r="M77" s="134"/>
+      <c r="N77" s="124"/>
+      <c r="O77" s="147"/>
+      <c r="P77" s="148"/>
+      <c r="Q77" s="149"/>
+      <c r="R77" s="156"/>
+      <c r="S77" s="157"/>
+      <c r="T77" s="157"/>
+      <c r="U77" s="158"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="56"/>
-      <c r="B78" s="55"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="52"/>
-      <c r="J78" s="57"/>
-      <c r="K78" s="56"/>
-      <c r="L78" s="55"/>
-      <c r="M78" s="54"/>
-      <c r="N78" s="55"/>
-      <c r="O78" s="51"/>
-      <c r="P78" s="52"/>
-      <c r="Q78" s="53"/>
-      <c r="R78" s="45"/>
-      <c r="S78" s="46"/>
-      <c r="T78" s="46"/>
-      <c r="U78" s="47"/>
+      <c r="A78" s="123"/>
+      <c r="B78" s="124"/>
+      <c r="C78" s="134"/>
+      <c r="D78" s="124"/>
+      <c r="E78" s="147"/>
+      <c r="F78" s="148"/>
+      <c r="G78" s="149"/>
+      <c r="H78" s="147"/>
+      <c r="I78" s="148"/>
+      <c r="J78" s="150"/>
+      <c r="K78" s="123"/>
+      <c r="L78" s="124"/>
+      <c r="M78" s="134"/>
+      <c r="N78" s="124"/>
+      <c r="O78" s="147"/>
+      <c r="P78" s="148"/>
+      <c r="Q78" s="149"/>
+      <c r="R78" s="156"/>
+      <c r="S78" s="157"/>
+      <c r="T78" s="157"/>
+      <c r="U78" s="158"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="56"/>
-      <c r="B79" s="55"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="51"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="53"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="54"/>
-      <c r="N79" s="55"/>
-      <c r="O79" s="51"/>
-      <c r="P79" s="52"/>
-      <c r="Q79" s="53"/>
-      <c r="R79" s="45"/>
-      <c r="S79" s="46"/>
-      <c r="T79" s="46"/>
-      <c r="U79" s="47"/>
+      <c r="A79" s="123"/>
+      <c r="B79" s="124"/>
+      <c r="C79" s="134"/>
+      <c r="D79" s="124"/>
+      <c r="E79" s="147"/>
+      <c r="F79" s="148"/>
+      <c r="G79" s="149"/>
+      <c r="H79" s="147"/>
+      <c r="I79" s="148"/>
+      <c r="J79" s="150"/>
+      <c r="K79" s="123"/>
+      <c r="L79" s="124"/>
+      <c r="M79" s="134"/>
+      <c r="N79" s="124"/>
+      <c r="O79" s="147"/>
+      <c r="P79" s="148"/>
+      <c r="Q79" s="149"/>
+      <c r="R79" s="156"/>
+      <c r="S79" s="157"/>
+      <c r="T79" s="157"/>
+      <c r="U79" s="158"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="56"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="55"/>
-      <c r="E80" s="51"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
-      <c r="H80" s="51"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="57"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="55"/>
-      <c r="M80" s="54"/>
-      <c r="N80" s="55"/>
-      <c r="O80" s="51"/>
-      <c r="P80" s="52"/>
-      <c r="Q80" s="53"/>
-      <c r="R80" s="45"/>
-      <c r="S80" s="46"/>
-      <c r="T80" s="46"/>
-      <c r="U80" s="47"/>
+      <c r="A80" s="123"/>
+      <c r="B80" s="124"/>
+      <c r="C80" s="134"/>
+      <c r="D80" s="124"/>
+      <c r="E80" s="147"/>
+      <c r="F80" s="148"/>
+      <c r="G80" s="149"/>
+      <c r="H80" s="147"/>
+      <c r="I80" s="148"/>
+      <c r="J80" s="150"/>
+      <c r="K80" s="123"/>
+      <c r="L80" s="124"/>
+      <c r="M80" s="134"/>
+      <c r="N80" s="124"/>
+      <c r="O80" s="147"/>
+      <c r="P80" s="148"/>
+      <c r="Q80" s="149"/>
+      <c r="R80" s="156"/>
+      <c r="S80" s="157"/>
+      <c r="T80" s="157"/>
+      <c r="U80" s="158"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="56"/>
-      <c r="B81" s="55"/>
-      <c r="C81" s="54"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="53"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="57"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="55"/>
-      <c r="M81" s="54"/>
-      <c r="N81" s="55"/>
-      <c r="O81" s="51"/>
-      <c r="P81" s="52"/>
-      <c r="Q81" s="53"/>
-      <c r="R81" s="45"/>
-      <c r="S81" s="46"/>
-      <c r="T81" s="46"/>
-      <c r="U81" s="47"/>
+      <c r="A81" s="123"/>
+      <c r="B81" s="124"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="124"/>
+      <c r="E81" s="147"/>
+      <c r="F81" s="148"/>
+      <c r="G81" s="149"/>
+      <c r="H81" s="147"/>
+      <c r="I81" s="148"/>
+      <c r="J81" s="150"/>
+      <c r="K81" s="123"/>
+      <c r="L81" s="124"/>
+      <c r="M81" s="134"/>
+      <c r="N81" s="124"/>
+      <c r="O81" s="147"/>
+      <c r="P81" s="148"/>
+      <c r="Q81" s="149"/>
+      <c r="R81" s="156"/>
+      <c r="S81" s="157"/>
+      <c r="T81" s="157"/>
+      <c r="U81" s="158"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="56"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="51"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
-      <c r="H82" s="51"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="57"/>
-      <c r="K82" s="56"/>
-      <c r="L82" s="55"/>
-      <c r="M82" s="54"/>
-      <c r="N82" s="55"/>
-      <c r="O82" s="51"/>
-      <c r="P82" s="52"/>
-      <c r="Q82" s="53"/>
-      <c r="R82" s="45"/>
-      <c r="S82" s="46"/>
-      <c r="T82" s="46"/>
-      <c r="U82" s="47"/>
+      <c r="A82" s="123"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="134"/>
+      <c r="D82" s="124"/>
+      <c r="E82" s="147"/>
+      <c r="F82" s="148"/>
+      <c r="G82" s="149"/>
+      <c r="H82" s="147"/>
+      <c r="I82" s="148"/>
+      <c r="J82" s="150"/>
+      <c r="K82" s="123"/>
+      <c r="L82" s="124"/>
+      <c r="M82" s="134"/>
+      <c r="N82" s="124"/>
+      <c r="O82" s="147"/>
+      <c r="P82" s="148"/>
+      <c r="Q82" s="149"/>
+      <c r="R82" s="156"/>
+      <c r="S82" s="157"/>
+      <c r="T82" s="157"/>
+      <c r="U82" s="158"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="56"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="53"/>
-      <c r="H83" s="51"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="57"/>
-      <c r="K83" s="56"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="55"/>
-      <c r="O83" s="51"/>
-      <c r="P83" s="52"/>
-      <c r="Q83" s="53"/>
-      <c r="R83" s="45"/>
-      <c r="S83" s="46"/>
-      <c r="T83" s="46"/>
-      <c r="U83" s="47"/>
+      <c r="A83" s="123"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="147"/>
+      <c r="F83" s="148"/>
+      <c r="G83" s="149"/>
+      <c r="H83" s="147"/>
+      <c r="I83" s="148"/>
+      <c r="J83" s="150"/>
+      <c r="K83" s="123"/>
+      <c r="L83" s="124"/>
+      <c r="M83" s="134"/>
+      <c r="N83" s="124"/>
+      <c r="O83" s="147"/>
+      <c r="P83" s="148"/>
+      <c r="Q83" s="149"/>
+      <c r="R83" s="156"/>
+      <c r="S83" s="157"/>
+      <c r="T83" s="157"/>
+      <c r="U83" s="158"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="56"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="51"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
-      <c r="H84" s="51"/>
-      <c r="I84" s="52"/>
-      <c r="J84" s="57"/>
-      <c r="K84" s="56"/>
-      <c r="L84" s="55"/>
-      <c r="M84" s="54"/>
-      <c r="N84" s="55"/>
-      <c r="O84" s="51"/>
-      <c r="P84" s="52"/>
-      <c r="Q84" s="53"/>
-      <c r="R84" s="45"/>
-      <c r="S84" s="46"/>
-      <c r="T84" s="46"/>
-      <c r="U84" s="47"/>
+      <c r="A84" s="123"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="147"/>
+      <c r="F84" s="148"/>
+      <c r="G84" s="149"/>
+      <c r="H84" s="147"/>
+      <c r="I84" s="148"/>
+      <c r="J84" s="150"/>
+      <c r="K84" s="123"/>
+      <c r="L84" s="124"/>
+      <c r="M84" s="134"/>
+      <c r="N84" s="124"/>
+      <c r="O84" s="147"/>
+      <c r="P84" s="148"/>
+      <c r="Q84" s="149"/>
+      <c r="R84" s="156"/>
+      <c r="S84" s="157"/>
+      <c r="T84" s="157"/>
+      <c r="U84" s="158"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="56"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="51"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="57"/>
-      <c r="K85" s="56"/>
-      <c r="L85" s="55"/>
-      <c r="M85" s="54"/>
-      <c r="N85" s="55"/>
-      <c r="O85" s="51"/>
-      <c r="P85" s="52"/>
-      <c r="Q85" s="53"/>
-      <c r="R85" s="45"/>
-      <c r="S85" s="46"/>
-      <c r="T85" s="46"/>
-      <c r="U85" s="47"/>
+      <c r="A85" s="123"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="147"/>
+      <c r="F85" s="148"/>
+      <c r="G85" s="149"/>
+      <c r="H85" s="147"/>
+      <c r="I85" s="148"/>
+      <c r="J85" s="150"/>
+      <c r="K85" s="123"/>
+      <c r="L85" s="124"/>
+      <c r="M85" s="134"/>
+      <c r="N85" s="124"/>
+      <c r="O85" s="147"/>
+      <c r="P85" s="148"/>
+      <c r="Q85" s="149"/>
+      <c r="R85" s="156"/>
+      <c r="S85" s="157"/>
+      <c r="T85" s="157"/>
+      <c r="U85" s="158"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A86" s="56"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
-      <c r="H86" s="51"/>
-      <c r="I86" s="52"/>
-      <c r="J86" s="57"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="54"/>
-      <c r="N86" s="55"/>
-      <c r="O86" s="51"/>
-      <c r="P86" s="52"/>
-      <c r="Q86" s="53"/>
-      <c r="R86" s="45"/>
-      <c r="S86" s="46"/>
-      <c r="T86" s="46"/>
-      <c r="U86" s="47"/>
+      <c r="A86" s="123"/>
+      <c r="B86" s="124"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="124"/>
+      <c r="E86" s="147"/>
+      <c r="F86" s="148"/>
+      <c r="G86" s="149"/>
+      <c r="H86" s="147"/>
+      <c r="I86" s="148"/>
+      <c r="J86" s="150"/>
+      <c r="K86" s="123"/>
+      <c r="L86" s="124"/>
+      <c r="M86" s="134"/>
+      <c r="N86" s="124"/>
+      <c r="O86" s="147"/>
+      <c r="P86" s="148"/>
+      <c r="Q86" s="149"/>
+      <c r="R86" s="156"/>
+      <c r="S86" s="157"/>
+      <c r="T86" s="157"/>
+      <c r="U86" s="158"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="56"/>
-      <c r="B87" s="55"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="51"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="53"/>
-      <c r="H87" s="51"/>
-      <c r="I87" s="52"/>
-      <c r="J87" s="57"/>
-      <c r="K87" s="56"/>
-      <c r="L87" s="55"/>
-      <c r="M87" s="54"/>
-      <c r="N87" s="55"/>
-      <c r="O87" s="51"/>
-      <c r="P87" s="52"/>
-      <c r="Q87" s="53"/>
-      <c r="R87" s="45"/>
-      <c r="S87" s="46"/>
-      <c r="T87" s="46"/>
-      <c r="U87" s="47"/>
+      <c r="A87" s="123"/>
+      <c r="B87" s="124"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="124"/>
+      <c r="E87" s="147"/>
+      <c r="F87" s="148"/>
+      <c r="G87" s="149"/>
+      <c r="H87" s="147"/>
+      <c r="I87" s="148"/>
+      <c r="J87" s="150"/>
+      <c r="K87" s="123"/>
+      <c r="L87" s="124"/>
+      <c r="M87" s="134"/>
+      <c r="N87" s="124"/>
+      <c r="O87" s="147"/>
+      <c r="P87" s="148"/>
+      <c r="Q87" s="149"/>
+      <c r="R87" s="156"/>
+      <c r="S87" s="157"/>
+      <c r="T87" s="157"/>
+      <c r="U87" s="158"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A88" s="56"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="52"/>
-      <c r="J88" s="57"/>
-      <c r="K88" s="56"/>
-      <c r="L88" s="55"/>
-      <c r="M88" s="54"/>
-      <c r="N88" s="55"/>
-      <c r="O88" s="51"/>
-      <c r="P88" s="52"/>
-      <c r="Q88" s="53"/>
-      <c r="R88" s="45"/>
-      <c r="S88" s="46"/>
-      <c r="T88" s="46"/>
-      <c r="U88" s="47"/>
+      <c r="A88" s="123"/>
+      <c r="B88" s="124"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="124"/>
+      <c r="E88" s="147"/>
+      <c r="F88" s="148"/>
+      <c r="G88" s="149"/>
+      <c r="H88" s="147"/>
+      <c r="I88" s="148"/>
+      <c r="J88" s="150"/>
+      <c r="K88" s="123"/>
+      <c r="L88" s="124"/>
+      <c r="M88" s="134"/>
+      <c r="N88" s="124"/>
+      <c r="O88" s="147"/>
+      <c r="P88" s="148"/>
+      <c r="Q88" s="149"/>
+      <c r="R88" s="156"/>
+      <c r="S88" s="157"/>
+      <c r="T88" s="157"/>
+      <c r="U88" s="158"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="56"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="54"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="53"/>
-      <c r="H89" s="51"/>
-      <c r="I89" s="52"/>
-      <c r="J89" s="57"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="55"/>
-      <c r="M89" s="54"/>
-      <c r="N89" s="55"/>
-      <c r="O89" s="51"/>
-      <c r="P89" s="52"/>
-      <c r="Q89" s="53"/>
-      <c r="R89" s="45"/>
-      <c r="S89" s="46"/>
-      <c r="T89" s="46"/>
-      <c r="U89" s="47"/>
+      <c r="A89" s="123"/>
+      <c r="B89" s="124"/>
+      <c r="C89" s="134"/>
+      <c r="D89" s="124"/>
+      <c r="E89" s="147"/>
+      <c r="F89" s="148"/>
+      <c r="G89" s="149"/>
+      <c r="H89" s="147"/>
+      <c r="I89" s="148"/>
+      <c r="J89" s="150"/>
+      <c r="K89" s="123"/>
+      <c r="L89" s="124"/>
+      <c r="M89" s="134"/>
+      <c r="N89" s="124"/>
+      <c r="O89" s="147"/>
+      <c r="P89" s="148"/>
+      <c r="Q89" s="149"/>
+      <c r="R89" s="156"/>
+      <c r="S89" s="157"/>
+      <c r="T89" s="157"/>
+      <c r="U89" s="158"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="56"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="53"/>
-      <c r="H90" s="51"/>
-      <c r="I90" s="52"/>
-      <c r="J90" s="57"/>
-      <c r="K90" s="56"/>
-      <c r="L90" s="55"/>
-      <c r="M90" s="54"/>
-      <c r="N90" s="55"/>
-      <c r="O90" s="51"/>
-      <c r="P90" s="52"/>
-      <c r="Q90" s="53"/>
-      <c r="R90" s="45"/>
-      <c r="S90" s="46"/>
-      <c r="T90" s="46"/>
-      <c r="U90" s="47"/>
+      <c r="A90" s="123"/>
+      <c r="B90" s="124"/>
+      <c r="C90" s="134"/>
+      <c r="D90" s="124"/>
+      <c r="E90" s="147"/>
+      <c r="F90" s="148"/>
+      <c r="G90" s="149"/>
+      <c r="H90" s="147"/>
+      <c r="I90" s="148"/>
+      <c r="J90" s="150"/>
+      <c r="K90" s="123"/>
+      <c r="L90" s="124"/>
+      <c r="M90" s="134"/>
+      <c r="N90" s="124"/>
+      <c r="O90" s="147"/>
+      <c r="P90" s="148"/>
+      <c r="Q90" s="149"/>
+      <c r="R90" s="156"/>
+      <c r="S90" s="157"/>
+      <c r="T90" s="157"/>
+      <c r="U90" s="158"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="56"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="51"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="52"/>
-      <c r="J91" s="57"/>
-      <c r="K91" s="56"/>
-      <c r="L91" s="55"/>
-      <c r="M91" s="54"/>
-      <c r="N91" s="55"/>
-      <c r="O91" s="51"/>
-      <c r="P91" s="52"/>
-      <c r="Q91" s="53"/>
-      <c r="R91" s="45"/>
-      <c r="S91" s="46"/>
-      <c r="T91" s="46"/>
-      <c r="U91" s="47"/>
+      <c r="A91" s="123"/>
+      <c r="B91" s="124"/>
+      <c r="C91" s="134"/>
+      <c r="D91" s="124"/>
+      <c r="E91" s="147"/>
+      <c r="F91" s="148"/>
+      <c r="G91" s="149"/>
+      <c r="H91" s="147"/>
+      <c r="I91" s="148"/>
+      <c r="J91" s="150"/>
+      <c r="K91" s="123"/>
+      <c r="L91" s="124"/>
+      <c r="M91" s="134"/>
+      <c r="N91" s="124"/>
+      <c r="O91" s="147"/>
+      <c r="P91" s="148"/>
+      <c r="Q91" s="149"/>
+      <c r="R91" s="156"/>
+      <c r="S91" s="157"/>
+      <c r="T91" s="157"/>
+      <c r="U91" s="158"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="56"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="54"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="51"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="53"/>
-      <c r="H92" s="51"/>
-      <c r="I92" s="52"/>
-      <c r="J92" s="57"/>
-      <c r="K92" s="56"/>
-      <c r="L92" s="55"/>
-      <c r="M92" s="54"/>
-      <c r="N92" s="55"/>
-      <c r="O92" s="51"/>
-      <c r="P92" s="52"/>
-      <c r="Q92" s="53"/>
-      <c r="R92" s="45"/>
-      <c r="S92" s="46"/>
-      <c r="T92" s="46"/>
-      <c r="U92" s="47"/>
+      <c r="A92" s="123"/>
+      <c r="B92" s="124"/>
+      <c r="C92" s="134"/>
+      <c r="D92" s="124"/>
+      <c r="E92" s="147"/>
+      <c r="F92" s="148"/>
+      <c r="G92" s="149"/>
+      <c r="H92" s="147"/>
+      <c r="I92" s="148"/>
+      <c r="J92" s="150"/>
+      <c r="K92" s="123"/>
+      <c r="L92" s="124"/>
+      <c r="M92" s="134"/>
+      <c r="N92" s="124"/>
+      <c r="O92" s="147"/>
+      <c r="P92" s="148"/>
+      <c r="Q92" s="149"/>
+      <c r="R92" s="156"/>
+      <c r="S92" s="157"/>
+      <c r="T92" s="157"/>
+      <c r="U92" s="158"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="56"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="54"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="53"/>
-      <c r="H93" s="51"/>
-      <c r="I93" s="52"/>
-      <c r="J93" s="57"/>
-      <c r="K93" s="56"/>
-      <c r="L93" s="55"/>
-      <c r="M93" s="54"/>
-      <c r="N93" s="55"/>
-      <c r="O93" s="51"/>
-      <c r="P93" s="52"/>
-      <c r="Q93" s="53"/>
-      <c r="R93" s="45"/>
-      <c r="S93" s="46"/>
-      <c r="T93" s="46"/>
-      <c r="U93" s="47"/>
+      <c r="A93" s="123"/>
+      <c r="B93" s="124"/>
+      <c r="C93" s="134"/>
+      <c r="D93" s="124"/>
+      <c r="E93" s="147"/>
+      <c r="F93" s="148"/>
+      <c r="G93" s="149"/>
+      <c r="H93" s="147"/>
+      <c r="I93" s="148"/>
+      <c r="J93" s="150"/>
+      <c r="K93" s="123"/>
+      <c r="L93" s="124"/>
+      <c r="M93" s="134"/>
+      <c r="N93" s="124"/>
+      <c r="O93" s="147"/>
+      <c r="P93" s="148"/>
+      <c r="Q93" s="149"/>
+      <c r="R93" s="156"/>
+      <c r="S93" s="157"/>
+      <c r="T93" s="157"/>
+      <c r="U93" s="158"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="56"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="54"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="52"/>
-      <c r="G94" s="53"/>
-      <c r="H94" s="51"/>
-      <c r="I94" s="52"/>
-      <c r="J94" s="57"/>
-      <c r="K94" s="56"/>
-      <c r="L94" s="55"/>
-      <c r="M94" s="54"/>
-      <c r="N94" s="55"/>
-      <c r="O94" s="51"/>
-      <c r="P94" s="52"/>
-      <c r="Q94" s="53"/>
-      <c r="R94" s="45"/>
-      <c r="S94" s="46"/>
-      <c r="T94" s="46"/>
-      <c r="U94" s="47"/>
+      <c r="A94" s="123"/>
+      <c r="B94" s="124"/>
+      <c r="C94" s="134"/>
+      <c r="D94" s="124"/>
+      <c r="E94" s="147"/>
+      <c r="F94" s="148"/>
+      <c r="G94" s="149"/>
+      <c r="H94" s="147"/>
+      <c r="I94" s="148"/>
+      <c r="J94" s="150"/>
+      <c r="K94" s="123"/>
+      <c r="L94" s="124"/>
+      <c r="M94" s="134"/>
+      <c r="N94" s="124"/>
+      <c r="O94" s="147"/>
+      <c r="P94" s="148"/>
+      <c r="Q94" s="149"/>
+      <c r="R94" s="156"/>
+      <c r="S94" s="157"/>
+      <c r="T94" s="157"/>
+      <c r="U94" s="158"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="56"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="55"/>
-      <c r="E95" s="51"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="51"/>
-      <c r="I95" s="52"/>
-      <c r="J95" s="57"/>
-      <c r="K95" s="56"/>
-      <c r="L95" s="55"/>
-      <c r="M95" s="54"/>
-      <c r="N95" s="55"/>
-      <c r="O95" s="51"/>
-      <c r="P95" s="52"/>
-      <c r="Q95" s="53"/>
-      <c r="R95" s="45"/>
-      <c r="S95" s="46"/>
-      <c r="T95" s="46"/>
-      <c r="U95" s="47"/>
+      <c r="A95" s="123"/>
+      <c r="B95" s="124"/>
+      <c r="C95" s="134"/>
+      <c r="D95" s="124"/>
+      <c r="E95" s="147"/>
+      <c r="F95" s="148"/>
+      <c r="G95" s="149"/>
+      <c r="H95" s="147"/>
+      <c r="I95" s="148"/>
+      <c r="J95" s="150"/>
+      <c r="K95" s="123"/>
+      <c r="L95" s="124"/>
+      <c r="M95" s="134"/>
+      <c r="N95" s="124"/>
+      <c r="O95" s="147"/>
+      <c r="P95" s="148"/>
+      <c r="Q95" s="149"/>
+      <c r="R95" s="156"/>
+      <c r="S95" s="157"/>
+      <c r="T95" s="157"/>
+      <c r="U95" s="158"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="56"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="54"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="51"/>
-      <c r="I96" s="52"/>
-      <c r="J96" s="57"/>
-      <c r="K96" s="56"/>
-      <c r="L96" s="55"/>
-      <c r="M96" s="54"/>
-      <c r="N96" s="55"/>
-      <c r="O96" s="51"/>
-      <c r="P96" s="52"/>
-      <c r="Q96" s="53"/>
-      <c r="R96" s="45"/>
-      <c r="S96" s="46"/>
-      <c r="T96" s="46"/>
-      <c r="U96" s="47"/>
+      <c r="A96" s="123"/>
+      <c r="B96" s="124"/>
+      <c r="C96" s="134"/>
+      <c r="D96" s="124"/>
+      <c r="E96" s="147"/>
+      <c r="F96" s="148"/>
+      <c r="G96" s="149"/>
+      <c r="H96" s="147"/>
+      <c r="I96" s="148"/>
+      <c r="J96" s="150"/>
+      <c r="K96" s="123"/>
+      <c r="L96" s="124"/>
+      <c r="M96" s="134"/>
+      <c r="N96" s="124"/>
+      <c r="O96" s="147"/>
+      <c r="P96" s="148"/>
+      <c r="Q96" s="149"/>
+      <c r="R96" s="156"/>
+      <c r="S96" s="157"/>
+      <c r="T96" s="157"/>
+      <c r="U96" s="158"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="56"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="54"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="52"/>
-      <c r="J97" s="57"/>
-      <c r="K97" s="56"/>
-      <c r="L97" s="55"/>
-      <c r="M97" s="54"/>
-      <c r="N97" s="55"/>
-      <c r="O97" s="51"/>
-      <c r="P97" s="52"/>
-      <c r="Q97" s="53"/>
-      <c r="R97" s="45"/>
-      <c r="S97" s="46"/>
-      <c r="T97" s="46"/>
-      <c r="U97" s="47"/>
+      <c r="A97" s="123"/>
+      <c r="B97" s="124"/>
+      <c r="C97" s="134"/>
+      <c r="D97" s="124"/>
+      <c r="E97" s="147"/>
+      <c r="F97" s="148"/>
+      <c r="G97" s="149"/>
+      <c r="H97" s="147"/>
+      <c r="I97" s="148"/>
+      <c r="J97" s="150"/>
+      <c r="K97" s="123"/>
+      <c r="L97" s="124"/>
+      <c r="M97" s="134"/>
+      <c r="N97" s="124"/>
+      <c r="O97" s="147"/>
+      <c r="P97" s="148"/>
+      <c r="Q97" s="149"/>
+      <c r="R97" s="156"/>
+      <c r="S97" s="157"/>
+      <c r="T97" s="157"/>
+      <c r="U97" s="158"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="56"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="51"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="53"/>
-      <c r="H98" s="51"/>
-      <c r="I98" s="52"/>
-      <c r="J98" s="57"/>
-      <c r="K98" s="56"/>
-      <c r="L98" s="55"/>
-      <c r="M98" s="54"/>
-      <c r="N98" s="55"/>
-      <c r="O98" s="51"/>
-      <c r="P98" s="52"/>
-      <c r="Q98" s="53"/>
-      <c r="R98" s="45"/>
-      <c r="S98" s="46"/>
-      <c r="T98" s="46"/>
-      <c r="U98" s="47"/>
+      <c r="A98" s="123"/>
+      <c r="B98" s="124"/>
+      <c r="C98" s="134"/>
+      <c r="D98" s="124"/>
+      <c r="E98" s="147"/>
+      <c r="F98" s="148"/>
+      <c r="G98" s="149"/>
+      <c r="H98" s="147"/>
+      <c r="I98" s="148"/>
+      <c r="J98" s="150"/>
+      <c r="K98" s="123"/>
+      <c r="L98" s="124"/>
+      <c r="M98" s="134"/>
+      <c r="N98" s="124"/>
+      <c r="O98" s="147"/>
+      <c r="P98" s="148"/>
+      <c r="Q98" s="149"/>
+      <c r="R98" s="156"/>
+      <c r="S98" s="157"/>
+      <c r="T98" s="157"/>
+      <c r="U98" s="158"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="56"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="54"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="51"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="53"/>
-      <c r="H99" s="51"/>
-      <c r="I99" s="52"/>
-      <c r="J99" s="57"/>
-      <c r="K99" s="56"/>
-      <c r="L99" s="55"/>
-      <c r="M99" s="54"/>
-      <c r="N99" s="55"/>
-      <c r="O99" s="51"/>
-      <c r="P99" s="52"/>
-      <c r="Q99" s="53"/>
-      <c r="R99" s="45"/>
-      <c r="S99" s="46"/>
-      <c r="T99" s="46"/>
-      <c r="U99" s="47"/>
+      <c r="A99" s="123"/>
+      <c r="B99" s="124"/>
+      <c r="C99" s="134"/>
+      <c r="D99" s="124"/>
+      <c r="E99" s="147"/>
+      <c r="F99" s="148"/>
+      <c r="G99" s="149"/>
+      <c r="H99" s="147"/>
+      <c r="I99" s="148"/>
+      <c r="J99" s="150"/>
+      <c r="K99" s="123"/>
+      <c r="L99" s="124"/>
+      <c r="M99" s="134"/>
+      <c r="N99" s="124"/>
+      <c r="O99" s="147"/>
+      <c r="P99" s="148"/>
+      <c r="Q99" s="149"/>
+      <c r="R99" s="156"/>
+      <c r="S99" s="157"/>
+      <c r="T99" s="157"/>
+      <c r="U99" s="158"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A100" s="56"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="51"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="51"/>
-      <c r="I100" s="52"/>
-      <c r="J100" s="57"/>
-      <c r="K100" s="56"/>
-      <c r="L100" s="55"/>
-      <c r="M100" s="54"/>
-      <c r="N100" s="55"/>
-      <c r="O100" s="51"/>
-      <c r="P100" s="52"/>
-      <c r="Q100" s="53"/>
-      <c r="R100" s="45"/>
-      <c r="S100" s="46"/>
-      <c r="T100" s="46"/>
-      <c r="U100" s="47"/>
+      <c r="A100" s="123"/>
+      <c r="B100" s="124"/>
+      <c r="C100" s="134"/>
+      <c r="D100" s="124"/>
+      <c r="E100" s="147"/>
+      <c r="F100" s="148"/>
+      <c r="G100" s="149"/>
+      <c r="H100" s="147"/>
+      <c r="I100" s="148"/>
+      <c r="J100" s="150"/>
+      <c r="K100" s="123"/>
+      <c r="L100" s="124"/>
+      <c r="M100" s="134"/>
+      <c r="N100" s="124"/>
+      <c r="O100" s="147"/>
+      <c r="P100" s="148"/>
+      <c r="Q100" s="149"/>
+      <c r="R100" s="156"/>
+      <c r="S100" s="157"/>
+      <c r="T100" s="157"/>
+      <c r="U100" s="158"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="56"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="53"/>
-      <c r="H101" s="51"/>
-      <c r="I101" s="52"/>
-      <c r="J101" s="57"/>
-      <c r="K101" s="56"/>
-      <c r="L101" s="55"/>
-      <c r="M101" s="54"/>
-      <c r="N101" s="55"/>
-      <c r="O101" s="51"/>
-      <c r="P101" s="52"/>
-      <c r="Q101" s="53"/>
-      <c r="R101" s="45"/>
-      <c r="S101" s="46"/>
-      <c r="T101" s="46"/>
-      <c r="U101" s="47"/>
+      <c r="A101" s="123"/>
+      <c r="B101" s="124"/>
+      <c r="C101" s="134"/>
+      <c r="D101" s="124"/>
+      <c r="E101" s="147"/>
+      <c r="F101" s="148"/>
+      <c r="G101" s="149"/>
+      <c r="H101" s="147"/>
+      <c r="I101" s="148"/>
+      <c r="J101" s="150"/>
+      <c r="K101" s="123"/>
+      <c r="L101" s="124"/>
+      <c r="M101" s="134"/>
+      <c r="N101" s="124"/>
+      <c r="O101" s="147"/>
+      <c r="P101" s="148"/>
+      <c r="Q101" s="149"/>
+      <c r="R101" s="156"/>
+      <c r="S101" s="157"/>
+      <c r="T101" s="157"/>
+      <c r="U101" s="158"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="56"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="54"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="51"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="53"/>
-      <c r="H102" s="51"/>
-      <c r="I102" s="52"/>
-      <c r="J102" s="57"/>
-      <c r="K102" s="56"/>
-      <c r="L102" s="55"/>
-      <c r="M102" s="54"/>
-      <c r="N102" s="55"/>
-      <c r="O102" s="51"/>
-      <c r="P102" s="52"/>
-      <c r="Q102" s="53"/>
-      <c r="R102" s="45"/>
-      <c r="S102" s="46"/>
-      <c r="T102" s="46"/>
-      <c r="U102" s="47"/>
+      <c r="A102" s="123"/>
+      <c r="B102" s="124"/>
+      <c r="C102" s="134"/>
+      <c r="D102" s="124"/>
+      <c r="E102" s="147"/>
+      <c r="F102" s="148"/>
+      <c r="G102" s="149"/>
+      <c r="H102" s="147"/>
+      <c r="I102" s="148"/>
+      <c r="J102" s="150"/>
+      <c r="K102" s="123"/>
+      <c r="L102" s="124"/>
+      <c r="M102" s="134"/>
+      <c r="N102" s="124"/>
+      <c r="O102" s="147"/>
+      <c r="P102" s="148"/>
+      <c r="Q102" s="149"/>
+      <c r="R102" s="156"/>
+      <c r="S102" s="157"/>
+      <c r="T102" s="157"/>
+      <c r="U102" s="158"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="56"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="55"/>
-      <c r="E103" s="51"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="53"/>
-      <c r="H103" s="51"/>
-      <c r="I103" s="52"/>
-      <c r="J103" s="57"/>
-      <c r="K103" s="56"/>
-      <c r="L103" s="55"/>
-      <c r="M103" s="54"/>
-      <c r="N103" s="55"/>
-      <c r="O103" s="51"/>
-      <c r="P103" s="52"/>
-      <c r="Q103" s="53"/>
-      <c r="R103" s="45"/>
-      <c r="S103" s="46"/>
-      <c r="T103" s="46"/>
-      <c r="U103" s="47"/>
+      <c r="A103" s="123"/>
+      <c r="B103" s="124"/>
+      <c r="C103" s="134"/>
+      <c r="D103" s="124"/>
+      <c r="E103" s="147"/>
+      <c r="F103" s="148"/>
+      <c r="G103" s="149"/>
+      <c r="H103" s="147"/>
+      <c r="I103" s="148"/>
+      <c r="J103" s="150"/>
+      <c r="K103" s="123"/>
+      <c r="L103" s="124"/>
+      <c r="M103" s="134"/>
+      <c r="N103" s="124"/>
+      <c r="O103" s="147"/>
+      <c r="P103" s="148"/>
+      <c r="Q103" s="149"/>
+      <c r="R103" s="156"/>
+      <c r="S103" s="157"/>
+      <c r="T103" s="157"/>
+      <c r="U103" s="158"/>
     </row>
     <row r="104" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="38"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="42"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="44"/>
-      <c r="K104" s="38"/>
-      <c r="L104" s="39"/>
-      <c r="M104" s="40"/>
-      <c r="N104" s="39"/>
-      <c r="O104" s="41"/>
-      <c r="P104" s="42"/>
-      <c r="Q104" s="43"/>
-      <c r="R104" s="48"/>
-      <c r="S104" s="49"/>
-      <c r="T104" s="49"/>
-      <c r="U104" s="50"/>
+      <c r="A104" s="161"/>
+      <c r="B104" s="152"/>
+      <c r="C104" s="151"/>
+      <c r="D104" s="152"/>
+      <c r="E104" s="153"/>
+      <c r="F104" s="154"/>
+      <c r="G104" s="155"/>
+      <c r="H104" s="153"/>
+      <c r="I104" s="154"/>
+      <c r="J104" s="162"/>
+      <c r="K104" s="161"/>
+      <c r="L104" s="152"/>
+      <c r="M104" s="151"/>
+      <c r="N104" s="152"/>
+      <c r="O104" s="153"/>
+      <c r="P104" s="154"/>
+      <c r="Q104" s="155"/>
+      <c r="R104" s="163"/>
+      <c r="S104" s="164"/>
+      <c r="T104" s="164"/>
+      <c r="U104" s="165"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
@@ -3340,297 +3352,297 @@
       <c r="U105" s="10"/>
     </row>
     <row r="106" spans="1:21" s="3" customFormat="1" ht="152.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="77" t="s">
+      <c r="A106" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="B106" s="77"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="77"/>
-      <c r="I106" s="77"/>
-      <c r="J106" s="77"/>
-      <c r="K106" s="77"/>
-      <c r="L106" s="77"/>
-      <c r="M106" s="77"/>
-      <c r="N106" s="77"/>
-      <c r="O106" s="77"/>
-      <c r="P106" s="77"/>
-      <c r="Q106" s="77"/>
-      <c r="R106" s="77"/>
-      <c r="S106" s="77"/>
-      <c r="T106" s="77"/>
-      <c r="U106" s="77"/>
+      <c r="B106" s="135"/>
+      <c r="C106" s="135"/>
+      <c r="D106" s="135"/>
+      <c r="E106" s="135"/>
+      <c r="F106" s="135"/>
+      <c r="G106" s="135"/>
+      <c r="H106" s="135"/>
+      <c r="I106" s="135"/>
+      <c r="J106" s="135"/>
+      <c r="K106" s="135"/>
+      <c r="L106" s="135"/>
+      <c r="M106" s="135"/>
+      <c r="N106" s="135"/>
+      <c r="O106" s="135"/>
+      <c r="P106" s="135"/>
+      <c r="Q106" s="135"/>
+      <c r="R106" s="135"/>
+      <c r="S106" s="135"/>
+      <c r="T106" s="135"/>
+      <c r="U106" s="135"/>
     </row>
     <row r="107" spans="1:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="A107" s="59" t="s">
+      <c r="A107" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="B107" s="59"/>
-      <c r="C107" s="59"/>
-      <c r="D107" s="59"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59"/>
-      <c r="I107" s="59"/>
-      <c r="J107" s="59"/>
-      <c r="K107" s="59"/>
-      <c r="L107" s="59"/>
-      <c r="M107" s="59"/>
-      <c r="N107" s="59"/>
-      <c r="O107" s="59"/>
-      <c r="P107" s="59"/>
-      <c r="Q107" s="59"/>
-      <c r="R107" s="59"/>
-      <c r="S107" s="59"/>
-      <c r="T107" s="59"/>
-      <c r="U107" s="59"/>
+      <c r="B107" s="113"/>
+      <c r="C107" s="113"/>
+      <c r="D107" s="113"/>
+      <c r="E107" s="113"/>
+      <c r="F107" s="113"/>
+      <c r="G107" s="113"/>
+      <c r="H107" s="113"/>
+      <c r="I107" s="113"/>
+      <c r="J107" s="113"/>
+      <c r="K107" s="113"/>
+      <c r="L107" s="113"/>
+      <c r="M107" s="113"/>
+      <c r="N107" s="113"/>
+      <c r="O107" s="113"/>
+      <c r="P107" s="113"/>
+      <c r="Q107" s="113"/>
+      <c r="R107" s="113"/>
+      <c r="S107" s="113"/>
+      <c r="T107" s="113"/>
+      <c r="U107" s="113"/>
     </row>
     <row r="108" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="60" t="s">
+      <c r="A109" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="B109" s="61"/>
-      <c r="C109" s="61"/>
-      <c r="D109" s="61"/>
-      <c r="E109" s="61"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="61"/>
-      <c r="H109" s="61"/>
-      <c r="I109" s="61"/>
-      <c r="J109" s="61"/>
-      <c r="K109" s="61"/>
-      <c r="L109" s="61"/>
-      <c r="M109" s="61"/>
-      <c r="N109" s="61"/>
-      <c r="O109" s="61"/>
-      <c r="P109" s="61"/>
-      <c r="Q109" s="61"/>
-      <c r="R109" s="61"/>
-      <c r="S109" s="61"/>
-      <c r="T109" s="61"/>
-      <c r="U109" s="62"/>
+      <c r="B109" s="137"/>
+      <c r="C109" s="137"/>
+      <c r="D109" s="137"/>
+      <c r="E109" s="137"/>
+      <c r="F109" s="137"/>
+      <c r="G109" s="137"/>
+      <c r="H109" s="137"/>
+      <c r="I109" s="137"/>
+      <c r="J109" s="137"/>
+      <c r="K109" s="137"/>
+      <c r="L109" s="137"/>
+      <c r="M109" s="137"/>
+      <c r="N109" s="137"/>
+      <c r="O109" s="137"/>
+      <c r="P109" s="137"/>
+      <c r="Q109" s="137"/>
+      <c r="R109" s="137"/>
+      <c r="S109" s="137"/>
+      <c r="T109" s="137"/>
+      <c r="U109" s="138"/>
     </row>
     <row r="110" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="66"/>
-      <c r="B110" s="67"/>
-      <c r="C110" s="67"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67"/>
-      <c r="F110" s="67"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="67"/>
-      <c r="J110" s="67"/>
-      <c r="K110" s="67"/>
-      <c r="L110" s="67"/>
-      <c r="M110" s="67"/>
-      <c r="N110" s="67"/>
-      <c r="O110" s="67"/>
-      <c r="P110" s="67"/>
-      <c r="Q110" s="67"/>
-      <c r="R110" s="67"/>
-      <c r="S110" s="67"/>
-      <c r="T110" s="67"/>
-      <c r="U110" s="68"/>
+      <c r="A110" s="142"/>
+      <c r="B110" s="143"/>
+      <c r="C110" s="143"/>
+      <c r="D110" s="143"/>
+      <c r="E110" s="143"/>
+      <c r="F110" s="143"/>
+      <c r="G110" s="143"/>
+      <c r="H110" s="143"/>
+      <c r="I110" s="143"/>
+      <c r="J110" s="143"/>
+      <c r="K110" s="143"/>
+      <c r="L110" s="143"/>
+      <c r="M110" s="143"/>
+      <c r="N110" s="143"/>
+      <c r="O110" s="143"/>
+      <c r="P110" s="143"/>
+      <c r="Q110" s="143"/>
+      <c r="R110" s="143"/>
+      <c r="S110" s="143"/>
+      <c r="T110" s="143"/>
+      <c r="U110" s="144"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="60" t="s">
+      <c r="A111" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="B111" s="61"/>
-      <c r="C111" s="61"/>
-      <c r="D111" s="61"/>
-      <c r="E111" s="61"/>
-      <c r="F111" s="61"/>
-      <c r="G111" s="61"/>
-      <c r="H111" s="61"/>
-      <c r="I111" s="61"/>
-      <c r="J111" s="61"/>
-      <c r="K111" s="61"/>
-      <c r="L111" s="61"/>
-      <c r="M111" s="61"/>
-      <c r="N111" s="61"/>
-      <c r="O111" s="61"/>
-      <c r="P111" s="61"/>
-      <c r="Q111" s="61"/>
-      <c r="R111" s="61"/>
-      <c r="S111" s="61"/>
-      <c r="T111" s="61"/>
-      <c r="U111" s="62"/>
+      <c r="B111" s="137"/>
+      <c r="C111" s="137"/>
+      <c r="D111" s="137"/>
+      <c r="E111" s="137"/>
+      <c r="F111" s="137"/>
+      <c r="G111" s="137"/>
+      <c r="H111" s="137"/>
+      <c r="I111" s="137"/>
+      <c r="J111" s="137"/>
+      <c r="K111" s="137"/>
+      <c r="L111" s="137"/>
+      <c r="M111" s="137"/>
+      <c r="N111" s="137"/>
+      <c r="O111" s="137"/>
+      <c r="P111" s="137"/>
+      <c r="Q111" s="137"/>
+      <c r="R111" s="137"/>
+      <c r="S111" s="137"/>
+      <c r="T111" s="137"/>
+      <c r="U111" s="138"/>
     </row>
     <row r="112" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="63"/>
-      <c r="B112" s="64"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="64"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="64"/>
-      <c r="H112" s="64"/>
-      <c r="I112" s="64"/>
-      <c r="J112" s="64"/>
-      <c r="K112" s="64"/>
-      <c r="L112" s="64"/>
-      <c r="M112" s="64"/>
-      <c r="N112" s="64"/>
-      <c r="O112" s="64"/>
-      <c r="P112" s="64"/>
-      <c r="Q112" s="64"/>
-      <c r="R112" s="64"/>
-      <c r="S112" s="64"/>
-      <c r="T112" s="64"/>
-      <c r="U112" s="65"/>
+      <c r="A112" s="139"/>
+      <c r="B112" s="140"/>
+      <c r="C112" s="140"/>
+      <c r="D112" s="140"/>
+      <c r="E112" s="140"/>
+      <c r="F112" s="140"/>
+      <c r="G112" s="140"/>
+      <c r="H112" s="140"/>
+      <c r="I112" s="140"/>
+      <c r="J112" s="140"/>
+      <c r="K112" s="140"/>
+      <c r="L112" s="140"/>
+      <c r="M112" s="140"/>
+      <c r="N112" s="140"/>
+      <c r="O112" s="140"/>
+      <c r="P112" s="140"/>
+      <c r="Q112" s="140"/>
+      <c r="R112" s="140"/>
+      <c r="S112" s="140"/>
+      <c r="T112" s="140"/>
+      <c r="U112" s="141"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="60" t="s">
+      <c r="A113" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B113" s="61"/>
-      <c r="C113" s="61"/>
-      <c r="D113" s="61"/>
-      <c r="E113" s="61"/>
-      <c r="F113" s="61"/>
-      <c r="G113" s="61"/>
-      <c r="H113" s="61"/>
-      <c r="I113" s="61"/>
-      <c r="J113" s="61"/>
-      <c r="K113" s="61"/>
-      <c r="L113" s="61"/>
-      <c r="M113" s="61"/>
-      <c r="N113" s="61"/>
-      <c r="O113" s="61"/>
-      <c r="P113" s="61"/>
-      <c r="Q113" s="61"/>
-      <c r="R113" s="61"/>
-      <c r="S113" s="61"/>
-      <c r="T113" s="61"/>
-      <c r="U113" s="62"/>
+      <c r="B113" s="137"/>
+      <c r="C113" s="137"/>
+      <c r="D113" s="137"/>
+      <c r="E113" s="137"/>
+      <c r="F113" s="137"/>
+      <c r="G113" s="137"/>
+      <c r="H113" s="137"/>
+      <c r="I113" s="137"/>
+      <c r="J113" s="137"/>
+      <c r="K113" s="137"/>
+      <c r="L113" s="137"/>
+      <c r="M113" s="137"/>
+      <c r="N113" s="137"/>
+      <c r="O113" s="137"/>
+      <c r="P113" s="137"/>
+      <c r="Q113" s="137"/>
+      <c r="R113" s="137"/>
+      <c r="S113" s="137"/>
+      <c r="T113" s="137"/>
+      <c r="U113" s="138"/>
     </row>
     <row r="114" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="63"/>
-      <c r="B114" s="64"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="64"/>
-      <c r="F114" s="64"/>
-      <c r="G114" s="64"/>
-      <c r="H114" s="64"/>
-      <c r="I114" s="64"/>
-      <c r="J114" s="64"/>
-      <c r="K114" s="64"/>
-      <c r="L114" s="64"/>
-      <c r="M114" s="64"/>
-      <c r="N114" s="64"/>
-      <c r="O114" s="64"/>
-      <c r="P114" s="64"/>
-      <c r="Q114" s="64"/>
-      <c r="R114" s="64"/>
-      <c r="S114" s="64"/>
-      <c r="T114" s="64"/>
-      <c r="U114" s="65"/>
+      <c r="A114" s="139"/>
+      <c r="B114" s="140"/>
+      <c r="C114" s="140"/>
+      <c r="D114" s="140"/>
+      <c r="E114" s="140"/>
+      <c r="F114" s="140"/>
+      <c r="G114" s="140"/>
+      <c r="H114" s="140"/>
+      <c r="I114" s="140"/>
+      <c r="J114" s="140"/>
+      <c r="K114" s="140"/>
+      <c r="L114" s="140"/>
+      <c r="M114" s="140"/>
+      <c r="N114" s="140"/>
+      <c r="O114" s="140"/>
+      <c r="P114" s="140"/>
+      <c r="Q114" s="140"/>
+      <c r="R114" s="140"/>
+      <c r="S114" s="140"/>
+      <c r="T114" s="140"/>
+      <c r="U114" s="141"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="60" t="s">
+      <c r="A115" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="B115" s="61"/>
-      <c r="C115" s="61"/>
-      <c r="D115" s="61"/>
-      <c r="E115" s="61"/>
-      <c r="F115" s="61"/>
-      <c r="G115" s="61"/>
-      <c r="H115" s="61"/>
-      <c r="I115" s="61"/>
-      <c r="J115" s="61"/>
-      <c r="K115" s="61"/>
-      <c r="L115" s="61"/>
-      <c r="M115" s="61"/>
-      <c r="N115" s="61"/>
-      <c r="O115" s="61"/>
-      <c r="P115" s="61"/>
-      <c r="Q115" s="61"/>
-      <c r="R115" s="61"/>
-      <c r="S115" s="61"/>
-      <c r="T115" s="61"/>
-      <c r="U115" s="62"/>
+      <c r="B115" s="137"/>
+      <c r="C115" s="137"/>
+      <c r="D115" s="137"/>
+      <c r="E115" s="137"/>
+      <c r="F115" s="137"/>
+      <c r="G115" s="137"/>
+      <c r="H115" s="137"/>
+      <c r="I115" s="137"/>
+      <c r="J115" s="137"/>
+      <c r="K115" s="137"/>
+      <c r="L115" s="137"/>
+      <c r="M115" s="137"/>
+      <c r="N115" s="137"/>
+      <c r="O115" s="137"/>
+      <c r="P115" s="137"/>
+      <c r="Q115" s="137"/>
+      <c r="R115" s="137"/>
+      <c r="S115" s="137"/>
+      <c r="T115" s="137"/>
+      <c r="U115" s="138"/>
     </row>
     <row r="116" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="63"/>
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="64"/>
-      <c r="E116" s="64"/>
-      <c r="F116" s="64"/>
-      <c r="G116" s="64"/>
-      <c r="H116" s="64"/>
-      <c r="I116" s="64"/>
-      <c r="J116" s="64"/>
-      <c r="K116" s="64"/>
-      <c r="L116" s="64"/>
-      <c r="M116" s="64"/>
-      <c r="N116" s="64"/>
-      <c r="O116" s="64"/>
-      <c r="P116" s="64"/>
-      <c r="Q116" s="64"/>
-      <c r="R116" s="64"/>
-      <c r="S116" s="64"/>
-      <c r="T116" s="64"/>
-      <c r="U116" s="65"/>
+      <c r="A116" s="139"/>
+      <c r="B116" s="140"/>
+      <c r="C116" s="140"/>
+      <c r="D116" s="140"/>
+      <c r="E116" s="140"/>
+      <c r="F116" s="140"/>
+      <c r="G116" s="140"/>
+      <c r="H116" s="140"/>
+      <c r="I116" s="140"/>
+      <c r="J116" s="140"/>
+      <c r="K116" s="140"/>
+      <c r="L116" s="140"/>
+      <c r="M116" s="140"/>
+      <c r="N116" s="140"/>
+      <c r="O116" s="140"/>
+      <c r="P116" s="140"/>
+      <c r="Q116" s="140"/>
+      <c r="R116" s="140"/>
+      <c r="S116" s="140"/>
+      <c r="T116" s="140"/>
+      <c r="U116" s="141"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="60" t="s">
+      <c r="A117" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="B117" s="61"/>
-      <c r="C117" s="61"/>
-      <c r="D117" s="61"/>
-      <c r="E117" s="61"/>
-      <c r="F117" s="61"/>
-      <c r="G117" s="61"/>
-      <c r="H117" s="61"/>
-      <c r="I117" s="61"/>
-      <c r="J117" s="61"/>
-      <c r="K117" s="61"/>
-      <c r="L117" s="61"/>
-      <c r="M117" s="61"/>
-      <c r="N117" s="61"/>
-      <c r="O117" s="61"/>
-      <c r="P117" s="61"/>
-      <c r="Q117" s="61"/>
-      <c r="R117" s="61"/>
-      <c r="S117" s="61"/>
-      <c r="T117" s="61"/>
-      <c r="U117" s="62"/>
+      <c r="B117" s="137"/>
+      <c r="C117" s="137"/>
+      <c r="D117" s="137"/>
+      <c r="E117" s="137"/>
+      <c r="F117" s="137"/>
+      <c r="G117" s="137"/>
+      <c r="H117" s="137"/>
+      <c r="I117" s="137"/>
+      <c r="J117" s="137"/>
+      <c r="K117" s="137"/>
+      <c r="L117" s="137"/>
+      <c r="M117" s="137"/>
+      <c r="N117" s="137"/>
+      <c r="O117" s="137"/>
+      <c r="P117" s="137"/>
+      <c r="Q117" s="137"/>
+      <c r="R117" s="137"/>
+      <c r="S117" s="137"/>
+      <c r="T117" s="137"/>
+      <c r="U117" s="138"/>
     </row>
     <row r="118" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="63"/>
-      <c r="B118" s="64"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="64"/>
-      <c r="H118" s="64"/>
-      <c r="I118" s="64"/>
-      <c r="J118" s="64"/>
-      <c r="K118" s="64"/>
-      <c r="L118" s="64"/>
-      <c r="M118" s="64"/>
-      <c r="N118" s="64"/>
-      <c r="O118" s="64"/>
-      <c r="P118" s="64"/>
-      <c r="Q118" s="64"/>
-      <c r="R118" s="64"/>
-      <c r="S118" s="64"/>
-      <c r="T118" s="64"/>
-      <c r="U118" s="65"/>
+      <c r="A118" s="139"/>
+      <c r="B118" s="140"/>
+      <c r="C118" s="140"/>
+      <c r="D118" s="140"/>
+      <c r="E118" s="140"/>
+      <c r="F118" s="140"/>
+      <c r="G118" s="140"/>
+      <c r="H118" s="140"/>
+      <c r="I118" s="140"/>
+      <c r="J118" s="140"/>
+      <c r="K118" s="140"/>
+      <c r="L118" s="140"/>
+      <c r="M118" s="140"/>
+      <c r="N118" s="140"/>
+      <c r="O118" s="140"/>
+      <c r="P118" s="140"/>
+      <c r="Q118" s="140"/>
+      <c r="R118" s="140"/>
+      <c r="S118" s="140"/>
+      <c r="T118" s="140"/>
+      <c r="U118" s="141"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="25" t="s">
@@ -3645,29 +3657,29 @@
       <c r="C121"/>
     </row>
     <row r="122" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="76" t="s">
+      <c r="A122" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B122" s="76"/>
-      <c r="C122" s="76"/>
-      <c r="D122" s="76"/>
-      <c r="E122" s="76"/>
-      <c r="F122" s="76"/>
-      <c r="G122" s="76"/>
-      <c r="H122" s="76"/>
-      <c r="I122" s="76"/>
-      <c r="J122" s="76"/>
-      <c r="K122" s="76"/>
-      <c r="L122" s="76"/>
-      <c r="M122" s="76"/>
-      <c r="N122" s="76"/>
-      <c r="O122" s="76"/>
-      <c r="P122" s="76"/>
-      <c r="Q122" s="76"/>
-      <c r="R122" s="76"/>
-      <c r="S122" s="76"/>
-      <c r="T122" s="76"/>
-      <c r="U122" s="76"/>
+      <c r="B122" s="107"/>
+      <c r="C122" s="107"/>
+      <c r="D122" s="107"/>
+      <c r="E122" s="107"/>
+      <c r="F122" s="107"/>
+      <c r="G122" s="107"/>
+      <c r="H122" s="107"/>
+      <c r="I122" s="107"/>
+      <c r="J122" s="107"/>
+      <c r="K122" s="107"/>
+      <c r="L122" s="107"/>
+      <c r="M122" s="107"/>
+      <c r="N122" s="107"/>
+      <c r="O122" s="107"/>
+      <c r="P122" s="107"/>
+      <c r="Q122" s="107"/>
+      <c r="R122" s="107"/>
+      <c r="S122" s="107"/>
+      <c r="T122" s="107"/>
+      <c r="U122" s="107"/>
     </row>
     <row r="123" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
@@ -3687,24 +3699,24 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="76" t="s">
+      <c r="F125" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="G125" s="76"/>
-      <c r="H125" s="76"/>
-      <c r="I125" s="76"/>
-      <c r="J125" s="76"/>
-      <c r="K125" s="76"/>
-      <c r="L125" s="76"/>
-      <c r="M125" s="76"/>
-      <c r="N125" s="76"/>
-      <c r="O125" s="76"/>
-      <c r="P125" s="76"/>
-      <c r="Q125" s="76"/>
-      <c r="R125" s="76"/>
-      <c r="S125" s="76"/>
-      <c r="T125" s="76"/>
-      <c r="U125" s="76"/>
+      <c r="G125" s="107"/>
+      <c r="H125" s="107"/>
+      <c r="I125" s="107"/>
+      <c r="J125" s="107"/>
+      <c r="K125" s="107"/>
+      <c r="L125" s="107"/>
+      <c r="M125" s="107"/>
+      <c r="N125" s="107"/>
+      <c r="O125" s="107"/>
+      <c r="P125" s="107"/>
+      <c r="Q125" s="107"/>
+      <c r="R125" s="107"/>
+      <c r="S125" s="107"/>
+      <c r="T125" s="107"/>
+      <c r="U125" s="107"/>
     </row>
     <row r="126" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
@@ -3712,24 +3724,24 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="76" t="s">
+      <c r="F126" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="G126" s="76"/>
-      <c r="H126" s="76"/>
-      <c r="I126" s="76"/>
-      <c r="J126" s="76"/>
-      <c r="K126" s="76"/>
-      <c r="L126" s="76"/>
-      <c r="M126" s="76"/>
-      <c r="N126" s="76"/>
-      <c r="O126" s="76"/>
-      <c r="P126" s="76"/>
-      <c r="Q126" s="76"/>
-      <c r="R126" s="76"/>
-      <c r="S126" s="76"/>
-      <c r="T126" s="76"/>
-      <c r="U126" s="76"/>
+      <c r="G126" s="107"/>
+      <c r="H126" s="107"/>
+      <c r="I126" s="107"/>
+      <c r="J126" s="107"/>
+      <c r="K126" s="107"/>
+      <c r="L126" s="107"/>
+      <c r="M126" s="107"/>
+      <c r="N126" s="107"/>
+      <c r="O126" s="107"/>
+      <c r="P126" s="107"/>
+      <c r="Q126" s="107"/>
+      <c r="R126" s="107"/>
+      <c r="S126" s="107"/>
+      <c r="T126" s="107"/>
+      <c r="U126" s="107"/>
     </row>
     <row r="127" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
@@ -3738,24 +3750,24 @@
       <c r="B127"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
-      <c r="F127" s="76" t="s">
+      <c r="F127" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="G127" s="76"/>
-      <c r="H127" s="76"/>
-      <c r="I127" s="76"/>
-      <c r="J127" s="76"/>
-      <c r="K127" s="76"/>
-      <c r="L127" s="76"/>
-      <c r="M127" s="76"/>
-      <c r="N127" s="76"/>
-      <c r="O127" s="76"/>
-      <c r="P127" s="76"/>
-      <c r="Q127" s="76"/>
-      <c r="R127" s="76"/>
-      <c r="S127" s="76"/>
-      <c r="T127" s="76"/>
-      <c r="U127" s="76"/>
+      <c r="G127" s="107"/>
+      <c r="H127" s="107"/>
+      <c r="I127" s="107"/>
+      <c r="J127" s="107"/>
+      <c r="K127" s="107"/>
+      <c r="L127" s="107"/>
+      <c r="M127" s="107"/>
+      <c r="N127" s="107"/>
+      <c r="O127" s="107"/>
+      <c r="P127" s="107"/>
+      <c r="Q127" s="107"/>
+      <c r="R127" s="107"/>
+      <c r="S127" s="107"/>
+      <c r="T127" s="107"/>
+      <c r="U127" s="107"/>
     </row>
     <row r="128" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
@@ -3764,24 +3776,24 @@
       <c r="B128"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="76" t="s">
+      <c r="F128" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="G128" s="76"/>
-      <c r="H128" s="76"/>
-      <c r="I128" s="76"/>
-      <c r="J128" s="76"/>
-      <c r="K128" s="76"/>
-      <c r="L128" s="76"/>
-      <c r="M128" s="76"/>
-      <c r="N128" s="76"/>
-      <c r="O128" s="76"/>
-      <c r="P128" s="76"/>
-      <c r="Q128" s="76"/>
-      <c r="R128" s="76"/>
-      <c r="S128" s="76"/>
-      <c r="T128" s="76"/>
-      <c r="U128" s="76"/>
+      <c r="G128" s="107"/>
+      <c r="H128" s="107"/>
+      <c r="I128" s="107"/>
+      <c r="J128" s="107"/>
+      <c r="K128" s="107"/>
+      <c r="L128" s="107"/>
+      <c r="M128" s="107"/>
+      <c r="N128" s="107"/>
+      <c r="O128" s="107"/>
+      <c r="P128" s="107"/>
+      <c r="Q128" s="107"/>
+      <c r="R128" s="107"/>
+      <c r="S128" s="107"/>
+      <c r="T128" s="107"/>
+      <c r="U128" s="107"/>
     </row>
     <row r="129" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
@@ -3790,24 +3802,24 @@
       <c r="B129"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="76" t="s">
+      <c r="F129" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="G129" s="76"/>
-      <c r="H129" s="76"/>
-      <c r="I129" s="76"/>
-      <c r="J129" s="76"/>
-      <c r="K129" s="76"/>
-      <c r="L129" s="76"/>
-      <c r="M129" s="76"/>
-      <c r="N129" s="76"/>
-      <c r="O129" s="76"/>
-      <c r="P129" s="76"/>
-      <c r="Q129" s="76"/>
-      <c r="R129" s="76"/>
-      <c r="S129" s="76"/>
-      <c r="T129" s="76"/>
-      <c r="U129" s="76"/>
+      <c r="G129" s="107"/>
+      <c r="H129" s="107"/>
+      <c r="I129" s="107"/>
+      <c r="J129" s="107"/>
+      <c r="K129" s="107"/>
+      <c r="L129" s="107"/>
+      <c r="M129" s="107"/>
+      <c r="N129" s="107"/>
+      <c r="O129" s="107"/>
+      <c r="P129" s="107"/>
+      <c r="Q129" s="107"/>
+      <c r="R129" s="107"/>
+      <c r="S129" s="107"/>
+      <c r="T129" s="107"/>
+      <c r="U129" s="107"/>
     </row>
     <row r="130" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
@@ -3816,24 +3828,24 @@
       <c r="B130"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="76" t="s">
+      <c r="F130" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="G130" s="76"/>
-      <c r="H130" s="76"/>
-      <c r="I130" s="76"/>
-      <c r="J130" s="76"/>
-      <c r="K130" s="76"/>
-      <c r="L130" s="76"/>
-      <c r="M130" s="76"/>
-      <c r="N130" s="76"/>
-      <c r="O130" s="76"/>
-      <c r="P130" s="76"/>
-      <c r="Q130" s="76"/>
-      <c r="R130" s="76"/>
-      <c r="S130" s="76"/>
-      <c r="T130" s="76"/>
-      <c r="U130" s="76"/>
+      <c r="G130" s="107"/>
+      <c r="H130" s="107"/>
+      <c r="I130" s="107"/>
+      <c r="J130" s="107"/>
+      <c r="K130" s="107"/>
+      <c r="L130" s="107"/>
+      <c r="M130" s="107"/>
+      <c r="N130" s="107"/>
+      <c r="O130" s="107"/>
+      <c r="P130" s="107"/>
+      <c r="Q130" s="107"/>
+      <c r="R130" s="107"/>
+      <c r="S130" s="107"/>
+      <c r="T130" s="107"/>
+      <c r="U130" s="107"/>
     </row>
     <row r="131" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
@@ -3841,47 +3853,47 @@
       <c r="C131"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="105" t="s">
+      <c r="A132" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="B132" s="106"/>
-      <c r="C132" s="106"/>
-      <c r="D132" s="107"/>
-      <c r="E132" s="71" t="s">
+      <c r="B132" s="69"/>
+      <c r="C132" s="69"/>
+      <c r="D132" s="70"/>
+      <c r="E132" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="F132" s="72"/>
-      <c r="G132" s="73"/>
-      <c r="H132" s="74" t="s">
+      <c r="F132" s="53"/>
+      <c r="G132" s="56"/>
+      <c r="H132" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="I132" s="72"/>
-      <c r="J132" s="75"/>
-      <c r="K132" s="71" t="s">
+      <c r="I132" s="53"/>
+      <c r="J132" s="54"/>
+      <c r="K132" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="L132" s="72"/>
-      <c r="M132" s="73"/>
-      <c r="N132" s="74" t="s">
+      <c r="L132" s="53"/>
+      <c r="M132" s="56"/>
+      <c r="N132" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="O132" s="72"/>
-      <c r="P132" s="75"/>
-      <c r="Q132" s="71" t="s">
+      <c r="O132" s="53"/>
+      <c r="P132" s="54"/>
+      <c r="Q132" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R132" s="72"/>
-      <c r="S132" s="73"/>
-      <c r="T132" s="74" t="s">
+      <c r="R132" s="53"/>
+      <c r="S132" s="56"/>
+      <c r="T132" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="U132" s="73"/>
+      <c r="U132" s="56"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="108"/>
-      <c r="B133" s="109"/>
-      <c r="C133" s="109"/>
-      <c r="D133" s="110"/>
+      <c r="A133" s="71"/>
+      <c r="B133" s="72"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="73"/>
       <c r="E133" s="26">
         <v>15</v>
       </c>
@@ -3927,18 +3939,18 @@
       <c r="S133" s="28">
         <v>1</v>
       </c>
-      <c r="T133" s="111">
+      <c r="T133" s="57">
         <v>0</v>
       </c>
-      <c r="U133" s="112"/>
+      <c r="U133" s="58"/>
     </row>
     <row r="134" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="113" t="s">
+      <c r="A134" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B134" s="114"/>
-      <c r="C134" s="114"/>
-      <c r="D134" s="115"/>
+      <c r="B134" s="60"/>
+      <c r="C134" s="60"/>
+      <c r="D134" s="61"/>
       <c r="E134" s="12"/>
       <c r="F134" s="13"/>
       <c r="G134" s="14"/>
@@ -3954,16 +3966,16 @@
       <c r="Q134" s="12"/>
       <c r="R134" s="13"/>
       <c r="S134" s="14"/>
-      <c r="T134" s="15"/>
-      <c r="U134" s="14"/>
+      <c r="T134" s="166"/>
+      <c r="U134" s="167"/>
     </row>
     <row r="135" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="119" t="s">
+      <c r="A135" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B135" s="120"/>
-      <c r="C135" s="120"/>
-      <c r="D135" s="121"/>
+      <c r="B135" s="50"/>
+      <c r="C135" s="50"/>
+      <c r="D135" s="51"/>
       <c r="E135" s="12"/>
       <c r="F135" s="13"/>
       <c r="G135" s="14"/>
@@ -3979,16 +3991,16 @@
       <c r="Q135" s="12"/>
       <c r="R135" s="13"/>
       <c r="S135" s="14"/>
-      <c r="T135" s="15"/>
-      <c r="U135" s="14"/>
+      <c r="T135" s="166"/>
+      <c r="U135" s="167"/>
     </row>
     <row r="136" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="116" t="s">
+      <c r="A136" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B136" s="117"/>
-      <c r="C136" s="117"/>
-      <c r="D136" s="118"/>
+      <c r="B136" s="66"/>
+      <c r="C136" s="66"/>
+      <c r="D136" s="67"/>
       <c r="E136" s="17"/>
       <c r="F136" s="18"/>
       <c r="G136" s="19"/>
@@ -4004,52 +4016,52 @@
       <c r="Q136" s="17"/>
       <c r="R136" s="18"/>
       <c r="S136" s="19"/>
-      <c r="T136" s="20"/>
-      <c r="U136" s="19"/>
+      <c r="T136" s="168"/>
+      <c r="U136" s="169"/>
     </row>
     <row r="137" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="105" t="s">
+      <c r="A138" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="B138" s="106"/>
-      <c r="C138" s="106"/>
-      <c r="D138" s="107"/>
-      <c r="E138" s="71" t="s">
+      <c r="B138" s="69"/>
+      <c r="C138" s="69"/>
+      <c r="D138" s="70"/>
+      <c r="E138" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="F138" s="72"/>
-      <c r="G138" s="73"/>
-      <c r="H138" s="74" t="s">
+      <c r="F138" s="53"/>
+      <c r="G138" s="56"/>
+      <c r="H138" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="I138" s="72"/>
-      <c r="J138" s="75"/>
-      <c r="K138" s="71" t="s">
+      <c r="I138" s="53"/>
+      <c r="J138" s="54"/>
+      <c r="K138" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="L138" s="72"/>
-      <c r="M138" s="73"/>
-      <c r="N138" s="74" t="s">
+      <c r="L138" s="53"/>
+      <c r="M138" s="56"/>
+      <c r="N138" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="O138" s="72"/>
-      <c r="P138" s="75"/>
-      <c r="Q138" s="71" t="s">
+      <c r="O138" s="53"/>
+      <c r="P138" s="54"/>
+      <c r="Q138" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R138" s="72"/>
-      <c r="S138" s="73"/>
-      <c r="T138" s="74" t="s">
+      <c r="R138" s="53"/>
+      <c r="S138" s="56"/>
+      <c r="T138" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="U138" s="73"/>
+      <c r="U138" s="56"/>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A139" s="108"/>
-      <c r="B139" s="109"/>
-      <c r="C139" s="109"/>
-      <c r="D139" s="110"/>
+      <c r="A139" s="71"/>
+      <c r="B139" s="72"/>
+      <c r="C139" s="72"/>
+      <c r="D139" s="73"/>
       <c r="E139" s="26">
         <v>15</v>
       </c>
@@ -4095,18 +4107,18 @@
       <c r="S139" s="28">
         <v>1</v>
       </c>
-      <c r="T139" s="111">
+      <c r="T139" s="57">
         <v>0</v>
       </c>
-      <c r="U139" s="112"/>
+      <c r="U139" s="58"/>
     </row>
     <row r="140" spans="1:21" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="113" t="s">
+      <c r="A140" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B140" s="114"/>
-      <c r="C140" s="114"/>
-      <c r="D140" s="115"/>
+      <c r="B140" s="60"/>
+      <c r="C140" s="60"/>
+      <c r="D140" s="61"/>
       <c r="E140" s="12"/>
       <c r="F140" s="13"/>
       <c r="G140" s="14"/>
@@ -4122,16 +4134,16 @@
       <c r="Q140" s="12"/>
       <c r="R140" s="13"/>
       <c r="S140" s="14"/>
-      <c r="T140" s="15"/>
-      <c r="U140" s="14"/>
+      <c r="T140" s="166"/>
+      <c r="U140" s="167"/>
     </row>
     <row r="141" spans="1:21" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="122" t="s">
+      <c r="A141" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B141" s="123"/>
-      <c r="C141" s="123"/>
-      <c r="D141" s="124"/>
+      <c r="B141" s="63"/>
+      <c r="C141" s="63"/>
+      <c r="D141" s="64"/>
       <c r="E141" s="12"/>
       <c r="F141" s="13"/>
       <c r="G141" s="14"/>
@@ -4147,16 +4159,16 @@
       <c r="Q141" s="12"/>
       <c r="R141" s="13"/>
       <c r="S141" s="14"/>
-      <c r="T141" s="15"/>
-      <c r="U141" s="14"/>
+      <c r="T141" s="166"/>
+      <c r="U141" s="167"/>
     </row>
     <row r="142" spans="1:21" ht="42.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="116" t="s">
+      <c r="A142" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B142" s="117"/>
-      <c r="C142" s="117"/>
-      <c r="D142" s="118"/>
+      <c r="B142" s="66"/>
+      <c r="C142" s="66"/>
+      <c r="D142" s="67"/>
       <c r="E142" s="17"/>
       <c r="F142" s="18"/>
       <c r="G142" s="19"/>
@@ -4172,52 +4184,52 @@
       <c r="Q142" s="17"/>
       <c r="R142" s="18"/>
       <c r="S142" s="19"/>
-      <c r="T142" s="20"/>
-      <c r="U142" s="19"/>
+      <c r="T142" s="168"/>
+      <c r="U142" s="169"/>
     </row>
     <row r="143" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="105" t="s">
+      <c r="A144" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="B144" s="106"/>
-      <c r="C144" s="106"/>
-      <c r="D144" s="107"/>
-      <c r="E144" s="71" t="s">
+      <c r="B144" s="69"/>
+      <c r="C144" s="69"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="F144" s="72"/>
-      <c r="G144" s="73"/>
-      <c r="H144" s="74" t="s">
+      <c r="F144" s="53"/>
+      <c r="G144" s="56"/>
+      <c r="H144" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="I144" s="72"/>
-      <c r="J144" s="75"/>
-      <c r="K144" s="71" t="s">
+      <c r="I144" s="53"/>
+      <c r="J144" s="54"/>
+      <c r="K144" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="L144" s="72"/>
-      <c r="M144" s="73"/>
-      <c r="N144" s="74" t="s">
+      <c r="L144" s="53"/>
+      <c r="M144" s="56"/>
+      <c r="N144" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="O144" s="72"/>
-      <c r="P144" s="75"/>
-      <c r="Q144" s="71" t="s">
+      <c r="O144" s="53"/>
+      <c r="P144" s="54"/>
+      <c r="Q144" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R144" s="72"/>
-      <c r="S144" s="73"/>
-      <c r="T144" s="74" t="s">
+      <c r="R144" s="53"/>
+      <c r="S144" s="56"/>
+      <c r="T144" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="U144" s="73"/>
+      <c r="U144" s="56"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="108"/>
-      <c r="B145" s="109"/>
-      <c r="C145" s="109"/>
-      <c r="D145" s="110"/>
+      <c r="A145" s="71"/>
+      <c r="B145" s="72"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="73"/>
       <c r="E145" s="26">
         <v>15</v>
       </c>
@@ -4263,18 +4275,18 @@
       <c r="S145" s="28">
         <v>1</v>
       </c>
-      <c r="T145" s="111">
+      <c r="T145" s="57">
         <v>0</v>
       </c>
-      <c r="U145" s="112"/>
+      <c r="U145" s="58"/>
     </row>
     <row r="146" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="113" t="s">
+      <c r="A146" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B146" s="114"/>
-      <c r="C146" s="114"/>
-      <c r="D146" s="115"/>
+      <c r="B146" s="60"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="61"/>
       <c r="E146" s="12"/>
       <c r="F146" s="13"/>
       <c r="G146" s="14"/>
@@ -4290,16 +4302,16 @@
       <c r="Q146" s="12"/>
       <c r="R146" s="13"/>
       <c r="S146" s="14"/>
-      <c r="T146" s="15"/>
-      <c r="U146" s="14"/>
+      <c r="T146" s="166"/>
+      <c r="U146" s="167"/>
     </row>
     <row r="147" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="122" t="s">
+      <c r="A147" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="B147" s="123"/>
-      <c r="C147" s="123"/>
-      <c r="D147" s="124"/>
+      <c r="B147" s="63"/>
+      <c r="C147" s="63"/>
+      <c r="D147" s="64"/>
       <c r="E147" s="12"/>
       <c r="F147" s="13"/>
       <c r="G147" s="14"/>
@@ -4315,16 +4327,16 @@
       <c r="Q147" s="12"/>
       <c r="R147" s="13"/>
       <c r="S147" s="14"/>
-      <c r="T147" s="15"/>
-      <c r="U147" s="14"/>
+      <c r="T147" s="166"/>
+      <c r="U147" s="167"/>
     </row>
     <row r="148" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="122" t="s">
+      <c r="A148" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B148" s="123"/>
-      <c r="C148" s="123"/>
-      <c r="D148" s="124"/>
+      <c r="B148" s="63"/>
+      <c r="C148" s="63"/>
+      <c r="D148" s="64"/>
       <c r="E148" s="12"/>
       <c r="F148" s="13"/>
       <c r="G148" s="14"/>
@@ -4340,16 +4352,16 @@
       <c r="Q148" s="12"/>
       <c r="R148" s="13"/>
       <c r="S148" s="14"/>
-      <c r="T148" s="15"/>
-      <c r="U148" s="14"/>
+      <c r="T148" s="166"/>
+      <c r="U148" s="167"/>
     </row>
     <row r="149" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="122" t="s">
+      <c r="A149" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B149" s="123"/>
-      <c r="C149" s="123"/>
-      <c r="D149" s="124"/>
+      <c r="B149" s="63"/>
+      <c r="C149" s="63"/>
+      <c r="D149" s="64"/>
       <c r="E149" s="12"/>
       <c r="F149" s="13"/>
       <c r="G149" s="14"/>
@@ -4365,16 +4377,16 @@
       <c r="Q149" s="12"/>
       <c r="R149" s="13"/>
       <c r="S149" s="14"/>
-      <c r="T149" s="15"/>
-      <c r="U149" s="14"/>
+      <c r="T149" s="166"/>
+      <c r="U149" s="167"/>
     </row>
     <row r="150" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="122" t="s">
+      <c r="A150" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="B150" s="123"/>
-      <c r="C150" s="123"/>
-      <c r="D150" s="124"/>
+      <c r="B150" s="63"/>
+      <c r="C150" s="63"/>
+      <c r="D150" s="64"/>
       <c r="E150" s="12"/>
       <c r="F150" s="13"/>
       <c r="G150" s="14"/>
@@ -4390,16 +4402,16 @@
       <c r="Q150" s="12"/>
       <c r="R150" s="13"/>
       <c r="S150" s="14"/>
-      <c r="T150" s="15"/>
-      <c r="U150" s="14"/>
+      <c r="T150" s="166"/>
+      <c r="U150" s="167"/>
     </row>
     <row r="151" spans="1:21" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="116" t="s">
+      <c r="A151" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="B151" s="117"/>
-      <c r="C151" s="117"/>
-      <c r="D151" s="118"/>
+      <c r="B151" s="66"/>
+      <c r="C151" s="66"/>
+      <c r="D151" s="67"/>
       <c r="E151" s="17"/>
       <c r="F151" s="18"/>
       <c r="G151" s="19"/>
@@ -4415,52 +4427,52 @@
       <c r="Q151" s="17"/>
       <c r="R151" s="18"/>
       <c r="S151" s="19"/>
-      <c r="T151" s="20"/>
-      <c r="U151" s="19"/>
+      <c r="T151" s="168"/>
+      <c r="U151" s="169"/>
     </row>
     <row r="152" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A153" s="105" t="s">
+      <c r="A153" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="B153" s="106"/>
-      <c r="C153" s="106"/>
-      <c r="D153" s="107"/>
-      <c r="E153" s="71" t="s">
+      <c r="B153" s="69"/>
+      <c r="C153" s="69"/>
+      <c r="D153" s="70"/>
+      <c r="E153" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="F153" s="72"/>
-      <c r="G153" s="73"/>
-      <c r="H153" s="74" t="s">
+      <c r="F153" s="53"/>
+      <c r="G153" s="56"/>
+      <c r="H153" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="I153" s="72"/>
-      <c r="J153" s="75"/>
-      <c r="K153" s="71" t="s">
+      <c r="I153" s="53"/>
+      <c r="J153" s="54"/>
+      <c r="K153" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="L153" s="72"/>
-      <c r="M153" s="73"/>
-      <c r="N153" s="74" t="s">
+      <c r="L153" s="53"/>
+      <c r="M153" s="56"/>
+      <c r="N153" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="O153" s="72"/>
-      <c r="P153" s="75"/>
-      <c r="Q153" s="71" t="s">
+      <c r="O153" s="53"/>
+      <c r="P153" s="54"/>
+      <c r="Q153" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R153" s="72"/>
-      <c r="S153" s="73"/>
-      <c r="T153" s="74" t="s">
+      <c r="R153" s="53"/>
+      <c r="S153" s="56"/>
+      <c r="T153" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="U153" s="73"/>
+      <c r="U153" s="56"/>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A154" s="108"/>
-      <c r="B154" s="109"/>
-      <c r="C154" s="109"/>
-      <c r="D154" s="110"/>
+      <c r="A154" s="71"/>
+      <c r="B154" s="72"/>
+      <c r="C154" s="72"/>
+      <c r="D154" s="73"/>
       <c r="E154" s="26">
         <v>15</v>
       </c>
@@ -4506,18 +4518,18 @@
       <c r="S154" s="28">
         <v>1</v>
       </c>
-      <c r="T154" s="111">
+      <c r="T154" s="57">
         <v>0</v>
       </c>
-      <c r="U154" s="112"/>
+      <c r="U154" s="58"/>
     </row>
     <row r="155" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="113" t="s">
+      <c r="A155" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="B155" s="114"/>
-      <c r="C155" s="114"/>
-      <c r="D155" s="115"/>
+      <c r="B155" s="60"/>
+      <c r="C155" s="60"/>
+      <c r="D155" s="61"/>
       <c r="E155" s="12"/>
       <c r="F155" s="13"/>
       <c r="G155" s="14"/>
@@ -4533,16 +4545,16 @@
       <c r="Q155" s="12"/>
       <c r="R155" s="13"/>
       <c r="S155" s="14"/>
-      <c r="T155" s="15"/>
-      <c r="U155" s="14"/>
+      <c r="T155" s="166"/>
+      <c r="U155" s="167"/>
     </row>
     <row r="156" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="122" t="s">
+      <c r="A156" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="B156" s="123"/>
-      <c r="C156" s="123"/>
-      <c r="D156" s="124"/>
+      <c r="B156" s="63"/>
+      <c r="C156" s="63"/>
+      <c r="D156" s="64"/>
       <c r="E156" s="12"/>
       <c r="F156" s="13"/>
       <c r="G156" s="14"/>
@@ -4558,16 +4570,16 @@
       <c r="Q156" s="12"/>
       <c r="R156" s="13"/>
       <c r="S156" s="14"/>
-      <c r="T156" s="15"/>
-      <c r="U156" s="14"/>
+      <c r="T156" s="166"/>
+      <c r="U156" s="167"/>
     </row>
     <row r="157" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="122" t="s">
+      <c r="A157" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="B157" s="123"/>
-      <c r="C157" s="123"/>
-      <c r="D157" s="124"/>
+      <c r="B157" s="63"/>
+      <c r="C157" s="63"/>
+      <c r="D157" s="64"/>
       <c r="E157" s="12"/>
       <c r="F157" s="13"/>
       <c r="G157" s="14"/>
@@ -4583,16 +4595,16 @@
       <c r="Q157" s="12"/>
       <c r="R157" s="13"/>
       <c r="S157" s="14"/>
-      <c r="T157" s="15"/>
-      <c r="U157" s="14"/>
+      <c r="T157" s="166"/>
+      <c r="U157" s="167"/>
     </row>
     <row r="158" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="122" t="s">
+      <c r="A158" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B158" s="123"/>
-      <c r="C158" s="123"/>
-      <c r="D158" s="124"/>
+      <c r="B158" s="63"/>
+      <c r="C158" s="63"/>
+      <c r="D158" s="64"/>
       <c r="E158" s="12"/>
       <c r="F158" s="13"/>
       <c r="G158" s="14"/>
@@ -4608,16 +4620,16 @@
       <c r="Q158" s="12"/>
       <c r="R158" s="13"/>
       <c r="S158" s="14"/>
-      <c r="T158" s="15"/>
-      <c r="U158" s="14"/>
+      <c r="T158" s="166"/>
+      <c r="U158" s="167"/>
     </row>
     <row r="159" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="122" t="s">
+      <c r="A159" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="B159" s="123"/>
-      <c r="C159" s="123"/>
-      <c r="D159" s="124"/>
+      <c r="B159" s="63"/>
+      <c r="C159" s="63"/>
+      <c r="D159" s="64"/>
       <c r="E159" s="12"/>
       <c r="F159" s="13"/>
       <c r="G159" s="14"/>
@@ -4633,16 +4645,16 @@
       <c r="Q159" s="12"/>
       <c r="R159" s="13"/>
       <c r="S159" s="14"/>
-      <c r="T159" s="15"/>
-      <c r="U159" s="14"/>
+      <c r="T159" s="166"/>
+      <c r="U159" s="167"/>
     </row>
     <row r="160" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="119" t="s">
+      <c r="A160" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B160" s="120"/>
-      <c r="C160" s="120"/>
-      <c r="D160" s="121"/>
+      <c r="B160" s="50"/>
+      <c r="C160" s="50"/>
+      <c r="D160" s="51"/>
       <c r="E160" s="12"/>
       <c r="F160" s="13"/>
       <c r="G160" s="14"/>
@@ -4658,16 +4670,16 @@
       <c r="Q160" s="12"/>
       <c r="R160" s="13"/>
       <c r="S160" s="14"/>
-      <c r="T160" s="15"/>
-      <c r="U160" s="14"/>
+      <c r="T160" s="166"/>
+      <c r="U160" s="167"/>
     </row>
     <row r="161" spans="1:21" ht="48.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="116" t="s">
+      <c r="A161" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B161" s="117"/>
-      <c r="C161" s="117"/>
-      <c r="D161" s="118"/>
+      <c r="B161" s="66"/>
+      <c r="C161" s="66"/>
+      <c r="D161" s="67"/>
       <c r="E161" s="17"/>
       <c r="F161" s="18"/>
       <c r="G161" s="19"/>
@@ -4683,48 +4695,48 @@
       <c r="Q161" s="17"/>
       <c r="R161" s="18"/>
       <c r="S161" s="19"/>
-      <c r="T161" s="20"/>
-      <c r="U161" s="19"/>
+      <c r="T161" s="168"/>
+      <c r="U161" s="169"/>
     </row>
     <row r="163" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="76" t="s">
+      <c r="A163" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="B163" s="76"/>
-      <c r="C163" s="76"/>
-      <c r="D163" s="76"/>
-      <c r="E163" s="76"/>
-      <c r="F163" s="76"/>
-      <c r="G163" s="76"/>
-      <c r="H163" s="76"/>
-      <c r="I163" s="76"/>
-      <c r="J163" s="76"/>
-      <c r="K163" s="76"/>
-      <c r="L163" s="76"/>
-      <c r="M163" s="76"/>
-      <c r="N163" s="76"/>
-      <c r="O163" s="76"/>
-      <c r="P163" s="76"/>
-      <c r="Q163" s="76"/>
-      <c r="R163" s="76"/>
-      <c r="S163" s="76"/>
-      <c r="T163" s="76"/>
-      <c r="U163" s="76"/>
+      <c r="B163" s="107"/>
+      <c r="C163" s="107"/>
+      <c r="D163" s="107"/>
+      <c r="E163" s="107"/>
+      <c r="F163" s="107"/>
+      <c r="G163" s="107"/>
+      <c r="H163" s="107"/>
+      <c r="I163" s="107"/>
+      <c r="J163" s="107"/>
+      <c r="K163" s="107"/>
+      <c r="L163" s="107"/>
+      <c r="M163" s="107"/>
+      <c r="N163" s="107"/>
+      <c r="O163" s="107"/>
+      <c r="P163" s="107"/>
+      <c r="Q163" s="107"/>
+      <c r="R163" s="107"/>
+      <c r="S163" s="107"/>
+      <c r="T163" s="107"/>
+      <c r="U163" s="107"/>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A165" s="69" t="s">
+      <c r="A165" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="B165" s="69"/>
-      <c r="C165" s="69"/>
-      <c r="D165" s="69"/>
-      <c r="E165" s="69"/>
-      <c r="F165" s="69"/>
-      <c r="G165" s="69"/>
-      <c r="H165" s="69"/>
+      <c r="B165" s="145"/>
+      <c r="C165" s="145"/>
+      <c r="D165" s="145"/>
+      <c r="E165" s="145"/>
+      <c r="F165" s="145"/>
+      <c r="G165" s="145"/>
+      <c r="H165" s="145"/>
       <c r="I165" s="22"/>
       <c r="J165" s="22"/>
       <c r="K165" s="22"/>
@@ -4763,79 +4775,79 @@
       <c r="U166" s="22"/>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A167" s="70" t="s">
+      <c r="A167" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="B167" s="70"/>
-      <c r="C167" s="70"/>
-      <c r="D167" s="70"/>
-      <c r="E167" s="70"/>
-      <c r="F167" s="70"/>
-      <c r="G167" s="70"/>
-      <c r="H167" s="70"/>
-      <c r="I167" s="70"/>
-      <c r="J167" s="70"/>
-      <c r="K167" s="70"/>
-      <c r="L167" s="70"/>
-      <c r="M167" s="70"/>
-      <c r="N167" s="70"/>
-      <c r="O167" s="70"/>
-      <c r="P167" s="70"/>
-      <c r="Q167" s="70"/>
-      <c r="R167" s="70"/>
-      <c r="S167" s="70"/>
-      <c r="T167" s="70"/>
-      <c r="U167" s="70"/>
+      <c r="B167" s="146"/>
+      <c r="C167" s="146"/>
+      <c r="D167" s="146"/>
+      <c r="E167" s="146"/>
+      <c r="F167" s="146"/>
+      <c r="G167" s="146"/>
+      <c r="H167" s="146"/>
+      <c r="I167" s="146"/>
+      <c r="J167" s="146"/>
+      <c r="K167" s="146"/>
+      <c r="L167" s="146"/>
+      <c r="M167" s="146"/>
+      <c r="N167" s="146"/>
+      <c r="O167" s="146"/>
+      <c r="P167" s="146"/>
+      <c r="Q167" s="146"/>
+      <c r="R167" s="146"/>
+      <c r="S167" s="146"/>
+      <c r="T167" s="146"/>
+      <c r="U167" s="146"/>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A168" s="70" t="s">
+      <c r="A168" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="B168" s="70"/>
-      <c r="C168" s="70"/>
-      <c r="D168" s="70"/>
-      <c r="E168" s="70"/>
-      <c r="F168" s="70"/>
-      <c r="G168" s="70"/>
-      <c r="H168" s="70"/>
-      <c r="I168" s="70"/>
-      <c r="J168" s="70"/>
-      <c r="K168" s="70"/>
-      <c r="L168" s="70"/>
-      <c r="M168" s="70"/>
-      <c r="N168" s="70"/>
-      <c r="O168" s="70"/>
-      <c r="P168" s="70"/>
-      <c r="Q168" s="70"/>
-      <c r="R168" s="70"/>
-      <c r="S168" s="70"/>
-      <c r="T168" s="70"/>
-      <c r="U168" s="70"/>
+      <c r="B168" s="146"/>
+      <c r="C168" s="146"/>
+      <c r="D168" s="146"/>
+      <c r="E168" s="146"/>
+      <c r="F168" s="146"/>
+      <c r="G168" s="146"/>
+      <c r="H168" s="146"/>
+      <c r="I168" s="146"/>
+      <c r="J168" s="146"/>
+      <c r="K168" s="146"/>
+      <c r="L168" s="146"/>
+      <c r="M168" s="146"/>
+      <c r="N168" s="146"/>
+      <c r="O168" s="146"/>
+      <c r="P168" s="146"/>
+      <c r="Q168" s="146"/>
+      <c r="R168" s="146"/>
+      <c r="S168" s="146"/>
+      <c r="T168" s="146"/>
+      <c r="U168" s="146"/>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A169" s="70" t="s">
+      <c r="A169" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B169" s="70"/>
-      <c r="C169" s="70"/>
-      <c r="D169" s="70"/>
-      <c r="E169" s="70"/>
-      <c r="F169" s="70"/>
-      <c r="G169" s="70"/>
-      <c r="H169" s="70"/>
-      <c r="I169" s="70"/>
-      <c r="J169" s="70"/>
-      <c r="K169" s="70"/>
-      <c r="L169" s="70"/>
-      <c r="M169" s="70"/>
-      <c r="N169" s="70"/>
-      <c r="O169" s="70"/>
-      <c r="P169" s="70"/>
-      <c r="Q169" s="70"/>
-      <c r="R169" s="70"/>
-      <c r="S169" s="70"/>
-      <c r="T169" s="70"/>
-      <c r="U169" s="70"/>
+      <c r="B169" s="146"/>
+      <c r="C169" s="146"/>
+      <c r="D169" s="146"/>
+      <c r="E169" s="146"/>
+      <c r="F169" s="146"/>
+      <c r="G169" s="146"/>
+      <c r="H169" s="146"/>
+      <c r="I169" s="146"/>
+      <c r="J169" s="146"/>
+      <c r="K169" s="146"/>
+      <c r="L169" s="146"/>
+      <c r="M169" s="146"/>
+      <c r="N169" s="146"/>
+      <c r="O169" s="146"/>
+      <c r="P169" s="146"/>
+      <c r="Q169" s="146"/>
+      <c r="R169" s="146"/>
+      <c r="S169" s="146"/>
+      <c r="T169" s="146"/>
+      <c r="U169" s="146"/>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="25"/>
@@ -4861,57 +4873,57 @@
       <c r="U170" s="22"/>
     </row>
     <row r="171" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="104" t="s">
+      <c r="A171" s="108" t="s">
         <v>88</v>
       </c>
-      <c r="B171" s="104"/>
-      <c r="C171" s="104"/>
-      <c r="D171" s="104"/>
-      <c r="E171" s="104"/>
-      <c r="F171" s="104"/>
-      <c r="G171" s="104"/>
-      <c r="H171" s="104"/>
-      <c r="I171" s="104"/>
-      <c r="J171" s="104"/>
-      <c r="K171" s="104"/>
-      <c r="L171" s="104"/>
-      <c r="M171" s="104"/>
-      <c r="N171" s="104"/>
-      <c r="O171" s="104"/>
-      <c r="P171" s="104"/>
-      <c r="Q171" s="104"/>
-      <c r="R171" s="104"/>
-      <c r="S171" s="104"/>
-      <c r="T171" s="104"/>
-      <c r="U171" s="104"/>
+      <c r="B171" s="108"/>
+      <c r="C171" s="108"/>
+      <c r="D171" s="108"/>
+      <c r="E171" s="108"/>
+      <c r="F171" s="108"/>
+      <c r="G171" s="108"/>
+      <c r="H171" s="108"/>
+      <c r="I171" s="108"/>
+      <c r="J171" s="108"/>
+      <c r="K171" s="108"/>
+      <c r="L171" s="108"/>
+      <c r="M171" s="108"/>
+      <c r="N171" s="108"/>
+      <c r="O171" s="108"/>
+      <c r="P171" s="108"/>
+      <c r="Q171" s="108"/>
+      <c r="R171" s="108"/>
+      <c r="S171" s="108"/>
+      <c r="T171" s="108"/>
+      <c r="U171" s="108"/>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
     </row>
     <row r="173" spans="1:21" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="76" t="s">
+      <c r="A173" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="B173" s="76"/>
-      <c r="C173" s="76"/>
-      <c r="D173" s="76"/>
-      <c r="E173" s="76"/>
-      <c r="F173" s="76"/>
-      <c r="G173" s="76"/>
-      <c r="H173" s="76"/>
-      <c r="I173" s="76"/>
-      <c r="J173" s="76"/>
-      <c r="K173" s="76"/>
-      <c r="L173" s="76"/>
-      <c r="M173" s="76"/>
-      <c r="N173" s="76"/>
-      <c r="O173" s="76"/>
-      <c r="P173" s="76"/>
-      <c r="Q173" s="76"/>
-      <c r="R173" s="76"/>
-      <c r="S173" s="76"/>
-      <c r="T173" s="76"/>
-      <c r="U173" s="76"/>
+      <c r="B173" s="107"/>
+      <c r="C173" s="107"/>
+      <c r="D173" s="107"/>
+      <c r="E173" s="107"/>
+      <c r="F173" s="107"/>
+      <c r="G173" s="107"/>
+      <c r="H173" s="107"/>
+      <c r="I173" s="107"/>
+      <c r="J173" s="107"/>
+      <c r="K173" s="107"/>
+      <c r="L173" s="107"/>
+      <c r="M173" s="107"/>
+      <c r="N173" s="107"/>
+      <c r="O173" s="107"/>
+      <c r="P173" s="107"/>
+      <c r="Q173" s="107"/>
+      <c r="R173" s="107"/>
+      <c r="S173" s="107"/>
+      <c r="T173" s="107"/>
+      <c r="U173" s="107"/>
     </row>
     <row r="175" spans="1:21" ht="47.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
@@ -4925,26 +4937,26 @@
       </c>
     </row>
     <row r="178" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E178" s="58" t="s">
+      <c r="E178" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="F178" s="58"/>
-      <c r="G178" s="58"/>
-      <c r="H178" s="58"/>
-      <c r="I178" s="58"/>
-      <c r="J178" s="58"/>
-      <c r="K178" s="58"/>
-      <c r="L178" s="58"/>
-      <c r="N178" s="103" t="s">
+      <c r="F178" s="105"/>
+      <c r="G178" s="105"/>
+      <c r="H178" s="105"/>
+      <c r="I178" s="105"/>
+      <c r="J178" s="105"/>
+      <c r="K178" s="105"/>
+      <c r="L178" s="105"/>
+      <c r="N178" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="O178" s="103"/>
-      <c r="P178" s="103"/>
-      <c r="Q178" s="103"/>
-      <c r="R178" s="103"/>
-      <c r="S178" s="103"/>
-      <c r="T178" s="103"/>
-      <c r="U178" s="103"/>
+      <c r="O178" s="106"/>
+      <c r="P178" s="106"/>
+      <c r="Q178" s="106"/>
+      <c r="R178" s="106"/>
+      <c r="S178" s="106"/>
+      <c r="T178" s="106"/>
+      <c r="U178" s="106"/>
     </row>
     <row r="179" spans="1:21" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="180" spans="1:21" x14ac:dyDescent="0.3">
@@ -4955,18 +4967,18 @@
     <row r="181" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
-      <c r="E181" s="58" t="s">
+      <c r="E181" s="105" t="s">
         <v>94</v>
       </c>
-      <c r="F181" s="58"/>
-      <c r="G181" s="58"/>
-      <c r="H181" s="58"/>
-      <c r="I181" s="58"/>
-      <c r="J181" s="58"/>
-      <c r="K181" s="58"/>
-      <c r="L181" s="58"/>
-      <c r="M181" s="58"/>
-      <c r="N181" s="58"/>
+      <c r="F181" s="105"/>
+      <c r="G181" s="105"/>
+      <c r="H181" s="105"/>
+      <c r="I181" s="105"/>
+      <c r="J181" s="105"/>
+      <c r="K181" s="105"/>
+      <c r="L181" s="105"/>
+      <c r="M181" s="105"/>
+      <c r="N181" s="105"/>
       <c r="O181" s="7"/>
       <c r="P181" s="7"/>
     </row>
@@ -5035,67 +5047,321 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="384">
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="Q68:U68"/>
-    <mergeCell ref="Q69:U69"/>
-    <mergeCell ref="A67:U67"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="K70:U70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="K71:U71"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="N153:P153"/>
-    <mergeCell ref="Q153:S153"/>
-    <mergeCell ref="T153:U153"/>
-    <mergeCell ref="T154:U154"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A153:D154"/>
-    <mergeCell ref="E153:G153"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A53:U53"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="M55:U55"/>
-    <mergeCell ref="M56:U56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q57:U57"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="F61:L61"/>
-    <mergeCell ref="M61:U61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="F62:L62"/>
-    <mergeCell ref="M62:U62"/>
-    <mergeCell ref="A64:U64"/>
-    <mergeCell ref="K153:M153"/>
-    <mergeCell ref="A66:U66"/>
-    <mergeCell ref="H153:J153"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A144:D145"/>
-    <mergeCell ref="E144:G144"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="K144:M144"/>
-    <mergeCell ref="N144:P144"/>
-    <mergeCell ref="Q144:S144"/>
-    <mergeCell ref="T144:U144"/>
-    <mergeCell ref="T145:U145"/>
+  <mergeCells count="403">
+    <mergeCell ref="T161:U161"/>
+    <mergeCell ref="T149:U149"/>
+    <mergeCell ref="T150:U150"/>
+    <mergeCell ref="T151:U151"/>
+    <mergeCell ref="T155:U155"/>
+    <mergeCell ref="T156:U156"/>
+    <mergeCell ref="T157:U157"/>
+    <mergeCell ref="T158:U158"/>
+    <mergeCell ref="T159:U159"/>
+    <mergeCell ref="T160:U160"/>
+    <mergeCell ref="T134:U134"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="T136:U136"/>
+    <mergeCell ref="T140:U140"/>
+    <mergeCell ref="T141:U141"/>
+    <mergeCell ref="T142:U142"/>
+    <mergeCell ref="T146:U146"/>
+    <mergeCell ref="T147:U147"/>
+    <mergeCell ref="T148:U148"/>
+    <mergeCell ref="A60:U60"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="H49:T49"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="R100:U100"/>
+    <mergeCell ref="R101:U101"/>
+    <mergeCell ref="R102:U102"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="R95:U95"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="R98:U98"/>
+    <mergeCell ref="R99:U99"/>
+    <mergeCell ref="R90:U90"/>
+    <mergeCell ref="R91:U91"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="R93:U93"/>
+    <mergeCell ref="R94:U94"/>
+    <mergeCell ref="R85:U85"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="R86:U86"/>
+    <mergeCell ref="R87:U87"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="R89:U89"/>
+    <mergeCell ref="R80:U80"/>
+    <mergeCell ref="R81:U81"/>
+    <mergeCell ref="R82:U82"/>
+    <mergeCell ref="R83:U83"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="O90:Q90"/>
+    <mergeCell ref="O91:Q91"/>
+    <mergeCell ref="O92:Q92"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="R75:U75"/>
+    <mergeCell ref="R76:U76"/>
+    <mergeCell ref="R77:U77"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="R79:U79"/>
+    <mergeCell ref="O85:Q85"/>
+    <mergeCell ref="O86:Q86"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="O88:Q88"/>
+    <mergeCell ref="O89:Q89"/>
+    <mergeCell ref="O80:Q80"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="O83:Q83"/>
+    <mergeCell ref="O84:Q84"/>
+    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="O76:Q76"/>
+    <mergeCell ref="O77:Q77"/>
+    <mergeCell ref="O78:Q78"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="O104:Q104"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="O96:Q96"/>
+    <mergeCell ref="O97:Q97"/>
+    <mergeCell ref="O98:Q98"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="O100:Q100"/>
+    <mergeCell ref="O101:Q101"/>
+    <mergeCell ref="O102:Q102"/>
+    <mergeCell ref="O103:Q103"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="E181:N181"/>
+    <mergeCell ref="A107:U107"/>
+    <mergeCell ref="A109:U109"/>
+    <mergeCell ref="A111:U111"/>
+    <mergeCell ref="A113:U113"/>
+    <mergeCell ref="A115:U115"/>
+    <mergeCell ref="A117:U117"/>
+    <mergeCell ref="A118:U118"/>
+    <mergeCell ref="A116:U116"/>
+    <mergeCell ref="A114:U114"/>
+    <mergeCell ref="A112:U112"/>
+    <mergeCell ref="A110:U110"/>
+    <mergeCell ref="A165:H165"/>
+    <mergeCell ref="A169:U169"/>
+    <mergeCell ref="A168:U168"/>
+    <mergeCell ref="A167:U167"/>
+    <mergeCell ref="K132:M132"/>
+    <mergeCell ref="N132:P132"/>
+    <mergeCell ref="F127:U127"/>
+    <mergeCell ref="F126:U126"/>
+    <mergeCell ref="F125:U125"/>
+    <mergeCell ref="F128:U128"/>
+    <mergeCell ref="F129:U129"/>
+    <mergeCell ref="F130:U130"/>
+    <mergeCell ref="A106:U106"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="R74:U74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A65:U65"/>
+    <mergeCell ref="R73:U73"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="K72:U72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="O1:U1"/>
     <mergeCell ref="E178:L178"/>
     <mergeCell ref="N178:U178"/>
     <mergeCell ref="E132:G132"/>
@@ -5120,306 +5386,71 @@
     <mergeCell ref="T138:U138"/>
     <mergeCell ref="T139:U139"/>
     <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="F61:L61"/>
+    <mergeCell ref="M61:U61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="F62:L62"/>
+    <mergeCell ref="M62:U62"/>
+    <mergeCell ref="A64:U64"/>
+    <mergeCell ref="K153:M153"/>
+    <mergeCell ref="A66:U66"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A144:D145"/>
+    <mergeCell ref="E144:G144"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="K144:M144"/>
+    <mergeCell ref="N144:P144"/>
+    <mergeCell ref="Q144:S144"/>
+    <mergeCell ref="T144:U144"/>
+    <mergeCell ref="T145:U145"/>
     <mergeCell ref="A122:U122"/>
     <mergeCell ref="M73:N73"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="O1:U1"/>
     <mergeCell ref="H74:J74"/>
     <mergeCell ref="K74:L74"/>
     <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="R74:U74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A65:U65"/>
-    <mergeCell ref="R73:U73"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="K72:U72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="A106:U106"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E181:N181"/>
-    <mergeCell ref="A107:U107"/>
-    <mergeCell ref="A109:U109"/>
-    <mergeCell ref="A111:U111"/>
-    <mergeCell ref="A113:U113"/>
-    <mergeCell ref="A115:U115"/>
-    <mergeCell ref="A117:U117"/>
-    <mergeCell ref="A118:U118"/>
-    <mergeCell ref="A116:U116"/>
-    <mergeCell ref="A114:U114"/>
-    <mergeCell ref="A112:U112"/>
-    <mergeCell ref="A110:U110"/>
-    <mergeCell ref="A165:H165"/>
-    <mergeCell ref="A169:U169"/>
-    <mergeCell ref="A168:U168"/>
-    <mergeCell ref="A167:U167"/>
-    <mergeCell ref="K132:M132"/>
-    <mergeCell ref="N132:P132"/>
-    <mergeCell ref="F127:U127"/>
-    <mergeCell ref="F126:U126"/>
-    <mergeCell ref="F125:U125"/>
-    <mergeCell ref="F128:U128"/>
-    <mergeCell ref="F129:U129"/>
-    <mergeCell ref="F130:U130"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="O104:Q104"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="O96:Q96"/>
-    <mergeCell ref="O97:Q97"/>
-    <mergeCell ref="O98:Q98"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="O100:Q100"/>
-    <mergeCell ref="O101:Q101"/>
-    <mergeCell ref="O102:Q102"/>
-    <mergeCell ref="O103:Q103"/>
-    <mergeCell ref="O90:Q90"/>
-    <mergeCell ref="O91:Q91"/>
-    <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="R75:U75"/>
-    <mergeCell ref="R76:U76"/>
-    <mergeCell ref="R77:U77"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="R79:U79"/>
-    <mergeCell ref="O85:Q85"/>
-    <mergeCell ref="O86:Q86"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="O88:Q88"/>
-    <mergeCell ref="O89:Q89"/>
-    <mergeCell ref="O80:Q80"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="O83:Q83"/>
-    <mergeCell ref="O84:Q84"/>
-    <mergeCell ref="O75:Q75"/>
-    <mergeCell ref="O76:Q76"/>
-    <mergeCell ref="O77:Q77"/>
-    <mergeCell ref="O78:Q78"/>
-    <mergeCell ref="R85:U85"/>
-    <mergeCell ref="O79:Q79"/>
-    <mergeCell ref="R86:U86"/>
-    <mergeCell ref="R87:U87"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="R89:U89"/>
-    <mergeCell ref="R80:U80"/>
-    <mergeCell ref="R81:U81"/>
-    <mergeCell ref="R82:U82"/>
-    <mergeCell ref="R83:U83"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="A60:U60"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="H49:T49"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="R100:U100"/>
-    <mergeCell ref="R101:U101"/>
-    <mergeCell ref="R102:U102"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="R95:U95"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="R98:U98"/>
-    <mergeCell ref="R99:U99"/>
-    <mergeCell ref="R90:U90"/>
-    <mergeCell ref="R91:U91"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="R93:U93"/>
-    <mergeCell ref="R94:U94"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A53:U53"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="M55:U55"/>
+    <mergeCell ref="M56:U56"/>
+    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q57:U57"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A153:D154"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="N153:P153"/>
+    <mergeCell ref="Q153:S153"/>
+    <mergeCell ref="T153:U153"/>
+    <mergeCell ref="T154:U154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="Q68:U68"/>
+    <mergeCell ref="Q69:U69"/>
+    <mergeCell ref="A67:U67"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="K70:U70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="K71:U71"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:G4">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
@@ -5670,18 +5701,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5704,14 +5735,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1F3D8C2-E839-4AD6-B75F-D1A823A8A73C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEEF2B8-1878-4C75-81E0-5896CFFB1B75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -5726,4 +5749,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1F3D8C2-E839-4AD6-B75F-D1A823A8A73C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/main/resources/Gradingtable.xlsx
+++ b/src/main/resources/Gradingtable.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
   <si>
     <t>Datum:</t>
   </si>
@@ -529,7 +529,7 @@
     <t>Recommendation</t>
   </si>
   <si>
-    <t>Leo stinkt manchmal ganz schoen</t>
+    <t>Kann Gut Deutsch</t>
   </si>
 </sst>
 </file>
@@ -5512,7 +5512,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5542,39 +5542,6 @@
         <v>7.0</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C5" t="s">
         <v>102</v>
       </c>
     </row>

--- a/src/main/resources/Gradingtable.xlsx
+++ b/src/main/resources/Gradingtable.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="103">
   <si>
     <t>Datum:</t>
   </si>
@@ -5512,7 +5512,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5542,6 +5542,28 @@
         <v>7.0</v>
       </c>
       <c r="C2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C4" t="s">
         <v>102</v>
       </c>
     </row>

--- a/src/main/resources/Gradingtable.xlsx
+++ b/src/main/resources/Gradingtable.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
   <si>
     <t>Datum:</t>
   </si>
@@ -5512,7 +5512,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5564,6 +5564,17 @@
         <v>7.0</v>
       </c>
       <c r="C4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C5" t="s">
         <v>102</v>
       </c>
     </row>

--- a/src/main/resources/Gradingtable.xlsx
+++ b/src/main/resources/Gradingtable.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonhard Baumann\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonhard Baumann\Documents\GitHub\ReviewYou\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Leistungsbericht" sheetId="1" r:id="rId1"/>
@@ -1288,421 +1288,421 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1983,126 +1983,126 @@
   </sheetPr>
   <dimension ref="A1:U191"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A154" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="T159" sqref="T159:U159"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" customWidth="true" style="1" width="3.75"/>
-    <col min="7" max="7" customWidth="true" style="1" width="4.5"/>
-    <col min="8" max="21" customWidth="true" style="1" width="3.75"/>
-    <col min="22" max="22" customWidth="true" style="1" width="2.33203125"/>
-    <col min="23" max="16384" style="1" width="10.58203125"/>
+    <col min="1" max="6" width="3.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" customWidth="1"/>
+    <col min="8" max="21" width="3.75" style="1" customWidth="1"/>
+    <col min="22" max="22" width="2.33203125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="116">
         <v>43388</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="O1" s="63" t="s">
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="O1" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
     </row>
     <row r="2" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103" t="str">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76" t="str">
         <f>IFERROR(VLOOKUP(A4,#REF!,3,TRUE),"")</f>
         <v/>
       </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="O2" s="63" t="s">
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="O2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
     </row>
     <row r="3" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="O3" s="105" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="O3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
     </row>
     <row r="4" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="O4" s="105" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="O4" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="str">
+      <c r="A5" s="76" t="str">
         <f>IFERROR(VLOOKUP(A4,#REF!,2,TRUE),"")</f>
         <v/>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
     </row>
     <row r="6" spans="1:21" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="O6" s="38" t="s">
+      <c r="O6" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="159"/>
       <c r="U6" s="23"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -2124,1222 +2124,1222 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="145" t="s">
+      <c r="A49" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="145"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="145"/>
-      <c r="E49" s="145"/>
-      <c r="F49" s="145"/>
-      <c r="G49" s="145"/>
-      <c r="H49" s="39" t="s">
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
+      <c r="I49" s="160"/>
+      <c r="J49" s="160"/>
+      <c r="K49" s="160"/>
+      <c r="L49" s="160"/>
+      <c r="M49" s="160"/>
+      <c r="N49" s="160"/>
+      <c r="O49" s="160"/>
+      <c r="P49" s="160"/>
+      <c r="Q49" s="160"/>
+      <c r="R49" s="160"/>
+      <c r="S49" s="160"/>
+      <c r="T49" s="160"/>
       <c r="U49" s="7"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="146" t="s">
+      <c r="A51" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="146"/>
-      <c r="C51" s="146"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="146"/>
-      <c r="F51" s="146"/>
-      <c r="G51" s="146"/>
-      <c r="H51" s="146"/>
-      <c r="I51" s="146"/>
-      <c r="J51" s="146"/>
-      <c r="K51" s="146"/>
-      <c r="L51" s="146"/>
-      <c r="M51" s="146"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="103" t="s">
+      <c r="A53" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="103"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="103"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
-      <c r="K53" s="103"/>
-      <c r="L53" s="103"/>
-      <c r="M53" s="103"/>
-      <c r="N53" s="103"/>
-      <c r="O53" s="103"/>
-      <c r="P53" s="103"/>
-      <c r="Q53" s="103"/>
-      <c r="R53" s="103"/>
-      <c r="S53" s="103"/>
-      <c r="T53" s="103"/>
-      <c r="U53" s="103"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="76"/>
+      <c r="S53" s="76"/>
+      <c r="T53" s="76"/>
+      <c r="U53" s="76"/>
     </row>
     <row r="54" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36" t="s">
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="78"/>
+      <c r="L55" s="78"/>
+      <c r="M55" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="37"/>
+      <c r="N55" s="78"/>
+      <c r="O55" s="78"/>
+      <c r="P55" s="78"/>
+      <c r="Q55" s="78"/>
+      <c r="R55" s="78"/>
+      <c r="S55" s="78"/>
+      <c r="T55" s="78"/>
+      <c r="U55" s="82"/>
     </row>
     <row r="56" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="147"/>
-      <c r="B56" s="148"/>
-      <c r="C56" s="148"/>
-      <c r="D56" s="148"/>
-      <c r="E56" s="148"/>
-      <c r="F56" s="148"/>
-      <c r="G56" s="148"/>
-      <c r="H56" s="148"/>
-      <c r="I56" s="148"/>
-      <c r="J56" s="148"/>
-      <c r="K56" s="148"/>
-      <c r="L56" s="149"/>
-      <c r="M56" s="150"/>
-      <c r="N56" s="150"/>
-      <c r="O56" s="150"/>
-      <c r="P56" s="150"/>
-      <c r="Q56" s="150"/>
-      <c r="R56" s="150"/>
-      <c r="S56" s="150"/>
-      <c r="T56" s="150"/>
-      <c r="U56" s="150"/>
+      <c r="A56" s="79"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="80"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="83"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="83"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="83"/>
+      <c r="T56" s="83"/>
+      <c r="U56" s="83"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="151" t="s">
+      <c r="A57" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="152"/>
-      <c r="C57" s="152"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="152"/>
-      <c r="F57" s="152"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="152"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="152"/>
-      <c r="K57" s="152"/>
-      <c r="L57" s="152"/>
-      <c r="M57" s="152" t="s">
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="N57" s="154"/>
-      <c r="O57" s="154"/>
-      <c r="P57" s="154"/>
-      <c r="Q57" s="152" t="s">
+      <c r="N57" s="88"/>
+      <c r="O57" s="88"/>
+      <c r="P57" s="88"/>
+      <c r="Q57" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="R57" s="154"/>
-      <c r="S57" s="154"/>
-      <c r="T57" s="154"/>
-      <c r="U57" s="155"/>
+      <c r="R57" s="88"/>
+      <c r="S57" s="88"/>
+      <c r="T57" s="88"/>
+      <c r="U57" s="90"/>
     </row>
     <row r="58" spans="1:21" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="153"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="136"/>
-      <c r="F58" s="136"/>
-      <c r="G58" s="136"/>
-      <c r="H58" s="136"/>
-      <c r="I58" s="136"/>
-      <c r="J58" s="136"/>
-      <c r="K58" s="136"/>
-      <c r="L58" s="136"/>
-      <c r="M58" s="135"/>
-      <c r="N58" s="136"/>
-      <c r="O58" s="136"/>
-      <c r="P58" s="136"/>
-      <c r="Q58" s="135"/>
-      <c r="R58" s="136"/>
-      <c r="S58" s="136"/>
-      <c r="T58" s="136"/>
-      <c r="U58" s="137"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="87"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="87"/>
+      <c r="O58" s="87"/>
+      <c r="P58" s="87"/>
+      <c r="Q58" s="89"/>
+      <c r="R58" s="87"/>
+      <c r="S58" s="87"/>
+      <c r="T58" s="87"/>
+      <c r="U58" s="91"/>
     </row>
     <row r="59" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="37"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="78"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="78"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="78"/>
+      <c r="S60" s="78"/>
+      <c r="T60" s="78"/>
+      <c r="U60" s="82"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="128" t="s">
+      <c r="A61" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="129"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="129"/>
-      <c r="F61" s="130" t="s">
+      <c r="B61" s="93"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
+      <c r="F61" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="129"/>
-      <c r="H61" s="129"/>
-      <c r="I61" s="129"/>
-      <c r="J61" s="129"/>
-      <c r="K61" s="129"/>
-      <c r="L61" s="129"/>
-      <c r="M61" s="130" t="s">
+      <c r="G61" s="93"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="93"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="93"/>
+      <c r="L61" s="93"/>
+      <c r="M61" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="N61" s="129"/>
-      <c r="O61" s="129"/>
-      <c r="P61" s="129"/>
-      <c r="Q61" s="129"/>
-      <c r="R61" s="129"/>
-      <c r="S61" s="129"/>
-      <c r="T61" s="129"/>
-      <c r="U61" s="131"/>
+      <c r="N61" s="93"/>
+      <c r="O61" s="93"/>
+      <c r="P61" s="93"/>
+      <c r="Q61" s="93"/>
+      <c r="R61" s="93"/>
+      <c r="S61" s="93"/>
+      <c r="T61" s="93"/>
+      <c r="U61" s="95"/>
     </row>
     <row r="62" spans="1:21" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="132"/>
-      <c r="B62" s="133"/>
-      <c r="C62" s="133"/>
-      <c r="D62" s="133"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="134"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="133"/>
-      <c r="L62" s="133"/>
-      <c r="M62" s="135"/>
-      <c r="N62" s="136"/>
-      <c r="O62" s="136"/>
-      <c r="P62" s="136"/>
-      <c r="Q62" s="136"/>
-      <c r="R62" s="136"/>
-      <c r="S62" s="136"/>
-      <c r="T62" s="136"/>
-      <c r="U62" s="137"/>
+      <c r="A62" s="96"/>
+      <c r="B62" s="97"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="98"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="97"/>
+      <c r="L62" s="97"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="87"/>
+      <c r="O62" s="87"/>
+      <c r="P62" s="87"/>
+      <c r="Q62" s="87"/>
+      <c r="R62" s="87"/>
+      <c r="S62" s="87"/>
+      <c r="T62" s="87"/>
+      <c r="U62" s="91"/>
     </row>
     <row r="63" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="138" t="s">
+      <c r="A64" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B64" s="139"/>
-      <c r="C64" s="139"/>
-      <c r="D64" s="139"/>
-      <c r="E64" s="139"/>
-      <c r="F64" s="139"/>
-      <c r="G64" s="139"/>
-      <c r="H64" s="139"/>
-      <c r="I64" s="139"/>
-      <c r="J64" s="139"/>
-      <c r="K64" s="139"/>
-      <c r="L64" s="139"/>
-      <c r="M64" s="139"/>
-      <c r="N64" s="139"/>
-      <c r="O64" s="139"/>
-      <c r="P64" s="139"/>
-      <c r="Q64" s="139"/>
-      <c r="R64" s="139"/>
-      <c r="S64" s="139"/>
-      <c r="T64" s="139"/>
-      <c r="U64" s="140"/>
+      <c r="B64" s="100"/>
+      <c r="C64" s="100"/>
+      <c r="D64" s="100"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="100"/>
+      <c r="G64" s="100"/>
+      <c r="H64" s="100"/>
+      <c r="I64" s="100"/>
+      <c r="J64" s="100"/>
+      <c r="K64" s="100"/>
+      <c r="L64" s="100"/>
+      <c r="M64" s="100"/>
+      <c r="N64" s="100"/>
+      <c r="O64" s="100"/>
+      <c r="P64" s="100"/>
+      <c r="Q64" s="100"/>
+      <c r="R64" s="100"/>
+      <c r="S64" s="100"/>
+      <c r="T64" s="100"/>
+      <c r="U64" s="101"/>
     </row>
     <row r="65" spans="1:21" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="91"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="92"/>
-      <c r="G65" s="92"/>
-      <c r="H65" s="92"/>
-      <c r="I65" s="92"/>
-      <c r="J65" s="92"/>
-      <c r="K65" s="92"/>
-      <c r="L65" s="92"/>
-      <c r="M65" s="92"/>
-      <c r="N65" s="92"/>
-      <c r="O65" s="92"/>
-      <c r="P65" s="92"/>
-      <c r="Q65" s="92"/>
-      <c r="R65" s="92"/>
-      <c r="S65" s="92"/>
-      <c r="T65" s="92"/>
-      <c r="U65" s="93"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="32"/>
+      <c r="U65" s="33"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="141" t="s">
+      <c r="A66" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="142"/>
-      <c r="C66" s="142"/>
-      <c r="D66" s="142"/>
-      <c r="E66" s="142"/>
-      <c r="F66" s="142"/>
-      <c r="G66" s="142"/>
-      <c r="H66" s="142"/>
-      <c r="I66" s="142"/>
-      <c r="J66" s="142"/>
-      <c r="K66" s="142"/>
-      <c r="L66" s="142"/>
-      <c r="M66" s="142"/>
-      <c r="N66" s="142"/>
-      <c r="O66" s="142"/>
-      <c r="P66" s="142"/>
-      <c r="Q66" s="142"/>
-      <c r="R66" s="142"/>
-      <c r="S66" s="142"/>
-      <c r="T66" s="142"/>
-      <c r="U66" s="143"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="103"/>
+      <c r="H66" s="103"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="103"/>
+      <c r="K66" s="103"/>
+      <c r="L66" s="103"/>
+      <c r="M66" s="103"/>
+      <c r="N66" s="103"/>
+      <c r="O66" s="103"/>
+      <c r="P66" s="103"/>
+      <c r="Q66" s="103"/>
+      <c r="R66" s="103"/>
+      <c r="S66" s="103"/>
+      <c r="T66" s="103"/>
+      <c r="U66" s="104"/>
     </row>
     <row r="67" spans="1:21" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="91"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="92"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="92"/>
-      <c r="J67" s="92"/>
-      <c r="K67" s="92"/>
-      <c r="L67" s="92"/>
-      <c r="M67" s="92"/>
-      <c r="N67" s="92"/>
-      <c r="O67" s="92"/>
-      <c r="P67" s="92"/>
-      <c r="Q67" s="92"/>
-      <c r="R67" s="92"/>
-      <c r="S67" s="92"/>
-      <c r="T67" s="92"/>
-      <c r="U67" s="93"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="32"/>
+      <c r="U67" s="33"/>
     </row>
     <row r="68" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="156" t="s">
+      <c r="A68" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="86"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="86"/>
-      <c r="I68" s="86"/>
-      <c r="J68" s="86"/>
-      <c r="K68" s="86"/>
-      <c r="L68" s="86"/>
-      <c r="M68" s="86"/>
-      <c r="N68" s="86"/>
-      <c r="O68" s="86"/>
-      <c r="P68" s="86"/>
-      <c r="Q68" s="157"/>
-      <c r="R68" s="157"/>
-      <c r="S68" s="157"/>
-      <c r="T68" s="157"/>
-      <c r="U68" s="158"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="57"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="57"/>
+      <c r="Q68" s="58"/>
+      <c r="R68" s="58"/>
+      <c r="S68" s="58"/>
+      <c r="T68" s="58"/>
+      <c r="U68" s="59"/>
     </row>
     <row r="69" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="91" t="s">
+      <c r="A69" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="92"/>
-      <c r="H69" s="92"/>
-      <c r="Q69" s="159"/>
-      <c r="R69" s="159"/>
-      <c r="S69" s="159"/>
-      <c r="T69" s="159"/>
-      <c r="U69" s="160"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="Q69" s="60"/>
+      <c r="R69" s="60"/>
+      <c r="S69" s="60"/>
+      <c r="T69" s="60"/>
+      <c r="U69" s="61"/>
     </row>
     <row r="70" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="161" t="s">
+      <c r="A70" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="162"/>
-      <c r="C70" s="162"/>
-      <c r="D70" s="162"/>
-      <c r="E70" s="162"/>
-      <c r="F70" s="162"/>
-      <c r="G70" s="162"/>
-      <c r="H70" s="162"/>
-      <c r="I70" s="162"/>
-      <c r="J70" s="163"/>
-      <c r="K70" s="161" t="s">
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="L70" s="162"/>
-      <c r="M70" s="162"/>
-      <c r="N70" s="162"/>
-      <c r="O70" s="162"/>
-      <c r="P70" s="162"/>
-      <c r="Q70" s="162"/>
-      <c r="R70" s="162"/>
-      <c r="S70" s="162"/>
-      <c r="T70" s="162"/>
-      <c r="U70" s="163"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
+      <c r="Q70" s="35"/>
+      <c r="R70" s="35"/>
+      <c r="S70" s="35"/>
+      <c r="T70" s="35"/>
+      <c r="U70" s="36"/>
     </row>
     <row r="71" spans="1:21" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="164"/>
-      <c r="B71" s="165"/>
-      <c r="C71" s="165"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="165"/>
-      <c r="F71" s="165"/>
-      <c r="G71" s="165"/>
-      <c r="H71" s="165"/>
-      <c r="I71" s="165"/>
-      <c r="J71" s="166"/>
-      <c r="K71" s="167"/>
-      <c r="L71" s="168"/>
-      <c r="M71" s="168"/>
-      <c r="N71" s="168"/>
-      <c r="O71" s="168"/>
-      <c r="P71" s="168"/>
-      <c r="Q71" s="168"/>
-      <c r="R71" s="168"/>
-      <c r="S71" s="168"/>
-      <c r="T71" s="168"/>
-      <c r="U71" s="169"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="41"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="41"/>
+      <c r="Q71" s="41"/>
+      <c r="R71" s="41"/>
+      <c r="S71" s="41"/>
+      <c r="T71" s="41"/>
+      <c r="U71" s="42"/>
     </row>
     <row r="72" spans="1:21" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="97" t="s">
+      <c r="A72" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="98"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="98"/>
-      <c r="E72" s="98"/>
-      <c r="F72" s="98"/>
-      <c r="G72" s="98"/>
-      <c r="H72" s="98"/>
-      <c r="I72" s="98"/>
-      <c r="J72" s="99"/>
-      <c r="K72" s="97" t="s">
+      <c r="B72" s="129"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="129"/>
+      <c r="F72" s="129"/>
+      <c r="G72" s="129"/>
+      <c r="H72" s="129"/>
+      <c r="I72" s="129"/>
+      <c r="J72" s="130"/>
+      <c r="K72" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="L72" s="98"/>
-      <c r="M72" s="98"/>
-      <c r="N72" s="98"/>
-      <c r="O72" s="98"/>
-      <c r="P72" s="98"/>
-      <c r="Q72" s="98"/>
-      <c r="R72" s="98"/>
-      <c r="S72" s="98"/>
-      <c r="T72" s="98"/>
-      <c r="U72" s="99"/>
+      <c r="L72" s="129"/>
+      <c r="M72" s="129"/>
+      <c r="N72" s="129"/>
+      <c r="O72" s="129"/>
+      <c r="P72" s="129"/>
+      <c r="Q72" s="129"/>
+      <c r="R72" s="129"/>
+      <c r="S72" s="129"/>
+      <c r="T72" s="129"/>
+      <c r="U72" s="130"/>
     </row>
     <row r="73" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="41"/>
-      <c r="C73" s="100" t="s">
+      <c r="B73" s="107"/>
+      <c r="C73" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="41"/>
-      <c r="E73" s="100" t="s">
+      <c r="D73" s="107"/>
+      <c r="E73" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="101"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="100" t="s">
+      <c r="F73" s="131"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="I73" s="101"/>
-      <c r="J73" s="102"/>
-      <c r="K73" s="40" t="s">
+      <c r="I73" s="131"/>
+      <c r="J73" s="132"/>
+      <c r="K73" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="L73" s="41"/>
-      <c r="M73" s="100" t="s">
+      <c r="L73" s="107"/>
+      <c r="M73" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="N73" s="41"/>
-      <c r="O73" s="100" t="s">
+      <c r="N73" s="107"/>
+      <c r="O73" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="P73" s="101"/>
-      <c r="Q73" s="41"/>
-      <c r="R73" s="94" t="s">
+      <c r="P73" s="131"/>
+      <c r="Q73" s="107"/>
+      <c r="R73" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="S73" s="95"/>
-      <c r="T73" s="95"/>
-      <c r="U73" s="96"/>
+      <c r="S73" s="126"/>
+      <c r="T73" s="126"/>
+      <c r="U73" s="127"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="82"/>
-      <c r="B74" s="83"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="87"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="86"/>
-      <c r="J74" s="144"/>
-      <c r="K74" s="82"/>
-      <c r="L74" s="83"/>
-      <c r="M74" s="84"/>
-      <c r="N74" s="83"/>
-      <c r="O74" s="85"/>
-      <c r="P74" s="86"/>
-      <c r="Q74" s="87"/>
-      <c r="R74" s="88"/>
-      <c r="S74" s="89"/>
-      <c r="T74" s="89"/>
-      <c r="U74" s="90"/>
+      <c r="A74" s="110"/>
+      <c r="B74" s="111"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="108"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="119"/>
+      <c r="H74" s="108"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="109"/>
+      <c r="K74" s="110"/>
+      <c r="L74" s="111"/>
+      <c r="M74" s="112"/>
+      <c r="N74" s="111"/>
+      <c r="O74" s="108"/>
+      <c r="P74" s="57"/>
+      <c r="Q74" s="119"/>
+      <c r="R74" s="120"/>
+      <c r="S74" s="121"/>
+      <c r="T74" s="121"/>
+      <c r="U74" s="122"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="60"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="59"/>
-      <c r="M75" s="58"/>
-      <c r="N75" s="59"/>
-      <c r="O75" s="55"/>
-      <c r="P75" s="56"/>
-      <c r="Q75" s="57"/>
-      <c r="R75" s="49"/>
-      <c r="S75" s="50"/>
-      <c r="T75" s="50"/>
-      <c r="U75" s="51"/>
+      <c r="A75" s="123"/>
+      <c r="B75" s="124"/>
+      <c r="C75" s="134"/>
+      <c r="D75" s="124"/>
+      <c r="E75" s="147"/>
+      <c r="F75" s="148"/>
+      <c r="G75" s="149"/>
+      <c r="H75" s="147"/>
+      <c r="I75" s="148"/>
+      <c r="J75" s="150"/>
+      <c r="K75" s="123"/>
+      <c r="L75" s="124"/>
+      <c r="M75" s="134"/>
+      <c r="N75" s="124"/>
+      <c r="O75" s="147"/>
+      <c r="P75" s="148"/>
+      <c r="Q75" s="149"/>
+      <c r="R75" s="156"/>
+      <c r="S75" s="157"/>
+      <c r="T75" s="157"/>
+      <c r="U75" s="158"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="60"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="60"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="58"/>
-      <c r="N76" s="59"/>
-      <c r="O76" s="55"/>
-      <c r="P76" s="56"/>
-      <c r="Q76" s="57"/>
-      <c r="R76" s="49"/>
-      <c r="S76" s="50"/>
-      <c r="T76" s="50"/>
-      <c r="U76" s="51"/>
+      <c r="A76" s="123"/>
+      <c r="B76" s="124"/>
+      <c r="C76" s="134"/>
+      <c r="D76" s="124"/>
+      <c r="E76" s="147"/>
+      <c r="F76" s="148"/>
+      <c r="G76" s="149"/>
+      <c r="H76" s="147"/>
+      <c r="I76" s="148"/>
+      <c r="J76" s="150"/>
+      <c r="K76" s="123"/>
+      <c r="L76" s="124"/>
+      <c r="M76" s="134"/>
+      <c r="N76" s="124"/>
+      <c r="O76" s="147"/>
+      <c r="P76" s="148"/>
+      <c r="Q76" s="149"/>
+      <c r="R76" s="156"/>
+      <c r="S76" s="157"/>
+      <c r="T76" s="157"/>
+      <c r="U76" s="158"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="60"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="60"/>
-      <c r="L77" s="59"/>
-      <c r="M77" s="58"/>
-      <c r="N77" s="59"/>
-      <c r="O77" s="55"/>
-      <c r="P77" s="56"/>
-      <c r="Q77" s="57"/>
-      <c r="R77" s="49"/>
-      <c r="S77" s="50"/>
-      <c r="T77" s="50"/>
-      <c r="U77" s="51"/>
+      <c r="A77" s="123"/>
+      <c r="B77" s="124"/>
+      <c r="C77" s="134"/>
+      <c r="D77" s="124"/>
+      <c r="E77" s="147"/>
+      <c r="F77" s="148"/>
+      <c r="G77" s="149"/>
+      <c r="H77" s="147"/>
+      <c r="I77" s="148"/>
+      <c r="J77" s="150"/>
+      <c r="K77" s="123"/>
+      <c r="L77" s="124"/>
+      <c r="M77" s="134"/>
+      <c r="N77" s="124"/>
+      <c r="O77" s="147"/>
+      <c r="P77" s="148"/>
+      <c r="Q77" s="149"/>
+      <c r="R77" s="156"/>
+      <c r="S77" s="157"/>
+      <c r="T77" s="157"/>
+      <c r="U77" s="158"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="60"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="60"/>
-      <c r="L78" s="59"/>
-      <c r="M78" s="58"/>
-      <c r="N78" s="59"/>
-      <c r="O78" s="55"/>
-      <c r="P78" s="56"/>
-      <c r="Q78" s="57"/>
-      <c r="R78" s="49"/>
-      <c r="S78" s="50"/>
-      <c r="T78" s="50"/>
-      <c r="U78" s="51"/>
+      <c r="A78" s="123"/>
+      <c r="B78" s="124"/>
+      <c r="C78" s="134"/>
+      <c r="D78" s="124"/>
+      <c r="E78" s="147"/>
+      <c r="F78" s="148"/>
+      <c r="G78" s="149"/>
+      <c r="H78" s="147"/>
+      <c r="I78" s="148"/>
+      <c r="J78" s="150"/>
+      <c r="K78" s="123"/>
+      <c r="L78" s="124"/>
+      <c r="M78" s="134"/>
+      <c r="N78" s="124"/>
+      <c r="O78" s="147"/>
+      <c r="P78" s="148"/>
+      <c r="Q78" s="149"/>
+      <c r="R78" s="156"/>
+      <c r="S78" s="157"/>
+      <c r="T78" s="157"/>
+      <c r="U78" s="158"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="60"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="61"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="58"/>
-      <c r="N79" s="59"/>
-      <c r="O79" s="55"/>
-      <c r="P79" s="56"/>
-      <c r="Q79" s="57"/>
-      <c r="R79" s="49"/>
-      <c r="S79" s="50"/>
-      <c r="T79" s="50"/>
-      <c r="U79" s="51"/>
+      <c r="A79" s="123"/>
+      <c r="B79" s="124"/>
+      <c r="C79" s="134"/>
+      <c r="D79" s="124"/>
+      <c r="E79" s="147"/>
+      <c r="F79" s="148"/>
+      <c r="G79" s="149"/>
+      <c r="H79" s="147"/>
+      <c r="I79" s="148"/>
+      <c r="J79" s="150"/>
+      <c r="K79" s="123"/>
+      <c r="L79" s="124"/>
+      <c r="M79" s="134"/>
+      <c r="N79" s="124"/>
+      <c r="O79" s="147"/>
+      <c r="P79" s="148"/>
+      <c r="Q79" s="149"/>
+      <c r="R79" s="156"/>
+      <c r="S79" s="157"/>
+      <c r="T79" s="157"/>
+      <c r="U79" s="158"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="60"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="60"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="58"/>
-      <c r="N80" s="59"/>
-      <c r="O80" s="55"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="57"/>
-      <c r="R80" s="49"/>
-      <c r="S80" s="50"/>
-      <c r="T80" s="50"/>
-      <c r="U80" s="51"/>
+      <c r="A80" s="123"/>
+      <c r="B80" s="124"/>
+      <c r="C80" s="134"/>
+      <c r="D80" s="124"/>
+      <c r="E80" s="147"/>
+      <c r="F80" s="148"/>
+      <c r="G80" s="149"/>
+      <c r="H80" s="147"/>
+      <c r="I80" s="148"/>
+      <c r="J80" s="150"/>
+      <c r="K80" s="123"/>
+      <c r="L80" s="124"/>
+      <c r="M80" s="134"/>
+      <c r="N80" s="124"/>
+      <c r="O80" s="147"/>
+      <c r="P80" s="148"/>
+      <c r="Q80" s="149"/>
+      <c r="R80" s="156"/>
+      <c r="S80" s="157"/>
+      <c r="T80" s="157"/>
+      <c r="U80" s="158"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="60"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="60"/>
-      <c r="L81" s="59"/>
-      <c r="M81" s="58"/>
-      <c r="N81" s="59"/>
-      <c r="O81" s="55"/>
-      <c r="P81" s="56"/>
-      <c r="Q81" s="57"/>
-      <c r="R81" s="49"/>
-      <c r="S81" s="50"/>
-      <c r="T81" s="50"/>
-      <c r="U81" s="51"/>
+      <c r="A81" s="123"/>
+      <c r="B81" s="124"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="124"/>
+      <c r="E81" s="147"/>
+      <c r="F81" s="148"/>
+      <c r="G81" s="149"/>
+      <c r="H81" s="147"/>
+      <c r="I81" s="148"/>
+      <c r="J81" s="150"/>
+      <c r="K81" s="123"/>
+      <c r="L81" s="124"/>
+      <c r="M81" s="134"/>
+      <c r="N81" s="124"/>
+      <c r="O81" s="147"/>
+      <c r="P81" s="148"/>
+      <c r="Q81" s="149"/>
+      <c r="R81" s="156"/>
+      <c r="S81" s="157"/>
+      <c r="T81" s="157"/>
+      <c r="U81" s="158"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="60"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="61"/>
-      <c r="K82" s="60"/>
-      <c r="L82" s="59"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="59"/>
-      <c r="O82" s="55"/>
-      <c r="P82" s="56"/>
-      <c r="Q82" s="57"/>
-      <c r="R82" s="49"/>
-      <c r="S82" s="50"/>
-      <c r="T82" s="50"/>
-      <c r="U82" s="51"/>
+      <c r="A82" s="123"/>
+      <c r="B82" s="124"/>
+      <c r="C82" s="134"/>
+      <c r="D82" s="124"/>
+      <c r="E82" s="147"/>
+      <c r="F82" s="148"/>
+      <c r="G82" s="149"/>
+      <c r="H82" s="147"/>
+      <c r="I82" s="148"/>
+      <c r="J82" s="150"/>
+      <c r="K82" s="123"/>
+      <c r="L82" s="124"/>
+      <c r="M82" s="134"/>
+      <c r="N82" s="124"/>
+      <c r="O82" s="147"/>
+      <c r="P82" s="148"/>
+      <c r="Q82" s="149"/>
+      <c r="R82" s="156"/>
+      <c r="S82" s="157"/>
+      <c r="T82" s="157"/>
+      <c r="U82" s="158"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="60"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="59"/>
-      <c r="M83" s="58"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="55"/>
-      <c r="P83" s="56"/>
-      <c r="Q83" s="57"/>
-      <c r="R83" s="49"/>
-      <c r="S83" s="50"/>
-      <c r="T83" s="50"/>
-      <c r="U83" s="51"/>
+      <c r="A83" s="123"/>
+      <c r="B83" s="124"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="124"/>
+      <c r="E83" s="147"/>
+      <c r="F83" s="148"/>
+      <c r="G83" s="149"/>
+      <c r="H83" s="147"/>
+      <c r="I83" s="148"/>
+      <c r="J83" s="150"/>
+      <c r="K83" s="123"/>
+      <c r="L83" s="124"/>
+      <c r="M83" s="134"/>
+      <c r="N83" s="124"/>
+      <c r="O83" s="147"/>
+      <c r="P83" s="148"/>
+      <c r="Q83" s="149"/>
+      <c r="R83" s="156"/>
+      <c r="S83" s="157"/>
+      <c r="T83" s="157"/>
+      <c r="U83" s="158"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="60"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="61"/>
-      <c r="K84" s="60"/>
-      <c r="L84" s="59"/>
-      <c r="M84" s="58"/>
-      <c r="N84" s="59"/>
-      <c r="O84" s="55"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="57"/>
-      <c r="R84" s="49"/>
-      <c r="S84" s="50"/>
-      <c r="T84" s="50"/>
-      <c r="U84" s="51"/>
+      <c r="A84" s="123"/>
+      <c r="B84" s="124"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="124"/>
+      <c r="E84" s="147"/>
+      <c r="F84" s="148"/>
+      <c r="G84" s="149"/>
+      <c r="H84" s="147"/>
+      <c r="I84" s="148"/>
+      <c r="J84" s="150"/>
+      <c r="K84" s="123"/>
+      <c r="L84" s="124"/>
+      <c r="M84" s="134"/>
+      <c r="N84" s="124"/>
+      <c r="O84" s="147"/>
+      <c r="P84" s="148"/>
+      <c r="Q84" s="149"/>
+      <c r="R84" s="156"/>
+      <c r="S84" s="157"/>
+      <c r="T84" s="157"/>
+      <c r="U84" s="158"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="60"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="60"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="58"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="55"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="57"/>
-      <c r="R85" s="49"/>
-      <c r="S85" s="50"/>
-      <c r="T85" s="50"/>
-      <c r="U85" s="51"/>
+      <c r="A85" s="123"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="124"/>
+      <c r="E85" s="147"/>
+      <c r="F85" s="148"/>
+      <c r="G85" s="149"/>
+      <c r="H85" s="147"/>
+      <c r="I85" s="148"/>
+      <c r="J85" s="150"/>
+      <c r="K85" s="123"/>
+      <c r="L85" s="124"/>
+      <c r="M85" s="134"/>
+      <c r="N85" s="124"/>
+      <c r="O85" s="147"/>
+      <c r="P85" s="148"/>
+      <c r="Q85" s="149"/>
+      <c r="R85" s="156"/>
+      <c r="S85" s="157"/>
+      <c r="T85" s="157"/>
+      <c r="U85" s="158"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A86" s="60"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="61"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="59"/>
-      <c r="M86" s="58"/>
-      <c r="N86" s="59"/>
-      <c r="O86" s="55"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="57"/>
-      <c r="R86" s="49"/>
-      <c r="S86" s="50"/>
-      <c r="T86" s="50"/>
-      <c r="U86" s="51"/>
+      <c r="A86" s="123"/>
+      <c r="B86" s="124"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="124"/>
+      <c r="E86" s="147"/>
+      <c r="F86" s="148"/>
+      <c r="G86" s="149"/>
+      <c r="H86" s="147"/>
+      <c r="I86" s="148"/>
+      <c r="J86" s="150"/>
+      <c r="K86" s="123"/>
+      <c r="L86" s="124"/>
+      <c r="M86" s="134"/>
+      <c r="N86" s="124"/>
+      <c r="O86" s="147"/>
+      <c r="P86" s="148"/>
+      <c r="Q86" s="149"/>
+      <c r="R86" s="156"/>
+      <c r="S86" s="157"/>
+      <c r="T86" s="157"/>
+      <c r="U86" s="158"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="60"/>
-      <c r="B87" s="59"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="61"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="59"/>
-      <c r="M87" s="58"/>
-      <c r="N87" s="59"/>
-      <c r="O87" s="55"/>
-      <c r="P87" s="56"/>
-      <c r="Q87" s="57"/>
-      <c r="R87" s="49"/>
-      <c r="S87" s="50"/>
-      <c r="T87" s="50"/>
-      <c r="U87" s="51"/>
+      <c r="A87" s="123"/>
+      <c r="B87" s="124"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="124"/>
+      <c r="E87" s="147"/>
+      <c r="F87" s="148"/>
+      <c r="G87" s="149"/>
+      <c r="H87" s="147"/>
+      <c r="I87" s="148"/>
+      <c r="J87" s="150"/>
+      <c r="K87" s="123"/>
+      <c r="L87" s="124"/>
+      <c r="M87" s="134"/>
+      <c r="N87" s="124"/>
+      <c r="O87" s="147"/>
+      <c r="P87" s="148"/>
+      <c r="Q87" s="149"/>
+      <c r="R87" s="156"/>
+      <c r="S87" s="157"/>
+      <c r="T87" s="157"/>
+      <c r="U87" s="158"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A88" s="60"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="61"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="59"/>
-      <c r="M88" s="58"/>
-      <c r="N88" s="59"/>
-      <c r="O88" s="55"/>
-      <c r="P88" s="56"/>
-      <c r="Q88" s="57"/>
-      <c r="R88" s="49"/>
-      <c r="S88" s="50"/>
-      <c r="T88" s="50"/>
-      <c r="U88" s="51"/>
+      <c r="A88" s="123"/>
+      <c r="B88" s="124"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="124"/>
+      <c r="E88" s="147"/>
+      <c r="F88" s="148"/>
+      <c r="G88" s="149"/>
+      <c r="H88" s="147"/>
+      <c r="I88" s="148"/>
+      <c r="J88" s="150"/>
+      <c r="K88" s="123"/>
+      <c r="L88" s="124"/>
+      <c r="M88" s="134"/>
+      <c r="N88" s="124"/>
+      <c r="O88" s="147"/>
+      <c r="P88" s="148"/>
+      <c r="Q88" s="149"/>
+      <c r="R88" s="156"/>
+      <c r="S88" s="157"/>
+      <c r="T88" s="157"/>
+      <c r="U88" s="158"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="60"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="61"/>
-      <c r="K89" s="60"/>
-      <c r="L89" s="59"/>
-      <c r="M89" s="58"/>
-      <c r="N89" s="59"/>
-      <c r="O89" s="55"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="57"/>
-      <c r="R89" s="49"/>
-      <c r="S89" s="50"/>
-      <c r="T89" s="50"/>
-      <c r="U89" s="51"/>
+      <c r="A89" s="123"/>
+      <c r="B89" s="124"/>
+      <c r="C89" s="134"/>
+      <c r="D89" s="124"/>
+      <c r="E89" s="147"/>
+      <c r="F89" s="148"/>
+      <c r="G89" s="149"/>
+      <c r="H89" s="147"/>
+      <c r="I89" s="148"/>
+      <c r="J89" s="150"/>
+      <c r="K89" s="123"/>
+      <c r="L89" s="124"/>
+      <c r="M89" s="134"/>
+      <c r="N89" s="124"/>
+      <c r="O89" s="147"/>
+      <c r="P89" s="148"/>
+      <c r="Q89" s="149"/>
+      <c r="R89" s="156"/>
+      <c r="S89" s="157"/>
+      <c r="T89" s="157"/>
+      <c r="U89" s="158"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="60"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="61"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="59"/>
-      <c r="M90" s="58"/>
-      <c r="N90" s="59"/>
-      <c r="O90" s="55"/>
-      <c r="P90" s="56"/>
-      <c r="Q90" s="57"/>
-      <c r="R90" s="49"/>
-      <c r="S90" s="50"/>
-      <c r="T90" s="50"/>
-      <c r="U90" s="51"/>
+      <c r="A90" s="123"/>
+      <c r="B90" s="124"/>
+      <c r="C90" s="134"/>
+      <c r="D90" s="124"/>
+      <c r="E90" s="147"/>
+      <c r="F90" s="148"/>
+      <c r="G90" s="149"/>
+      <c r="H90" s="147"/>
+      <c r="I90" s="148"/>
+      <c r="J90" s="150"/>
+      <c r="K90" s="123"/>
+      <c r="L90" s="124"/>
+      <c r="M90" s="134"/>
+      <c r="N90" s="124"/>
+      <c r="O90" s="147"/>
+      <c r="P90" s="148"/>
+      <c r="Q90" s="149"/>
+      <c r="R90" s="156"/>
+      <c r="S90" s="157"/>
+      <c r="T90" s="157"/>
+      <c r="U90" s="158"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="60"/>
-      <c r="B91" s="59"/>
-      <c r="C91" s="58"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="61"/>
-      <c r="K91" s="60"/>
-      <c r="L91" s="59"/>
-      <c r="M91" s="58"/>
-      <c r="N91" s="59"/>
-      <c r="O91" s="55"/>
-      <c r="P91" s="56"/>
-      <c r="Q91" s="57"/>
-      <c r="R91" s="49"/>
-      <c r="S91" s="50"/>
-      <c r="T91" s="50"/>
-      <c r="U91" s="51"/>
+      <c r="A91" s="123"/>
+      <c r="B91" s="124"/>
+      <c r="C91" s="134"/>
+      <c r="D91" s="124"/>
+      <c r="E91" s="147"/>
+      <c r="F91" s="148"/>
+      <c r="G91" s="149"/>
+      <c r="H91" s="147"/>
+      <c r="I91" s="148"/>
+      <c r="J91" s="150"/>
+      <c r="K91" s="123"/>
+      <c r="L91" s="124"/>
+      <c r="M91" s="134"/>
+      <c r="N91" s="124"/>
+      <c r="O91" s="147"/>
+      <c r="P91" s="148"/>
+      <c r="Q91" s="149"/>
+      <c r="R91" s="156"/>
+      <c r="S91" s="157"/>
+      <c r="T91" s="157"/>
+      <c r="U91" s="158"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="60"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="57"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="59"/>
-      <c r="M92" s="58"/>
-      <c r="N92" s="59"/>
-      <c r="O92" s="55"/>
-      <c r="P92" s="56"/>
-      <c r="Q92" s="57"/>
-      <c r="R92" s="49"/>
-      <c r="S92" s="50"/>
-      <c r="T92" s="50"/>
-      <c r="U92" s="51"/>
+      <c r="A92" s="123"/>
+      <c r="B92" s="124"/>
+      <c r="C92" s="134"/>
+      <c r="D92" s="124"/>
+      <c r="E92" s="147"/>
+      <c r="F92" s="148"/>
+      <c r="G92" s="149"/>
+      <c r="H92" s="147"/>
+      <c r="I92" s="148"/>
+      <c r="J92" s="150"/>
+      <c r="K92" s="123"/>
+      <c r="L92" s="124"/>
+      <c r="M92" s="134"/>
+      <c r="N92" s="124"/>
+      <c r="O92" s="147"/>
+      <c r="P92" s="148"/>
+      <c r="Q92" s="149"/>
+      <c r="R92" s="156"/>
+      <c r="S92" s="157"/>
+      <c r="T92" s="157"/>
+      <c r="U92" s="158"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="60"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="57"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="61"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="59"/>
-      <c r="M93" s="58"/>
-      <c r="N93" s="59"/>
-      <c r="O93" s="55"/>
-      <c r="P93" s="56"/>
-      <c r="Q93" s="57"/>
-      <c r="R93" s="49"/>
-      <c r="S93" s="50"/>
-      <c r="T93" s="50"/>
-      <c r="U93" s="51"/>
+      <c r="A93" s="123"/>
+      <c r="B93" s="124"/>
+      <c r="C93" s="134"/>
+      <c r="D93" s="124"/>
+      <c r="E93" s="147"/>
+      <c r="F93" s="148"/>
+      <c r="G93" s="149"/>
+      <c r="H93" s="147"/>
+      <c r="I93" s="148"/>
+      <c r="J93" s="150"/>
+      <c r="K93" s="123"/>
+      <c r="L93" s="124"/>
+      <c r="M93" s="134"/>
+      <c r="N93" s="124"/>
+      <c r="O93" s="147"/>
+      <c r="P93" s="148"/>
+      <c r="Q93" s="149"/>
+      <c r="R93" s="156"/>
+      <c r="S93" s="157"/>
+      <c r="T93" s="157"/>
+      <c r="U93" s="158"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="60"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="57"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="61"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="59"/>
-      <c r="M94" s="58"/>
-      <c r="N94" s="59"/>
-      <c r="O94" s="55"/>
-      <c r="P94" s="56"/>
-      <c r="Q94" s="57"/>
-      <c r="R94" s="49"/>
-      <c r="S94" s="50"/>
-      <c r="T94" s="50"/>
-      <c r="U94" s="51"/>
+      <c r="A94" s="123"/>
+      <c r="B94" s="124"/>
+      <c r="C94" s="134"/>
+      <c r="D94" s="124"/>
+      <c r="E94" s="147"/>
+      <c r="F94" s="148"/>
+      <c r="G94" s="149"/>
+      <c r="H94" s="147"/>
+      <c r="I94" s="148"/>
+      <c r="J94" s="150"/>
+      <c r="K94" s="123"/>
+      <c r="L94" s="124"/>
+      <c r="M94" s="134"/>
+      <c r="N94" s="124"/>
+      <c r="O94" s="147"/>
+      <c r="P94" s="148"/>
+      <c r="Q94" s="149"/>
+      <c r="R94" s="156"/>
+      <c r="S94" s="157"/>
+      <c r="T94" s="157"/>
+      <c r="U94" s="158"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="60"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="58"/>
-      <c r="D95" s="59"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="56"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="55"/>
-      <c r="I95" s="56"/>
-      <c r="J95" s="61"/>
-      <c r="K95" s="60"/>
-      <c r="L95" s="59"/>
-      <c r="M95" s="58"/>
-      <c r="N95" s="59"/>
-      <c r="O95" s="55"/>
-      <c r="P95" s="56"/>
-      <c r="Q95" s="57"/>
-      <c r="R95" s="49"/>
-      <c r="S95" s="50"/>
-      <c r="T95" s="50"/>
-      <c r="U95" s="51"/>
+      <c r="A95" s="123"/>
+      <c r="B95" s="124"/>
+      <c r="C95" s="134"/>
+      <c r="D95" s="124"/>
+      <c r="E95" s="147"/>
+      <c r="F95" s="148"/>
+      <c r="G95" s="149"/>
+      <c r="H95" s="147"/>
+      <c r="I95" s="148"/>
+      <c r="J95" s="150"/>
+      <c r="K95" s="123"/>
+      <c r="L95" s="124"/>
+      <c r="M95" s="134"/>
+      <c r="N95" s="124"/>
+      <c r="O95" s="147"/>
+      <c r="P95" s="148"/>
+      <c r="Q95" s="149"/>
+      <c r="R95" s="156"/>
+      <c r="S95" s="157"/>
+      <c r="T95" s="157"/>
+      <c r="U95" s="158"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="60"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="57"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="56"/>
-      <c r="J96" s="61"/>
-      <c r="K96" s="60"/>
-      <c r="L96" s="59"/>
-      <c r="M96" s="58"/>
-      <c r="N96" s="59"/>
-      <c r="O96" s="55"/>
-      <c r="P96" s="56"/>
-      <c r="Q96" s="57"/>
-      <c r="R96" s="49"/>
-      <c r="S96" s="50"/>
-      <c r="T96" s="50"/>
-      <c r="U96" s="51"/>
+      <c r="A96" s="123"/>
+      <c r="B96" s="124"/>
+      <c r="C96" s="134"/>
+      <c r="D96" s="124"/>
+      <c r="E96" s="147"/>
+      <c r="F96" s="148"/>
+      <c r="G96" s="149"/>
+      <c r="H96" s="147"/>
+      <c r="I96" s="148"/>
+      <c r="J96" s="150"/>
+      <c r="K96" s="123"/>
+      <c r="L96" s="124"/>
+      <c r="M96" s="134"/>
+      <c r="N96" s="124"/>
+      <c r="O96" s="147"/>
+      <c r="P96" s="148"/>
+      <c r="Q96" s="149"/>
+      <c r="R96" s="156"/>
+      <c r="S96" s="157"/>
+      <c r="T96" s="157"/>
+      <c r="U96" s="158"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="60"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="57"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="61"/>
-      <c r="K97" s="60"/>
-      <c r="L97" s="59"/>
-      <c r="M97" s="58"/>
-      <c r="N97" s="59"/>
-      <c r="O97" s="55"/>
-      <c r="P97" s="56"/>
-      <c r="Q97" s="57"/>
-      <c r="R97" s="49"/>
-      <c r="S97" s="50"/>
-      <c r="T97" s="50"/>
-      <c r="U97" s="51"/>
+      <c r="A97" s="123"/>
+      <c r="B97" s="124"/>
+      <c r="C97" s="134"/>
+      <c r="D97" s="124"/>
+      <c r="E97" s="147"/>
+      <c r="F97" s="148"/>
+      <c r="G97" s="149"/>
+      <c r="H97" s="147"/>
+      <c r="I97" s="148"/>
+      <c r="J97" s="150"/>
+      <c r="K97" s="123"/>
+      <c r="L97" s="124"/>
+      <c r="M97" s="134"/>
+      <c r="N97" s="124"/>
+      <c r="O97" s="147"/>
+      <c r="P97" s="148"/>
+      <c r="Q97" s="149"/>
+      <c r="R97" s="156"/>
+      <c r="S97" s="157"/>
+      <c r="T97" s="157"/>
+      <c r="U97" s="158"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="60"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="56"/>
-      <c r="G98" s="57"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="56"/>
-      <c r="J98" s="61"/>
-      <c r="K98" s="60"/>
-      <c r="L98" s="59"/>
-      <c r="M98" s="58"/>
-      <c r="N98" s="59"/>
-      <c r="O98" s="55"/>
-      <c r="P98" s="56"/>
-      <c r="Q98" s="57"/>
-      <c r="R98" s="49"/>
-      <c r="S98" s="50"/>
-      <c r="T98" s="50"/>
-      <c r="U98" s="51"/>
+      <c r="A98" s="123"/>
+      <c r="B98" s="124"/>
+      <c r="C98" s="134"/>
+      <c r="D98" s="124"/>
+      <c r="E98" s="147"/>
+      <c r="F98" s="148"/>
+      <c r="G98" s="149"/>
+      <c r="H98" s="147"/>
+      <c r="I98" s="148"/>
+      <c r="J98" s="150"/>
+      <c r="K98" s="123"/>
+      <c r="L98" s="124"/>
+      <c r="M98" s="134"/>
+      <c r="N98" s="124"/>
+      <c r="O98" s="147"/>
+      <c r="P98" s="148"/>
+      <c r="Q98" s="149"/>
+      <c r="R98" s="156"/>
+      <c r="S98" s="157"/>
+      <c r="T98" s="157"/>
+      <c r="U98" s="158"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="60"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="56"/>
-      <c r="G99" s="57"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="56"/>
-      <c r="J99" s="61"/>
-      <c r="K99" s="60"/>
-      <c r="L99" s="59"/>
-      <c r="M99" s="58"/>
-      <c r="N99" s="59"/>
-      <c r="O99" s="55"/>
-      <c r="P99" s="56"/>
-      <c r="Q99" s="57"/>
-      <c r="R99" s="49"/>
-      <c r="S99" s="50"/>
-      <c r="T99" s="50"/>
-      <c r="U99" s="51"/>
+      <c r="A99" s="123"/>
+      <c r="B99" s="124"/>
+      <c r="C99" s="134"/>
+      <c r="D99" s="124"/>
+      <c r="E99" s="147"/>
+      <c r="F99" s="148"/>
+      <c r="G99" s="149"/>
+      <c r="H99" s="147"/>
+      <c r="I99" s="148"/>
+      <c r="J99" s="150"/>
+      <c r="K99" s="123"/>
+      <c r="L99" s="124"/>
+      <c r="M99" s="134"/>
+      <c r="N99" s="124"/>
+      <c r="O99" s="147"/>
+      <c r="P99" s="148"/>
+      <c r="Q99" s="149"/>
+      <c r="R99" s="156"/>
+      <c r="S99" s="157"/>
+      <c r="T99" s="157"/>
+      <c r="U99" s="158"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A100" s="60"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="59"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="55"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="61"/>
-      <c r="K100" s="60"/>
-      <c r="L100" s="59"/>
-      <c r="M100" s="58"/>
-      <c r="N100" s="59"/>
-      <c r="O100" s="55"/>
-      <c r="P100" s="56"/>
-      <c r="Q100" s="57"/>
-      <c r="R100" s="49"/>
-      <c r="S100" s="50"/>
-      <c r="T100" s="50"/>
-      <c r="U100" s="51"/>
+      <c r="A100" s="123"/>
+      <c r="B100" s="124"/>
+      <c r="C100" s="134"/>
+      <c r="D100" s="124"/>
+      <c r="E100" s="147"/>
+      <c r="F100" s="148"/>
+      <c r="G100" s="149"/>
+      <c r="H100" s="147"/>
+      <c r="I100" s="148"/>
+      <c r="J100" s="150"/>
+      <c r="K100" s="123"/>
+      <c r="L100" s="124"/>
+      <c r="M100" s="134"/>
+      <c r="N100" s="124"/>
+      <c r="O100" s="147"/>
+      <c r="P100" s="148"/>
+      <c r="Q100" s="149"/>
+      <c r="R100" s="156"/>
+      <c r="S100" s="157"/>
+      <c r="T100" s="157"/>
+      <c r="U100" s="158"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="60"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="56"/>
-      <c r="G101" s="57"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="61"/>
-      <c r="K101" s="60"/>
-      <c r="L101" s="59"/>
-      <c r="M101" s="58"/>
-      <c r="N101" s="59"/>
-      <c r="O101" s="55"/>
-      <c r="P101" s="56"/>
-      <c r="Q101" s="57"/>
-      <c r="R101" s="49"/>
-      <c r="S101" s="50"/>
-      <c r="T101" s="50"/>
-      <c r="U101" s="51"/>
+      <c r="A101" s="123"/>
+      <c r="B101" s="124"/>
+      <c r="C101" s="134"/>
+      <c r="D101" s="124"/>
+      <c r="E101" s="147"/>
+      <c r="F101" s="148"/>
+      <c r="G101" s="149"/>
+      <c r="H101" s="147"/>
+      <c r="I101" s="148"/>
+      <c r="J101" s="150"/>
+      <c r="K101" s="123"/>
+      <c r="L101" s="124"/>
+      <c r="M101" s="134"/>
+      <c r="N101" s="124"/>
+      <c r="O101" s="147"/>
+      <c r="P101" s="148"/>
+      <c r="Q101" s="149"/>
+      <c r="R101" s="156"/>
+      <c r="S101" s="157"/>
+      <c r="T101" s="157"/>
+      <c r="U101" s="158"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="60"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="58"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="56"/>
-      <c r="J102" s="61"/>
-      <c r="K102" s="60"/>
-      <c r="L102" s="59"/>
-      <c r="M102" s="58"/>
-      <c r="N102" s="59"/>
-      <c r="O102" s="55"/>
-      <c r="P102" s="56"/>
-      <c r="Q102" s="57"/>
-      <c r="R102" s="49"/>
-      <c r="S102" s="50"/>
-      <c r="T102" s="50"/>
-      <c r="U102" s="51"/>
+      <c r="A102" s="123"/>
+      <c r="B102" s="124"/>
+      <c r="C102" s="134"/>
+      <c r="D102" s="124"/>
+      <c r="E102" s="147"/>
+      <c r="F102" s="148"/>
+      <c r="G102" s="149"/>
+      <c r="H102" s="147"/>
+      <c r="I102" s="148"/>
+      <c r="J102" s="150"/>
+      <c r="K102" s="123"/>
+      <c r="L102" s="124"/>
+      <c r="M102" s="134"/>
+      <c r="N102" s="124"/>
+      <c r="O102" s="147"/>
+      <c r="P102" s="148"/>
+      <c r="Q102" s="149"/>
+      <c r="R102" s="156"/>
+      <c r="S102" s="157"/>
+      <c r="T102" s="157"/>
+      <c r="U102" s="158"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="60"/>
-      <c r="B103" s="59"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="56"/>
-      <c r="J103" s="61"/>
-      <c r="K103" s="60"/>
-      <c r="L103" s="59"/>
-      <c r="M103" s="58"/>
-      <c r="N103" s="59"/>
-      <c r="O103" s="55"/>
-      <c r="P103" s="56"/>
-      <c r="Q103" s="57"/>
-      <c r="R103" s="49"/>
-      <c r="S103" s="50"/>
-      <c r="T103" s="50"/>
-      <c r="U103" s="51"/>
+      <c r="A103" s="123"/>
+      <c r="B103" s="124"/>
+      <c r="C103" s="134"/>
+      <c r="D103" s="124"/>
+      <c r="E103" s="147"/>
+      <c r="F103" s="148"/>
+      <c r="G103" s="149"/>
+      <c r="H103" s="147"/>
+      <c r="I103" s="148"/>
+      <c r="J103" s="150"/>
+      <c r="K103" s="123"/>
+      <c r="L103" s="124"/>
+      <c r="M103" s="134"/>
+      <c r="N103" s="124"/>
+      <c r="O103" s="147"/>
+      <c r="P103" s="148"/>
+      <c r="Q103" s="149"/>
+      <c r="R103" s="156"/>
+      <c r="S103" s="157"/>
+      <c r="T103" s="157"/>
+      <c r="U103" s="158"/>
     </row>
     <row r="104" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="42"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="47"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="46"/>
-      <c r="J104" s="48"/>
-      <c r="K104" s="42"/>
-      <c r="L104" s="43"/>
-      <c r="M104" s="44"/>
-      <c r="N104" s="43"/>
-      <c r="O104" s="45"/>
-      <c r="P104" s="46"/>
-      <c r="Q104" s="47"/>
-      <c r="R104" s="52"/>
-      <c r="S104" s="53"/>
-      <c r="T104" s="53"/>
-      <c r="U104" s="54"/>
+      <c r="A104" s="161"/>
+      <c r="B104" s="152"/>
+      <c r="C104" s="151"/>
+      <c r="D104" s="152"/>
+      <c r="E104" s="153"/>
+      <c r="F104" s="154"/>
+      <c r="G104" s="155"/>
+      <c r="H104" s="153"/>
+      <c r="I104" s="154"/>
+      <c r="J104" s="162"/>
+      <c r="K104" s="161"/>
+      <c r="L104" s="152"/>
+      <c r="M104" s="151"/>
+      <c r="N104" s="152"/>
+      <c r="O104" s="153"/>
+      <c r="P104" s="154"/>
+      <c r="Q104" s="155"/>
+      <c r="R104" s="163"/>
+      <c r="S104" s="164"/>
+      <c r="T104" s="164"/>
+      <c r="U104" s="165"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
@@ -3365,297 +3365,297 @@
       <c r="U105" s="10"/>
     </row>
     <row r="106" spans="1:21" s="3" customFormat="1" ht="152.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="81" t="s">
+      <c r="A106" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="B106" s="81"/>
-      <c r="C106" s="81"/>
-      <c r="D106" s="81"/>
-      <c r="E106" s="81"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81"/>
-      <c r="H106" s="81"/>
-      <c r="I106" s="81"/>
-      <c r="J106" s="81"/>
-      <c r="K106" s="81"/>
-      <c r="L106" s="81"/>
-      <c r="M106" s="81"/>
-      <c r="N106" s="81"/>
-      <c r="O106" s="81"/>
-      <c r="P106" s="81"/>
-      <c r="Q106" s="81"/>
-      <c r="R106" s="81"/>
-      <c r="S106" s="81"/>
-      <c r="T106" s="81"/>
-      <c r="U106" s="81"/>
+      <c r="B106" s="135"/>
+      <c r="C106" s="135"/>
+      <c r="D106" s="135"/>
+      <c r="E106" s="135"/>
+      <c r="F106" s="135"/>
+      <c r="G106" s="135"/>
+      <c r="H106" s="135"/>
+      <c r="I106" s="135"/>
+      <c r="J106" s="135"/>
+      <c r="K106" s="135"/>
+      <c r="L106" s="135"/>
+      <c r="M106" s="135"/>
+      <c r="N106" s="135"/>
+      <c r="O106" s="135"/>
+      <c r="P106" s="135"/>
+      <c r="Q106" s="135"/>
+      <c r="R106" s="135"/>
+      <c r="S106" s="135"/>
+      <c r="T106" s="135"/>
+      <c r="U106" s="135"/>
     </row>
     <row r="107" spans="1:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="A107" s="63" t="s">
+      <c r="A107" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="B107" s="63"/>
-      <c r="C107" s="63"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="63"/>
-      <c r="G107" s="63"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="63"/>
-      <c r="J107" s="63"/>
-      <c r="K107" s="63"/>
-      <c r="L107" s="63"/>
-      <c r="M107" s="63"/>
-      <c r="N107" s="63"/>
-      <c r="O107" s="63"/>
-      <c r="P107" s="63"/>
-      <c r="Q107" s="63"/>
-      <c r="R107" s="63"/>
-      <c r="S107" s="63"/>
-      <c r="T107" s="63"/>
-      <c r="U107" s="63"/>
+      <c r="B107" s="118"/>
+      <c r="C107" s="118"/>
+      <c r="D107" s="118"/>
+      <c r="E107" s="118"/>
+      <c r="F107" s="118"/>
+      <c r="G107" s="118"/>
+      <c r="H107" s="118"/>
+      <c r="I107" s="118"/>
+      <c r="J107" s="118"/>
+      <c r="K107" s="118"/>
+      <c r="L107" s="118"/>
+      <c r="M107" s="118"/>
+      <c r="N107" s="118"/>
+      <c r="O107" s="118"/>
+      <c r="P107" s="118"/>
+      <c r="Q107" s="118"/>
+      <c r="R107" s="118"/>
+      <c r="S107" s="118"/>
+      <c r="T107" s="118"/>
+      <c r="U107" s="118"/>
     </row>
     <row r="108" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="64" t="s">
+      <c r="A109" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="65"/>
-      <c r="F109" s="65"/>
-      <c r="G109" s="65"/>
-      <c r="H109" s="65"/>
-      <c r="I109" s="65"/>
-      <c r="J109" s="65"/>
-      <c r="K109" s="65"/>
-      <c r="L109" s="65"/>
-      <c r="M109" s="65"/>
-      <c r="N109" s="65"/>
-      <c r="O109" s="65"/>
-      <c r="P109" s="65"/>
-      <c r="Q109" s="65"/>
-      <c r="R109" s="65"/>
-      <c r="S109" s="65"/>
-      <c r="T109" s="65"/>
-      <c r="U109" s="66"/>
+      <c r="B109" s="137"/>
+      <c r="C109" s="137"/>
+      <c r="D109" s="137"/>
+      <c r="E109" s="137"/>
+      <c r="F109" s="137"/>
+      <c r="G109" s="137"/>
+      <c r="H109" s="137"/>
+      <c r="I109" s="137"/>
+      <c r="J109" s="137"/>
+      <c r="K109" s="137"/>
+      <c r="L109" s="137"/>
+      <c r="M109" s="137"/>
+      <c r="N109" s="137"/>
+      <c r="O109" s="137"/>
+      <c r="P109" s="137"/>
+      <c r="Q109" s="137"/>
+      <c r="R109" s="137"/>
+      <c r="S109" s="137"/>
+      <c r="T109" s="137"/>
+      <c r="U109" s="138"/>
     </row>
     <row r="110" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="70"/>
-      <c r="B110" s="71"/>
-      <c r="C110" s="71"/>
-      <c r="D110" s="71"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="71"/>
-      <c r="H110" s="71"/>
-      <c r="I110" s="71"/>
-      <c r="J110" s="71"/>
-      <c r="K110" s="71"/>
-      <c r="L110" s="71"/>
-      <c r="M110" s="71"/>
-      <c r="N110" s="71"/>
-      <c r="O110" s="71"/>
-      <c r="P110" s="71"/>
-      <c r="Q110" s="71"/>
-      <c r="R110" s="71"/>
-      <c r="S110" s="71"/>
-      <c r="T110" s="71"/>
-      <c r="U110" s="72"/>
+      <c r="A110" s="142"/>
+      <c r="B110" s="143"/>
+      <c r="C110" s="143"/>
+      <c r="D110" s="143"/>
+      <c r="E110" s="143"/>
+      <c r="F110" s="143"/>
+      <c r="G110" s="143"/>
+      <c r="H110" s="143"/>
+      <c r="I110" s="143"/>
+      <c r="J110" s="143"/>
+      <c r="K110" s="143"/>
+      <c r="L110" s="143"/>
+      <c r="M110" s="143"/>
+      <c r="N110" s="143"/>
+      <c r="O110" s="143"/>
+      <c r="P110" s="143"/>
+      <c r="Q110" s="143"/>
+      <c r="R110" s="143"/>
+      <c r="S110" s="143"/>
+      <c r="T110" s="143"/>
+      <c r="U110" s="144"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="64" t="s">
+      <c r="A111" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="B111" s="65"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="65"/>
-      <c r="F111" s="65"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="65"/>
-      <c r="J111" s="65"/>
-      <c r="K111" s="65"/>
-      <c r="L111" s="65"/>
-      <c r="M111" s="65"/>
-      <c r="N111" s="65"/>
-      <c r="O111" s="65"/>
-      <c r="P111" s="65"/>
-      <c r="Q111" s="65"/>
-      <c r="R111" s="65"/>
-      <c r="S111" s="65"/>
-      <c r="T111" s="65"/>
-      <c r="U111" s="66"/>
+      <c r="B111" s="137"/>
+      <c r="C111" s="137"/>
+      <c r="D111" s="137"/>
+      <c r="E111" s="137"/>
+      <c r="F111" s="137"/>
+      <c r="G111" s="137"/>
+      <c r="H111" s="137"/>
+      <c r="I111" s="137"/>
+      <c r="J111" s="137"/>
+      <c r="K111" s="137"/>
+      <c r="L111" s="137"/>
+      <c r="M111" s="137"/>
+      <c r="N111" s="137"/>
+      <c r="O111" s="137"/>
+      <c r="P111" s="137"/>
+      <c r="Q111" s="137"/>
+      <c r="R111" s="137"/>
+      <c r="S111" s="137"/>
+      <c r="T111" s="137"/>
+      <c r="U111" s="138"/>
     </row>
     <row r="112" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="67"/>
-      <c r="B112" s="68"/>
-      <c r="C112" s="68"/>
-      <c r="D112" s="68"/>
-      <c r="E112" s="68"/>
-      <c r="F112" s="68"/>
-      <c r="G112" s="68"/>
-      <c r="H112" s="68"/>
-      <c r="I112" s="68"/>
-      <c r="J112" s="68"/>
-      <c r="K112" s="68"/>
-      <c r="L112" s="68"/>
-      <c r="M112" s="68"/>
-      <c r="N112" s="68"/>
-      <c r="O112" s="68"/>
-      <c r="P112" s="68"/>
-      <c r="Q112" s="68"/>
-      <c r="R112" s="68"/>
-      <c r="S112" s="68"/>
-      <c r="T112" s="68"/>
-      <c r="U112" s="69"/>
+      <c r="A112" s="139"/>
+      <c r="B112" s="140"/>
+      <c r="C112" s="140"/>
+      <c r="D112" s="140"/>
+      <c r="E112" s="140"/>
+      <c r="F112" s="140"/>
+      <c r="G112" s="140"/>
+      <c r="H112" s="140"/>
+      <c r="I112" s="140"/>
+      <c r="J112" s="140"/>
+      <c r="K112" s="140"/>
+      <c r="L112" s="140"/>
+      <c r="M112" s="140"/>
+      <c r="N112" s="140"/>
+      <c r="O112" s="140"/>
+      <c r="P112" s="140"/>
+      <c r="Q112" s="140"/>
+      <c r="R112" s="140"/>
+      <c r="S112" s="140"/>
+      <c r="T112" s="140"/>
+      <c r="U112" s="141"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="64" t="s">
+      <c r="A113" s="136" t="s">
         <v>41</v>
       </c>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="65"/>
-      <c r="J113" s="65"/>
-      <c r="K113" s="65"/>
-      <c r="L113" s="65"/>
-      <c r="M113" s="65"/>
-      <c r="N113" s="65"/>
-      <c r="O113" s="65"/>
-      <c r="P113" s="65"/>
-      <c r="Q113" s="65"/>
-      <c r="R113" s="65"/>
-      <c r="S113" s="65"/>
-      <c r="T113" s="65"/>
-      <c r="U113" s="66"/>
+      <c r="B113" s="137"/>
+      <c r="C113" s="137"/>
+      <c r="D113" s="137"/>
+      <c r="E113" s="137"/>
+      <c r="F113" s="137"/>
+      <c r="G113" s="137"/>
+      <c r="H113" s="137"/>
+      <c r="I113" s="137"/>
+      <c r="J113" s="137"/>
+      <c r="K113" s="137"/>
+      <c r="L113" s="137"/>
+      <c r="M113" s="137"/>
+      <c r="N113" s="137"/>
+      <c r="O113" s="137"/>
+      <c r="P113" s="137"/>
+      <c r="Q113" s="137"/>
+      <c r="R113" s="137"/>
+      <c r="S113" s="137"/>
+      <c r="T113" s="137"/>
+      <c r="U113" s="138"/>
     </row>
     <row r="114" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="67"/>
-      <c r="B114" s="68"/>
-      <c r="C114" s="68"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="68"/>
-      <c r="F114" s="68"/>
-      <c r="G114" s="68"/>
-      <c r="H114" s="68"/>
-      <c r="I114" s="68"/>
-      <c r="J114" s="68"/>
-      <c r="K114" s="68"/>
-      <c r="L114" s="68"/>
-      <c r="M114" s="68"/>
-      <c r="N114" s="68"/>
-      <c r="O114" s="68"/>
-      <c r="P114" s="68"/>
-      <c r="Q114" s="68"/>
-      <c r="R114" s="68"/>
-      <c r="S114" s="68"/>
-      <c r="T114" s="68"/>
-      <c r="U114" s="69"/>
+      <c r="A114" s="139"/>
+      <c r="B114" s="140"/>
+      <c r="C114" s="140"/>
+      <c r="D114" s="140"/>
+      <c r="E114" s="140"/>
+      <c r="F114" s="140"/>
+      <c r="G114" s="140"/>
+      <c r="H114" s="140"/>
+      <c r="I114" s="140"/>
+      <c r="J114" s="140"/>
+      <c r="K114" s="140"/>
+      <c r="L114" s="140"/>
+      <c r="M114" s="140"/>
+      <c r="N114" s="140"/>
+      <c r="O114" s="140"/>
+      <c r="P114" s="140"/>
+      <c r="Q114" s="140"/>
+      <c r="R114" s="140"/>
+      <c r="S114" s="140"/>
+      <c r="T114" s="140"/>
+      <c r="U114" s="141"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="64" t="s">
+      <c r="A115" s="136" t="s">
         <v>42</v>
       </c>
-      <c r="B115" s="65"/>
-      <c r="C115" s="65"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="65"/>
-      <c r="I115" s="65"/>
-      <c r="J115" s="65"/>
-      <c r="K115" s="65"/>
-      <c r="L115" s="65"/>
-      <c r="M115" s="65"/>
-      <c r="N115" s="65"/>
-      <c r="O115" s="65"/>
-      <c r="P115" s="65"/>
-      <c r="Q115" s="65"/>
-      <c r="R115" s="65"/>
-      <c r="S115" s="65"/>
-      <c r="T115" s="65"/>
-      <c r="U115" s="66"/>
+      <c r="B115" s="137"/>
+      <c r="C115" s="137"/>
+      <c r="D115" s="137"/>
+      <c r="E115" s="137"/>
+      <c r="F115" s="137"/>
+      <c r="G115" s="137"/>
+      <c r="H115" s="137"/>
+      <c r="I115" s="137"/>
+      <c r="J115" s="137"/>
+      <c r="K115" s="137"/>
+      <c r="L115" s="137"/>
+      <c r="M115" s="137"/>
+      <c r="N115" s="137"/>
+      <c r="O115" s="137"/>
+      <c r="P115" s="137"/>
+      <c r="Q115" s="137"/>
+      <c r="R115" s="137"/>
+      <c r="S115" s="137"/>
+      <c r="T115" s="137"/>
+      <c r="U115" s="138"/>
     </row>
     <row r="116" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="67"/>
-      <c r="B116" s="68"/>
-      <c r="C116" s="68"/>
-      <c r="D116" s="68"/>
-      <c r="E116" s="68"/>
-      <c r="F116" s="68"/>
-      <c r="G116" s="68"/>
-      <c r="H116" s="68"/>
-      <c r="I116" s="68"/>
-      <c r="J116" s="68"/>
-      <c r="K116" s="68"/>
-      <c r="L116" s="68"/>
-      <c r="M116" s="68"/>
-      <c r="N116" s="68"/>
-      <c r="O116" s="68"/>
-      <c r="P116" s="68"/>
-      <c r="Q116" s="68"/>
-      <c r="R116" s="68"/>
-      <c r="S116" s="68"/>
-      <c r="T116" s="68"/>
-      <c r="U116" s="69"/>
+      <c r="A116" s="139"/>
+      <c r="B116" s="140"/>
+      <c r="C116" s="140"/>
+      <c r="D116" s="140"/>
+      <c r="E116" s="140"/>
+      <c r="F116" s="140"/>
+      <c r="G116" s="140"/>
+      <c r="H116" s="140"/>
+      <c r="I116" s="140"/>
+      <c r="J116" s="140"/>
+      <c r="K116" s="140"/>
+      <c r="L116" s="140"/>
+      <c r="M116" s="140"/>
+      <c r="N116" s="140"/>
+      <c r="O116" s="140"/>
+      <c r="P116" s="140"/>
+      <c r="Q116" s="140"/>
+      <c r="R116" s="140"/>
+      <c r="S116" s="140"/>
+      <c r="T116" s="140"/>
+      <c r="U116" s="141"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="64" t="s">
+      <c r="A117" s="136" t="s">
         <v>43</v>
       </c>
-      <c r="B117" s="65"/>
-      <c r="C117" s="65"/>
-      <c r="D117" s="65"/>
-      <c r="E117" s="65"/>
-      <c r="F117" s="65"/>
-      <c r="G117" s="65"/>
-      <c r="H117" s="65"/>
-      <c r="I117" s="65"/>
-      <c r="J117" s="65"/>
-      <c r="K117" s="65"/>
-      <c r="L117" s="65"/>
-      <c r="M117" s="65"/>
-      <c r="N117" s="65"/>
-      <c r="O117" s="65"/>
-      <c r="P117" s="65"/>
-      <c r="Q117" s="65"/>
-      <c r="R117" s="65"/>
-      <c r="S117" s="65"/>
-      <c r="T117" s="65"/>
-      <c r="U117" s="66"/>
+      <c r="B117" s="137"/>
+      <c r="C117" s="137"/>
+      <c r="D117" s="137"/>
+      <c r="E117" s="137"/>
+      <c r="F117" s="137"/>
+      <c r="G117" s="137"/>
+      <c r="H117" s="137"/>
+      <c r="I117" s="137"/>
+      <c r="J117" s="137"/>
+      <c r="K117" s="137"/>
+      <c r="L117" s="137"/>
+      <c r="M117" s="137"/>
+      <c r="N117" s="137"/>
+      <c r="O117" s="137"/>
+      <c r="P117" s="137"/>
+      <c r="Q117" s="137"/>
+      <c r="R117" s="137"/>
+      <c r="S117" s="137"/>
+      <c r="T117" s="137"/>
+      <c r="U117" s="138"/>
     </row>
     <row r="118" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="67"/>
-      <c r="B118" s="68"/>
-      <c r="C118" s="68"/>
-      <c r="D118" s="68"/>
-      <c r="E118" s="68"/>
-      <c r="F118" s="68"/>
-      <c r="G118" s="68"/>
-      <c r="H118" s="68"/>
-      <c r="I118" s="68"/>
-      <c r="J118" s="68"/>
-      <c r="K118" s="68"/>
-      <c r="L118" s="68"/>
-      <c r="M118" s="68"/>
-      <c r="N118" s="68"/>
-      <c r="O118" s="68"/>
-      <c r="P118" s="68"/>
-      <c r="Q118" s="68"/>
-      <c r="R118" s="68"/>
-      <c r="S118" s="68"/>
-      <c r="T118" s="68"/>
-      <c r="U118" s="69"/>
+      <c r="A118" s="139"/>
+      <c r="B118" s="140"/>
+      <c r="C118" s="140"/>
+      <c r="D118" s="140"/>
+      <c r="E118" s="140"/>
+      <c r="F118" s="140"/>
+      <c r="G118" s="140"/>
+      <c r="H118" s="140"/>
+      <c r="I118" s="140"/>
+      <c r="J118" s="140"/>
+      <c r="K118" s="140"/>
+      <c r="L118" s="140"/>
+      <c r="M118" s="140"/>
+      <c r="N118" s="140"/>
+      <c r="O118" s="140"/>
+      <c r="P118" s="140"/>
+      <c r="Q118" s="140"/>
+      <c r="R118" s="140"/>
+      <c r="S118" s="140"/>
+      <c r="T118" s="140"/>
+      <c r="U118" s="141"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="25" t="s">
@@ -3670,29 +3670,29 @@
       <c r="C121"/>
     </row>
     <row r="122" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="80" t="s">
+      <c r="A122" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="B122" s="80"/>
-      <c r="C122" s="80"/>
-      <c r="D122" s="80"/>
-      <c r="E122" s="80"/>
-      <c r="F122" s="80"/>
-      <c r="G122" s="80"/>
-      <c r="H122" s="80"/>
-      <c r="I122" s="80"/>
-      <c r="J122" s="80"/>
-      <c r="K122" s="80"/>
-      <c r="L122" s="80"/>
-      <c r="M122" s="80"/>
-      <c r="N122" s="80"/>
-      <c r="O122" s="80"/>
-      <c r="P122" s="80"/>
-      <c r="Q122" s="80"/>
-      <c r="R122" s="80"/>
-      <c r="S122" s="80"/>
-      <c r="T122" s="80"/>
-      <c r="U122" s="80"/>
+      <c r="B122" s="105"/>
+      <c r="C122" s="105"/>
+      <c r="D122" s="105"/>
+      <c r="E122" s="105"/>
+      <c r="F122" s="105"/>
+      <c r="G122" s="105"/>
+      <c r="H122" s="105"/>
+      <c r="I122" s="105"/>
+      <c r="J122" s="105"/>
+      <c r="K122" s="105"/>
+      <c r="L122" s="105"/>
+      <c r="M122" s="105"/>
+      <c r="N122" s="105"/>
+      <c r="O122" s="105"/>
+      <c r="P122" s="105"/>
+      <c r="Q122" s="105"/>
+      <c r="R122" s="105"/>
+      <c r="S122" s="105"/>
+      <c r="T122" s="105"/>
+      <c r="U122" s="105"/>
     </row>
     <row r="123" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
@@ -3712,24 +3712,24 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="80" t="s">
+      <c r="F125" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="G125" s="80"/>
-      <c r="H125" s="80"/>
-      <c r="I125" s="80"/>
-      <c r="J125" s="80"/>
-      <c r="K125" s="80"/>
-      <c r="L125" s="80"/>
-      <c r="M125" s="80"/>
-      <c r="N125" s="80"/>
-      <c r="O125" s="80"/>
-      <c r="P125" s="80"/>
-      <c r="Q125" s="80"/>
-      <c r="R125" s="80"/>
-      <c r="S125" s="80"/>
-      <c r="T125" s="80"/>
-      <c r="U125" s="80"/>
+      <c r="G125" s="105"/>
+      <c r="H125" s="105"/>
+      <c r="I125" s="105"/>
+      <c r="J125" s="105"/>
+      <c r="K125" s="105"/>
+      <c r="L125" s="105"/>
+      <c r="M125" s="105"/>
+      <c r="N125" s="105"/>
+      <c r="O125" s="105"/>
+      <c r="P125" s="105"/>
+      <c r="Q125" s="105"/>
+      <c r="R125" s="105"/>
+      <c r="S125" s="105"/>
+      <c r="T125" s="105"/>
+      <c r="U125" s="105"/>
     </row>
     <row r="126" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
@@ -3737,24 +3737,24 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="80" t="s">
+      <c r="F126" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="G126" s="80"/>
-      <c r="H126" s="80"/>
-      <c r="I126" s="80"/>
-      <c r="J126" s="80"/>
-      <c r="K126" s="80"/>
-      <c r="L126" s="80"/>
-      <c r="M126" s="80"/>
-      <c r="N126" s="80"/>
-      <c r="O126" s="80"/>
-      <c r="P126" s="80"/>
-      <c r="Q126" s="80"/>
-      <c r="R126" s="80"/>
-      <c r="S126" s="80"/>
-      <c r="T126" s="80"/>
-      <c r="U126" s="80"/>
+      <c r="G126" s="105"/>
+      <c r="H126" s="105"/>
+      <c r="I126" s="105"/>
+      <c r="J126" s="105"/>
+      <c r="K126" s="105"/>
+      <c r="L126" s="105"/>
+      <c r="M126" s="105"/>
+      <c r="N126" s="105"/>
+      <c r="O126" s="105"/>
+      <c r="P126" s="105"/>
+      <c r="Q126" s="105"/>
+      <c r="R126" s="105"/>
+      <c r="S126" s="105"/>
+      <c r="T126" s="105"/>
+      <c r="U126" s="105"/>
     </row>
     <row r="127" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
@@ -3763,24 +3763,24 @@
       <c r="B127"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
-      <c r="F127" s="80" t="s">
+      <c r="F127" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="G127" s="80"/>
-      <c r="H127" s="80"/>
-      <c r="I127" s="80"/>
-      <c r="J127" s="80"/>
-      <c r="K127" s="80"/>
-      <c r="L127" s="80"/>
-      <c r="M127" s="80"/>
-      <c r="N127" s="80"/>
-      <c r="O127" s="80"/>
-      <c r="P127" s="80"/>
-      <c r="Q127" s="80"/>
-      <c r="R127" s="80"/>
-      <c r="S127" s="80"/>
-      <c r="T127" s="80"/>
-      <c r="U127" s="80"/>
+      <c r="G127" s="105"/>
+      <c r="H127" s="105"/>
+      <c r="I127" s="105"/>
+      <c r="J127" s="105"/>
+      <c r="K127" s="105"/>
+      <c r="L127" s="105"/>
+      <c r="M127" s="105"/>
+      <c r="N127" s="105"/>
+      <c r="O127" s="105"/>
+      <c r="P127" s="105"/>
+      <c r="Q127" s="105"/>
+      <c r="R127" s="105"/>
+      <c r="S127" s="105"/>
+      <c r="T127" s="105"/>
+      <c r="U127" s="105"/>
     </row>
     <row r="128" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
@@ -3789,24 +3789,24 @@
       <c r="B128"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="80" t="s">
+      <c r="F128" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="G128" s="80"/>
-      <c r="H128" s="80"/>
-      <c r="I128" s="80"/>
-      <c r="J128" s="80"/>
-      <c r="K128" s="80"/>
-      <c r="L128" s="80"/>
-      <c r="M128" s="80"/>
-      <c r="N128" s="80"/>
-      <c r="O128" s="80"/>
-      <c r="P128" s="80"/>
-      <c r="Q128" s="80"/>
-      <c r="R128" s="80"/>
-      <c r="S128" s="80"/>
-      <c r="T128" s="80"/>
-      <c r="U128" s="80"/>
+      <c r="G128" s="105"/>
+      <c r="H128" s="105"/>
+      <c r="I128" s="105"/>
+      <c r="J128" s="105"/>
+      <c r="K128" s="105"/>
+      <c r="L128" s="105"/>
+      <c r="M128" s="105"/>
+      <c r="N128" s="105"/>
+      <c r="O128" s="105"/>
+      <c r="P128" s="105"/>
+      <c r="Q128" s="105"/>
+      <c r="R128" s="105"/>
+      <c r="S128" s="105"/>
+      <c r="T128" s="105"/>
+      <c r="U128" s="105"/>
     </row>
     <row r="129" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
@@ -3815,24 +3815,24 @@
       <c r="B129"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="80" t="s">
+      <c r="F129" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="G129" s="80"/>
-      <c r="H129" s="80"/>
-      <c r="I129" s="80"/>
-      <c r="J129" s="80"/>
-      <c r="K129" s="80"/>
-      <c r="L129" s="80"/>
-      <c r="M129" s="80"/>
-      <c r="N129" s="80"/>
-      <c r="O129" s="80"/>
-      <c r="P129" s="80"/>
-      <c r="Q129" s="80"/>
-      <c r="R129" s="80"/>
-      <c r="S129" s="80"/>
-      <c r="T129" s="80"/>
-      <c r="U129" s="80"/>
+      <c r="G129" s="105"/>
+      <c r="H129" s="105"/>
+      <c r="I129" s="105"/>
+      <c r="J129" s="105"/>
+      <c r="K129" s="105"/>
+      <c r="L129" s="105"/>
+      <c r="M129" s="105"/>
+      <c r="N129" s="105"/>
+      <c r="O129" s="105"/>
+      <c r="P129" s="105"/>
+      <c r="Q129" s="105"/>
+      <c r="R129" s="105"/>
+      <c r="S129" s="105"/>
+      <c r="T129" s="105"/>
+      <c r="U129" s="105"/>
     </row>
     <row r="130" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
@@ -3841,24 +3841,24 @@
       <c r="B130"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="80" t="s">
+      <c r="F130" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="G130" s="80"/>
-      <c r="H130" s="80"/>
-      <c r="I130" s="80"/>
-      <c r="J130" s="80"/>
-      <c r="K130" s="80"/>
-      <c r="L130" s="80"/>
-      <c r="M130" s="80"/>
-      <c r="N130" s="80"/>
-      <c r="O130" s="80"/>
-      <c r="P130" s="80"/>
-      <c r="Q130" s="80"/>
-      <c r="R130" s="80"/>
-      <c r="S130" s="80"/>
-      <c r="T130" s="80"/>
-      <c r="U130" s="80"/>
+      <c r="G130" s="105"/>
+      <c r="H130" s="105"/>
+      <c r="I130" s="105"/>
+      <c r="J130" s="105"/>
+      <c r="K130" s="105"/>
+      <c r="L130" s="105"/>
+      <c r="M130" s="105"/>
+      <c r="N130" s="105"/>
+      <c r="O130" s="105"/>
+      <c r="P130" s="105"/>
+      <c r="Q130" s="105"/>
+      <c r="R130" s="105"/>
+      <c r="S130" s="105"/>
+      <c r="T130" s="105"/>
+      <c r="U130" s="105"/>
     </row>
     <row r="131" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
@@ -3866,47 +3866,47 @@
       <c r="C131"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="108" t="s">
+      <c r="A132" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B132" s="109"/>
-      <c r="C132" s="109"/>
-      <c r="D132" s="110"/>
-      <c r="E132" s="75" t="s">
+      <c r="B132" s="66"/>
+      <c r="C132" s="66"/>
+      <c r="D132" s="67"/>
+      <c r="E132" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F132" s="76"/>
-      <c r="G132" s="77"/>
-      <c r="H132" s="78" t="s">
+      <c r="F132" s="44"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I132" s="76"/>
-      <c r="J132" s="79"/>
-      <c r="K132" s="75" t="s">
+      <c r="I132" s="44"/>
+      <c r="J132" s="45"/>
+      <c r="K132" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="L132" s="76"/>
-      <c r="M132" s="77"/>
-      <c r="N132" s="78" t="s">
+      <c r="L132" s="44"/>
+      <c r="M132" s="47"/>
+      <c r="N132" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="O132" s="76"/>
-      <c r="P132" s="79"/>
-      <c r="Q132" s="75" t="s">
+      <c r="O132" s="44"/>
+      <c r="P132" s="45"/>
+      <c r="Q132" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="R132" s="76"/>
-      <c r="S132" s="77"/>
-      <c r="T132" s="78" t="s">
+      <c r="R132" s="44"/>
+      <c r="S132" s="47"/>
+      <c r="T132" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="U132" s="77"/>
+      <c r="U132" s="47"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="111"/>
-      <c r="B133" s="112"/>
-      <c r="C133" s="112"/>
-      <c r="D133" s="113"/>
+      <c r="A133" s="68"/>
+      <c r="B133" s="69"/>
+      <c r="C133" s="69"/>
+      <c r="D133" s="70"/>
       <c r="E133" s="26">
         <v>15</v>
       </c>
@@ -3952,18 +3952,18 @@
       <c r="S133" s="28">
         <v>1</v>
       </c>
-      <c r="T133" s="114">
+      <c r="T133" s="48">
         <v>0</v>
       </c>
-      <c r="U133" s="115"/>
+      <c r="U133" s="49"/>
     </row>
     <row r="134" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="116" t="s">
+      <c r="A134" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B134" s="117"/>
-      <c r="C134" s="117"/>
-      <c r="D134" s="118"/>
+      <c r="B134" s="51"/>
+      <c r="C134" s="51"/>
+      <c r="D134" s="52"/>
       <c r="E134" s="12"/>
       <c r="F134" s="13"/>
       <c r="G134" s="14"/>
@@ -3979,16 +3979,16 @@
       <c r="Q134" s="12"/>
       <c r="R134" s="13"/>
       <c r="S134" s="14"/>
-      <c r="T134" s="33"/>
-      <c r="U134" s="34"/>
+      <c r="T134" s="166"/>
+      <c r="U134" s="167"/>
     </row>
     <row r="135" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="122" t="s">
+      <c r="A135" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B135" s="123"/>
-      <c r="C135" s="123"/>
-      <c r="D135" s="124"/>
+      <c r="B135" s="72"/>
+      <c r="C135" s="72"/>
+      <c r="D135" s="73"/>
       <c r="E135" s="12"/>
       <c r="F135" s="13"/>
       <c r="G135" s="14"/>
@@ -4004,16 +4004,16 @@
       <c r="Q135" s="12"/>
       <c r="R135" s="13"/>
       <c r="S135" s="14"/>
-      <c r="T135" s="33"/>
-      <c r="U135" s="34"/>
+      <c r="T135" s="166"/>
+      <c r="U135" s="167"/>
     </row>
     <row r="136" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="119" t="s">
+      <c r="A136" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B136" s="120"/>
-      <c r="C136" s="120"/>
-      <c r="D136" s="121"/>
+      <c r="B136" s="63"/>
+      <c r="C136" s="63"/>
+      <c r="D136" s="64"/>
       <c r="E136" s="17"/>
       <c r="F136" s="18"/>
       <c r="G136" s="19"/>
@@ -4029,52 +4029,52 @@
       <c r="Q136" s="17"/>
       <c r="R136" s="18"/>
       <c r="S136" s="19"/>
-      <c r="T136" s="31"/>
-      <c r="U136" s="32"/>
+      <c r="T136" s="168"/>
+      <c r="U136" s="169"/>
     </row>
     <row r="137" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="108" t="s">
+      <c r="A138" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B138" s="109"/>
-      <c r="C138" s="109"/>
-      <c r="D138" s="110"/>
-      <c r="E138" s="75" t="s">
+      <c r="B138" s="66"/>
+      <c r="C138" s="66"/>
+      <c r="D138" s="67"/>
+      <c r="E138" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F138" s="76"/>
-      <c r="G138" s="77"/>
-      <c r="H138" s="78" t="s">
+      <c r="F138" s="44"/>
+      <c r="G138" s="47"/>
+      <c r="H138" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I138" s="76"/>
-      <c r="J138" s="79"/>
-      <c r="K138" s="75" t="s">
+      <c r="I138" s="44"/>
+      <c r="J138" s="45"/>
+      <c r="K138" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="L138" s="76"/>
-      <c r="M138" s="77"/>
-      <c r="N138" s="78" t="s">
+      <c r="L138" s="44"/>
+      <c r="M138" s="47"/>
+      <c r="N138" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="O138" s="76"/>
-      <c r="P138" s="79"/>
-      <c r="Q138" s="75" t="s">
+      <c r="O138" s="44"/>
+      <c r="P138" s="45"/>
+      <c r="Q138" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="R138" s="76"/>
-      <c r="S138" s="77"/>
-      <c r="T138" s="78" t="s">
+      <c r="R138" s="44"/>
+      <c r="S138" s="47"/>
+      <c r="T138" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="U138" s="77"/>
+      <c r="U138" s="47"/>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A139" s="111"/>
-      <c r="B139" s="112"/>
-      <c r="C139" s="112"/>
-      <c r="D139" s="113"/>
+      <c r="A139" s="68"/>
+      <c r="B139" s="69"/>
+      <c r="C139" s="69"/>
+      <c r="D139" s="70"/>
       <c r="E139" s="26">
         <v>15</v>
       </c>
@@ -4120,18 +4120,18 @@
       <c r="S139" s="28">
         <v>1</v>
       </c>
-      <c r="T139" s="114">
+      <c r="T139" s="48">
         <v>0</v>
       </c>
-      <c r="U139" s="115"/>
+      <c r="U139" s="49"/>
     </row>
     <row r="140" spans="1:21" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="116" t="s">
+      <c r="A140" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B140" s="117"/>
-      <c r="C140" s="117"/>
-      <c r="D140" s="118"/>
+      <c r="B140" s="51"/>
+      <c r="C140" s="51"/>
+      <c r="D140" s="52"/>
       <c r="E140" s="12"/>
       <c r="F140" s="13"/>
       <c r="G140" s="14"/>
@@ -4147,16 +4147,16 @@
       <c r="Q140" s="12"/>
       <c r="R140" s="13"/>
       <c r="S140" s="14"/>
-      <c r="T140" s="33"/>
-      <c r="U140" s="34"/>
+      <c r="T140" s="166"/>
+      <c r="U140" s="167"/>
     </row>
     <row r="141" spans="1:21" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="125" t="s">
+      <c r="A141" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="B141" s="126"/>
-      <c r="C141" s="126"/>
-      <c r="D141" s="127"/>
+      <c r="B141" s="54"/>
+      <c r="C141" s="54"/>
+      <c r="D141" s="55"/>
       <c r="E141" s="12"/>
       <c r="F141" s="13"/>
       <c r="G141" s="14"/>
@@ -4172,16 +4172,16 @@
       <c r="Q141" s="12"/>
       <c r="R141" s="13"/>
       <c r="S141" s="14"/>
-      <c r="T141" s="33"/>
-      <c r="U141" s="34"/>
+      <c r="T141" s="166"/>
+      <c r="U141" s="167"/>
     </row>
     <row r="142" spans="1:21" ht="42.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="119" t="s">
+      <c r="A142" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="B142" s="120"/>
-      <c r="C142" s="120"/>
-      <c r="D142" s="121"/>
+      <c r="B142" s="63"/>
+      <c r="C142" s="63"/>
+      <c r="D142" s="64"/>
       <c r="E142" s="17"/>
       <c r="F142" s="18"/>
       <c r="G142" s="19"/>
@@ -4197,52 +4197,52 @@
       <c r="Q142" s="17"/>
       <c r="R142" s="18"/>
       <c r="S142" s="19"/>
-      <c r="T142" s="31"/>
-      <c r="U142" s="32"/>
+      <c r="T142" s="168"/>
+      <c r="U142" s="169"/>
     </row>
     <row r="143" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="108" t="s">
+      <c r="A144" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B144" s="109"/>
-      <c r="C144" s="109"/>
-      <c r="D144" s="110"/>
-      <c r="E144" s="75" t="s">
+      <c r="B144" s="66"/>
+      <c r="C144" s="66"/>
+      <c r="D144" s="67"/>
+      <c r="E144" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F144" s="76"/>
-      <c r="G144" s="77"/>
-      <c r="H144" s="78" t="s">
+      <c r="F144" s="44"/>
+      <c r="G144" s="47"/>
+      <c r="H144" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I144" s="76"/>
-      <c r="J144" s="79"/>
-      <c r="K144" s="75" t="s">
+      <c r="I144" s="44"/>
+      <c r="J144" s="45"/>
+      <c r="K144" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="L144" s="76"/>
-      <c r="M144" s="77"/>
-      <c r="N144" s="78" t="s">
+      <c r="L144" s="44"/>
+      <c r="M144" s="47"/>
+      <c r="N144" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="O144" s="76"/>
-      <c r="P144" s="79"/>
-      <c r="Q144" s="75" t="s">
+      <c r="O144" s="44"/>
+      <c r="P144" s="45"/>
+      <c r="Q144" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="R144" s="76"/>
-      <c r="S144" s="77"/>
-      <c r="T144" s="78" t="s">
+      <c r="R144" s="44"/>
+      <c r="S144" s="47"/>
+      <c r="T144" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="U144" s="77"/>
+      <c r="U144" s="47"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="111"/>
-      <c r="B145" s="112"/>
-      <c r="C145" s="112"/>
-      <c r="D145" s="113"/>
+      <c r="A145" s="68"/>
+      <c r="B145" s="69"/>
+      <c r="C145" s="69"/>
+      <c r="D145" s="70"/>
       <c r="E145" s="26">
         <v>15</v>
       </c>
@@ -4288,18 +4288,18 @@
       <c r="S145" s="28">
         <v>1</v>
       </c>
-      <c r="T145" s="114">
+      <c r="T145" s="48">
         <v>0</v>
       </c>
-      <c r="U145" s="115"/>
+      <c r="U145" s="49"/>
     </row>
     <row r="146" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="116" t="s">
+      <c r="A146" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B146" s="117"/>
-      <c r="C146" s="117"/>
-      <c r="D146" s="118"/>
+      <c r="B146" s="51"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="52"/>
       <c r="E146" s="12"/>
       <c r="F146" s="13"/>
       <c r="G146" s="14"/>
@@ -4315,16 +4315,16 @@
       <c r="Q146" s="12"/>
       <c r="R146" s="13"/>
       <c r="S146" s="14"/>
-      <c r="T146" s="33"/>
-      <c r="U146" s="34"/>
+      <c r="T146" s="166"/>
+      <c r="U146" s="167"/>
     </row>
     <row r="147" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="125" t="s">
+      <c r="A147" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B147" s="126"/>
-      <c r="C147" s="126"/>
-      <c r="D147" s="127"/>
+      <c r="B147" s="54"/>
+      <c r="C147" s="54"/>
+      <c r="D147" s="55"/>
       <c r="E147" s="12"/>
       <c r="F147" s="13"/>
       <c r="G147" s="14"/>
@@ -4340,16 +4340,16 @@
       <c r="Q147" s="12"/>
       <c r="R147" s="13"/>
       <c r="S147" s="14"/>
-      <c r="T147" s="33"/>
-      <c r="U147" s="34"/>
+      <c r="T147" s="166"/>
+      <c r="U147" s="167"/>
     </row>
     <row r="148" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="125" t="s">
+      <c r="A148" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="B148" s="126"/>
-      <c r="C148" s="126"/>
-      <c r="D148" s="127"/>
+      <c r="B148" s="54"/>
+      <c r="C148" s="54"/>
+      <c r="D148" s="55"/>
       <c r="E148" s="12"/>
       <c r="F148" s="13"/>
       <c r="G148" s="14"/>
@@ -4365,16 +4365,16 @@
       <c r="Q148" s="12"/>
       <c r="R148" s="13"/>
       <c r="S148" s="14"/>
-      <c r="T148" s="33"/>
-      <c r="U148" s="34"/>
+      <c r="T148" s="166"/>
+      <c r="U148" s="167"/>
     </row>
     <row r="149" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="125" t="s">
+      <c r="A149" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B149" s="126"/>
-      <c r="C149" s="126"/>
-      <c r="D149" s="127"/>
+      <c r="B149" s="54"/>
+      <c r="C149" s="54"/>
+      <c r="D149" s="55"/>
       <c r="E149" s="12"/>
       <c r="F149" s="13"/>
       <c r="G149" s="14"/>
@@ -4390,16 +4390,16 @@
       <c r="Q149" s="12"/>
       <c r="R149" s="13"/>
       <c r="S149" s="14"/>
-      <c r="T149" s="33"/>
-      <c r="U149" s="34"/>
+      <c r="T149" s="166"/>
+      <c r="U149" s="167"/>
     </row>
     <row r="150" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="125" t="s">
+      <c r="A150" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B150" s="126"/>
-      <c r="C150" s="126"/>
-      <c r="D150" s="127"/>
+      <c r="B150" s="54"/>
+      <c r="C150" s="54"/>
+      <c r="D150" s="55"/>
       <c r="E150" s="12"/>
       <c r="F150" s="13"/>
       <c r="G150" s="14"/>
@@ -4415,16 +4415,16 @@
       <c r="Q150" s="12"/>
       <c r="R150" s="13"/>
       <c r="S150" s="14"/>
-      <c r="T150" s="33"/>
-      <c r="U150" s="34"/>
+      <c r="T150" s="166"/>
+      <c r="U150" s="167"/>
     </row>
     <row r="151" spans="1:21" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="119" t="s">
+      <c r="A151" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="B151" s="120"/>
-      <c r="C151" s="120"/>
-      <c r="D151" s="121"/>
+      <c r="B151" s="63"/>
+      <c r="C151" s="63"/>
+      <c r="D151" s="64"/>
       <c r="E151" s="17"/>
       <c r="F151" s="18"/>
       <c r="G151" s="19"/>
@@ -4440,52 +4440,52 @@
       <c r="Q151" s="17"/>
       <c r="R151" s="18"/>
       <c r="S151" s="19"/>
-      <c r="T151" s="31"/>
-      <c r="U151" s="32"/>
+      <c r="T151" s="168"/>
+      <c r="U151" s="169"/>
     </row>
     <row r="152" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A153" s="108" t="s">
+      <c r="A153" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="B153" s="109"/>
-      <c r="C153" s="109"/>
-      <c r="D153" s="110"/>
-      <c r="E153" s="75" t="s">
+      <c r="B153" s="66"/>
+      <c r="C153" s="66"/>
+      <c r="D153" s="67"/>
+      <c r="E153" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F153" s="76"/>
-      <c r="G153" s="77"/>
-      <c r="H153" s="78" t="s">
+      <c r="F153" s="44"/>
+      <c r="G153" s="47"/>
+      <c r="H153" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I153" s="76"/>
-      <c r="J153" s="79"/>
-      <c r="K153" s="75" t="s">
+      <c r="I153" s="44"/>
+      <c r="J153" s="45"/>
+      <c r="K153" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="L153" s="76"/>
-      <c r="M153" s="77"/>
-      <c r="N153" s="78" t="s">
+      <c r="L153" s="44"/>
+      <c r="M153" s="47"/>
+      <c r="N153" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="O153" s="76"/>
-      <c r="P153" s="79"/>
-      <c r="Q153" s="75" t="s">
+      <c r="O153" s="44"/>
+      <c r="P153" s="45"/>
+      <c r="Q153" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="R153" s="76"/>
-      <c r="S153" s="77"/>
-      <c r="T153" s="78" t="s">
+      <c r="R153" s="44"/>
+      <c r="S153" s="47"/>
+      <c r="T153" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="U153" s="77"/>
+      <c r="U153" s="47"/>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A154" s="111"/>
-      <c r="B154" s="112"/>
-      <c r="C154" s="112"/>
-      <c r="D154" s="113"/>
+      <c r="A154" s="68"/>
+      <c r="B154" s="69"/>
+      <c r="C154" s="69"/>
+      <c r="D154" s="70"/>
       <c r="E154" s="26">
         <v>15</v>
       </c>
@@ -4531,18 +4531,18 @@
       <c r="S154" s="28">
         <v>1</v>
       </c>
-      <c r="T154" s="114">
+      <c r="T154" s="48">
         <v>0</v>
       </c>
-      <c r="U154" s="115"/>
+      <c r="U154" s="49"/>
     </row>
     <row r="155" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="116" t="s">
+      <c r="A155" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B155" s="117"/>
-      <c r="C155" s="117"/>
-      <c r="D155" s="118"/>
+      <c r="B155" s="51"/>
+      <c r="C155" s="51"/>
+      <c r="D155" s="52"/>
       <c r="E155" s="12"/>
       <c r="F155" s="13"/>
       <c r="G155" s="14"/>
@@ -4558,16 +4558,16 @@
       <c r="Q155" s="12"/>
       <c r="R155" s="13"/>
       <c r="S155" s="14"/>
-      <c r="T155" s="33"/>
-      <c r="U155" s="34"/>
+      <c r="T155" s="166"/>
+      <c r="U155" s="167"/>
     </row>
     <row r="156" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="125" t="s">
+      <c r="A156" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B156" s="126"/>
-      <c r="C156" s="126"/>
-      <c r="D156" s="127"/>
+      <c r="B156" s="54"/>
+      <c r="C156" s="54"/>
+      <c r="D156" s="55"/>
       <c r="E156" s="12"/>
       <c r="F156" s="13"/>
       <c r="G156" s="14"/>
@@ -4583,16 +4583,16 @@
       <c r="Q156" s="12"/>
       <c r="R156" s="13"/>
       <c r="S156" s="14"/>
-      <c r="T156" s="33"/>
-      <c r="U156" s="34"/>
+      <c r="T156" s="166"/>
+      <c r="U156" s="167"/>
     </row>
     <row r="157" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="125" t="s">
+      <c r="A157" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B157" s="126"/>
-      <c r="C157" s="126"/>
-      <c r="D157" s="127"/>
+      <c r="B157" s="54"/>
+      <c r="C157" s="54"/>
+      <c r="D157" s="55"/>
       <c r="E157" s="12"/>
       <c r="F157" s="13"/>
       <c r="G157" s="14"/>
@@ -4608,16 +4608,16 @@
       <c r="Q157" s="12"/>
       <c r="R157" s="13"/>
       <c r="S157" s="14"/>
-      <c r="T157" s="33"/>
-      <c r="U157" s="34"/>
+      <c r="T157" s="166"/>
+      <c r="U157" s="167"/>
     </row>
     <row r="158" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="125" t="s">
+      <c r="A158" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B158" s="126"/>
-      <c r="C158" s="126"/>
-      <c r="D158" s="127"/>
+      <c r="B158" s="54"/>
+      <c r="C158" s="54"/>
+      <c r="D158" s="55"/>
       <c r="E158" s="12"/>
       <c r="F158" s="13"/>
       <c r="G158" s="14"/>
@@ -4633,16 +4633,16 @@
       <c r="Q158" s="12"/>
       <c r="R158" s="13"/>
       <c r="S158" s="14"/>
-      <c r="T158" s="33"/>
-      <c r="U158" s="34"/>
+      <c r="T158" s="166"/>
+      <c r="U158" s="167"/>
     </row>
     <row r="159" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="125" t="s">
+      <c r="A159" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B159" s="126"/>
-      <c r="C159" s="126"/>
-      <c r="D159" s="127"/>
+      <c r="B159" s="54"/>
+      <c r="C159" s="54"/>
+      <c r="D159" s="55"/>
       <c r="E159" s="12"/>
       <c r="F159" s="13"/>
       <c r="G159" s="14"/>
@@ -4658,16 +4658,16 @@
       <c r="Q159" s="12"/>
       <c r="R159" s="13"/>
       <c r="S159" s="14"/>
-      <c r="T159" s="33"/>
-      <c r="U159" s="34"/>
+      <c r="T159" s="166"/>
+      <c r="U159" s="167"/>
     </row>
     <row r="160" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="122" t="s">
+      <c r="A160" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="B160" s="123"/>
-      <c r="C160" s="123"/>
-      <c r="D160" s="124"/>
+      <c r="B160" s="72"/>
+      <c r="C160" s="72"/>
+      <c r="D160" s="73"/>
       <c r="E160" s="12"/>
       <c r="F160" s="13"/>
       <c r="G160" s="14"/>
@@ -4683,16 +4683,16 @@
       <c r="Q160" s="12"/>
       <c r="R160" s="13"/>
       <c r="S160" s="14"/>
-      <c r="T160" s="33"/>
-      <c r="U160" s="34"/>
+      <c r="T160" s="166"/>
+      <c r="U160" s="167"/>
     </row>
     <row r="161" spans="1:21" ht="48.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="119" t="s">
+      <c r="A161" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="B161" s="120"/>
-      <c r="C161" s="120"/>
-      <c r="D161" s="121"/>
+      <c r="B161" s="63"/>
+      <c r="C161" s="63"/>
+      <c r="D161" s="64"/>
       <c r="E161" s="17"/>
       <c r="F161" s="18"/>
       <c r="G161" s="19"/>
@@ -4708,48 +4708,48 @@
       <c r="Q161" s="17"/>
       <c r="R161" s="18"/>
       <c r="S161" s="19"/>
-      <c r="T161" s="31"/>
-      <c r="U161" s="32"/>
+      <c r="T161" s="168"/>
+      <c r="U161" s="169"/>
     </row>
     <row r="163" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="80" t="s">
+      <c r="A163" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="B163" s="80"/>
-      <c r="C163" s="80"/>
-      <c r="D163" s="80"/>
-      <c r="E163" s="80"/>
-      <c r="F163" s="80"/>
-      <c r="G163" s="80"/>
-      <c r="H163" s="80"/>
-      <c r="I163" s="80"/>
-      <c r="J163" s="80"/>
-      <c r="K163" s="80"/>
-      <c r="L163" s="80"/>
-      <c r="M163" s="80"/>
-      <c r="N163" s="80"/>
-      <c r="O163" s="80"/>
-      <c r="P163" s="80"/>
-      <c r="Q163" s="80"/>
-      <c r="R163" s="80"/>
-      <c r="S163" s="80"/>
-      <c r="T163" s="80"/>
-      <c r="U163" s="80"/>
+      <c r="B163" s="105"/>
+      <c r="C163" s="105"/>
+      <c r="D163" s="105"/>
+      <c r="E163" s="105"/>
+      <c r="F163" s="105"/>
+      <c r="G163" s="105"/>
+      <c r="H163" s="105"/>
+      <c r="I163" s="105"/>
+      <c r="J163" s="105"/>
+      <c r="K163" s="105"/>
+      <c r="L163" s="105"/>
+      <c r="M163" s="105"/>
+      <c r="N163" s="105"/>
+      <c r="O163" s="105"/>
+      <c r="P163" s="105"/>
+      <c r="Q163" s="105"/>
+      <c r="R163" s="105"/>
+      <c r="S163" s="105"/>
+      <c r="T163" s="105"/>
+      <c r="U163" s="105"/>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A165" s="73" t="s">
+      <c r="A165" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="B165" s="73"/>
-      <c r="C165" s="73"/>
-      <c r="D165" s="73"/>
-      <c r="E165" s="73"/>
-      <c r="F165" s="73"/>
-      <c r="G165" s="73"/>
-      <c r="H165" s="73"/>
+      <c r="B165" s="145"/>
+      <c r="C165" s="145"/>
+      <c r="D165" s="145"/>
+      <c r="E165" s="145"/>
+      <c r="F165" s="145"/>
+      <c r="G165" s="145"/>
+      <c r="H165" s="145"/>
       <c r="I165" s="22"/>
       <c r="J165" s="22"/>
       <c r="K165" s="22"/>
@@ -4788,79 +4788,79 @@
       <c r="U166" s="22"/>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A167" s="74" t="s">
+      <c r="A167" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="B167" s="74"/>
-      <c r="C167" s="74"/>
-      <c r="D167" s="74"/>
-      <c r="E167" s="74"/>
-      <c r="F167" s="74"/>
-      <c r="G167" s="74"/>
-      <c r="H167" s="74"/>
-      <c r="I167" s="74"/>
-      <c r="J167" s="74"/>
-      <c r="K167" s="74"/>
-      <c r="L167" s="74"/>
-      <c r="M167" s="74"/>
-      <c r="N167" s="74"/>
-      <c r="O167" s="74"/>
-      <c r="P167" s="74"/>
-      <c r="Q167" s="74"/>
-      <c r="R167" s="74"/>
-      <c r="S167" s="74"/>
-      <c r="T167" s="74"/>
-      <c r="U167" s="74"/>
+      <c r="B167" s="146"/>
+      <c r="C167" s="146"/>
+      <c r="D167" s="146"/>
+      <c r="E167" s="146"/>
+      <c r="F167" s="146"/>
+      <c r="G167" s="146"/>
+      <c r="H167" s="146"/>
+      <c r="I167" s="146"/>
+      <c r="J167" s="146"/>
+      <c r="K167" s="146"/>
+      <c r="L167" s="146"/>
+      <c r="M167" s="146"/>
+      <c r="N167" s="146"/>
+      <c r="O167" s="146"/>
+      <c r="P167" s="146"/>
+      <c r="Q167" s="146"/>
+      <c r="R167" s="146"/>
+      <c r="S167" s="146"/>
+      <c r="T167" s="146"/>
+      <c r="U167" s="146"/>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A168" s="74" t="s">
+      <c r="A168" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="B168" s="74"/>
-      <c r="C168" s="74"/>
-      <c r="D168" s="74"/>
-      <c r="E168" s="74"/>
-      <c r="F168" s="74"/>
-      <c r="G168" s="74"/>
-      <c r="H168" s="74"/>
-      <c r="I168" s="74"/>
-      <c r="J168" s="74"/>
-      <c r="K168" s="74"/>
-      <c r="L168" s="74"/>
-      <c r="M168" s="74"/>
-      <c r="N168" s="74"/>
-      <c r="O168" s="74"/>
-      <c r="P168" s="74"/>
-      <c r="Q168" s="74"/>
-      <c r="R168" s="74"/>
-      <c r="S168" s="74"/>
-      <c r="T168" s="74"/>
-      <c r="U168" s="74"/>
+      <c r="B168" s="146"/>
+      <c r="C168" s="146"/>
+      <c r="D168" s="146"/>
+      <c r="E168" s="146"/>
+      <c r="F168" s="146"/>
+      <c r="G168" s="146"/>
+      <c r="H168" s="146"/>
+      <c r="I168" s="146"/>
+      <c r="J168" s="146"/>
+      <c r="K168" s="146"/>
+      <c r="L168" s="146"/>
+      <c r="M168" s="146"/>
+      <c r="N168" s="146"/>
+      <c r="O168" s="146"/>
+      <c r="P168" s="146"/>
+      <c r="Q168" s="146"/>
+      <c r="R168" s="146"/>
+      <c r="S168" s="146"/>
+      <c r="T168" s="146"/>
+      <c r="U168" s="146"/>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A169" s="74" t="s">
+      <c r="A169" s="146" t="s">
         <v>87</v>
       </c>
-      <c r="B169" s="74"/>
-      <c r="C169" s="74"/>
-      <c r="D169" s="74"/>
-      <c r="E169" s="74"/>
-      <c r="F169" s="74"/>
-      <c r="G169" s="74"/>
-      <c r="H169" s="74"/>
-      <c r="I169" s="74"/>
-      <c r="J169" s="74"/>
-      <c r="K169" s="74"/>
-      <c r="L169" s="74"/>
-      <c r="M169" s="74"/>
-      <c r="N169" s="74"/>
-      <c r="O169" s="74"/>
-      <c r="P169" s="74"/>
-      <c r="Q169" s="74"/>
-      <c r="R169" s="74"/>
-      <c r="S169" s="74"/>
-      <c r="T169" s="74"/>
-      <c r="U169" s="74"/>
+      <c r="B169" s="146"/>
+      <c r="C169" s="146"/>
+      <c r="D169" s="146"/>
+      <c r="E169" s="146"/>
+      <c r="F169" s="146"/>
+      <c r="G169" s="146"/>
+      <c r="H169" s="146"/>
+      <c r="I169" s="146"/>
+      <c r="J169" s="146"/>
+      <c r="K169" s="146"/>
+      <c r="L169" s="146"/>
+      <c r="M169" s="146"/>
+      <c r="N169" s="146"/>
+      <c r="O169" s="146"/>
+      <c r="P169" s="146"/>
+      <c r="Q169" s="146"/>
+      <c r="R169" s="146"/>
+      <c r="S169" s="146"/>
+      <c r="T169" s="146"/>
+      <c r="U169" s="146"/>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="25"/>
@@ -4886,57 +4886,57 @@
       <c r="U170" s="22"/>
     </row>
     <row r="171" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="107" t="s">
+      <c r="A171" s="115" t="s">
         <v>88</v>
       </c>
-      <c r="B171" s="107"/>
-      <c r="C171" s="107"/>
-      <c r="D171" s="107"/>
-      <c r="E171" s="107"/>
-      <c r="F171" s="107"/>
-      <c r="G171" s="107"/>
-      <c r="H171" s="107"/>
-      <c r="I171" s="107"/>
-      <c r="J171" s="107"/>
-      <c r="K171" s="107"/>
-      <c r="L171" s="107"/>
-      <c r="M171" s="107"/>
-      <c r="N171" s="107"/>
-      <c r="O171" s="107"/>
-      <c r="P171" s="107"/>
-      <c r="Q171" s="107"/>
-      <c r="R171" s="107"/>
-      <c r="S171" s="107"/>
-      <c r="T171" s="107"/>
-      <c r="U171" s="107"/>
+      <c r="B171" s="115"/>
+      <c r="C171" s="115"/>
+      <c r="D171" s="115"/>
+      <c r="E171" s="115"/>
+      <c r="F171" s="115"/>
+      <c r="G171" s="115"/>
+      <c r="H171" s="115"/>
+      <c r="I171" s="115"/>
+      <c r="J171" s="115"/>
+      <c r="K171" s="115"/>
+      <c r="L171" s="115"/>
+      <c r="M171" s="115"/>
+      <c r="N171" s="115"/>
+      <c r="O171" s="115"/>
+      <c r="P171" s="115"/>
+      <c r="Q171" s="115"/>
+      <c r="R171" s="115"/>
+      <c r="S171" s="115"/>
+      <c r="T171" s="115"/>
+      <c r="U171" s="115"/>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
     </row>
     <row r="173" spans="1:21" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="80" t="s">
+      <c r="A173" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="B173" s="80"/>
-      <c r="C173" s="80"/>
-      <c r="D173" s="80"/>
-      <c r="E173" s="80"/>
-      <c r="F173" s="80"/>
-      <c r="G173" s="80"/>
-      <c r="H173" s="80"/>
-      <c r="I173" s="80"/>
-      <c r="J173" s="80"/>
-      <c r="K173" s="80"/>
-      <c r="L173" s="80"/>
-      <c r="M173" s="80"/>
-      <c r="N173" s="80"/>
-      <c r="O173" s="80"/>
-      <c r="P173" s="80"/>
-      <c r="Q173" s="80"/>
-      <c r="R173" s="80"/>
-      <c r="S173" s="80"/>
-      <c r="T173" s="80"/>
-      <c r="U173" s="80"/>
+      <c r="B173" s="105"/>
+      <c r="C173" s="105"/>
+      <c r="D173" s="105"/>
+      <c r="E173" s="105"/>
+      <c r="F173" s="105"/>
+      <c r="G173" s="105"/>
+      <c r="H173" s="105"/>
+      <c r="I173" s="105"/>
+      <c r="J173" s="105"/>
+      <c r="K173" s="105"/>
+      <c r="L173" s="105"/>
+      <c r="M173" s="105"/>
+      <c r="N173" s="105"/>
+      <c r="O173" s="105"/>
+      <c r="P173" s="105"/>
+      <c r="Q173" s="105"/>
+      <c r="R173" s="105"/>
+      <c r="S173" s="105"/>
+      <c r="T173" s="105"/>
+      <c r="U173" s="105"/>
     </row>
     <row r="175" spans="1:21" ht="47.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
@@ -4950,26 +4950,26 @@
       </c>
     </row>
     <row r="178" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E178" s="62" t="s">
+      <c r="E178" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="F178" s="62"/>
-      <c r="G178" s="62"/>
-      <c r="H178" s="62"/>
-      <c r="I178" s="62"/>
-      <c r="J178" s="62"/>
-      <c r="K178" s="62"/>
-      <c r="L178" s="62"/>
-      <c r="N178" s="106" t="s">
+      <c r="F178" s="113"/>
+      <c r="G178" s="113"/>
+      <c r="H178" s="113"/>
+      <c r="I178" s="113"/>
+      <c r="J178" s="113"/>
+      <c r="K178" s="113"/>
+      <c r="L178" s="113"/>
+      <c r="N178" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="O178" s="106"/>
-      <c r="P178" s="106"/>
-      <c r="Q178" s="106"/>
-      <c r="R178" s="106"/>
-      <c r="S178" s="106"/>
-      <c r="T178" s="106"/>
-      <c r="U178" s="106"/>
+      <c r="O178" s="114"/>
+      <c r="P178" s="114"/>
+      <c r="Q178" s="114"/>
+      <c r="R178" s="114"/>
+      <c r="S178" s="114"/>
+      <c r="T178" s="114"/>
+      <c r="U178" s="114"/>
     </row>
     <row r="179" spans="1:21" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="180" spans="1:21" x14ac:dyDescent="0.3">
@@ -4980,18 +4980,18 @@
     <row r="181" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
-      <c r="E181" s="62" t="s">
+      <c r="E181" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="F181" s="62"/>
-      <c r="G181" s="62"/>
-      <c r="H181" s="62"/>
-      <c r="I181" s="62"/>
-      <c r="J181" s="62"/>
-      <c r="K181" s="62"/>
-      <c r="L181" s="62"/>
-      <c r="M181" s="62"/>
-      <c r="N181" s="62"/>
+      <c r="F181" s="113"/>
+      <c r="G181" s="113"/>
+      <c r="H181" s="113"/>
+      <c r="I181" s="113"/>
+      <c r="J181" s="113"/>
+      <c r="K181" s="113"/>
+      <c r="L181" s="113"/>
+      <c r="M181" s="113"/>
+      <c r="N181" s="113"/>
       <c r="O181" s="7"/>
       <c r="P181" s="7"/>
     </row>
@@ -5061,31 +5061,337 @@
     </row>
   </sheetData>
   <mergeCells count="403">
-    <mergeCell ref="A67:U67"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="K70:U70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="K71:U71"/>
-    <mergeCell ref="N153:P153"/>
-    <mergeCell ref="Q153:S153"/>
-    <mergeCell ref="T153:U153"/>
-    <mergeCell ref="T154:U154"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="Q68:U68"/>
-    <mergeCell ref="Q69:U69"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A153:D154"/>
-    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="T141:U141"/>
+    <mergeCell ref="T142:U142"/>
+    <mergeCell ref="T146:U146"/>
+    <mergeCell ref="T147:U147"/>
+    <mergeCell ref="T148:U148"/>
+    <mergeCell ref="T161:U161"/>
+    <mergeCell ref="T149:U149"/>
+    <mergeCell ref="T150:U150"/>
+    <mergeCell ref="T151:U151"/>
+    <mergeCell ref="T155:U155"/>
+    <mergeCell ref="T156:U156"/>
+    <mergeCell ref="T157:U157"/>
+    <mergeCell ref="T158:U158"/>
+    <mergeCell ref="T159:U159"/>
+    <mergeCell ref="T160:U160"/>
+    <mergeCell ref="R90:U90"/>
+    <mergeCell ref="R91:U91"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="R93:U93"/>
+    <mergeCell ref="R94:U94"/>
+    <mergeCell ref="T134:U134"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="T136:U136"/>
+    <mergeCell ref="T140:U140"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="R100:U100"/>
+    <mergeCell ref="R101:U101"/>
+    <mergeCell ref="R102:U102"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="R95:U95"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="R98:U98"/>
+    <mergeCell ref="R99:U99"/>
+    <mergeCell ref="R89:U89"/>
+    <mergeCell ref="R80:U80"/>
+    <mergeCell ref="R81:U81"/>
+    <mergeCell ref="R82:U82"/>
+    <mergeCell ref="R83:U83"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="A60:U60"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="H49:T49"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="R75:U75"/>
+    <mergeCell ref="R76:U76"/>
+    <mergeCell ref="R77:U77"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="R79:U79"/>
+    <mergeCell ref="O85:Q85"/>
+    <mergeCell ref="O86:Q86"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="O88:Q88"/>
+    <mergeCell ref="O80:Q80"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="O83:Q83"/>
+    <mergeCell ref="O84:Q84"/>
+    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="O76:Q76"/>
+    <mergeCell ref="O77:Q77"/>
+    <mergeCell ref="O78:Q78"/>
+    <mergeCell ref="R85:U85"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="R86:U86"/>
+    <mergeCell ref="R87:U87"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="O104:Q104"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="O96:Q96"/>
+    <mergeCell ref="O97:Q97"/>
+    <mergeCell ref="O98:Q98"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="O100:Q100"/>
+    <mergeCell ref="O101:Q101"/>
+    <mergeCell ref="O102:Q102"/>
+    <mergeCell ref="O103:Q103"/>
+    <mergeCell ref="O90:Q90"/>
+    <mergeCell ref="O91:Q91"/>
+    <mergeCell ref="O92:Q92"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="O89:Q89"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F127:U127"/>
+    <mergeCell ref="F126:U126"/>
+    <mergeCell ref="F125:U125"/>
+    <mergeCell ref="F128:U128"/>
+    <mergeCell ref="F129:U129"/>
+    <mergeCell ref="F130:U130"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E181:N181"/>
+    <mergeCell ref="A107:U107"/>
+    <mergeCell ref="A109:U109"/>
+    <mergeCell ref="A111:U111"/>
+    <mergeCell ref="A113:U113"/>
+    <mergeCell ref="A115:U115"/>
+    <mergeCell ref="A117:U117"/>
+    <mergeCell ref="A118:U118"/>
+    <mergeCell ref="A116:U116"/>
+    <mergeCell ref="A114:U114"/>
+    <mergeCell ref="A112:U112"/>
+    <mergeCell ref="A110:U110"/>
+    <mergeCell ref="A165:H165"/>
+    <mergeCell ref="A169:U169"/>
+    <mergeCell ref="A168:U168"/>
+    <mergeCell ref="A167:U167"/>
+    <mergeCell ref="K132:M132"/>
+    <mergeCell ref="N132:P132"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="A65:U65"/>
+    <mergeCell ref="R73:U73"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="K72:U72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="E178:L178"/>
+    <mergeCell ref="N178:U178"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="A163:U163"/>
+    <mergeCell ref="A171:U171"/>
+    <mergeCell ref="A173:U173"/>
+    <mergeCell ref="Q132:S132"/>
+    <mergeCell ref="T132:U132"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="T133:U133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A138:D139"/>
+    <mergeCell ref="E138:G138"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="K138:M138"/>
+    <mergeCell ref="N138:P138"/>
+    <mergeCell ref="Q138:S138"/>
+    <mergeCell ref="T138:U138"/>
+    <mergeCell ref="T139:U139"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A66:U66"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A144:D145"/>
+    <mergeCell ref="E144:G144"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="K144:M144"/>
+    <mergeCell ref="N144:P144"/>
+    <mergeCell ref="Q144:S144"/>
+    <mergeCell ref="T144:U144"/>
+    <mergeCell ref="T145:U145"/>
+    <mergeCell ref="A122:U122"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="R74:U74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="M75:N75"/>
     <mergeCell ref="A161:D161"/>
     <mergeCell ref="A159:D159"/>
     <mergeCell ref="A160:D160"/>
@@ -5110,75 +5416,22 @@
     <mergeCell ref="M62:U62"/>
     <mergeCell ref="A64:U64"/>
     <mergeCell ref="K153:M153"/>
-    <mergeCell ref="A66:U66"/>
-    <mergeCell ref="H153:J153"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A144:D145"/>
-    <mergeCell ref="E144:G144"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="K144:M144"/>
-    <mergeCell ref="N144:P144"/>
-    <mergeCell ref="Q144:S144"/>
-    <mergeCell ref="T144:U144"/>
-    <mergeCell ref="T145:U145"/>
-    <mergeCell ref="A122:U122"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="E178:L178"/>
-    <mergeCell ref="N178:U178"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="H132:J132"/>
-    <mergeCell ref="A163:U163"/>
-    <mergeCell ref="A171:U171"/>
-    <mergeCell ref="A173:U173"/>
-    <mergeCell ref="Q132:S132"/>
-    <mergeCell ref="T132:U132"/>
-    <mergeCell ref="A132:D133"/>
-    <mergeCell ref="T133:U133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A138:D139"/>
-    <mergeCell ref="E138:G138"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="K138:M138"/>
-    <mergeCell ref="N138:P138"/>
-    <mergeCell ref="Q138:S138"/>
-    <mergeCell ref="T138:U138"/>
-    <mergeCell ref="T139:U139"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="R74:U74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A65:U65"/>
-    <mergeCell ref="R73:U73"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="K72:U72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="T154:U154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="Q68:U68"/>
+    <mergeCell ref="Q69:U69"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A153:D154"/>
+    <mergeCell ref="E153:G153"/>
     <mergeCell ref="M76:N76"/>
     <mergeCell ref="M77:N77"/>
     <mergeCell ref="M78:N78"/>
@@ -5187,6 +5440,15 @@
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A67:U67"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="K70:U70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="K71:U71"/>
+    <mergeCell ref="N153:P153"/>
+    <mergeCell ref="Q153:S153"/>
+    <mergeCell ref="T153:U153"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="C86:D86"/>
@@ -5202,268 +5464,6 @@
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E181:N181"/>
-    <mergeCell ref="A107:U107"/>
-    <mergeCell ref="A109:U109"/>
-    <mergeCell ref="A111:U111"/>
-    <mergeCell ref="A113:U113"/>
-    <mergeCell ref="A115:U115"/>
-    <mergeCell ref="A117:U117"/>
-    <mergeCell ref="A118:U118"/>
-    <mergeCell ref="A116:U116"/>
-    <mergeCell ref="A114:U114"/>
-    <mergeCell ref="A112:U112"/>
-    <mergeCell ref="A110:U110"/>
-    <mergeCell ref="A165:H165"/>
-    <mergeCell ref="A169:U169"/>
-    <mergeCell ref="A168:U168"/>
-    <mergeCell ref="A167:U167"/>
-    <mergeCell ref="K132:M132"/>
-    <mergeCell ref="N132:P132"/>
-    <mergeCell ref="F127:U127"/>
-    <mergeCell ref="F126:U126"/>
-    <mergeCell ref="F125:U125"/>
-    <mergeCell ref="F128:U128"/>
-    <mergeCell ref="F129:U129"/>
-    <mergeCell ref="F130:U130"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="O104:Q104"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="O96:Q96"/>
-    <mergeCell ref="O97:Q97"/>
-    <mergeCell ref="O98:Q98"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="O100:Q100"/>
-    <mergeCell ref="O101:Q101"/>
-    <mergeCell ref="O102:Q102"/>
-    <mergeCell ref="O103:Q103"/>
-    <mergeCell ref="O90:Q90"/>
-    <mergeCell ref="O91:Q91"/>
-    <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="R75:U75"/>
-    <mergeCell ref="R76:U76"/>
-    <mergeCell ref="R77:U77"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="R79:U79"/>
-    <mergeCell ref="O85:Q85"/>
-    <mergeCell ref="O86:Q86"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="O88:Q88"/>
-    <mergeCell ref="O89:Q89"/>
-    <mergeCell ref="O80:Q80"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="O83:Q83"/>
-    <mergeCell ref="O84:Q84"/>
-    <mergeCell ref="O75:Q75"/>
-    <mergeCell ref="O76:Q76"/>
-    <mergeCell ref="O77:Q77"/>
-    <mergeCell ref="O78:Q78"/>
-    <mergeCell ref="R85:U85"/>
-    <mergeCell ref="O79:Q79"/>
-    <mergeCell ref="R86:U86"/>
-    <mergeCell ref="R87:U87"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="R89:U89"/>
-    <mergeCell ref="R80:U80"/>
-    <mergeCell ref="R81:U81"/>
-    <mergeCell ref="R82:U82"/>
-    <mergeCell ref="R83:U83"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="A60:U60"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="H49:T49"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="R100:U100"/>
-    <mergeCell ref="R101:U101"/>
-    <mergeCell ref="R102:U102"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="R95:U95"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="R98:U98"/>
-    <mergeCell ref="R99:U99"/>
-    <mergeCell ref="R90:U90"/>
-    <mergeCell ref="R91:U91"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="R93:U93"/>
-    <mergeCell ref="R94:U94"/>
-    <mergeCell ref="T134:U134"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="T136:U136"/>
-    <mergeCell ref="T140:U140"/>
-    <mergeCell ref="T141:U141"/>
-    <mergeCell ref="T142:U142"/>
-    <mergeCell ref="T146:U146"/>
-    <mergeCell ref="T147:U147"/>
-    <mergeCell ref="T148:U148"/>
-    <mergeCell ref="T161:U161"/>
-    <mergeCell ref="T149:U149"/>
-    <mergeCell ref="T150:U150"/>
-    <mergeCell ref="T151:U151"/>
-    <mergeCell ref="T155:U155"/>
-    <mergeCell ref="T156:U156"/>
-    <mergeCell ref="T157:U157"/>
-    <mergeCell ref="T158:U158"/>
-    <mergeCell ref="T159:U159"/>
-    <mergeCell ref="T160:U160"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:G4">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
@@ -5514,13 +5514,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="16.33203125"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -5534,45 +5534,45 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7.0</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7.0</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7.0</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7.0</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>102</v>
@@ -5767,6 +5767,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5775,25 +5781,26 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCC28C77-A00F-42F3-8C92-34C136734ECD}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1F3D8C2-E839-4AD6-B75F-D1A823A8A73C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCC28C77-A00F-42F3-8C92-34C136734ECD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4504c661-e3b6-4ab0-93d3-a30956898912"/>
+    <ds:schemaRef ds:uri="d2ce43d4-d6b1-4d1f-98ab-1d97c1733390"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEEF2B8-1878-4C75-81E0-5896CFFB1B75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -5808,4 +5815,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1F3D8C2-E839-4AD6-B75F-D1A823A8A73C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/main/resources/Gradingtable.xlsx
+++ b/src/main/resources/Gradingtable.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonhard Baumann\Documents\GitHub\ReviewYou\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonhard Baumann\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Leistungsbericht" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
   <si>
     <t>Datum:</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Aus- und Fortbildung</t>
+  </si>
+  <si>
+    <t>Frau Bien</t>
   </si>
   <si>
     <t>POR-P6.11</t>
@@ -1285,17 +1288,59 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1306,24 +1351,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1333,27 +1360,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1369,71 +1375,71 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1453,6 +1459,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1492,6 +1507,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1561,6 +1579,45 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1573,15 +1630,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1609,51 +1657,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1695,12 +1704,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1980,1353 +1983,1363 @@
   </sheetPr>
   <dimension ref="A1:U191"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+    <sheetView view="pageLayout" topLeftCell="A154" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="T159" sqref="T159:U159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="3.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="1" customWidth="1"/>
-    <col min="8" max="21" width="3.75" style="1" customWidth="1"/>
-    <col min="22" max="22" width="2.33203125" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.58203125" style="1"/>
+    <col min="1" max="6" customWidth="true" style="1" width="3.75"/>
+    <col min="7" max="7" customWidth="true" style="1" width="4.5"/>
+    <col min="8" max="21" customWidth="true" style="1" width="3.75"/>
+    <col min="22" max="22" customWidth="true" style="1" width="2.33203125"/>
+    <col min="23" max="16384" style="1" width="10.58203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="O1" s="64" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104">
+        <v>43388</v>
+      </c>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="O1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
     </row>
     <row r="2" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="O2" s="64" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103" t="str">
+        <f>IFERROR(VLOOKUP(A4,#REF!,3,TRUE),"")</f>
+        <v/>
+      </c>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="O2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
     </row>
     <row r="3" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="O3" s="100" t="s">
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="O3" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
     </row>
     <row r="4" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="O4" s="100" t="s">
+      <c r="A4" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="O4" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="99"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
+      <c r="A5" s="103" t="str">
+        <f>IFERROR(VLOOKUP(A4,#REF!,2,TRUE),"")</f>
+        <v/>
+      </c>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
     </row>
     <row r="6" spans="1:21" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="O6" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
+      <c r="O6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
       <c r="U6" s="23"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="130" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="130"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="51" t="s">
+      <c r="A49" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="51"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
-      <c r="T49" s="51"/>
+      <c r="B49" s="145"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
+      <c r="G49" s="145"/>
+      <c r="H49" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
       <c r="U49" s="7"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="131" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="131"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131"/>
-      <c r="J51" s="131"/>
-      <c r="K51" s="131"/>
-      <c r="L51" s="131"/>
-      <c r="M51" s="131"/>
+      <c r="A51" s="146" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="146"/>
+      <c r="C51" s="146"/>
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="146"/>
+      <c r="G51" s="146"/>
+      <c r="H51" s="146"/>
+      <c r="I51" s="146"/>
+      <c r="J51" s="146"/>
+      <c r="K51" s="146"/>
+      <c r="L51" s="146"/>
+      <c r="M51" s="146"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="99"/>
-      <c r="K53" s="99"/>
-      <c r="L53" s="99"/>
-      <c r="M53" s="99"/>
-      <c r="N53" s="99"/>
-      <c r="O53" s="99"/>
-      <c r="P53" s="99"/>
-      <c r="Q53" s="99"/>
-      <c r="R53" s="99"/>
-      <c r="S53" s="99"/>
-      <c r="T53" s="99"/>
-      <c r="U53" s="99"/>
+      <c r="A53" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="103"/>
+      <c r="C53" s="103"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="103"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
+      <c r="K53" s="103"/>
+      <c r="L53" s="103"/>
+      <c r="M53" s="103"/>
+      <c r="N53" s="103"/>
+      <c r="O53" s="103"/>
+      <c r="P53" s="103"/>
+      <c r="Q53" s="103"/>
+      <c r="R53" s="103"/>
+      <c r="S53" s="103"/>
+      <c r="T53" s="103"/>
+      <c r="U53" s="103"/>
     </row>
     <row r="54" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48" t="s">
+      <c r="A55" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="48"/>
-      <c r="U55" s="49"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N55" s="36"/>
+      <c r="O55" s="36"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="36"/>
+      <c r="U55" s="37"/>
     </row>
     <row r="56" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="132"/>
-      <c r="B56" s="133"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="134"/>
-      <c r="M56" s="135"/>
-      <c r="N56" s="135"/>
-      <c r="O56" s="135"/>
-      <c r="P56" s="135"/>
-      <c r="Q56" s="135"/>
-      <c r="R56" s="135"/>
-      <c r="S56" s="135"/>
-      <c r="T56" s="135"/>
-      <c r="U56" s="135"/>
+      <c r="A56" s="147"/>
+      <c r="B56" s="148"/>
+      <c r="C56" s="148"/>
+      <c r="D56" s="148"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="148"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="148"/>
+      <c r="J56" s="148"/>
+      <c r="K56" s="148"/>
+      <c r="L56" s="149"/>
+      <c r="M56" s="150"/>
+      <c r="N56" s="150"/>
+      <c r="O56" s="150"/>
+      <c r="P56" s="150"/>
+      <c r="Q56" s="150"/>
+      <c r="R56" s="150"/>
+      <c r="S56" s="150"/>
+      <c r="T56" s="150"/>
+      <c r="U56" s="150"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="136" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="137"/>
-      <c r="F57" s="137"/>
-      <c r="G57" s="137"/>
-      <c r="H57" s="137"/>
-      <c r="I57" s="137"/>
-      <c r="J57" s="137"/>
-      <c r="K57" s="137"/>
-      <c r="L57" s="137"/>
-      <c r="M57" s="137" t="s">
+      <c r="A57" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="N57" s="140"/>
-      <c r="O57" s="140"/>
-      <c r="P57" s="140"/>
-      <c r="Q57" s="137" t="s">
+      <c r="B57" s="152"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="152"/>
+      <c r="E57" s="152"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="152"/>
+      <c r="K57" s="152"/>
+      <c r="L57" s="152"/>
+      <c r="M57" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="R57" s="140"/>
-      <c r="S57" s="140"/>
-      <c r="T57" s="140"/>
-      <c r="U57" s="142"/>
+      <c r="N57" s="154"/>
+      <c r="O57" s="154"/>
+      <c r="P57" s="154"/>
+      <c r="Q57" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="154"/>
+      <c r="S57" s="154"/>
+      <c r="T57" s="154"/>
+      <c r="U57" s="155"/>
     </row>
     <row r="58" spans="1:21" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="138"/>
-      <c r="B58" s="139"/>
-      <c r="C58" s="139"/>
-      <c r="D58" s="139"/>
-      <c r="E58" s="139"/>
-      <c r="F58" s="139"/>
-      <c r="G58" s="139"/>
-      <c r="H58" s="139"/>
-      <c r="I58" s="139"/>
-      <c r="J58" s="139"/>
-      <c r="K58" s="139"/>
-      <c r="L58" s="139"/>
-      <c r="M58" s="141"/>
-      <c r="N58" s="139"/>
-      <c r="O58" s="139"/>
-      <c r="P58" s="139"/>
-      <c r="Q58" s="141"/>
-      <c r="R58" s="139"/>
-      <c r="S58" s="139"/>
-      <c r="T58" s="139"/>
-      <c r="U58" s="143"/>
+      <c r="A58" s="153"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="136"/>
+      <c r="G58" s="136"/>
+      <c r="H58" s="136"/>
+      <c r="I58" s="136"/>
+      <c r="J58" s="136"/>
+      <c r="K58" s="136"/>
+      <c r="L58" s="136"/>
+      <c r="M58" s="135"/>
+      <c r="N58" s="136"/>
+      <c r="O58" s="136"/>
+      <c r="P58" s="136"/>
+      <c r="Q58" s="135"/>
+      <c r="R58" s="136"/>
+      <c r="S58" s="136"/>
+      <c r="T58" s="136"/>
+      <c r="U58" s="137"/>
     </row>
     <row r="59" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="48"/>
-      <c r="P60" s="48"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="48"/>
-      <c r="S60" s="48"/>
-      <c r="T60" s="48"/>
-      <c r="U60" s="49"/>
+      <c r="A60" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="36"/>
+      <c r="P60" s="36"/>
+      <c r="Q60" s="36"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
+      <c r="T60" s="36"/>
+      <c r="U60" s="37"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="144" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="145"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="145"/>
-      <c r="F61" s="146" t="s">
+      <c r="A61" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="145"/>
-      <c r="H61" s="145"/>
-      <c r="I61" s="145"/>
-      <c r="J61" s="145"/>
-      <c r="K61" s="145"/>
-      <c r="L61" s="145"/>
-      <c r="M61" s="146" t="s">
+      <c r="B61" s="129"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="N61" s="145"/>
-      <c r="O61" s="145"/>
-      <c r="P61" s="145"/>
-      <c r="Q61" s="145"/>
-      <c r="R61" s="145"/>
-      <c r="S61" s="145"/>
-      <c r="T61" s="145"/>
-      <c r="U61" s="147"/>
+      <c r="G61" s="129"/>
+      <c r="H61" s="129"/>
+      <c r="I61" s="129"/>
+      <c r="J61" s="129"/>
+      <c r="K61" s="129"/>
+      <c r="L61" s="129"/>
+      <c r="M61" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="N61" s="129"/>
+      <c r="O61" s="129"/>
+      <c r="P61" s="129"/>
+      <c r="Q61" s="129"/>
+      <c r="R61" s="129"/>
+      <c r="S61" s="129"/>
+      <c r="T61" s="129"/>
+      <c r="U61" s="131"/>
     </row>
     <row r="62" spans="1:21" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="148"/>
-      <c r="B62" s="149"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="149"/>
-      <c r="E62" s="149"/>
-      <c r="F62" s="150"/>
-      <c r="G62" s="149"/>
-      <c r="H62" s="149"/>
-      <c r="I62" s="149"/>
-      <c r="J62" s="149"/>
-      <c r="K62" s="149"/>
-      <c r="L62" s="149"/>
-      <c r="M62" s="141"/>
-      <c r="N62" s="139"/>
-      <c r="O62" s="139"/>
-      <c r="P62" s="139"/>
-      <c r="Q62" s="139"/>
-      <c r="R62" s="139"/>
-      <c r="S62" s="139"/>
-      <c r="T62" s="139"/>
-      <c r="U62" s="143"/>
+      <c r="A62" s="132"/>
+      <c r="B62" s="133"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="134"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="133"/>
+      <c r="I62" s="133"/>
+      <c r="J62" s="133"/>
+      <c r="K62" s="133"/>
+      <c r="L62" s="133"/>
+      <c r="M62" s="135"/>
+      <c r="N62" s="136"/>
+      <c r="O62" s="136"/>
+      <c r="P62" s="136"/>
+      <c r="Q62" s="136"/>
+      <c r="R62" s="136"/>
+      <c r="S62" s="136"/>
+      <c r="T62" s="136"/>
+      <c r="U62" s="137"/>
     </row>
     <row r="63" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="151" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="152"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="152"/>
-      <c r="E64" s="152"/>
-      <c r="F64" s="152"/>
-      <c r="G64" s="152"/>
-      <c r="H64" s="152"/>
-      <c r="I64" s="152"/>
-      <c r="J64" s="152"/>
-      <c r="K64" s="152"/>
-      <c r="L64" s="152"/>
-      <c r="M64" s="152"/>
-      <c r="N64" s="152"/>
-      <c r="O64" s="152"/>
-      <c r="P64" s="152"/>
-      <c r="Q64" s="152"/>
-      <c r="R64" s="152"/>
-      <c r="S64" s="152"/>
-      <c r="T64" s="152"/>
-      <c r="U64" s="153"/>
+      <c r="A64" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="139"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="139"/>
+      <c r="E64" s="139"/>
+      <c r="F64" s="139"/>
+      <c r="G64" s="139"/>
+      <c r="H64" s="139"/>
+      <c r="I64" s="139"/>
+      <c r="J64" s="139"/>
+      <c r="K64" s="139"/>
+      <c r="L64" s="139"/>
+      <c r="M64" s="139"/>
+      <c r="N64" s="139"/>
+      <c r="O64" s="139"/>
+      <c r="P64" s="139"/>
+      <c r="Q64" s="139"/>
+      <c r="R64" s="139"/>
+      <c r="S64" s="139"/>
+      <c r="T64" s="139"/>
+      <c r="U64" s="140"/>
     </row>
     <row r="65" spans="1:21" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="87"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="88"/>
-      <c r="F65" s="88"/>
-      <c r="G65" s="88"/>
-      <c r="H65" s="88"/>
-      <c r="I65" s="88"/>
-      <c r="J65" s="88"/>
-      <c r="K65" s="88"/>
-      <c r="L65" s="88"/>
-      <c r="M65" s="88"/>
-      <c r="N65" s="88"/>
-      <c r="O65" s="88"/>
-      <c r="P65" s="88"/>
-      <c r="Q65" s="88"/>
-      <c r="R65" s="88"/>
-      <c r="S65" s="88"/>
-      <c r="T65" s="88"/>
-      <c r="U65" s="89"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="92"/>
+      <c r="J65" s="92"/>
+      <c r="K65" s="92"/>
+      <c r="L65" s="92"/>
+      <c r="M65" s="92"/>
+      <c r="N65" s="92"/>
+      <c r="O65" s="92"/>
+      <c r="P65" s="92"/>
+      <c r="Q65" s="92"/>
+      <c r="R65" s="92"/>
+      <c r="S65" s="92"/>
+      <c r="T65" s="92"/>
+      <c r="U65" s="93"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="123" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" s="124"/>
-      <c r="C66" s="124"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="124"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="124"/>
-      <c r="I66" s="124"/>
-      <c r="J66" s="124"/>
-      <c r="K66" s="124"/>
-      <c r="L66" s="124"/>
-      <c r="M66" s="124"/>
-      <c r="N66" s="124"/>
-      <c r="O66" s="124"/>
-      <c r="P66" s="124"/>
-      <c r="Q66" s="124"/>
-      <c r="R66" s="124"/>
-      <c r="S66" s="124"/>
-      <c r="T66" s="124"/>
-      <c r="U66" s="125"/>
+      <c r="A66" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="142"/>
+      <c r="C66" s="142"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="142"/>
+      <c r="F66" s="142"/>
+      <c r="G66" s="142"/>
+      <c r="H66" s="142"/>
+      <c r="I66" s="142"/>
+      <c r="J66" s="142"/>
+      <c r="K66" s="142"/>
+      <c r="L66" s="142"/>
+      <c r="M66" s="142"/>
+      <c r="N66" s="142"/>
+      <c r="O66" s="142"/>
+      <c r="P66" s="142"/>
+      <c r="Q66" s="142"/>
+      <c r="R66" s="142"/>
+      <c r="S66" s="142"/>
+      <c r="T66" s="142"/>
+      <c r="U66" s="143"/>
     </row>
     <row r="67" spans="1:21" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="87"/>
-      <c r="B67" s="88"/>
-      <c r="C67" s="88"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="88"/>
-      <c r="G67" s="88"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="88"/>
-      <c r="K67" s="88"/>
-      <c r="L67" s="88"/>
-      <c r="M67" s="88"/>
-      <c r="N67" s="88"/>
-      <c r="O67" s="88"/>
-      <c r="P67" s="88"/>
-      <c r="Q67" s="88"/>
-      <c r="R67" s="88"/>
-      <c r="S67" s="88"/>
-      <c r="T67" s="88"/>
-      <c r="U67" s="89"/>
+      <c r="A67" s="91"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="92"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="92"/>
+      <c r="N67" s="92"/>
+      <c r="O67" s="92"/>
+      <c r="P67" s="92"/>
+      <c r="Q67" s="92"/>
+      <c r="R67" s="92"/>
+      <c r="S67" s="92"/>
+      <c r="T67" s="92"/>
+      <c r="U67" s="93"/>
     </row>
     <row r="68" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="154" t="s">
-        <v>26</v>
-      </c>
-      <c r="B68" s="85"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="85"/>
-      <c r="I68" s="85"/>
-      <c r="J68" s="85"/>
-      <c r="K68" s="85"/>
-      <c r="L68" s="85"/>
-      <c r="M68" s="85"/>
-      <c r="N68" s="85"/>
-      <c r="O68" s="85"/>
-      <c r="P68" s="85"/>
-      <c r="Q68" s="155"/>
-      <c r="R68" s="155"/>
-      <c r="S68" s="155"/>
-      <c r="T68" s="155"/>
-      <c r="U68" s="156"/>
+      <c r="A68" s="156" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="86"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="86"/>
+      <c r="J68" s="86"/>
+      <c r="K68" s="86"/>
+      <c r="L68" s="86"/>
+      <c r="M68" s="86"/>
+      <c r="N68" s="86"/>
+      <c r="O68" s="86"/>
+      <c r="P68" s="86"/>
+      <c r="Q68" s="157"/>
+      <c r="R68" s="157"/>
+      <c r="S68" s="157"/>
+      <c r="T68" s="157"/>
+      <c r="U68" s="158"/>
     </row>
     <row r="69" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="B69" s="88"/>
-      <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="88"/>
-      <c r="Q69" s="157"/>
-      <c r="R69" s="157"/>
-      <c r="S69" s="157"/>
-      <c r="T69" s="157"/>
-      <c r="U69" s="158"/>
+      <c r="A69" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="92"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="92"/>
+      <c r="H69" s="92"/>
+      <c r="Q69" s="159"/>
+      <c r="R69" s="159"/>
+      <c r="S69" s="159"/>
+      <c r="T69" s="159"/>
+      <c r="U69" s="160"/>
     </row>
     <row r="70" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="159" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="160"/>
-      <c r="C70" s="160"/>
-      <c r="D70" s="160"/>
-      <c r="E70" s="160"/>
-      <c r="F70" s="160"/>
-      <c r="G70" s="160"/>
-      <c r="H70" s="160"/>
-      <c r="I70" s="160"/>
-      <c r="J70" s="161"/>
-      <c r="K70" s="159" t="s">
+      <c r="A70" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="L70" s="160"/>
-      <c r="M70" s="160"/>
-      <c r="N70" s="160"/>
-      <c r="O70" s="160"/>
-      <c r="P70" s="160"/>
-      <c r="Q70" s="160"/>
-      <c r="R70" s="160"/>
-      <c r="S70" s="160"/>
-      <c r="T70" s="160"/>
-      <c r="U70" s="161"/>
+      <c r="B70" s="162"/>
+      <c r="C70" s="162"/>
+      <c r="D70" s="162"/>
+      <c r="E70" s="162"/>
+      <c r="F70" s="162"/>
+      <c r="G70" s="162"/>
+      <c r="H70" s="162"/>
+      <c r="I70" s="162"/>
+      <c r="J70" s="163"/>
+      <c r="K70" s="161" t="s">
+        <v>30</v>
+      </c>
+      <c r="L70" s="162"/>
+      <c r="M70" s="162"/>
+      <c r="N70" s="162"/>
+      <c r="O70" s="162"/>
+      <c r="P70" s="162"/>
+      <c r="Q70" s="162"/>
+      <c r="R70" s="162"/>
+      <c r="S70" s="162"/>
+      <c r="T70" s="162"/>
+      <c r="U70" s="163"/>
     </row>
     <row r="71" spans="1:21" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="162"/>
-      <c r="B71" s="163"/>
-      <c r="C71" s="163"/>
-      <c r="D71" s="163"/>
-      <c r="E71" s="163"/>
-      <c r="F71" s="163"/>
-      <c r="G71" s="163"/>
-      <c r="H71" s="163"/>
-      <c r="I71" s="163"/>
-      <c r="J71" s="164"/>
-      <c r="K71" s="165"/>
-      <c r="L71" s="166"/>
-      <c r="M71" s="166"/>
-      <c r="N71" s="166"/>
-      <c r="O71" s="166"/>
-      <c r="P71" s="166"/>
-      <c r="Q71" s="166"/>
-      <c r="R71" s="166"/>
-      <c r="S71" s="166"/>
-      <c r="T71" s="166"/>
-      <c r="U71" s="167"/>
+      <c r="A71" s="164"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="165"/>
+      <c r="D71" s="165"/>
+      <c r="E71" s="165"/>
+      <c r="F71" s="165"/>
+      <c r="G71" s="165"/>
+      <c r="H71" s="165"/>
+      <c r="I71" s="165"/>
+      <c r="J71" s="166"/>
+      <c r="K71" s="167"/>
+      <c r="L71" s="168"/>
+      <c r="M71" s="168"/>
+      <c r="N71" s="168"/>
+      <c r="O71" s="168"/>
+      <c r="P71" s="168"/>
+      <c r="Q71" s="168"/>
+      <c r="R71" s="168"/>
+      <c r="S71" s="168"/>
+      <c r="T71" s="168"/>
+      <c r="U71" s="169"/>
     </row>
     <row r="72" spans="1:21" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="93" t="s">
-        <v>30</v>
-      </c>
-      <c r="B72" s="94"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="94"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="95"/>
-      <c r="K72" s="93" t="s">
+      <c r="A72" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="L72" s="94"/>
-      <c r="M72" s="94"/>
-      <c r="N72" s="94"/>
-      <c r="O72" s="94"/>
-      <c r="P72" s="94"/>
-      <c r="Q72" s="94"/>
-      <c r="R72" s="94"/>
-      <c r="S72" s="94"/>
-      <c r="T72" s="94"/>
-      <c r="U72" s="95"/>
+      <c r="B72" s="98"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="98"/>
+      <c r="E72" s="98"/>
+      <c r="F72" s="98"/>
+      <c r="G72" s="98"/>
+      <c r="H72" s="98"/>
+      <c r="I72" s="98"/>
+      <c r="J72" s="99"/>
+      <c r="K72" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="L72" s="98"/>
+      <c r="M72" s="98"/>
+      <c r="N72" s="98"/>
+      <c r="O72" s="98"/>
+      <c r="P72" s="98"/>
+      <c r="Q72" s="98"/>
+      <c r="R72" s="98"/>
+      <c r="S72" s="98"/>
+      <c r="T72" s="98"/>
+      <c r="U72" s="99"/>
     </row>
     <row r="73" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B73" s="53"/>
-      <c r="C73" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="53"/>
-      <c r="E73" s="96" t="s">
+      <c r="A73" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="41"/>
+      <c r="C73" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="F73" s="97"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="96" t="s">
+      <c r="D73" s="41"/>
+      <c r="E73" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="I73" s="97"/>
-      <c r="J73" s="98"/>
-      <c r="K73" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="L73" s="53"/>
-      <c r="M73" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="N73" s="53"/>
-      <c r="O73" s="96" t="s">
+      <c r="F73" s="101"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" s="101"/>
+      <c r="J73" s="102"/>
+      <c r="K73" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="L73" s="41"/>
+      <c r="M73" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="P73" s="97"/>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="90" t="s">
-        <v>35</v>
-      </c>
-      <c r="S73" s="91"/>
-      <c r="T73" s="91"/>
-      <c r="U73" s="92"/>
+      <c r="N73" s="41"/>
+      <c r="O73" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="P73" s="101"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="S73" s="95"/>
+      <c r="T73" s="95"/>
+      <c r="U73" s="96"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="81"/>
-      <c r="B74" s="82"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="86"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="126"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="82"/>
-      <c r="M74" s="83"/>
-      <c r="N74" s="82"/>
-      <c r="O74" s="84"/>
-      <c r="P74" s="85"/>
-      <c r="Q74" s="86"/>
-      <c r="R74" s="127"/>
-      <c r="S74" s="128"/>
-      <c r="T74" s="128"/>
-      <c r="U74" s="129"/>
+      <c r="A74" s="82"/>
+      <c r="B74" s="83"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="83"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="87"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="86"/>
+      <c r="J74" s="144"/>
+      <c r="K74" s="82"/>
+      <c r="L74" s="83"/>
+      <c r="M74" s="84"/>
+      <c r="N74" s="83"/>
+      <c r="O74" s="85"/>
+      <c r="P74" s="86"/>
+      <c r="Q74" s="87"/>
+      <c r="R74" s="88"/>
+      <c r="S74" s="89"/>
+      <c r="T74" s="89"/>
+      <c r="U74" s="90"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="60"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="55"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="56"/>
       <c r="J75" s="61"/>
       <c r="K75" s="60"/>
-      <c r="L75" s="58"/>
-      <c r="M75" s="57"/>
-      <c r="N75" s="58"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="55"/>
-      <c r="Q75" s="56"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="36"/>
-      <c r="T75" s="36"/>
-      <c r="U75" s="37"/>
+      <c r="L75" s="59"/>
+      <c r="M75" s="58"/>
+      <c r="N75" s="59"/>
+      <c r="O75" s="55"/>
+      <c r="P75" s="56"/>
+      <c r="Q75" s="57"/>
+      <c r="R75" s="49"/>
+      <c r="S75" s="50"/>
+      <c r="T75" s="50"/>
+      <c r="U75" s="51"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="60"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="55"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="56"/>
       <c r="J76" s="61"/>
       <c r="K76" s="60"/>
-      <c r="L76" s="58"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="58"/>
-      <c r="O76" s="54"/>
-      <c r="P76" s="55"/>
-      <c r="Q76" s="56"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="36"/>
-      <c r="T76" s="36"/>
-      <c r="U76" s="37"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="58"/>
+      <c r="N76" s="59"/>
+      <c r="O76" s="55"/>
+      <c r="P76" s="56"/>
+      <c r="Q76" s="57"/>
+      <c r="R76" s="49"/>
+      <c r="S76" s="50"/>
+      <c r="T76" s="50"/>
+      <c r="U76" s="51"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="60"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="55"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="56"/>
       <c r="J77" s="61"/>
       <c r="K77" s="60"/>
-      <c r="L77" s="58"/>
-      <c r="M77" s="57"/>
-      <c r="N77" s="58"/>
-      <c r="O77" s="54"/>
-      <c r="P77" s="55"/>
-      <c r="Q77" s="56"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="36"/>
-      <c r="T77" s="36"/>
-      <c r="U77" s="37"/>
+      <c r="L77" s="59"/>
+      <c r="M77" s="58"/>
+      <c r="N77" s="59"/>
+      <c r="O77" s="55"/>
+      <c r="P77" s="56"/>
+      <c r="Q77" s="57"/>
+      <c r="R77" s="49"/>
+      <c r="S77" s="50"/>
+      <c r="T77" s="50"/>
+      <c r="U77" s="51"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="60"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="55"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="56"/>
       <c r="J78" s="61"/>
       <c r="K78" s="60"/>
-      <c r="L78" s="58"/>
-      <c r="M78" s="57"/>
-      <c r="N78" s="58"/>
-      <c r="O78" s="54"/>
-      <c r="P78" s="55"/>
-      <c r="Q78" s="56"/>
-      <c r="R78" s="35"/>
-      <c r="S78" s="36"/>
-      <c r="T78" s="36"/>
-      <c r="U78" s="37"/>
+      <c r="L78" s="59"/>
+      <c r="M78" s="58"/>
+      <c r="N78" s="59"/>
+      <c r="O78" s="55"/>
+      <c r="P78" s="56"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="49"/>
+      <c r="S78" s="50"/>
+      <c r="T78" s="50"/>
+      <c r="U78" s="51"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="60"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="55"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="56"/>
       <c r="J79" s="61"/>
       <c r="K79" s="60"/>
-      <c r="L79" s="58"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="58"/>
-      <c r="O79" s="54"/>
-      <c r="P79" s="55"/>
-      <c r="Q79" s="56"/>
-      <c r="R79" s="35"/>
-      <c r="S79" s="36"/>
-      <c r="T79" s="36"/>
-      <c r="U79" s="37"/>
+      <c r="L79" s="59"/>
+      <c r="M79" s="58"/>
+      <c r="N79" s="59"/>
+      <c r="O79" s="55"/>
+      <c r="P79" s="56"/>
+      <c r="Q79" s="57"/>
+      <c r="R79" s="49"/>
+      <c r="S79" s="50"/>
+      <c r="T79" s="50"/>
+      <c r="U79" s="51"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="60"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="55"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="56"/>
       <c r="J80" s="61"/>
       <c r="K80" s="60"/>
-      <c r="L80" s="58"/>
-      <c r="M80" s="57"/>
-      <c r="N80" s="58"/>
-      <c r="O80" s="54"/>
-      <c r="P80" s="55"/>
-      <c r="Q80" s="56"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="36"/>
-      <c r="T80" s="36"/>
-      <c r="U80" s="37"/>
+      <c r="L80" s="59"/>
+      <c r="M80" s="58"/>
+      <c r="N80" s="59"/>
+      <c r="O80" s="55"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="57"/>
+      <c r="R80" s="49"/>
+      <c r="S80" s="50"/>
+      <c r="T80" s="50"/>
+      <c r="U80" s="51"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="60"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="55"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="56"/>
       <c r="J81" s="61"/>
       <c r="K81" s="60"/>
-      <c r="L81" s="58"/>
-      <c r="M81" s="57"/>
-      <c r="N81" s="58"/>
-      <c r="O81" s="54"/>
-      <c r="P81" s="55"/>
-      <c r="Q81" s="56"/>
-      <c r="R81" s="35"/>
-      <c r="S81" s="36"/>
-      <c r="T81" s="36"/>
-      <c r="U81" s="37"/>
+      <c r="L81" s="59"/>
+      <c r="M81" s="58"/>
+      <c r="N81" s="59"/>
+      <c r="O81" s="55"/>
+      <c r="P81" s="56"/>
+      <c r="Q81" s="57"/>
+      <c r="R81" s="49"/>
+      <c r="S81" s="50"/>
+      <c r="T81" s="50"/>
+      <c r="U81" s="51"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="60"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="55"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="56"/>
       <c r="J82" s="61"/>
       <c r="K82" s="60"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="57"/>
-      <c r="N82" s="58"/>
-      <c r="O82" s="54"/>
-      <c r="P82" s="55"/>
-      <c r="Q82" s="56"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="36"/>
-      <c r="T82" s="36"/>
-      <c r="U82" s="37"/>
+      <c r="L82" s="59"/>
+      <c r="M82" s="58"/>
+      <c r="N82" s="59"/>
+      <c r="O82" s="55"/>
+      <c r="P82" s="56"/>
+      <c r="Q82" s="57"/>
+      <c r="R82" s="49"/>
+      <c r="S82" s="50"/>
+      <c r="T82" s="50"/>
+      <c r="U82" s="51"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="60"/>
-      <c r="B83" s="58"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="55"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="56"/>
       <c r="J83" s="61"/>
       <c r="K83" s="60"/>
-      <c r="L83" s="58"/>
-      <c r="M83" s="57"/>
-      <c r="N83" s="58"/>
-      <c r="O83" s="54"/>
-      <c r="P83" s="55"/>
-      <c r="Q83" s="56"/>
-      <c r="R83" s="35"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="37"/>
+      <c r="L83" s="59"/>
+      <c r="M83" s="58"/>
+      <c r="N83" s="59"/>
+      <c r="O83" s="55"/>
+      <c r="P83" s="56"/>
+      <c r="Q83" s="57"/>
+      <c r="R83" s="49"/>
+      <c r="S83" s="50"/>
+      <c r="T83" s="50"/>
+      <c r="U83" s="51"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="60"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="55"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="56"/>
       <c r="J84" s="61"/>
       <c r="K84" s="60"/>
-      <c r="L84" s="58"/>
-      <c r="M84" s="57"/>
-      <c r="N84" s="58"/>
-      <c r="O84" s="54"/>
-      <c r="P84" s="55"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="37"/>
+      <c r="L84" s="59"/>
+      <c r="M84" s="58"/>
+      <c r="N84" s="59"/>
+      <c r="O84" s="55"/>
+      <c r="P84" s="56"/>
+      <c r="Q84" s="57"/>
+      <c r="R84" s="49"/>
+      <c r="S84" s="50"/>
+      <c r="T84" s="50"/>
+      <c r="U84" s="51"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="60"/>
-      <c r="B85" s="58"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="55"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="56"/>
       <c r="J85" s="61"/>
       <c r="K85" s="60"/>
-      <c r="L85" s="58"/>
-      <c r="M85" s="57"/>
-      <c r="N85" s="58"/>
-      <c r="O85" s="54"/>
-      <c r="P85" s="55"/>
-      <c r="Q85" s="56"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="37"/>
+      <c r="L85" s="59"/>
+      <c r="M85" s="58"/>
+      <c r="N85" s="59"/>
+      <c r="O85" s="55"/>
+      <c r="P85" s="56"/>
+      <c r="Q85" s="57"/>
+      <c r="R85" s="49"/>
+      <c r="S85" s="50"/>
+      <c r="T85" s="50"/>
+      <c r="U85" s="51"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="60"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="55"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="56"/>
       <c r="J86" s="61"/>
       <c r="K86" s="60"/>
-      <c r="L86" s="58"/>
-      <c r="M86" s="57"/>
-      <c r="N86" s="58"/>
-      <c r="O86" s="54"/>
-      <c r="P86" s="55"/>
-      <c r="Q86" s="56"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="36"/>
-      <c r="T86" s="36"/>
-      <c r="U86" s="37"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="58"/>
+      <c r="N86" s="59"/>
+      <c r="O86" s="55"/>
+      <c r="P86" s="56"/>
+      <c r="Q86" s="57"/>
+      <c r="R86" s="49"/>
+      <c r="S86" s="50"/>
+      <c r="T86" s="50"/>
+      <c r="U86" s="51"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="60"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="55"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="56"/>
       <c r="J87" s="61"/>
       <c r="K87" s="60"/>
-      <c r="L87" s="58"/>
-      <c r="M87" s="57"/>
-      <c r="N87" s="58"/>
-      <c r="O87" s="54"/>
-      <c r="P87" s="55"/>
-      <c r="Q87" s="56"/>
-      <c r="R87" s="35"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="37"/>
+      <c r="L87" s="59"/>
+      <c r="M87" s="58"/>
+      <c r="N87" s="59"/>
+      <c r="O87" s="55"/>
+      <c r="P87" s="56"/>
+      <c r="Q87" s="57"/>
+      <c r="R87" s="49"/>
+      <c r="S87" s="50"/>
+      <c r="T87" s="50"/>
+      <c r="U87" s="51"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="60"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="54"/>
-      <c r="I88" s="55"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="56"/>
       <c r="J88" s="61"/>
       <c r="K88" s="60"/>
-      <c r="L88" s="58"/>
-      <c r="M88" s="57"/>
-      <c r="N88" s="58"/>
-      <c r="O88" s="54"/>
-      <c r="P88" s="55"/>
-      <c r="Q88" s="56"/>
-      <c r="R88" s="35"/>
-      <c r="S88" s="36"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="37"/>
+      <c r="L88" s="59"/>
+      <c r="M88" s="58"/>
+      <c r="N88" s="59"/>
+      <c r="O88" s="55"/>
+      <c r="P88" s="56"/>
+      <c r="Q88" s="57"/>
+      <c r="R88" s="49"/>
+      <c r="S88" s="50"/>
+      <c r="T88" s="50"/>
+      <c r="U88" s="51"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="60"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="54"/>
-      <c r="I89" s="55"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="55"/>
+      <c r="I89" s="56"/>
       <c r="J89" s="61"/>
       <c r="K89" s="60"/>
-      <c r="L89" s="58"/>
-      <c r="M89" s="57"/>
-      <c r="N89" s="58"/>
-      <c r="O89" s="54"/>
-      <c r="P89" s="55"/>
-      <c r="Q89" s="56"/>
-      <c r="R89" s="35"/>
-      <c r="S89" s="36"/>
-      <c r="T89" s="36"/>
-      <c r="U89" s="37"/>
+      <c r="L89" s="59"/>
+      <c r="M89" s="58"/>
+      <c r="N89" s="59"/>
+      <c r="O89" s="55"/>
+      <c r="P89" s="56"/>
+      <c r="Q89" s="57"/>
+      <c r="R89" s="49"/>
+      <c r="S89" s="50"/>
+      <c r="T89" s="50"/>
+      <c r="U89" s="51"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="60"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="55"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="56"/>
       <c r="J90" s="61"/>
       <c r="K90" s="60"/>
-      <c r="L90" s="58"/>
-      <c r="M90" s="57"/>
-      <c r="N90" s="58"/>
-      <c r="O90" s="54"/>
-      <c r="P90" s="55"/>
-      <c r="Q90" s="56"/>
-      <c r="R90" s="35"/>
-      <c r="S90" s="36"/>
-      <c r="T90" s="36"/>
-      <c r="U90" s="37"/>
+      <c r="L90" s="59"/>
+      <c r="M90" s="58"/>
+      <c r="N90" s="59"/>
+      <c r="O90" s="55"/>
+      <c r="P90" s="56"/>
+      <c r="Q90" s="57"/>
+      <c r="R90" s="49"/>
+      <c r="S90" s="50"/>
+      <c r="T90" s="50"/>
+      <c r="U90" s="51"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="60"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="55"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="56"/>
       <c r="J91" s="61"/>
       <c r="K91" s="60"/>
-      <c r="L91" s="58"/>
-      <c r="M91" s="57"/>
-      <c r="N91" s="58"/>
-      <c r="O91" s="54"/>
-      <c r="P91" s="55"/>
-      <c r="Q91" s="56"/>
-      <c r="R91" s="35"/>
-      <c r="S91" s="36"/>
-      <c r="T91" s="36"/>
-      <c r="U91" s="37"/>
+      <c r="L91" s="59"/>
+      <c r="M91" s="58"/>
+      <c r="N91" s="59"/>
+      <c r="O91" s="55"/>
+      <c r="P91" s="56"/>
+      <c r="Q91" s="57"/>
+      <c r="R91" s="49"/>
+      <c r="S91" s="50"/>
+      <c r="T91" s="50"/>
+      <c r="U91" s="51"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="60"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="57"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="54"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="55"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="58"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="56"/>
       <c r="J92" s="61"/>
       <c r="K92" s="60"/>
-      <c r="L92" s="58"/>
-      <c r="M92" s="57"/>
-      <c r="N92" s="58"/>
-      <c r="O92" s="54"/>
-      <c r="P92" s="55"/>
-      <c r="Q92" s="56"/>
-      <c r="R92" s="35"/>
-      <c r="S92" s="36"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="37"/>
+      <c r="L92" s="59"/>
+      <c r="M92" s="58"/>
+      <c r="N92" s="59"/>
+      <c r="O92" s="55"/>
+      <c r="P92" s="56"/>
+      <c r="Q92" s="57"/>
+      <c r="R92" s="49"/>
+      <c r="S92" s="50"/>
+      <c r="T92" s="50"/>
+      <c r="U92" s="51"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="60"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="54"/>
-      <c r="I93" s="55"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="56"/>
       <c r="J93" s="61"/>
       <c r="K93" s="60"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="57"/>
-      <c r="N93" s="58"/>
-      <c r="O93" s="54"/>
-      <c r="P93" s="55"/>
-      <c r="Q93" s="56"/>
-      <c r="R93" s="35"/>
-      <c r="S93" s="36"/>
-      <c r="T93" s="36"/>
-      <c r="U93" s="37"/>
+      <c r="L93" s="59"/>
+      <c r="M93" s="58"/>
+      <c r="N93" s="59"/>
+      <c r="O93" s="55"/>
+      <c r="P93" s="56"/>
+      <c r="Q93" s="57"/>
+      <c r="R93" s="49"/>
+      <c r="S93" s="50"/>
+      <c r="T93" s="50"/>
+      <c r="U93" s="51"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="60"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="54"/>
-      <c r="I94" s="55"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="58"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="56"/>
       <c r="J94" s="61"/>
       <c r="K94" s="60"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="57"/>
-      <c r="N94" s="58"/>
-      <c r="O94" s="54"/>
-      <c r="P94" s="55"/>
-      <c r="Q94" s="56"/>
-      <c r="R94" s="35"/>
-      <c r="S94" s="36"/>
-      <c r="T94" s="36"/>
-      <c r="U94" s="37"/>
+      <c r="L94" s="59"/>
+      <c r="M94" s="58"/>
+      <c r="N94" s="59"/>
+      <c r="O94" s="55"/>
+      <c r="P94" s="56"/>
+      <c r="Q94" s="57"/>
+      <c r="R94" s="49"/>
+      <c r="S94" s="50"/>
+      <c r="T94" s="50"/>
+      <c r="U94" s="51"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="60"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="57"/>
-      <c r="D95" s="58"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="56"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="55"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="58"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="56"/>
       <c r="J95" s="61"/>
       <c r="K95" s="60"/>
-      <c r="L95" s="58"/>
-      <c r="M95" s="57"/>
-      <c r="N95" s="58"/>
-      <c r="O95" s="54"/>
-      <c r="P95" s="55"/>
-      <c r="Q95" s="56"/>
-      <c r="R95" s="35"/>
-      <c r="S95" s="36"/>
-      <c r="T95" s="36"/>
-      <c r="U95" s="37"/>
+      <c r="L95" s="59"/>
+      <c r="M95" s="58"/>
+      <c r="N95" s="59"/>
+      <c r="O95" s="55"/>
+      <c r="P95" s="56"/>
+      <c r="Q95" s="57"/>
+      <c r="R95" s="49"/>
+      <c r="S95" s="50"/>
+      <c r="T95" s="50"/>
+      <c r="U95" s="51"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="60"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="54"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="56"/>
-      <c r="H96" s="54"/>
-      <c r="I96" s="55"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="56"/>
       <c r="J96" s="61"/>
       <c r="K96" s="60"/>
-      <c r="L96" s="58"/>
-      <c r="M96" s="57"/>
-      <c r="N96" s="58"/>
-      <c r="O96" s="54"/>
-      <c r="P96" s="55"/>
-      <c r="Q96" s="56"/>
-      <c r="R96" s="35"/>
-      <c r="S96" s="36"/>
-      <c r="T96" s="36"/>
-      <c r="U96" s="37"/>
+      <c r="L96" s="59"/>
+      <c r="M96" s="58"/>
+      <c r="N96" s="59"/>
+      <c r="O96" s="55"/>
+      <c r="P96" s="56"/>
+      <c r="Q96" s="57"/>
+      <c r="R96" s="49"/>
+      <c r="S96" s="50"/>
+      <c r="T96" s="50"/>
+      <c r="U96" s="51"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="60"/>
-      <c r="B97" s="58"/>
-      <c r="C97" s="57"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="56"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="55"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="58"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="56"/>
       <c r="J97" s="61"/>
       <c r="K97" s="60"/>
-      <c r="L97" s="58"/>
-      <c r="M97" s="57"/>
-      <c r="N97" s="58"/>
-      <c r="O97" s="54"/>
-      <c r="P97" s="55"/>
-      <c r="Q97" s="56"/>
-      <c r="R97" s="35"/>
-      <c r="S97" s="36"/>
-      <c r="T97" s="36"/>
-      <c r="U97" s="37"/>
+      <c r="L97" s="59"/>
+      <c r="M97" s="58"/>
+      <c r="N97" s="59"/>
+      <c r="O97" s="55"/>
+      <c r="P97" s="56"/>
+      <c r="Q97" s="57"/>
+      <c r="R97" s="49"/>
+      <c r="S97" s="50"/>
+      <c r="T97" s="50"/>
+      <c r="U97" s="51"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="60"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="58"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="56"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="55"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="57"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="56"/>
       <c r="J98" s="61"/>
       <c r="K98" s="60"/>
-      <c r="L98" s="58"/>
-      <c r="M98" s="57"/>
-      <c r="N98" s="58"/>
-      <c r="O98" s="54"/>
-      <c r="P98" s="55"/>
-      <c r="Q98" s="56"/>
-      <c r="R98" s="35"/>
-      <c r="S98" s="36"/>
-      <c r="T98" s="36"/>
-      <c r="U98" s="37"/>
+      <c r="L98" s="59"/>
+      <c r="M98" s="58"/>
+      <c r="N98" s="59"/>
+      <c r="O98" s="55"/>
+      <c r="P98" s="56"/>
+      <c r="Q98" s="57"/>
+      <c r="R98" s="49"/>
+      <c r="S98" s="50"/>
+      <c r="T98" s="50"/>
+      <c r="U98" s="51"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="60"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="56"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="55"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="55"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="56"/>
       <c r="J99" s="61"/>
       <c r="K99" s="60"/>
-      <c r="L99" s="58"/>
-      <c r="M99" s="57"/>
-      <c r="N99" s="58"/>
-      <c r="O99" s="54"/>
-      <c r="P99" s="55"/>
-      <c r="Q99" s="56"/>
-      <c r="R99" s="35"/>
-      <c r="S99" s="36"/>
-      <c r="T99" s="36"/>
-      <c r="U99" s="37"/>
+      <c r="L99" s="59"/>
+      <c r="M99" s="58"/>
+      <c r="N99" s="59"/>
+      <c r="O99" s="55"/>
+      <c r="P99" s="56"/>
+      <c r="Q99" s="57"/>
+      <c r="R99" s="49"/>
+      <c r="S99" s="50"/>
+      <c r="T99" s="50"/>
+      <c r="U99" s="51"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="60"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="54"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="56"/>
-      <c r="H100" s="54"/>
-      <c r="I100" s="55"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="58"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="56"/>
       <c r="J100" s="61"/>
       <c r="K100" s="60"/>
-      <c r="L100" s="58"/>
-      <c r="M100" s="57"/>
-      <c r="N100" s="58"/>
-      <c r="O100" s="54"/>
-      <c r="P100" s="55"/>
-      <c r="Q100" s="56"/>
-      <c r="R100" s="35"/>
-      <c r="S100" s="36"/>
-      <c r="T100" s="36"/>
-      <c r="U100" s="37"/>
+      <c r="L100" s="59"/>
+      <c r="M100" s="58"/>
+      <c r="N100" s="59"/>
+      <c r="O100" s="55"/>
+      <c r="P100" s="56"/>
+      <c r="Q100" s="57"/>
+      <c r="R100" s="49"/>
+      <c r="S100" s="50"/>
+      <c r="T100" s="50"/>
+      <c r="U100" s="51"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="60"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="58"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="56"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="55"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="56"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="56"/>
       <c r="J101" s="61"/>
       <c r="K101" s="60"/>
-      <c r="L101" s="58"/>
-      <c r="M101" s="57"/>
-      <c r="N101" s="58"/>
-      <c r="O101" s="54"/>
-      <c r="P101" s="55"/>
-      <c r="Q101" s="56"/>
-      <c r="R101" s="35"/>
-      <c r="S101" s="36"/>
-      <c r="T101" s="36"/>
-      <c r="U101" s="37"/>
+      <c r="L101" s="59"/>
+      <c r="M101" s="58"/>
+      <c r="N101" s="59"/>
+      <c r="O101" s="55"/>
+      <c r="P101" s="56"/>
+      <c r="Q101" s="57"/>
+      <c r="R101" s="49"/>
+      <c r="S101" s="50"/>
+      <c r="T101" s="50"/>
+      <c r="U101" s="51"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="60"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="58"/>
-      <c r="E102" s="54"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="56"/>
-      <c r="H102" s="54"/>
-      <c r="I102" s="55"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="56"/>
       <c r="J102" s="61"/>
       <c r="K102" s="60"/>
-      <c r="L102" s="58"/>
-      <c r="M102" s="57"/>
-      <c r="N102" s="58"/>
-      <c r="O102" s="54"/>
-      <c r="P102" s="55"/>
-      <c r="Q102" s="56"/>
-      <c r="R102" s="35"/>
-      <c r="S102" s="36"/>
-      <c r="T102" s="36"/>
-      <c r="U102" s="37"/>
+      <c r="L102" s="59"/>
+      <c r="M102" s="58"/>
+      <c r="N102" s="59"/>
+      <c r="O102" s="55"/>
+      <c r="P102" s="56"/>
+      <c r="Q102" s="57"/>
+      <c r="R102" s="49"/>
+      <c r="S102" s="50"/>
+      <c r="T102" s="50"/>
+      <c r="U102" s="51"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="60"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="54"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="56"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="55"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="56"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="56"/>
       <c r="J103" s="61"/>
       <c r="K103" s="60"/>
-      <c r="L103" s="58"/>
-      <c r="M103" s="57"/>
-      <c r="N103" s="58"/>
-      <c r="O103" s="54"/>
-      <c r="P103" s="55"/>
-      <c r="Q103" s="56"/>
-      <c r="R103" s="35"/>
-      <c r="S103" s="36"/>
-      <c r="T103" s="36"/>
-      <c r="U103" s="37"/>
+      <c r="L103" s="59"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="59"/>
+      <c r="O103" s="55"/>
+      <c r="P103" s="56"/>
+      <c r="Q103" s="57"/>
+      <c r="R103" s="49"/>
+      <c r="S103" s="50"/>
+      <c r="T103" s="50"/>
+      <c r="U103" s="51"/>
     </row>
     <row r="104" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="42"/>
       <c r="B104" s="43"/>
-      <c r="C104" s="59"/>
+      <c r="C104" s="44"/>
       <c r="D104" s="43"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="40"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="41"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="45"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="48"/>
       <c r="K104" s="42"/>
       <c r="L104" s="43"/>
-      <c r="M104" s="59"/>
+      <c r="M104" s="44"/>
       <c r="N104" s="43"/>
-      <c r="O104" s="38"/>
-      <c r="P104" s="39"/>
-      <c r="Q104" s="40"/>
-      <c r="R104" s="44"/>
-      <c r="S104" s="45"/>
-      <c r="T104" s="45"/>
-      <c r="U104" s="46"/>
+      <c r="O104" s="45"/>
+      <c r="P104" s="46"/>
+      <c r="Q104" s="47"/>
+      <c r="R104" s="52"/>
+      <c r="S104" s="53"/>
+      <c r="T104" s="53"/>
+      <c r="U104" s="54"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
@@ -3352,301 +3365,301 @@
       <c r="U105" s="10"/>
     </row>
     <row r="106" spans="1:21" s="3" customFormat="1" ht="152.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="168" t="s">
-        <v>36</v>
-      </c>
-      <c r="B106" s="168"/>
-      <c r="C106" s="168"/>
-      <c r="D106" s="168"/>
-      <c r="E106" s="168"/>
-      <c r="F106" s="168"/>
-      <c r="G106" s="168"/>
-      <c r="H106" s="168"/>
-      <c r="I106" s="168"/>
-      <c r="J106" s="168"/>
-      <c r="K106" s="168"/>
-      <c r="L106" s="168"/>
-      <c r="M106" s="168"/>
-      <c r="N106" s="168"/>
-      <c r="O106" s="168"/>
-      <c r="P106" s="168"/>
-      <c r="Q106" s="168"/>
-      <c r="R106" s="168"/>
-      <c r="S106" s="168"/>
-      <c r="T106" s="168"/>
-      <c r="U106" s="168"/>
+      <c r="A106" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" s="81"/>
+      <c r="C106" s="81"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="81"/>
+      <c r="H106" s="81"/>
+      <c r="I106" s="81"/>
+      <c r="J106" s="81"/>
+      <c r="K106" s="81"/>
+      <c r="L106" s="81"/>
+      <c r="M106" s="81"/>
+      <c r="N106" s="81"/>
+      <c r="O106" s="81"/>
+      <c r="P106" s="81"/>
+      <c r="Q106" s="81"/>
+      <c r="R106" s="81"/>
+      <c r="S106" s="81"/>
+      <c r="T106" s="81"/>
+      <c r="U106" s="81"/>
     </row>
     <row r="107" spans="1:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="A107" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="64"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="64"/>
-      <c r="J107" s="64"/>
-      <c r="K107" s="64"/>
-      <c r="L107" s="64"/>
-      <c r="M107" s="64"/>
-      <c r="N107" s="64"/>
-      <c r="O107" s="64"/>
-      <c r="P107" s="64"/>
-      <c r="Q107" s="64"/>
-      <c r="R107" s="64"/>
-      <c r="S107" s="64"/>
-      <c r="T107" s="64"/>
-      <c r="U107" s="64"/>
+      <c r="A107" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B107" s="63"/>
+      <c r="C107" s="63"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="63"/>
+      <c r="G107" s="63"/>
+      <c r="H107" s="63"/>
+      <c r="I107" s="63"/>
+      <c r="J107" s="63"/>
+      <c r="K107" s="63"/>
+      <c r="L107" s="63"/>
+      <c r="M107" s="63"/>
+      <c r="N107" s="63"/>
+      <c r="O107" s="63"/>
+      <c r="P107" s="63"/>
+      <c r="Q107" s="63"/>
+      <c r="R107" s="63"/>
+      <c r="S107" s="63"/>
+      <c r="T107" s="63"/>
+      <c r="U107" s="63"/>
     </row>
     <row r="108" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="B109" s="66"/>
-      <c r="C109" s="66"/>
-      <c r="D109" s="66"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="66"/>
-      <c r="H109" s="66"/>
-      <c r="I109" s="66"/>
-      <c r="J109" s="66"/>
-      <c r="K109" s="66"/>
-      <c r="L109" s="66"/>
-      <c r="M109" s="66"/>
-      <c r="N109" s="66"/>
-      <c r="O109" s="66"/>
-      <c r="P109" s="66"/>
-      <c r="Q109" s="66"/>
-      <c r="R109" s="66"/>
-      <c r="S109" s="66"/>
-      <c r="T109" s="66"/>
-      <c r="U109" s="67"/>
+      <c r="A109" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" s="65"/>
+      <c r="C109" s="65"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="65"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="65"/>
+      <c r="J109" s="65"/>
+      <c r="K109" s="65"/>
+      <c r="L109" s="65"/>
+      <c r="M109" s="65"/>
+      <c r="N109" s="65"/>
+      <c r="O109" s="65"/>
+      <c r="P109" s="65"/>
+      <c r="Q109" s="65"/>
+      <c r="R109" s="65"/>
+      <c r="S109" s="65"/>
+      <c r="T109" s="65"/>
+      <c r="U109" s="66"/>
     </row>
     <row r="110" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="71"/>
-      <c r="B110" s="72"/>
-      <c r="C110" s="72"/>
-      <c r="D110" s="72"/>
-      <c r="E110" s="72"/>
-      <c r="F110" s="72"/>
-      <c r="G110" s="72"/>
-      <c r="H110" s="72"/>
-      <c r="I110" s="72"/>
-      <c r="J110" s="72"/>
-      <c r="K110" s="72"/>
-      <c r="L110" s="72"/>
-      <c r="M110" s="72"/>
-      <c r="N110" s="72"/>
-      <c r="O110" s="72"/>
-      <c r="P110" s="72"/>
-      <c r="Q110" s="72"/>
-      <c r="R110" s="72"/>
-      <c r="S110" s="72"/>
-      <c r="T110" s="72"/>
-      <c r="U110" s="73"/>
+      <c r="A110" s="70"/>
+      <c r="B110" s="71"/>
+      <c r="C110" s="71"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="71"/>
+      <c r="I110" s="71"/>
+      <c r="J110" s="71"/>
+      <c r="K110" s="71"/>
+      <c r="L110" s="71"/>
+      <c r="M110" s="71"/>
+      <c r="N110" s="71"/>
+      <c r="O110" s="71"/>
+      <c r="P110" s="71"/>
+      <c r="Q110" s="71"/>
+      <c r="R110" s="71"/>
+      <c r="S110" s="71"/>
+      <c r="T110" s="71"/>
+      <c r="U110" s="72"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="B111" s="66"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="66"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="66"/>
-      <c r="J111" s="66"/>
-      <c r="K111" s="66"/>
-      <c r="L111" s="66"/>
-      <c r="M111" s="66"/>
-      <c r="N111" s="66"/>
-      <c r="O111" s="66"/>
-      <c r="P111" s="66"/>
-      <c r="Q111" s="66"/>
-      <c r="R111" s="66"/>
-      <c r="S111" s="66"/>
-      <c r="T111" s="66"/>
-      <c r="U111" s="67"/>
+      <c r="A111" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" s="65"/>
+      <c r="C111" s="65"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="65"/>
+      <c r="K111" s="65"/>
+      <c r="L111" s="65"/>
+      <c r="M111" s="65"/>
+      <c r="N111" s="65"/>
+      <c r="O111" s="65"/>
+      <c r="P111" s="65"/>
+      <c r="Q111" s="65"/>
+      <c r="R111" s="65"/>
+      <c r="S111" s="65"/>
+      <c r="T111" s="65"/>
+      <c r="U111" s="66"/>
     </row>
     <row r="112" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="68"/>
-      <c r="B112" s="69"/>
-      <c r="C112" s="69"/>
-      <c r="D112" s="69"/>
-      <c r="E112" s="69"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="69"/>
-      <c r="H112" s="69"/>
-      <c r="I112" s="69"/>
-      <c r="J112" s="69"/>
-      <c r="K112" s="69"/>
-      <c r="L112" s="69"/>
-      <c r="M112" s="69"/>
-      <c r="N112" s="69"/>
-      <c r="O112" s="69"/>
-      <c r="P112" s="69"/>
-      <c r="Q112" s="69"/>
-      <c r="R112" s="69"/>
-      <c r="S112" s="69"/>
-      <c r="T112" s="69"/>
-      <c r="U112" s="70"/>
+      <c r="A112" s="67"/>
+      <c r="B112" s="68"/>
+      <c r="C112" s="68"/>
+      <c r="D112" s="68"/>
+      <c r="E112" s="68"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="68"/>
+      <c r="H112" s="68"/>
+      <c r="I112" s="68"/>
+      <c r="J112" s="68"/>
+      <c r="K112" s="68"/>
+      <c r="L112" s="68"/>
+      <c r="M112" s="68"/>
+      <c r="N112" s="68"/>
+      <c r="O112" s="68"/>
+      <c r="P112" s="68"/>
+      <c r="Q112" s="68"/>
+      <c r="R112" s="68"/>
+      <c r="S112" s="68"/>
+      <c r="T112" s="68"/>
+      <c r="U112" s="69"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B113" s="66"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="66"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="66"/>
-      <c r="J113" s="66"/>
-      <c r="K113" s="66"/>
-      <c r="L113" s="66"/>
-      <c r="M113" s="66"/>
-      <c r="N113" s="66"/>
-      <c r="O113" s="66"/>
-      <c r="P113" s="66"/>
-      <c r="Q113" s="66"/>
-      <c r="R113" s="66"/>
-      <c r="S113" s="66"/>
-      <c r="T113" s="66"/>
-      <c r="U113" s="67"/>
+      <c r="A113" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B113" s="65"/>
+      <c r="C113" s="65"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="65"/>
+      <c r="L113" s="65"/>
+      <c r="M113" s="65"/>
+      <c r="N113" s="65"/>
+      <c r="O113" s="65"/>
+      <c r="P113" s="65"/>
+      <c r="Q113" s="65"/>
+      <c r="R113" s="65"/>
+      <c r="S113" s="65"/>
+      <c r="T113" s="65"/>
+      <c r="U113" s="66"/>
     </row>
     <row r="114" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="68"/>
-      <c r="B114" s="69"/>
-      <c r="C114" s="69"/>
-      <c r="D114" s="69"/>
-      <c r="E114" s="69"/>
-      <c r="F114" s="69"/>
-      <c r="G114" s="69"/>
-      <c r="H114" s="69"/>
-      <c r="I114" s="69"/>
-      <c r="J114" s="69"/>
-      <c r="K114" s="69"/>
-      <c r="L114" s="69"/>
-      <c r="M114" s="69"/>
-      <c r="N114" s="69"/>
-      <c r="O114" s="69"/>
-      <c r="P114" s="69"/>
-      <c r="Q114" s="69"/>
-      <c r="R114" s="69"/>
-      <c r="S114" s="69"/>
-      <c r="T114" s="69"/>
-      <c r="U114" s="70"/>
+      <c r="A114" s="67"/>
+      <c r="B114" s="68"/>
+      <c r="C114" s="68"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="68"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="68"/>
+      <c r="H114" s="68"/>
+      <c r="I114" s="68"/>
+      <c r="J114" s="68"/>
+      <c r="K114" s="68"/>
+      <c r="L114" s="68"/>
+      <c r="M114" s="68"/>
+      <c r="N114" s="68"/>
+      <c r="O114" s="68"/>
+      <c r="P114" s="68"/>
+      <c r="Q114" s="68"/>
+      <c r="R114" s="68"/>
+      <c r="S114" s="68"/>
+      <c r="T114" s="68"/>
+      <c r="U114" s="69"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B115" s="66"/>
-      <c r="C115" s="66"/>
-      <c r="D115" s="66"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="66"/>
-      <c r="I115" s="66"/>
-      <c r="J115" s="66"/>
-      <c r="K115" s="66"/>
-      <c r="L115" s="66"/>
-      <c r="M115" s="66"/>
-      <c r="N115" s="66"/>
-      <c r="O115" s="66"/>
-      <c r="P115" s="66"/>
-      <c r="Q115" s="66"/>
-      <c r="R115" s="66"/>
-      <c r="S115" s="66"/>
-      <c r="T115" s="66"/>
-      <c r="U115" s="67"/>
+      <c r="A115" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B115" s="65"/>
+      <c r="C115" s="65"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="65"/>
+      <c r="J115" s="65"/>
+      <c r="K115" s="65"/>
+      <c r="L115" s="65"/>
+      <c r="M115" s="65"/>
+      <c r="N115" s="65"/>
+      <c r="O115" s="65"/>
+      <c r="P115" s="65"/>
+      <c r="Q115" s="65"/>
+      <c r="R115" s="65"/>
+      <c r="S115" s="65"/>
+      <c r="T115" s="65"/>
+      <c r="U115" s="66"/>
     </row>
     <row r="116" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="68"/>
-      <c r="B116" s="69"/>
-      <c r="C116" s="69"/>
-      <c r="D116" s="69"/>
-      <c r="E116" s="69"/>
-      <c r="F116" s="69"/>
-      <c r="G116" s="69"/>
-      <c r="H116" s="69"/>
-      <c r="I116" s="69"/>
-      <c r="J116" s="69"/>
-      <c r="K116" s="69"/>
-      <c r="L116" s="69"/>
-      <c r="M116" s="69"/>
-      <c r="N116" s="69"/>
-      <c r="O116" s="69"/>
-      <c r="P116" s="69"/>
-      <c r="Q116" s="69"/>
-      <c r="R116" s="69"/>
-      <c r="S116" s="69"/>
-      <c r="T116" s="69"/>
-      <c r="U116" s="70"/>
+      <c r="A116" s="67"/>
+      <c r="B116" s="68"/>
+      <c r="C116" s="68"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="68"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="68"/>
+      <c r="H116" s="68"/>
+      <c r="I116" s="68"/>
+      <c r="J116" s="68"/>
+      <c r="K116" s="68"/>
+      <c r="L116" s="68"/>
+      <c r="M116" s="68"/>
+      <c r="N116" s="68"/>
+      <c r="O116" s="68"/>
+      <c r="P116" s="68"/>
+      <c r="Q116" s="68"/>
+      <c r="R116" s="68"/>
+      <c r="S116" s="68"/>
+      <c r="T116" s="68"/>
+      <c r="U116" s="69"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="B117" s="66"/>
-      <c r="C117" s="66"/>
-      <c r="D117" s="66"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
-      <c r="L117" s="66"/>
-      <c r="M117" s="66"/>
-      <c r="N117" s="66"/>
-      <c r="O117" s="66"/>
-      <c r="P117" s="66"/>
-      <c r="Q117" s="66"/>
-      <c r="R117" s="66"/>
-      <c r="S117" s="66"/>
-      <c r="T117" s="66"/>
-      <c r="U117" s="67"/>
+      <c r="A117" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" s="65"/>
+      <c r="C117" s="65"/>
+      <c r="D117" s="65"/>
+      <c r="E117" s="65"/>
+      <c r="F117" s="65"/>
+      <c r="G117" s="65"/>
+      <c r="H117" s="65"/>
+      <c r="I117" s="65"/>
+      <c r="J117" s="65"/>
+      <c r="K117" s="65"/>
+      <c r="L117" s="65"/>
+      <c r="M117" s="65"/>
+      <c r="N117" s="65"/>
+      <c r="O117" s="65"/>
+      <c r="P117" s="65"/>
+      <c r="Q117" s="65"/>
+      <c r="R117" s="65"/>
+      <c r="S117" s="65"/>
+      <c r="T117" s="65"/>
+      <c r="U117" s="66"/>
     </row>
     <row r="118" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="68"/>
-      <c r="B118" s="69"/>
-      <c r="C118" s="69"/>
-      <c r="D118" s="69"/>
-      <c r="E118" s="69"/>
-      <c r="F118" s="69"/>
-      <c r="G118" s="69"/>
-      <c r="H118" s="69"/>
-      <c r="I118" s="69"/>
-      <c r="J118" s="69"/>
-      <c r="K118" s="69"/>
-      <c r="L118" s="69"/>
-      <c r="M118" s="69"/>
-      <c r="N118" s="69"/>
-      <c r="O118" s="69"/>
-      <c r="P118" s="69"/>
-      <c r="Q118" s="69"/>
-      <c r="R118" s="69"/>
-      <c r="S118" s="69"/>
-      <c r="T118" s="69"/>
-      <c r="U118" s="70"/>
+      <c r="A118" s="67"/>
+      <c r="B118" s="68"/>
+      <c r="C118" s="68"/>
+      <c r="D118" s="68"/>
+      <c r="E118" s="68"/>
+      <c r="F118" s="68"/>
+      <c r="G118" s="68"/>
+      <c r="H118" s="68"/>
+      <c r="I118" s="68"/>
+      <c r="J118" s="68"/>
+      <c r="K118" s="68"/>
+      <c r="L118" s="68"/>
+      <c r="M118" s="68"/>
+      <c r="N118" s="68"/>
+      <c r="O118" s="68"/>
+      <c r="P118" s="68"/>
+      <c r="Q118" s="68"/>
+      <c r="R118" s="68"/>
+      <c r="S118" s="68"/>
+      <c r="T118" s="68"/>
+      <c r="U118" s="69"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B120"/>
       <c r="C120"/>
@@ -3657,29 +3670,29 @@
       <c r="C121"/>
     </row>
     <row r="122" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="B122" s="62"/>
-      <c r="C122" s="62"/>
-      <c r="D122" s="62"/>
-      <c r="E122" s="62"/>
-      <c r="F122" s="62"/>
-      <c r="G122" s="62"/>
-      <c r="H122" s="62"/>
-      <c r="I122" s="62"/>
-      <c r="J122" s="62"/>
-      <c r="K122" s="62"/>
-      <c r="L122" s="62"/>
-      <c r="M122" s="62"/>
-      <c r="N122" s="62"/>
-      <c r="O122" s="62"/>
-      <c r="P122" s="62"/>
-      <c r="Q122" s="62"/>
-      <c r="R122" s="62"/>
-      <c r="S122" s="62"/>
-      <c r="T122" s="62"/>
-      <c r="U122" s="62"/>
+      <c r="A122" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="80"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="80"/>
+      <c r="F122" s="80"/>
+      <c r="G122" s="80"/>
+      <c r="H122" s="80"/>
+      <c r="I122" s="80"/>
+      <c r="J122" s="80"/>
+      <c r="K122" s="80"/>
+      <c r="L122" s="80"/>
+      <c r="M122" s="80"/>
+      <c r="N122" s="80"/>
+      <c r="O122" s="80"/>
+      <c r="P122" s="80"/>
+      <c r="Q122" s="80"/>
+      <c r="R122" s="80"/>
+      <c r="S122" s="80"/>
+      <c r="T122" s="80"/>
+      <c r="U122" s="80"/>
     </row>
     <row r="123" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
@@ -3688,164 +3701,164 @@
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B124"/>
       <c r="C124"/>
     </row>
     <row r="125" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="G125" s="62"/>
-      <c r="H125" s="62"/>
-      <c r="I125" s="62"/>
-      <c r="J125" s="62"/>
-      <c r="K125" s="62"/>
-      <c r="L125" s="62"/>
-      <c r="M125" s="62"/>
-      <c r="N125" s="62"/>
-      <c r="O125" s="62"/>
-      <c r="P125" s="62"/>
-      <c r="Q125" s="62"/>
-      <c r="R125" s="62"/>
-      <c r="S125" s="62"/>
-      <c r="T125" s="62"/>
-      <c r="U125" s="62"/>
+      <c r="F125" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="G125" s="80"/>
+      <c r="H125" s="80"/>
+      <c r="I125" s="80"/>
+      <c r="J125" s="80"/>
+      <c r="K125" s="80"/>
+      <c r="L125" s="80"/>
+      <c r="M125" s="80"/>
+      <c r="N125" s="80"/>
+      <c r="O125" s="80"/>
+      <c r="P125" s="80"/>
+      <c r="Q125" s="80"/>
+      <c r="R125" s="80"/>
+      <c r="S125" s="80"/>
+      <c r="T125" s="80"/>
+      <c r="U125" s="80"/>
     </row>
     <row r="126" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G126" s="62"/>
-      <c r="H126" s="62"/>
-      <c r="I126" s="62"/>
-      <c r="J126" s="62"/>
-      <c r="K126" s="62"/>
-      <c r="L126" s="62"/>
-      <c r="M126" s="62"/>
-      <c r="N126" s="62"/>
-      <c r="O126" s="62"/>
-      <c r="P126" s="62"/>
-      <c r="Q126" s="62"/>
-      <c r="R126" s="62"/>
-      <c r="S126" s="62"/>
-      <c r="T126" s="62"/>
-      <c r="U126" s="62"/>
+      <c r="F126" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="G126" s="80"/>
+      <c r="H126" s="80"/>
+      <c r="I126" s="80"/>
+      <c r="J126" s="80"/>
+      <c r="K126" s="80"/>
+      <c r="L126" s="80"/>
+      <c r="M126" s="80"/>
+      <c r="N126" s="80"/>
+      <c r="O126" s="80"/>
+      <c r="P126" s="80"/>
+      <c r="Q126" s="80"/>
+      <c r="R126" s="80"/>
+      <c r="S126" s="80"/>
+      <c r="T126" s="80"/>
+      <c r="U126" s="80"/>
     </row>
     <row r="127" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B127"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
-      <c r="F127" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="G127" s="62"/>
-      <c r="H127" s="62"/>
-      <c r="I127" s="62"/>
-      <c r="J127" s="62"/>
-      <c r="K127" s="62"/>
-      <c r="L127" s="62"/>
-      <c r="M127" s="62"/>
-      <c r="N127" s="62"/>
-      <c r="O127" s="62"/>
-      <c r="P127" s="62"/>
-      <c r="Q127" s="62"/>
-      <c r="R127" s="62"/>
-      <c r="S127" s="62"/>
-      <c r="T127" s="62"/>
-      <c r="U127" s="62"/>
+      <c r="F127" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="G127" s="80"/>
+      <c r="H127" s="80"/>
+      <c r="I127" s="80"/>
+      <c r="J127" s="80"/>
+      <c r="K127" s="80"/>
+      <c r="L127" s="80"/>
+      <c r="M127" s="80"/>
+      <c r="N127" s="80"/>
+      <c r="O127" s="80"/>
+      <c r="P127" s="80"/>
+      <c r="Q127" s="80"/>
+      <c r="R127" s="80"/>
+      <c r="S127" s="80"/>
+      <c r="T127" s="80"/>
+      <c r="U127" s="80"/>
     </row>
     <row r="128" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B128"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="G128" s="62"/>
-      <c r="H128" s="62"/>
-      <c r="I128" s="62"/>
-      <c r="J128" s="62"/>
-      <c r="K128" s="62"/>
-      <c r="L128" s="62"/>
-      <c r="M128" s="62"/>
-      <c r="N128" s="62"/>
-      <c r="O128" s="62"/>
-      <c r="P128" s="62"/>
-      <c r="Q128" s="62"/>
-      <c r="R128" s="62"/>
-      <c r="S128" s="62"/>
-      <c r="T128" s="62"/>
-      <c r="U128" s="62"/>
+      <c r="F128" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="G128" s="80"/>
+      <c r="H128" s="80"/>
+      <c r="I128" s="80"/>
+      <c r="J128" s="80"/>
+      <c r="K128" s="80"/>
+      <c r="L128" s="80"/>
+      <c r="M128" s="80"/>
+      <c r="N128" s="80"/>
+      <c r="O128" s="80"/>
+      <c r="P128" s="80"/>
+      <c r="Q128" s="80"/>
+      <c r="R128" s="80"/>
+      <c r="S128" s="80"/>
+      <c r="T128" s="80"/>
+      <c r="U128" s="80"/>
     </row>
     <row r="129" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B129"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="G129" s="62"/>
-      <c r="H129" s="62"/>
-      <c r="I129" s="62"/>
-      <c r="J129" s="62"/>
-      <c r="K129" s="62"/>
-      <c r="L129" s="62"/>
-      <c r="M129" s="62"/>
-      <c r="N129" s="62"/>
-      <c r="O129" s="62"/>
-      <c r="P129" s="62"/>
-      <c r="Q129" s="62"/>
-      <c r="R129" s="62"/>
-      <c r="S129" s="62"/>
-      <c r="T129" s="62"/>
-      <c r="U129" s="62"/>
+      <c r="F129" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="G129" s="80"/>
+      <c r="H129" s="80"/>
+      <c r="I129" s="80"/>
+      <c r="J129" s="80"/>
+      <c r="K129" s="80"/>
+      <c r="L129" s="80"/>
+      <c r="M129" s="80"/>
+      <c r="N129" s="80"/>
+      <c r="O129" s="80"/>
+      <c r="P129" s="80"/>
+      <c r="Q129" s="80"/>
+      <c r="R129" s="80"/>
+      <c r="S129" s="80"/>
+      <c r="T129" s="80"/>
+      <c r="U129" s="80"/>
     </row>
     <row r="130" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B130"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G130" s="62"/>
-      <c r="H130" s="62"/>
-      <c r="I130" s="62"/>
-      <c r="J130" s="62"/>
-      <c r="K130" s="62"/>
-      <c r="L130" s="62"/>
-      <c r="M130" s="62"/>
-      <c r="N130" s="62"/>
-      <c r="O130" s="62"/>
-      <c r="P130" s="62"/>
-      <c r="Q130" s="62"/>
-      <c r="R130" s="62"/>
-      <c r="S130" s="62"/>
-      <c r="T130" s="62"/>
-      <c r="U130" s="62"/>
+      <c r="F130" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="G130" s="80"/>
+      <c r="H130" s="80"/>
+      <c r="I130" s="80"/>
+      <c r="J130" s="80"/>
+      <c r="K130" s="80"/>
+      <c r="L130" s="80"/>
+      <c r="M130" s="80"/>
+      <c r="N130" s="80"/>
+      <c r="O130" s="80"/>
+      <c r="P130" s="80"/>
+      <c r="Q130" s="80"/>
+      <c r="R130" s="80"/>
+      <c r="S130" s="80"/>
+      <c r="T130" s="80"/>
+      <c r="U130" s="80"/>
     </row>
     <row r="131" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
@@ -3853,47 +3866,47 @@
       <c r="C131"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="103" t="s">
-        <v>58</v>
-      </c>
-      <c r="B132" s="104"/>
-      <c r="C132" s="104"/>
-      <c r="D132" s="105"/>
-      <c r="E132" s="76" t="s">
+      <c r="A132" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="F132" s="77"/>
-      <c r="G132" s="78"/>
-      <c r="H132" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="I132" s="77"/>
-      <c r="J132" s="80"/>
-      <c r="K132" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="L132" s="77"/>
-      <c r="M132" s="78"/>
-      <c r="N132" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="O132" s="77"/>
-      <c r="P132" s="80"/>
-      <c r="Q132" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="R132" s="77"/>
-      <c r="S132" s="78"/>
-      <c r="T132" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="U132" s="78"/>
+      <c r="B132" s="109"/>
+      <c r="C132" s="109"/>
+      <c r="D132" s="110"/>
+      <c r="E132" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="F132" s="76"/>
+      <c r="G132" s="77"/>
+      <c r="H132" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="I132" s="76"/>
+      <c r="J132" s="79"/>
+      <c r="K132" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="L132" s="76"/>
+      <c r="M132" s="77"/>
+      <c r="N132" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="O132" s="76"/>
+      <c r="P132" s="79"/>
+      <c r="Q132" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="R132" s="76"/>
+      <c r="S132" s="77"/>
+      <c r="T132" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="U132" s="77"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="106"/>
-      <c r="B133" s="107"/>
-      <c r="C133" s="107"/>
-      <c r="D133" s="108"/>
+      <c r="A133" s="111"/>
+      <c r="B133" s="112"/>
+      <c r="C133" s="112"/>
+      <c r="D133" s="113"/>
       <c r="E133" s="26">
         <v>15</v>
       </c>
@@ -3939,18 +3952,18 @@
       <c r="S133" s="28">
         <v>1</v>
       </c>
-      <c r="T133" s="109">
+      <c r="T133" s="114">
         <v>0</v>
       </c>
-      <c r="U133" s="110"/>
+      <c r="U133" s="115"/>
     </row>
     <row r="134" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="B134" s="112"/>
-      <c r="C134" s="112"/>
-      <c r="D134" s="113"/>
+      <c r="A134" s="116" t="s">
+        <v>61</v>
+      </c>
+      <c r="B134" s="117"/>
+      <c r="C134" s="117"/>
+      <c r="D134" s="118"/>
       <c r="E134" s="12"/>
       <c r="F134" s="13"/>
       <c r="G134" s="14"/>
@@ -3966,16 +3979,16 @@
       <c r="Q134" s="12"/>
       <c r="R134" s="13"/>
       <c r="S134" s="14"/>
-      <c r="T134" s="31"/>
-      <c r="U134" s="32"/>
+      <c r="T134" s="33"/>
+      <c r="U134" s="34"/>
     </row>
     <row r="135" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="117" t="s">
-        <v>61</v>
-      </c>
-      <c r="B135" s="118"/>
-      <c r="C135" s="118"/>
-      <c r="D135" s="119"/>
+      <c r="A135" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="B135" s="123"/>
+      <c r="C135" s="123"/>
+      <c r="D135" s="124"/>
       <c r="E135" s="12"/>
       <c r="F135" s="13"/>
       <c r="G135" s="14"/>
@@ -3991,16 +4004,16 @@
       <c r="Q135" s="12"/>
       <c r="R135" s="13"/>
       <c r="S135" s="14"/>
-      <c r="T135" s="31"/>
-      <c r="U135" s="32"/>
+      <c r="T135" s="33"/>
+      <c r="U135" s="34"/>
     </row>
     <row r="136" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="114" t="s">
-        <v>62</v>
-      </c>
-      <c r="B136" s="115"/>
-      <c r="C136" s="115"/>
-      <c r="D136" s="116"/>
+      <c r="A136" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="B136" s="120"/>
+      <c r="C136" s="120"/>
+      <c r="D136" s="121"/>
       <c r="E136" s="17"/>
       <c r="F136" s="18"/>
       <c r="G136" s="19"/>
@@ -4016,52 +4029,52 @@
       <c r="Q136" s="17"/>
       <c r="R136" s="18"/>
       <c r="S136" s="19"/>
-      <c r="T136" s="33"/>
-      <c r="U136" s="34"/>
+      <c r="T136" s="31"/>
+      <c r="U136" s="32"/>
     </row>
     <row r="137" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="103" t="s">
-        <v>63</v>
-      </c>
-      <c r="B138" s="104"/>
-      <c r="C138" s="104"/>
-      <c r="D138" s="105"/>
-      <c r="E138" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="F138" s="77"/>
-      <c r="G138" s="78"/>
-      <c r="H138" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="I138" s="77"/>
-      <c r="J138" s="80"/>
-      <c r="K138" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="L138" s="77"/>
-      <c r="M138" s="78"/>
-      <c r="N138" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="O138" s="77"/>
-      <c r="P138" s="80"/>
-      <c r="Q138" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="R138" s="77"/>
-      <c r="S138" s="78"/>
-      <c r="T138" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="U138" s="78"/>
+      <c r="A138" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="B138" s="109"/>
+      <c r="C138" s="109"/>
+      <c r="D138" s="110"/>
+      <c r="E138" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="F138" s="76"/>
+      <c r="G138" s="77"/>
+      <c r="H138" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="I138" s="76"/>
+      <c r="J138" s="79"/>
+      <c r="K138" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="L138" s="76"/>
+      <c r="M138" s="77"/>
+      <c r="N138" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="O138" s="76"/>
+      <c r="P138" s="79"/>
+      <c r="Q138" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="R138" s="76"/>
+      <c r="S138" s="77"/>
+      <c r="T138" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="U138" s="77"/>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A139" s="106"/>
-      <c r="B139" s="107"/>
-      <c r="C139" s="107"/>
-      <c r="D139" s="108"/>
+      <c r="A139" s="111"/>
+      <c r="B139" s="112"/>
+      <c r="C139" s="112"/>
+      <c r="D139" s="113"/>
       <c r="E139" s="26">
         <v>15</v>
       </c>
@@ -4107,18 +4120,18 @@
       <c r="S139" s="28">
         <v>1</v>
       </c>
-      <c r="T139" s="109">
+      <c r="T139" s="114">
         <v>0</v>
       </c>
-      <c r="U139" s="110"/>
+      <c r="U139" s="115"/>
     </row>
     <row r="140" spans="1:21" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="111" t="s">
-        <v>64</v>
-      </c>
-      <c r="B140" s="112"/>
-      <c r="C140" s="112"/>
-      <c r="D140" s="113"/>
+      <c r="A140" s="116" t="s">
+        <v>65</v>
+      </c>
+      <c r="B140" s="117"/>
+      <c r="C140" s="117"/>
+      <c r="D140" s="118"/>
       <c r="E140" s="12"/>
       <c r="F140" s="13"/>
       <c r="G140" s="14"/>
@@ -4134,16 +4147,16 @@
       <c r="Q140" s="12"/>
       <c r="R140" s="13"/>
       <c r="S140" s="14"/>
-      <c r="T140" s="31"/>
-      <c r="U140" s="32"/>
+      <c r="T140" s="33"/>
+      <c r="U140" s="34"/>
     </row>
     <row r="141" spans="1:21" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="B141" s="121"/>
-      <c r="C141" s="121"/>
-      <c r="D141" s="122"/>
+      <c r="A141" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="B141" s="126"/>
+      <c r="C141" s="126"/>
+      <c r="D141" s="127"/>
       <c r="E141" s="12"/>
       <c r="F141" s="13"/>
       <c r="G141" s="14"/>
@@ -4159,16 +4172,16 @@
       <c r="Q141" s="12"/>
       <c r="R141" s="13"/>
       <c r="S141" s="14"/>
-      <c r="T141" s="31"/>
-      <c r="U141" s="32"/>
+      <c r="T141" s="33"/>
+      <c r="U141" s="34"/>
     </row>
     <row r="142" spans="1:21" ht="42.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="114" t="s">
-        <v>66</v>
-      </c>
-      <c r="B142" s="115"/>
-      <c r="C142" s="115"/>
-      <c r="D142" s="116"/>
+      <c r="A142" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="B142" s="120"/>
+      <c r="C142" s="120"/>
+      <c r="D142" s="121"/>
       <c r="E142" s="17"/>
       <c r="F142" s="18"/>
       <c r="G142" s="19"/>
@@ -4184,52 +4197,52 @@
       <c r="Q142" s="17"/>
       <c r="R142" s="18"/>
       <c r="S142" s="19"/>
-      <c r="T142" s="33"/>
-      <c r="U142" s="34"/>
+      <c r="T142" s="31"/>
+      <c r="U142" s="32"/>
     </row>
     <row r="143" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="B144" s="104"/>
-      <c r="C144" s="104"/>
-      <c r="D144" s="105"/>
-      <c r="E144" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="F144" s="77"/>
-      <c r="G144" s="78"/>
-      <c r="H144" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="I144" s="77"/>
-      <c r="J144" s="80"/>
-      <c r="K144" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="L144" s="77"/>
-      <c r="M144" s="78"/>
-      <c r="N144" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="O144" s="77"/>
-      <c r="P144" s="80"/>
-      <c r="Q144" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="R144" s="77"/>
-      <c r="S144" s="78"/>
-      <c r="T144" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="U144" s="78"/>
+      <c r="A144" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="B144" s="109"/>
+      <c r="C144" s="109"/>
+      <c r="D144" s="110"/>
+      <c r="E144" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="F144" s="76"/>
+      <c r="G144" s="77"/>
+      <c r="H144" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="I144" s="76"/>
+      <c r="J144" s="79"/>
+      <c r="K144" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="L144" s="76"/>
+      <c r="M144" s="77"/>
+      <c r="N144" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="O144" s="76"/>
+      <c r="P144" s="79"/>
+      <c r="Q144" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="R144" s="76"/>
+      <c r="S144" s="77"/>
+      <c r="T144" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="U144" s="77"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="106"/>
-      <c r="B145" s="107"/>
-      <c r="C145" s="107"/>
-      <c r="D145" s="108"/>
+      <c r="A145" s="111"/>
+      <c r="B145" s="112"/>
+      <c r="C145" s="112"/>
+      <c r="D145" s="113"/>
       <c r="E145" s="26">
         <v>15</v>
       </c>
@@ -4275,18 +4288,18 @@
       <c r="S145" s="28">
         <v>1</v>
       </c>
-      <c r="T145" s="109">
+      <c r="T145" s="114">
         <v>0</v>
       </c>
-      <c r="U145" s="110"/>
+      <c r="U145" s="115"/>
     </row>
     <row r="146" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="111" t="s">
-        <v>68</v>
-      </c>
-      <c r="B146" s="112"/>
-      <c r="C146" s="112"/>
-      <c r="D146" s="113"/>
+      <c r="A146" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="B146" s="117"/>
+      <c r="C146" s="117"/>
+      <c r="D146" s="118"/>
       <c r="E146" s="12"/>
       <c r="F146" s="13"/>
       <c r="G146" s="14"/>
@@ -4302,16 +4315,16 @@
       <c r="Q146" s="12"/>
       <c r="R146" s="13"/>
       <c r="S146" s="14"/>
-      <c r="T146" s="31"/>
-      <c r="U146" s="32"/>
+      <c r="T146" s="33"/>
+      <c r="U146" s="34"/>
     </row>
     <row r="147" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="B147" s="121"/>
-      <c r="C147" s="121"/>
-      <c r="D147" s="122"/>
+      <c r="A147" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="B147" s="126"/>
+      <c r="C147" s="126"/>
+      <c r="D147" s="127"/>
       <c r="E147" s="12"/>
       <c r="F147" s="13"/>
       <c r="G147" s="14"/>
@@ -4327,16 +4340,16 @@
       <c r="Q147" s="12"/>
       <c r="R147" s="13"/>
       <c r="S147" s="14"/>
-      <c r="T147" s="31"/>
-      <c r="U147" s="32"/>
+      <c r="T147" s="33"/>
+      <c r="U147" s="34"/>
     </row>
     <row r="148" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="B148" s="121"/>
-      <c r="C148" s="121"/>
-      <c r="D148" s="122"/>
+      <c r="A148" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="B148" s="126"/>
+      <c r="C148" s="126"/>
+      <c r="D148" s="127"/>
       <c r="E148" s="12"/>
       <c r="F148" s="13"/>
       <c r="G148" s="14"/>
@@ -4352,16 +4365,16 @@
       <c r="Q148" s="12"/>
       <c r="R148" s="13"/>
       <c r="S148" s="14"/>
-      <c r="T148" s="31"/>
-      <c r="U148" s="32"/>
+      <c r="T148" s="33"/>
+      <c r="U148" s="34"/>
     </row>
     <row r="149" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="120" t="s">
-        <v>71</v>
-      </c>
-      <c r="B149" s="121"/>
-      <c r="C149" s="121"/>
-      <c r="D149" s="122"/>
+      <c r="A149" s="125" t="s">
+        <v>72</v>
+      </c>
+      <c r="B149" s="126"/>
+      <c r="C149" s="126"/>
+      <c r="D149" s="127"/>
       <c r="E149" s="12"/>
       <c r="F149" s="13"/>
       <c r="G149" s="14"/>
@@ -4377,16 +4390,16 @@
       <c r="Q149" s="12"/>
       <c r="R149" s="13"/>
       <c r="S149" s="14"/>
-      <c r="T149" s="31"/>
-      <c r="U149" s="32"/>
+      <c r="T149" s="33"/>
+      <c r="U149" s="34"/>
     </row>
     <row r="150" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="B150" s="121"/>
-      <c r="C150" s="121"/>
-      <c r="D150" s="122"/>
+      <c r="A150" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="B150" s="126"/>
+      <c r="C150" s="126"/>
+      <c r="D150" s="127"/>
       <c r="E150" s="12"/>
       <c r="F150" s="13"/>
       <c r="G150" s="14"/>
@@ -4402,16 +4415,16 @@
       <c r="Q150" s="12"/>
       <c r="R150" s="13"/>
       <c r="S150" s="14"/>
-      <c r="T150" s="31"/>
-      <c r="U150" s="32"/>
+      <c r="T150" s="33"/>
+      <c r="U150" s="34"/>
     </row>
     <row r="151" spans="1:21" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="B151" s="115"/>
-      <c r="C151" s="115"/>
-      <c r="D151" s="116"/>
+      <c r="A151" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="B151" s="120"/>
+      <c r="C151" s="120"/>
+      <c r="D151" s="121"/>
       <c r="E151" s="17"/>
       <c r="F151" s="18"/>
       <c r="G151" s="19"/>
@@ -4427,52 +4440,52 @@
       <c r="Q151" s="17"/>
       <c r="R151" s="18"/>
       <c r="S151" s="19"/>
-      <c r="T151" s="33"/>
-      <c r="U151" s="34"/>
+      <c r="T151" s="31"/>
+      <c r="U151" s="32"/>
     </row>
     <row r="152" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A153" s="103" t="s">
-        <v>74</v>
-      </c>
-      <c r="B153" s="104"/>
-      <c r="C153" s="104"/>
-      <c r="D153" s="105"/>
-      <c r="E153" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="F153" s="77"/>
-      <c r="G153" s="78"/>
-      <c r="H153" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="I153" s="77"/>
-      <c r="J153" s="80"/>
-      <c r="K153" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="L153" s="77"/>
-      <c r="M153" s="78"/>
-      <c r="N153" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="O153" s="77"/>
-      <c r="P153" s="80"/>
-      <c r="Q153" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="R153" s="77"/>
-      <c r="S153" s="78"/>
-      <c r="T153" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="U153" s="78"/>
+      <c r="A153" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="B153" s="109"/>
+      <c r="C153" s="109"/>
+      <c r="D153" s="110"/>
+      <c r="E153" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="F153" s="76"/>
+      <c r="G153" s="77"/>
+      <c r="H153" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="I153" s="76"/>
+      <c r="J153" s="79"/>
+      <c r="K153" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="L153" s="76"/>
+      <c r="M153" s="77"/>
+      <c r="N153" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="O153" s="76"/>
+      <c r="P153" s="79"/>
+      <c r="Q153" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="R153" s="76"/>
+      <c r="S153" s="77"/>
+      <c r="T153" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="U153" s="77"/>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A154" s="106"/>
-      <c r="B154" s="107"/>
-      <c r="C154" s="107"/>
-      <c r="D154" s="108"/>
+      <c r="A154" s="111"/>
+      <c r="B154" s="112"/>
+      <c r="C154" s="112"/>
+      <c r="D154" s="113"/>
       <c r="E154" s="26">
         <v>15</v>
       </c>
@@ -4518,18 +4531,18 @@
       <c r="S154" s="28">
         <v>1</v>
       </c>
-      <c r="T154" s="109">
+      <c r="T154" s="114">
         <v>0</v>
       </c>
-      <c r="U154" s="110"/>
+      <c r="U154" s="115"/>
     </row>
     <row r="155" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="B155" s="112"/>
-      <c r="C155" s="112"/>
-      <c r="D155" s="113"/>
+      <c r="A155" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="B155" s="117"/>
+      <c r="C155" s="117"/>
+      <c r="D155" s="118"/>
       <c r="E155" s="12"/>
       <c r="F155" s="13"/>
       <c r="G155" s="14"/>
@@ -4545,16 +4558,16 @@
       <c r="Q155" s="12"/>
       <c r="R155" s="13"/>
       <c r="S155" s="14"/>
-      <c r="T155" s="31"/>
-      <c r="U155" s="32"/>
+      <c r="T155" s="33"/>
+      <c r="U155" s="34"/>
     </row>
     <row r="156" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="B156" s="121"/>
-      <c r="C156" s="121"/>
-      <c r="D156" s="122"/>
+      <c r="A156" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="B156" s="126"/>
+      <c r="C156" s="126"/>
+      <c r="D156" s="127"/>
       <c r="E156" s="12"/>
       <c r="F156" s="13"/>
       <c r="G156" s="14"/>
@@ -4570,16 +4583,16 @@
       <c r="Q156" s="12"/>
       <c r="R156" s="13"/>
       <c r="S156" s="14"/>
-      <c r="T156" s="31"/>
-      <c r="U156" s="32"/>
+      <c r="T156" s="33"/>
+      <c r="U156" s="34"/>
     </row>
     <row r="157" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="B157" s="121"/>
-      <c r="C157" s="121"/>
-      <c r="D157" s="122"/>
+      <c r="A157" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="B157" s="126"/>
+      <c r="C157" s="126"/>
+      <c r="D157" s="127"/>
       <c r="E157" s="12"/>
       <c r="F157" s="13"/>
       <c r="G157" s="14"/>
@@ -4595,16 +4608,16 @@
       <c r="Q157" s="12"/>
       <c r="R157" s="13"/>
       <c r="S157" s="14"/>
-      <c r="T157" s="31"/>
-      <c r="U157" s="32"/>
+      <c r="T157" s="33"/>
+      <c r="U157" s="34"/>
     </row>
     <row r="158" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="120" t="s">
-        <v>78</v>
-      </c>
-      <c r="B158" s="121"/>
-      <c r="C158" s="121"/>
-      <c r="D158" s="122"/>
+      <c r="A158" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="B158" s="126"/>
+      <c r="C158" s="126"/>
+      <c r="D158" s="127"/>
       <c r="E158" s="12"/>
       <c r="F158" s="13"/>
       <c r="G158" s="14"/>
@@ -4620,16 +4633,16 @@
       <c r="Q158" s="12"/>
       <c r="R158" s="13"/>
       <c r="S158" s="14"/>
-      <c r="T158" s="31"/>
-      <c r="U158" s="32"/>
+      <c r="T158" s="33"/>
+      <c r="U158" s="34"/>
     </row>
     <row r="159" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="120" t="s">
-        <v>79</v>
-      </c>
-      <c r="B159" s="121"/>
-      <c r="C159" s="121"/>
-      <c r="D159" s="122"/>
+      <c r="A159" s="125" t="s">
+        <v>80</v>
+      </c>
+      <c r="B159" s="126"/>
+      <c r="C159" s="126"/>
+      <c r="D159" s="127"/>
       <c r="E159" s="12"/>
       <c r="F159" s="13"/>
       <c r="G159" s="14"/>
@@ -4645,16 +4658,16 @@
       <c r="Q159" s="12"/>
       <c r="R159" s="13"/>
       <c r="S159" s="14"/>
-      <c r="T159" s="31"/>
-      <c r="U159" s="32"/>
+      <c r="T159" s="33"/>
+      <c r="U159" s="34"/>
     </row>
     <row r="160" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="B160" s="118"/>
-      <c r="C160" s="118"/>
-      <c r="D160" s="119"/>
+      <c r="A160" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="B160" s="123"/>
+      <c r="C160" s="123"/>
+      <c r="D160" s="124"/>
       <c r="E160" s="12"/>
       <c r="F160" s="13"/>
       <c r="G160" s="14"/>
@@ -4670,16 +4683,16 @@
       <c r="Q160" s="12"/>
       <c r="R160" s="13"/>
       <c r="S160" s="14"/>
-      <c r="T160" s="31"/>
-      <c r="U160" s="32"/>
+      <c r="T160" s="33"/>
+      <c r="U160" s="34"/>
     </row>
     <row r="161" spans="1:21" ht="48.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="114" t="s">
-        <v>81</v>
-      </c>
-      <c r="B161" s="115"/>
-      <c r="C161" s="115"/>
-      <c r="D161" s="116"/>
+      <c r="A161" s="119" t="s">
+        <v>82</v>
+      </c>
+      <c r="B161" s="120"/>
+      <c r="C161" s="120"/>
+      <c r="D161" s="121"/>
       <c r="E161" s="17"/>
       <c r="F161" s="18"/>
       <c r="G161" s="19"/>
@@ -4695,48 +4708,48 @@
       <c r="Q161" s="17"/>
       <c r="R161" s="18"/>
       <c r="S161" s="19"/>
-      <c r="T161" s="33"/>
-      <c r="U161" s="34"/>
+      <c r="T161" s="31"/>
+      <c r="U161" s="32"/>
     </row>
     <row r="163" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="B163" s="62"/>
-      <c r="C163" s="62"/>
-      <c r="D163" s="62"/>
-      <c r="E163" s="62"/>
-      <c r="F163" s="62"/>
-      <c r="G163" s="62"/>
-      <c r="H163" s="62"/>
-      <c r="I163" s="62"/>
-      <c r="J163" s="62"/>
-      <c r="K163" s="62"/>
-      <c r="L163" s="62"/>
-      <c r="M163" s="62"/>
-      <c r="N163" s="62"/>
-      <c r="O163" s="62"/>
-      <c r="P163" s="62"/>
-      <c r="Q163" s="62"/>
-      <c r="R163" s="62"/>
-      <c r="S163" s="62"/>
-      <c r="T163" s="62"/>
-      <c r="U163" s="62"/>
+      <c r="A163" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B163" s="80"/>
+      <c r="C163" s="80"/>
+      <c r="D163" s="80"/>
+      <c r="E163" s="80"/>
+      <c r="F163" s="80"/>
+      <c r="G163" s="80"/>
+      <c r="H163" s="80"/>
+      <c r="I163" s="80"/>
+      <c r="J163" s="80"/>
+      <c r="K163" s="80"/>
+      <c r="L163" s="80"/>
+      <c r="M163" s="80"/>
+      <c r="N163" s="80"/>
+      <c r="O163" s="80"/>
+      <c r="P163" s="80"/>
+      <c r="Q163" s="80"/>
+      <c r="R163" s="80"/>
+      <c r="S163" s="80"/>
+      <c r="T163" s="80"/>
+      <c r="U163" s="80"/>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A165" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="B165" s="74"/>
-      <c r="C165" s="74"/>
-      <c r="D165" s="74"/>
-      <c r="E165" s="74"/>
-      <c r="F165" s="74"/>
-      <c r="G165" s="74"/>
-      <c r="H165" s="74"/>
+      <c r="A165" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B165" s="73"/>
+      <c r="C165" s="73"/>
+      <c r="D165" s="73"/>
+      <c r="E165" s="73"/>
+      <c r="F165" s="73"/>
+      <c r="G165" s="73"/>
+      <c r="H165" s="73"/>
       <c r="I165" s="22"/>
       <c r="J165" s="22"/>
       <c r="K165" s="22"/>
@@ -4775,79 +4788,79 @@
       <c r="U166" s="22"/>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A167" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="B167" s="75"/>
-      <c r="C167" s="75"/>
-      <c r="D167" s="75"/>
-      <c r="E167" s="75"/>
-      <c r="F167" s="75"/>
-      <c r="G167" s="75"/>
-      <c r="H167" s="75"/>
-      <c r="I167" s="75"/>
-      <c r="J167" s="75"/>
-      <c r="K167" s="75"/>
-      <c r="L167" s="75"/>
-      <c r="M167" s="75"/>
-      <c r="N167" s="75"/>
-      <c r="O167" s="75"/>
-      <c r="P167" s="75"/>
-      <c r="Q167" s="75"/>
-      <c r="R167" s="75"/>
-      <c r="S167" s="75"/>
-      <c r="T167" s="75"/>
-      <c r="U167" s="75"/>
+      <c r="A167" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B167" s="74"/>
+      <c r="C167" s="74"/>
+      <c r="D167" s="74"/>
+      <c r="E167" s="74"/>
+      <c r="F167" s="74"/>
+      <c r="G167" s="74"/>
+      <c r="H167" s="74"/>
+      <c r="I167" s="74"/>
+      <c r="J167" s="74"/>
+      <c r="K167" s="74"/>
+      <c r="L167" s="74"/>
+      <c r="M167" s="74"/>
+      <c r="N167" s="74"/>
+      <c r="O167" s="74"/>
+      <c r="P167" s="74"/>
+      <c r="Q167" s="74"/>
+      <c r="R167" s="74"/>
+      <c r="S167" s="74"/>
+      <c r="T167" s="74"/>
+      <c r="U167" s="74"/>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A168" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="B168" s="75"/>
-      <c r="C168" s="75"/>
-      <c r="D168" s="75"/>
-      <c r="E168" s="75"/>
-      <c r="F168" s="75"/>
-      <c r="G168" s="75"/>
-      <c r="H168" s="75"/>
-      <c r="I168" s="75"/>
-      <c r="J168" s="75"/>
-      <c r="K168" s="75"/>
-      <c r="L168" s="75"/>
-      <c r="M168" s="75"/>
-      <c r="N168" s="75"/>
-      <c r="O168" s="75"/>
-      <c r="P168" s="75"/>
-      <c r="Q168" s="75"/>
-      <c r="R168" s="75"/>
-      <c r="S168" s="75"/>
-      <c r="T168" s="75"/>
-      <c r="U168" s="75"/>
+      <c r="A168" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B168" s="74"/>
+      <c r="C168" s="74"/>
+      <c r="D168" s="74"/>
+      <c r="E168" s="74"/>
+      <c r="F168" s="74"/>
+      <c r="G168" s="74"/>
+      <c r="H168" s="74"/>
+      <c r="I168" s="74"/>
+      <c r="J168" s="74"/>
+      <c r="K168" s="74"/>
+      <c r="L168" s="74"/>
+      <c r="M168" s="74"/>
+      <c r="N168" s="74"/>
+      <c r="O168" s="74"/>
+      <c r="P168" s="74"/>
+      <c r="Q168" s="74"/>
+      <c r="R168" s="74"/>
+      <c r="S168" s="74"/>
+      <c r="T168" s="74"/>
+      <c r="U168" s="74"/>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A169" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B169" s="75"/>
-      <c r="C169" s="75"/>
-      <c r="D169" s="75"/>
-      <c r="E169" s="75"/>
-      <c r="F169" s="75"/>
-      <c r="G169" s="75"/>
-      <c r="H169" s="75"/>
-      <c r="I169" s="75"/>
-      <c r="J169" s="75"/>
-      <c r="K169" s="75"/>
-      <c r="L169" s="75"/>
-      <c r="M169" s="75"/>
-      <c r="N169" s="75"/>
-      <c r="O169" s="75"/>
-      <c r="P169" s="75"/>
-      <c r="Q169" s="75"/>
-      <c r="R169" s="75"/>
-      <c r="S169" s="75"/>
-      <c r="T169" s="75"/>
-      <c r="U169" s="75"/>
+      <c r="A169" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B169" s="74"/>
+      <c r="C169" s="74"/>
+      <c r="D169" s="74"/>
+      <c r="E169" s="74"/>
+      <c r="F169" s="74"/>
+      <c r="G169" s="74"/>
+      <c r="H169" s="74"/>
+      <c r="I169" s="74"/>
+      <c r="J169" s="74"/>
+      <c r="K169" s="74"/>
+      <c r="L169" s="74"/>
+      <c r="M169" s="74"/>
+      <c r="N169" s="74"/>
+      <c r="O169" s="74"/>
+      <c r="P169" s="74"/>
+      <c r="Q169" s="74"/>
+      <c r="R169" s="74"/>
+      <c r="S169" s="74"/>
+      <c r="T169" s="74"/>
+      <c r="U169" s="74"/>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="25"/>
@@ -4873,112 +4886,112 @@
       <c r="U170" s="22"/>
     </row>
     <row r="171" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="B171" s="102"/>
-      <c r="C171" s="102"/>
-      <c r="D171" s="102"/>
-      <c r="E171" s="102"/>
-      <c r="F171" s="102"/>
-      <c r="G171" s="102"/>
-      <c r="H171" s="102"/>
-      <c r="I171" s="102"/>
-      <c r="J171" s="102"/>
-      <c r="K171" s="102"/>
-      <c r="L171" s="102"/>
-      <c r="M171" s="102"/>
-      <c r="N171" s="102"/>
-      <c r="O171" s="102"/>
-      <c r="P171" s="102"/>
-      <c r="Q171" s="102"/>
-      <c r="R171" s="102"/>
-      <c r="S171" s="102"/>
-      <c r="T171" s="102"/>
-      <c r="U171" s="102"/>
+      <c r="A171" s="107" t="s">
+        <v>88</v>
+      </c>
+      <c r="B171" s="107"/>
+      <c r="C171" s="107"/>
+      <c r="D171" s="107"/>
+      <c r="E171" s="107"/>
+      <c r="F171" s="107"/>
+      <c r="G171" s="107"/>
+      <c r="H171" s="107"/>
+      <c r="I171" s="107"/>
+      <c r="J171" s="107"/>
+      <c r="K171" s="107"/>
+      <c r="L171" s="107"/>
+      <c r="M171" s="107"/>
+      <c r="N171" s="107"/>
+      <c r="O171" s="107"/>
+      <c r="P171" s="107"/>
+      <c r="Q171" s="107"/>
+      <c r="R171" s="107"/>
+      <c r="S171" s="107"/>
+      <c r="T171" s="107"/>
+      <c r="U171" s="107"/>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
     </row>
     <row r="173" spans="1:21" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="B173" s="62"/>
-      <c r="C173" s="62"/>
-      <c r="D173" s="62"/>
-      <c r="E173" s="62"/>
-      <c r="F173" s="62"/>
-      <c r="G173" s="62"/>
-      <c r="H173" s="62"/>
-      <c r="I173" s="62"/>
-      <c r="J173" s="62"/>
-      <c r="K173" s="62"/>
-      <c r="L173" s="62"/>
-      <c r="M173" s="62"/>
-      <c r="N173" s="62"/>
-      <c r="O173" s="62"/>
-      <c r="P173" s="62"/>
-      <c r="Q173" s="62"/>
-      <c r="R173" s="62"/>
-      <c r="S173" s="62"/>
-      <c r="T173" s="62"/>
-      <c r="U173" s="62"/>
+      <c r="A173" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B173" s="80"/>
+      <c r="C173" s="80"/>
+      <c r="D173" s="80"/>
+      <c r="E173" s="80"/>
+      <c r="F173" s="80"/>
+      <c r="G173" s="80"/>
+      <c r="H173" s="80"/>
+      <c r="I173" s="80"/>
+      <c r="J173" s="80"/>
+      <c r="K173" s="80"/>
+      <c r="L173" s="80"/>
+      <c r="M173" s="80"/>
+      <c r="N173" s="80"/>
+      <c r="O173" s="80"/>
+      <c r="P173" s="80"/>
+      <c r="Q173" s="80"/>
+      <c r="R173" s="80"/>
+      <c r="S173" s="80"/>
+      <c r="T173" s="80"/>
+      <c r="U173" s="80"/>
     </row>
     <row r="175" spans="1:21" ht="47.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="178" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E178" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="F178" s="63"/>
-      <c r="G178" s="63"/>
-      <c r="H178" s="63"/>
-      <c r="I178" s="63"/>
-      <c r="J178" s="63"/>
-      <c r="K178" s="63"/>
-      <c r="L178" s="63"/>
-      <c r="N178" s="101" t="s">
+      <c r="E178" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="O178" s="101"/>
-      <c r="P178" s="101"/>
-      <c r="Q178" s="101"/>
-      <c r="R178" s="101"/>
-      <c r="S178" s="101"/>
-      <c r="T178" s="101"/>
-      <c r="U178" s="101"/>
+      <c r="F178" s="62"/>
+      <c r="G178" s="62"/>
+      <c r="H178" s="62"/>
+      <c r="I178" s="62"/>
+      <c r="J178" s="62"/>
+      <c r="K178" s="62"/>
+      <c r="L178" s="62"/>
+      <c r="N178" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="O178" s="106"/>
+      <c r="P178" s="106"/>
+      <c r="Q178" s="106"/>
+      <c r="R178" s="106"/>
+      <c r="S178" s="106"/>
+      <c r="T178" s="106"/>
+      <c r="U178" s="106"/>
     </row>
     <row r="179" spans="1:21" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="181" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
-      <c r="E181" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="F181" s="63"/>
-      <c r="G181" s="63"/>
-      <c r="H181" s="63"/>
-      <c r="I181" s="63"/>
-      <c r="J181" s="63"/>
-      <c r="K181" s="63"/>
-      <c r="L181" s="63"/>
-      <c r="M181" s="63"/>
-      <c r="N181" s="63"/>
+      <c r="E181" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="F181" s="62"/>
+      <c r="G181" s="62"/>
+      <c r="H181" s="62"/>
+      <c r="I181" s="62"/>
+      <c r="J181" s="62"/>
+      <c r="K181" s="62"/>
+      <c r="L181" s="62"/>
+      <c r="M181" s="62"/>
+      <c r="N181" s="62"/>
       <c r="O181" s="7"/>
       <c r="P181" s="7"/>
     </row>
@@ -5019,7 +5032,7 @@
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.3">
@@ -5027,7 +5040,7 @@
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.3">
@@ -5035,7 +5048,7 @@
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.3">
@@ -5043,11 +5056,21 @@
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="403">
+    <mergeCell ref="A67:U67"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="K70:U70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="K71:U71"/>
+    <mergeCell ref="N153:P153"/>
+    <mergeCell ref="Q153:S153"/>
+    <mergeCell ref="T153:U153"/>
+    <mergeCell ref="T154:U154"/>
     <mergeCell ref="A155:D155"/>
     <mergeCell ref="A156:D156"/>
     <mergeCell ref="A157:D157"/>
@@ -5063,15 +5086,6 @@
     <mergeCell ref="A149:D149"/>
     <mergeCell ref="A153:D154"/>
     <mergeCell ref="E153:G153"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A69:H69"/>
     <mergeCell ref="A161:D161"/>
     <mergeCell ref="A159:D159"/>
     <mergeCell ref="A160:D160"/>
@@ -5096,30 +5110,7 @@
     <mergeCell ref="M62:U62"/>
     <mergeCell ref="A64:U64"/>
     <mergeCell ref="K153:M153"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="R74:U74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A66:U66"/>
     <mergeCell ref="H153:J153"/>
     <mergeCell ref="A142:D142"/>
     <mergeCell ref="A144:D145"/>
@@ -5130,9 +5121,11 @@
     <mergeCell ref="Q144:S144"/>
     <mergeCell ref="T144:U144"/>
     <mergeCell ref="T145:U145"/>
-    <mergeCell ref="N153:P153"/>
-    <mergeCell ref="Q153:S153"/>
-    <mergeCell ref="T153:U153"/>
+    <mergeCell ref="A122:U122"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
     <mergeCell ref="E178:L178"/>
     <mergeCell ref="N178:U178"/>
     <mergeCell ref="E132:G132"/>
@@ -5169,6 +5162,12 @@
     <mergeCell ref="O3:U3"/>
     <mergeCell ref="O2:U2"/>
     <mergeCell ref="O1:U1"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="R74:U74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A65:U65"/>
     <mergeCell ref="R73:U73"/>
     <mergeCell ref="A72:J72"/>
@@ -5178,13 +5177,31 @@
     <mergeCell ref="H73:J73"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="A66:U66"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="A67:U67"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="K70:U70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="K71:U71"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="A106:U106"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="C74:D74"/>
@@ -5197,16 +5214,6 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="C75:D75"/>
@@ -5229,6 +5236,19 @@
     <mergeCell ref="A169:U169"/>
     <mergeCell ref="A168:U168"/>
     <mergeCell ref="A167:U167"/>
+    <mergeCell ref="K132:M132"/>
+    <mergeCell ref="N132:P132"/>
+    <mergeCell ref="F127:U127"/>
+    <mergeCell ref="F126:U126"/>
+    <mergeCell ref="F125:U125"/>
+    <mergeCell ref="F128:U128"/>
+    <mergeCell ref="F129:U129"/>
+    <mergeCell ref="F130:U130"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A94:B94"/>
@@ -5239,12 +5259,16 @@
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
     <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="E93:G93"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="E75:G75"/>
     <mergeCell ref="E76:G76"/>
@@ -5279,8 +5303,6 @@
     <mergeCell ref="H92:J92"/>
     <mergeCell ref="H93:J93"/>
     <mergeCell ref="H94:J94"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E93:G93"/>
     <mergeCell ref="H75:J75"/>
     <mergeCell ref="H76:J76"/>
     <mergeCell ref="H77:J77"/>
@@ -5299,11 +5321,13 @@
     <mergeCell ref="H100:J100"/>
     <mergeCell ref="H101:J101"/>
     <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H103:J103"/>
     <mergeCell ref="H95:J95"/>
     <mergeCell ref="H96:J96"/>
     <mergeCell ref="H97:J97"/>
     <mergeCell ref="H98:J98"/>
     <mergeCell ref="H99:J99"/>
+    <mergeCell ref="K102:L102"/>
     <mergeCell ref="K75:L75"/>
     <mergeCell ref="K76:L76"/>
     <mergeCell ref="K77:L77"/>
@@ -5313,18 +5337,30 @@
     <mergeCell ref="K91:L91"/>
     <mergeCell ref="K92:L92"/>
     <mergeCell ref="K93:L93"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="K99:L99"/>
     <mergeCell ref="M80:N80"/>
     <mergeCell ref="M81:N81"/>
     <mergeCell ref="M82:N82"/>
     <mergeCell ref="M83:N83"/>
     <mergeCell ref="M84:N84"/>
     <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="M103:N103"/>
     <mergeCell ref="K94:L94"/>
     <mergeCell ref="K85:L85"/>
     <mergeCell ref="K86:L86"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="K88:L88"/>
     <mergeCell ref="K89:L89"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="K101:L101"/>
     <mergeCell ref="M90:N90"/>
     <mergeCell ref="M91:N91"/>
     <mergeCell ref="M92:N92"/>
@@ -5355,7 +5391,21 @@
     <mergeCell ref="O92:Q92"/>
     <mergeCell ref="O93:Q93"/>
     <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="R75:U75"/>
+    <mergeCell ref="R76:U76"/>
+    <mergeCell ref="R77:U77"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="R79:U79"/>
+    <mergeCell ref="O85:Q85"/>
+    <mergeCell ref="O86:Q86"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="O88:Q88"/>
     <mergeCell ref="O89:Q89"/>
+    <mergeCell ref="O80:Q80"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="O83:Q83"/>
+    <mergeCell ref="O84:Q84"/>
     <mergeCell ref="O75:Q75"/>
     <mergeCell ref="O76:Q76"/>
     <mergeCell ref="O77:Q77"/>
@@ -5375,20 +5425,8 @@
     <mergeCell ref="O6:T6"/>
     <mergeCell ref="H49:T49"/>
     <mergeCell ref="A73:B73"/>
-    <mergeCell ref="R75:U75"/>
-    <mergeCell ref="R76:U76"/>
-    <mergeCell ref="R77:U77"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="R79:U79"/>
-    <mergeCell ref="O85:Q85"/>
-    <mergeCell ref="O86:Q86"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="O88:Q88"/>
-    <mergeCell ref="O80:Q80"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="O83:Q83"/>
-    <mergeCell ref="O84:Q84"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
     <mergeCell ref="E104:G104"/>
     <mergeCell ref="H104:J104"/>
     <mergeCell ref="K104:L104"/>
@@ -5402,17 +5440,6 @@
     <mergeCell ref="R97:U97"/>
     <mergeCell ref="R98:U98"/>
     <mergeCell ref="R99:U99"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M102:N102"/>
     <mergeCell ref="R90:U90"/>
     <mergeCell ref="R91:U91"/>
     <mergeCell ref="R92:U92"/>
@@ -5422,19 +5449,6 @@
     <mergeCell ref="T135:U135"/>
     <mergeCell ref="T136:U136"/>
     <mergeCell ref="T140:U140"/>
-    <mergeCell ref="F127:U127"/>
-    <mergeCell ref="F126:U126"/>
-    <mergeCell ref="F125:U125"/>
-    <mergeCell ref="F128:U128"/>
-    <mergeCell ref="F129:U129"/>
-    <mergeCell ref="F130:U130"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="K132:M132"/>
-    <mergeCell ref="N132:P132"/>
-    <mergeCell ref="A122:U122"/>
-    <mergeCell ref="A106:U106"/>
     <mergeCell ref="T141:U141"/>
     <mergeCell ref="T142:U142"/>
     <mergeCell ref="T146:U146"/>
@@ -5450,7 +5464,6 @@
     <mergeCell ref="T158:U158"/>
     <mergeCell ref="T159:U159"/>
     <mergeCell ref="T160:U160"/>
-    <mergeCell ref="T154:U154"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:G4">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
@@ -5476,6 +5489,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11:H12">
       <formula1>#REF!</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4">
+      <formula1>#REF!</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6">
       <formula1>#REF!</formula1>
     </dataValidation>
@@ -5485,7 +5501,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H49:T49">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A4:G4"/>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5499,68 +5514,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="16.33203125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.0</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.0</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.0</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7.0</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5767,22 +5782,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCC28C77-A00F-42F3-8C92-34C136734ECD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4504c661-e3b6-4ab0-93d3-a30956898912"/>
-    <ds:schemaRef ds:uri="d2ce43d4-d6b1-4d1f-98ab-1d97c1733390"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCC28C77-A00F-42F3-8C92-34C136734ECD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/src/main/resources/Gradingtable.xlsx
+++ b/src/main/resources/Gradingtable.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="DieseArbeitsmappe"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonhard Baumann\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonhard Baumann\Documents\GitHub\ReviewYou\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Leistungsbericht" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
   <si>
     <t>Datum:</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Aus- und Fortbildung</t>
-  </si>
-  <si>
-    <t>Frau Bien</t>
   </si>
   <si>
     <t>POR-P6.11</t>
@@ -1288,17 +1285,53 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1321,66 +1354,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1435,275 +1435,272 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1983,1363 +1980,1353 @@
   </sheetPr>
   <dimension ref="A1:U191"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A154" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="T159" sqref="T159:U159"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" customWidth="true" style="1" width="3.75"/>
-    <col min="7" max="7" customWidth="true" style="1" width="4.5"/>
-    <col min="8" max="21" customWidth="true" style="1" width="3.75"/>
-    <col min="22" max="22" customWidth="true" style="1" width="2.33203125"/>
-    <col min="23" max="16384" style="1" width="10.58203125"/>
+    <col min="1" max="6" width="3.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" customWidth="1"/>
+    <col min="8" max="21" width="3.75" style="1" customWidth="1"/>
+    <col min="22" max="22" width="2.33203125" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104">
-        <v>43388</v>
-      </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="O1" s="63" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="169"/>
+      <c r="G1" s="169"/>
+      <c r="H1" s="169"/>
+      <c r="O1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
     </row>
     <row r="2" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103" t="str">
-        <f>IFERROR(VLOOKUP(A4,#REF!,3,TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="O2" s="63" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="O2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
     </row>
     <row r="3" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="103"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="O3" s="105" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="O3" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
     </row>
     <row r="4" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="O4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="O4" s="105" t="s">
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+    </row>
+    <row r="6" spans="1:21" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="O6" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="str">
-        <f>IFERROR(VLOOKUP(A4,#REF!,2,TRUE),"")</f>
-        <v/>
-      </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-    </row>
-    <row r="6" spans="1:21" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="O6" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
       <c r="U6" s="23"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="130" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="145" t="s">
+      <c r="B49" s="130"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="145"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="145"/>
-      <c r="E49" s="145"/>
-      <c r="F49" s="145"/>
-      <c r="G49" s="145"/>
-      <c r="H49" s="39" t="s">
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="7"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="39"/>
-      <c r="J49" s="39"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="39"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
-      <c r="S49" s="39"/>
-      <c r="T49" s="39"/>
-      <c r="U49" s="7"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="146" t="s">
+      <c r="B51" s="131"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="131"/>
+      <c r="K51" s="131"/>
+      <c r="L51" s="131"/>
+      <c r="M51" s="131"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A53" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="146"/>
-      <c r="C51" s="146"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="146"/>
-      <c r="F51" s="146"/>
-      <c r="G51" s="146"/>
-      <c r="H51" s="146"/>
-      <c r="I51" s="146"/>
-      <c r="J51" s="146"/>
-      <c r="K51" s="146"/>
-      <c r="L51" s="146"/>
-      <c r="M51" s="146"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="103" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" s="103"/>
-      <c r="C53" s="103"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="103"/>
-      <c r="H53" s="103"/>
-      <c r="I53" s="103"/>
-      <c r="J53" s="103"/>
-      <c r="K53" s="103"/>
-      <c r="L53" s="103"/>
-      <c r="M53" s="103"/>
-      <c r="N53" s="103"/>
-      <c r="O53" s="103"/>
-      <c r="P53" s="103"/>
-      <c r="Q53" s="103"/>
-      <c r="R53" s="103"/>
-      <c r="S53" s="103"/>
-      <c r="T53" s="103"/>
-      <c r="U53" s="103"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="99"/>
+      <c r="M53" s="99"/>
+      <c r="N53" s="99"/>
+      <c r="O53" s="99"/>
+      <c r="P53" s="99"/>
+      <c r="Q53" s="99"/>
+      <c r="R53" s="99"/>
+      <c r="S53" s="99"/>
+      <c r="T53" s="99"/>
+      <c r="U53" s="99"/>
     </row>
     <row r="54" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36" t="s">
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
+      <c r="U55" s="49"/>
+    </row>
+    <row r="56" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="132"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="133"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="134"/>
+      <c r="M56" s="135"/>
+      <c r="N56" s="135"/>
+      <c r="O56" s="135"/>
+      <c r="P56" s="135"/>
+      <c r="Q56" s="135"/>
+      <c r="R56" s="135"/>
+      <c r="S56" s="135"/>
+      <c r="T56" s="135"/>
+      <c r="U56" s="135"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A57" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="N55" s="36"/>
-      <c r="O55" s="36"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="36"/>
-      <c r="S55" s="36"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="37"/>
-    </row>
-    <row r="56" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="147"/>
-      <c r="B56" s="148"/>
-      <c r="C56" s="148"/>
-      <c r="D56" s="148"/>
-      <c r="E56" s="148"/>
-      <c r="F56" s="148"/>
-      <c r="G56" s="148"/>
-      <c r="H56" s="148"/>
-      <c r="I56" s="148"/>
-      <c r="J56" s="148"/>
-      <c r="K56" s="148"/>
-      <c r="L56" s="149"/>
-      <c r="M56" s="150"/>
-      <c r="N56" s="150"/>
-      <c r="O56" s="150"/>
-      <c r="P56" s="150"/>
-      <c r="Q56" s="150"/>
-      <c r="R56" s="150"/>
-      <c r="S56" s="150"/>
-      <c r="T56" s="150"/>
-      <c r="U56" s="150"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="151" t="s">
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="137"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="137"/>
+      <c r="J57" s="137"/>
+      <c r="K57" s="137"/>
+      <c r="L57" s="137"/>
+      <c r="M57" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="152"/>
-      <c r="C57" s="152"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="152"/>
-      <c r="F57" s="152"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="152"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="152"/>
-      <c r="K57" s="152"/>
-      <c r="L57" s="152"/>
-      <c r="M57" s="152" t="s">
+      <c r="N57" s="140"/>
+      <c r="O57" s="140"/>
+      <c r="P57" s="140"/>
+      <c r="Q57" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="N57" s="154"/>
-      <c r="O57" s="154"/>
-      <c r="P57" s="154"/>
-      <c r="Q57" s="152" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="154"/>
-      <c r="S57" s="154"/>
-      <c r="T57" s="154"/>
-      <c r="U57" s="155"/>
+      <c r="R57" s="140"/>
+      <c r="S57" s="140"/>
+      <c r="T57" s="140"/>
+      <c r="U57" s="142"/>
     </row>
     <row r="58" spans="1:21" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="153"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="136"/>
-      <c r="F58" s="136"/>
-      <c r="G58" s="136"/>
-      <c r="H58" s="136"/>
-      <c r="I58" s="136"/>
-      <c r="J58" s="136"/>
-      <c r="K58" s="136"/>
-      <c r="L58" s="136"/>
-      <c r="M58" s="135"/>
-      <c r="N58" s="136"/>
-      <c r="O58" s="136"/>
-      <c r="P58" s="136"/>
-      <c r="Q58" s="135"/>
-      <c r="R58" s="136"/>
-      <c r="S58" s="136"/>
-      <c r="T58" s="136"/>
-      <c r="U58" s="137"/>
+      <c r="A58" s="138"/>
+      <c r="B58" s="139"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="139"/>
+      <c r="I58" s="139"/>
+      <c r="J58" s="139"/>
+      <c r="K58" s="139"/>
+      <c r="L58" s="139"/>
+      <c r="M58" s="141"/>
+      <c r="N58" s="139"/>
+      <c r="O58" s="139"/>
+      <c r="P58" s="139"/>
+      <c r="Q58" s="141"/>
+      <c r="R58" s="139"/>
+      <c r="S58" s="139"/>
+      <c r="T58" s="139"/>
+      <c r="U58" s="143"/>
     </row>
     <row r="59" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="48"/>
+      <c r="S60" s="48"/>
+      <c r="T60" s="48"/>
+      <c r="U60" s="49"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A61" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="36"/>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="36"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="37"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="128" t="s">
+      <c r="B61" s="145"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="129"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="129"/>
-      <c r="F61" s="130" t="s">
+      <c r="G61" s="145"/>
+      <c r="H61" s="145"/>
+      <c r="I61" s="145"/>
+      <c r="J61" s="145"/>
+      <c r="K61" s="145"/>
+      <c r="L61" s="145"/>
+      <c r="M61" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="129"/>
-      <c r="H61" s="129"/>
-      <c r="I61" s="129"/>
-      <c r="J61" s="129"/>
-      <c r="K61" s="129"/>
-      <c r="L61" s="129"/>
-      <c r="M61" s="130" t="s">
-        <v>24</v>
-      </c>
-      <c r="N61" s="129"/>
-      <c r="O61" s="129"/>
-      <c r="P61" s="129"/>
-      <c r="Q61" s="129"/>
-      <c r="R61" s="129"/>
-      <c r="S61" s="129"/>
-      <c r="T61" s="129"/>
-      <c r="U61" s="131"/>
+      <c r="N61" s="145"/>
+      <c r="O61" s="145"/>
+      <c r="P61" s="145"/>
+      <c r="Q61" s="145"/>
+      <c r="R61" s="145"/>
+      <c r="S61" s="145"/>
+      <c r="T61" s="145"/>
+      <c r="U61" s="147"/>
     </row>
     <row r="62" spans="1:21" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="132"/>
-      <c r="B62" s="133"/>
-      <c r="C62" s="133"/>
-      <c r="D62" s="133"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="134"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="133"/>
-      <c r="I62" s="133"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="133"/>
-      <c r="L62" s="133"/>
-      <c r="M62" s="135"/>
-      <c r="N62" s="136"/>
-      <c r="O62" s="136"/>
-      <c r="P62" s="136"/>
-      <c r="Q62" s="136"/>
-      <c r="R62" s="136"/>
-      <c r="S62" s="136"/>
-      <c r="T62" s="136"/>
-      <c r="U62" s="137"/>
+      <c r="A62" s="148"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="149"/>
+      <c r="E62" s="149"/>
+      <c r="F62" s="150"/>
+      <c r="G62" s="149"/>
+      <c r="H62" s="149"/>
+      <c r="I62" s="149"/>
+      <c r="J62" s="149"/>
+      <c r="K62" s="149"/>
+      <c r="L62" s="149"/>
+      <c r="M62" s="141"/>
+      <c r="N62" s="139"/>
+      <c r="O62" s="139"/>
+      <c r="P62" s="139"/>
+      <c r="Q62" s="139"/>
+      <c r="R62" s="139"/>
+      <c r="S62" s="139"/>
+      <c r="T62" s="139"/>
+      <c r="U62" s="143"/>
     </row>
     <row r="63" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="138" t="s">
+      <c r="A64" s="151" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="152"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="152"/>
+      <c r="E64" s="152"/>
+      <c r="F64" s="152"/>
+      <c r="G64" s="152"/>
+      <c r="H64" s="152"/>
+      <c r="I64" s="152"/>
+      <c r="J64" s="152"/>
+      <c r="K64" s="152"/>
+      <c r="L64" s="152"/>
+      <c r="M64" s="152"/>
+      <c r="N64" s="152"/>
+      <c r="O64" s="152"/>
+      <c r="P64" s="152"/>
+      <c r="Q64" s="152"/>
+      <c r="R64" s="152"/>
+      <c r="S64" s="152"/>
+      <c r="T64" s="152"/>
+      <c r="U64" s="153"/>
+    </row>
+    <row r="65" spans="1:21" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="87"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="88"/>
+      <c r="F65" s="88"/>
+      <c r="G65" s="88"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="88"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="88"/>
+      <c r="M65" s="88"/>
+      <c r="N65" s="88"/>
+      <c r="O65" s="88"/>
+      <c r="P65" s="88"/>
+      <c r="Q65" s="88"/>
+      <c r="R65" s="88"/>
+      <c r="S65" s="88"/>
+      <c r="T65" s="88"/>
+      <c r="U65" s="89"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A66" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="B64" s="139"/>
-      <c r="C64" s="139"/>
-      <c r="D64" s="139"/>
-      <c r="E64" s="139"/>
-      <c r="F64" s="139"/>
-      <c r="G64" s="139"/>
-      <c r="H64" s="139"/>
-      <c r="I64" s="139"/>
-      <c r="J64" s="139"/>
-      <c r="K64" s="139"/>
-      <c r="L64" s="139"/>
-      <c r="M64" s="139"/>
-      <c r="N64" s="139"/>
-      <c r="O64" s="139"/>
-      <c r="P64" s="139"/>
-      <c r="Q64" s="139"/>
-      <c r="R64" s="139"/>
-      <c r="S64" s="139"/>
-      <c r="T64" s="139"/>
-      <c r="U64" s="140"/>
-    </row>
-    <row r="65" spans="1:21" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="91"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="92"/>
-      <c r="G65" s="92"/>
-      <c r="H65" s="92"/>
-      <c r="I65" s="92"/>
-      <c r="J65" s="92"/>
-      <c r="K65" s="92"/>
-      <c r="L65" s="92"/>
-      <c r="M65" s="92"/>
-      <c r="N65" s="92"/>
-      <c r="O65" s="92"/>
-      <c r="P65" s="92"/>
-      <c r="Q65" s="92"/>
-      <c r="R65" s="92"/>
-      <c r="S65" s="92"/>
-      <c r="T65" s="92"/>
-      <c r="U65" s="93"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="141" t="s">
+      <c r="B66" s="124"/>
+      <c r="C66" s="124"/>
+      <c r="D66" s="124"/>
+      <c r="E66" s="124"/>
+      <c r="F66" s="124"/>
+      <c r="G66" s="124"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="124"/>
+      <c r="J66" s="124"/>
+      <c r="K66" s="124"/>
+      <c r="L66" s="124"/>
+      <c r="M66" s="124"/>
+      <c r="N66" s="124"/>
+      <c r="O66" s="124"/>
+      <c r="P66" s="124"/>
+      <c r="Q66" s="124"/>
+      <c r="R66" s="124"/>
+      <c r="S66" s="124"/>
+      <c r="T66" s="124"/>
+      <c r="U66" s="125"/>
+    </row>
+    <row r="67" spans="1:21" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="87"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="88"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="88"/>
+      <c r="L67" s="88"/>
+      <c r="M67" s="88"/>
+      <c r="N67" s="88"/>
+      <c r="O67" s="88"/>
+      <c r="P67" s="88"/>
+      <c r="Q67" s="88"/>
+      <c r="R67" s="88"/>
+      <c r="S67" s="88"/>
+      <c r="T67" s="88"/>
+      <c r="U67" s="89"/>
+    </row>
+    <row r="68" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="142"/>
-      <c r="C66" s="142"/>
-      <c r="D66" s="142"/>
-      <c r="E66" s="142"/>
-      <c r="F66" s="142"/>
-      <c r="G66" s="142"/>
-      <c r="H66" s="142"/>
-      <c r="I66" s="142"/>
-      <c r="J66" s="142"/>
-      <c r="K66" s="142"/>
-      <c r="L66" s="142"/>
-      <c r="M66" s="142"/>
-      <c r="N66" s="142"/>
-      <c r="O66" s="142"/>
-      <c r="P66" s="142"/>
-      <c r="Q66" s="142"/>
-      <c r="R66" s="142"/>
-      <c r="S66" s="142"/>
-      <c r="T66" s="142"/>
-      <c r="U66" s="143"/>
-    </row>
-    <row r="67" spans="1:21" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="91"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="92"/>
-      <c r="G67" s="92"/>
-      <c r="H67" s="92"/>
-      <c r="I67" s="92"/>
-      <c r="J67" s="92"/>
-      <c r="K67" s="92"/>
-      <c r="L67" s="92"/>
-      <c r="M67" s="92"/>
-      <c r="N67" s="92"/>
-      <c r="O67" s="92"/>
-      <c r="P67" s="92"/>
-      <c r="Q67" s="92"/>
-      <c r="R67" s="92"/>
-      <c r="S67" s="92"/>
-      <c r="T67" s="92"/>
-      <c r="U67" s="93"/>
-    </row>
-    <row r="68" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="156" t="s">
+      <c r="B68" s="85"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="85"/>
+      <c r="E68" s="85"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="85"/>
+      <c r="H68" s="85"/>
+      <c r="I68" s="85"/>
+      <c r="J68" s="85"/>
+      <c r="K68" s="85"/>
+      <c r="L68" s="85"/>
+      <c r="M68" s="85"/>
+      <c r="N68" s="85"/>
+      <c r="O68" s="85"/>
+      <c r="P68" s="85"/>
+      <c r="Q68" s="155"/>
+      <c r="R68" s="155"/>
+      <c r="S68" s="155"/>
+      <c r="T68" s="155"/>
+      <c r="U68" s="156"/>
+    </row>
+    <row r="69" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="86"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="86"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="86"/>
-      <c r="H68" s="86"/>
-      <c r="I68" s="86"/>
-      <c r="J68" s="86"/>
-      <c r="K68" s="86"/>
-      <c r="L68" s="86"/>
-      <c r="M68" s="86"/>
-      <c r="N68" s="86"/>
-      <c r="O68" s="86"/>
-      <c r="P68" s="86"/>
-      <c r="Q68" s="157"/>
-      <c r="R68" s="157"/>
-      <c r="S68" s="157"/>
-      <c r="T68" s="157"/>
-      <c r="U68" s="158"/>
-    </row>
-    <row r="69" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="91" t="s">
+      <c r="B69" s="88"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="88"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="88"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
+      <c r="Q69" s="157"/>
+      <c r="R69" s="157"/>
+      <c r="S69" s="157"/>
+      <c r="T69" s="157"/>
+      <c r="U69" s="158"/>
+    </row>
+    <row r="70" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="92"/>
-      <c r="G69" s="92"/>
-      <c r="H69" s="92"/>
-      <c r="Q69" s="159"/>
-      <c r="R69" s="159"/>
-      <c r="S69" s="159"/>
-      <c r="T69" s="159"/>
-      <c r="U69" s="160"/>
-    </row>
-    <row r="70" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="161" t="s">
+      <c r="B70" s="160"/>
+      <c r="C70" s="160"/>
+      <c r="D70" s="160"/>
+      <c r="E70" s="160"/>
+      <c r="F70" s="160"/>
+      <c r="G70" s="160"/>
+      <c r="H70" s="160"/>
+      <c r="I70" s="160"/>
+      <c r="J70" s="161"/>
+      <c r="K70" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="162"/>
-      <c r="C70" s="162"/>
-      <c r="D70" s="162"/>
-      <c r="E70" s="162"/>
-      <c r="F70" s="162"/>
-      <c r="G70" s="162"/>
-      <c r="H70" s="162"/>
-      <c r="I70" s="162"/>
-      <c r="J70" s="163"/>
-      <c r="K70" s="161" t="s">
+      <c r="L70" s="160"/>
+      <c r="M70" s="160"/>
+      <c r="N70" s="160"/>
+      <c r="O70" s="160"/>
+      <c r="P70" s="160"/>
+      <c r="Q70" s="160"/>
+      <c r="R70" s="160"/>
+      <c r="S70" s="160"/>
+      <c r="T70" s="160"/>
+      <c r="U70" s="161"/>
+    </row>
+    <row r="71" spans="1:21" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="162"/>
+      <c r="B71" s="163"/>
+      <c r="C71" s="163"/>
+      <c r="D71" s="163"/>
+      <c r="E71" s="163"/>
+      <c r="F71" s="163"/>
+      <c r="G71" s="163"/>
+      <c r="H71" s="163"/>
+      <c r="I71" s="163"/>
+      <c r="J71" s="164"/>
+      <c r="K71" s="165"/>
+      <c r="L71" s="166"/>
+      <c r="M71" s="166"/>
+      <c r="N71" s="166"/>
+      <c r="O71" s="166"/>
+      <c r="P71" s="166"/>
+      <c r="Q71" s="166"/>
+      <c r="R71" s="166"/>
+      <c r="S71" s="166"/>
+      <c r="T71" s="166"/>
+      <c r="U71" s="167"/>
+    </row>
+    <row r="72" spans="1:21" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="L70" s="162"/>
-      <c r="M70" s="162"/>
-      <c r="N70" s="162"/>
-      <c r="O70" s="162"/>
-      <c r="P70" s="162"/>
-      <c r="Q70" s="162"/>
-      <c r="R70" s="162"/>
-      <c r="S70" s="162"/>
-      <c r="T70" s="162"/>
-      <c r="U70" s="163"/>
-    </row>
-    <row r="71" spans="1:21" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="164"/>
-      <c r="B71" s="165"/>
-      <c r="C71" s="165"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="165"/>
-      <c r="F71" s="165"/>
-      <c r="G71" s="165"/>
-      <c r="H71" s="165"/>
-      <c r="I71" s="165"/>
-      <c r="J71" s="166"/>
-      <c r="K71" s="167"/>
-      <c r="L71" s="168"/>
-      <c r="M71" s="168"/>
-      <c r="N71" s="168"/>
-      <c r="O71" s="168"/>
-      <c r="P71" s="168"/>
-      <c r="Q71" s="168"/>
-      <c r="R71" s="168"/>
-      <c r="S71" s="168"/>
-      <c r="T71" s="168"/>
-      <c r="U71" s="169"/>
-    </row>
-    <row r="72" spans="1:21" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="97" t="s">
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="95"/>
+      <c r="K72" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="98"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="98"/>
-      <c r="E72" s="98"/>
-      <c r="F72" s="98"/>
-      <c r="G72" s="98"/>
-      <c r="H72" s="98"/>
-      <c r="I72" s="98"/>
-      <c r="J72" s="99"/>
-      <c r="K72" s="97" t="s">
+      <c r="L72" s="94"/>
+      <c r="M72" s="94"/>
+      <c r="N72" s="94"/>
+      <c r="O72" s="94"/>
+      <c r="P72" s="94"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="94"/>
+      <c r="S72" s="94"/>
+      <c r="T72" s="94"/>
+      <c r="U72" s="95"/>
+    </row>
+    <row r="73" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="53"/>
+      <c r="C73" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="L72" s="98"/>
-      <c r="M72" s="98"/>
-      <c r="N72" s="98"/>
-      <c r="O72" s="98"/>
-      <c r="P72" s="98"/>
-      <c r="Q72" s="98"/>
-      <c r="R72" s="98"/>
-      <c r="S72" s="98"/>
-      <c r="T72" s="98"/>
-      <c r="U72" s="99"/>
-    </row>
-    <row r="73" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B73" s="41"/>
-      <c r="C73" s="100" t="s">
+      <c r="D73" s="53"/>
+      <c r="E73" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="41"/>
-      <c r="E73" s="100" t="s">
+      <c r="F73" s="97"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="101"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="100" t="s">
+      <c r="I73" s="97"/>
+      <c r="J73" s="98"/>
+      <c r="K73" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="L73" s="53"/>
+      <c r="M73" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="N73" s="53"/>
+      <c r="O73" s="96" t="s">
+        <v>33</v>
+      </c>
+      <c r="P73" s="97"/>
+      <c r="Q73" s="53"/>
+      <c r="R73" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="I73" s="101"/>
-      <c r="J73" s="102"/>
-      <c r="K73" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="L73" s="41"/>
-      <c r="M73" s="100" t="s">
-        <v>33</v>
-      </c>
-      <c r="N73" s="41"/>
-      <c r="O73" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="P73" s="101"/>
-      <c r="Q73" s="41"/>
-      <c r="R73" s="94" t="s">
-        <v>36</v>
-      </c>
-      <c r="S73" s="95"/>
-      <c r="T73" s="95"/>
-      <c r="U73" s="96"/>
+      <c r="S73" s="91"/>
+      <c r="T73" s="91"/>
+      <c r="U73" s="92"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="82"/>
-      <c r="B74" s="83"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="87"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="86"/>
-      <c r="J74" s="144"/>
-      <c r="K74" s="82"/>
-      <c r="L74" s="83"/>
-      <c r="M74" s="84"/>
-      <c r="N74" s="83"/>
-      <c r="O74" s="85"/>
-      <c r="P74" s="86"/>
-      <c r="Q74" s="87"/>
-      <c r="R74" s="88"/>
-      <c r="S74" s="89"/>
-      <c r="T74" s="89"/>
-      <c r="U74" s="90"/>
+      <c r="A74" s="81"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="82"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="84"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="126"/>
+      <c r="K74" s="81"/>
+      <c r="L74" s="82"/>
+      <c r="M74" s="83"/>
+      <c r="N74" s="82"/>
+      <c r="O74" s="84"/>
+      <c r="P74" s="85"/>
+      <c r="Q74" s="86"/>
+      <c r="R74" s="127"/>
+      <c r="S74" s="128"/>
+      <c r="T74" s="128"/>
+      <c r="U74" s="129"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="60"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="56"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="55"/>
       <c r="J75" s="61"/>
       <c r="K75" s="60"/>
-      <c r="L75" s="59"/>
-      <c r="M75" s="58"/>
-      <c r="N75" s="59"/>
-      <c r="O75" s="55"/>
-      <c r="P75" s="56"/>
-      <c r="Q75" s="57"/>
-      <c r="R75" s="49"/>
-      <c r="S75" s="50"/>
-      <c r="T75" s="50"/>
-      <c r="U75" s="51"/>
+      <c r="L75" s="58"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="58"/>
+      <c r="O75" s="54"/>
+      <c r="P75" s="55"/>
+      <c r="Q75" s="56"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="36"/>
+      <c r="T75" s="36"/>
+      <c r="U75" s="37"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="60"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="56"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="55"/>
       <c r="J76" s="61"/>
       <c r="K76" s="60"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="58"/>
-      <c r="N76" s="59"/>
-      <c r="O76" s="55"/>
-      <c r="P76" s="56"/>
-      <c r="Q76" s="57"/>
-      <c r="R76" s="49"/>
-      <c r="S76" s="50"/>
-      <c r="T76" s="50"/>
-      <c r="U76" s="51"/>
+      <c r="L76" s="58"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="58"/>
+      <c r="O76" s="54"/>
+      <c r="P76" s="55"/>
+      <c r="Q76" s="56"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="36"/>
+      <c r="U76" s="37"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="60"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="56"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="58"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="55"/>
       <c r="J77" s="61"/>
       <c r="K77" s="60"/>
-      <c r="L77" s="59"/>
-      <c r="M77" s="58"/>
-      <c r="N77" s="59"/>
-      <c r="O77" s="55"/>
-      <c r="P77" s="56"/>
-      <c r="Q77" s="57"/>
-      <c r="R77" s="49"/>
-      <c r="S77" s="50"/>
-      <c r="T77" s="50"/>
-      <c r="U77" s="51"/>
+      <c r="L77" s="58"/>
+      <c r="M77" s="57"/>
+      <c r="N77" s="58"/>
+      <c r="O77" s="54"/>
+      <c r="P77" s="55"/>
+      <c r="Q77" s="56"/>
+      <c r="R77" s="35"/>
+      <c r="S77" s="36"/>
+      <c r="T77" s="36"/>
+      <c r="U77" s="37"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="60"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="58"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="56"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
       <c r="J78" s="61"/>
       <c r="K78" s="60"/>
-      <c r="L78" s="59"/>
-      <c r="M78" s="58"/>
-      <c r="N78" s="59"/>
-      <c r="O78" s="55"/>
-      <c r="P78" s="56"/>
-      <c r="Q78" s="57"/>
-      <c r="R78" s="49"/>
-      <c r="S78" s="50"/>
-      <c r="T78" s="50"/>
-      <c r="U78" s="51"/>
+      <c r="L78" s="58"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="58"/>
+      <c r="O78" s="54"/>
+      <c r="P78" s="55"/>
+      <c r="Q78" s="56"/>
+      <c r="R78" s="35"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="36"/>
+      <c r="U78" s="37"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="60"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="58"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="56"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="58"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="55"/>
       <c r="J79" s="61"/>
       <c r="K79" s="60"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="58"/>
-      <c r="N79" s="59"/>
-      <c r="O79" s="55"/>
-      <c r="P79" s="56"/>
-      <c r="Q79" s="57"/>
-      <c r="R79" s="49"/>
-      <c r="S79" s="50"/>
-      <c r="T79" s="50"/>
-      <c r="U79" s="51"/>
+      <c r="L79" s="58"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="58"/>
+      <c r="O79" s="54"/>
+      <c r="P79" s="55"/>
+      <c r="Q79" s="56"/>
+      <c r="R79" s="35"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="36"/>
+      <c r="U79" s="37"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="60"/>
-      <c r="B80" s="59"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="56"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="55"/>
       <c r="J80" s="61"/>
       <c r="K80" s="60"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="58"/>
-      <c r="N80" s="59"/>
-      <c r="O80" s="55"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="57"/>
-      <c r="R80" s="49"/>
-      <c r="S80" s="50"/>
-      <c r="T80" s="50"/>
-      <c r="U80" s="51"/>
+      <c r="L80" s="58"/>
+      <c r="M80" s="57"/>
+      <c r="N80" s="58"/>
+      <c r="O80" s="54"/>
+      <c r="P80" s="55"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="35"/>
+      <c r="S80" s="36"/>
+      <c r="T80" s="36"/>
+      <c r="U80" s="37"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="60"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="58"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="56"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="58"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="55"/>
       <c r="J81" s="61"/>
       <c r="K81" s="60"/>
-      <c r="L81" s="59"/>
-      <c r="M81" s="58"/>
-      <c r="N81" s="59"/>
-      <c r="O81" s="55"/>
-      <c r="P81" s="56"/>
-      <c r="Q81" s="57"/>
-      <c r="R81" s="49"/>
-      <c r="S81" s="50"/>
-      <c r="T81" s="50"/>
-      <c r="U81" s="51"/>
+      <c r="L81" s="58"/>
+      <c r="M81" s="57"/>
+      <c r="N81" s="58"/>
+      <c r="O81" s="54"/>
+      <c r="P81" s="55"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="36"/>
+      <c r="T81" s="36"/>
+      <c r="U81" s="37"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="60"/>
-      <c r="B82" s="59"/>
-      <c r="C82" s="58"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="56"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="55"/>
       <c r="J82" s="61"/>
       <c r="K82" s="60"/>
-      <c r="L82" s="59"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="59"/>
-      <c r="O82" s="55"/>
-      <c r="P82" s="56"/>
-      <c r="Q82" s="57"/>
-      <c r="R82" s="49"/>
-      <c r="S82" s="50"/>
-      <c r="T82" s="50"/>
-      <c r="U82" s="51"/>
+      <c r="L82" s="58"/>
+      <c r="M82" s="57"/>
+      <c r="N82" s="58"/>
+      <c r="O82" s="54"/>
+      <c r="P82" s="55"/>
+      <c r="Q82" s="56"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="36"/>
+      <c r="T82" s="36"/>
+      <c r="U82" s="37"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="60"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="58"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="56"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="55"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="55"/>
       <c r="J83" s="61"/>
       <c r="K83" s="60"/>
-      <c r="L83" s="59"/>
-      <c r="M83" s="58"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="55"/>
-      <c r="P83" s="56"/>
-      <c r="Q83" s="57"/>
-      <c r="R83" s="49"/>
-      <c r="S83" s="50"/>
-      <c r="T83" s="50"/>
-      <c r="U83" s="51"/>
+      <c r="L83" s="58"/>
+      <c r="M83" s="57"/>
+      <c r="N83" s="58"/>
+      <c r="O83" s="54"/>
+      <c r="P83" s="55"/>
+      <c r="Q83" s="56"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="36"/>
+      <c r="T83" s="36"/>
+      <c r="U83" s="37"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="60"/>
-      <c r="B84" s="59"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="59"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="56"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="55"/>
       <c r="J84" s="61"/>
       <c r="K84" s="60"/>
-      <c r="L84" s="59"/>
-      <c r="M84" s="58"/>
-      <c r="N84" s="59"/>
-      <c r="O84" s="55"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="57"/>
-      <c r="R84" s="49"/>
-      <c r="S84" s="50"/>
-      <c r="T84" s="50"/>
-      <c r="U84" s="51"/>
+      <c r="L84" s="58"/>
+      <c r="M84" s="57"/>
+      <c r="N84" s="58"/>
+      <c r="O84" s="54"/>
+      <c r="P84" s="55"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="35"/>
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="37"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="60"/>
-      <c r="B85" s="59"/>
-      <c r="C85" s="58"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="56"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="55"/>
       <c r="J85" s="61"/>
       <c r="K85" s="60"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="58"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="55"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="57"/>
-      <c r="R85" s="49"/>
-      <c r="S85" s="50"/>
-      <c r="T85" s="50"/>
-      <c r="U85" s="51"/>
+      <c r="L85" s="58"/>
+      <c r="M85" s="57"/>
+      <c r="N85" s="58"/>
+      <c r="O85" s="54"/>
+      <c r="P85" s="55"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="36"/>
+      <c r="T85" s="36"/>
+      <c r="U85" s="37"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="60"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="58"/>
-      <c r="D86" s="59"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="56"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="54"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="55"/>
       <c r="J86" s="61"/>
       <c r="K86" s="60"/>
-      <c r="L86" s="59"/>
-      <c r="M86" s="58"/>
-      <c r="N86" s="59"/>
-      <c r="O86" s="55"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="57"/>
-      <c r="R86" s="49"/>
-      <c r="S86" s="50"/>
-      <c r="T86" s="50"/>
-      <c r="U86" s="51"/>
+      <c r="L86" s="58"/>
+      <c r="M86" s="57"/>
+      <c r="N86" s="58"/>
+      <c r="O86" s="54"/>
+      <c r="P86" s="55"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="36"/>
+      <c r="T86" s="36"/>
+      <c r="U86" s="37"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="60"/>
-      <c r="B87" s="59"/>
-      <c r="C87" s="58"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="56"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="55"/>
       <c r="J87" s="61"/>
       <c r="K87" s="60"/>
-      <c r="L87" s="59"/>
-      <c r="M87" s="58"/>
-      <c r="N87" s="59"/>
-      <c r="O87" s="55"/>
-      <c r="P87" s="56"/>
-      <c r="Q87" s="57"/>
-      <c r="R87" s="49"/>
-      <c r="S87" s="50"/>
-      <c r="T87" s="50"/>
-      <c r="U87" s="51"/>
+      <c r="L87" s="58"/>
+      <c r="M87" s="57"/>
+      <c r="N87" s="58"/>
+      <c r="O87" s="54"/>
+      <c r="P87" s="55"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="36"/>
+      <c r="U87" s="37"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="60"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="56"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="55"/>
       <c r="J88" s="61"/>
       <c r="K88" s="60"/>
-      <c r="L88" s="59"/>
-      <c r="M88" s="58"/>
-      <c r="N88" s="59"/>
-      <c r="O88" s="55"/>
-      <c r="P88" s="56"/>
-      <c r="Q88" s="57"/>
-      <c r="R88" s="49"/>
-      <c r="S88" s="50"/>
-      <c r="T88" s="50"/>
-      <c r="U88" s="51"/>
+      <c r="L88" s="58"/>
+      <c r="M88" s="57"/>
+      <c r="N88" s="58"/>
+      <c r="O88" s="54"/>
+      <c r="P88" s="55"/>
+      <c r="Q88" s="56"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="36"/>
+      <c r="U88" s="37"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="60"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="58"/>
-      <c r="D89" s="59"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="56"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="55"/>
       <c r="J89" s="61"/>
       <c r="K89" s="60"/>
-      <c r="L89" s="59"/>
-      <c r="M89" s="58"/>
-      <c r="N89" s="59"/>
-      <c r="O89" s="55"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="57"/>
-      <c r="R89" s="49"/>
-      <c r="S89" s="50"/>
-      <c r="T89" s="50"/>
-      <c r="U89" s="51"/>
+      <c r="L89" s="58"/>
+      <c r="M89" s="57"/>
+      <c r="N89" s="58"/>
+      <c r="O89" s="54"/>
+      <c r="P89" s="55"/>
+      <c r="Q89" s="56"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="37"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="60"/>
-      <c r="B90" s="59"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="56"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="55"/>
       <c r="J90" s="61"/>
       <c r="K90" s="60"/>
-      <c r="L90" s="59"/>
-      <c r="M90" s="58"/>
-      <c r="N90" s="59"/>
-      <c r="O90" s="55"/>
-      <c r="P90" s="56"/>
-      <c r="Q90" s="57"/>
-      <c r="R90" s="49"/>
-      <c r="S90" s="50"/>
-      <c r="T90" s="50"/>
-      <c r="U90" s="51"/>
+      <c r="L90" s="58"/>
+      <c r="M90" s="57"/>
+      <c r="N90" s="58"/>
+      <c r="O90" s="54"/>
+      <c r="P90" s="55"/>
+      <c r="Q90" s="56"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="36"/>
+      <c r="U90" s="37"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="60"/>
-      <c r="B91" s="59"/>
-      <c r="C91" s="58"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="56"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="55"/>
       <c r="J91" s="61"/>
       <c r="K91" s="60"/>
-      <c r="L91" s="59"/>
-      <c r="M91" s="58"/>
-      <c r="N91" s="59"/>
-      <c r="O91" s="55"/>
-      <c r="P91" s="56"/>
-      <c r="Q91" s="57"/>
-      <c r="R91" s="49"/>
-      <c r="S91" s="50"/>
-      <c r="T91" s="50"/>
-      <c r="U91" s="51"/>
+      <c r="L91" s="58"/>
+      <c r="M91" s="57"/>
+      <c r="N91" s="58"/>
+      <c r="O91" s="54"/>
+      <c r="P91" s="55"/>
+      <c r="Q91" s="56"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="36"/>
+      <c r="U91" s="37"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="60"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="58"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="57"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="56"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="58"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="55"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="55"/>
       <c r="J92" s="61"/>
       <c r="K92" s="60"/>
-      <c r="L92" s="59"/>
-      <c r="M92" s="58"/>
-      <c r="N92" s="59"/>
-      <c r="O92" s="55"/>
-      <c r="P92" s="56"/>
-      <c r="Q92" s="57"/>
-      <c r="R92" s="49"/>
-      <c r="S92" s="50"/>
-      <c r="T92" s="50"/>
-      <c r="U92" s="51"/>
+      <c r="L92" s="58"/>
+      <c r="M92" s="57"/>
+      <c r="N92" s="58"/>
+      <c r="O92" s="54"/>
+      <c r="P92" s="55"/>
+      <c r="Q92" s="56"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="37"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="60"/>
-      <c r="B93" s="59"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="57"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="56"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="55"/>
       <c r="J93" s="61"/>
       <c r="K93" s="60"/>
-      <c r="L93" s="59"/>
-      <c r="M93" s="58"/>
-      <c r="N93" s="59"/>
-      <c r="O93" s="55"/>
-      <c r="P93" s="56"/>
-      <c r="Q93" s="57"/>
-      <c r="R93" s="49"/>
-      <c r="S93" s="50"/>
-      <c r="T93" s="50"/>
-      <c r="U93" s="51"/>
+      <c r="L93" s="58"/>
+      <c r="M93" s="57"/>
+      <c r="N93" s="58"/>
+      <c r="O93" s="54"/>
+      <c r="P93" s="55"/>
+      <c r="Q93" s="56"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="36"/>
+      <c r="T93" s="36"/>
+      <c r="U93" s="37"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="60"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="57"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="56"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="55"/>
       <c r="J94" s="61"/>
       <c r="K94" s="60"/>
-      <c r="L94" s="59"/>
-      <c r="M94" s="58"/>
-      <c r="N94" s="59"/>
-      <c r="O94" s="55"/>
-      <c r="P94" s="56"/>
-      <c r="Q94" s="57"/>
-      <c r="R94" s="49"/>
-      <c r="S94" s="50"/>
-      <c r="T94" s="50"/>
-      <c r="U94" s="51"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="57"/>
+      <c r="N94" s="58"/>
+      <c r="O94" s="54"/>
+      <c r="P94" s="55"/>
+      <c r="Q94" s="56"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="36"/>
+      <c r="U94" s="37"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="60"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="58"/>
-      <c r="D95" s="59"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="56"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="55"/>
-      <c r="I95" s="56"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="58"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="55"/>
       <c r="J95" s="61"/>
       <c r="K95" s="60"/>
-      <c r="L95" s="59"/>
-      <c r="M95" s="58"/>
-      <c r="N95" s="59"/>
-      <c r="O95" s="55"/>
-      <c r="P95" s="56"/>
-      <c r="Q95" s="57"/>
-      <c r="R95" s="49"/>
-      <c r="S95" s="50"/>
-      <c r="T95" s="50"/>
-      <c r="U95" s="51"/>
+      <c r="L95" s="58"/>
+      <c r="M95" s="57"/>
+      <c r="N95" s="58"/>
+      <c r="O95" s="54"/>
+      <c r="P95" s="55"/>
+      <c r="Q95" s="56"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="36"/>
+      <c r="T95" s="36"/>
+      <c r="U95" s="37"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="60"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="58"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="57"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="56"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="54"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="55"/>
       <c r="J96" s="61"/>
       <c r="K96" s="60"/>
-      <c r="L96" s="59"/>
-      <c r="M96" s="58"/>
-      <c r="N96" s="59"/>
-      <c r="O96" s="55"/>
-      <c r="P96" s="56"/>
-      <c r="Q96" s="57"/>
-      <c r="R96" s="49"/>
-      <c r="S96" s="50"/>
-      <c r="T96" s="50"/>
-      <c r="U96" s="51"/>
+      <c r="L96" s="58"/>
+      <c r="M96" s="57"/>
+      <c r="N96" s="58"/>
+      <c r="O96" s="54"/>
+      <c r="P96" s="55"/>
+      <c r="Q96" s="56"/>
+      <c r="R96" s="35"/>
+      <c r="S96" s="36"/>
+      <c r="T96" s="36"/>
+      <c r="U96" s="37"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="60"/>
-      <c r="B97" s="59"/>
-      <c r="C97" s="58"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="57"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="56"/>
+      <c r="B97" s="58"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="58"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="55"/>
       <c r="J97" s="61"/>
       <c r="K97" s="60"/>
-      <c r="L97" s="59"/>
-      <c r="M97" s="58"/>
-      <c r="N97" s="59"/>
-      <c r="O97" s="55"/>
-      <c r="P97" s="56"/>
-      <c r="Q97" s="57"/>
-      <c r="R97" s="49"/>
-      <c r="S97" s="50"/>
-      <c r="T97" s="50"/>
-      <c r="U97" s="51"/>
+      <c r="L97" s="58"/>
+      <c r="M97" s="57"/>
+      <c r="N97" s="58"/>
+      <c r="O97" s="54"/>
+      <c r="P97" s="55"/>
+      <c r="Q97" s="56"/>
+      <c r="R97" s="35"/>
+      <c r="S97" s="36"/>
+      <c r="T97" s="36"/>
+      <c r="U97" s="37"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="60"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="56"/>
-      <c r="G98" s="57"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="56"/>
+      <c r="B98" s="58"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="56"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="55"/>
       <c r="J98" s="61"/>
       <c r="K98" s="60"/>
-      <c r="L98" s="59"/>
-      <c r="M98" s="58"/>
-      <c r="N98" s="59"/>
-      <c r="O98" s="55"/>
-      <c r="P98" s="56"/>
-      <c r="Q98" s="57"/>
-      <c r="R98" s="49"/>
-      <c r="S98" s="50"/>
-      <c r="T98" s="50"/>
-      <c r="U98" s="51"/>
+      <c r="L98" s="58"/>
+      <c r="M98" s="57"/>
+      <c r="N98" s="58"/>
+      <c r="O98" s="54"/>
+      <c r="P98" s="55"/>
+      <c r="Q98" s="56"/>
+      <c r="R98" s="35"/>
+      <c r="S98" s="36"/>
+      <c r="T98" s="36"/>
+      <c r="U98" s="37"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="60"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="56"/>
-      <c r="G99" s="57"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="56"/>
+      <c r="B99" s="58"/>
+      <c r="C99" s="57"/>
+      <c r="D99" s="58"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="55"/>
       <c r="J99" s="61"/>
       <c r="K99" s="60"/>
-      <c r="L99" s="59"/>
-      <c r="M99" s="58"/>
-      <c r="N99" s="59"/>
-      <c r="O99" s="55"/>
-      <c r="P99" s="56"/>
-      <c r="Q99" s="57"/>
-      <c r="R99" s="49"/>
-      <c r="S99" s="50"/>
-      <c r="T99" s="50"/>
-      <c r="U99" s="51"/>
+      <c r="L99" s="58"/>
+      <c r="M99" s="57"/>
+      <c r="N99" s="58"/>
+      <c r="O99" s="54"/>
+      <c r="P99" s="55"/>
+      <c r="Q99" s="56"/>
+      <c r="R99" s="35"/>
+      <c r="S99" s="36"/>
+      <c r="T99" s="36"/>
+      <c r="U99" s="37"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="60"/>
-      <c r="B100" s="59"/>
-      <c r="C100" s="58"/>
-      <c r="D100" s="59"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="57"/>
-      <c r="H100" s="55"/>
-      <c r="I100" s="56"/>
+      <c r="B100" s="58"/>
+      <c r="C100" s="57"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="54"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="54"/>
+      <c r="I100" s="55"/>
       <c r="J100" s="61"/>
       <c r="K100" s="60"/>
-      <c r="L100" s="59"/>
-      <c r="M100" s="58"/>
-      <c r="N100" s="59"/>
-      <c r="O100" s="55"/>
-      <c r="P100" s="56"/>
-      <c r="Q100" s="57"/>
-      <c r="R100" s="49"/>
-      <c r="S100" s="50"/>
-      <c r="T100" s="50"/>
-      <c r="U100" s="51"/>
+      <c r="L100" s="58"/>
+      <c r="M100" s="57"/>
+      <c r="N100" s="58"/>
+      <c r="O100" s="54"/>
+      <c r="P100" s="55"/>
+      <c r="Q100" s="56"/>
+      <c r="R100" s="35"/>
+      <c r="S100" s="36"/>
+      <c r="T100" s="36"/>
+      <c r="U100" s="37"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="60"/>
-      <c r="B101" s="59"/>
-      <c r="C101" s="58"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="56"/>
-      <c r="G101" s="57"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="56"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="55"/>
       <c r="J101" s="61"/>
       <c r="K101" s="60"/>
-      <c r="L101" s="59"/>
-      <c r="M101" s="58"/>
-      <c r="N101" s="59"/>
-      <c r="O101" s="55"/>
-      <c r="P101" s="56"/>
-      <c r="Q101" s="57"/>
-      <c r="R101" s="49"/>
-      <c r="S101" s="50"/>
-      <c r="T101" s="50"/>
-      <c r="U101" s="51"/>
+      <c r="L101" s="58"/>
+      <c r="M101" s="57"/>
+      <c r="N101" s="58"/>
+      <c r="O101" s="54"/>
+      <c r="P101" s="55"/>
+      <c r="Q101" s="56"/>
+      <c r="R101" s="35"/>
+      <c r="S101" s="36"/>
+      <c r="T101" s="36"/>
+      <c r="U101" s="37"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="60"/>
-      <c r="B102" s="59"/>
-      <c r="C102" s="58"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="56"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="56"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="55"/>
       <c r="J102" s="61"/>
       <c r="K102" s="60"/>
-      <c r="L102" s="59"/>
-      <c r="M102" s="58"/>
-      <c r="N102" s="59"/>
-      <c r="O102" s="55"/>
-      <c r="P102" s="56"/>
-      <c r="Q102" s="57"/>
-      <c r="R102" s="49"/>
-      <c r="S102" s="50"/>
-      <c r="T102" s="50"/>
-      <c r="U102" s="51"/>
+      <c r="L102" s="58"/>
+      <c r="M102" s="57"/>
+      <c r="N102" s="58"/>
+      <c r="O102" s="54"/>
+      <c r="P102" s="55"/>
+      <c r="Q102" s="56"/>
+      <c r="R102" s="35"/>
+      <c r="S102" s="36"/>
+      <c r="T102" s="36"/>
+      <c r="U102" s="37"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="60"/>
-      <c r="B103" s="59"/>
-      <c r="C103" s="58"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="56"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="56"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="55"/>
       <c r="J103" s="61"/>
       <c r="K103" s="60"/>
-      <c r="L103" s="59"/>
-      <c r="M103" s="58"/>
-      <c r="N103" s="59"/>
-      <c r="O103" s="55"/>
-      <c r="P103" s="56"/>
-      <c r="Q103" s="57"/>
-      <c r="R103" s="49"/>
-      <c r="S103" s="50"/>
-      <c r="T103" s="50"/>
-      <c r="U103" s="51"/>
+      <c r="L103" s="58"/>
+      <c r="M103" s="57"/>
+      <c r="N103" s="58"/>
+      <c r="O103" s="54"/>
+      <c r="P103" s="55"/>
+      <c r="Q103" s="56"/>
+      <c r="R103" s="35"/>
+      <c r="S103" s="36"/>
+      <c r="T103" s="36"/>
+      <c r="U103" s="37"/>
     </row>
     <row r="104" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="42"/>
       <c r="B104" s="43"/>
-      <c r="C104" s="44"/>
+      <c r="C104" s="59"/>
       <c r="D104" s="43"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="46"/>
-      <c r="G104" s="47"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="46"/>
-      <c r="J104" s="48"/>
+      <c r="E104" s="38"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="41"/>
       <c r="K104" s="42"/>
       <c r="L104" s="43"/>
-      <c r="M104" s="44"/>
+      <c r="M104" s="59"/>
       <c r="N104" s="43"/>
-      <c r="O104" s="45"/>
-      <c r="P104" s="46"/>
-      <c r="Q104" s="47"/>
-      <c r="R104" s="52"/>
-      <c r="S104" s="53"/>
-      <c r="T104" s="53"/>
-      <c r="U104" s="54"/>
+      <c r="O104" s="38"/>
+      <c r="P104" s="39"/>
+      <c r="Q104" s="40"/>
+      <c r="R104" s="44"/>
+      <c r="S104" s="45"/>
+      <c r="T104" s="45"/>
+      <c r="U104" s="46"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
@@ -3365,301 +3352,301 @@
       <c r="U105" s="10"/>
     </row>
     <row r="106" spans="1:21" s="3" customFormat="1" ht="152.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="81" t="s">
+      <c r="A106" s="168" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" s="168"/>
+      <c r="C106" s="168"/>
+      <c r="D106" s="168"/>
+      <c r="E106" s="168"/>
+      <c r="F106" s="168"/>
+      <c r="G106" s="168"/>
+      <c r="H106" s="168"/>
+      <c r="I106" s="168"/>
+      <c r="J106" s="168"/>
+      <c r="K106" s="168"/>
+      <c r="L106" s="168"/>
+      <c r="M106" s="168"/>
+      <c r="N106" s="168"/>
+      <c r="O106" s="168"/>
+      <c r="P106" s="168"/>
+      <c r="Q106" s="168"/>
+      <c r="R106" s="168"/>
+      <c r="S106" s="168"/>
+      <c r="T106" s="168"/>
+      <c r="U106" s="168"/>
+    </row>
+    <row r="107" spans="1:21" ht="18" x14ac:dyDescent="0.3">
+      <c r="A107" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B106" s="81"/>
-      <c r="C106" s="81"/>
-      <c r="D106" s="81"/>
-      <c r="E106" s="81"/>
-      <c r="F106" s="81"/>
-      <c r="G106" s="81"/>
-      <c r="H106" s="81"/>
-      <c r="I106" s="81"/>
-      <c r="J106" s="81"/>
-      <c r="K106" s="81"/>
-      <c r="L106" s="81"/>
-      <c r="M106" s="81"/>
-      <c r="N106" s="81"/>
-      <c r="O106" s="81"/>
-      <c r="P106" s="81"/>
-      <c r="Q106" s="81"/>
-      <c r="R106" s="81"/>
-      <c r="S106" s="81"/>
-      <c r="T106" s="81"/>
-      <c r="U106" s="81"/>
-    </row>
-    <row r="107" spans="1:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="A107" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="B107" s="63"/>
-      <c r="C107" s="63"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="63"/>
-      <c r="F107" s="63"/>
-      <c r="G107" s="63"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="63"/>
-      <c r="J107" s="63"/>
-      <c r="K107" s="63"/>
-      <c r="L107" s="63"/>
-      <c r="M107" s="63"/>
-      <c r="N107" s="63"/>
-      <c r="O107" s="63"/>
-      <c r="P107" s="63"/>
-      <c r="Q107" s="63"/>
-      <c r="R107" s="63"/>
-      <c r="S107" s="63"/>
-      <c r="T107" s="63"/>
-      <c r="U107" s="63"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="64"/>
+      <c r="D107" s="64"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="64"/>
+      <c r="G107" s="64"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="64"/>
+      <c r="J107" s="64"/>
+      <c r="K107" s="64"/>
+      <c r="L107" s="64"/>
+      <c r="M107" s="64"/>
+      <c r="N107" s="64"/>
+      <c r="O107" s="64"/>
+      <c r="P107" s="64"/>
+      <c r="Q107" s="64"/>
+      <c r="R107" s="64"/>
+      <c r="S107" s="64"/>
+      <c r="T107" s="64"/>
+      <c r="U107" s="64"/>
     </row>
     <row r="108" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="64" t="s">
+      <c r="A109" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B109" s="66"/>
+      <c r="C109" s="66"/>
+      <c r="D109" s="66"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="66"/>
+      <c r="H109" s="66"/>
+      <c r="I109" s="66"/>
+      <c r="J109" s="66"/>
+      <c r="K109" s="66"/>
+      <c r="L109" s="66"/>
+      <c r="M109" s="66"/>
+      <c r="N109" s="66"/>
+      <c r="O109" s="66"/>
+      <c r="P109" s="66"/>
+      <c r="Q109" s="66"/>
+      <c r="R109" s="66"/>
+      <c r="S109" s="66"/>
+      <c r="T109" s="66"/>
+      <c r="U109" s="67"/>
+    </row>
+    <row r="110" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="71"/>
+      <c r="B110" s="72"/>
+      <c r="C110" s="72"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="F110" s="72"/>
+      <c r="G110" s="72"/>
+      <c r="H110" s="72"/>
+      <c r="I110" s="72"/>
+      <c r="J110" s="72"/>
+      <c r="K110" s="72"/>
+      <c r="L110" s="72"/>
+      <c r="M110" s="72"/>
+      <c r="N110" s="72"/>
+      <c r="O110" s="72"/>
+      <c r="P110" s="72"/>
+      <c r="Q110" s="72"/>
+      <c r="R110" s="72"/>
+      <c r="S110" s="72"/>
+      <c r="T110" s="72"/>
+      <c r="U110" s="73"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A111" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="65"/>
-      <c r="F109" s="65"/>
-      <c r="G109" s="65"/>
-      <c r="H109" s="65"/>
-      <c r="I109" s="65"/>
-      <c r="J109" s="65"/>
-      <c r="K109" s="65"/>
-      <c r="L109" s="65"/>
-      <c r="M109" s="65"/>
-      <c r="N109" s="65"/>
-      <c r="O109" s="65"/>
-      <c r="P109" s="65"/>
-      <c r="Q109" s="65"/>
-      <c r="R109" s="65"/>
-      <c r="S109" s="65"/>
-      <c r="T109" s="65"/>
-      <c r="U109" s="66"/>
-    </row>
-    <row r="110" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="70"/>
-      <c r="B110" s="71"/>
-      <c r="C110" s="71"/>
-      <c r="D110" s="71"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="71"/>
-      <c r="H110" s="71"/>
-      <c r="I110" s="71"/>
-      <c r="J110" s="71"/>
-      <c r="K110" s="71"/>
-      <c r="L110" s="71"/>
-      <c r="M110" s="71"/>
-      <c r="N110" s="71"/>
-      <c r="O110" s="71"/>
-      <c r="P110" s="71"/>
-      <c r="Q110" s="71"/>
-      <c r="R110" s="71"/>
-      <c r="S110" s="71"/>
-      <c r="T110" s="71"/>
-      <c r="U110" s="72"/>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="64" t="s">
+      <c r="B111" s="66"/>
+      <c r="C111" s="66"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="66"/>
+      <c r="J111" s="66"/>
+      <c r="K111" s="66"/>
+      <c r="L111" s="66"/>
+      <c r="M111" s="66"/>
+      <c r="N111" s="66"/>
+      <c r="O111" s="66"/>
+      <c r="P111" s="66"/>
+      <c r="Q111" s="66"/>
+      <c r="R111" s="66"/>
+      <c r="S111" s="66"/>
+      <c r="T111" s="66"/>
+      <c r="U111" s="67"/>
+    </row>
+    <row r="112" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="68"/>
+      <c r="B112" s="69"/>
+      <c r="C112" s="69"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="69"/>
+      <c r="F112" s="69"/>
+      <c r="G112" s="69"/>
+      <c r="H112" s="69"/>
+      <c r="I112" s="69"/>
+      <c r="J112" s="69"/>
+      <c r="K112" s="69"/>
+      <c r="L112" s="69"/>
+      <c r="M112" s="69"/>
+      <c r="N112" s="69"/>
+      <c r="O112" s="69"/>
+      <c r="P112" s="69"/>
+      <c r="Q112" s="69"/>
+      <c r="R112" s="69"/>
+      <c r="S112" s="69"/>
+      <c r="T112" s="69"/>
+      <c r="U112" s="70"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A113" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B111" s="65"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="65"/>
-      <c r="F111" s="65"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="65"/>
-      <c r="J111" s="65"/>
-      <c r="K111" s="65"/>
-      <c r="L111" s="65"/>
-      <c r="M111" s="65"/>
-      <c r="N111" s="65"/>
-      <c r="O111" s="65"/>
-      <c r="P111" s="65"/>
-      <c r="Q111" s="65"/>
-      <c r="R111" s="65"/>
-      <c r="S111" s="65"/>
-      <c r="T111" s="65"/>
-      <c r="U111" s="66"/>
-    </row>
-    <row r="112" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="67"/>
-      <c r="B112" s="68"/>
-      <c r="C112" s="68"/>
-      <c r="D112" s="68"/>
-      <c r="E112" s="68"/>
-      <c r="F112" s="68"/>
-      <c r="G112" s="68"/>
-      <c r="H112" s="68"/>
-      <c r="I112" s="68"/>
-      <c r="J112" s="68"/>
-      <c r="K112" s="68"/>
-      <c r="L112" s="68"/>
-      <c r="M112" s="68"/>
-      <c r="N112" s="68"/>
-      <c r="O112" s="68"/>
-      <c r="P112" s="68"/>
-      <c r="Q112" s="68"/>
-      <c r="R112" s="68"/>
-      <c r="S112" s="68"/>
-      <c r="T112" s="68"/>
-      <c r="U112" s="69"/>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="64" t="s">
+      <c r="B113" s="66"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="66"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="66"/>
+      <c r="J113" s="66"/>
+      <c r="K113" s="66"/>
+      <c r="L113" s="66"/>
+      <c r="M113" s="66"/>
+      <c r="N113" s="66"/>
+      <c r="O113" s="66"/>
+      <c r="P113" s="66"/>
+      <c r="Q113" s="66"/>
+      <c r="R113" s="66"/>
+      <c r="S113" s="66"/>
+      <c r="T113" s="66"/>
+      <c r="U113" s="67"/>
+    </row>
+    <row r="114" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="68"/>
+      <c r="B114" s="69"/>
+      <c r="C114" s="69"/>
+      <c r="D114" s="69"/>
+      <c r="E114" s="69"/>
+      <c r="F114" s="69"/>
+      <c r="G114" s="69"/>
+      <c r="H114" s="69"/>
+      <c r="I114" s="69"/>
+      <c r="J114" s="69"/>
+      <c r="K114" s="69"/>
+      <c r="L114" s="69"/>
+      <c r="M114" s="69"/>
+      <c r="N114" s="69"/>
+      <c r="O114" s="69"/>
+      <c r="P114" s="69"/>
+      <c r="Q114" s="69"/>
+      <c r="R114" s="69"/>
+      <c r="S114" s="69"/>
+      <c r="T114" s="69"/>
+      <c r="U114" s="70"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A115" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="65"/>
-      <c r="J113" s="65"/>
-      <c r="K113" s="65"/>
-      <c r="L113" s="65"/>
-      <c r="M113" s="65"/>
-      <c r="N113" s="65"/>
-      <c r="O113" s="65"/>
-      <c r="P113" s="65"/>
-      <c r="Q113" s="65"/>
-      <c r="R113" s="65"/>
-      <c r="S113" s="65"/>
-      <c r="T113" s="65"/>
-      <c r="U113" s="66"/>
-    </row>
-    <row r="114" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="67"/>
-      <c r="B114" s="68"/>
-      <c r="C114" s="68"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="68"/>
-      <c r="F114" s="68"/>
-      <c r="G114" s="68"/>
-      <c r="H114" s="68"/>
-      <c r="I114" s="68"/>
-      <c r="J114" s="68"/>
-      <c r="K114" s="68"/>
-      <c r="L114" s="68"/>
-      <c r="M114" s="68"/>
-      <c r="N114" s="68"/>
-      <c r="O114" s="68"/>
-      <c r="P114" s="68"/>
-      <c r="Q114" s="68"/>
-      <c r="R114" s="68"/>
-      <c r="S114" s="68"/>
-      <c r="T114" s="68"/>
-      <c r="U114" s="69"/>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="64" t="s">
+      <c r="B115" s="66"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="66"/>
+      <c r="J115" s="66"/>
+      <c r="K115" s="66"/>
+      <c r="L115" s="66"/>
+      <c r="M115" s="66"/>
+      <c r="N115" s="66"/>
+      <c r="O115" s="66"/>
+      <c r="P115" s="66"/>
+      <c r="Q115" s="66"/>
+      <c r="R115" s="66"/>
+      <c r="S115" s="66"/>
+      <c r="T115" s="66"/>
+      <c r="U115" s="67"/>
+    </row>
+    <row r="116" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="68"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="69"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="69"/>
+      <c r="F116" s="69"/>
+      <c r="G116" s="69"/>
+      <c r="H116" s="69"/>
+      <c r="I116" s="69"/>
+      <c r="J116" s="69"/>
+      <c r="K116" s="69"/>
+      <c r="L116" s="69"/>
+      <c r="M116" s="69"/>
+      <c r="N116" s="69"/>
+      <c r="O116" s="69"/>
+      <c r="P116" s="69"/>
+      <c r="Q116" s="69"/>
+      <c r="R116" s="69"/>
+      <c r="S116" s="69"/>
+      <c r="T116" s="69"/>
+      <c r="U116" s="70"/>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A117" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B115" s="65"/>
-      <c r="C115" s="65"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="65"/>
-      <c r="I115" s="65"/>
-      <c r="J115" s="65"/>
-      <c r="K115" s="65"/>
-      <c r="L115" s="65"/>
-      <c r="M115" s="65"/>
-      <c r="N115" s="65"/>
-      <c r="O115" s="65"/>
-      <c r="P115" s="65"/>
-      <c r="Q115" s="65"/>
-      <c r="R115" s="65"/>
-      <c r="S115" s="65"/>
-      <c r="T115" s="65"/>
-      <c r="U115" s="66"/>
-    </row>
-    <row r="116" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="67"/>
-      <c r="B116" s="68"/>
-      <c r="C116" s="68"/>
-      <c r="D116" s="68"/>
-      <c r="E116" s="68"/>
-      <c r="F116" s="68"/>
-      <c r="G116" s="68"/>
-      <c r="H116" s="68"/>
-      <c r="I116" s="68"/>
-      <c r="J116" s="68"/>
-      <c r="K116" s="68"/>
-      <c r="L116" s="68"/>
-      <c r="M116" s="68"/>
-      <c r="N116" s="68"/>
-      <c r="O116" s="68"/>
-      <c r="P116" s="68"/>
-      <c r="Q116" s="68"/>
-      <c r="R116" s="68"/>
-      <c r="S116" s="68"/>
-      <c r="T116" s="68"/>
-      <c r="U116" s="69"/>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="B117" s="65"/>
-      <c r="C117" s="65"/>
-      <c r="D117" s="65"/>
-      <c r="E117" s="65"/>
-      <c r="F117" s="65"/>
-      <c r="G117" s="65"/>
-      <c r="H117" s="65"/>
-      <c r="I117" s="65"/>
-      <c r="J117" s="65"/>
-      <c r="K117" s="65"/>
-      <c r="L117" s="65"/>
-      <c r="M117" s="65"/>
-      <c r="N117" s="65"/>
-      <c r="O117" s="65"/>
-      <c r="P117" s="65"/>
-      <c r="Q117" s="65"/>
-      <c r="R117" s="65"/>
-      <c r="S117" s="65"/>
-      <c r="T117" s="65"/>
-      <c r="U117" s="66"/>
+      <c r="B117" s="66"/>
+      <c r="C117" s="66"/>
+      <c r="D117" s="66"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+      <c r="L117" s="66"/>
+      <c r="M117" s="66"/>
+      <c r="N117" s="66"/>
+      <c r="O117" s="66"/>
+      <c r="P117" s="66"/>
+      <c r="Q117" s="66"/>
+      <c r="R117" s="66"/>
+      <c r="S117" s="66"/>
+      <c r="T117" s="66"/>
+      <c r="U117" s="67"/>
     </row>
     <row r="118" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="67"/>
-      <c r="B118" s="68"/>
-      <c r="C118" s="68"/>
-      <c r="D118" s="68"/>
-      <c r="E118" s="68"/>
-      <c r="F118" s="68"/>
-      <c r="G118" s="68"/>
-      <c r="H118" s="68"/>
-      <c r="I118" s="68"/>
-      <c r="J118" s="68"/>
-      <c r="K118" s="68"/>
-      <c r="L118" s="68"/>
-      <c r="M118" s="68"/>
-      <c r="N118" s="68"/>
-      <c r="O118" s="68"/>
-      <c r="P118" s="68"/>
-      <c r="Q118" s="68"/>
-      <c r="R118" s="68"/>
-      <c r="S118" s="68"/>
-      <c r="T118" s="68"/>
-      <c r="U118" s="69"/>
+      <c r="A118" s="68"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="69"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="69"/>
+      <c r="F118" s="69"/>
+      <c r="G118" s="69"/>
+      <c r="H118" s="69"/>
+      <c r="I118" s="69"/>
+      <c r="J118" s="69"/>
+      <c r="K118" s="69"/>
+      <c r="L118" s="69"/>
+      <c r="M118" s="69"/>
+      <c r="N118" s="69"/>
+      <c r="O118" s="69"/>
+      <c r="P118" s="69"/>
+      <c r="Q118" s="69"/>
+      <c r="R118" s="69"/>
+      <c r="S118" s="69"/>
+      <c r="T118" s="69"/>
+      <c r="U118" s="70"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B120"/>
       <c r="C120"/>
@@ -3670,29 +3657,29 @@
       <c r="C121"/>
     </row>
     <row r="122" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="B122" s="80"/>
-      <c r="C122" s="80"/>
-      <c r="D122" s="80"/>
-      <c r="E122" s="80"/>
-      <c r="F122" s="80"/>
-      <c r="G122" s="80"/>
-      <c r="H122" s="80"/>
-      <c r="I122" s="80"/>
-      <c r="J122" s="80"/>
-      <c r="K122" s="80"/>
-      <c r="L122" s="80"/>
-      <c r="M122" s="80"/>
-      <c r="N122" s="80"/>
-      <c r="O122" s="80"/>
-      <c r="P122" s="80"/>
-      <c r="Q122" s="80"/>
-      <c r="R122" s="80"/>
-      <c r="S122" s="80"/>
-      <c r="T122" s="80"/>
-      <c r="U122" s="80"/>
+      <c r="A122" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122" s="62"/>
+      <c r="C122" s="62"/>
+      <c r="D122" s="62"/>
+      <c r="E122" s="62"/>
+      <c r="F122" s="62"/>
+      <c r="G122" s="62"/>
+      <c r="H122" s="62"/>
+      <c r="I122" s="62"/>
+      <c r="J122" s="62"/>
+      <c r="K122" s="62"/>
+      <c r="L122" s="62"/>
+      <c r="M122" s="62"/>
+      <c r="N122" s="62"/>
+      <c r="O122" s="62"/>
+      <c r="P122" s="62"/>
+      <c r="Q122" s="62"/>
+      <c r="R122" s="62"/>
+      <c r="S122" s="62"/>
+      <c r="T122" s="62"/>
+      <c r="U122" s="62"/>
     </row>
     <row r="123" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
@@ -3701,164 +3688,164 @@
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B124"/>
       <c r="C124"/>
     </row>
     <row r="125" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="G125" s="80"/>
-      <c r="H125" s="80"/>
-      <c r="I125" s="80"/>
-      <c r="J125" s="80"/>
-      <c r="K125" s="80"/>
-      <c r="L125" s="80"/>
-      <c r="M125" s="80"/>
-      <c r="N125" s="80"/>
-      <c r="O125" s="80"/>
-      <c r="P125" s="80"/>
-      <c r="Q125" s="80"/>
-      <c r="R125" s="80"/>
-      <c r="S125" s="80"/>
-      <c r="T125" s="80"/>
-      <c r="U125" s="80"/>
+      <c r="F125" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G125" s="62"/>
+      <c r="H125" s="62"/>
+      <c r="I125" s="62"/>
+      <c r="J125" s="62"/>
+      <c r="K125" s="62"/>
+      <c r="L125" s="62"/>
+      <c r="M125" s="62"/>
+      <c r="N125" s="62"/>
+      <c r="O125" s="62"/>
+      <c r="P125" s="62"/>
+      <c r="Q125" s="62"/>
+      <c r="R125" s="62"/>
+      <c r="S125" s="62"/>
+      <c r="T125" s="62"/>
+      <c r="U125" s="62"/>
     </row>
     <row r="126" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="G126" s="80"/>
-      <c r="H126" s="80"/>
-      <c r="I126" s="80"/>
-      <c r="J126" s="80"/>
-      <c r="K126" s="80"/>
-      <c r="L126" s="80"/>
-      <c r="M126" s="80"/>
-      <c r="N126" s="80"/>
-      <c r="O126" s="80"/>
-      <c r="P126" s="80"/>
-      <c r="Q126" s="80"/>
-      <c r="R126" s="80"/>
-      <c r="S126" s="80"/>
-      <c r="T126" s="80"/>
-      <c r="U126" s="80"/>
+      <c r="F126" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="G126" s="62"/>
+      <c r="H126" s="62"/>
+      <c r="I126" s="62"/>
+      <c r="J126" s="62"/>
+      <c r="K126" s="62"/>
+      <c r="L126" s="62"/>
+      <c r="M126" s="62"/>
+      <c r="N126" s="62"/>
+      <c r="O126" s="62"/>
+      <c r="P126" s="62"/>
+      <c r="Q126" s="62"/>
+      <c r="R126" s="62"/>
+      <c r="S126" s="62"/>
+      <c r="T126" s="62"/>
+      <c r="U126" s="62"/>
     </row>
     <row r="127" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B127"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
-      <c r="F127" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="G127" s="80"/>
-      <c r="H127" s="80"/>
-      <c r="I127" s="80"/>
-      <c r="J127" s="80"/>
-      <c r="K127" s="80"/>
-      <c r="L127" s="80"/>
-      <c r="M127" s="80"/>
-      <c r="N127" s="80"/>
-      <c r="O127" s="80"/>
-      <c r="P127" s="80"/>
-      <c r="Q127" s="80"/>
-      <c r="R127" s="80"/>
-      <c r="S127" s="80"/>
-      <c r="T127" s="80"/>
-      <c r="U127" s="80"/>
+      <c r="F127" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="G127" s="62"/>
+      <c r="H127" s="62"/>
+      <c r="I127" s="62"/>
+      <c r="J127" s="62"/>
+      <c r="K127" s="62"/>
+      <c r="L127" s="62"/>
+      <c r="M127" s="62"/>
+      <c r="N127" s="62"/>
+      <c r="O127" s="62"/>
+      <c r="P127" s="62"/>
+      <c r="Q127" s="62"/>
+      <c r="R127" s="62"/>
+      <c r="S127" s="62"/>
+      <c r="T127" s="62"/>
+      <c r="U127" s="62"/>
     </row>
     <row r="128" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B128"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="G128" s="80"/>
-      <c r="H128" s="80"/>
-      <c r="I128" s="80"/>
-      <c r="J128" s="80"/>
-      <c r="K128" s="80"/>
-      <c r="L128" s="80"/>
-      <c r="M128" s="80"/>
-      <c r="N128" s="80"/>
-      <c r="O128" s="80"/>
-      <c r="P128" s="80"/>
-      <c r="Q128" s="80"/>
-      <c r="R128" s="80"/>
-      <c r="S128" s="80"/>
-      <c r="T128" s="80"/>
-      <c r="U128" s="80"/>
+      <c r="F128" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="G128" s="62"/>
+      <c r="H128" s="62"/>
+      <c r="I128" s="62"/>
+      <c r="J128" s="62"/>
+      <c r="K128" s="62"/>
+      <c r="L128" s="62"/>
+      <c r="M128" s="62"/>
+      <c r="N128" s="62"/>
+      <c r="O128" s="62"/>
+      <c r="P128" s="62"/>
+      <c r="Q128" s="62"/>
+      <c r="R128" s="62"/>
+      <c r="S128" s="62"/>
+      <c r="T128" s="62"/>
+      <c r="U128" s="62"/>
     </row>
     <row r="129" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B129"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="G129" s="80"/>
-      <c r="H129" s="80"/>
-      <c r="I129" s="80"/>
-      <c r="J129" s="80"/>
-      <c r="K129" s="80"/>
-      <c r="L129" s="80"/>
-      <c r="M129" s="80"/>
-      <c r="N129" s="80"/>
-      <c r="O129" s="80"/>
-      <c r="P129" s="80"/>
-      <c r="Q129" s="80"/>
-      <c r="R129" s="80"/>
-      <c r="S129" s="80"/>
-      <c r="T129" s="80"/>
-      <c r="U129" s="80"/>
+      <c r="F129" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="G129" s="62"/>
+      <c r="H129" s="62"/>
+      <c r="I129" s="62"/>
+      <c r="J129" s="62"/>
+      <c r="K129" s="62"/>
+      <c r="L129" s="62"/>
+      <c r="M129" s="62"/>
+      <c r="N129" s="62"/>
+      <c r="O129" s="62"/>
+      <c r="P129" s="62"/>
+      <c r="Q129" s="62"/>
+      <c r="R129" s="62"/>
+      <c r="S129" s="62"/>
+      <c r="T129" s="62"/>
+      <c r="U129" s="62"/>
     </row>
     <row r="130" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B130"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="G130" s="80"/>
-      <c r="H130" s="80"/>
-      <c r="I130" s="80"/>
-      <c r="J130" s="80"/>
-      <c r="K130" s="80"/>
-      <c r="L130" s="80"/>
-      <c r="M130" s="80"/>
-      <c r="N130" s="80"/>
-      <c r="O130" s="80"/>
-      <c r="P130" s="80"/>
-      <c r="Q130" s="80"/>
-      <c r="R130" s="80"/>
-      <c r="S130" s="80"/>
-      <c r="T130" s="80"/>
-      <c r="U130" s="80"/>
+      <c r="F130" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="G130" s="62"/>
+      <c r="H130" s="62"/>
+      <c r="I130" s="62"/>
+      <c r="J130" s="62"/>
+      <c r="K130" s="62"/>
+      <c r="L130" s="62"/>
+      <c r="M130" s="62"/>
+      <c r="N130" s="62"/>
+      <c r="O130" s="62"/>
+      <c r="P130" s="62"/>
+      <c r="Q130" s="62"/>
+      <c r="R130" s="62"/>
+      <c r="S130" s="62"/>
+      <c r="T130" s="62"/>
+      <c r="U130" s="62"/>
     </row>
     <row r="131" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
@@ -3866,47 +3853,47 @@
       <c r="C131"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="108" t="s">
+      <c r="A132" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="B132" s="104"/>
+      <c r="C132" s="104"/>
+      <c r="D132" s="105"/>
+      <c r="E132" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="B132" s="109"/>
-      <c r="C132" s="109"/>
-      <c r="D132" s="110"/>
-      <c r="E132" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="F132" s="76"/>
-      <c r="G132" s="77"/>
-      <c r="H132" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="I132" s="76"/>
-      <c r="J132" s="79"/>
-      <c r="K132" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="L132" s="76"/>
-      <c r="M132" s="77"/>
-      <c r="N132" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="O132" s="76"/>
-      <c r="P132" s="79"/>
-      <c r="Q132" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="R132" s="76"/>
-      <c r="S132" s="77"/>
-      <c r="T132" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="U132" s="77"/>
+      <c r="F132" s="77"/>
+      <c r="G132" s="78"/>
+      <c r="H132" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="I132" s="77"/>
+      <c r="J132" s="80"/>
+      <c r="K132" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="L132" s="77"/>
+      <c r="M132" s="78"/>
+      <c r="N132" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="O132" s="77"/>
+      <c r="P132" s="80"/>
+      <c r="Q132" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="R132" s="77"/>
+      <c r="S132" s="78"/>
+      <c r="T132" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="U132" s="78"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="111"/>
-      <c r="B133" s="112"/>
-      <c r="C133" s="112"/>
-      <c r="D133" s="113"/>
+      <c r="A133" s="106"/>
+      <c r="B133" s="107"/>
+      <c r="C133" s="107"/>
+      <c r="D133" s="108"/>
       <c r="E133" s="26">
         <v>15</v>
       </c>
@@ -3952,18 +3939,18 @@
       <c r="S133" s="28">
         <v>1</v>
       </c>
-      <c r="T133" s="114">
+      <c r="T133" s="109">
         <v>0</v>
       </c>
-      <c r="U133" s="115"/>
+      <c r="U133" s="110"/>
     </row>
     <row r="134" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="116" t="s">
-        <v>61</v>
-      </c>
-      <c r="B134" s="117"/>
-      <c r="C134" s="117"/>
-      <c r="D134" s="118"/>
+      <c r="A134" s="111" t="s">
+        <v>60</v>
+      </c>
+      <c r="B134" s="112"/>
+      <c r="C134" s="112"/>
+      <c r="D134" s="113"/>
       <c r="E134" s="12"/>
       <c r="F134" s="13"/>
       <c r="G134" s="14"/>
@@ -3979,16 +3966,16 @@
       <c r="Q134" s="12"/>
       <c r="R134" s="13"/>
       <c r="S134" s="14"/>
-      <c r="T134" s="33"/>
-      <c r="U134" s="34"/>
+      <c r="T134" s="31"/>
+      <c r="U134" s="32"/>
     </row>
     <row r="135" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="122" t="s">
-        <v>62</v>
-      </c>
-      <c r="B135" s="123"/>
-      <c r="C135" s="123"/>
-      <c r="D135" s="124"/>
+      <c r="A135" s="117" t="s">
+        <v>61</v>
+      </c>
+      <c r="B135" s="118"/>
+      <c r="C135" s="118"/>
+      <c r="D135" s="119"/>
       <c r="E135" s="12"/>
       <c r="F135" s="13"/>
       <c r="G135" s="14"/>
@@ -4004,16 +3991,16 @@
       <c r="Q135" s="12"/>
       <c r="R135" s="13"/>
       <c r="S135" s="14"/>
-      <c r="T135" s="33"/>
-      <c r="U135" s="34"/>
+      <c r="T135" s="31"/>
+      <c r="U135" s="32"/>
     </row>
     <row r="136" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="119" t="s">
-        <v>63</v>
-      </c>
-      <c r="B136" s="120"/>
-      <c r="C136" s="120"/>
-      <c r="D136" s="121"/>
+      <c r="A136" s="114" t="s">
+        <v>62</v>
+      </c>
+      <c r="B136" s="115"/>
+      <c r="C136" s="115"/>
+      <c r="D136" s="116"/>
       <c r="E136" s="17"/>
       <c r="F136" s="18"/>
       <c r="G136" s="19"/>
@@ -4029,52 +4016,52 @@
       <c r="Q136" s="17"/>
       <c r="R136" s="18"/>
       <c r="S136" s="19"/>
-      <c r="T136" s="31"/>
-      <c r="U136" s="32"/>
+      <c r="T136" s="33"/>
+      <c r="U136" s="34"/>
     </row>
     <row r="137" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="108" t="s">
-        <v>64</v>
-      </c>
-      <c r="B138" s="109"/>
-      <c r="C138" s="109"/>
-      <c r="D138" s="110"/>
-      <c r="E138" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="F138" s="76"/>
-      <c r="G138" s="77"/>
-      <c r="H138" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="I138" s="76"/>
-      <c r="J138" s="79"/>
-      <c r="K138" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="L138" s="76"/>
-      <c r="M138" s="77"/>
-      <c r="N138" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="O138" s="76"/>
-      <c r="P138" s="79"/>
-      <c r="Q138" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="R138" s="76"/>
-      <c r="S138" s="77"/>
-      <c r="T138" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="U138" s="77"/>
+      <c r="A138" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="B138" s="104"/>
+      <c r="C138" s="104"/>
+      <c r="D138" s="105"/>
+      <c r="E138" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="F138" s="77"/>
+      <c r="G138" s="78"/>
+      <c r="H138" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="I138" s="77"/>
+      <c r="J138" s="80"/>
+      <c r="K138" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="L138" s="77"/>
+      <c r="M138" s="78"/>
+      <c r="N138" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="O138" s="77"/>
+      <c r="P138" s="80"/>
+      <c r="Q138" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="R138" s="77"/>
+      <c r="S138" s="78"/>
+      <c r="T138" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="U138" s="78"/>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A139" s="111"/>
-      <c r="B139" s="112"/>
-      <c r="C139" s="112"/>
-      <c r="D139" s="113"/>
+      <c r="A139" s="106"/>
+      <c r="B139" s="107"/>
+      <c r="C139" s="107"/>
+      <c r="D139" s="108"/>
       <c r="E139" s="26">
         <v>15</v>
       </c>
@@ -4120,18 +4107,18 @@
       <c r="S139" s="28">
         <v>1</v>
       </c>
-      <c r="T139" s="114">
+      <c r="T139" s="109">
         <v>0</v>
       </c>
-      <c r="U139" s="115"/>
+      <c r="U139" s="110"/>
     </row>
     <row r="140" spans="1:21" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="116" t="s">
-        <v>65</v>
-      </c>
-      <c r="B140" s="117"/>
-      <c r="C140" s="117"/>
-      <c r="D140" s="118"/>
+      <c r="A140" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="B140" s="112"/>
+      <c r="C140" s="112"/>
+      <c r="D140" s="113"/>
       <c r="E140" s="12"/>
       <c r="F140" s="13"/>
       <c r="G140" s="14"/>
@@ -4147,16 +4134,16 @@
       <c r="Q140" s="12"/>
       <c r="R140" s="13"/>
       <c r="S140" s="14"/>
-      <c r="T140" s="33"/>
-      <c r="U140" s="34"/>
+      <c r="T140" s="31"/>
+      <c r="U140" s="32"/>
     </row>
     <row r="141" spans="1:21" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="B141" s="126"/>
-      <c r="C141" s="126"/>
-      <c r="D141" s="127"/>
+      <c r="A141" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="B141" s="121"/>
+      <c r="C141" s="121"/>
+      <c r="D141" s="122"/>
       <c r="E141" s="12"/>
       <c r="F141" s="13"/>
       <c r="G141" s="14"/>
@@ -4172,16 +4159,16 @@
       <c r="Q141" s="12"/>
       <c r="R141" s="13"/>
       <c r="S141" s="14"/>
-      <c r="T141" s="33"/>
-      <c r="U141" s="34"/>
+      <c r="T141" s="31"/>
+      <c r="U141" s="32"/>
     </row>
     <row r="142" spans="1:21" ht="42.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="119" t="s">
-        <v>67</v>
-      </c>
-      <c r="B142" s="120"/>
-      <c r="C142" s="120"/>
-      <c r="D142" s="121"/>
+      <c r="A142" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="B142" s="115"/>
+      <c r="C142" s="115"/>
+      <c r="D142" s="116"/>
       <c r="E142" s="17"/>
       <c r="F142" s="18"/>
       <c r="G142" s="19"/>
@@ -4197,52 +4184,52 @@
       <c r="Q142" s="17"/>
       <c r="R142" s="18"/>
       <c r="S142" s="19"/>
-      <c r="T142" s="31"/>
-      <c r="U142" s="32"/>
+      <c r="T142" s="33"/>
+      <c r="U142" s="34"/>
     </row>
     <row r="143" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="108" t="s">
-        <v>68</v>
-      </c>
-      <c r="B144" s="109"/>
-      <c r="C144" s="109"/>
-      <c r="D144" s="110"/>
-      <c r="E144" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="F144" s="76"/>
-      <c r="G144" s="77"/>
-      <c r="H144" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="I144" s="76"/>
-      <c r="J144" s="79"/>
-      <c r="K144" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="L144" s="76"/>
-      <c r="M144" s="77"/>
-      <c r="N144" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="O144" s="76"/>
-      <c r="P144" s="79"/>
-      <c r="Q144" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="R144" s="76"/>
-      <c r="S144" s="77"/>
-      <c r="T144" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="U144" s="77"/>
+      <c r="A144" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="B144" s="104"/>
+      <c r="C144" s="104"/>
+      <c r="D144" s="105"/>
+      <c r="E144" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="F144" s="77"/>
+      <c r="G144" s="78"/>
+      <c r="H144" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="I144" s="77"/>
+      <c r="J144" s="80"/>
+      <c r="K144" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="L144" s="77"/>
+      <c r="M144" s="78"/>
+      <c r="N144" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="O144" s="77"/>
+      <c r="P144" s="80"/>
+      <c r="Q144" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="R144" s="77"/>
+      <c r="S144" s="78"/>
+      <c r="T144" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="U144" s="78"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="111"/>
-      <c r="B145" s="112"/>
-      <c r="C145" s="112"/>
-      <c r="D145" s="113"/>
+      <c r="A145" s="106"/>
+      <c r="B145" s="107"/>
+      <c r="C145" s="107"/>
+      <c r="D145" s="108"/>
       <c r="E145" s="26">
         <v>15</v>
       </c>
@@ -4288,18 +4275,18 @@
       <c r="S145" s="28">
         <v>1</v>
       </c>
-      <c r="T145" s="114">
+      <c r="T145" s="109">
         <v>0</v>
       </c>
-      <c r="U145" s="115"/>
+      <c r="U145" s="110"/>
     </row>
     <row r="146" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="116" t="s">
-        <v>69</v>
-      </c>
-      <c r="B146" s="117"/>
-      <c r="C146" s="117"/>
-      <c r="D146" s="118"/>
+      <c r="A146" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="B146" s="112"/>
+      <c r="C146" s="112"/>
+      <c r="D146" s="113"/>
       <c r="E146" s="12"/>
       <c r="F146" s="13"/>
       <c r="G146" s="14"/>
@@ -4315,16 +4302,16 @@
       <c r="Q146" s="12"/>
       <c r="R146" s="13"/>
       <c r="S146" s="14"/>
-      <c r="T146" s="33"/>
-      <c r="U146" s="34"/>
+      <c r="T146" s="31"/>
+      <c r="U146" s="32"/>
     </row>
     <row r="147" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="B147" s="126"/>
-      <c r="C147" s="126"/>
-      <c r="D147" s="127"/>
+      <c r="A147" s="120" t="s">
+        <v>69</v>
+      </c>
+      <c r="B147" s="121"/>
+      <c r="C147" s="121"/>
+      <c r="D147" s="122"/>
       <c r="E147" s="12"/>
       <c r="F147" s="13"/>
       <c r="G147" s="14"/>
@@ -4340,16 +4327,16 @@
       <c r="Q147" s="12"/>
       <c r="R147" s="13"/>
       <c r="S147" s="14"/>
-      <c r="T147" s="33"/>
-      <c r="U147" s="34"/>
+      <c r="T147" s="31"/>
+      <c r="U147" s="32"/>
     </row>
     <row r="148" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="125" t="s">
-        <v>71</v>
-      </c>
-      <c r="B148" s="126"/>
-      <c r="C148" s="126"/>
-      <c r="D148" s="127"/>
+      <c r="A148" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="B148" s="121"/>
+      <c r="C148" s="121"/>
+      <c r="D148" s="122"/>
       <c r="E148" s="12"/>
       <c r="F148" s="13"/>
       <c r="G148" s="14"/>
@@ -4365,16 +4352,16 @@
       <c r="Q148" s="12"/>
       <c r="R148" s="13"/>
       <c r="S148" s="14"/>
-      <c r="T148" s="33"/>
-      <c r="U148" s="34"/>
+      <c r="T148" s="31"/>
+      <c r="U148" s="32"/>
     </row>
     <row r="149" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="125" t="s">
-        <v>72</v>
-      </c>
-      <c r="B149" s="126"/>
-      <c r="C149" s="126"/>
-      <c r="D149" s="127"/>
+      <c r="A149" s="120" t="s">
+        <v>71</v>
+      </c>
+      <c r="B149" s="121"/>
+      <c r="C149" s="121"/>
+      <c r="D149" s="122"/>
       <c r="E149" s="12"/>
       <c r="F149" s="13"/>
       <c r="G149" s="14"/>
@@ -4390,16 +4377,16 @@
       <c r="Q149" s="12"/>
       <c r="R149" s="13"/>
       <c r="S149" s="14"/>
-      <c r="T149" s="33"/>
-      <c r="U149" s="34"/>
+      <c r="T149" s="31"/>
+      <c r="U149" s="32"/>
     </row>
     <row r="150" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="B150" s="126"/>
-      <c r="C150" s="126"/>
-      <c r="D150" s="127"/>
+      <c r="A150" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="B150" s="121"/>
+      <c r="C150" s="121"/>
+      <c r="D150" s="122"/>
       <c r="E150" s="12"/>
       <c r="F150" s="13"/>
       <c r="G150" s="14"/>
@@ -4415,16 +4402,16 @@
       <c r="Q150" s="12"/>
       <c r="R150" s="13"/>
       <c r="S150" s="14"/>
-      <c r="T150" s="33"/>
-      <c r="U150" s="34"/>
+      <c r="T150" s="31"/>
+      <c r="U150" s="32"/>
     </row>
     <row r="151" spans="1:21" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="B151" s="120"/>
-      <c r="C151" s="120"/>
-      <c r="D151" s="121"/>
+      <c r="A151" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="B151" s="115"/>
+      <c r="C151" s="115"/>
+      <c r="D151" s="116"/>
       <c r="E151" s="17"/>
       <c r="F151" s="18"/>
       <c r="G151" s="19"/>
@@ -4440,52 +4427,52 @@
       <c r="Q151" s="17"/>
       <c r="R151" s="18"/>
       <c r="S151" s="19"/>
-      <c r="T151" s="31"/>
-      <c r="U151" s="32"/>
+      <c r="T151" s="33"/>
+      <c r="U151" s="34"/>
     </row>
     <row r="152" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A153" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="B153" s="109"/>
-      <c r="C153" s="109"/>
-      <c r="D153" s="110"/>
-      <c r="E153" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="F153" s="76"/>
-      <c r="G153" s="77"/>
-      <c r="H153" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="I153" s="76"/>
-      <c r="J153" s="79"/>
-      <c r="K153" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="L153" s="76"/>
-      <c r="M153" s="77"/>
-      <c r="N153" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="O153" s="76"/>
-      <c r="P153" s="79"/>
-      <c r="Q153" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="R153" s="76"/>
-      <c r="S153" s="77"/>
-      <c r="T153" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="U153" s="77"/>
+      <c r="A153" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="B153" s="104"/>
+      <c r="C153" s="104"/>
+      <c r="D153" s="105"/>
+      <c r="E153" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="F153" s="77"/>
+      <c r="G153" s="78"/>
+      <c r="H153" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="I153" s="77"/>
+      <c r="J153" s="80"/>
+      <c r="K153" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="L153" s="77"/>
+      <c r="M153" s="78"/>
+      <c r="N153" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="O153" s="77"/>
+      <c r="P153" s="80"/>
+      <c r="Q153" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="R153" s="77"/>
+      <c r="S153" s="78"/>
+      <c r="T153" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="U153" s="78"/>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A154" s="111"/>
-      <c r="B154" s="112"/>
-      <c r="C154" s="112"/>
-      <c r="D154" s="113"/>
+      <c r="A154" s="106"/>
+      <c r="B154" s="107"/>
+      <c r="C154" s="107"/>
+      <c r="D154" s="108"/>
       <c r="E154" s="26">
         <v>15</v>
       </c>
@@ -4531,18 +4518,18 @@
       <c r="S154" s="28">
         <v>1</v>
       </c>
-      <c r="T154" s="114">
+      <c r="T154" s="109">
         <v>0</v>
       </c>
-      <c r="U154" s="115"/>
+      <c r="U154" s="110"/>
     </row>
     <row r="155" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="B155" s="117"/>
-      <c r="C155" s="117"/>
-      <c r="D155" s="118"/>
+      <c r="A155" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="B155" s="112"/>
+      <c r="C155" s="112"/>
+      <c r="D155" s="113"/>
       <c r="E155" s="12"/>
       <c r="F155" s="13"/>
       <c r="G155" s="14"/>
@@ -4558,16 +4545,16 @@
       <c r="Q155" s="12"/>
       <c r="R155" s="13"/>
       <c r="S155" s="14"/>
-      <c r="T155" s="33"/>
-      <c r="U155" s="34"/>
+      <c r="T155" s="31"/>
+      <c r="U155" s="32"/>
     </row>
     <row r="156" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="125" t="s">
-        <v>77</v>
-      </c>
-      <c r="B156" s="126"/>
-      <c r="C156" s="126"/>
-      <c r="D156" s="127"/>
+      <c r="A156" s="120" t="s">
+        <v>76</v>
+      </c>
+      <c r="B156" s="121"/>
+      <c r="C156" s="121"/>
+      <c r="D156" s="122"/>
       <c r="E156" s="12"/>
       <c r="F156" s="13"/>
       <c r="G156" s="14"/>
@@ -4583,16 +4570,16 @@
       <c r="Q156" s="12"/>
       <c r="R156" s="13"/>
       <c r="S156" s="14"/>
-      <c r="T156" s="33"/>
-      <c r="U156" s="34"/>
+      <c r="T156" s="31"/>
+      <c r="U156" s="32"/>
     </row>
     <row r="157" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="125" t="s">
-        <v>78</v>
-      </c>
-      <c r="B157" s="126"/>
-      <c r="C157" s="126"/>
-      <c r="D157" s="127"/>
+      <c r="A157" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="B157" s="121"/>
+      <c r="C157" s="121"/>
+      <c r="D157" s="122"/>
       <c r="E157" s="12"/>
       <c r="F157" s="13"/>
       <c r="G157" s="14"/>
@@ -4608,16 +4595,16 @@
       <c r="Q157" s="12"/>
       <c r="R157" s="13"/>
       <c r="S157" s="14"/>
-      <c r="T157" s="33"/>
-      <c r="U157" s="34"/>
+      <c r="T157" s="31"/>
+      <c r="U157" s="32"/>
     </row>
     <row r="158" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="125" t="s">
-        <v>79</v>
-      </c>
-      <c r="B158" s="126"/>
-      <c r="C158" s="126"/>
-      <c r="D158" s="127"/>
+      <c r="A158" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="B158" s="121"/>
+      <c r="C158" s="121"/>
+      <c r="D158" s="122"/>
       <c r="E158" s="12"/>
       <c r="F158" s="13"/>
       <c r="G158" s="14"/>
@@ -4633,16 +4620,16 @@
       <c r="Q158" s="12"/>
       <c r="R158" s="13"/>
       <c r="S158" s="14"/>
-      <c r="T158" s="33"/>
-      <c r="U158" s="34"/>
+      <c r="T158" s="31"/>
+      <c r="U158" s="32"/>
     </row>
     <row r="159" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="125" t="s">
-        <v>80</v>
-      </c>
-      <c r="B159" s="126"/>
-      <c r="C159" s="126"/>
-      <c r="D159" s="127"/>
+      <c r="A159" s="120" t="s">
+        <v>79</v>
+      </c>
+      <c r="B159" s="121"/>
+      <c r="C159" s="121"/>
+      <c r="D159" s="122"/>
       <c r="E159" s="12"/>
       <c r="F159" s="13"/>
       <c r="G159" s="14"/>
@@ -4658,16 +4645,16 @@
       <c r="Q159" s="12"/>
       <c r="R159" s="13"/>
       <c r="S159" s="14"/>
-      <c r="T159" s="33"/>
-      <c r="U159" s="34"/>
+      <c r="T159" s="31"/>
+      <c r="U159" s="32"/>
     </row>
     <row r="160" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="B160" s="123"/>
-      <c r="C160" s="123"/>
-      <c r="D160" s="124"/>
+      <c r="A160" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="B160" s="118"/>
+      <c r="C160" s="118"/>
+      <c r="D160" s="119"/>
       <c r="E160" s="12"/>
       <c r="F160" s="13"/>
       <c r="G160" s="14"/>
@@ -4683,16 +4670,16 @@
       <c r="Q160" s="12"/>
       <c r="R160" s="13"/>
       <c r="S160" s="14"/>
-      <c r="T160" s="33"/>
-      <c r="U160" s="34"/>
+      <c r="T160" s="31"/>
+      <c r="U160" s="32"/>
     </row>
     <row r="161" spans="1:21" ht="48.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="119" t="s">
-        <v>82</v>
-      </c>
-      <c r="B161" s="120"/>
-      <c r="C161" s="120"/>
-      <c r="D161" s="121"/>
+      <c r="A161" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="B161" s="115"/>
+      <c r="C161" s="115"/>
+      <c r="D161" s="116"/>
       <c r="E161" s="17"/>
       <c r="F161" s="18"/>
       <c r="G161" s="19"/>
@@ -4708,48 +4695,48 @@
       <c r="Q161" s="17"/>
       <c r="R161" s="18"/>
       <c r="S161" s="19"/>
-      <c r="T161" s="31"/>
-      <c r="U161" s="32"/>
+      <c r="T161" s="33"/>
+      <c r="U161" s="34"/>
     </row>
     <row r="163" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B163" s="80"/>
-      <c r="C163" s="80"/>
-      <c r="D163" s="80"/>
-      <c r="E163" s="80"/>
-      <c r="F163" s="80"/>
-      <c r="G163" s="80"/>
-      <c r="H163" s="80"/>
-      <c r="I163" s="80"/>
-      <c r="J163" s="80"/>
-      <c r="K163" s="80"/>
-      <c r="L163" s="80"/>
-      <c r="M163" s="80"/>
-      <c r="N163" s="80"/>
-      <c r="O163" s="80"/>
-      <c r="P163" s="80"/>
-      <c r="Q163" s="80"/>
-      <c r="R163" s="80"/>
-      <c r="S163" s="80"/>
-      <c r="T163" s="80"/>
-      <c r="U163" s="80"/>
+      <c r="A163" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B163" s="62"/>
+      <c r="C163" s="62"/>
+      <c r="D163" s="62"/>
+      <c r="E163" s="62"/>
+      <c r="F163" s="62"/>
+      <c r="G163" s="62"/>
+      <c r="H163" s="62"/>
+      <c r="I163" s="62"/>
+      <c r="J163" s="62"/>
+      <c r="K163" s="62"/>
+      <c r="L163" s="62"/>
+      <c r="M163" s="62"/>
+      <c r="N163" s="62"/>
+      <c r="O163" s="62"/>
+      <c r="P163" s="62"/>
+      <c r="Q163" s="62"/>
+      <c r="R163" s="62"/>
+      <c r="S163" s="62"/>
+      <c r="T163" s="62"/>
+      <c r="U163" s="62"/>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A165" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="B165" s="73"/>
-      <c r="C165" s="73"/>
-      <c r="D165" s="73"/>
-      <c r="E165" s="73"/>
-      <c r="F165" s="73"/>
-      <c r="G165" s="73"/>
-      <c r="H165" s="73"/>
+      <c r="A165" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B165" s="74"/>
+      <c r="C165" s="74"/>
+      <c r="D165" s="74"/>
+      <c r="E165" s="74"/>
+      <c r="F165" s="74"/>
+      <c r="G165" s="74"/>
+      <c r="H165" s="74"/>
       <c r="I165" s="22"/>
       <c r="J165" s="22"/>
       <c r="K165" s="22"/>
@@ -4788,79 +4775,79 @@
       <c r="U166" s="22"/>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A167" s="74" t="s">
+      <c r="A167" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B167" s="75"/>
+      <c r="C167" s="75"/>
+      <c r="D167" s="75"/>
+      <c r="E167" s="75"/>
+      <c r="F167" s="75"/>
+      <c r="G167" s="75"/>
+      <c r="H167" s="75"/>
+      <c r="I167" s="75"/>
+      <c r="J167" s="75"/>
+      <c r="K167" s="75"/>
+      <c r="L167" s="75"/>
+      <c r="M167" s="75"/>
+      <c r="N167" s="75"/>
+      <c r="O167" s="75"/>
+      <c r="P167" s="75"/>
+      <c r="Q167" s="75"/>
+      <c r="R167" s="75"/>
+      <c r="S167" s="75"/>
+      <c r="T167" s="75"/>
+      <c r="U167" s="75"/>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A168" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="B167" s="74"/>
-      <c r="C167" s="74"/>
-      <c r="D167" s="74"/>
-      <c r="E167" s="74"/>
-      <c r="F167" s="74"/>
-      <c r="G167" s="74"/>
-      <c r="H167" s="74"/>
-      <c r="I167" s="74"/>
-      <c r="J167" s="74"/>
-      <c r="K167" s="74"/>
-      <c r="L167" s="74"/>
-      <c r="M167" s="74"/>
-      <c r="N167" s="74"/>
-      <c r="O167" s="74"/>
-      <c r="P167" s="74"/>
-      <c r="Q167" s="74"/>
-      <c r="R167" s="74"/>
-      <c r="S167" s="74"/>
-      <c r="T167" s="74"/>
-      <c r="U167" s="74"/>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A168" s="74" t="s">
+      <c r="B168" s="75"/>
+      <c r="C168" s="75"/>
+      <c r="D168" s="75"/>
+      <c r="E168" s="75"/>
+      <c r="F168" s="75"/>
+      <c r="G168" s="75"/>
+      <c r="H168" s="75"/>
+      <c r="I168" s="75"/>
+      <c r="J168" s="75"/>
+      <c r="K168" s="75"/>
+      <c r="L168" s="75"/>
+      <c r="M168" s="75"/>
+      <c r="N168" s="75"/>
+      <c r="O168" s="75"/>
+      <c r="P168" s="75"/>
+      <c r="Q168" s="75"/>
+      <c r="R168" s="75"/>
+      <c r="S168" s="75"/>
+      <c r="T168" s="75"/>
+      <c r="U168" s="75"/>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A169" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="B168" s="74"/>
-      <c r="C168" s="74"/>
-      <c r="D168" s="74"/>
-      <c r="E168" s="74"/>
-      <c r="F168" s="74"/>
-      <c r="G168" s="74"/>
-      <c r="H168" s="74"/>
-      <c r="I168" s="74"/>
-      <c r="J168" s="74"/>
-      <c r="K168" s="74"/>
-      <c r="L168" s="74"/>
-      <c r="M168" s="74"/>
-      <c r="N168" s="74"/>
-      <c r="O168" s="74"/>
-      <c r="P168" s="74"/>
-      <c r="Q168" s="74"/>
-      <c r="R168" s="74"/>
-      <c r="S168" s="74"/>
-      <c r="T168" s="74"/>
-      <c r="U168" s="74"/>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A169" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="B169" s="74"/>
-      <c r="C169" s="74"/>
-      <c r="D169" s="74"/>
-      <c r="E169" s="74"/>
-      <c r="F169" s="74"/>
-      <c r="G169" s="74"/>
-      <c r="H169" s="74"/>
-      <c r="I169" s="74"/>
-      <c r="J169" s="74"/>
-      <c r="K169" s="74"/>
-      <c r="L169" s="74"/>
-      <c r="M169" s="74"/>
-      <c r="N169" s="74"/>
-      <c r="O169" s="74"/>
-      <c r="P169" s="74"/>
-      <c r="Q169" s="74"/>
-      <c r="R169" s="74"/>
-      <c r="S169" s="74"/>
-      <c r="T169" s="74"/>
-      <c r="U169" s="74"/>
+      <c r="B169" s="75"/>
+      <c r="C169" s="75"/>
+      <c r="D169" s="75"/>
+      <c r="E169" s="75"/>
+      <c r="F169" s="75"/>
+      <c r="G169" s="75"/>
+      <c r="H169" s="75"/>
+      <c r="I169" s="75"/>
+      <c r="J169" s="75"/>
+      <c r="K169" s="75"/>
+      <c r="L169" s="75"/>
+      <c r="M169" s="75"/>
+      <c r="N169" s="75"/>
+      <c r="O169" s="75"/>
+      <c r="P169" s="75"/>
+      <c r="Q169" s="75"/>
+      <c r="R169" s="75"/>
+      <c r="S169" s="75"/>
+      <c r="T169" s="75"/>
+      <c r="U169" s="75"/>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="25"/>
@@ -4886,112 +4873,112 @@
       <c r="U170" s="22"/>
     </row>
     <row r="171" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="107" t="s">
-        <v>88</v>
-      </c>
-      <c r="B171" s="107"/>
-      <c r="C171" s="107"/>
-      <c r="D171" s="107"/>
-      <c r="E171" s="107"/>
-      <c r="F171" s="107"/>
-      <c r="G171" s="107"/>
-      <c r="H171" s="107"/>
-      <c r="I171" s="107"/>
-      <c r="J171" s="107"/>
-      <c r="K171" s="107"/>
-      <c r="L171" s="107"/>
-      <c r="M171" s="107"/>
-      <c r="N171" s="107"/>
-      <c r="O171" s="107"/>
-      <c r="P171" s="107"/>
-      <c r="Q171" s="107"/>
-      <c r="R171" s="107"/>
-      <c r="S171" s="107"/>
-      <c r="T171" s="107"/>
-      <c r="U171" s="107"/>
+      <c r="A171" s="102" t="s">
+        <v>87</v>
+      </c>
+      <c r="B171" s="102"/>
+      <c r="C171" s="102"/>
+      <c r="D171" s="102"/>
+      <c r="E171" s="102"/>
+      <c r="F171" s="102"/>
+      <c r="G171" s="102"/>
+      <c r="H171" s="102"/>
+      <c r="I171" s="102"/>
+      <c r="J171" s="102"/>
+      <c r="K171" s="102"/>
+      <c r="L171" s="102"/>
+      <c r="M171" s="102"/>
+      <c r="N171" s="102"/>
+      <c r="O171" s="102"/>
+      <c r="P171" s="102"/>
+      <c r="Q171" s="102"/>
+      <c r="R171" s="102"/>
+      <c r="S171" s="102"/>
+      <c r="T171" s="102"/>
+      <c r="U171" s="102"/>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
     </row>
     <row r="173" spans="1:21" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="B173" s="80"/>
-      <c r="C173" s="80"/>
-      <c r="D173" s="80"/>
-      <c r="E173" s="80"/>
-      <c r="F173" s="80"/>
-      <c r="G173" s="80"/>
-      <c r="H173" s="80"/>
-      <c r="I173" s="80"/>
-      <c r="J173" s="80"/>
-      <c r="K173" s="80"/>
-      <c r="L173" s="80"/>
-      <c r="M173" s="80"/>
-      <c r="N173" s="80"/>
-      <c r="O173" s="80"/>
-      <c r="P173" s="80"/>
-      <c r="Q173" s="80"/>
-      <c r="R173" s="80"/>
-      <c r="S173" s="80"/>
-      <c r="T173" s="80"/>
-      <c r="U173" s="80"/>
+      <c r="A173" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B173" s="62"/>
+      <c r="C173" s="62"/>
+      <c r="D173" s="62"/>
+      <c r="E173" s="62"/>
+      <c r="F173" s="62"/>
+      <c r="G173" s="62"/>
+      <c r="H173" s="62"/>
+      <c r="I173" s="62"/>
+      <c r="J173" s="62"/>
+      <c r="K173" s="62"/>
+      <c r="L173" s="62"/>
+      <c r="M173" s="62"/>
+      <c r="N173" s="62"/>
+      <c r="O173" s="62"/>
+      <c r="P173" s="62"/>
+      <c r="Q173" s="62"/>
+      <c r="R173" s="62"/>
+      <c r="S173" s="62"/>
+      <c r="T173" s="62"/>
+      <c r="U173" s="62"/>
     </row>
     <row r="175" spans="1:21" ht="47.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E178" s="63" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="178" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E178" s="62" t="s">
+      <c r="F178" s="63"/>
+      <c r="G178" s="63"/>
+      <c r="H178" s="63"/>
+      <c r="I178" s="63"/>
+      <c r="J178" s="63"/>
+      <c r="K178" s="63"/>
+      <c r="L178" s="63"/>
+      <c r="N178" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="F178" s="62"/>
-      <c r="G178" s="62"/>
-      <c r="H178" s="62"/>
-      <c r="I178" s="62"/>
-      <c r="J178" s="62"/>
-      <c r="K178" s="62"/>
-      <c r="L178" s="62"/>
-      <c r="N178" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="O178" s="106"/>
-      <c r="P178" s="106"/>
-      <c r="Q178" s="106"/>
-      <c r="R178" s="106"/>
-      <c r="S178" s="106"/>
-      <c r="T178" s="106"/>
-      <c r="U178" s="106"/>
+      <c r="O178" s="101"/>
+      <c r="P178" s="101"/>
+      <c r="Q178" s="101"/>
+      <c r="R178" s="101"/>
+      <c r="S178" s="101"/>
+      <c r="T178" s="101"/>
+      <c r="U178" s="101"/>
     </row>
     <row r="179" spans="1:21" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="181" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
-      <c r="E181" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="F181" s="62"/>
-      <c r="G181" s="62"/>
-      <c r="H181" s="62"/>
-      <c r="I181" s="62"/>
-      <c r="J181" s="62"/>
-      <c r="K181" s="62"/>
-      <c r="L181" s="62"/>
-      <c r="M181" s="62"/>
-      <c r="N181" s="62"/>
+      <c r="E181" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="F181" s="63"/>
+      <c r="G181" s="63"/>
+      <c r="H181" s="63"/>
+      <c r="I181" s="63"/>
+      <c r="J181" s="63"/>
+      <c r="K181" s="63"/>
+      <c r="L181" s="63"/>
+      <c r="M181" s="63"/>
+      <c r="N181" s="63"/>
       <c r="O181" s="7"/>
       <c r="P181" s="7"/>
     </row>
@@ -5032,7 +5019,7 @@
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.3">
@@ -5040,7 +5027,7 @@
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.3">
@@ -5048,7 +5035,7 @@
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.3">
@@ -5056,21 +5043,11 @@
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="403">
-    <mergeCell ref="A67:U67"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="K70:U70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="K71:U71"/>
-    <mergeCell ref="N153:P153"/>
-    <mergeCell ref="Q153:S153"/>
-    <mergeCell ref="T153:U153"/>
-    <mergeCell ref="T154:U154"/>
     <mergeCell ref="A155:D155"/>
     <mergeCell ref="A156:D156"/>
     <mergeCell ref="A157:D157"/>
@@ -5086,6 +5063,15 @@
     <mergeCell ref="A149:D149"/>
     <mergeCell ref="A153:D154"/>
     <mergeCell ref="E153:G153"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A69:H69"/>
     <mergeCell ref="A161:D161"/>
     <mergeCell ref="A159:D159"/>
     <mergeCell ref="A160:D160"/>
@@ -5110,7 +5096,30 @@
     <mergeCell ref="M62:U62"/>
     <mergeCell ref="A64:U64"/>
     <mergeCell ref="K153:M153"/>
-    <mergeCell ref="A66:U66"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="R74:U74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
     <mergeCell ref="H153:J153"/>
     <mergeCell ref="A142:D142"/>
     <mergeCell ref="A144:D145"/>
@@ -5121,11 +5130,9 @@
     <mergeCell ref="Q144:S144"/>
     <mergeCell ref="T144:U144"/>
     <mergeCell ref="T145:U145"/>
-    <mergeCell ref="A122:U122"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="N153:P153"/>
+    <mergeCell ref="Q153:S153"/>
+    <mergeCell ref="T153:U153"/>
     <mergeCell ref="E178:L178"/>
     <mergeCell ref="N178:U178"/>
     <mergeCell ref="E132:G132"/>
@@ -5162,12 +5169,6 @@
     <mergeCell ref="O3:U3"/>
     <mergeCell ref="O2:U2"/>
     <mergeCell ref="O1:U1"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="R74:U74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A65:U65"/>
     <mergeCell ref="R73:U73"/>
     <mergeCell ref="A72:J72"/>
@@ -5177,31 +5178,13 @@
     <mergeCell ref="H73:J73"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="A106:U106"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A66:U66"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="A67:U67"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="K70:U70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="K71:U71"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="C74:D74"/>
@@ -5214,6 +5197,16 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
     <mergeCell ref="A102:B102"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="C75:D75"/>
@@ -5236,19 +5229,6 @@
     <mergeCell ref="A169:U169"/>
     <mergeCell ref="A168:U168"/>
     <mergeCell ref="A167:U167"/>
-    <mergeCell ref="K132:M132"/>
-    <mergeCell ref="N132:P132"/>
-    <mergeCell ref="F127:U127"/>
-    <mergeCell ref="F126:U126"/>
-    <mergeCell ref="F125:U125"/>
-    <mergeCell ref="F128:U128"/>
-    <mergeCell ref="F129:U129"/>
-    <mergeCell ref="F130:U130"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A94:B94"/>
@@ -5259,16 +5239,12 @@
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
     <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="E75:G75"/>
     <mergeCell ref="E76:G76"/>
@@ -5303,6 +5279,8 @@
     <mergeCell ref="H92:J92"/>
     <mergeCell ref="H93:J93"/>
     <mergeCell ref="H94:J94"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="E93:G93"/>
     <mergeCell ref="H75:J75"/>
     <mergeCell ref="H76:J76"/>
     <mergeCell ref="H77:J77"/>
@@ -5321,13 +5299,11 @@
     <mergeCell ref="H100:J100"/>
     <mergeCell ref="H101:J101"/>
     <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H103:J103"/>
     <mergeCell ref="H95:J95"/>
     <mergeCell ref="H96:J96"/>
     <mergeCell ref="H97:J97"/>
     <mergeCell ref="H98:J98"/>
     <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K102:L102"/>
     <mergeCell ref="K75:L75"/>
     <mergeCell ref="K76:L76"/>
     <mergeCell ref="K77:L77"/>
@@ -5337,30 +5313,18 @@
     <mergeCell ref="K91:L91"/>
     <mergeCell ref="K92:L92"/>
     <mergeCell ref="K93:L93"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="K99:L99"/>
     <mergeCell ref="M80:N80"/>
     <mergeCell ref="M81:N81"/>
     <mergeCell ref="M82:N82"/>
     <mergeCell ref="M83:N83"/>
     <mergeCell ref="M84:N84"/>
     <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="M103:N103"/>
     <mergeCell ref="K94:L94"/>
     <mergeCell ref="K85:L85"/>
     <mergeCell ref="K86:L86"/>
     <mergeCell ref="K87:L87"/>
     <mergeCell ref="K88:L88"/>
     <mergeCell ref="K89:L89"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="K101:L101"/>
     <mergeCell ref="M90:N90"/>
     <mergeCell ref="M91:N91"/>
     <mergeCell ref="M92:N92"/>
@@ -5391,21 +5355,7 @@
     <mergeCell ref="O92:Q92"/>
     <mergeCell ref="O93:Q93"/>
     <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="R75:U75"/>
-    <mergeCell ref="R76:U76"/>
-    <mergeCell ref="R77:U77"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="R79:U79"/>
-    <mergeCell ref="O85:Q85"/>
-    <mergeCell ref="O86:Q86"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="O88:Q88"/>
     <mergeCell ref="O89:Q89"/>
-    <mergeCell ref="O80:Q80"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="O83:Q83"/>
-    <mergeCell ref="O84:Q84"/>
     <mergeCell ref="O75:Q75"/>
     <mergeCell ref="O76:Q76"/>
     <mergeCell ref="O77:Q77"/>
@@ -5425,8 +5375,20 @@
     <mergeCell ref="O6:T6"/>
     <mergeCell ref="H49:T49"/>
     <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="R75:U75"/>
+    <mergeCell ref="R76:U76"/>
+    <mergeCell ref="R77:U77"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="R79:U79"/>
+    <mergeCell ref="O85:Q85"/>
+    <mergeCell ref="O86:Q86"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="O88:Q88"/>
+    <mergeCell ref="O80:Q80"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="O83:Q83"/>
+    <mergeCell ref="O84:Q84"/>
     <mergeCell ref="E104:G104"/>
     <mergeCell ref="H104:J104"/>
     <mergeCell ref="K104:L104"/>
@@ -5440,6 +5402,17 @@
     <mergeCell ref="R97:U97"/>
     <mergeCell ref="R98:U98"/>
     <mergeCell ref="R99:U99"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M102:N102"/>
     <mergeCell ref="R90:U90"/>
     <mergeCell ref="R91:U91"/>
     <mergeCell ref="R92:U92"/>
@@ -5449,6 +5422,19 @@
     <mergeCell ref="T135:U135"/>
     <mergeCell ref="T136:U136"/>
     <mergeCell ref="T140:U140"/>
+    <mergeCell ref="F127:U127"/>
+    <mergeCell ref="F126:U126"/>
+    <mergeCell ref="F125:U125"/>
+    <mergeCell ref="F128:U128"/>
+    <mergeCell ref="F129:U129"/>
+    <mergeCell ref="F130:U130"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="K132:M132"/>
+    <mergeCell ref="N132:P132"/>
+    <mergeCell ref="A122:U122"/>
+    <mergeCell ref="A106:U106"/>
     <mergeCell ref="T141:U141"/>
     <mergeCell ref="T142:U142"/>
     <mergeCell ref="T146:U146"/>
@@ -5464,6 +5450,7 @@
     <mergeCell ref="T158:U158"/>
     <mergeCell ref="T159:U159"/>
     <mergeCell ref="T160:U160"/>
+    <mergeCell ref="T154:U154"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:G4">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
@@ -5489,9 +5476,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11:H12">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4">
-      <formula1>#REF!</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6">
       <formula1>#REF!</formula1>
     </dataValidation>
@@ -5501,6 +5485,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H49:T49">
       <formula1>#REF!</formula1>
     </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A4:G4"/>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5514,68 +5499,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="16.33203125"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7.0</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7.0</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7.0</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -5782,7 +5767,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCC28C77-A00F-42F3-8C92-34C136734ECD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCC28C77-A00F-42F3-8C92-34C136734ECD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4504c661-e3b6-4ab0-93d3-a30956898912"/>
+    <ds:schemaRef ds:uri="d2ce43d4-d6b1-4d1f-98ab-1d97c1733390"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/src/main/resources/Gradingtable.xlsx
+++ b/src/main/resources/Gradingtable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Leistungsbericht" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
   <si>
     <t>Datum:</t>
   </si>
@@ -526,7 +526,10 @@
     <t>Recommendation</t>
   </si>
   <si>
-    <t>Kann Gut Deutsch</t>
+    <t>sehr guter</t>
+  </si>
+  <si>
+    <t>sehr gute</t>
   </si>
 </sst>
 </file>
@@ -1285,6 +1288,408 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1297,410 +1702,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1980,7 +1983,7 @@
   </sheetPr>
   <dimension ref="A1:U191"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
@@ -1994,102 +1997,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="O1" s="64" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="O1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
     </row>
     <row r="2" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="O2" s="64" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="O2" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
     </row>
     <row r="3" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="99"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="O3" s="100" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="O3" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
     </row>
     <row r="4" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="99"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="O4" s="100" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="O4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="99"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
     </row>
     <row r="6" spans="1:21" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="O6" s="50" t="s">
+      <c r="O6" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="159"/>
       <c r="U6" s="23"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -2111,303 +2114,303 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="130" t="s">
+      <c r="A49" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="130"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="51" t="s">
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="51"/>
-      <c r="M49" s="51"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="51"/>
-      <c r="P49" s="51"/>
-      <c r="Q49" s="51"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
-      <c r="T49" s="51"/>
+      <c r="I49" s="160"/>
+      <c r="J49" s="160"/>
+      <c r="K49" s="160"/>
+      <c r="L49" s="160"/>
+      <c r="M49" s="160"/>
+      <c r="N49" s="160"/>
+      <c r="O49" s="160"/>
+      <c r="P49" s="160"/>
+      <c r="Q49" s="160"/>
+      <c r="R49" s="160"/>
+      <c r="S49" s="160"/>
+      <c r="T49" s="160"/>
       <c r="U49" s="7"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="131" t="s">
+      <c r="A51" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="131"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131"/>
-      <c r="J51" s="131"/>
-      <c r="K51" s="131"/>
-      <c r="L51" s="131"/>
-      <c r="M51" s="131"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="99" t="s">
+      <c r="A53" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="99"/>
-      <c r="K53" s="99"/>
-      <c r="L53" s="99"/>
-      <c r="M53" s="99"/>
-      <c r="N53" s="99"/>
-      <c r="O53" s="99"/>
-      <c r="P53" s="99"/>
-      <c r="Q53" s="99"/>
-      <c r="R53" s="99"/>
-      <c r="S53" s="99"/>
-      <c r="T53" s="99"/>
-      <c r="U53" s="99"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="64"/>
+      <c r="T53" s="64"/>
+      <c r="U53" s="64"/>
     </row>
     <row r="54" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="48"/>
-      <c r="M55" s="48" t="s">
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="66"/>
+      <c r="M55" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="N55" s="48"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="48"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="48"/>
-      <c r="U55" s="49"/>
+      <c r="N55" s="66"/>
+      <c r="O55" s="66"/>
+      <c r="P55" s="66"/>
+      <c r="Q55" s="66"/>
+      <c r="R55" s="66"/>
+      <c r="S55" s="66"/>
+      <c r="T55" s="66"/>
+      <c r="U55" s="70"/>
     </row>
     <row r="56" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="132"/>
-      <c r="B56" s="133"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="133"/>
-      <c r="L56" s="134"/>
-      <c r="M56" s="135"/>
-      <c r="N56" s="135"/>
-      <c r="O56" s="135"/>
-      <c r="P56" s="135"/>
-      <c r="Q56" s="135"/>
-      <c r="R56" s="135"/>
-      <c r="S56" s="135"/>
-      <c r="T56" s="135"/>
-      <c r="U56" s="135"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="69"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="71"/>
+      <c r="T56" s="71"/>
+      <c r="U56" s="71"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="136" t="s">
+      <c r="A57" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="137"/>
-      <c r="C57" s="137"/>
-      <c r="D57" s="137"/>
-      <c r="E57" s="137"/>
-      <c r="F57" s="137"/>
-      <c r="G57" s="137"/>
-      <c r="H57" s="137"/>
-      <c r="I57" s="137"/>
-      <c r="J57" s="137"/>
-      <c r="K57" s="137"/>
-      <c r="L57" s="137"/>
-      <c r="M57" s="137" t="s">
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="N57" s="140"/>
-      <c r="O57" s="140"/>
-      <c r="P57" s="140"/>
-      <c r="Q57" s="137" t="s">
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="R57" s="140"/>
-      <c r="S57" s="140"/>
-      <c r="T57" s="140"/>
-      <c r="U57" s="142"/>
+      <c r="R57" s="76"/>
+      <c r="S57" s="76"/>
+      <c r="T57" s="76"/>
+      <c r="U57" s="78"/>
     </row>
     <row r="58" spans="1:21" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="138"/>
-      <c r="B58" s="139"/>
-      <c r="C58" s="139"/>
-      <c r="D58" s="139"/>
-      <c r="E58" s="139"/>
-      <c r="F58" s="139"/>
-      <c r="G58" s="139"/>
-      <c r="H58" s="139"/>
-      <c r="I58" s="139"/>
-      <c r="J58" s="139"/>
-      <c r="K58" s="139"/>
-      <c r="L58" s="139"/>
-      <c r="M58" s="141"/>
-      <c r="N58" s="139"/>
-      <c r="O58" s="139"/>
-      <c r="P58" s="139"/>
-      <c r="Q58" s="141"/>
-      <c r="R58" s="139"/>
-      <c r="S58" s="139"/>
-      <c r="T58" s="139"/>
-      <c r="U58" s="143"/>
+      <c r="A58" s="74"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="75"/>
+      <c r="K58" s="75"/>
+      <c r="L58" s="75"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="75"/>
+      <c r="O58" s="75"/>
+      <c r="P58" s="75"/>
+      <c r="Q58" s="77"/>
+      <c r="R58" s="75"/>
+      <c r="S58" s="75"/>
+      <c r="T58" s="75"/>
+      <c r="U58" s="79"/>
     </row>
     <row r="59" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="48"/>
-      <c r="I60" s="48"/>
-      <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="48"/>
-      <c r="O60" s="48"/>
-      <c r="P60" s="48"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="48"/>
-      <c r="S60" s="48"/>
-      <c r="T60" s="48"/>
-      <c r="U60" s="49"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
+      <c r="M60" s="66"/>
+      <c r="N60" s="66"/>
+      <c r="O60" s="66"/>
+      <c r="P60" s="66"/>
+      <c r="Q60" s="66"/>
+      <c r="R60" s="66"/>
+      <c r="S60" s="66"/>
+      <c r="T60" s="66"/>
+      <c r="U60" s="70"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="144" t="s">
+      <c r="A61" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="145"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="145"/>
-      <c r="F61" s="146" t="s">
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="145"/>
-      <c r="H61" s="145"/>
-      <c r="I61" s="145"/>
-      <c r="J61" s="145"/>
-      <c r="K61" s="145"/>
-      <c r="L61" s="145"/>
-      <c r="M61" s="146" t="s">
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="81"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="N61" s="145"/>
-      <c r="O61" s="145"/>
-      <c r="P61" s="145"/>
-      <c r="Q61" s="145"/>
-      <c r="R61" s="145"/>
-      <c r="S61" s="145"/>
-      <c r="T61" s="145"/>
-      <c r="U61" s="147"/>
+      <c r="N61" s="81"/>
+      <c r="O61" s="81"/>
+      <c r="P61" s="81"/>
+      <c r="Q61" s="81"/>
+      <c r="R61" s="81"/>
+      <c r="S61" s="81"/>
+      <c r="T61" s="81"/>
+      <c r="U61" s="83"/>
     </row>
     <row r="62" spans="1:21" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="148"/>
-      <c r="B62" s="149"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="149"/>
-      <c r="E62" s="149"/>
-      <c r="F62" s="150"/>
-      <c r="G62" s="149"/>
-      <c r="H62" s="149"/>
-      <c r="I62" s="149"/>
-      <c r="J62" s="149"/>
-      <c r="K62" s="149"/>
-      <c r="L62" s="149"/>
-      <c r="M62" s="141"/>
-      <c r="N62" s="139"/>
-      <c r="O62" s="139"/>
-      <c r="P62" s="139"/>
-      <c r="Q62" s="139"/>
-      <c r="R62" s="139"/>
-      <c r="S62" s="139"/>
-      <c r="T62" s="139"/>
-      <c r="U62" s="143"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="85"/>
+      <c r="J62" s="85"/>
+      <c r="K62" s="85"/>
+      <c r="L62" s="85"/>
+      <c r="M62" s="77"/>
+      <c r="N62" s="75"/>
+      <c r="O62" s="75"/>
+      <c r="P62" s="75"/>
+      <c r="Q62" s="75"/>
+      <c r="R62" s="75"/>
+      <c r="S62" s="75"/>
+      <c r="T62" s="75"/>
+      <c r="U62" s="79"/>
     </row>
     <row r="63" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="151" t="s">
+      <c r="A64" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="152"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="152"/>
-      <c r="E64" s="152"/>
-      <c r="F64" s="152"/>
-      <c r="G64" s="152"/>
-      <c r="H64" s="152"/>
-      <c r="I64" s="152"/>
-      <c r="J64" s="152"/>
-      <c r="K64" s="152"/>
-      <c r="L64" s="152"/>
-      <c r="M64" s="152"/>
-      <c r="N64" s="152"/>
-      <c r="O64" s="152"/>
-      <c r="P64" s="152"/>
-      <c r="Q64" s="152"/>
-      <c r="R64" s="152"/>
-      <c r="S64" s="152"/>
-      <c r="T64" s="152"/>
-      <c r="U64" s="153"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="88"/>
+      <c r="M64" s="88"/>
+      <c r="N64" s="88"/>
+      <c r="O64" s="88"/>
+      <c r="P64" s="88"/>
+      <c r="Q64" s="88"/>
+      <c r="R64" s="88"/>
+      <c r="S64" s="88"/>
+      <c r="T64" s="88"/>
+      <c r="U64" s="89"/>
     </row>
     <row r="65" spans="1:21" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="87"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="88"/>
-      <c r="F65" s="88"/>
-      <c r="G65" s="88"/>
-      <c r="H65" s="88"/>
-      <c r="I65" s="88"/>
-      <c r="J65" s="88"/>
-      <c r="K65" s="88"/>
-      <c r="L65" s="88"/>
-      <c r="M65" s="88"/>
-      <c r="N65" s="88"/>
-      <c r="O65" s="88"/>
-      <c r="P65" s="88"/>
-      <c r="Q65" s="88"/>
-      <c r="R65" s="88"/>
-      <c r="S65" s="88"/>
-      <c r="T65" s="88"/>
-      <c r="U65" s="89"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="58"/>
+      <c r="P65" s="58"/>
+      <c r="Q65" s="58"/>
+      <c r="R65" s="58"/>
+      <c r="S65" s="58"/>
+      <c r="T65" s="58"/>
+      <c r="U65" s="111"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="123" t="s">
@@ -2435,898 +2438,898 @@
       <c r="U66" s="125"/>
     </row>
     <row r="67" spans="1:21" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="87"/>
-      <c r="B67" s="88"/>
-      <c r="C67" s="88"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="88"/>
-      <c r="F67" s="88"/>
-      <c r="G67" s="88"/>
-      <c r="H67" s="88"/>
-      <c r="I67" s="88"/>
-      <c r="J67" s="88"/>
-      <c r="K67" s="88"/>
-      <c r="L67" s="88"/>
-      <c r="M67" s="88"/>
-      <c r="N67" s="88"/>
-      <c r="O67" s="88"/>
-      <c r="P67" s="88"/>
-      <c r="Q67" s="88"/>
-      <c r="R67" s="88"/>
-      <c r="S67" s="88"/>
-      <c r="T67" s="88"/>
-      <c r="U67" s="89"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="58"/>
+      <c r="M67" s="58"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="58"/>
+      <c r="P67" s="58"/>
+      <c r="Q67" s="58"/>
+      <c r="R67" s="58"/>
+      <c r="S67" s="58"/>
+      <c r="T67" s="58"/>
+      <c r="U67" s="111"/>
     </row>
     <row r="68" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="154" t="s">
+      <c r="A68" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="85"/>
-      <c r="C68" s="85"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="85"/>
-      <c r="I68" s="85"/>
-      <c r="J68" s="85"/>
-      <c r="K68" s="85"/>
-      <c r="L68" s="85"/>
-      <c r="M68" s="85"/>
-      <c r="N68" s="85"/>
-      <c r="O68" s="85"/>
-      <c r="P68" s="85"/>
-      <c r="Q68" s="155"/>
-      <c r="R68" s="155"/>
-      <c r="S68" s="155"/>
-      <c r="T68" s="155"/>
-      <c r="U68" s="156"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="40"/>
     </row>
     <row r="69" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="87" t="s">
+      <c r="A69" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="88"/>
-      <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="88"/>
-      <c r="Q69" s="157"/>
-      <c r="R69" s="157"/>
-      <c r="S69" s="157"/>
-      <c r="T69" s="157"/>
-      <c r="U69" s="158"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="41"/>
+      <c r="T69" s="41"/>
+      <c r="U69" s="42"/>
     </row>
     <row r="70" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="159" t="s">
+      <c r="A70" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="160"/>
-      <c r="C70" s="160"/>
-      <c r="D70" s="160"/>
-      <c r="E70" s="160"/>
-      <c r="F70" s="160"/>
-      <c r="G70" s="160"/>
-      <c r="H70" s="160"/>
-      <c r="I70" s="160"/>
-      <c r="J70" s="161"/>
-      <c r="K70" s="159" t="s">
+      <c r="B70" s="127"/>
+      <c r="C70" s="127"/>
+      <c r="D70" s="127"/>
+      <c r="E70" s="127"/>
+      <c r="F70" s="127"/>
+      <c r="G70" s="127"/>
+      <c r="H70" s="127"/>
+      <c r="I70" s="127"/>
+      <c r="J70" s="128"/>
+      <c r="K70" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="L70" s="160"/>
-      <c r="M70" s="160"/>
-      <c r="N70" s="160"/>
-      <c r="O70" s="160"/>
-      <c r="P70" s="160"/>
-      <c r="Q70" s="160"/>
-      <c r="R70" s="160"/>
-      <c r="S70" s="160"/>
-      <c r="T70" s="160"/>
-      <c r="U70" s="161"/>
+      <c r="L70" s="127"/>
+      <c r="M70" s="127"/>
+      <c r="N70" s="127"/>
+      <c r="O70" s="127"/>
+      <c r="P70" s="127"/>
+      <c r="Q70" s="127"/>
+      <c r="R70" s="127"/>
+      <c r="S70" s="127"/>
+      <c r="T70" s="127"/>
+      <c r="U70" s="128"/>
     </row>
     <row r="71" spans="1:21" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="162"/>
-      <c r="B71" s="163"/>
-      <c r="C71" s="163"/>
-      <c r="D71" s="163"/>
-      <c r="E71" s="163"/>
-      <c r="F71" s="163"/>
-      <c r="G71" s="163"/>
-      <c r="H71" s="163"/>
-      <c r="I71" s="163"/>
-      <c r="J71" s="164"/>
-      <c r="K71" s="165"/>
-      <c r="L71" s="166"/>
-      <c r="M71" s="166"/>
-      <c r="N71" s="166"/>
-      <c r="O71" s="166"/>
-      <c r="P71" s="166"/>
-      <c r="Q71" s="166"/>
-      <c r="R71" s="166"/>
-      <c r="S71" s="166"/>
-      <c r="T71" s="166"/>
-      <c r="U71" s="167"/>
+      <c r="A71" s="129"/>
+      <c r="B71" s="130"/>
+      <c r="C71" s="130"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="130"/>
+      <c r="G71" s="130"/>
+      <c r="H71" s="130"/>
+      <c r="I71" s="130"/>
+      <c r="J71" s="131"/>
+      <c r="K71" s="132"/>
+      <c r="L71" s="133"/>
+      <c r="M71" s="133"/>
+      <c r="N71" s="133"/>
+      <c r="O71" s="133"/>
+      <c r="P71" s="133"/>
+      <c r="Q71" s="133"/>
+      <c r="R71" s="133"/>
+      <c r="S71" s="133"/>
+      <c r="T71" s="133"/>
+      <c r="U71" s="134"/>
     </row>
     <row r="72" spans="1:21" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="93" t="s">
+      <c r="A72" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="94"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="94"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="95"/>
-      <c r="K72" s="93" t="s">
+      <c r="B72" s="116"/>
+      <c r="C72" s="116"/>
+      <c r="D72" s="116"/>
+      <c r="E72" s="116"/>
+      <c r="F72" s="116"/>
+      <c r="G72" s="116"/>
+      <c r="H72" s="116"/>
+      <c r="I72" s="116"/>
+      <c r="J72" s="117"/>
+      <c r="K72" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="L72" s="94"/>
-      <c r="M72" s="94"/>
-      <c r="N72" s="94"/>
-      <c r="O72" s="94"/>
-      <c r="P72" s="94"/>
-      <c r="Q72" s="94"/>
-      <c r="R72" s="94"/>
-      <c r="S72" s="94"/>
-      <c r="T72" s="94"/>
-      <c r="U72" s="95"/>
+      <c r="L72" s="116"/>
+      <c r="M72" s="116"/>
+      <c r="N72" s="116"/>
+      <c r="O72" s="116"/>
+      <c r="P72" s="116"/>
+      <c r="Q72" s="116"/>
+      <c r="R72" s="116"/>
+      <c r="S72" s="116"/>
+      <c r="T72" s="116"/>
+      <c r="U72" s="117"/>
     </row>
     <row r="73" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="52" t="s">
+      <c r="A73" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="53"/>
-      <c r="C73" s="96" t="s">
+      <c r="B73" s="119"/>
+      <c r="C73" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="53"/>
-      <c r="E73" s="96" t="s">
+      <c r="D73" s="119"/>
+      <c r="E73" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="F73" s="97"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="96" t="s">
+      <c r="F73" s="120"/>
+      <c r="G73" s="119"/>
+      <c r="H73" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="I73" s="97"/>
-      <c r="J73" s="98"/>
-      <c r="K73" s="52" t="s">
+      <c r="I73" s="120"/>
+      <c r="J73" s="121"/>
+      <c r="K73" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="L73" s="53"/>
-      <c r="M73" s="96" t="s">
+      <c r="L73" s="119"/>
+      <c r="M73" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="N73" s="53"/>
-      <c r="O73" s="96" t="s">
+      <c r="N73" s="119"/>
+      <c r="O73" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="P73" s="97"/>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="90" t="s">
+      <c r="P73" s="120"/>
+      <c r="Q73" s="119"/>
+      <c r="R73" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="S73" s="91"/>
-      <c r="T73" s="91"/>
-      <c r="U73" s="92"/>
+      <c r="S73" s="113"/>
+      <c r="T73" s="113"/>
+      <c r="U73" s="114"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="81"/>
-      <c r="B74" s="82"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="86"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="126"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="82"/>
-      <c r="M74" s="83"/>
-      <c r="N74" s="82"/>
-      <c r="O74" s="84"/>
-      <c r="P74" s="85"/>
-      <c r="Q74" s="86"/>
-      <c r="R74" s="127"/>
-      <c r="S74" s="128"/>
-      <c r="T74" s="128"/>
-      <c r="U74" s="129"/>
+      <c r="A74" s="92"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="95"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="91"/>
+      <c r="K74" s="92"/>
+      <c r="L74" s="93"/>
+      <c r="M74" s="94"/>
+      <c r="N74" s="93"/>
+      <c r="O74" s="90"/>
+      <c r="P74" s="38"/>
+      <c r="Q74" s="95"/>
+      <c r="R74" s="96"/>
+      <c r="S74" s="97"/>
+      <c r="T74" s="97"/>
+      <c r="U74" s="98"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="60"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="58"/>
-      <c r="M75" s="57"/>
-      <c r="N75" s="58"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="55"/>
-      <c r="Q75" s="56"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="36"/>
-      <c r="T75" s="36"/>
-      <c r="U75" s="37"/>
+      <c r="A75" s="99"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="135"/>
+      <c r="F75" s="136"/>
+      <c r="G75" s="137"/>
+      <c r="H75" s="135"/>
+      <c r="I75" s="136"/>
+      <c r="J75" s="152"/>
+      <c r="K75" s="99"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="55"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="135"/>
+      <c r="P75" s="136"/>
+      <c r="Q75" s="137"/>
+      <c r="R75" s="156"/>
+      <c r="S75" s="157"/>
+      <c r="T75" s="157"/>
+      <c r="U75" s="158"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="60"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="60"/>
-      <c r="L76" s="58"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="58"/>
-      <c r="O76" s="54"/>
-      <c r="P76" s="55"/>
-      <c r="Q76" s="56"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="36"/>
-      <c r="T76" s="36"/>
-      <c r="U76" s="37"/>
+      <c r="A76" s="99"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="135"/>
+      <c r="F76" s="136"/>
+      <c r="G76" s="137"/>
+      <c r="H76" s="135"/>
+      <c r="I76" s="136"/>
+      <c r="J76" s="152"/>
+      <c r="K76" s="99"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="55"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="135"/>
+      <c r="P76" s="136"/>
+      <c r="Q76" s="137"/>
+      <c r="R76" s="156"/>
+      <c r="S76" s="157"/>
+      <c r="T76" s="157"/>
+      <c r="U76" s="158"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="60"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="60"/>
-      <c r="L77" s="58"/>
-      <c r="M77" s="57"/>
-      <c r="N77" s="58"/>
-      <c r="O77" s="54"/>
-      <c r="P77" s="55"/>
-      <c r="Q77" s="56"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="36"/>
-      <c r="T77" s="36"/>
-      <c r="U77" s="37"/>
+      <c r="A77" s="99"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="135"/>
+      <c r="F77" s="136"/>
+      <c r="G77" s="137"/>
+      <c r="H77" s="135"/>
+      <c r="I77" s="136"/>
+      <c r="J77" s="152"/>
+      <c r="K77" s="99"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="55"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="135"/>
+      <c r="P77" s="136"/>
+      <c r="Q77" s="137"/>
+      <c r="R77" s="156"/>
+      <c r="S77" s="157"/>
+      <c r="T77" s="157"/>
+      <c r="U77" s="158"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="60"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="58"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="60"/>
-      <c r="L78" s="58"/>
-      <c r="M78" s="57"/>
-      <c r="N78" s="58"/>
-      <c r="O78" s="54"/>
-      <c r="P78" s="55"/>
-      <c r="Q78" s="56"/>
-      <c r="R78" s="35"/>
-      <c r="S78" s="36"/>
-      <c r="T78" s="36"/>
-      <c r="U78" s="37"/>
+      <c r="A78" s="99"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="135"/>
+      <c r="F78" s="136"/>
+      <c r="G78" s="137"/>
+      <c r="H78" s="135"/>
+      <c r="I78" s="136"/>
+      <c r="J78" s="152"/>
+      <c r="K78" s="99"/>
+      <c r="L78" s="56"/>
+      <c r="M78" s="55"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="135"/>
+      <c r="P78" s="136"/>
+      <c r="Q78" s="137"/>
+      <c r="R78" s="156"/>
+      <c r="S78" s="157"/>
+      <c r="T78" s="157"/>
+      <c r="U78" s="158"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="60"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="58"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="54"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="61"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="58"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="58"/>
-      <c r="O79" s="54"/>
-      <c r="P79" s="55"/>
-      <c r="Q79" s="56"/>
-      <c r="R79" s="35"/>
-      <c r="S79" s="36"/>
-      <c r="T79" s="36"/>
-      <c r="U79" s="37"/>
+      <c r="A79" s="99"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="135"/>
+      <c r="F79" s="136"/>
+      <c r="G79" s="137"/>
+      <c r="H79" s="135"/>
+      <c r="I79" s="136"/>
+      <c r="J79" s="152"/>
+      <c r="K79" s="99"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="55"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="135"/>
+      <c r="P79" s="136"/>
+      <c r="Q79" s="137"/>
+      <c r="R79" s="156"/>
+      <c r="S79" s="157"/>
+      <c r="T79" s="157"/>
+      <c r="U79" s="158"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="60"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="54"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="60"/>
-      <c r="L80" s="58"/>
-      <c r="M80" s="57"/>
-      <c r="N80" s="58"/>
-      <c r="O80" s="54"/>
-      <c r="P80" s="55"/>
-      <c r="Q80" s="56"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="36"/>
-      <c r="T80" s="36"/>
-      <c r="U80" s="37"/>
+      <c r="A80" s="99"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="55"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="135"/>
+      <c r="F80" s="136"/>
+      <c r="G80" s="137"/>
+      <c r="H80" s="135"/>
+      <c r="I80" s="136"/>
+      <c r="J80" s="152"/>
+      <c r="K80" s="99"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="55"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="135"/>
+      <c r="P80" s="136"/>
+      <c r="Q80" s="137"/>
+      <c r="R80" s="156"/>
+      <c r="S80" s="157"/>
+      <c r="T80" s="157"/>
+      <c r="U80" s="158"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="60"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="60"/>
-      <c r="L81" s="58"/>
-      <c r="M81" s="57"/>
-      <c r="N81" s="58"/>
-      <c r="O81" s="54"/>
-      <c r="P81" s="55"/>
-      <c r="Q81" s="56"/>
-      <c r="R81" s="35"/>
-      <c r="S81" s="36"/>
-      <c r="T81" s="36"/>
-      <c r="U81" s="37"/>
+      <c r="A81" s="99"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="135"/>
+      <c r="F81" s="136"/>
+      <c r="G81" s="137"/>
+      <c r="H81" s="135"/>
+      <c r="I81" s="136"/>
+      <c r="J81" s="152"/>
+      <c r="K81" s="99"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="55"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="135"/>
+      <c r="P81" s="136"/>
+      <c r="Q81" s="137"/>
+      <c r="R81" s="156"/>
+      <c r="S81" s="157"/>
+      <c r="T81" s="157"/>
+      <c r="U81" s="158"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="60"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="61"/>
-      <c r="K82" s="60"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="57"/>
-      <c r="N82" s="58"/>
-      <c r="O82" s="54"/>
-      <c r="P82" s="55"/>
-      <c r="Q82" s="56"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="36"/>
-      <c r="T82" s="36"/>
-      <c r="U82" s="37"/>
+      <c r="A82" s="99"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="135"/>
+      <c r="F82" s="136"/>
+      <c r="G82" s="137"/>
+      <c r="H82" s="135"/>
+      <c r="I82" s="136"/>
+      <c r="J82" s="152"/>
+      <c r="K82" s="99"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="55"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="135"/>
+      <c r="P82" s="136"/>
+      <c r="Q82" s="137"/>
+      <c r="R82" s="156"/>
+      <c r="S82" s="157"/>
+      <c r="T82" s="157"/>
+      <c r="U82" s="158"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="60"/>
-      <c r="B83" s="58"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="61"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="58"/>
-      <c r="M83" s="57"/>
-      <c r="N83" s="58"/>
-      <c r="O83" s="54"/>
-      <c r="P83" s="55"/>
-      <c r="Q83" s="56"/>
-      <c r="R83" s="35"/>
-      <c r="S83" s="36"/>
-      <c r="T83" s="36"/>
-      <c r="U83" s="37"/>
+      <c r="A83" s="99"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="55"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="135"/>
+      <c r="F83" s="136"/>
+      <c r="G83" s="137"/>
+      <c r="H83" s="135"/>
+      <c r="I83" s="136"/>
+      <c r="J83" s="152"/>
+      <c r="K83" s="99"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="135"/>
+      <c r="P83" s="136"/>
+      <c r="Q83" s="137"/>
+      <c r="R83" s="156"/>
+      <c r="S83" s="157"/>
+      <c r="T83" s="157"/>
+      <c r="U83" s="158"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="60"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="54"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="61"/>
-      <c r="K84" s="60"/>
-      <c r="L84" s="58"/>
-      <c r="M84" s="57"/>
-      <c r="N84" s="58"/>
-      <c r="O84" s="54"/>
-      <c r="P84" s="55"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="37"/>
+      <c r="A84" s="99"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="135"/>
+      <c r="F84" s="136"/>
+      <c r="G84" s="137"/>
+      <c r="H84" s="135"/>
+      <c r="I84" s="136"/>
+      <c r="J84" s="152"/>
+      <c r="K84" s="99"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="135"/>
+      <c r="P84" s="136"/>
+      <c r="Q84" s="137"/>
+      <c r="R84" s="156"/>
+      <c r="S84" s="157"/>
+      <c r="T84" s="157"/>
+      <c r="U84" s="158"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="60"/>
-      <c r="B85" s="58"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="54"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="60"/>
-      <c r="L85" s="58"/>
-      <c r="M85" s="57"/>
-      <c r="N85" s="58"/>
-      <c r="O85" s="54"/>
-      <c r="P85" s="55"/>
-      <c r="Q85" s="56"/>
-      <c r="R85" s="35"/>
-      <c r="S85" s="36"/>
-      <c r="T85" s="36"/>
-      <c r="U85" s="37"/>
+      <c r="A85" s="99"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="135"/>
+      <c r="F85" s="136"/>
+      <c r="G85" s="137"/>
+      <c r="H85" s="135"/>
+      <c r="I85" s="136"/>
+      <c r="J85" s="152"/>
+      <c r="K85" s="99"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="135"/>
+      <c r="P85" s="136"/>
+      <c r="Q85" s="137"/>
+      <c r="R85" s="156"/>
+      <c r="S85" s="157"/>
+      <c r="T85" s="157"/>
+      <c r="U85" s="158"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A86" s="60"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="58"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="54"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="61"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="58"/>
-      <c r="M86" s="57"/>
-      <c r="N86" s="58"/>
-      <c r="O86" s="54"/>
-      <c r="P86" s="55"/>
-      <c r="Q86" s="56"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="36"/>
-      <c r="T86" s="36"/>
-      <c r="U86" s="37"/>
+      <c r="A86" s="99"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="55"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="135"/>
+      <c r="F86" s="136"/>
+      <c r="G86" s="137"/>
+      <c r="H86" s="135"/>
+      <c r="I86" s="136"/>
+      <c r="J86" s="152"/>
+      <c r="K86" s="99"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="55"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="135"/>
+      <c r="P86" s="136"/>
+      <c r="Q86" s="137"/>
+      <c r="R86" s="156"/>
+      <c r="S86" s="157"/>
+      <c r="T86" s="157"/>
+      <c r="U86" s="158"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="60"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="54"/>
-      <c r="I87" s="55"/>
-      <c r="J87" s="61"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="58"/>
-      <c r="M87" s="57"/>
-      <c r="N87" s="58"/>
-      <c r="O87" s="54"/>
-      <c r="P87" s="55"/>
-      <c r="Q87" s="56"/>
-      <c r="R87" s="35"/>
-      <c r="S87" s="36"/>
-      <c r="T87" s="36"/>
-      <c r="U87" s="37"/>
+      <c r="A87" s="99"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="135"/>
+      <c r="F87" s="136"/>
+      <c r="G87" s="137"/>
+      <c r="H87" s="135"/>
+      <c r="I87" s="136"/>
+      <c r="J87" s="152"/>
+      <c r="K87" s="99"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="55"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="135"/>
+      <c r="P87" s="136"/>
+      <c r="Q87" s="137"/>
+      <c r="R87" s="156"/>
+      <c r="S87" s="157"/>
+      <c r="T87" s="157"/>
+      <c r="U87" s="158"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A88" s="60"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="54"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="61"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="58"/>
-      <c r="M88" s="57"/>
-      <c r="N88" s="58"/>
-      <c r="O88" s="54"/>
-      <c r="P88" s="55"/>
-      <c r="Q88" s="56"/>
-      <c r="R88" s="35"/>
-      <c r="S88" s="36"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="37"/>
+      <c r="A88" s="99"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="135"/>
+      <c r="F88" s="136"/>
+      <c r="G88" s="137"/>
+      <c r="H88" s="135"/>
+      <c r="I88" s="136"/>
+      <c r="J88" s="152"/>
+      <c r="K88" s="99"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="135"/>
+      <c r="P88" s="136"/>
+      <c r="Q88" s="137"/>
+      <c r="R88" s="156"/>
+      <c r="S88" s="157"/>
+      <c r="T88" s="157"/>
+      <c r="U88" s="158"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="60"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="54"/>
-      <c r="I89" s="55"/>
-      <c r="J89" s="61"/>
-      <c r="K89" s="60"/>
-      <c r="L89" s="58"/>
-      <c r="M89" s="57"/>
-      <c r="N89" s="58"/>
-      <c r="O89" s="54"/>
-      <c r="P89" s="55"/>
-      <c r="Q89" s="56"/>
-      <c r="R89" s="35"/>
-      <c r="S89" s="36"/>
-      <c r="T89" s="36"/>
-      <c r="U89" s="37"/>
+      <c r="A89" s="99"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="55"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="135"/>
+      <c r="F89" s="136"/>
+      <c r="G89" s="137"/>
+      <c r="H89" s="135"/>
+      <c r="I89" s="136"/>
+      <c r="J89" s="152"/>
+      <c r="K89" s="99"/>
+      <c r="L89" s="56"/>
+      <c r="M89" s="55"/>
+      <c r="N89" s="56"/>
+      <c r="O89" s="135"/>
+      <c r="P89" s="136"/>
+      <c r="Q89" s="137"/>
+      <c r="R89" s="156"/>
+      <c r="S89" s="157"/>
+      <c r="T89" s="157"/>
+      <c r="U89" s="158"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="60"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="55"/>
-      <c r="J90" s="61"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="58"/>
-      <c r="M90" s="57"/>
-      <c r="N90" s="58"/>
-      <c r="O90" s="54"/>
-      <c r="P90" s="55"/>
-      <c r="Q90" s="56"/>
-      <c r="R90" s="35"/>
-      <c r="S90" s="36"/>
-      <c r="T90" s="36"/>
-      <c r="U90" s="37"/>
+      <c r="A90" s="99"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="135"/>
+      <c r="F90" s="136"/>
+      <c r="G90" s="137"/>
+      <c r="H90" s="135"/>
+      <c r="I90" s="136"/>
+      <c r="J90" s="152"/>
+      <c r="K90" s="99"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="55"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="135"/>
+      <c r="P90" s="136"/>
+      <c r="Q90" s="137"/>
+      <c r="R90" s="156"/>
+      <c r="S90" s="157"/>
+      <c r="T90" s="157"/>
+      <c r="U90" s="158"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="60"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="58"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="54"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="61"/>
-      <c r="K91" s="60"/>
-      <c r="L91" s="58"/>
-      <c r="M91" s="57"/>
-      <c r="N91" s="58"/>
-      <c r="O91" s="54"/>
-      <c r="P91" s="55"/>
-      <c r="Q91" s="56"/>
-      <c r="R91" s="35"/>
-      <c r="S91" s="36"/>
-      <c r="T91" s="36"/>
-      <c r="U91" s="37"/>
+      <c r="A91" s="99"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="135"/>
+      <c r="F91" s="136"/>
+      <c r="G91" s="137"/>
+      <c r="H91" s="135"/>
+      <c r="I91" s="136"/>
+      <c r="J91" s="152"/>
+      <c r="K91" s="99"/>
+      <c r="L91" s="56"/>
+      <c r="M91" s="55"/>
+      <c r="N91" s="56"/>
+      <c r="O91" s="135"/>
+      <c r="P91" s="136"/>
+      <c r="Q91" s="137"/>
+      <c r="R91" s="156"/>
+      <c r="S91" s="157"/>
+      <c r="T91" s="157"/>
+      <c r="U91" s="158"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="60"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="57"/>
-      <c r="D92" s="58"/>
-      <c r="E92" s="54"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="54"/>
-      <c r="I92" s="55"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="58"/>
-      <c r="M92" s="57"/>
-      <c r="N92" s="58"/>
-      <c r="O92" s="54"/>
-      <c r="P92" s="55"/>
-      <c r="Q92" s="56"/>
-      <c r="R92" s="35"/>
-      <c r="S92" s="36"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="37"/>
+      <c r="A92" s="99"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="135"/>
+      <c r="F92" s="136"/>
+      <c r="G92" s="137"/>
+      <c r="H92" s="135"/>
+      <c r="I92" s="136"/>
+      <c r="J92" s="152"/>
+      <c r="K92" s="99"/>
+      <c r="L92" s="56"/>
+      <c r="M92" s="55"/>
+      <c r="N92" s="56"/>
+      <c r="O92" s="135"/>
+      <c r="P92" s="136"/>
+      <c r="Q92" s="137"/>
+      <c r="R92" s="156"/>
+      <c r="S92" s="157"/>
+      <c r="T92" s="157"/>
+      <c r="U92" s="158"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="60"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="57"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="54"/>
-      <c r="I93" s="55"/>
-      <c r="J93" s="61"/>
-      <c r="K93" s="60"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="57"/>
-      <c r="N93" s="58"/>
-      <c r="O93" s="54"/>
-      <c r="P93" s="55"/>
-      <c r="Q93" s="56"/>
-      <c r="R93" s="35"/>
-      <c r="S93" s="36"/>
-      <c r="T93" s="36"/>
-      <c r="U93" s="37"/>
+      <c r="A93" s="99"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="135"/>
+      <c r="F93" s="136"/>
+      <c r="G93" s="137"/>
+      <c r="H93" s="135"/>
+      <c r="I93" s="136"/>
+      <c r="J93" s="152"/>
+      <c r="K93" s="99"/>
+      <c r="L93" s="56"/>
+      <c r="M93" s="55"/>
+      <c r="N93" s="56"/>
+      <c r="O93" s="135"/>
+      <c r="P93" s="136"/>
+      <c r="Q93" s="137"/>
+      <c r="R93" s="156"/>
+      <c r="S93" s="157"/>
+      <c r="T93" s="157"/>
+      <c r="U93" s="158"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="60"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="57"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="54"/>
-      <c r="I94" s="55"/>
-      <c r="J94" s="61"/>
-      <c r="K94" s="60"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="57"/>
-      <c r="N94" s="58"/>
-      <c r="O94" s="54"/>
-      <c r="P94" s="55"/>
-      <c r="Q94" s="56"/>
-      <c r="R94" s="35"/>
-      <c r="S94" s="36"/>
-      <c r="T94" s="36"/>
-      <c r="U94" s="37"/>
+      <c r="A94" s="99"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="135"/>
+      <c r="F94" s="136"/>
+      <c r="G94" s="137"/>
+      <c r="H94" s="135"/>
+      <c r="I94" s="136"/>
+      <c r="J94" s="152"/>
+      <c r="K94" s="99"/>
+      <c r="L94" s="56"/>
+      <c r="M94" s="55"/>
+      <c r="N94" s="56"/>
+      <c r="O94" s="135"/>
+      <c r="P94" s="136"/>
+      <c r="Q94" s="137"/>
+      <c r="R94" s="156"/>
+      <c r="S94" s="157"/>
+      <c r="T94" s="157"/>
+      <c r="U94" s="158"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="60"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="57"/>
-      <c r="D95" s="58"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="56"/>
-      <c r="H95" s="54"/>
-      <c r="I95" s="55"/>
-      <c r="J95" s="61"/>
-      <c r="K95" s="60"/>
-      <c r="L95" s="58"/>
-      <c r="M95" s="57"/>
-      <c r="N95" s="58"/>
-      <c r="O95" s="54"/>
-      <c r="P95" s="55"/>
-      <c r="Q95" s="56"/>
-      <c r="R95" s="35"/>
-      <c r="S95" s="36"/>
-      <c r="T95" s="36"/>
-      <c r="U95" s="37"/>
+      <c r="A95" s="99"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="135"/>
+      <c r="F95" s="136"/>
+      <c r="G95" s="137"/>
+      <c r="H95" s="135"/>
+      <c r="I95" s="136"/>
+      <c r="J95" s="152"/>
+      <c r="K95" s="99"/>
+      <c r="L95" s="56"/>
+      <c r="M95" s="55"/>
+      <c r="N95" s="56"/>
+      <c r="O95" s="135"/>
+      <c r="P95" s="136"/>
+      <c r="Q95" s="137"/>
+      <c r="R95" s="156"/>
+      <c r="S95" s="157"/>
+      <c r="T95" s="157"/>
+      <c r="U95" s="158"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="60"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="54"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="56"/>
-      <c r="H96" s="54"/>
-      <c r="I96" s="55"/>
-      <c r="J96" s="61"/>
-      <c r="K96" s="60"/>
-      <c r="L96" s="58"/>
-      <c r="M96" s="57"/>
-      <c r="N96" s="58"/>
-      <c r="O96" s="54"/>
-      <c r="P96" s="55"/>
-      <c r="Q96" s="56"/>
-      <c r="R96" s="35"/>
-      <c r="S96" s="36"/>
-      <c r="T96" s="36"/>
-      <c r="U96" s="37"/>
+      <c r="A96" s="99"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="135"/>
+      <c r="F96" s="136"/>
+      <c r="G96" s="137"/>
+      <c r="H96" s="135"/>
+      <c r="I96" s="136"/>
+      <c r="J96" s="152"/>
+      <c r="K96" s="99"/>
+      <c r="L96" s="56"/>
+      <c r="M96" s="55"/>
+      <c r="N96" s="56"/>
+      <c r="O96" s="135"/>
+      <c r="P96" s="136"/>
+      <c r="Q96" s="137"/>
+      <c r="R96" s="156"/>
+      <c r="S96" s="157"/>
+      <c r="T96" s="157"/>
+      <c r="U96" s="158"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="60"/>
-      <c r="B97" s="58"/>
-      <c r="C97" s="57"/>
-      <c r="D97" s="58"/>
-      <c r="E97" s="54"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="56"/>
-      <c r="H97" s="54"/>
-      <c r="I97" s="55"/>
-      <c r="J97" s="61"/>
-      <c r="K97" s="60"/>
-      <c r="L97" s="58"/>
-      <c r="M97" s="57"/>
-      <c r="N97" s="58"/>
-      <c r="O97" s="54"/>
-      <c r="P97" s="55"/>
-      <c r="Q97" s="56"/>
-      <c r="R97" s="35"/>
-      <c r="S97" s="36"/>
-      <c r="T97" s="36"/>
-      <c r="U97" s="37"/>
+      <c r="A97" s="99"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="135"/>
+      <c r="F97" s="136"/>
+      <c r="G97" s="137"/>
+      <c r="H97" s="135"/>
+      <c r="I97" s="136"/>
+      <c r="J97" s="152"/>
+      <c r="K97" s="99"/>
+      <c r="L97" s="56"/>
+      <c r="M97" s="55"/>
+      <c r="N97" s="56"/>
+      <c r="O97" s="135"/>
+      <c r="P97" s="136"/>
+      <c r="Q97" s="137"/>
+      <c r="R97" s="156"/>
+      <c r="S97" s="157"/>
+      <c r="T97" s="157"/>
+      <c r="U97" s="158"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="60"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="58"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="56"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="55"/>
-      <c r="J98" s="61"/>
-      <c r="K98" s="60"/>
-      <c r="L98" s="58"/>
-      <c r="M98" s="57"/>
-      <c r="N98" s="58"/>
-      <c r="O98" s="54"/>
-      <c r="P98" s="55"/>
-      <c r="Q98" s="56"/>
-      <c r="R98" s="35"/>
-      <c r="S98" s="36"/>
-      <c r="T98" s="36"/>
-      <c r="U98" s="37"/>
+      <c r="A98" s="99"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="135"/>
+      <c r="F98" s="136"/>
+      <c r="G98" s="137"/>
+      <c r="H98" s="135"/>
+      <c r="I98" s="136"/>
+      <c r="J98" s="152"/>
+      <c r="K98" s="99"/>
+      <c r="L98" s="56"/>
+      <c r="M98" s="55"/>
+      <c r="N98" s="56"/>
+      <c r="O98" s="135"/>
+      <c r="P98" s="136"/>
+      <c r="Q98" s="137"/>
+      <c r="R98" s="156"/>
+      <c r="S98" s="157"/>
+      <c r="T98" s="157"/>
+      <c r="U98" s="158"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="60"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="57"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="56"/>
-      <c r="H99" s="54"/>
-      <c r="I99" s="55"/>
-      <c r="J99" s="61"/>
-      <c r="K99" s="60"/>
-      <c r="L99" s="58"/>
-      <c r="M99" s="57"/>
-      <c r="N99" s="58"/>
-      <c r="O99" s="54"/>
-      <c r="P99" s="55"/>
-      <c r="Q99" s="56"/>
-      <c r="R99" s="35"/>
-      <c r="S99" s="36"/>
-      <c r="T99" s="36"/>
-      <c r="U99" s="37"/>
+      <c r="A99" s="99"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="56"/>
+      <c r="E99" s="135"/>
+      <c r="F99" s="136"/>
+      <c r="G99" s="137"/>
+      <c r="H99" s="135"/>
+      <c r="I99" s="136"/>
+      <c r="J99" s="152"/>
+      <c r="K99" s="99"/>
+      <c r="L99" s="56"/>
+      <c r="M99" s="55"/>
+      <c r="N99" s="56"/>
+      <c r="O99" s="135"/>
+      <c r="P99" s="136"/>
+      <c r="Q99" s="137"/>
+      <c r="R99" s="156"/>
+      <c r="S99" s="157"/>
+      <c r="T99" s="157"/>
+      <c r="U99" s="158"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A100" s="60"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="54"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="56"/>
-      <c r="H100" s="54"/>
-      <c r="I100" s="55"/>
-      <c r="J100" s="61"/>
-      <c r="K100" s="60"/>
-      <c r="L100" s="58"/>
-      <c r="M100" s="57"/>
-      <c r="N100" s="58"/>
-      <c r="O100" s="54"/>
-      <c r="P100" s="55"/>
-      <c r="Q100" s="56"/>
-      <c r="R100" s="35"/>
-      <c r="S100" s="36"/>
-      <c r="T100" s="36"/>
-      <c r="U100" s="37"/>
+      <c r="A100" s="99"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="135"/>
+      <c r="F100" s="136"/>
+      <c r="G100" s="137"/>
+      <c r="H100" s="135"/>
+      <c r="I100" s="136"/>
+      <c r="J100" s="152"/>
+      <c r="K100" s="99"/>
+      <c r="L100" s="56"/>
+      <c r="M100" s="55"/>
+      <c r="N100" s="56"/>
+      <c r="O100" s="135"/>
+      <c r="P100" s="136"/>
+      <c r="Q100" s="137"/>
+      <c r="R100" s="156"/>
+      <c r="S100" s="157"/>
+      <c r="T100" s="157"/>
+      <c r="U100" s="158"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="60"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="58"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="56"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="55"/>
-      <c r="J101" s="61"/>
-      <c r="K101" s="60"/>
-      <c r="L101" s="58"/>
-      <c r="M101" s="57"/>
-      <c r="N101" s="58"/>
-      <c r="O101" s="54"/>
-      <c r="P101" s="55"/>
-      <c r="Q101" s="56"/>
-      <c r="R101" s="35"/>
-      <c r="S101" s="36"/>
-      <c r="T101" s="36"/>
-      <c r="U101" s="37"/>
+      <c r="A101" s="99"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="55"/>
+      <c r="D101" s="56"/>
+      <c r="E101" s="135"/>
+      <c r="F101" s="136"/>
+      <c r="G101" s="137"/>
+      <c r="H101" s="135"/>
+      <c r="I101" s="136"/>
+      <c r="J101" s="152"/>
+      <c r="K101" s="99"/>
+      <c r="L101" s="56"/>
+      <c r="M101" s="55"/>
+      <c r="N101" s="56"/>
+      <c r="O101" s="135"/>
+      <c r="P101" s="136"/>
+      <c r="Q101" s="137"/>
+      <c r="R101" s="156"/>
+      <c r="S101" s="157"/>
+      <c r="T101" s="157"/>
+      <c r="U101" s="158"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="60"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="57"/>
-      <c r="D102" s="58"/>
-      <c r="E102" s="54"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="56"/>
-      <c r="H102" s="54"/>
-      <c r="I102" s="55"/>
-      <c r="J102" s="61"/>
-      <c r="K102" s="60"/>
-      <c r="L102" s="58"/>
-      <c r="M102" s="57"/>
-      <c r="N102" s="58"/>
-      <c r="O102" s="54"/>
-      <c r="P102" s="55"/>
-      <c r="Q102" s="56"/>
-      <c r="R102" s="35"/>
-      <c r="S102" s="36"/>
-      <c r="T102" s="36"/>
-      <c r="U102" s="37"/>
+      <c r="A102" s="99"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="135"/>
+      <c r="F102" s="136"/>
+      <c r="G102" s="137"/>
+      <c r="H102" s="135"/>
+      <c r="I102" s="136"/>
+      <c r="J102" s="152"/>
+      <c r="K102" s="99"/>
+      <c r="L102" s="56"/>
+      <c r="M102" s="55"/>
+      <c r="N102" s="56"/>
+      <c r="O102" s="135"/>
+      <c r="P102" s="136"/>
+      <c r="Q102" s="137"/>
+      <c r="R102" s="156"/>
+      <c r="S102" s="157"/>
+      <c r="T102" s="157"/>
+      <c r="U102" s="158"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="60"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="58"/>
-      <c r="E103" s="54"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="56"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="55"/>
-      <c r="J103" s="61"/>
-      <c r="K103" s="60"/>
-      <c r="L103" s="58"/>
-      <c r="M103" s="57"/>
-      <c r="N103" s="58"/>
-      <c r="O103" s="54"/>
-      <c r="P103" s="55"/>
-      <c r="Q103" s="56"/>
-      <c r="R103" s="35"/>
-      <c r="S103" s="36"/>
-      <c r="T103" s="36"/>
-      <c r="U103" s="37"/>
+      <c r="A103" s="99"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="55"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="135"/>
+      <c r="F103" s="136"/>
+      <c r="G103" s="137"/>
+      <c r="H103" s="135"/>
+      <c r="I103" s="136"/>
+      <c r="J103" s="152"/>
+      <c r="K103" s="99"/>
+      <c r="L103" s="56"/>
+      <c r="M103" s="55"/>
+      <c r="N103" s="56"/>
+      <c r="O103" s="135"/>
+      <c r="P103" s="136"/>
+      <c r="Q103" s="137"/>
+      <c r="R103" s="156"/>
+      <c r="S103" s="157"/>
+      <c r="T103" s="157"/>
+      <c r="U103" s="158"/>
     </row>
     <row r="104" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="42"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="59"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="40"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="41"/>
-      <c r="K104" s="42"/>
-      <c r="L104" s="43"/>
-      <c r="M104" s="59"/>
-      <c r="N104" s="43"/>
-      <c r="O104" s="38"/>
-      <c r="P104" s="39"/>
-      <c r="Q104" s="40"/>
-      <c r="R104" s="44"/>
-      <c r="S104" s="45"/>
-      <c r="T104" s="45"/>
-      <c r="U104" s="46"/>
+      <c r="A104" s="138"/>
+      <c r="B104" s="139"/>
+      <c r="C104" s="140"/>
+      <c r="D104" s="139"/>
+      <c r="E104" s="153"/>
+      <c r="F104" s="154"/>
+      <c r="G104" s="155"/>
+      <c r="H104" s="153"/>
+      <c r="I104" s="154"/>
+      <c r="J104" s="161"/>
+      <c r="K104" s="138"/>
+      <c r="L104" s="139"/>
+      <c r="M104" s="140"/>
+      <c r="N104" s="139"/>
+      <c r="O104" s="153"/>
+      <c r="P104" s="154"/>
+      <c r="Q104" s="155"/>
+      <c r="R104" s="162"/>
+      <c r="S104" s="163"/>
+      <c r="T104" s="163"/>
+      <c r="U104" s="164"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
@@ -3352,297 +3355,297 @@
       <c r="U105" s="10"/>
     </row>
     <row r="106" spans="1:21" s="3" customFormat="1" ht="152.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="168" t="s">
+      <c r="A106" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="B106" s="168"/>
-      <c r="C106" s="168"/>
-      <c r="D106" s="168"/>
-      <c r="E106" s="168"/>
-      <c r="F106" s="168"/>
-      <c r="G106" s="168"/>
-      <c r="H106" s="168"/>
-      <c r="I106" s="168"/>
-      <c r="J106" s="168"/>
-      <c r="K106" s="168"/>
-      <c r="L106" s="168"/>
-      <c r="M106" s="168"/>
-      <c r="N106" s="168"/>
-      <c r="O106" s="168"/>
-      <c r="P106" s="168"/>
-      <c r="Q106" s="168"/>
-      <c r="R106" s="168"/>
-      <c r="S106" s="168"/>
-      <c r="T106" s="168"/>
-      <c r="U106" s="168"/>
+      <c r="B106" s="169"/>
+      <c r="C106" s="169"/>
+      <c r="D106" s="169"/>
+      <c r="E106" s="169"/>
+      <c r="F106" s="169"/>
+      <c r="G106" s="169"/>
+      <c r="H106" s="169"/>
+      <c r="I106" s="169"/>
+      <c r="J106" s="169"/>
+      <c r="K106" s="169"/>
+      <c r="L106" s="169"/>
+      <c r="M106" s="169"/>
+      <c r="N106" s="169"/>
+      <c r="O106" s="169"/>
+      <c r="P106" s="169"/>
+      <c r="Q106" s="169"/>
+      <c r="R106" s="169"/>
+      <c r="S106" s="169"/>
+      <c r="T106" s="169"/>
+      <c r="U106" s="169"/>
     </row>
     <row r="107" spans="1:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="A107" s="64" t="s">
+      <c r="A107" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="64"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="64"/>
-      <c r="J107" s="64"/>
-      <c r="K107" s="64"/>
-      <c r="L107" s="64"/>
-      <c r="M107" s="64"/>
-      <c r="N107" s="64"/>
-      <c r="O107" s="64"/>
-      <c r="P107" s="64"/>
-      <c r="Q107" s="64"/>
-      <c r="R107" s="64"/>
-      <c r="S107" s="64"/>
-      <c r="T107" s="64"/>
-      <c r="U107" s="64"/>
+      <c r="B107" s="110"/>
+      <c r="C107" s="110"/>
+      <c r="D107" s="110"/>
+      <c r="E107" s="110"/>
+      <c r="F107" s="110"/>
+      <c r="G107" s="110"/>
+      <c r="H107" s="110"/>
+      <c r="I107" s="110"/>
+      <c r="J107" s="110"/>
+      <c r="K107" s="110"/>
+      <c r="L107" s="110"/>
+      <c r="M107" s="110"/>
+      <c r="N107" s="110"/>
+      <c r="O107" s="110"/>
+      <c r="P107" s="110"/>
+      <c r="Q107" s="110"/>
+      <c r="R107" s="110"/>
+      <c r="S107" s="110"/>
+      <c r="T107" s="110"/>
+      <c r="U107" s="110"/>
     </row>
     <row r="108" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="65" t="s">
+      <c r="A109" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B109" s="66"/>
-      <c r="C109" s="66"/>
-      <c r="D109" s="66"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="66"/>
-      <c r="H109" s="66"/>
-      <c r="I109" s="66"/>
-      <c r="J109" s="66"/>
-      <c r="K109" s="66"/>
-      <c r="L109" s="66"/>
-      <c r="M109" s="66"/>
-      <c r="N109" s="66"/>
-      <c r="O109" s="66"/>
-      <c r="P109" s="66"/>
-      <c r="Q109" s="66"/>
-      <c r="R109" s="66"/>
-      <c r="S109" s="66"/>
-      <c r="T109" s="66"/>
-      <c r="U109" s="67"/>
+      <c r="B109" s="142"/>
+      <c r="C109" s="142"/>
+      <c r="D109" s="142"/>
+      <c r="E109" s="142"/>
+      <c r="F109" s="142"/>
+      <c r="G109" s="142"/>
+      <c r="H109" s="142"/>
+      <c r="I109" s="142"/>
+      <c r="J109" s="142"/>
+      <c r="K109" s="142"/>
+      <c r="L109" s="142"/>
+      <c r="M109" s="142"/>
+      <c r="N109" s="142"/>
+      <c r="O109" s="142"/>
+      <c r="P109" s="142"/>
+      <c r="Q109" s="142"/>
+      <c r="R109" s="142"/>
+      <c r="S109" s="142"/>
+      <c r="T109" s="142"/>
+      <c r="U109" s="143"/>
     </row>
     <row r="110" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="71"/>
-      <c r="B110" s="72"/>
-      <c r="C110" s="72"/>
-      <c r="D110" s="72"/>
-      <c r="E110" s="72"/>
-      <c r="F110" s="72"/>
-      <c r="G110" s="72"/>
-      <c r="H110" s="72"/>
-      <c r="I110" s="72"/>
-      <c r="J110" s="72"/>
-      <c r="K110" s="72"/>
-      <c r="L110" s="72"/>
-      <c r="M110" s="72"/>
-      <c r="N110" s="72"/>
-      <c r="O110" s="72"/>
-      <c r="P110" s="72"/>
-      <c r="Q110" s="72"/>
-      <c r="R110" s="72"/>
-      <c r="S110" s="72"/>
-      <c r="T110" s="72"/>
-      <c r="U110" s="73"/>
+      <c r="A110" s="147"/>
+      <c r="B110" s="148"/>
+      <c r="C110" s="148"/>
+      <c r="D110" s="148"/>
+      <c r="E110" s="148"/>
+      <c r="F110" s="148"/>
+      <c r="G110" s="148"/>
+      <c r="H110" s="148"/>
+      <c r="I110" s="148"/>
+      <c r="J110" s="148"/>
+      <c r="K110" s="148"/>
+      <c r="L110" s="148"/>
+      <c r="M110" s="148"/>
+      <c r="N110" s="148"/>
+      <c r="O110" s="148"/>
+      <c r="P110" s="148"/>
+      <c r="Q110" s="148"/>
+      <c r="R110" s="148"/>
+      <c r="S110" s="148"/>
+      <c r="T110" s="148"/>
+      <c r="U110" s="149"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="65" t="s">
+      <c r="A111" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="B111" s="66"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="66"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="66"/>
-      <c r="J111" s="66"/>
-      <c r="K111" s="66"/>
-      <c r="L111" s="66"/>
-      <c r="M111" s="66"/>
-      <c r="N111" s="66"/>
-      <c r="O111" s="66"/>
-      <c r="P111" s="66"/>
-      <c r="Q111" s="66"/>
-      <c r="R111" s="66"/>
-      <c r="S111" s="66"/>
-      <c r="T111" s="66"/>
-      <c r="U111" s="67"/>
+      <c r="B111" s="142"/>
+      <c r="C111" s="142"/>
+      <c r="D111" s="142"/>
+      <c r="E111" s="142"/>
+      <c r="F111" s="142"/>
+      <c r="G111" s="142"/>
+      <c r="H111" s="142"/>
+      <c r="I111" s="142"/>
+      <c r="J111" s="142"/>
+      <c r="K111" s="142"/>
+      <c r="L111" s="142"/>
+      <c r="M111" s="142"/>
+      <c r="N111" s="142"/>
+      <c r="O111" s="142"/>
+      <c r="P111" s="142"/>
+      <c r="Q111" s="142"/>
+      <c r="R111" s="142"/>
+      <c r="S111" s="142"/>
+      <c r="T111" s="142"/>
+      <c r="U111" s="143"/>
     </row>
     <row r="112" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="68"/>
-      <c r="B112" s="69"/>
-      <c r="C112" s="69"/>
-      <c r="D112" s="69"/>
-      <c r="E112" s="69"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="69"/>
-      <c r="H112" s="69"/>
-      <c r="I112" s="69"/>
-      <c r="J112" s="69"/>
-      <c r="K112" s="69"/>
-      <c r="L112" s="69"/>
-      <c r="M112" s="69"/>
-      <c r="N112" s="69"/>
-      <c r="O112" s="69"/>
-      <c r="P112" s="69"/>
-      <c r="Q112" s="69"/>
-      <c r="R112" s="69"/>
-      <c r="S112" s="69"/>
-      <c r="T112" s="69"/>
-      <c r="U112" s="70"/>
+      <c r="A112" s="144"/>
+      <c r="B112" s="145"/>
+      <c r="C112" s="145"/>
+      <c r="D112" s="145"/>
+      <c r="E112" s="145"/>
+      <c r="F112" s="145"/>
+      <c r="G112" s="145"/>
+      <c r="H112" s="145"/>
+      <c r="I112" s="145"/>
+      <c r="J112" s="145"/>
+      <c r="K112" s="145"/>
+      <c r="L112" s="145"/>
+      <c r="M112" s="145"/>
+      <c r="N112" s="145"/>
+      <c r="O112" s="145"/>
+      <c r="P112" s="145"/>
+      <c r="Q112" s="145"/>
+      <c r="R112" s="145"/>
+      <c r="S112" s="145"/>
+      <c r="T112" s="145"/>
+      <c r="U112" s="146"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="65" t="s">
+      <c r="A113" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="B113" s="66"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="66"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="66"/>
-      <c r="J113" s="66"/>
-      <c r="K113" s="66"/>
-      <c r="L113" s="66"/>
-      <c r="M113" s="66"/>
-      <c r="N113" s="66"/>
-      <c r="O113" s="66"/>
-      <c r="P113" s="66"/>
-      <c r="Q113" s="66"/>
-      <c r="R113" s="66"/>
-      <c r="S113" s="66"/>
-      <c r="T113" s="66"/>
-      <c r="U113" s="67"/>
+      <c r="B113" s="142"/>
+      <c r="C113" s="142"/>
+      <c r="D113" s="142"/>
+      <c r="E113" s="142"/>
+      <c r="F113" s="142"/>
+      <c r="G113" s="142"/>
+      <c r="H113" s="142"/>
+      <c r="I113" s="142"/>
+      <c r="J113" s="142"/>
+      <c r="K113" s="142"/>
+      <c r="L113" s="142"/>
+      <c r="M113" s="142"/>
+      <c r="N113" s="142"/>
+      <c r="O113" s="142"/>
+      <c r="P113" s="142"/>
+      <c r="Q113" s="142"/>
+      <c r="R113" s="142"/>
+      <c r="S113" s="142"/>
+      <c r="T113" s="142"/>
+      <c r="U113" s="143"/>
     </row>
     <row r="114" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="68"/>
-      <c r="B114" s="69"/>
-      <c r="C114" s="69"/>
-      <c r="D114" s="69"/>
-      <c r="E114" s="69"/>
-      <c r="F114" s="69"/>
-      <c r="G114" s="69"/>
-      <c r="H114" s="69"/>
-      <c r="I114" s="69"/>
-      <c r="J114" s="69"/>
-      <c r="K114" s="69"/>
-      <c r="L114" s="69"/>
-      <c r="M114" s="69"/>
-      <c r="N114" s="69"/>
-      <c r="O114" s="69"/>
-      <c r="P114" s="69"/>
-      <c r="Q114" s="69"/>
-      <c r="R114" s="69"/>
-      <c r="S114" s="69"/>
-      <c r="T114" s="69"/>
-      <c r="U114" s="70"/>
+      <c r="A114" s="144"/>
+      <c r="B114" s="145"/>
+      <c r="C114" s="145"/>
+      <c r="D114" s="145"/>
+      <c r="E114" s="145"/>
+      <c r="F114" s="145"/>
+      <c r="G114" s="145"/>
+      <c r="H114" s="145"/>
+      <c r="I114" s="145"/>
+      <c r="J114" s="145"/>
+      <c r="K114" s="145"/>
+      <c r="L114" s="145"/>
+      <c r="M114" s="145"/>
+      <c r="N114" s="145"/>
+      <c r="O114" s="145"/>
+      <c r="P114" s="145"/>
+      <c r="Q114" s="145"/>
+      <c r="R114" s="145"/>
+      <c r="S114" s="145"/>
+      <c r="T114" s="145"/>
+      <c r="U114" s="146"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="65" t="s">
+      <c r="A115" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="B115" s="66"/>
-      <c r="C115" s="66"/>
-      <c r="D115" s="66"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="66"/>
-      <c r="I115" s="66"/>
-      <c r="J115" s="66"/>
-      <c r="K115" s="66"/>
-      <c r="L115" s="66"/>
-      <c r="M115" s="66"/>
-      <c r="N115" s="66"/>
-      <c r="O115" s="66"/>
-      <c r="P115" s="66"/>
-      <c r="Q115" s="66"/>
-      <c r="R115" s="66"/>
-      <c r="S115" s="66"/>
-      <c r="T115" s="66"/>
-      <c r="U115" s="67"/>
+      <c r="B115" s="142"/>
+      <c r="C115" s="142"/>
+      <c r="D115" s="142"/>
+      <c r="E115" s="142"/>
+      <c r="F115" s="142"/>
+      <c r="G115" s="142"/>
+      <c r="H115" s="142"/>
+      <c r="I115" s="142"/>
+      <c r="J115" s="142"/>
+      <c r="K115" s="142"/>
+      <c r="L115" s="142"/>
+      <c r="M115" s="142"/>
+      <c r="N115" s="142"/>
+      <c r="O115" s="142"/>
+      <c r="P115" s="142"/>
+      <c r="Q115" s="142"/>
+      <c r="R115" s="142"/>
+      <c r="S115" s="142"/>
+      <c r="T115" s="142"/>
+      <c r="U115" s="143"/>
     </row>
     <row r="116" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="68"/>
-      <c r="B116" s="69"/>
-      <c r="C116" s="69"/>
-      <c r="D116" s="69"/>
-      <c r="E116" s="69"/>
-      <c r="F116" s="69"/>
-      <c r="G116" s="69"/>
-      <c r="H116" s="69"/>
-      <c r="I116" s="69"/>
-      <c r="J116" s="69"/>
-      <c r="K116" s="69"/>
-      <c r="L116" s="69"/>
-      <c r="M116" s="69"/>
-      <c r="N116" s="69"/>
-      <c r="O116" s="69"/>
-      <c r="P116" s="69"/>
-      <c r="Q116" s="69"/>
-      <c r="R116" s="69"/>
-      <c r="S116" s="69"/>
-      <c r="T116" s="69"/>
-      <c r="U116" s="70"/>
+      <c r="A116" s="144"/>
+      <c r="B116" s="145"/>
+      <c r="C116" s="145"/>
+      <c r="D116" s="145"/>
+      <c r="E116" s="145"/>
+      <c r="F116" s="145"/>
+      <c r="G116" s="145"/>
+      <c r="H116" s="145"/>
+      <c r="I116" s="145"/>
+      <c r="J116" s="145"/>
+      <c r="K116" s="145"/>
+      <c r="L116" s="145"/>
+      <c r="M116" s="145"/>
+      <c r="N116" s="145"/>
+      <c r="O116" s="145"/>
+      <c r="P116" s="145"/>
+      <c r="Q116" s="145"/>
+      <c r="R116" s="145"/>
+      <c r="S116" s="145"/>
+      <c r="T116" s="145"/>
+      <c r="U116" s="146"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="65" t="s">
+      <c r="A117" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="B117" s="66"/>
-      <c r="C117" s="66"/>
-      <c r="D117" s="66"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
-      <c r="L117" s="66"/>
-      <c r="M117" s="66"/>
-      <c r="N117" s="66"/>
-      <c r="O117" s="66"/>
-      <c r="P117" s="66"/>
-      <c r="Q117" s="66"/>
-      <c r="R117" s="66"/>
-      <c r="S117" s="66"/>
-      <c r="T117" s="66"/>
-      <c r="U117" s="67"/>
+      <c r="B117" s="142"/>
+      <c r="C117" s="142"/>
+      <c r="D117" s="142"/>
+      <c r="E117" s="142"/>
+      <c r="F117" s="142"/>
+      <c r="G117" s="142"/>
+      <c r="H117" s="142"/>
+      <c r="I117" s="142"/>
+      <c r="J117" s="142"/>
+      <c r="K117" s="142"/>
+      <c r="L117" s="142"/>
+      <c r="M117" s="142"/>
+      <c r="N117" s="142"/>
+      <c r="O117" s="142"/>
+      <c r="P117" s="142"/>
+      <c r="Q117" s="142"/>
+      <c r="R117" s="142"/>
+      <c r="S117" s="142"/>
+      <c r="T117" s="142"/>
+      <c r="U117" s="143"/>
     </row>
     <row r="118" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="68"/>
-      <c r="B118" s="69"/>
-      <c r="C118" s="69"/>
-      <c r="D118" s="69"/>
-      <c r="E118" s="69"/>
-      <c r="F118" s="69"/>
-      <c r="G118" s="69"/>
-      <c r="H118" s="69"/>
-      <c r="I118" s="69"/>
-      <c r="J118" s="69"/>
-      <c r="K118" s="69"/>
-      <c r="L118" s="69"/>
-      <c r="M118" s="69"/>
-      <c r="N118" s="69"/>
-      <c r="O118" s="69"/>
-      <c r="P118" s="69"/>
-      <c r="Q118" s="69"/>
-      <c r="R118" s="69"/>
-      <c r="S118" s="69"/>
-      <c r="T118" s="69"/>
-      <c r="U118" s="70"/>
+      <c r="A118" s="144"/>
+      <c r="B118" s="145"/>
+      <c r="C118" s="145"/>
+      <c r="D118" s="145"/>
+      <c r="E118" s="145"/>
+      <c r="F118" s="145"/>
+      <c r="G118" s="145"/>
+      <c r="H118" s="145"/>
+      <c r="I118" s="145"/>
+      <c r="J118" s="145"/>
+      <c r="K118" s="145"/>
+      <c r="L118" s="145"/>
+      <c r="M118" s="145"/>
+      <c r="N118" s="145"/>
+      <c r="O118" s="145"/>
+      <c r="P118" s="145"/>
+      <c r="Q118" s="145"/>
+      <c r="R118" s="145"/>
+      <c r="S118" s="145"/>
+      <c r="T118" s="145"/>
+      <c r="U118" s="146"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="25" t="s">
@@ -3657,29 +3660,29 @@
       <c r="C121"/>
     </row>
     <row r="122" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="62" t="s">
+      <c r="A122" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="B122" s="62"/>
-      <c r="C122" s="62"/>
-      <c r="D122" s="62"/>
-      <c r="E122" s="62"/>
-      <c r="F122" s="62"/>
-      <c r="G122" s="62"/>
-      <c r="H122" s="62"/>
-      <c r="I122" s="62"/>
-      <c r="J122" s="62"/>
-      <c r="K122" s="62"/>
-      <c r="L122" s="62"/>
-      <c r="M122" s="62"/>
-      <c r="N122" s="62"/>
-      <c r="O122" s="62"/>
-      <c r="P122" s="62"/>
-      <c r="Q122" s="62"/>
-      <c r="R122" s="62"/>
-      <c r="S122" s="62"/>
-      <c r="T122" s="62"/>
-      <c r="U122" s="62"/>
+      <c r="B122" s="106"/>
+      <c r="C122" s="106"/>
+      <c r="D122" s="106"/>
+      <c r="E122" s="106"/>
+      <c r="F122" s="106"/>
+      <c r="G122" s="106"/>
+      <c r="H122" s="106"/>
+      <c r="I122" s="106"/>
+      <c r="J122" s="106"/>
+      <c r="K122" s="106"/>
+      <c r="L122" s="106"/>
+      <c r="M122" s="106"/>
+      <c r="N122" s="106"/>
+      <c r="O122" s="106"/>
+      <c r="P122" s="106"/>
+      <c r="Q122" s="106"/>
+      <c r="R122" s="106"/>
+      <c r="S122" s="106"/>
+      <c r="T122" s="106"/>
+      <c r="U122" s="106"/>
     </row>
     <row r="123" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
@@ -3699,24 +3702,24 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="62" t="s">
+      <c r="F125" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="G125" s="62"/>
-      <c r="H125" s="62"/>
-      <c r="I125" s="62"/>
-      <c r="J125" s="62"/>
-      <c r="K125" s="62"/>
-      <c r="L125" s="62"/>
-      <c r="M125" s="62"/>
-      <c r="N125" s="62"/>
-      <c r="O125" s="62"/>
-      <c r="P125" s="62"/>
-      <c r="Q125" s="62"/>
-      <c r="R125" s="62"/>
-      <c r="S125" s="62"/>
-      <c r="T125" s="62"/>
-      <c r="U125" s="62"/>
+      <c r="G125" s="106"/>
+      <c r="H125" s="106"/>
+      <c r="I125" s="106"/>
+      <c r="J125" s="106"/>
+      <c r="K125" s="106"/>
+      <c r="L125" s="106"/>
+      <c r="M125" s="106"/>
+      <c r="N125" s="106"/>
+      <c r="O125" s="106"/>
+      <c r="P125" s="106"/>
+      <c r="Q125" s="106"/>
+      <c r="R125" s="106"/>
+      <c r="S125" s="106"/>
+      <c r="T125" s="106"/>
+      <c r="U125" s="106"/>
     </row>
     <row r="126" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
@@ -3724,24 +3727,24 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="62" t="s">
+      <c r="F126" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="G126" s="62"/>
-      <c r="H126" s="62"/>
-      <c r="I126" s="62"/>
-      <c r="J126" s="62"/>
-      <c r="K126" s="62"/>
-      <c r="L126" s="62"/>
-      <c r="M126" s="62"/>
-      <c r="N126" s="62"/>
-      <c r="O126" s="62"/>
-      <c r="P126" s="62"/>
-      <c r="Q126" s="62"/>
-      <c r="R126" s="62"/>
-      <c r="S126" s="62"/>
-      <c r="T126" s="62"/>
-      <c r="U126" s="62"/>
+      <c r="G126" s="106"/>
+      <c r="H126" s="106"/>
+      <c r="I126" s="106"/>
+      <c r="J126" s="106"/>
+      <c r="K126" s="106"/>
+      <c r="L126" s="106"/>
+      <c r="M126" s="106"/>
+      <c r="N126" s="106"/>
+      <c r="O126" s="106"/>
+      <c r="P126" s="106"/>
+      <c r="Q126" s="106"/>
+      <c r="R126" s="106"/>
+      <c r="S126" s="106"/>
+      <c r="T126" s="106"/>
+      <c r="U126" s="106"/>
     </row>
     <row r="127" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
@@ -3750,24 +3753,24 @@
       <c r="B127"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
-      <c r="F127" s="62" t="s">
+      <c r="F127" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="G127" s="62"/>
-      <c r="H127" s="62"/>
-      <c r="I127" s="62"/>
-      <c r="J127" s="62"/>
-      <c r="K127" s="62"/>
-      <c r="L127" s="62"/>
-      <c r="M127" s="62"/>
-      <c r="N127" s="62"/>
-      <c r="O127" s="62"/>
-      <c r="P127" s="62"/>
-      <c r="Q127" s="62"/>
-      <c r="R127" s="62"/>
-      <c r="S127" s="62"/>
-      <c r="T127" s="62"/>
-      <c r="U127" s="62"/>
+      <c r="G127" s="106"/>
+      <c r="H127" s="106"/>
+      <c r="I127" s="106"/>
+      <c r="J127" s="106"/>
+      <c r="K127" s="106"/>
+      <c r="L127" s="106"/>
+      <c r="M127" s="106"/>
+      <c r="N127" s="106"/>
+      <c r="O127" s="106"/>
+      <c r="P127" s="106"/>
+      <c r="Q127" s="106"/>
+      <c r="R127" s="106"/>
+      <c r="S127" s="106"/>
+      <c r="T127" s="106"/>
+      <c r="U127" s="106"/>
     </row>
     <row r="128" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
@@ -3776,24 +3779,24 @@
       <c r="B128"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="62" t="s">
+      <c r="F128" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="G128" s="62"/>
-      <c r="H128" s="62"/>
-      <c r="I128" s="62"/>
-      <c r="J128" s="62"/>
-      <c r="K128" s="62"/>
-      <c r="L128" s="62"/>
-      <c r="M128" s="62"/>
-      <c r="N128" s="62"/>
-      <c r="O128" s="62"/>
-      <c r="P128" s="62"/>
-      <c r="Q128" s="62"/>
-      <c r="R128" s="62"/>
-      <c r="S128" s="62"/>
-      <c r="T128" s="62"/>
-      <c r="U128" s="62"/>
+      <c r="G128" s="106"/>
+      <c r="H128" s="106"/>
+      <c r="I128" s="106"/>
+      <c r="J128" s="106"/>
+      <c r="K128" s="106"/>
+      <c r="L128" s="106"/>
+      <c r="M128" s="106"/>
+      <c r="N128" s="106"/>
+      <c r="O128" s="106"/>
+      <c r="P128" s="106"/>
+      <c r="Q128" s="106"/>
+      <c r="R128" s="106"/>
+      <c r="S128" s="106"/>
+      <c r="T128" s="106"/>
+      <c r="U128" s="106"/>
     </row>
     <row r="129" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
@@ -3802,24 +3805,24 @@
       <c r="B129"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="62" t="s">
+      <c r="F129" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="G129" s="62"/>
-      <c r="H129" s="62"/>
-      <c r="I129" s="62"/>
-      <c r="J129" s="62"/>
-      <c r="K129" s="62"/>
-      <c r="L129" s="62"/>
-      <c r="M129" s="62"/>
-      <c r="N129" s="62"/>
-      <c r="O129" s="62"/>
-      <c r="P129" s="62"/>
-      <c r="Q129" s="62"/>
-      <c r="R129" s="62"/>
-      <c r="S129" s="62"/>
-      <c r="T129" s="62"/>
-      <c r="U129" s="62"/>
+      <c r="G129" s="106"/>
+      <c r="H129" s="106"/>
+      <c r="I129" s="106"/>
+      <c r="J129" s="106"/>
+      <c r="K129" s="106"/>
+      <c r="L129" s="106"/>
+      <c r="M129" s="106"/>
+      <c r="N129" s="106"/>
+      <c r="O129" s="106"/>
+      <c r="P129" s="106"/>
+      <c r="Q129" s="106"/>
+      <c r="R129" s="106"/>
+      <c r="S129" s="106"/>
+      <c r="T129" s="106"/>
+      <c r="U129" s="106"/>
     </row>
     <row r="130" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
@@ -3828,24 +3831,24 @@
       <c r="B130"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="62" t="s">
+      <c r="F130" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="G130" s="62"/>
-      <c r="H130" s="62"/>
-      <c r="I130" s="62"/>
-      <c r="J130" s="62"/>
-      <c r="K130" s="62"/>
-      <c r="L130" s="62"/>
-      <c r="M130" s="62"/>
-      <c r="N130" s="62"/>
-      <c r="O130" s="62"/>
-      <c r="P130" s="62"/>
-      <c r="Q130" s="62"/>
-      <c r="R130" s="62"/>
-      <c r="S130" s="62"/>
-      <c r="T130" s="62"/>
-      <c r="U130" s="62"/>
+      <c r="G130" s="106"/>
+      <c r="H130" s="106"/>
+      <c r="I130" s="106"/>
+      <c r="J130" s="106"/>
+      <c r="K130" s="106"/>
+      <c r="L130" s="106"/>
+      <c r="M130" s="106"/>
+      <c r="N130" s="106"/>
+      <c r="O130" s="106"/>
+      <c r="P130" s="106"/>
+      <c r="Q130" s="106"/>
+      <c r="R130" s="106"/>
+      <c r="S130" s="106"/>
+      <c r="T130" s="106"/>
+      <c r="U130" s="106"/>
     </row>
     <row r="131" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
@@ -3853,47 +3856,47 @@
       <c r="C131"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="103" t="s">
+      <c r="A132" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B132" s="104"/>
-      <c r="C132" s="104"/>
-      <c r="D132" s="105"/>
-      <c r="E132" s="76" t="s">
+      <c r="B132" s="47"/>
+      <c r="C132" s="47"/>
+      <c r="D132" s="48"/>
+      <c r="E132" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="F132" s="77"/>
-      <c r="G132" s="78"/>
-      <c r="H132" s="79" t="s">
+      <c r="F132" s="53"/>
+      <c r="G132" s="54"/>
+      <c r="H132" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="I132" s="77"/>
-      <c r="J132" s="80"/>
-      <c r="K132" s="76" t="s">
+      <c r="I132" s="53"/>
+      <c r="J132" s="101"/>
+      <c r="K132" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="L132" s="77"/>
-      <c r="M132" s="78"/>
-      <c r="N132" s="79" t="s">
+      <c r="L132" s="53"/>
+      <c r="M132" s="54"/>
+      <c r="N132" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="O132" s="77"/>
-      <c r="P132" s="80"/>
-      <c r="Q132" s="76" t="s">
+      <c r="O132" s="53"/>
+      <c r="P132" s="101"/>
+      <c r="Q132" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="R132" s="77"/>
-      <c r="S132" s="78"/>
-      <c r="T132" s="79" t="s">
+      <c r="R132" s="53"/>
+      <c r="S132" s="54"/>
+      <c r="T132" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="U132" s="78"/>
+      <c r="U132" s="54"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="106"/>
-      <c r="B133" s="107"/>
-      <c r="C133" s="107"/>
-      <c r="D133" s="108"/>
+      <c r="A133" s="49"/>
+      <c r="B133" s="50"/>
+      <c r="C133" s="50"/>
+      <c r="D133" s="51"/>
       <c r="E133" s="26">
         <v>15</v>
       </c>
@@ -3939,18 +3942,18 @@
       <c r="S133" s="28">
         <v>1</v>
       </c>
-      <c r="T133" s="109">
+      <c r="T133" s="102">
         <v>0</v>
       </c>
-      <c r="U133" s="110"/>
+      <c r="U133" s="103"/>
     </row>
     <row r="134" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="111" t="s">
+      <c r="A134" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B134" s="112"/>
-      <c r="C134" s="112"/>
-      <c r="D134" s="113"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="33"/>
       <c r="E134" s="12"/>
       <c r="F134" s="13"/>
       <c r="G134" s="14"/>
@@ -3966,16 +3969,16 @@
       <c r="Q134" s="12"/>
       <c r="R134" s="13"/>
       <c r="S134" s="14"/>
-      <c r="T134" s="31"/>
-      <c r="U134" s="32"/>
+      <c r="T134" s="165"/>
+      <c r="U134" s="166"/>
     </row>
     <row r="135" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="117" t="s">
+      <c r="A135" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B135" s="118"/>
-      <c r="C135" s="118"/>
-      <c r="D135" s="119"/>
+      <c r="B135" s="60"/>
+      <c r="C135" s="60"/>
+      <c r="D135" s="61"/>
       <c r="E135" s="12"/>
       <c r="F135" s="13"/>
       <c r="G135" s="14"/>
@@ -3991,16 +3994,16 @@
       <c r="Q135" s="12"/>
       <c r="R135" s="13"/>
       <c r="S135" s="14"/>
-      <c r="T135" s="31"/>
-      <c r="U135" s="32"/>
+      <c r="T135" s="165"/>
+      <c r="U135" s="166"/>
     </row>
     <row r="136" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="114" t="s">
+      <c r="A136" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B136" s="115"/>
-      <c r="C136" s="115"/>
-      <c r="D136" s="116"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="45"/>
       <c r="E136" s="17"/>
       <c r="F136" s="18"/>
       <c r="G136" s="19"/>
@@ -4016,52 +4019,52 @@
       <c r="Q136" s="17"/>
       <c r="R136" s="18"/>
       <c r="S136" s="19"/>
-      <c r="T136" s="33"/>
-      <c r="U136" s="34"/>
+      <c r="T136" s="167"/>
+      <c r="U136" s="168"/>
     </row>
     <row r="137" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="103" t="s">
+      <c r="A138" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B138" s="104"/>
-      <c r="C138" s="104"/>
-      <c r="D138" s="105"/>
-      <c r="E138" s="76" t="s">
+      <c r="B138" s="47"/>
+      <c r="C138" s="47"/>
+      <c r="D138" s="48"/>
+      <c r="E138" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="F138" s="77"/>
-      <c r="G138" s="78"/>
-      <c r="H138" s="79" t="s">
+      <c r="F138" s="53"/>
+      <c r="G138" s="54"/>
+      <c r="H138" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="I138" s="77"/>
-      <c r="J138" s="80"/>
-      <c r="K138" s="76" t="s">
+      <c r="I138" s="53"/>
+      <c r="J138" s="101"/>
+      <c r="K138" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="L138" s="77"/>
-      <c r="M138" s="78"/>
-      <c r="N138" s="79" t="s">
+      <c r="L138" s="53"/>
+      <c r="M138" s="54"/>
+      <c r="N138" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="O138" s="77"/>
-      <c r="P138" s="80"/>
-      <c r="Q138" s="76" t="s">
+      <c r="O138" s="53"/>
+      <c r="P138" s="101"/>
+      <c r="Q138" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="R138" s="77"/>
-      <c r="S138" s="78"/>
-      <c r="T138" s="79" t="s">
+      <c r="R138" s="53"/>
+      <c r="S138" s="54"/>
+      <c r="T138" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="U138" s="78"/>
+      <c r="U138" s="54"/>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A139" s="106"/>
-      <c r="B139" s="107"/>
-      <c r="C139" s="107"/>
-      <c r="D139" s="108"/>
+      <c r="A139" s="49"/>
+      <c r="B139" s="50"/>
+      <c r="C139" s="50"/>
+      <c r="D139" s="51"/>
       <c r="E139" s="26">
         <v>15</v>
       </c>
@@ -4107,18 +4110,18 @@
       <c r="S139" s="28">
         <v>1</v>
       </c>
-      <c r="T139" s="109">
+      <c r="T139" s="102">
         <v>0</v>
       </c>
-      <c r="U139" s="110"/>
+      <c r="U139" s="103"/>
     </row>
     <row r="140" spans="1:21" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="111" t="s">
+      <c r="A140" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B140" s="112"/>
-      <c r="C140" s="112"/>
-      <c r="D140" s="113"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="33"/>
       <c r="E140" s="12"/>
       <c r="F140" s="13"/>
       <c r="G140" s="14"/>
@@ -4134,16 +4137,16 @@
       <c r="Q140" s="12"/>
       <c r="R140" s="13"/>
       <c r="S140" s="14"/>
-      <c r="T140" s="31"/>
-      <c r="U140" s="32"/>
+      <c r="T140" s="165"/>
+      <c r="U140" s="166"/>
     </row>
     <row r="141" spans="1:21" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="120" t="s">
+      <c r="A141" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B141" s="121"/>
-      <c r="C141" s="121"/>
-      <c r="D141" s="122"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="35"/>
+      <c r="D141" s="36"/>
       <c r="E141" s="12"/>
       <c r="F141" s="13"/>
       <c r="G141" s="14"/>
@@ -4159,16 +4162,16 @@
       <c r="Q141" s="12"/>
       <c r="R141" s="13"/>
       <c r="S141" s="14"/>
-      <c r="T141" s="31"/>
-      <c r="U141" s="32"/>
+      <c r="T141" s="165"/>
+      <c r="U141" s="166"/>
     </row>
     <row r="142" spans="1:21" ht="42.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="114" t="s">
+      <c r="A142" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="B142" s="115"/>
-      <c r="C142" s="115"/>
-      <c r="D142" s="116"/>
+      <c r="B142" s="44"/>
+      <c r="C142" s="44"/>
+      <c r="D142" s="45"/>
       <c r="E142" s="17"/>
       <c r="F142" s="18"/>
       <c r="G142" s="19"/>
@@ -4184,52 +4187,52 @@
       <c r="Q142" s="17"/>
       <c r="R142" s="18"/>
       <c r="S142" s="19"/>
-      <c r="T142" s="33"/>
-      <c r="U142" s="34"/>
+      <c r="T142" s="167"/>
+      <c r="U142" s="168"/>
     </row>
     <row r="143" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="103" t="s">
+      <c r="A144" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B144" s="104"/>
-      <c r="C144" s="104"/>
-      <c r="D144" s="105"/>
-      <c r="E144" s="76" t="s">
+      <c r="B144" s="47"/>
+      <c r="C144" s="47"/>
+      <c r="D144" s="48"/>
+      <c r="E144" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="F144" s="77"/>
-      <c r="G144" s="78"/>
-      <c r="H144" s="79" t="s">
+      <c r="F144" s="53"/>
+      <c r="G144" s="54"/>
+      <c r="H144" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="I144" s="77"/>
-      <c r="J144" s="80"/>
-      <c r="K144" s="76" t="s">
+      <c r="I144" s="53"/>
+      <c r="J144" s="101"/>
+      <c r="K144" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="L144" s="77"/>
-      <c r="M144" s="78"/>
-      <c r="N144" s="79" t="s">
+      <c r="L144" s="53"/>
+      <c r="M144" s="54"/>
+      <c r="N144" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="O144" s="77"/>
-      <c r="P144" s="80"/>
-      <c r="Q144" s="76" t="s">
+      <c r="O144" s="53"/>
+      <c r="P144" s="101"/>
+      <c r="Q144" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="R144" s="77"/>
-      <c r="S144" s="78"/>
-      <c r="T144" s="79" t="s">
+      <c r="R144" s="53"/>
+      <c r="S144" s="54"/>
+      <c r="T144" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="U144" s="78"/>
+      <c r="U144" s="54"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="106"/>
-      <c r="B145" s="107"/>
-      <c r="C145" s="107"/>
-      <c r="D145" s="108"/>
+      <c r="A145" s="49"/>
+      <c r="B145" s="50"/>
+      <c r="C145" s="50"/>
+      <c r="D145" s="51"/>
       <c r="E145" s="26">
         <v>15</v>
       </c>
@@ -4275,18 +4278,18 @@
       <c r="S145" s="28">
         <v>1</v>
       </c>
-      <c r="T145" s="109">
+      <c r="T145" s="102">
         <v>0</v>
       </c>
-      <c r="U145" s="110"/>
+      <c r="U145" s="103"/>
     </row>
     <row r="146" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="111" t="s">
+      <c r="A146" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B146" s="112"/>
-      <c r="C146" s="112"/>
-      <c r="D146" s="113"/>
+      <c r="B146" s="32"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="33"/>
       <c r="E146" s="12"/>
       <c r="F146" s="13"/>
       <c r="G146" s="14"/>
@@ -4302,16 +4305,16 @@
       <c r="Q146" s="12"/>
       <c r="R146" s="13"/>
       <c r="S146" s="14"/>
-      <c r="T146" s="31"/>
-      <c r="U146" s="32"/>
+      <c r="T146" s="165"/>
+      <c r="U146" s="166"/>
     </row>
     <row r="147" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="120" t="s">
+      <c r="A147" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B147" s="121"/>
-      <c r="C147" s="121"/>
-      <c r="D147" s="122"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="36"/>
       <c r="E147" s="12"/>
       <c r="F147" s="13"/>
       <c r="G147" s="14"/>
@@ -4327,16 +4330,16 @@
       <c r="Q147" s="12"/>
       <c r="R147" s="13"/>
       <c r="S147" s="14"/>
-      <c r="T147" s="31"/>
-      <c r="U147" s="32"/>
+      <c r="T147" s="165"/>
+      <c r="U147" s="166"/>
     </row>
     <row r="148" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="120" t="s">
+      <c r="A148" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B148" s="121"/>
-      <c r="C148" s="121"/>
-      <c r="D148" s="122"/>
+      <c r="B148" s="35"/>
+      <c r="C148" s="35"/>
+      <c r="D148" s="36"/>
       <c r="E148" s="12"/>
       <c r="F148" s="13"/>
       <c r="G148" s="14"/>
@@ -4352,16 +4355,16 @@
       <c r="Q148" s="12"/>
       <c r="R148" s="13"/>
       <c r="S148" s="14"/>
-      <c r="T148" s="31"/>
-      <c r="U148" s="32"/>
+      <c r="T148" s="165"/>
+      <c r="U148" s="166"/>
     </row>
     <row r="149" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="120" t="s">
+      <c r="A149" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B149" s="121"/>
-      <c r="C149" s="121"/>
-      <c r="D149" s="122"/>
+      <c r="B149" s="35"/>
+      <c r="C149" s="35"/>
+      <c r="D149" s="36"/>
       <c r="E149" s="12"/>
       <c r="F149" s="13"/>
       <c r="G149" s="14"/>
@@ -4377,16 +4380,16 @@
       <c r="Q149" s="12"/>
       <c r="R149" s="13"/>
       <c r="S149" s="14"/>
-      <c r="T149" s="31"/>
-      <c r="U149" s="32"/>
+      <c r="T149" s="165"/>
+      <c r="U149" s="166"/>
     </row>
     <row r="150" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="120" t="s">
+      <c r="A150" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B150" s="121"/>
-      <c r="C150" s="121"/>
-      <c r="D150" s="122"/>
+      <c r="B150" s="35"/>
+      <c r="C150" s="35"/>
+      <c r="D150" s="36"/>
       <c r="E150" s="12"/>
       <c r="F150" s="13"/>
       <c r="G150" s="14"/>
@@ -4402,16 +4405,16 @@
       <c r="Q150" s="12"/>
       <c r="R150" s="13"/>
       <c r="S150" s="14"/>
-      <c r="T150" s="31"/>
-      <c r="U150" s="32"/>
+      <c r="T150" s="165"/>
+      <c r="U150" s="166"/>
     </row>
     <row r="151" spans="1:21" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="114" t="s">
+      <c r="A151" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B151" s="115"/>
-      <c r="C151" s="115"/>
-      <c r="D151" s="116"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="45"/>
       <c r="E151" s="17"/>
       <c r="F151" s="18"/>
       <c r="G151" s="19"/>
@@ -4427,52 +4430,52 @@
       <c r="Q151" s="17"/>
       <c r="R151" s="18"/>
       <c r="S151" s="19"/>
-      <c r="T151" s="33"/>
-      <c r="U151" s="34"/>
+      <c r="T151" s="167"/>
+      <c r="U151" s="168"/>
     </row>
     <row r="152" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A153" s="103" t="s">
+      <c r="A153" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="B153" s="104"/>
-      <c r="C153" s="104"/>
-      <c r="D153" s="105"/>
-      <c r="E153" s="76" t="s">
+      <c r="B153" s="47"/>
+      <c r="C153" s="47"/>
+      <c r="D153" s="48"/>
+      <c r="E153" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="F153" s="77"/>
-      <c r="G153" s="78"/>
-      <c r="H153" s="79" t="s">
+      <c r="F153" s="53"/>
+      <c r="G153" s="54"/>
+      <c r="H153" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="I153" s="77"/>
-      <c r="J153" s="80"/>
-      <c r="K153" s="76" t="s">
+      <c r="I153" s="53"/>
+      <c r="J153" s="101"/>
+      <c r="K153" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="L153" s="77"/>
-      <c r="M153" s="78"/>
-      <c r="N153" s="79" t="s">
+      <c r="L153" s="53"/>
+      <c r="M153" s="54"/>
+      <c r="N153" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="O153" s="77"/>
-      <c r="P153" s="80"/>
-      <c r="Q153" s="76" t="s">
+      <c r="O153" s="53"/>
+      <c r="P153" s="101"/>
+      <c r="Q153" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="R153" s="77"/>
-      <c r="S153" s="78"/>
-      <c r="T153" s="79" t="s">
+      <c r="R153" s="53"/>
+      <c r="S153" s="54"/>
+      <c r="T153" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="U153" s="78"/>
+      <c r="U153" s="54"/>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A154" s="106"/>
-      <c r="B154" s="107"/>
-      <c r="C154" s="107"/>
-      <c r="D154" s="108"/>
+      <c r="A154" s="49"/>
+      <c r="B154" s="50"/>
+      <c r="C154" s="50"/>
+      <c r="D154" s="51"/>
       <c r="E154" s="26">
         <v>15</v>
       </c>
@@ -4518,18 +4521,18 @@
       <c r="S154" s="28">
         <v>1</v>
       </c>
-      <c r="T154" s="109">
+      <c r="T154" s="102">
         <v>0</v>
       </c>
-      <c r="U154" s="110"/>
+      <c r="U154" s="103"/>
     </row>
     <row r="155" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="111" t="s">
+      <c r="A155" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="B155" s="112"/>
-      <c r="C155" s="112"/>
-      <c r="D155" s="113"/>
+      <c r="B155" s="32"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="33"/>
       <c r="E155" s="12"/>
       <c r="F155" s="13"/>
       <c r="G155" s="14"/>
@@ -4545,16 +4548,16 @@
       <c r="Q155" s="12"/>
       <c r="R155" s="13"/>
       <c r="S155" s="14"/>
-      <c r="T155" s="31"/>
-      <c r="U155" s="32"/>
+      <c r="T155" s="165"/>
+      <c r="U155" s="166"/>
     </row>
     <row r="156" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="120" t="s">
+      <c r="A156" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B156" s="121"/>
-      <c r="C156" s="121"/>
-      <c r="D156" s="122"/>
+      <c r="B156" s="35"/>
+      <c r="C156" s="35"/>
+      <c r="D156" s="36"/>
       <c r="E156" s="12"/>
       <c r="F156" s="13"/>
       <c r="G156" s="14"/>
@@ -4570,16 +4573,16 @@
       <c r="Q156" s="12"/>
       <c r="R156" s="13"/>
       <c r="S156" s="14"/>
-      <c r="T156" s="31"/>
-      <c r="U156" s="32"/>
+      <c r="T156" s="165"/>
+      <c r="U156" s="166"/>
     </row>
     <row r="157" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="120" t="s">
+      <c r="A157" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B157" s="121"/>
-      <c r="C157" s="121"/>
-      <c r="D157" s="122"/>
+      <c r="B157" s="35"/>
+      <c r="C157" s="35"/>
+      <c r="D157" s="36"/>
       <c r="E157" s="12"/>
       <c r="F157" s="13"/>
       <c r="G157" s="14"/>
@@ -4595,16 +4598,16 @@
       <c r="Q157" s="12"/>
       <c r="R157" s="13"/>
       <c r="S157" s="14"/>
-      <c r="T157" s="31"/>
-      <c r="U157" s="32"/>
+      <c r="T157" s="165"/>
+      <c r="U157" s="166"/>
     </row>
     <row r="158" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="120" t="s">
+      <c r="A158" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B158" s="121"/>
-      <c r="C158" s="121"/>
-      <c r="D158" s="122"/>
+      <c r="B158" s="35"/>
+      <c r="C158" s="35"/>
+      <c r="D158" s="36"/>
       <c r="E158" s="12"/>
       <c r="F158" s="13"/>
       <c r="G158" s="14"/>
@@ -4620,16 +4623,16 @@
       <c r="Q158" s="12"/>
       <c r="R158" s="13"/>
       <c r="S158" s="14"/>
-      <c r="T158" s="31"/>
-      <c r="U158" s="32"/>
+      <c r="T158" s="165"/>
+      <c r="U158" s="166"/>
     </row>
     <row r="159" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="120" t="s">
+      <c r="A159" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B159" s="121"/>
-      <c r="C159" s="121"/>
-      <c r="D159" s="122"/>
+      <c r="B159" s="35"/>
+      <c r="C159" s="35"/>
+      <c r="D159" s="36"/>
       <c r="E159" s="12"/>
       <c r="F159" s="13"/>
       <c r="G159" s="14"/>
@@ -4645,16 +4648,16 @@
       <c r="Q159" s="12"/>
       <c r="R159" s="13"/>
       <c r="S159" s="14"/>
-      <c r="T159" s="31"/>
-      <c r="U159" s="32"/>
+      <c r="T159" s="165"/>
+      <c r="U159" s="166"/>
     </row>
     <row r="160" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="117" t="s">
+      <c r="A160" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="B160" s="118"/>
-      <c r="C160" s="118"/>
-      <c r="D160" s="119"/>
+      <c r="B160" s="60"/>
+      <c r="C160" s="60"/>
+      <c r="D160" s="61"/>
       <c r="E160" s="12"/>
       <c r="F160" s="13"/>
       <c r="G160" s="14"/>
@@ -4670,16 +4673,16 @@
       <c r="Q160" s="12"/>
       <c r="R160" s="13"/>
       <c r="S160" s="14"/>
-      <c r="T160" s="31"/>
-      <c r="U160" s="32"/>
+      <c r="T160" s="165"/>
+      <c r="U160" s="166"/>
     </row>
     <row r="161" spans="1:21" ht="48.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="114" t="s">
+      <c r="A161" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B161" s="115"/>
-      <c r="C161" s="115"/>
-      <c r="D161" s="116"/>
+      <c r="B161" s="44"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="45"/>
       <c r="E161" s="17"/>
       <c r="F161" s="18"/>
       <c r="G161" s="19"/>
@@ -4695,48 +4698,48 @@
       <c r="Q161" s="17"/>
       <c r="R161" s="18"/>
       <c r="S161" s="19"/>
-      <c r="T161" s="33"/>
-      <c r="U161" s="34"/>
+      <c r="T161" s="167"/>
+      <c r="U161" s="168"/>
     </row>
     <row r="163" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="62" t="s">
+      <c r="A163" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="B163" s="62"/>
-      <c r="C163" s="62"/>
-      <c r="D163" s="62"/>
-      <c r="E163" s="62"/>
-      <c r="F163" s="62"/>
-      <c r="G163" s="62"/>
-      <c r="H163" s="62"/>
-      <c r="I163" s="62"/>
-      <c r="J163" s="62"/>
-      <c r="K163" s="62"/>
-      <c r="L163" s="62"/>
-      <c r="M163" s="62"/>
-      <c r="N163" s="62"/>
-      <c r="O163" s="62"/>
-      <c r="P163" s="62"/>
-      <c r="Q163" s="62"/>
-      <c r="R163" s="62"/>
-      <c r="S163" s="62"/>
-      <c r="T163" s="62"/>
-      <c r="U163" s="62"/>
+      <c r="B163" s="106"/>
+      <c r="C163" s="106"/>
+      <c r="D163" s="106"/>
+      <c r="E163" s="106"/>
+      <c r="F163" s="106"/>
+      <c r="G163" s="106"/>
+      <c r="H163" s="106"/>
+      <c r="I163" s="106"/>
+      <c r="J163" s="106"/>
+      <c r="K163" s="106"/>
+      <c r="L163" s="106"/>
+      <c r="M163" s="106"/>
+      <c r="N163" s="106"/>
+      <c r="O163" s="106"/>
+      <c r="P163" s="106"/>
+      <c r="Q163" s="106"/>
+      <c r="R163" s="106"/>
+      <c r="S163" s="106"/>
+      <c r="T163" s="106"/>
+      <c r="U163" s="106"/>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A165" s="74" t="s">
+      <c r="A165" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="B165" s="74"/>
-      <c r="C165" s="74"/>
-      <c r="D165" s="74"/>
-      <c r="E165" s="74"/>
-      <c r="F165" s="74"/>
-      <c r="G165" s="74"/>
-      <c r="H165" s="74"/>
+      <c r="B165" s="150"/>
+      <c r="C165" s="150"/>
+      <c r="D165" s="150"/>
+      <c r="E165" s="150"/>
+      <c r="F165" s="150"/>
+      <c r="G165" s="150"/>
+      <c r="H165" s="150"/>
       <c r="I165" s="22"/>
       <c r="J165" s="22"/>
       <c r="K165" s="22"/>
@@ -4775,79 +4778,79 @@
       <c r="U166" s="22"/>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A167" s="75" t="s">
+      <c r="A167" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="B167" s="75"/>
-      <c r="C167" s="75"/>
-      <c r="D167" s="75"/>
-      <c r="E167" s="75"/>
-      <c r="F167" s="75"/>
-      <c r="G167" s="75"/>
-      <c r="H167" s="75"/>
-      <c r="I167" s="75"/>
-      <c r="J167" s="75"/>
-      <c r="K167" s="75"/>
-      <c r="L167" s="75"/>
-      <c r="M167" s="75"/>
-      <c r="N167" s="75"/>
-      <c r="O167" s="75"/>
-      <c r="P167" s="75"/>
-      <c r="Q167" s="75"/>
-      <c r="R167" s="75"/>
-      <c r="S167" s="75"/>
-      <c r="T167" s="75"/>
-      <c r="U167" s="75"/>
+      <c r="B167" s="151"/>
+      <c r="C167" s="151"/>
+      <c r="D167" s="151"/>
+      <c r="E167" s="151"/>
+      <c r="F167" s="151"/>
+      <c r="G167" s="151"/>
+      <c r="H167" s="151"/>
+      <c r="I167" s="151"/>
+      <c r="J167" s="151"/>
+      <c r="K167" s="151"/>
+      <c r="L167" s="151"/>
+      <c r="M167" s="151"/>
+      <c r="N167" s="151"/>
+      <c r="O167" s="151"/>
+      <c r="P167" s="151"/>
+      <c r="Q167" s="151"/>
+      <c r="R167" s="151"/>
+      <c r="S167" s="151"/>
+      <c r="T167" s="151"/>
+      <c r="U167" s="151"/>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A168" s="75" t="s">
+      <c r="A168" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="B168" s="75"/>
-      <c r="C168" s="75"/>
-      <c r="D168" s="75"/>
-      <c r="E168" s="75"/>
-      <c r="F168" s="75"/>
-      <c r="G168" s="75"/>
-      <c r="H168" s="75"/>
-      <c r="I168" s="75"/>
-      <c r="J168" s="75"/>
-      <c r="K168" s="75"/>
-      <c r="L168" s="75"/>
-      <c r="M168" s="75"/>
-      <c r="N168" s="75"/>
-      <c r="O168" s="75"/>
-      <c r="P168" s="75"/>
-      <c r="Q168" s="75"/>
-      <c r="R168" s="75"/>
-      <c r="S168" s="75"/>
-      <c r="T168" s="75"/>
-      <c r="U168" s="75"/>
+      <c r="B168" s="151"/>
+      <c r="C168" s="151"/>
+      <c r="D168" s="151"/>
+      <c r="E168" s="151"/>
+      <c r="F168" s="151"/>
+      <c r="G168" s="151"/>
+      <c r="H168" s="151"/>
+      <c r="I168" s="151"/>
+      <c r="J168" s="151"/>
+      <c r="K168" s="151"/>
+      <c r="L168" s="151"/>
+      <c r="M168" s="151"/>
+      <c r="N168" s="151"/>
+      <c r="O168" s="151"/>
+      <c r="P168" s="151"/>
+      <c r="Q168" s="151"/>
+      <c r="R168" s="151"/>
+      <c r="S168" s="151"/>
+      <c r="T168" s="151"/>
+      <c r="U168" s="151"/>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A169" s="75" t="s">
+      <c r="A169" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="B169" s="75"/>
-      <c r="C169" s="75"/>
-      <c r="D169" s="75"/>
-      <c r="E169" s="75"/>
-      <c r="F169" s="75"/>
-      <c r="G169" s="75"/>
-      <c r="H169" s="75"/>
-      <c r="I169" s="75"/>
-      <c r="J169" s="75"/>
-      <c r="K169" s="75"/>
-      <c r="L169" s="75"/>
-      <c r="M169" s="75"/>
-      <c r="N169" s="75"/>
-      <c r="O169" s="75"/>
-      <c r="P169" s="75"/>
-      <c r="Q169" s="75"/>
-      <c r="R169" s="75"/>
-      <c r="S169" s="75"/>
-      <c r="T169" s="75"/>
-      <c r="U169" s="75"/>
+      <c r="B169" s="151"/>
+      <c r="C169" s="151"/>
+      <c r="D169" s="151"/>
+      <c r="E169" s="151"/>
+      <c r="F169" s="151"/>
+      <c r="G169" s="151"/>
+      <c r="H169" s="151"/>
+      <c r="I169" s="151"/>
+      <c r="J169" s="151"/>
+      <c r="K169" s="151"/>
+      <c r="L169" s="151"/>
+      <c r="M169" s="151"/>
+      <c r="N169" s="151"/>
+      <c r="O169" s="151"/>
+      <c r="P169" s="151"/>
+      <c r="Q169" s="151"/>
+      <c r="R169" s="151"/>
+      <c r="S169" s="151"/>
+      <c r="T169" s="151"/>
+      <c r="U169" s="151"/>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="25"/>
@@ -4873,57 +4876,57 @@
       <c r="U170" s="22"/>
     </row>
     <row r="171" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="102" t="s">
+      <c r="A171" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="B171" s="102"/>
-      <c r="C171" s="102"/>
-      <c r="D171" s="102"/>
-      <c r="E171" s="102"/>
-      <c r="F171" s="102"/>
-      <c r="G171" s="102"/>
-      <c r="H171" s="102"/>
-      <c r="I171" s="102"/>
-      <c r="J171" s="102"/>
-      <c r="K171" s="102"/>
-      <c r="L171" s="102"/>
-      <c r="M171" s="102"/>
-      <c r="N171" s="102"/>
-      <c r="O171" s="102"/>
-      <c r="P171" s="102"/>
-      <c r="Q171" s="102"/>
-      <c r="R171" s="102"/>
-      <c r="S171" s="102"/>
-      <c r="T171" s="102"/>
-      <c r="U171" s="102"/>
+      <c r="B171" s="107"/>
+      <c r="C171" s="107"/>
+      <c r="D171" s="107"/>
+      <c r="E171" s="107"/>
+      <c r="F171" s="107"/>
+      <c r="G171" s="107"/>
+      <c r="H171" s="107"/>
+      <c r="I171" s="107"/>
+      <c r="J171" s="107"/>
+      <c r="K171" s="107"/>
+      <c r="L171" s="107"/>
+      <c r="M171" s="107"/>
+      <c r="N171" s="107"/>
+      <c r="O171" s="107"/>
+      <c r="P171" s="107"/>
+      <c r="Q171" s="107"/>
+      <c r="R171" s="107"/>
+      <c r="S171" s="107"/>
+      <c r="T171" s="107"/>
+      <c r="U171" s="107"/>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
     </row>
     <row r="173" spans="1:21" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="62" t="s">
+      <c r="A173" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="B173" s="62"/>
-      <c r="C173" s="62"/>
-      <c r="D173" s="62"/>
-      <c r="E173" s="62"/>
-      <c r="F173" s="62"/>
-      <c r="G173" s="62"/>
-      <c r="H173" s="62"/>
-      <c r="I173" s="62"/>
-      <c r="J173" s="62"/>
-      <c r="K173" s="62"/>
-      <c r="L173" s="62"/>
-      <c r="M173" s="62"/>
-      <c r="N173" s="62"/>
-      <c r="O173" s="62"/>
-      <c r="P173" s="62"/>
-      <c r="Q173" s="62"/>
-      <c r="R173" s="62"/>
-      <c r="S173" s="62"/>
-      <c r="T173" s="62"/>
-      <c r="U173" s="62"/>
+      <c r="B173" s="106"/>
+      <c r="C173" s="106"/>
+      <c r="D173" s="106"/>
+      <c r="E173" s="106"/>
+      <c r="F173" s="106"/>
+      <c r="G173" s="106"/>
+      <c r="H173" s="106"/>
+      <c r="I173" s="106"/>
+      <c r="J173" s="106"/>
+      <c r="K173" s="106"/>
+      <c r="L173" s="106"/>
+      <c r="M173" s="106"/>
+      <c r="N173" s="106"/>
+      <c r="O173" s="106"/>
+      <c r="P173" s="106"/>
+      <c r="Q173" s="106"/>
+      <c r="R173" s="106"/>
+      <c r="S173" s="106"/>
+      <c r="T173" s="106"/>
+      <c r="U173" s="106"/>
     </row>
     <row r="175" spans="1:21" ht="47.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
@@ -4937,26 +4940,26 @@
       </c>
     </row>
     <row r="178" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E178" s="63" t="s">
+      <c r="E178" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="F178" s="63"/>
-      <c r="G178" s="63"/>
-      <c r="H178" s="63"/>
-      <c r="I178" s="63"/>
-      <c r="J178" s="63"/>
-      <c r="K178" s="63"/>
-      <c r="L178" s="63"/>
-      <c r="N178" s="101" t="s">
+      <c r="F178" s="104"/>
+      <c r="G178" s="104"/>
+      <c r="H178" s="104"/>
+      <c r="I178" s="104"/>
+      <c r="J178" s="104"/>
+      <c r="K178" s="104"/>
+      <c r="L178" s="104"/>
+      <c r="N178" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="O178" s="101"/>
-      <c r="P178" s="101"/>
-      <c r="Q178" s="101"/>
-      <c r="R178" s="101"/>
-      <c r="S178" s="101"/>
-      <c r="T178" s="101"/>
-      <c r="U178" s="101"/>
+      <c r="O178" s="105"/>
+      <c r="P178" s="105"/>
+      <c r="Q178" s="105"/>
+      <c r="R178" s="105"/>
+      <c r="S178" s="105"/>
+      <c r="T178" s="105"/>
+      <c r="U178" s="105"/>
     </row>
     <row r="179" spans="1:21" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="180" spans="1:21" x14ac:dyDescent="0.3">
@@ -4967,18 +4970,18 @@
     <row r="181" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
-      <c r="E181" s="63" t="s">
+      <c r="E181" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="F181" s="63"/>
-      <c r="G181" s="63"/>
-      <c r="H181" s="63"/>
-      <c r="I181" s="63"/>
-      <c r="J181" s="63"/>
-      <c r="K181" s="63"/>
-      <c r="L181" s="63"/>
-      <c r="M181" s="63"/>
-      <c r="N181" s="63"/>
+      <c r="F181" s="104"/>
+      <c r="G181" s="104"/>
+      <c r="H181" s="104"/>
+      <c r="I181" s="104"/>
+      <c r="J181" s="104"/>
+      <c r="K181" s="104"/>
+      <c r="L181" s="104"/>
+      <c r="M181" s="104"/>
+      <c r="N181" s="104"/>
       <c r="O181" s="7"/>
       <c r="P181" s="7"/>
     </row>
@@ -5048,6 +5051,385 @@
     </row>
   </sheetData>
   <mergeCells count="403">
+    <mergeCell ref="T141:U141"/>
+    <mergeCell ref="T142:U142"/>
+    <mergeCell ref="T146:U146"/>
+    <mergeCell ref="T147:U147"/>
+    <mergeCell ref="T148:U148"/>
+    <mergeCell ref="T161:U161"/>
+    <mergeCell ref="T149:U149"/>
+    <mergeCell ref="T150:U150"/>
+    <mergeCell ref="T151:U151"/>
+    <mergeCell ref="T155:U155"/>
+    <mergeCell ref="T156:U156"/>
+    <mergeCell ref="T157:U157"/>
+    <mergeCell ref="T158:U158"/>
+    <mergeCell ref="T159:U159"/>
+    <mergeCell ref="T160:U160"/>
+    <mergeCell ref="T154:U154"/>
+    <mergeCell ref="R90:U90"/>
+    <mergeCell ref="R91:U91"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="R93:U93"/>
+    <mergeCell ref="R94:U94"/>
+    <mergeCell ref="T134:U134"/>
+    <mergeCell ref="T135:U135"/>
+    <mergeCell ref="T136:U136"/>
+    <mergeCell ref="T140:U140"/>
+    <mergeCell ref="F127:U127"/>
+    <mergeCell ref="F126:U126"/>
+    <mergeCell ref="F125:U125"/>
+    <mergeCell ref="F128:U128"/>
+    <mergeCell ref="F129:U129"/>
+    <mergeCell ref="F130:U130"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="K132:M132"/>
+    <mergeCell ref="N132:P132"/>
+    <mergeCell ref="A122:U122"/>
+    <mergeCell ref="A106:U106"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="R100:U100"/>
+    <mergeCell ref="R101:U101"/>
+    <mergeCell ref="R102:U102"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="R95:U95"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="R98:U98"/>
+    <mergeCell ref="R99:U99"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="A60:U60"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="H49:T49"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="R75:U75"/>
+    <mergeCell ref="R76:U76"/>
+    <mergeCell ref="R77:U77"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="R79:U79"/>
+    <mergeCell ref="R85:U85"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="R86:U86"/>
+    <mergeCell ref="R87:U87"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="R89:U89"/>
+    <mergeCell ref="R80:U80"/>
+    <mergeCell ref="R81:U81"/>
+    <mergeCell ref="R82:U82"/>
+    <mergeCell ref="R83:U83"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="O85:Q85"/>
+    <mergeCell ref="O86:Q86"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="O88:Q88"/>
+    <mergeCell ref="O80:Q80"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="O83:Q83"/>
+    <mergeCell ref="O84:Q84"/>
+    <mergeCell ref="O90:Q90"/>
+    <mergeCell ref="O91:Q91"/>
+    <mergeCell ref="O92:Q92"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="O89:Q89"/>
+    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="O76:Q76"/>
+    <mergeCell ref="O77:Q77"/>
+    <mergeCell ref="O78:Q78"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="O104:Q104"/>
+    <mergeCell ref="O95:Q95"/>
+    <mergeCell ref="O96:Q96"/>
+    <mergeCell ref="O97:Q97"/>
+    <mergeCell ref="O98:Q98"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="O100:Q100"/>
+    <mergeCell ref="O101:Q101"/>
+    <mergeCell ref="O102:Q102"/>
+    <mergeCell ref="O103:Q103"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E181:N181"/>
+    <mergeCell ref="A107:U107"/>
+    <mergeCell ref="A109:U109"/>
+    <mergeCell ref="A111:U111"/>
+    <mergeCell ref="A113:U113"/>
+    <mergeCell ref="A115:U115"/>
+    <mergeCell ref="A117:U117"/>
+    <mergeCell ref="A118:U118"/>
+    <mergeCell ref="A116:U116"/>
+    <mergeCell ref="A114:U114"/>
+    <mergeCell ref="A112:U112"/>
+    <mergeCell ref="A110:U110"/>
+    <mergeCell ref="A165:H165"/>
+    <mergeCell ref="A169:U169"/>
+    <mergeCell ref="A168:U168"/>
+    <mergeCell ref="A167:U167"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A65:U65"/>
+    <mergeCell ref="R73:U73"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="K72:U72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="A66:U66"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="A67:U67"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="K70:U70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="K71:U71"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="E178:L178"/>
+    <mergeCell ref="N178:U178"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="A163:U163"/>
+    <mergeCell ref="A171:U171"/>
+    <mergeCell ref="A173:U173"/>
+    <mergeCell ref="Q132:S132"/>
+    <mergeCell ref="T132:U132"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="T133:U133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A138:D139"/>
+    <mergeCell ref="E138:G138"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="K138:M138"/>
+    <mergeCell ref="N138:P138"/>
+    <mergeCell ref="Q138:S138"/>
+    <mergeCell ref="T138:U138"/>
+    <mergeCell ref="T139:U139"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A144:D145"/>
+    <mergeCell ref="E144:G144"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="K144:M144"/>
+    <mergeCell ref="N144:P144"/>
+    <mergeCell ref="Q144:S144"/>
+    <mergeCell ref="T144:U144"/>
+    <mergeCell ref="T145:U145"/>
+    <mergeCell ref="N153:P153"/>
+    <mergeCell ref="Q153:S153"/>
+    <mergeCell ref="T153:U153"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="R74:U74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A53:U53"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="M55:U55"/>
+    <mergeCell ref="M56:U56"/>
+    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q57:U57"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="F61:L61"/>
+    <mergeCell ref="M61:U61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="F62:L62"/>
+    <mergeCell ref="M62:U62"/>
+    <mergeCell ref="A64:U64"/>
+    <mergeCell ref="K153:M153"/>
     <mergeCell ref="A155:D155"/>
     <mergeCell ref="A156:D156"/>
     <mergeCell ref="A157:D157"/>
@@ -5072,385 +5454,6 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C83:D83"/>
     <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A53:U53"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="M55:U55"/>
-    <mergeCell ref="M56:U56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q57:U57"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="F61:L61"/>
-    <mergeCell ref="M61:U61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="F62:L62"/>
-    <mergeCell ref="M62:U62"/>
-    <mergeCell ref="A64:U64"/>
-    <mergeCell ref="K153:M153"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="R74:U74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="H153:J153"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A144:D145"/>
-    <mergeCell ref="E144:G144"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="K144:M144"/>
-    <mergeCell ref="N144:P144"/>
-    <mergeCell ref="Q144:S144"/>
-    <mergeCell ref="T144:U144"/>
-    <mergeCell ref="T145:U145"/>
-    <mergeCell ref="N153:P153"/>
-    <mergeCell ref="Q153:S153"/>
-    <mergeCell ref="T153:U153"/>
-    <mergeCell ref="E178:L178"/>
-    <mergeCell ref="N178:U178"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="H132:J132"/>
-    <mergeCell ref="A163:U163"/>
-    <mergeCell ref="A171:U171"/>
-    <mergeCell ref="A173:U173"/>
-    <mergeCell ref="Q132:S132"/>
-    <mergeCell ref="T132:U132"/>
-    <mergeCell ref="A132:D133"/>
-    <mergeCell ref="T133:U133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A138:D139"/>
-    <mergeCell ref="E138:G138"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="K138:M138"/>
-    <mergeCell ref="N138:P138"/>
-    <mergeCell ref="Q138:S138"/>
-    <mergeCell ref="T138:U138"/>
-    <mergeCell ref="T139:U139"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="A65:U65"/>
-    <mergeCell ref="R73:U73"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="K72:U72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="A66:U66"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="A67:U67"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="K70:U70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="K71:U71"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E181:N181"/>
-    <mergeCell ref="A107:U107"/>
-    <mergeCell ref="A109:U109"/>
-    <mergeCell ref="A111:U111"/>
-    <mergeCell ref="A113:U113"/>
-    <mergeCell ref="A115:U115"/>
-    <mergeCell ref="A117:U117"/>
-    <mergeCell ref="A118:U118"/>
-    <mergeCell ref="A116:U116"/>
-    <mergeCell ref="A114:U114"/>
-    <mergeCell ref="A112:U112"/>
-    <mergeCell ref="A110:U110"/>
-    <mergeCell ref="A165:H165"/>
-    <mergeCell ref="A169:U169"/>
-    <mergeCell ref="A168:U168"/>
-    <mergeCell ref="A167:U167"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="O104:Q104"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="O96:Q96"/>
-    <mergeCell ref="O97:Q97"/>
-    <mergeCell ref="O98:Q98"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="O100:Q100"/>
-    <mergeCell ref="O101:Q101"/>
-    <mergeCell ref="O102:Q102"/>
-    <mergeCell ref="O103:Q103"/>
-    <mergeCell ref="O90:Q90"/>
-    <mergeCell ref="O91:Q91"/>
-    <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="O89:Q89"/>
-    <mergeCell ref="O75:Q75"/>
-    <mergeCell ref="O76:Q76"/>
-    <mergeCell ref="O77:Q77"/>
-    <mergeCell ref="O78:Q78"/>
-    <mergeCell ref="R85:U85"/>
-    <mergeCell ref="O79:Q79"/>
-    <mergeCell ref="R86:U86"/>
-    <mergeCell ref="R87:U87"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="R89:U89"/>
-    <mergeCell ref="R80:U80"/>
-    <mergeCell ref="R81:U81"/>
-    <mergeCell ref="R82:U82"/>
-    <mergeCell ref="R83:U83"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="A60:U60"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="H49:T49"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="R75:U75"/>
-    <mergeCell ref="R76:U76"/>
-    <mergeCell ref="R77:U77"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="R79:U79"/>
-    <mergeCell ref="O85:Q85"/>
-    <mergeCell ref="O86:Q86"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="O88:Q88"/>
-    <mergeCell ref="O80:Q80"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="O83:Q83"/>
-    <mergeCell ref="O84:Q84"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="R100:U100"/>
-    <mergeCell ref="R101:U101"/>
-    <mergeCell ref="R102:U102"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="R95:U95"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="R98:U98"/>
-    <mergeCell ref="R99:U99"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="R90:U90"/>
-    <mergeCell ref="R91:U91"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="R93:U93"/>
-    <mergeCell ref="R94:U94"/>
-    <mergeCell ref="T134:U134"/>
-    <mergeCell ref="T135:U135"/>
-    <mergeCell ref="T136:U136"/>
-    <mergeCell ref="T140:U140"/>
-    <mergeCell ref="F127:U127"/>
-    <mergeCell ref="F126:U126"/>
-    <mergeCell ref="F125:U125"/>
-    <mergeCell ref="F128:U128"/>
-    <mergeCell ref="F129:U129"/>
-    <mergeCell ref="F130:U130"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="K132:M132"/>
-    <mergeCell ref="N132:P132"/>
-    <mergeCell ref="A122:U122"/>
-    <mergeCell ref="A106:U106"/>
-    <mergeCell ref="T141:U141"/>
-    <mergeCell ref="T142:U142"/>
-    <mergeCell ref="T146:U146"/>
-    <mergeCell ref="T147:U147"/>
-    <mergeCell ref="T148:U148"/>
-    <mergeCell ref="T161:U161"/>
-    <mergeCell ref="T149:U149"/>
-    <mergeCell ref="T150:U150"/>
-    <mergeCell ref="T151:U151"/>
-    <mergeCell ref="T155:U155"/>
-    <mergeCell ref="T156:U156"/>
-    <mergeCell ref="T157:U157"/>
-    <mergeCell ref="T158:U158"/>
-    <mergeCell ref="T159:U159"/>
-    <mergeCell ref="T160:U160"/>
-    <mergeCell ref="T154:U154"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:G4">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
@@ -5497,10 +5500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5521,10 +5524,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>101</v>
@@ -5532,35 +5535,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5752,18 +5733,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5786,14 +5767,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1F3D8C2-E839-4AD6-B75F-D1A823A8A73C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEEF2B8-1878-4C75-81E0-5896CFFB1B75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -5808,4 +5781,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1F3D8C2-E839-4AD6-B75F-D1A823A8A73C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/main/resources/Gradingtable.xlsx
+++ b/src/main/resources/Gradingtable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Leistungsbericht" sheetId="1" r:id="rId1"/>
@@ -1288,6 +1288,288 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1297,6 +1579,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1306,12 +1606,90 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
@@ -1324,386 +1702,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1983,8 +1983,8 @@
   </sheetPr>
   <dimension ref="A1:U191"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A55" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:U65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -1997,102 +1997,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="O1" s="110" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="O1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
     </row>
     <row r="2" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="O2" s="110" t="s">
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="O2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
     </row>
     <row r="3" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="O3" s="109" t="s">
+      <c r="A3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="O3" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
     </row>
     <row r="4" spans="1:21" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="O4" s="109" t="s">
+      <c r="A4" s="114"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="O4" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
     </row>
     <row r="6" spans="1:21" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="O6" s="159" t="s">
+      <c r="O6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="159"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
       <c r="U6" s="23"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -2114,1222 +2114,1224 @@
       </c>
     </row>
     <row r="49" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="160" t="s">
+      <c r="B49" s="141"/>
+      <c r="C49" s="141"/>
+      <c r="D49" s="141"/>
+      <c r="E49" s="141"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="141"/>
+      <c r="H49" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="160"/>
-      <c r="J49" s="160"/>
-      <c r="K49" s="160"/>
-      <c r="L49" s="160"/>
-      <c r="M49" s="160"/>
-      <c r="N49" s="160"/>
-      <c r="O49" s="160"/>
-      <c r="P49" s="160"/>
-      <c r="Q49" s="160"/>
-      <c r="R49" s="160"/>
-      <c r="S49" s="160"/>
-      <c r="T49" s="160"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="68"/>
+      <c r="Q49" s="68"/>
+      <c r="R49" s="68"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="68"/>
       <c r="U49" s="7"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="63"/>
-      <c r="M51" s="63"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="142"/>
+      <c r="L51" s="142"/>
+      <c r="M51" s="142"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="64"/>
-      <c r="M53" s="64"/>
-      <c r="N53" s="64"/>
-      <c r="O53" s="64"/>
-      <c r="P53" s="64"/>
-      <c r="Q53" s="64"/>
-      <c r="R53" s="64"/>
-      <c r="S53" s="64"/>
-      <c r="T53" s="64"/>
-      <c r="U53" s="64"/>
+      <c r="B53" s="114"/>
+      <c r="C53" s="114"/>
+      <c r="D53" s="114"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="114"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="114"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="114"/>
+      <c r="N53" s="114"/>
+      <c r="O53" s="114"/>
+      <c r="P53" s="114"/>
+      <c r="Q53" s="114"/>
+      <c r="R53" s="114"/>
+      <c r="S53" s="114"/>
+      <c r="T53" s="114"/>
+      <c r="U53" s="114"/>
     </row>
     <row r="54" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="66"/>
-      <c r="M55" s="66" t="s">
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="N55" s="66"/>
-      <c r="O55" s="66"/>
-      <c r="P55" s="66"/>
-      <c r="Q55" s="66"/>
-      <c r="R55" s="66"/>
-      <c r="S55" s="66"/>
-      <c r="T55" s="66"/>
-      <c r="U55" s="70"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="65"/>
+      <c r="P55" s="65"/>
+      <c r="Q55" s="65"/>
+      <c r="R55" s="65"/>
+      <c r="S55" s="65"/>
+      <c r="T55" s="65"/>
+      <c r="U55" s="66"/>
     </row>
     <row r="56" spans="1:21" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
-      <c r="O56" s="71"/>
-      <c r="P56" s="71"/>
-      <c r="Q56" s="71"/>
-      <c r="R56" s="71"/>
-      <c r="S56" s="71"/>
-      <c r="T56" s="71"/>
-      <c r="U56" s="71"/>
+      <c r="A56" s="143"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="144"/>
+      <c r="G56" s="144"/>
+      <c r="H56" s="144"/>
+      <c r="I56" s="144"/>
+      <c r="J56" s="144"/>
+      <c r="K56" s="144"/>
+      <c r="L56" s="145"/>
+      <c r="M56" s="169">
+        <v>36892</v>
+      </c>
+      <c r="N56" s="169"/>
+      <c r="O56" s="169"/>
+      <c r="P56" s="169"/>
+      <c r="Q56" s="169"/>
+      <c r="R56" s="169"/>
+      <c r="S56" s="169"/>
+      <c r="T56" s="169"/>
+      <c r="U56" s="169"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="72" t="s">
+      <c r="A57" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="73"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
-      <c r="M57" s="73" t="s">
+      <c r="B57" s="147"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="147"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="147"/>
+      <c r="I57" s="147"/>
+      <c r="J57" s="147"/>
+      <c r="K57" s="147"/>
+      <c r="L57" s="147"/>
+      <c r="M57" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="N57" s="76"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="73" t="s">
+      <c r="N57" s="150"/>
+      <c r="O57" s="150"/>
+      <c r="P57" s="150"/>
+      <c r="Q57" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="R57" s="76"/>
-      <c r="S57" s="76"/>
-      <c r="T57" s="76"/>
-      <c r="U57" s="78"/>
+      <c r="R57" s="150"/>
+      <c r="S57" s="150"/>
+      <c r="T57" s="150"/>
+      <c r="U57" s="152"/>
     </row>
     <row r="58" spans="1:21" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="74"/>
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="77"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="75"/>
-      <c r="P58" s="75"/>
-      <c r="Q58" s="77"/>
-      <c r="R58" s="75"/>
-      <c r="S58" s="75"/>
-      <c r="T58" s="75"/>
-      <c r="U58" s="79"/>
+      <c r="A58" s="148"/>
+      <c r="B58" s="149"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
+      <c r="E58" s="149"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="149"/>
+      <c r="I58" s="149"/>
+      <c r="J58" s="149"/>
+      <c r="K58" s="149"/>
+      <c r="L58" s="149"/>
+      <c r="M58" s="151"/>
+      <c r="N58" s="149"/>
+      <c r="O58" s="149"/>
+      <c r="P58" s="149"/>
+      <c r="Q58" s="151"/>
+      <c r="R58" s="149"/>
+      <c r="S58" s="149"/>
+      <c r="T58" s="149"/>
+      <c r="U58" s="153"/>
     </row>
     <row r="59" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
-      <c r="M60" s="66"/>
-      <c r="N60" s="66"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="66"/>
-      <c r="Q60" s="66"/>
-      <c r="R60" s="66"/>
-      <c r="S60" s="66"/>
-      <c r="T60" s="66"/>
-      <c r="U60" s="70"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
+      <c r="N60" s="65"/>
+      <c r="O60" s="65"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="65"/>
+      <c r="S60" s="65"/>
+      <c r="T60" s="65"/>
+      <c r="U60" s="66"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="80" t="s">
+      <c r="A61" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="82" t="s">
+      <c r="B61" s="155"/>
+      <c r="C61" s="155"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="155"/>
+      <c r="F61" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="82" t="s">
+      <c r="G61" s="155"/>
+      <c r="H61" s="155"/>
+      <c r="I61" s="155"/>
+      <c r="J61" s="155"/>
+      <c r="K61" s="155"/>
+      <c r="L61" s="155"/>
+      <c r="M61" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="N61" s="81"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="81"/>
-      <c r="Q61" s="81"/>
-      <c r="R61" s="81"/>
-      <c r="S61" s="81"/>
-      <c r="T61" s="81"/>
-      <c r="U61" s="83"/>
+      <c r="N61" s="155"/>
+      <c r="O61" s="155"/>
+      <c r="P61" s="155"/>
+      <c r="Q61" s="155"/>
+      <c r="R61" s="155"/>
+      <c r="S61" s="155"/>
+      <c r="T61" s="155"/>
+      <c r="U61" s="157"/>
     </row>
     <row r="62" spans="1:21" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="84"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="85"/>
-      <c r="J62" s="85"/>
-      <c r="K62" s="85"/>
-      <c r="L62" s="85"/>
-      <c r="M62" s="77"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="75"/>
-      <c r="P62" s="75"/>
-      <c r="Q62" s="75"/>
-      <c r="R62" s="75"/>
-      <c r="S62" s="75"/>
-      <c r="T62" s="75"/>
-      <c r="U62" s="79"/>
+      <c r="A62" s="158"/>
+      <c r="B62" s="159"/>
+      <c r="C62" s="159"/>
+      <c r="D62" s="159"/>
+      <c r="E62" s="159"/>
+      <c r="F62" s="160"/>
+      <c r="G62" s="159"/>
+      <c r="H62" s="159"/>
+      <c r="I62" s="159"/>
+      <c r="J62" s="159"/>
+      <c r="K62" s="159"/>
+      <c r="L62" s="159"/>
+      <c r="M62" s="151"/>
+      <c r="N62" s="149"/>
+      <c r="O62" s="149"/>
+      <c r="P62" s="149"/>
+      <c r="Q62" s="149"/>
+      <c r="R62" s="149"/>
+      <c r="S62" s="149"/>
+      <c r="T62" s="149"/>
+      <c r="U62" s="153"/>
     </row>
     <row r="63" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="87" t="s">
+      <c r="A64" s="161" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="88"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="88"/>
-      <c r="F64" s="88"/>
-      <c r="G64" s="88"/>
-      <c r="H64" s="88"/>
-      <c r="I64" s="88"/>
-      <c r="J64" s="88"/>
-      <c r="K64" s="88"/>
-      <c r="L64" s="88"/>
-      <c r="M64" s="88"/>
-      <c r="N64" s="88"/>
-      <c r="O64" s="88"/>
-      <c r="P64" s="88"/>
-      <c r="Q64" s="88"/>
-      <c r="R64" s="88"/>
-      <c r="S64" s="88"/>
-      <c r="T64" s="88"/>
-      <c r="U64" s="89"/>
+      <c r="B64" s="162"/>
+      <c r="C64" s="162"/>
+      <c r="D64" s="162"/>
+      <c r="E64" s="162"/>
+      <c r="F64" s="162"/>
+      <c r="G64" s="162"/>
+      <c r="H64" s="162"/>
+      <c r="I64" s="162"/>
+      <c r="J64" s="162"/>
+      <c r="K64" s="162"/>
+      <c r="L64" s="162"/>
+      <c r="M64" s="162"/>
+      <c r="N64" s="162"/>
+      <c r="O64" s="162"/>
+      <c r="P64" s="162"/>
+      <c r="Q64" s="162"/>
+      <c r="R64" s="162"/>
+      <c r="S64" s="162"/>
+      <c r="T64" s="162"/>
+      <c r="U64" s="163"/>
     </row>
     <row r="65" spans="1:21" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="57"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="58"/>
-      <c r="P65" s="58"/>
-      <c r="Q65" s="58"/>
-      <c r="R65" s="58"/>
-      <c r="S65" s="58"/>
-      <c r="T65" s="58"/>
-      <c r="U65" s="111"/>
+      <c r="A65" s="90"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="91"/>
+      <c r="D65" s="91"/>
+      <c r="E65" s="91"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="91"/>
+      <c r="I65" s="91"/>
+      <c r="J65" s="91"/>
+      <c r="K65" s="91"/>
+      <c r="L65" s="91"/>
+      <c r="M65" s="91"/>
+      <c r="N65" s="91"/>
+      <c r="O65" s="91"/>
+      <c r="P65" s="91"/>
+      <c r="Q65" s="91"/>
+      <c r="R65" s="91"/>
+      <c r="S65" s="91"/>
+      <c r="T65" s="91"/>
+      <c r="U65" s="92"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="123" t="s">
+      <c r="A66" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="124"/>
-      <c r="C66" s="124"/>
-      <c r="D66" s="124"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="124"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="124"/>
-      <c r="I66" s="124"/>
-      <c r="J66" s="124"/>
-      <c r="K66" s="124"/>
-      <c r="L66" s="124"/>
-      <c r="M66" s="124"/>
-      <c r="N66" s="124"/>
-      <c r="O66" s="124"/>
-      <c r="P66" s="124"/>
-      <c r="Q66" s="124"/>
-      <c r="R66" s="124"/>
-      <c r="S66" s="124"/>
-      <c r="T66" s="124"/>
-      <c r="U66" s="125"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="103"/>
+      <c r="H66" s="103"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="103"/>
+      <c r="K66" s="103"/>
+      <c r="L66" s="103"/>
+      <c r="M66" s="103"/>
+      <c r="N66" s="103"/>
+      <c r="O66" s="103"/>
+      <c r="P66" s="103"/>
+      <c r="Q66" s="103"/>
+      <c r="R66" s="103"/>
+      <c r="S66" s="103"/>
+      <c r="T66" s="103"/>
+      <c r="U66" s="104"/>
     </row>
     <row r="67" spans="1:21" ht="80.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="57"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="58"/>
-      <c r="M67" s="58"/>
-      <c r="N67" s="58"/>
-      <c r="O67" s="58"/>
-      <c r="P67" s="58"/>
-      <c r="Q67" s="58"/>
-      <c r="R67" s="58"/>
-      <c r="S67" s="58"/>
-      <c r="T67" s="58"/>
-      <c r="U67" s="111"/>
+      <c r="A67" s="90"/>
+      <c r="B67" s="91"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="91"/>
+      <c r="K67" s="91"/>
+      <c r="L67" s="91"/>
+      <c r="M67" s="91"/>
+      <c r="N67" s="91"/>
+      <c r="O67" s="91"/>
+      <c r="P67" s="91"/>
+      <c r="Q67" s="91"/>
+      <c r="R67" s="91"/>
+      <c r="S67" s="91"/>
+      <c r="T67" s="91"/>
+      <c r="U67" s="92"/>
     </row>
     <row r="68" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="40"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
+      <c r="J68" s="88"/>
+      <c r="K68" s="88"/>
+      <c r="L68" s="88"/>
+      <c r="M68" s="88"/>
+      <c r="N68" s="88"/>
+      <c r="O68" s="88"/>
+      <c r="P68" s="88"/>
+      <c r="Q68" s="165"/>
+      <c r="R68" s="165"/>
+      <c r="S68" s="165"/>
+      <c r="T68" s="165"/>
+      <c r="U68" s="166"/>
     </row>
     <row r="69" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="57" t="s">
+      <c r="A69" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="58"/>
-      <c r="Q69" s="41"/>
-      <c r="R69" s="41"/>
-      <c r="S69" s="41"/>
-      <c r="T69" s="41"/>
-      <c r="U69" s="42"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="Q69" s="167"/>
+      <c r="R69" s="167"/>
+      <c r="S69" s="167"/>
+      <c r="T69" s="167"/>
+      <c r="U69" s="168"/>
     </row>
     <row r="70" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="126" t="s">
+      <c r="A70" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="127"/>
-      <c r="C70" s="127"/>
-      <c r="D70" s="127"/>
-      <c r="E70" s="127"/>
-      <c r="F70" s="127"/>
-      <c r="G70" s="127"/>
-      <c r="H70" s="127"/>
-      <c r="I70" s="127"/>
-      <c r="J70" s="128"/>
-      <c r="K70" s="126" t="s">
+      <c r="B70" s="106"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="106"/>
+      <c r="G70" s="106"/>
+      <c r="H70" s="106"/>
+      <c r="I70" s="106"/>
+      <c r="J70" s="107"/>
+      <c r="K70" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="L70" s="127"/>
-      <c r="M70" s="127"/>
-      <c r="N70" s="127"/>
-      <c r="O70" s="127"/>
-      <c r="P70" s="127"/>
-      <c r="Q70" s="127"/>
-      <c r="R70" s="127"/>
-      <c r="S70" s="127"/>
-      <c r="T70" s="127"/>
-      <c r="U70" s="128"/>
+      <c r="L70" s="106"/>
+      <c r="M70" s="106"/>
+      <c r="N70" s="106"/>
+      <c r="O70" s="106"/>
+      <c r="P70" s="106"/>
+      <c r="Q70" s="106"/>
+      <c r="R70" s="106"/>
+      <c r="S70" s="106"/>
+      <c r="T70" s="106"/>
+      <c r="U70" s="107"/>
     </row>
     <row r="71" spans="1:21" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="129"/>
-      <c r="B71" s="130"/>
-      <c r="C71" s="130"/>
-      <c r="D71" s="130"/>
-      <c r="E71" s="130"/>
-      <c r="F71" s="130"/>
-      <c r="G71" s="130"/>
-      <c r="H71" s="130"/>
-      <c r="I71" s="130"/>
-      <c r="J71" s="131"/>
-      <c r="K71" s="132"/>
-      <c r="L71" s="133"/>
-      <c r="M71" s="133"/>
-      <c r="N71" s="133"/>
-      <c r="O71" s="133"/>
-      <c r="P71" s="133"/>
-      <c r="Q71" s="133"/>
-      <c r="R71" s="133"/>
-      <c r="S71" s="133"/>
-      <c r="T71" s="133"/>
-      <c r="U71" s="134"/>
+      <c r="A71" s="108"/>
+      <c r="B71" s="109"/>
+      <c r="C71" s="109"/>
+      <c r="D71" s="109"/>
+      <c r="E71" s="109"/>
+      <c r="F71" s="109"/>
+      <c r="G71" s="109"/>
+      <c r="H71" s="109"/>
+      <c r="I71" s="109"/>
+      <c r="J71" s="110"/>
+      <c r="K71" s="111"/>
+      <c r="L71" s="112"/>
+      <c r="M71" s="112"/>
+      <c r="N71" s="112"/>
+      <c r="O71" s="112"/>
+      <c r="P71" s="112"/>
+      <c r="Q71" s="112"/>
+      <c r="R71" s="112"/>
+      <c r="S71" s="112"/>
+      <c r="T71" s="112"/>
+      <c r="U71" s="113"/>
     </row>
     <row r="72" spans="1:21" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="115" t="s">
+      <c r="A72" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="116"/>
-      <c r="C72" s="116"/>
-      <c r="D72" s="116"/>
-      <c r="E72" s="116"/>
-      <c r="F72" s="116"/>
-      <c r="G72" s="116"/>
-      <c r="H72" s="116"/>
-      <c r="I72" s="116"/>
-      <c r="J72" s="117"/>
-      <c r="K72" s="115" t="s">
+      <c r="B72" s="97"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="97"/>
+      <c r="G72" s="97"/>
+      <c r="H72" s="97"/>
+      <c r="I72" s="97"/>
+      <c r="J72" s="98"/>
+      <c r="K72" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="L72" s="116"/>
-      <c r="M72" s="116"/>
-      <c r="N72" s="116"/>
-      <c r="O72" s="116"/>
-      <c r="P72" s="116"/>
-      <c r="Q72" s="116"/>
-      <c r="R72" s="116"/>
-      <c r="S72" s="116"/>
-      <c r="T72" s="116"/>
-      <c r="U72" s="117"/>
+      <c r="L72" s="97"/>
+      <c r="M72" s="97"/>
+      <c r="N72" s="97"/>
+      <c r="O72" s="97"/>
+      <c r="P72" s="97"/>
+      <c r="Q72" s="97"/>
+      <c r="R72" s="97"/>
+      <c r="S72" s="97"/>
+      <c r="T72" s="97"/>
+      <c r="U72" s="98"/>
     </row>
     <row r="73" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="122" t="s">
+      <c r="A73" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="119"/>
-      <c r="C73" s="118" t="s">
+      <c r="B73" s="70"/>
+      <c r="C73" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="D73" s="119"/>
-      <c r="E73" s="118" t="s">
+      <c r="D73" s="70"/>
+      <c r="E73" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="F73" s="120"/>
-      <c r="G73" s="119"/>
-      <c r="H73" s="118" t="s">
+      <c r="F73" s="100"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="I73" s="120"/>
-      <c r="J73" s="121"/>
-      <c r="K73" s="122" t="s">
+      <c r="I73" s="100"/>
+      <c r="J73" s="101"/>
+      <c r="K73" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="L73" s="119"/>
-      <c r="M73" s="118" t="s">
+      <c r="L73" s="70"/>
+      <c r="M73" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="N73" s="119"/>
-      <c r="O73" s="118" t="s">
+      <c r="N73" s="70"/>
+      <c r="O73" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="P73" s="120"/>
-      <c r="Q73" s="119"/>
-      <c r="R73" s="112" t="s">
+      <c r="P73" s="100"/>
+      <c r="Q73" s="70"/>
+      <c r="R73" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="S73" s="113"/>
-      <c r="T73" s="113"/>
-      <c r="U73" s="114"/>
+      <c r="S73" s="94"/>
+      <c r="T73" s="94"/>
+      <c r="U73" s="95"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="92"/>
-      <c r="B74" s="93"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="93"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="90"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="91"/>
-      <c r="K74" s="92"/>
-      <c r="L74" s="93"/>
-      <c r="M74" s="94"/>
-      <c r="N74" s="93"/>
-      <c r="O74" s="90"/>
-      <c r="P74" s="38"/>
-      <c r="Q74" s="95"/>
-      <c r="R74" s="96"/>
-      <c r="S74" s="97"/>
-      <c r="T74" s="97"/>
-      <c r="U74" s="98"/>
+      <c r="A74" s="84"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="86"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="89"/>
+      <c r="H74" s="87"/>
+      <c r="I74" s="88"/>
+      <c r="J74" s="137"/>
+      <c r="K74" s="84"/>
+      <c r="L74" s="85"/>
+      <c r="M74" s="86"/>
+      <c r="N74" s="85"/>
+      <c r="O74" s="87"/>
+      <c r="P74" s="88"/>
+      <c r="Q74" s="89"/>
+      <c r="R74" s="138"/>
+      <c r="S74" s="139"/>
+      <c r="T74" s="139"/>
+      <c r="U74" s="140"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="99"/>
-      <c r="B75" s="56"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="135"/>
-      <c r="F75" s="136"/>
-      <c r="G75" s="137"/>
-      <c r="H75" s="135"/>
-      <c r="I75" s="136"/>
-      <c r="J75" s="152"/>
-      <c r="K75" s="99"/>
-      <c r="L75" s="56"/>
-      <c r="M75" s="55"/>
-      <c r="N75" s="56"/>
-      <c r="O75" s="135"/>
-      <c r="P75" s="136"/>
-      <c r="Q75" s="137"/>
-      <c r="R75" s="156"/>
-      <c r="S75" s="157"/>
-      <c r="T75" s="157"/>
-      <c r="U75" s="158"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="60"/>
+      <c r="P75" s="61"/>
+      <c r="Q75" s="62"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="38"/>
+      <c r="U75" s="39"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="99"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="135"/>
-      <c r="F76" s="136"/>
-      <c r="G76" s="137"/>
-      <c r="H76" s="135"/>
-      <c r="I76" s="136"/>
-      <c r="J76" s="152"/>
-      <c r="K76" s="99"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="55"/>
-      <c r="N76" s="56"/>
-      <c r="O76" s="135"/>
-      <c r="P76" s="136"/>
-      <c r="Q76" s="137"/>
-      <c r="R76" s="156"/>
-      <c r="S76" s="157"/>
-      <c r="T76" s="157"/>
-      <c r="U76" s="158"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="60"/>
+      <c r="P76" s="61"/>
+      <c r="Q76" s="62"/>
+      <c r="R76" s="37"/>
+      <c r="S76" s="38"/>
+      <c r="T76" s="38"/>
+      <c r="U76" s="39"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="99"/>
-      <c r="B77" s="56"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="135"/>
-      <c r="F77" s="136"/>
-      <c r="G77" s="137"/>
-      <c r="H77" s="135"/>
-      <c r="I77" s="136"/>
-      <c r="J77" s="152"/>
-      <c r="K77" s="99"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="55"/>
-      <c r="N77" s="56"/>
-      <c r="O77" s="135"/>
-      <c r="P77" s="136"/>
-      <c r="Q77" s="137"/>
-      <c r="R77" s="156"/>
-      <c r="S77" s="157"/>
-      <c r="T77" s="157"/>
-      <c r="U77" s="158"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="60"/>
+      <c r="P77" s="61"/>
+      <c r="Q77" s="62"/>
+      <c r="R77" s="37"/>
+      <c r="S77" s="38"/>
+      <c r="T77" s="38"/>
+      <c r="U77" s="39"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="99"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="135"/>
-      <c r="F78" s="136"/>
-      <c r="G78" s="137"/>
-      <c r="H78" s="135"/>
-      <c r="I78" s="136"/>
-      <c r="J78" s="152"/>
-      <c r="K78" s="99"/>
-      <c r="L78" s="56"/>
-      <c r="M78" s="55"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="135"/>
-      <c r="P78" s="136"/>
-      <c r="Q78" s="137"/>
-      <c r="R78" s="156"/>
-      <c r="S78" s="157"/>
-      <c r="T78" s="157"/>
-      <c r="U78" s="158"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="60"/>
+      <c r="P78" s="61"/>
+      <c r="Q78" s="62"/>
+      <c r="R78" s="37"/>
+      <c r="S78" s="38"/>
+      <c r="T78" s="38"/>
+      <c r="U78" s="39"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="99"/>
-      <c r="B79" s="56"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="135"/>
-      <c r="F79" s="136"/>
-      <c r="G79" s="137"/>
-      <c r="H79" s="135"/>
-      <c r="I79" s="136"/>
-      <c r="J79" s="152"/>
-      <c r="K79" s="99"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="55"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="135"/>
-      <c r="P79" s="136"/>
-      <c r="Q79" s="137"/>
-      <c r="R79" s="156"/>
-      <c r="S79" s="157"/>
-      <c r="T79" s="157"/>
-      <c r="U79" s="158"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="61"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="60"/>
+      <c r="P79" s="61"/>
+      <c r="Q79" s="62"/>
+      <c r="R79" s="37"/>
+      <c r="S79" s="38"/>
+      <c r="T79" s="38"/>
+      <c r="U79" s="39"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="99"/>
-      <c r="B80" s="56"/>
-      <c r="C80" s="55"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="135"/>
-      <c r="F80" s="136"/>
-      <c r="G80" s="137"/>
-      <c r="H80" s="135"/>
-      <c r="I80" s="136"/>
-      <c r="J80" s="152"/>
-      <c r="K80" s="99"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="55"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="135"/>
-      <c r="P80" s="136"/>
-      <c r="Q80" s="137"/>
-      <c r="R80" s="156"/>
-      <c r="S80" s="157"/>
-      <c r="T80" s="157"/>
-      <c r="U80" s="158"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="41"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="60"/>
+      <c r="P80" s="61"/>
+      <c r="Q80" s="62"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="38"/>
+      <c r="T80" s="38"/>
+      <c r="U80" s="39"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="99"/>
-      <c r="B81" s="56"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="135"/>
-      <c r="F81" s="136"/>
-      <c r="G81" s="137"/>
-      <c r="H81" s="135"/>
-      <c r="I81" s="136"/>
-      <c r="J81" s="152"/>
-      <c r="K81" s="99"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="55"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="135"/>
-      <c r="P81" s="136"/>
-      <c r="Q81" s="137"/>
-      <c r="R81" s="156"/>
-      <c r="S81" s="157"/>
-      <c r="T81" s="157"/>
-      <c r="U81" s="158"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="41"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="60"/>
+      <c r="P81" s="61"/>
+      <c r="Q81" s="62"/>
+      <c r="R81" s="37"/>
+      <c r="S81" s="38"/>
+      <c r="T81" s="38"/>
+      <c r="U81" s="39"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="99"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="135"/>
-      <c r="F82" s="136"/>
-      <c r="G82" s="137"/>
-      <c r="H82" s="135"/>
-      <c r="I82" s="136"/>
-      <c r="J82" s="152"/>
-      <c r="K82" s="99"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="135"/>
-      <c r="P82" s="136"/>
-      <c r="Q82" s="137"/>
-      <c r="R82" s="156"/>
-      <c r="S82" s="157"/>
-      <c r="T82" s="157"/>
-      <c r="U82" s="158"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="60"/>
+      <c r="I82" s="61"/>
+      <c r="J82" s="63"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="60"/>
+      <c r="P82" s="61"/>
+      <c r="Q82" s="62"/>
+      <c r="R82" s="37"/>
+      <c r="S82" s="38"/>
+      <c r="T82" s="38"/>
+      <c r="U82" s="39"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="99"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="55"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="135"/>
-      <c r="F83" s="136"/>
-      <c r="G83" s="137"/>
-      <c r="H83" s="135"/>
-      <c r="I83" s="136"/>
-      <c r="J83" s="152"/>
-      <c r="K83" s="99"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="56"/>
-      <c r="O83" s="135"/>
-      <c r="P83" s="136"/>
-      <c r="Q83" s="137"/>
-      <c r="R83" s="156"/>
-      <c r="S83" s="157"/>
-      <c r="T83" s="157"/>
-      <c r="U83" s="158"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="62"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="60"/>
+      <c r="P83" s="61"/>
+      <c r="Q83" s="62"/>
+      <c r="R83" s="37"/>
+      <c r="S83" s="38"/>
+      <c r="T83" s="38"/>
+      <c r="U83" s="39"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="99"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="135"/>
-      <c r="F84" s="136"/>
-      <c r="G84" s="137"/>
-      <c r="H84" s="135"/>
-      <c r="I84" s="136"/>
-      <c r="J84" s="152"/>
-      <c r="K84" s="99"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="135"/>
-      <c r="P84" s="136"/>
-      <c r="Q84" s="137"/>
-      <c r="R84" s="156"/>
-      <c r="S84" s="157"/>
-      <c r="T84" s="157"/>
-      <c r="U84" s="158"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="62"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="63"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="41"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="60"/>
+      <c r="P84" s="61"/>
+      <c r="Q84" s="62"/>
+      <c r="R84" s="37"/>
+      <c r="S84" s="38"/>
+      <c r="T84" s="38"/>
+      <c r="U84" s="39"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="99"/>
-      <c r="B85" s="56"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="135"/>
-      <c r="F85" s="136"/>
-      <c r="G85" s="137"/>
-      <c r="H85" s="135"/>
-      <c r="I85" s="136"/>
-      <c r="J85" s="152"/>
-      <c r="K85" s="99"/>
-      <c r="L85" s="56"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="135"/>
-      <c r="P85" s="136"/>
-      <c r="Q85" s="137"/>
-      <c r="R85" s="156"/>
-      <c r="S85" s="157"/>
-      <c r="T85" s="157"/>
-      <c r="U85" s="158"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="62"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="41"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="60"/>
+      <c r="P85" s="61"/>
+      <c r="Q85" s="62"/>
+      <c r="R85" s="37"/>
+      <c r="S85" s="38"/>
+      <c r="T85" s="38"/>
+      <c r="U85" s="39"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A86" s="99"/>
-      <c r="B86" s="56"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="135"/>
-      <c r="F86" s="136"/>
-      <c r="G86" s="137"/>
-      <c r="H86" s="135"/>
-      <c r="I86" s="136"/>
-      <c r="J86" s="152"/>
-      <c r="K86" s="99"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="55"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="135"/>
-      <c r="P86" s="136"/>
-      <c r="Q86" s="137"/>
-      <c r="R86" s="156"/>
-      <c r="S86" s="157"/>
-      <c r="T86" s="157"/>
-      <c r="U86" s="158"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="62"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="60"/>
+      <c r="P86" s="61"/>
+      <c r="Q86" s="62"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="38"/>
+      <c r="T86" s="38"/>
+      <c r="U86" s="39"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="99"/>
-      <c r="B87" s="56"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="135"/>
-      <c r="F87" s="136"/>
-      <c r="G87" s="137"/>
-      <c r="H87" s="135"/>
-      <c r="I87" s="136"/>
-      <c r="J87" s="152"/>
-      <c r="K87" s="99"/>
-      <c r="L87" s="56"/>
-      <c r="M87" s="55"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="135"/>
-      <c r="P87" s="136"/>
-      <c r="Q87" s="137"/>
-      <c r="R87" s="156"/>
-      <c r="S87" s="157"/>
-      <c r="T87" s="157"/>
-      <c r="U87" s="158"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="62"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="60"/>
+      <c r="P87" s="61"/>
+      <c r="Q87" s="62"/>
+      <c r="R87" s="37"/>
+      <c r="S87" s="38"/>
+      <c r="T87" s="38"/>
+      <c r="U87" s="39"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A88" s="99"/>
-      <c r="B88" s="56"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="135"/>
-      <c r="F88" s="136"/>
-      <c r="G88" s="137"/>
-      <c r="H88" s="135"/>
-      <c r="I88" s="136"/>
-      <c r="J88" s="152"/>
-      <c r="K88" s="99"/>
-      <c r="L88" s="56"/>
-      <c r="M88" s="55"/>
-      <c r="N88" s="56"/>
-      <c r="O88" s="135"/>
-      <c r="P88" s="136"/>
-      <c r="Q88" s="137"/>
-      <c r="R88" s="156"/>
-      <c r="S88" s="157"/>
-      <c r="T88" s="157"/>
-      <c r="U88" s="158"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="63"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="41"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="60"/>
+      <c r="P88" s="61"/>
+      <c r="Q88" s="62"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="38"/>
+      <c r="T88" s="38"/>
+      <c r="U88" s="39"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="99"/>
-      <c r="B89" s="56"/>
-      <c r="C89" s="55"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="135"/>
-      <c r="F89" s="136"/>
-      <c r="G89" s="137"/>
-      <c r="H89" s="135"/>
-      <c r="I89" s="136"/>
-      <c r="J89" s="152"/>
-      <c r="K89" s="99"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="55"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="135"/>
-      <c r="P89" s="136"/>
-      <c r="Q89" s="137"/>
-      <c r="R89" s="156"/>
-      <c r="S89" s="157"/>
-      <c r="T89" s="157"/>
-      <c r="U89" s="158"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="62"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="41"/>
+      <c r="N89" s="42"/>
+      <c r="O89" s="60"/>
+      <c r="P89" s="61"/>
+      <c r="Q89" s="62"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="38"/>
+      <c r="T89" s="38"/>
+      <c r="U89" s="39"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="99"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="135"/>
-      <c r="F90" s="136"/>
-      <c r="G90" s="137"/>
-      <c r="H90" s="135"/>
-      <c r="I90" s="136"/>
-      <c r="J90" s="152"/>
-      <c r="K90" s="99"/>
-      <c r="L90" s="56"/>
-      <c r="M90" s="55"/>
-      <c r="N90" s="56"/>
-      <c r="O90" s="135"/>
-      <c r="P90" s="136"/>
-      <c r="Q90" s="137"/>
-      <c r="R90" s="156"/>
-      <c r="S90" s="157"/>
-      <c r="T90" s="157"/>
-      <c r="U90" s="158"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="62"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="41"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="60"/>
+      <c r="P90" s="61"/>
+      <c r="Q90" s="62"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="38"/>
+      <c r="T90" s="38"/>
+      <c r="U90" s="39"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="99"/>
-      <c r="B91" s="56"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="135"/>
-      <c r="F91" s="136"/>
-      <c r="G91" s="137"/>
-      <c r="H91" s="135"/>
-      <c r="I91" s="136"/>
-      <c r="J91" s="152"/>
-      <c r="K91" s="99"/>
-      <c r="L91" s="56"/>
-      <c r="M91" s="55"/>
-      <c r="N91" s="56"/>
-      <c r="O91" s="135"/>
-      <c r="P91" s="136"/>
-      <c r="Q91" s="137"/>
-      <c r="R91" s="156"/>
-      <c r="S91" s="157"/>
-      <c r="T91" s="157"/>
-      <c r="U91" s="158"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="62"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="63"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="41"/>
+      <c r="N91" s="42"/>
+      <c r="O91" s="60"/>
+      <c r="P91" s="61"/>
+      <c r="Q91" s="62"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="38"/>
+      <c r="T91" s="38"/>
+      <c r="U91" s="39"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="99"/>
-      <c r="B92" s="56"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="135"/>
-      <c r="F92" s="136"/>
-      <c r="G92" s="137"/>
-      <c r="H92" s="135"/>
-      <c r="I92" s="136"/>
-      <c r="J92" s="152"/>
-      <c r="K92" s="99"/>
-      <c r="L92" s="56"/>
-      <c r="M92" s="55"/>
-      <c r="N92" s="56"/>
-      <c r="O92" s="135"/>
-      <c r="P92" s="136"/>
-      <c r="Q92" s="137"/>
-      <c r="R92" s="156"/>
-      <c r="S92" s="157"/>
-      <c r="T92" s="157"/>
-      <c r="U92" s="158"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="61"/>
+      <c r="G92" s="62"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="61"/>
+      <c r="J92" s="63"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="41"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="60"/>
+      <c r="P92" s="61"/>
+      <c r="Q92" s="62"/>
+      <c r="R92" s="37"/>
+      <c r="S92" s="38"/>
+      <c r="T92" s="38"/>
+      <c r="U92" s="39"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="99"/>
-      <c r="B93" s="56"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="135"/>
-      <c r="F93" s="136"/>
-      <c r="G93" s="137"/>
-      <c r="H93" s="135"/>
-      <c r="I93" s="136"/>
-      <c r="J93" s="152"/>
-      <c r="K93" s="99"/>
-      <c r="L93" s="56"/>
-      <c r="M93" s="55"/>
-      <c r="N93" s="56"/>
-      <c r="O93" s="135"/>
-      <c r="P93" s="136"/>
-      <c r="Q93" s="137"/>
-      <c r="R93" s="156"/>
-      <c r="S93" s="157"/>
-      <c r="T93" s="157"/>
-      <c r="U93" s="158"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="62"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="61"/>
+      <c r="J93" s="63"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="41"/>
+      <c r="N93" s="42"/>
+      <c r="O93" s="60"/>
+      <c r="P93" s="61"/>
+      <c r="Q93" s="62"/>
+      <c r="R93" s="37"/>
+      <c r="S93" s="38"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="39"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="99"/>
-      <c r="B94" s="56"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="135"/>
-      <c r="F94" s="136"/>
-      <c r="G94" s="137"/>
-      <c r="H94" s="135"/>
-      <c r="I94" s="136"/>
-      <c r="J94" s="152"/>
-      <c r="K94" s="99"/>
-      <c r="L94" s="56"/>
-      <c r="M94" s="55"/>
-      <c r="N94" s="56"/>
-      <c r="O94" s="135"/>
-      <c r="P94" s="136"/>
-      <c r="Q94" s="137"/>
-      <c r="R94" s="156"/>
-      <c r="S94" s="157"/>
-      <c r="T94" s="157"/>
-      <c r="U94" s="158"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="62"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="61"/>
+      <c r="J94" s="63"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="41"/>
+      <c r="N94" s="42"/>
+      <c r="O94" s="60"/>
+      <c r="P94" s="61"/>
+      <c r="Q94" s="62"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="38"/>
+      <c r="T94" s="38"/>
+      <c r="U94" s="39"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="99"/>
-      <c r="B95" s="56"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="135"/>
-      <c r="F95" s="136"/>
-      <c r="G95" s="137"/>
-      <c r="H95" s="135"/>
-      <c r="I95" s="136"/>
-      <c r="J95" s="152"/>
-      <c r="K95" s="99"/>
-      <c r="L95" s="56"/>
-      <c r="M95" s="55"/>
-      <c r="N95" s="56"/>
-      <c r="O95" s="135"/>
-      <c r="P95" s="136"/>
-      <c r="Q95" s="137"/>
-      <c r="R95" s="156"/>
-      <c r="S95" s="157"/>
-      <c r="T95" s="157"/>
-      <c r="U95" s="158"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="62"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="61"/>
+      <c r="J95" s="63"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="42"/>
+      <c r="M95" s="41"/>
+      <c r="N95" s="42"/>
+      <c r="O95" s="60"/>
+      <c r="P95" s="61"/>
+      <c r="Q95" s="62"/>
+      <c r="R95" s="37"/>
+      <c r="S95" s="38"/>
+      <c r="T95" s="38"/>
+      <c r="U95" s="39"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A96" s="99"/>
-      <c r="B96" s="56"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="135"/>
-      <c r="F96" s="136"/>
-      <c r="G96" s="137"/>
-      <c r="H96" s="135"/>
-      <c r="I96" s="136"/>
-      <c r="J96" s="152"/>
-      <c r="K96" s="99"/>
-      <c r="L96" s="56"/>
-      <c r="M96" s="55"/>
-      <c r="N96" s="56"/>
-      <c r="O96" s="135"/>
-      <c r="P96" s="136"/>
-      <c r="Q96" s="137"/>
-      <c r="R96" s="156"/>
-      <c r="S96" s="157"/>
-      <c r="T96" s="157"/>
-      <c r="U96" s="158"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="62"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="61"/>
+      <c r="J96" s="63"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="41"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="60"/>
+      <c r="P96" s="61"/>
+      <c r="Q96" s="62"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="38"/>
+      <c r="T96" s="38"/>
+      <c r="U96" s="39"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A97" s="99"/>
-      <c r="B97" s="56"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="135"/>
-      <c r="F97" s="136"/>
-      <c r="G97" s="137"/>
-      <c r="H97" s="135"/>
-      <c r="I97" s="136"/>
-      <c r="J97" s="152"/>
-      <c r="K97" s="99"/>
-      <c r="L97" s="56"/>
-      <c r="M97" s="55"/>
-      <c r="N97" s="56"/>
-      <c r="O97" s="135"/>
-      <c r="P97" s="136"/>
-      <c r="Q97" s="137"/>
-      <c r="R97" s="156"/>
-      <c r="S97" s="157"/>
-      <c r="T97" s="157"/>
-      <c r="U97" s="158"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="61"/>
+      <c r="J97" s="63"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="41"/>
+      <c r="N97" s="42"/>
+      <c r="O97" s="60"/>
+      <c r="P97" s="61"/>
+      <c r="Q97" s="62"/>
+      <c r="R97" s="37"/>
+      <c r="S97" s="38"/>
+      <c r="T97" s="38"/>
+      <c r="U97" s="39"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A98" s="99"/>
-      <c r="B98" s="56"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="135"/>
-      <c r="F98" s="136"/>
-      <c r="G98" s="137"/>
-      <c r="H98" s="135"/>
-      <c r="I98" s="136"/>
-      <c r="J98" s="152"/>
-      <c r="K98" s="99"/>
-      <c r="L98" s="56"/>
-      <c r="M98" s="55"/>
-      <c r="N98" s="56"/>
-      <c r="O98" s="135"/>
-      <c r="P98" s="136"/>
-      <c r="Q98" s="137"/>
-      <c r="R98" s="156"/>
-      <c r="S98" s="157"/>
-      <c r="T98" s="157"/>
-      <c r="U98" s="158"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="62"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="61"/>
+      <c r="J98" s="63"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="41"/>
+      <c r="N98" s="42"/>
+      <c r="O98" s="60"/>
+      <c r="P98" s="61"/>
+      <c r="Q98" s="62"/>
+      <c r="R98" s="37"/>
+      <c r="S98" s="38"/>
+      <c r="T98" s="38"/>
+      <c r="U98" s="39"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A99" s="99"/>
-      <c r="B99" s="56"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="56"/>
-      <c r="E99" s="135"/>
-      <c r="F99" s="136"/>
-      <c r="G99" s="137"/>
-      <c r="H99" s="135"/>
-      <c r="I99" s="136"/>
-      <c r="J99" s="152"/>
-      <c r="K99" s="99"/>
-      <c r="L99" s="56"/>
-      <c r="M99" s="55"/>
-      <c r="N99" s="56"/>
-      <c r="O99" s="135"/>
-      <c r="P99" s="136"/>
-      <c r="Q99" s="137"/>
-      <c r="R99" s="156"/>
-      <c r="S99" s="157"/>
-      <c r="T99" s="157"/>
-      <c r="U99" s="158"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="60"/>
+      <c r="I99" s="61"/>
+      <c r="J99" s="63"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="41"/>
+      <c r="N99" s="42"/>
+      <c r="O99" s="60"/>
+      <c r="P99" s="61"/>
+      <c r="Q99" s="62"/>
+      <c r="R99" s="37"/>
+      <c r="S99" s="38"/>
+      <c r="T99" s="38"/>
+      <c r="U99" s="39"/>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A100" s="99"/>
-      <c r="B100" s="56"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="135"/>
-      <c r="F100" s="136"/>
-      <c r="G100" s="137"/>
-      <c r="H100" s="135"/>
-      <c r="I100" s="136"/>
-      <c r="J100" s="152"/>
-      <c r="K100" s="99"/>
-      <c r="L100" s="56"/>
-      <c r="M100" s="55"/>
-      <c r="N100" s="56"/>
-      <c r="O100" s="135"/>
-      <c r="P100" s="136"/>
-      <c r="Q100" s="137"/>
-      <c r="R100" s="156"/>
-      <c r="S100" s="157"/>
-      <c r="T100" s="157"/>
-      <c r="U100" s="158"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="62"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="61"/>
+      <c r="J100" s="63"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="41"/>
+      <c r="N100" s="42"/>
+      <c r="O100" s="60"/>
+      <c r="P100" s="61"/>
+      <c r="Q100" s="62"/>
+      <c r="R100" s="37"/>
+      <c r="S100" s="38"/>
+      <c r="T100" s="38"/>
+      <c r="U100" s="39"/>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A101" s="99"/>
-      <c r="B101" s="56"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="135"/>
-      <c r="F101" s="136"/>
-      <c r="G101" s="137"/>
-      <c r="H101" s="135"/>
-      <c r="I101" s="136"/>
-      <c r="J101" s="152"/>
-      <c r="K101" s="99"/>
-      <c r="L101" s="56"/>
-      <c r="M101" s="55"/>
-      <c r="N101" s="56"/>
-      <c r="O101" s="135"/>
-      <c r="P101" s="136"/>
-      <c r="Q101" s="137"/>
-      <c r="R101" s="156"/>
-      <c r="S101" s="157"/>
-      <c r="T101" s="157"/>
-      <c r="U101" s="158"/>
+      <c r="A101" s="43"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="61"/>
+      <c r="J101" s="63"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="42"/>
+      <c r="M101" s="41"/>
+      <c r="N101" s="42"/>
+      <c r="O101" s="60"/>
+      <c r="P101" s="61"/>
+      <c r="Q101" s="62"/>
+      <c r="R101" s="37"/>
+      <c r="S101" s="38"/>
+      <c r="T101" s="38"/>
+      <c r="U101" s="39"/>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A102" s="99"/>
-      <c r="B102" s="56"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="135"/>
-      <c r="F102" s="136"/>
-      <c r="G102" s="137"/>
-      <c r="H102" s="135"/>
-      <c r="I102" s="136"/>
-      <c r="J102" s="152"/>
-      <c r="K102" s="99"/>
-      <c r="L102" s="56"/>
-      <c r="M102" s="55"/>
-      <c r="N102" s="56"/>
-      <c r="O102" s="135"/>
-      <c r="P102" s="136"/>
-      <c r="Q102" s="137"/>
-      <c r="R102" s="156"/>
-      <c r="S102" s="157"/>
-      <c r="T102" s="157"/>
-      <c r="U102" s="158"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="61"/>
+      <c r="J102" s="63"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="41"/>
+      <c r="N102" s="42"/>
+      <c r="O102" s="60"/>
+      <c r="P102" s="61"/>
+      <c r="Q102" s="62"/>
+      <c r="R102" s="37"/>
+      <c r="S102" s="38"/>
+      <c r="T102" s="38"/>
+      <c r="U102" s="39"/>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A103" s="99"/>
-      <c r="B103" s="56"/>
-      <c r="C103" s="55"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="135"/>
-      <c r="F103" s="136"/>
-      <c r="G103" s="137"/>
-      <c r="H103" s="135"/>
-      <c r="I103" s="136"/>
-      <c r="J103" s="152"/>
-      <c r="K103" s="99"/>
-      <c r="L103" s="56"/>
-      <c r="M103" s="55"/>
-      <c r="N103" s="56"/>
-      <c r="O103" s="135"/>
-      <c r="P103" s="136"/>
-      <c r="Q103" s="137"/>
-      <c r="R103" s="156"/>
-      <c r="S103" s="157"/>
-      <c r="T103" s="157"/>
-      <c r="U103" s="158"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="60"/>
+      <c r="I103" s="61"/>
+      <c r="J103" s="63"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="42"/>
+      <c r="M103" s="41"/>
+      <c r="N103" s="42"/>
+      <c r="O103" s="60"/>
+      <c r="P103" s="61"/>
+      <c r="Q103" s="62"/>
+      <c r="R103" s="37"/>
+      <c r="S103" s="38"/>
+      <c r="T103" s="38"/>
+      <c r="U103" s="39"/>
     </row>
     <row r="104" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="138"/>
-      <c r="B104" s="139"/>
-      <c r="C104" s="140"/>
-      <c r="D104" s="139"/>
-      <c r="E104" s="153"/>
-      <c r="F104" s="154"/>
-      <c r="G104" s="155"/>
-      <c r="H104" s="153"/>
-      <c r="I104" s="154"/>
-      <c r="J104" s="161"/>
-      <c r="K104" s="138"/>
-      <c r="L104" s="139"/>
-      <c r="M104" s="140"/>
-      <c r="N104" s="139"/>
-      <c r="O104" s="153"/>
-      <c r="P104" s="154"/>
-      <c r="Q104" s="155"/>
-      <c r="R104" s="162"/>
-      <c r="S104" s="163"/>
-      <c r="T104" s="163"/>
-      <c r="U104" s="164"/>
+      <c r="A104" s="54"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="55"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="51"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="50"/>
+      <c r="I104" s="51"/>
+      <c r="J104" s="53"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="55"/>
+      <c r="M104" s="59"/>
+      <c r="N104" s="55"/>
+      <c r="O104" s="50"/>
+      <c r="P104" s="51"/>
+      <c r="Q104" s="52"/>
+      <c r="R104" s="56"/>
+      <c r="S104" s="57"/>
+      <c r="T104" s="57"/>
+      <c r="U104" s="58"/>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
@@ -3355,297 +3357,297 @@
       <c r="U105" s="10"/>
     </row>
     <row r="106" spans="1:21" s="3" customFormat="1" ht="152.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="169" t="s">
+      <c r="A106" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B106" s="169"/>
-      <c r="C106" s="169"/>
-      <c r="D106" s="169"/>
-      <c r="E106" s="169"/>
-      <c r="F106" s="169"/>
-      <c r="G106" s="169"/>
-      <c r="H106" s="169"/>
-      <c r="I106" s="169"/>
-      <c r="J106" s="169"/>
-      <c r="K106" s="169"/>
-      <c r="L106" s="169"/>
-      <c r="M106" s="169"/>
-      <c r="N106" s="169"/>
-      <c r="O106" s="169"/>
-      <c r="P106" s="169"/>
-      <c r="Q106" s="169"/>
-      <c r="R106" s="169"/>
-      <c r="S106" s="169"/>
-      <c r="T106" s="169"/>
-      <c r="U106" s="169"/>
+      <c r="B106" s="49"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="49"/>
+      <c r="J106" s="49"/>
+      <c r="K106" s="49"/>
+      <c r="L106" s="49"/>
+      <c r="M106" s="49"/>
+      <c r="N106" s="49"/>
+      <c r="O106" s="49"/>
+      <c r="P106" s="49"/>
+      <c r="Q106" s="49"/>
+      <c r="R106" s="49"/>
+      <c r="S106" s="49"/>
+      <c r="T106" s="49"/>
+      <c r="U106" s="49"/>
     </row>
     <row r="107" spans="1:21" ht="18" x14ac:dyDescent="0.3">
-      <c r="A107" s="110" t="s">
+      <c r="A107" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B107" s="110"/>
-      <c r="C107" s="110"/>
-      <c r="D107" s="110"/>
-      <c r="E107" s="110"/>
-      <c r="F107" s="110"/>
-      <c r="G107" s="110"/>
-      <c r="H107" s="110"/>
-      <c r="I107" s="110"/>
-      <c r="J107" s="110"/>
-      <c r="K107" s="110"/>
-      <c r="L107" s="110"/>
-      <c r="M107" s="110"/>
-      <c r="N107" s="110"/>
-      <c r="O107" s="110"/>
-      <c r="P107" s="110"/>
-      <c r="Q107" s="110"/>
-      <c r="R107" s="110"/>
-      <c r="S107" s="110"/>
-      <c r="T107" s="110"/>
-      <c r="U107" s="110"/>
+      <c r="B107" s="72"/>
+      <c r="C107" s="72"/>
+      <c r="D107" s="72"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
+      <c r="G107" s="72"/>
+      <c r="H107" s="72"/>
+      <c r="I107" s="72"/>
+      <c r="J107" s="72"/>
+      <c r="K107" s="72"/>
+      <c r="L107" s="72"/>
+      <c r="M107" s="72"/>
+      <c r="N107" s="72"/>
+      <c r="O107" s="72"/>
+      <c r="P107" s="72"/>
+      <c r="Q107" s="72"/>
+      <c r="R107" s="72"/>
+      <c r="S107" s="72"/>
+      <c r="T107" s="72"/>
+      <c r="U107" s="72"/>
     </row>
     <row r="108" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A109" s="141" t="s">
+      <c r="A109" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="B109" s="142"/>
-      <c r="C109" s="142"/>
-      <c r="D109" s="142"/>
-      <c r="E109" s="142"/>
-      <c r="F109" s="142"/>
-      <c r="G109" s="142"/>
-      <c r="H109" s="142"/>
-      <c r="I109" s="142"/>
-      <c r="J109" s="142"/>
-      <c r="K109" s="142"/>
-      <c r="L109" s="142"/>
-      <c r="M109" s="142"/>
-      <c r="N109" s="142"/>
-      <c r="O109" s="142"/>
-      <c r="P109" s="142"/>
-      <c r="Q109" s="142"/>
-      <c r="R109" s="142"/>
-      <c r="S109" s="142"/>
-      <c r="T109" s="142"/>
-      <c r="U109" s="143"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="74"/>
+      <c r="D109" s="74"/>
+      <c r="E109" s="74"/>
+      <c r="F109" s="74"/>
+      <c r="G109" s="74"/>
+      <c r="H109" s="74"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="74"/>
+      <c r="K109" s="74"/>
+      <c r="L109" s="74"/>
+      <c r="M109" s="74"/>
+      <c r="N109" s="74"/>
+      <c r="O109" s="74"/>
+      <c r="P109" s="74"/>
+      <c r="Q109" s="74"/>
+      <c r="R109" s="74"/>
+      <c r="S109" s="74"/>
+      <c r="T109" s="74"/>
+      <c r="U109" s="75"/>
     </row>
     <row r="110" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="147"/>
-      <c r="B110" s="148"/>
-      <c r="C110" s="148"/>
-      <c r="D110" s="148"/>
-      <c r="E110" s="148"/>
-      <c r="F110" s="148"/>
-      <c r="G110" s="148"/>
-      <c r="H110" s="148"/>
-      <c r="I110" s="148"/>
-      <c r="J110" s="148"/>
-      <c r="K110" s="148"/>
-      <c r="L110" s="148"/>
-      <c r="M110" s="148"/>
-      <c r="N110" s="148"/>
-      <c r="O110" s="148"/>
-      <c r="P110" s="148"/>
-      <c r="Q110" s="148"/>
-      <c r="R110" s="148"/>
-      <c r="S110" s="148"/>
-      <c r="T110" s="148"/>
-      <c r="U110" s="149"/>
+      <c r="A110" s="79"/>
+      <c r="B110" s="80"/>
+      <c r="C110" s="80"/>
+      <c r="D110" s="80"/>
+      <c r="E110" s="80"/>
+      <c r="F110" s="80"/>
+      <c r="G110" s="80"/>
+      <c r="H110" s="80"/>
+      <c r="I110" s="80"/>
+      <c r="J110" s="80"/>
+      <c r="K110" s="80"/>
+      <c r="L110" s="80"/>
+      <c r="M110" s="80"/>
+      <c r="N110" s="80"/>
+      <c r="O110" s="80"/>
+      <c r="P110" s="80"/>
+      <c r="Q110" s="80"/>
+      <c r="R110" s="80"/>
+      <c r="S110" s="80"/>
+      <c r="T110" s="80"/>
+      <c r="U110" s="81"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A111" s="141" t="s">
+      <c r="A111" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B111" s="142"/>
-      <c r="C111" s="142"/>
-      <c r="D111" s="142"/>
-      <c r="E111" s="142"/>
-      <c r="F111" s="142"/>
-      <c r="G111" s="142"/>
-      <c r="H111" s="142"/>
-      <c r="I111" s="142"/>
-      <c r="J111" s="142"/>
-      <c r="K111" s="142"/>
-      <c r="L111" s="142"/>
-      <c r="M111" s="142"/>
-      <c r="N111" s="142"/>
-      <c r="O111" s="142"/>
-      <c r="P111" s="142"/>
-      <c r="Q111" s="142"/>
-      <c r="R111" s="142"/>
-      <c r="S111" s="142"/>
-      <c r="T111" s="142"/>
-      <c r="U111" s="143"/>
+      <c r="B111" s="74"/>
+      <c r="C111" s="74"/>
+      <c r="D111" s="74"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="74"/>
+      <c r="G111" s="74"/>
+      <c r="H111" s="74"/>
+      <c r="I111" s="74"/>
+      <c r="J111" s="74"/>
+      <c r="K111" s="74"/>
+      <c r="L111" s="74"/>
+      <c r="M111" s="74"/>
+      <c r="N111" s="74"/>
+      <c r="O111" s="74"/>
+      <c r="P111" s="74"/>
+      <c r="Q111" s="74"/>
+      <c r="R111" s="74"/>
+      <c r="S111" s="74"/>
+      <c r="T111" s="74"/>
+      <c r="U111" s="75"/>
     </row>
     <row r="112" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="144"/>
-      <c r="B112" s="145"/>
-      <c r="C112" s="145"/>
-      <c r="D112" s="145"/>
-      <c r="E112" s="145"/>
-      <c r="F112" s="145"/>
-      <c r="G112" s="145"/>
-      <c r="H112" s="145"/>
-      <c r="I112" s="145"/>
-      <c r="J112" s="145"/>
-      <c r="K112" s="145"/>
-      <c r="L112" s="145"/>
-      <c r="M112" s="145"/>
-      <c r="N112" s="145"/>
-      <c r="O112" s="145"/>
-      <c r="P112" s="145"/>
-      <c r="Q112" s="145"/>
-      <c r="R112" s="145"/>
-      <c r="S112" s="145"/>
-      <c r="T112" s="145"/>
-      <c r="U112" s="146"/>
+      <c r="A112" s="76"/>
+      <c r="B112" s="77"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="77"/>
+      <c r="M112" s="77"/>
+      <c r="N112" s="77"/>
+      <c r="O112" s="77"/>
+      <c r="P112" s="77"/>
+      <c r="Q112" s="77"/>
+      <c r="R112" s="77"/>
+      <c r="S112" s="77"/>
+      <c r="T112" s="77"/>
+      <c r="U112" s="78"/>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A113" s="141" t="s">
+      <c r="A113" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B113" s="142"/>
-      <c r="C113" s="142"/>
-      <c r="D113" s="142"/>
-      <c r="E113" s="142"/>
-      <c r="F113" s="142"/>
-      <c r="G113" s="142"/>
-      <c r="H113" s="142"/>
-      <c r="I113" s="142"/>
-      <c r="J113" s="142"/>
-      <c r="K113" s="142"/>
-      <c r="L113" s="142"/>
-      <c r="M113" s="142"/>
-      <c r="N113" s="142"/>
-      <c r="O113" s="142"/>
-      <c r="P113" s="142"/>
-      <c r="Q113" s="142"/>
-      <c r="R113" s="142"/>
-      <c r="S113" s="142"/>
-      <c r="T113" s="142"/>
-      <c r="U113" s="143"/>
+      <c r="B113" s="74"/>
+      <c r="C113" s="74"/>
+      <c r="D113" s="74"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="74"/>
+      <c r="G113" s="74"/>
+      <c r="H113" s="74"/>
+      <c r="I113" s="74"/>
+      <c r="J113" s="74"/>
+      <c r="K113" s="74"/>
+      <c r="L113" s="74"/>
+      <c r="M113" s="74"/>
+      <c r="N113" s="74"/>
+      <c r="O113" s="74"/>
+      <c r="P113" s="74"/>
+      <c r="Q113" s="74"/>
+      <c r="R113" s="74"/>
+      <c r="S113" s="74"/>
+      <c r="T113" s="74"/>
+      <c r="U113" s="75"/>
     </row>
     <row r="114" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="144"/>
-      <c r="B114" s="145"/>
-      <c r="C114" s="145"/>
-      <c r="D114" s="145"/>
-      <c r="E114" s="145"/>
-      <c r="F114" s="145"/>
-      <c r="G114" s="145"/>
-      <c r="H114" s="145"/>
-      <c r="I114" s="145"/>
-      <c r="J114" s="145"/>
-      <c r="K114" s="145"/>
-      <c r="L114" s="145"/>
-      <c r="M114" s="145"/>
-      <c r="N114" s="145"/>
-      <c r="O114" s="145"/>
-      <c r="P114" s="145"/>
-      <c r="Q114" s="145"/>
-      <c r="R114" s="145"/>
-      <c r="S114" s="145"/>
-      <c r="T114" s="145"/>
-      <c r="U114" s="146"/>
+      <c r="A114" s="76"/>
+      <c r="B114" s="77"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="77"/>
+      <c r="M114" s="77"/>
+      <c r="N114" s="77"/>
+      <c r="O114" s="77"/>
+      <c r="P114" s="77"/>
+      <c r="Q114" s="77"/>
+      <c r="R114" s="77"/>
+      <c r="S114" s="77"/>
+      <c r="T114" s="77"/>
+      <c r="U114" s="78"/>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="141" t="s">
+      <c r="A115" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="B115" s="142"/>
-      <c r="C115" s="142"/>
-      <c r="D115" s="142"/>
-      <c r="E115" s="142"/>
-      <c r="F115" s="142"/>
-      <c r="G115" s="142"/>
-      <c r="H115" s="142"/>
-      <c r="I115" s="142"/>
-      <c r="J115" s="142"/>
-      <c r="K115" s="142"/>
-      <c r="L115" s="142"/>
-      <c r="M115" s="142"/>
-      <c r="N115" s="142"/>
-      <c r="O115" s="142"/>
-      <c r="P115" s="142"/>
-      <c r="Q115" s="142"/>
-      <c r="R115" s="142"/>
-      <c r="S115" s="142"/>
-      <c r="T115" s="142"/>
-      <c r="U115" s="143"/>
+      <c r="B115" s="74"/>
+      <c r="C115" s="74"/>
+      <c r="D115" s="74"/>
+      <c r="E115" s="74"/>
+      <c r="F115" s="74"/>
+      <c r="G115" s="74"/>
+      <c r="H115" s="74"/>
+      <c r="I115" s="74"/>
+      <c r="J115" s="74"/>
+      <c r="K115" s="74"/>
+      <c r="L115" s="74"/>
+      <c r="M115" s="74"/>
+      <c r="N115" s="74"/>
+      <c r="O115" s="74"/>
+      <c r="P115" s="74"/>
+      <c r="Q115" s="74"/>
+      <c r="R115" s="74"/>
+      <c r="S115" s="74"/>
+      <c r="T115" s="74"/>
+      <c r="U115" s="75"/>
     </row>
     <row r="116" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="144"/>
-      <c r="B116" s="145"/>
-      <c r="C116" s="145"/>
-      <c r="D116" s="145"/>
-      <c r="E116" s="145"/>
-      <c r="F116" s="145"/>
-      <c r="G116" s="145"/>
-      <c r="H116" s="145"/>
-      <c r="I116" s="145"/>
-      <c r="J116" s="145"/>
-      <c r="K116" s="145"/>
-      <c r="L116" s="145"/>
-      <c r="M116" s="145"/>
-      <c r="N116" s="145"/>
-      <c r="O116" s="145"/>
-      <c r="P116" s="145"/>
-      <c r="Q116" s="145"/>
-      <c r="R116" s="145"/>
-      <c r="S116" s="145"/>
-      <c r="T116" s="145"/>
-      <c r="U116" s="146"/>
+      <c r="A116" s="76"/>
+      <c r="B116" s="77"/>
+      <c r="C116" s="77"/>
+      <c r="D116" s="77"/>
+      <c r="E116" s="77"/>
+      <c r="F116" s="77"/>
+      <c r="G116" s="77"/>
+      <c r="H116" s="77"/>
+      <c r="I116" s="77"/>
+      <c r="J116" s="77"/>
+      <c r="K116" s="77"/>
+      <c r="L116" s="77"/>
+      <c r="M116" s="77"/>
+      <c r="N116" s="77"/>
+      <c r="O116" s="77"/>
+      <c r="P116" s="77"/>
+      <c r="Q116" s="77"/>
+      <c r="R116" s="77"/>
+      <c r="S116" s="77"/>
+      <c r="T116" s="77"/>
+      <c r="U116" s="78"/>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A117" s="141" t="s">
+      <c r="A117" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="B117" s="142"/>
-      <c r="C117" s="142"/>
-      <c r="D117" s="142"/>
-      <c r="E117" s="142"/>
-      <c r="F117" s="142"/>
-      <c r="G117" s="142"/>
-      <c r="H117" s="142"/>
-      <c r="I117" s="142"/>
-      <c r="J117" s="142"/>
-      <c r="K117" s="142"/>
-      <c r="L117" s="142"/>
-      <c r="M117" s="142"/>
-      <c r="N117" s="142"/>
-      <c r="O117" s="142"/>
-      <c r="P117" s="142"/>
-      <c r="Q117" s="142"/>
-      <c r="R117" s="142"/>
-      <c r="S117" s="142"/>
-      <c r="T117" s="142"/>
-      <c r="U117" s="143"/>
+      <c r="B117" s="74"/>
+      <c r="C117" s="74"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="74"/>
+      <c r="G117" s="74"/>
+      <c r="H117" s="74"/>
+      <c r="I117" s="74"/>
+      <c r="J117" s="74"/>
+      <c r="K117" s="74"/>
+      <c r="L117" s="74"/>
+      <c r="M117" s="74"/>
+      <c r="N117" s="74"/>
+      <c r="O117" s="74"/>
+      <c r="P117" s="74"/>
+      <c r="Q117" s="74"/>
+      <c r="R117" s="74"/>
+      <c r="S117" s="74"/>
+      <c r="T117" s="74"/>
+      <c r="U117" s="75"/>
     </row>
     <row r="118" spans="1:21" ht="121.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="144"/>
-      <c r="B118" s="145"/>
-      <c r="C118" s="145"/>
-      <c r="D118" s="145"/>
-      <c r="E118" s="145"/>
-      <c r="F118" s="145"/>
-      <c r="G118" s="145"/>
-      <c r="H118" s="145"/>
-      <c r="I118" s="145"/>
-      <c r="J118" s="145"/>
-      <c r="K118" s="145"/>
-      <c r="L118" s="145"/>
-      <c r="M118" s="145"/>
-      <c r="N118" s="145"/>
-      <c r="O118" s="145"/>
-      <c r="P118" s="145"/>
-      <c r="Q118" s="145"/>
-      <c r="R118" s="145"/>
-      <c r="S118" s="145"/>
-      <c r="T118" s="145"/>
-      <c r="U118" s="146"/>
+      <c r="A118" s="76"/>
+      <c r="B118" s="77"/>
+      <c r="C118" s="77"/>
+      <c r="D118" s="77"/>
+      <c r="E118" s="77"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="77"/>
+      <c r="H118" s="77"/>
+      <c r="I118" s="77"/>
+      <c r="J118" s="77"/>
+      <c r="K118" s="77"/>
+      <c r="L118" s="77"/>
+      <c r="M118" s="77"/>
+      <c r="N118" s="77"/>
+      <c r="O118" s="77"/>
+      <c r="P118" s="77"/>
+      <c r="Q118" s="77"/>
+      <c r="R118" s="77"/>
+      <c r="S118" s="77"/>
+      <c r="T118" s="77"/>
+      <c r="U118" s="78"/>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="25" t="s">
@@ -3660,29 +3662,29 @@
       <c r="C121"/>
     </row>
     <row r="122" spans="1:21" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="106" t="s">
+      <c r="A122" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B122" s="106"/>
-      <c r="C122" s="106"/>
-      <c r="D122" s="106"/>
-      <c r="E122" s="106"/>
-      <c r="F122" s="106"/>
-      <c r="G122" s="106"/>
-      <c r="H122" s="106"/>
-      <c r="I122" s="106"/>
-      <c r="J122" s="106"/>
-      <c r="K122" s="106"/>
-      <c r="L122" s="106"/>
-      <c r="M122" s="106"/>
-      <c r="N122" s="106"/>
-      <c r="O122" s="106"/>
-      <c r="P122" s="106"/>
-      <c r="Q122" s="106"/>
-      <c r="R122" s="106"/>
-      <c r="S122" s="106"/>
-      <c r="T122" s="106"/>
-      <c r="U122" s="106"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="40"/>
+      <c r="G122" s="40"/>
+      <c r="H122" s="40"/>
+      <c r="I122" s="40"/>
+      <c r="J122" s="40"/>
+      <c r="K122" s="40"/>
+      <c r="L122" s="40"/>
+      <c r="M122" s="40"/>
+      <c r="N122" s="40"/>
+      <c r="O122" s="40"/>
+      <c r="P122" s="40"/>
+      <c r="Q122" s="40"/>
+      <c r="R122" s="40"/>
+      <c r="S122" s="40"/>
+      <c r="T122" s="40"/>
+      <c r="U122" s="40"/>
     </row>
     <row r="123" spans="1:21" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
@@ -3702,24 +3704,24 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="106" t="s">
+      <c r="F125" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="G125" s="106"/>
-      <c r="H125" s="106"/>
-      <c r="I125" s="106"/>
-      <c r="J125" s="106"/>
-      <c r="K125" s="106"/>
-      <c r="L125" s="106"/>
-      <c r="M125" s="106"/>
-      <c r="N125" s="106"/>
-      <c r="O125" s="106"/>
-      <c r="P125" s="106"/>
-      <c r="Q125" s="106"/>
-      <c r="R125" s="106"/>
-      <c r="S125" s="106"/>
-      <c r="T125" s="106"/>
-      <c r="U125" s="106"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="40"/>
+      <c r="I125" s="40"/>
+      <c r="J125" s="40"/>
+      <c r="K125" s="40"/>
+      <c r="L125" s="40"/>
+      <c r="M125" s="40"/>
+      <c r="N125" s="40"/>
+      <c r="O125" s="40"/>
+      <c r="P125" s="40"/>
+      <c r="Q125" s="40"/>
+      <c r="R125" s="40"/>
+      <c r="S125" s="40"/>
+      <c r="T125" s="40"/>
+      <c r="U125" s="40"/>
     </row>
     <row r="126" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5" t="s">
@@ -3727,24 +3729,24 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="106" t="s">
+      <c r="F126" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="G126" s="106"/>
-      <c r="H126" s="106"/>
-      <c r="I126" s="106"/>
-      <c r="J126" s="106"/>
-      <c r="K126" s="106"/>
-      <c r="L126" s="106"/>
-      <c r="M126" s="106"/>
-      <c r="N126" s="106"/>
-      <c r="O126" s="106"/>
-      <c r="P126" s="106"/>
-      <c r="Q126" s="106"/>
-      <c r="R126" s="106"/>
-      <c r="S126" s="106"/>
-      <c r="T126" s="106"/>
-      <c r="U126" s="106"/>
+      <c r="G126" s="40"/>
+      <c r="H126" s="40"/>
+      <c r="I126" s="40"/>
+      <c r="J126" s="40"/>
+      <c r="K126" s="40"/>
+      <c r="L126" s="40"/>
+      <c r="M126" s="40"/>
+      <c r="N126" s="40"/>
+      <c r="O126" s="40"/>
+      <c r="P126" s="40"/>
+      <c r="Q126" s="40"/>
+      <c r="R126" s="40"/>
+      <c r="S126" s="40"/>
+      <c r="T126" s="40"/>
+      <c r="U126" s="40"/>
     </row>
     <row r="127" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
@@ -3753,24 +3755,24 @@
       <c r="B127"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
-      <c r="F127" s="106" t="s">
+      <c r="F127" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="G127" s="106"/>
-      <c r="H127" s="106"/>
-      <c r="I127" s="106"/>
-      <c r="J127" s="106"/>
-      <c r="K127" s="106"/>
-      <c r="L127" s="106"/>
-      <c r="M127" s="106"/>
-      <c r="N127" s="106"/>
-      <c r="O127" s="106"/>
-      <c r="P127" s="106"/>
-      <c r="Q127" s="106"/>
-      <c r="R127" s="106"/>
-      <c r="S127" s="106"/>
-      <c r="T127" s="106"/>
-      <c r="U127" s="106"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="40"/>
+      <c r="I127" s="40"/>
+      <c r="J127" s="40"/>
+      <c r="K127" s="40"/>
+      <c r="L127" s="40"/>
+      <c r="M127" s="40"/>
+      <c r="N127" s="40"/>
+      <c r="O127" s="40"/>
+      <c r="P127" s="40"/>
+      <c r="Q127" s="40"/>
+      <c r="R127" s="40"/>
+      <c r="S127" s="40"/>
+      <c r="T127" s="40"/>
+      <c r="U127" s="40"/>
     </row>
     <row r="128" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
@@ -3779,24 +3781,24 @@
       <c r="B128"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="106" t="s">
+      <c r="F128" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G128" s="106"/>
-      <c r="H128" s="106"/>
-      <c r="I128" s="106"/>
-      <c r="J128" s="106"/>
-      <c r="K128" s="106"/>
-      <c r="L128" s="106"/>
-      <c r="M128" s="106"/>
-      <c r="N128" s="106"/>
-      <c r="O128" s="106"/>
-      <c r="P128" s="106"/>
-      <c r="Q128" s="106"/>
-      <c r="R128" s="106"/>
-      <c r="S128" s="106"/>
-      <c r="T128" s="106"/>
-      <c r="U128" s="106"/>
+      <c r="G128" s="40"/>
+      <c r="H128" s="40"/>
+      <c r="I128" s="40"/>
+      <c r="J128" s="40"/>
+      <c r="K128" s="40"/>
+      <c r="L128" s="40"/>
+      <c r="M128" s="40"/>
+      <c r="N128" s="40"/>
+      <c r="O128" s="40"/>
+      <c r="P128" s="40"/>
+      <c r="Q128" s="40"/>
+      <c r="R128" s="40"/>
+      <c r="S128" s="40"/>
+      <c r="T128" s="40"/>
+      <c r="U128" s="40"/>
     </row>
     <row r="129" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5" t="s">
@@ -3805,24 +3807,24 @@
       <c r="B129"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="106" t="s">
+      <c r="F129" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G129" s="106"/>
-      <c r="H129" s="106"/>
-      <c r="I129" s="106"/>
-      <c r="J129" s="106"/>
-      <c r="K129" s="106"/>
-      <c r="L129" s="106"/>
-      <c r="M129" s="106"/>
-      <c r="N129" s="106"/>
-      <c r="O129" s="106"/>
-      <c r="P129" s="106"/>
-      <c r="Q129" s="106"/>
-      <c r="R129" s="106"/>
-      <c r="S129" s="106"/>
-      <c r="T129" s="106"/>
-      <c r="U129" s="106"/>
+      <c r="G129" s="40"/>
+      <c r="H129" s="40"/>
+      <c r="I129" s="40"/>
+      <c r="J129" s="40"/>
+      <c r="K129" s="40"/>
+      <c r="L129" s="40"/>
+      <c r="M129" s="40"/>
+      <c r="N129" s="40"/>
+      <c r="O129" s="40"/>
+      <c r="P129" s="40"/>
+      <c r="Q129" s="40"/>
+      <c r="R129" s="40"/>
+      <c r="S129" s="40"/>
+      <c r="T129" s="40"/>
+      <c r="U129" s="40"/>
     </row>
     <row r="130" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5" t="s">
@@ -3831,24 +3833,24 @@
       <c r="B130"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="106" t="s">
+      <c r="F130" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G130" s="106"/>
-      <c r="H130" s="106"/>
-      <c r="I130" s="106"/>
-      <c r="J130" s="106"/>
-      <c r="K130" s="106"/>
-      <c r="L130" s="106"/>
-      <c r="M130" s="106"/>
-      <c r="N130" s="106"/>
-      <c r="O130" s="106"/>
-      <c r="P130" s="106"/>
-      <c r="Q130" s="106"/>
-      <c r="R130" s="106"/>
-      <c r="S130" s="106"/>
-      <c r="T130" s="106"/>
-      <c r="U130" s="106"/>
+      <c r="G130" s="40"/>
+      <c r="H130" s="40"/>
+      <c r="I130" s="40"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="40"/>
+      <c r="L130" s="40"/>
+      <c r="M130" s="40"/>
+      <c r="N130" s="40"/>
+      <c r="O130" s="40"/>
+      <c r="P130" s="40"/>
+      <c r="Q130" s="40"/>
+      <c r="R130" s="40"/>
+      <c r="S130" s="40"/>
+      <c r="T130" s="40"/>
+      <c r="U130" s="40"/>
     </row>
     <row r="131" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4"/>
@@ -3856,47 +3858,47 @@
       <c r="C131"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A132" s="46" t="s">
+      <c r="A132" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="B132" s="47"/>
-      <c r="C132" s="47"/>
-      <c r="D132" s="48"/>
-      <c r="E132" s="52" t="s">
+      <c r="B132" s="120"/>
+      <c r="C132" s="120"/>
+      <c r="D132" s="121"/>
+      <c r="E132" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F132" s="53"/>
-      <c r="G132" s="54"/>
-      <c r="H132" s="100" t="s">
+      <c r="F132" s="45"/>
+      <c r="G132" s="46"/>
+      <c r="H132" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="I132" s="53"/>
-      <c r="J132" s="101"/>
-      <c r="K132" s="52" t="s">
+      <c r="I132" s="45"/>
+      <c r="J132" s="48"/>
+      <c r="K132" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L132" s="53"/>
-      <c r="M132" s="54"/>
-      <c r="N132" s="100" t="s">
+      <c r="L132" s="45"/>
+      <c r="M132" s="46"/>
+      <c r="N132" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="O132" s="53"/>
-      <c r="P132" s="101"/>
-      <c r="Q132" s="52" t="s">
+      <c r="O132" s="45"/>
+      <c r="P132" s="48"/>
+      <c r="Q132" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="R132" s="53"/>
-      <c r="S132" s="54"/>
-      <c r="T132" s="100" t="s">
+      <c r="R132" s="45"/>
+      <c r="S132" s="46"/>
+      <c r="T132" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="U132" s="54"/>
+      <c r="U132" s="46"/>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A133" s="49"/>
-      <c r="B133" s="50"/>
-      <c r="C133" s="50"/>
-      <c r="D133" s="51"/>
+      <c r="A133" s="122"/>
+      <c r="B133" s="123"/>
+      <c r="C133" s="123"/>
+      <c r="D133" s="124"/>
       <c r="E133" s="26">
         <v>15</v>
       </c>
@@ -3942,18 +3944,18 @@
       <c r="S133" s="28">
         <v>1</v>
       </c>
-      <c r="T133" s="102">
+      <c r="T133" s="35">
         <v>0</v>
       </c>
-      <c r="U133" s="103"/>
+      <c r="U133" s="36"/>
     </row>
     <row r="134" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="31" t="s">
+      <c r="A134" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="B134" s="32"/>
-      <c r="C134" s="32"/>
-      <c r="D134" s="33"/>
+      <c r="B134" s="126"/>
+      <c r="C134" s="126"/>
+      <c r="D134" s="127"/>
       <c r="E134" s="12"/>
       <c r="F134" s="13"/>
       <c r="G134" s="14"/>
@@ -3969,16 +3971,16 @@
       <c r="Q134" s="12"/>
       <c r="R134" s="13"/>
       <c r="S134" s="14"/>
-      <c r="T134" s="165"/>
-      <c r="U134" s="166"/>
+      <c r="T134" s="31"/>
+      <c r="U134" s="32"/>
     </row>
     <row r="135" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="59" t="s">
+      <c r="A135" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="B135" s="60"/>
-      <c r="C135" s="60"/>
-      <c r="D135" s="61"/>
+      <c r="B135" s="132"/>
+      <c r="C135" s="132"/>
+      <c r="D135" s="133"/>
       <c r="E135" s="12"/>
       <c r="F135" s="13"/>
       <c r="G135" s="14"/>
@@ -3994,16 +3996,16 @@
       <c r="Q135" s="12"/>
       <c r="R135" s="13"/>
       <c r="S135" s="14"/>
-      <c r="T135" s="165"/>
-      <c r="U135" s="166"/>
+      <c r="T135" s="31"/>
+      <c r="U135" s="32"/>
     </row>
     <row r="136" spans="1:21" s="11" customFormat="1" ht="70" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="43" t="s">
+      <c r="A136" s="128" t="s">
         <v>62</v>
       </c>
-      <c r="B136" s="44"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="45"/>
+      <c r="B136" s="129"/>
+      <c r="C136" s="129"/>
+      <c r="D136" s="130"/>
       <c r="E136" s="17"/>
       <c r="F136" s="18"/>
       <c r="G136" s="19"/>
@@ -4019,52 +4021,52 @@
       <c r="Q136" s="17"/>
       <c r="R136" s="18"/>
       <c r="S136" s="19"/>
-      <c r="T136" s="167"/>
-      <c r="U136" s="168"/>
+      <c r="T136" s="33"/>
+      <c r="U136" s="34"/>
     </row>
     <row r="137" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="138" spans="1:21" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="46" t="s">
+      <c r="A138" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="B138" s="47"/>
-      <c r="C138" s="47"/>
-      <c r="D138" s="48"/>
-      <c r="E138" s="52" t="s">
+      <c r="B138" s="120"/>
+      <c r="C138" s="120"/>
+      <c r="D138" s="121"/>
+      <c r="E138" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F138" s="53"/>
-      <c r="G138" s="54"/>
-      <c r="H138" s="100" t="s">
+      <c r="F138" s="45"/>
+      <c r="G138" s="46"/>
+      <c r="H138" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="I138" s="53"/>
-      <c r="J138" s="101"/>
-      <c r="K138" s="52" t="s">
+      <c r="I138" s="45"/>
+      <c r="J138" s="48"/>
+      <c r="K138" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L138" s="53"/>
-      <c r="M138" s="54"/>
-      <c r="N138" s="100" t="s">
+      <c r="L138" s="45"/>
+      <c r="M138" s="46"/>
+      <c r="N138" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="O138" s="53"/>
-      <c r="P138" s="101"/>
-      <c r="Q138" s="52" t="s">
+      <c r="O138" s="45"/>
+      <c r="P138" s="48"/>
+      <c r="Q138" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="R138" s="53"/>
-      <c r="S138" s="54"/>
-      <c r="T138" s="100" t="s">
+      <c r="R138" s="45"/>
+      <c r="S138" s="46"/>
+      <c r="T138" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="U138" s="54"/>
+      <c r="U138" s="46"/>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A139" s="49"/>
-      <c r="B139" s="50"/>
-      <c r="C139" s="50"/>
-      <c r="D139" s="51"/>
+      <c r="A139" s="122"/>
+      <c r="B139" s="123"/>
+      <c r="C139" s="123"/>
+      <c r="D139" s="124"/>
       <c r="E139" s="26">
         <v>15</v>
       </c>
@@ -4110,18 +4112,18 @@
       <c r="S139" s="28">
         <v>1</v>
       </c>
-      <c r="T139" s="102">
+      <c r="T139" s="35">
         <v>0</v>
       </c>
-      <c r="U139" s="103"/>
+      <c r="U139" s="36"/>
     </row>
     <row r="140" spans="1:21" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="31" t="s">
+      <c r="A140" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="33"/>
+      <c r="B140" s="126"/>
+      <c r="C140" s="126"/>
+      <c r="D140" s="127"/>
       <c r="E140" s="12"/>
       <c r="F140" s="13"/>
       <c r="G140" s="14"/>
@@ -4137,16 +4139,16 @@
       <c r="Q140" s="12"/>
       <c r="R140" s="13"/>
       <c r="S140" s="14"/>
-      <c r="T140" s="165"/>
-      <c r="U140" s="166"/>
+      <c r="T140" s="31"/>
+      <c r="U140" s="32"/>
     </row>
     <row r="141" spans="1:21" ht="42.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="34" t="s">
+      <c r="A141" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="B141" s="35"/>
-      <c r="C141" s="35"/>
-      <c r="D141" s="36"/>
+      <c r="B141" s="135"/>
+      <c r="C141" s="135"/>
+      <c r="D141" s="136"/>
       <c r="E141" s="12"/>
       <c r="F141" s="13"/>
       <c r="G141" s="14"/>
@@ -4162,16 +4164,16 @@
       <c r="Q141" s="12"/>
       <c r="R141" s="13"/>
       <c r="S141" s="14"/>
-      <c r="T141" s="165"/>
-      <c r="U141" s="166"/>
+      <c r="T141" s="31"/>
+      <c r="U141" s="32"/>
     </row>
     <row r="142" spans="1:21" ht="42.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="43" t="s">
+      <c r="A142" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="B142" s="44"/>
-      <c r="C142" s="44"/>
-      <c r="D142" s="45"/>
+      <c r="B142" s="129"/>
+      <c r="C142" s="129"/>
+      <c r="D142" s="130"/>
       <c r="E142" s="17"/>
       <c r="F142" s="18"/>
       <c r="G142" s="19"/>
@@ -4187,52 +4189,52 @@
       <c r="Q142" s="17"/>
       <c r="R142" s="18"/>
       <c r="S142" s="19"/>
-      <c r="T142" s="167"/>
-      <c r="U142" s="168"/>
+      <c r="T142" s="33"/>
+      <c r="U142" s="34"/>
     </row>
     <row r="143" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A144" s="46" t="s">
+      <c r="A144" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="B144" s="47"/>
-      <c r="C144" s="47"/>
-      <c r="D144" s="48"/>
-      <c r="E144" s="52" t="s">
+      <c r="B144" s="120"/>
+      <c r="C144" s="120"/>
+      <c r="D144" s="121"/>
+      <c r="E144" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F144" s="53"/>
-      <c r="G144" s="54"/>
-      <c r="H144" s="100" t="s">
+      <c r="F144" s="45"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="I144" s="53"/>
-      <c r="J144" s="101"/>
-      <c r="K144" s="52" t="s">
+      <c r="I144" s="45"/>
+      <c r="J144" s="48"/>
+      <c r="K144" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L144" s="53"/>
-      <c r="M144" s="54"/>
-      <c r="N144" s="100" t="s">
+      <c r="L144" s="45"/>
+      <c r="M144" s="46"/>
+      <c r="N144" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="O144" s="53"/>
-      <c r="P144" s="101"/>
-      <c r="Q144" s="52" t="s">
+      <c r="O144" s="45"/>
+      <c r="P144" s="48"/>
+      <c r="Q144" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="R144" s="53"/>
-      <c r="S144" s="54"/>
-      <c r="T144" s="100" t="s">
+      <c r="R144" s="45"/>
+      <c r="S144" s="46"/>
+      <c r="T144" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="U144" s="54"/>
+      <c r="U144" s="46"/>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A145" s="49"/>
-      <c r="B145" s="50"/>
-      <c r="C145" s="50"/>
-      <c r="D145" s="51"/>
+      <c r="A145" s="122"/>
+      <c r="B145" s="123"/>
+      <c r="C145" s="123"/>
+      <c r="D145" s="124"/>
       <c r="E145" s="26">
         <v>15</v>
       </c>
@@ -4278,18 +4280,18 @@
       <c r="S145" s="28">
         <v>1</v>
       </c>
-      <c r="T145" s="102">
+      <c r="T145" s="35">
         <v>0</v>
       </c>
-      <c r="U145" s="103"/>
+      <c r="U145" s="36"/>
     </row>
     <row r="146" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="31" t="s">
+      <c r="A146" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="B146" s="32"/>
-      <c r="C146" s="32"/>
-      <c r="D146" s="33"/>
+      <c r="B146" s="126"/>
+      <c r="C146" s="126"/>
+      <c r="D146" s="127"/>
       <c r="E146" s="12"/>
       <c r="F146" s="13"/>
       <c r="G146" s="14"/>
@@ -4305,16 +4307,16 @@
       <c r="Q146" s="12"/>
       <c r="R146" s="13"/>
       <c r="S146" s="14"/>
-      <c r="T146" s="165"/>
-      <c r="U146" s="166"/>
+      <c r="T146" s="31"/>
+      <c r="U146" s="32"/>
     </row>
     <row r="147" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="34" t="s">
+      <c r="A147" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="B147" s="35"/>
-      <c r="C147" s="35"/>
-      <c r="D147" s="36"/>
+      <c r="B147" s="135"/>
+      <c r="C147" s="135"/>
+      <c r="D147" s="136"/>
       <c r="E147" s="12"/>
       <c r="F147" s="13"/>
       <c r="G147" s="14"/>
@@ -4330,16 +4332,16 @@
       <c r="Q147" s="12"/>
       <c r="R147" s="13"/>
       <c r="S147" s="14"/>
-      <c r="T147" s="165"/>
-      <c r="U147" s="166"/>
+      <c r="T147" s="31"/>
+      <c r="U147" s="32"/>
     </row>
     <row r="148" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="34" t="s">
+      <c r="A148" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="B148" s="35"/>
-      <c r="C148" s="35"/>
-      <c r="D148" s="36"/>
+      <c r="B148" s="135"/>
+      <c r="C148" s="135"/>
+      <c r="D148" s="136"/>
       <c r="E148" s="12"/>
       <c r="F148" s="13"/>
       <c r="G148" s="14"/>
@@ -4355,16 +4357,16 @@
       <c r="Q148" s="12"/>
       <c r="R148" s="13"/>
       <c r="S148" s="14"/>
-      <c r="T148" s="165"/>
-      <c r="U148" s="166"/>
+      <c r="T148" s="31"/>
+      <c r="U148" s="32"/>
     </row>
     <row r="149" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="34" t="s">
+      <c r="A149" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="B149" s="35"/>
-      <c r="C149" s="35"/>
-      <c r="D149" s="36"/>
+      <c r="B149" s="135"/>
+      <c r="C149" s="135"/>
+      <c r="D149" s="136"/>
       <c r="E149" s="12"/>
       <c r="F149" s="13"/>
       <c r="G149" s="14"/>
@@ -4380,16 +4382,16 @@
       <c r="Q149" s="12"/>
       <c r="R149" s="13"/>
       <c r="S149" s="14"/>
-      <c r="T149" s="165"/>
-      <c r="U149" s="166"/>
+      <c r="T149" s="31"/>
+      <c r="U149" s="32"/>
     </row>
     <row r="150" spans="1:21" ht="50.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="34" t="s">
+      <c r="A150" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="B150" s="35"/>
-      <c r="C150" s="35"/>
-      <c r="D150" s="36"/>
+      <c r="B150" s="135"/>
+      <c r="C150" s="135"/>
+      <c r="D150" s="136"/>
       <c r="E150" s="12"/>
       <c r="F150" s="13"/>
       <c r="G150" s="14"/>
@@ -4405,16 +4407,16 @@
       <c r="Q150" s="12"/>
       <c r="R150" s="13"/>
       <c r="S150" s="14"/>
-      <c r="T150" s="165"/>
-      <c r="U150" s="166"/>
+      <c r="T150" s="31"/>
+      <c r="U150" s="32"/>
     </row>
     <row r="151" spans="1:21" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="43" t="s">
+      <c r="A151" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="B151" s="44"/>
-      <c r="C151" s="44"/>
-      <c r="D151" s="45"/>
+      <c r="B151" s="129"/>
+      <c r="C151" s="129"/>
+      <c r="D151" s="130"/>
       <c r="E151" s="17"/>
       <c r="F151" s="18"/>
       <c r="G151" s="19"/>
@@ -4430,52 +4432,52 @@
       <c r="Q151" s="17"/>
       <c r="R151" s="18"/>
       <c r="S151" s="19"/>
-      <c r="T151" s="167"/>
-      <c r="U151" s="168"/>
+      <c r="T151" s="33"/>
+      <c r="U151" s="34"/>
     </row>
     <row r="152" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="153" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A153" s="46" t="s">
+      <c r="A153" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="B153" s="47"/>
-      <c r="C153" s="47"/>
-      <c r="D153" s="48"/>
-      <c r="E153" s="52" t="s">
+      <c r="B153" s="120"/>
+      <c r="C153" s="120"/>
+      <c r="D153" s="121"/>
+      <c r="E153" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F153" s="53"/>
-      <c r="G153" s="54"/>
-      <c r="H153" s="100" t="s">
+      <c r="F153" s="45"/>
+      <c r="G153" s="46"/>
+      <c r="H153" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="I153" s="53"/>
-      <c r="J153" s="101"/>
-      <c r="K153" s="52" t="s">
+      <c r="I153" s="45"/>
+      <c r="J153" s="48"/>
+      <c r="K153" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L153" s="53"/>
-      <c r="M153" s="54"/>
-      <c r="N153" s="100" t="s">
+      <c r="L153" s="45"/>
+      <c r="M153" s="46"/>
+      <c r="N153" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="O153" s="53"/>
-      <c r="P153" s="101"/>
-      <c r="Q153" s="52" t="s">
+      <c r="O153" s="45"/>
+      <c r="P153" s="48"/>
+      <c r="Q153" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="R153" s="53"/>
-      <c r="S153" s="54"/>
-      <c r="T153" s="100" t="s">
+      <c r="R153" s="45"/>
+      <c r="S153" s="46"/>
+      <c r="T153" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="U153" s="54"/>
+      <c r="U153" s="46"/>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A154" s="49"/>
-      <c r="B154" s="50"/>
-      <c r="C154" s="50"/>
-      <c r="D154" s="51"/>
+      <c r="A154" s="122"/>
+      <c r="B154" s="123"/>
+      <c r="C154" s="123"/>
+      <c r="D154" s="124"/>
       <c r="E154" s="26">
         <v>15</v>
       </c>
@@ -4521,18 +4523,18 @@
       <c r="S154" s="28">
         <v>1</v>
       </c>
-      <c r="T154" s="102">
+      <c r="T154" s="35">
         <v>0</v>
       </c>
-      <c r="U154" s="103"/>
+      <c r="U154" s="36"/>
     </row>
     <row r="155" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="31" t="s">
+      <c r="A155" s="125" t="s">
         <v>75</v>
       </c>
-      <c r="B155" s="32"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="33"/>
+      <c r="B155" s="126"/>
+      <c r="C155" s="126"/>
+      <c r="D155" s="127"/>
       <c r="E155" s="12"/>
       <c r="F155" s="13"/>
       <c r="G155" s="14"/>
@@ -4548,16 +4550,16 @@
       <c r="Q155" s="12"/>
       <c r="R155" s="13"/>
       <c r="S155" s="14"/>
-      <c r="T155" s="165"/>
-      <c r="U155" s="166"/>
+      <c r="T155" s="31"/>
+      <c r="U155" s="32"/>
     </row>
     <row r="156" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="34" t="s">
+      <c r="A156" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="B156" s="35"/>
-      <c r="C156" s="35"/>
-      <c r="D156" s="36"/>
+      <c r="B156" s="135"/>
+      <c r="C156" s="135"/>
+      <c r="D156" s="136"/>
       <c r="E156" s="12"/>
       <c r="F156" s="13"/>
       <c r="G156" s="14"/>
@@ -4573,16 +4575,16 @@
       <c r="Q156" s="12"/>
       <c r="R156" s="13"/>
       <c r="S156" s="14"/>
-      <c r="T156" s="165"/>
-      <c r="U156" s="166"/>
+      <c r="T156" s="31"/>
+      <c r="U156" s="32"/>
     </row>
     <row r="157" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="34" t="s">
+      <c r="A157" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="B157" s="35"/>
-      <c r="C157" s="35"/>
-      <c r="D157" s="36"/>
+      <c r="B157" s="135"/>
+      <c r="C157" s="135"/>
+      <c r="D157" s="136"/>
       <c r="E157" s="12"/>
       <c r="F157" s="13"/>
       <c r="G157" s="14"/>
@@ -4598,16 +4600,16 @@
       <c r="Q157" s="12"/>
       <c r="R157" s="13"/>
       <c r="S157" s="14"/>
-      <c r="T157" s="165"/>
-      <c r="U157" s="166"/>
+      <c r="T157" s="31"/>
+      <c r="U157" s="32"/>
     </row>
     <row r="158" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="34" t="s">
+      <c r="A158" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="B158" s="35"/>
-      <c r="C158" s="35"/>
-      <c r="D158" s="36"/>
+      <c r="B158" s="135"/>
+      <c r="C158" s="135"/>
+      <c r="D158" s="136"/>
       <c r="E158" s="12"/>
       <c r="F158" s="13"/>
       <c r="G158" s="14"/>
@@ -4623,16 +4625,16 @@
       <c r="Q158" s="12"/>
       <c r="R158" s="13"/>
       <c r="S158" s="14"/>
-      <c r="T158" s="165"/>
-      <c r="U158" s="166"/>
+      <c r="T158" s="31"/>
+      <c r="U158" s="32"/>
     </row>
     <row r="159" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="34" t="s">
+      <c r="A159" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="B159" s="35"/>
-      <c r="C159" s="35"/>
-      <c r="D159" s="36"/>
+      <c r="B159" s="135"/>
+      <c r="C159" s="135"/>
+      <c r="D159" s="136"/>
       <c r="E159" s="12"/>
       <c r="F159" s="13"/>
       <c r="G159" s="14"/>
@@ -4648,16 +4650,16 @@
       <c r="Q159" s="12"/>
       <c r="R159" s="13"/>
       <c r="S159" s="14"/>
-      <c r="T159" s="165"/>
-      <c r="U159" s="166"/>
+      <c r="T159" s="31"/>
+      <c r="U159" s="32"/>
     </row>
     <row r="160" spans="1:21" ht="48.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="59" t="s">
+      <c r="A160" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B160" s="60"/>
-      <c r="C160" s="60"/>
-      <c r="D160" s="61"/>
+      <c r="B160" s="132"/>
+      <c r="C160" s="132"/>
+      <c r="D160" s="133"/>
       <c r="E160" s="12"/>
       <c r="F160" s="13"/>
       <c r="G160" s="14"/>
@@ -4673,16 +4675,16 @@
       <c r="Q160" s="12"/>
       <c r="R160" s="13"/>
       <c r="S160" s="14"/>
-      <c r="T160" s="165"/>
-      <c r="U160" s="166"/>
+      <c r="T160" s="31"/>
+      <c r="U160" s="32"/>
     </row>
     <row r="161" spans="1:21" ht="48.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="43" t="s">
+      <c r="A161" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="B161" s="44"/>
-      <c r="C161" s="44"/>
-      <c r="D161" s="45"/>
+      <c r="B161" s="129"/>
+      <c r="C161" s="129"/>
+      <c r="D161" s="130"/>
       <c r="E161" s="17"/>
       <c r="F161" s="18"/>
       <c r="G161" s="19"/>
@@ -4698,48 +4700,48 @@
       <c r="Q161" s="17"/>
       <c r="R161" s="18"/>
       <c r="S161" s="19"/>
-      <c r="T161" s="167"/>
-      <c r="U161" s="168"/>
+      <c r="T161" s="33"/>
+      <c r="U161" s="34"/>
     </row>
     <row r="163" spans="1:21" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="106" t="s">
+      <c r="A163" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B163" s="106"/>
-      <c r="C163" s="106"/>
-      <c r="D163" s="106"/>
-      <c r="E163" s="106"/>
-      <c r="F163" s="106"/>
-      <c r="G163" s="106"/>
-      <c r="H163" s="106"/>
-      <c r="I163" s="106"/>
-      <c r="J163" s="106"/>
-      <c r="K163" s="106"/>
-      <c r="L163" s="106"/>
-      <c r="M163" s="106"/>
-      <c r="N163" s="106"/>
-      <c r="O163" s="106"/>
-      <c r="P163" s="106"/>
-      <c r="Q163" s="106"/>
-      <c r="R163" s="106"/>
-      <c r="S163" s="106"/>
-      <c r="T163" s="106"/>
-      <c r="U163" s="106"/>
+      <c r="B163" s="40"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="40"/>
+      <c r="E163" s="40"/>
+      <c r="F163" s="40"/>
+      <c r="G163" s="40"/>
+      <c r="H163" s="40"/>
+      <c r="I163" s="40"/>
+      <c r="J163" s="40"/>
+      <c r="K163" s="40"/>
+      <c r="L163" s="40"/>
+      <c r="M163" s="40"/>
+      <c r="N163" s="40"/>
+      <c r="O163" s="40"/>
+      <c r="P163" s="40"/>
+      <c r="Q163" s="40"/>
+      <c r="R163" s="40"/>
+      <c r="S163" s="40"/>
+      <c r="T163" s="40"/>
+      <c r="U163" s="40"/>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A165" s="150" t="s">
+      <c r="A165" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B165" s="150"/>
-      <c r="C165" s="150"/>
-      <c r="D165" s="150"/>
-      <c r="E165" s="150"/>
-      <c r="F165" s="150"/>
-      <c r="G165" s="150"/>
-      <c r="H165" s="150"/>
+      <c r="B165" s="82"/>
+      <c r="C165" s="82"/>
+      <c r="D165" s="82"/>
+      <c r="E165" s="82"/>
+      <c r="F165" s="82"/>
+      <c r="G165" s="82"/>
+      <c r="H165" s="82"/>
       <c r="I165" s="22"/>
       <c r="J165" s="22"/>
       <c r="K165" s="22"/>
@@ -4778,79 +4780,79 @@
       <c r="U166" s="22"/>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A167" s="151" t="s">
+      <c r="A167" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="B167" s="151"/>
-      <c r="C167" s="151"/>
-      <c r="D167" s="151"/>
-      <c r="E167" s="151"/>
-      <c r="F167" s="151"/>
-      <c r="G167" s="151"/>
-      <c r="H167" s="151"/>
-      <c r="I167" s="151"/>
-      <c r="J167" s="151"/>
-      <c r="K167" s="151"/>
-      <c r="L167" s="151"/>
-      <c r="M167" s="151"/>
-      <c r="N167" s="151"/>
-      <c r="O167" s="151"/>
-      <c r="P167" s="151"/>
-      <c r="Q167" s="151"/>
-      <c r="R167" s="151"/>
-      <c r="S167" s="151"/>
-      <c r="T167" s="151"/>
-      <c r="U167" s="151"/>
+      <c r="B167" s="83"/>
+      <c r="C167" s="83"/>
+      <c r="D167" s="83"/>
+      <c r="E167" s="83"/>
+      <c r="F167" s="83"/>
+      <c r="G167" s="83"/>
+      <c r="H167" s="83"/>
+      <c r="I167" s="83"/>
+      <c r="J167" s="83"/>
+      <c r="K167" s="83"/>
+      <c r="L167" s="83"/>
+      <c r="M167" s="83"/>
+      <c r="N167" s="83"/>
+      <c r="O167" s="83"/>
+      <c r="P167" s="83"/>
+      <c r="Q167" s="83"/>
+      <c r="R167" s="83"/>
+      <c r="S167" s="83"/>
+      <c r="T167" s="83"/>
+      <c r="U167" s="83"/>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A168" s="151" t="s">
+      <c r="A168" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="B168" s="151"/>
-      <c r="C168" s="151"/>
-      <c r="D168" s="151"/>
-      <c r="E168" s="151"/>
-      <c r="F168" s="151"/>
-      <c r="G168" s="151"/>
-      <c r="H168" s="151"/>
-      <c r="I168" s="151"/>
-      <c r="J168" s="151"/>
-      <c r="K168" s="151"/>
-      <c r="L168" s="151"/>
-      <c r="M168" s="151"/>
-      <c r="N168" s="151"/>
-      <c r="O168" s="151"/>
-      <c r="P168" s="151"/>
-      <c r="Q168" s="151"/>
-      <c r="R168" s="151"/>
-      <c r="S168" s="151"/>
-      <c r="T168" s="151"/>
-      <c r="U168" s="151"/>
+      <c r="B168" s="83"/>
+      <c r="C168" s="83"/>
+      <c r="D168" s="83"/>
+      <c r="E168" s="83"/>
+      <c r="F168" s="83"/>
+      <c r="G168" s="83"/>
+      <c r="H168" s="83"/>
+      <c r="I168" s="83"/>
+      <c r="J168" s="83"/>
+      <c r="K168" s="83"/>
+      <c r="L168" s="83"/>
+      <c r="M168" s="83"/>
+      <c r="N168" s="83"/>
+      <c r="O168" s="83"/>
+      <c r="P168" s="83"/>
+      <c r="Q168" s="83"/>
+      <c r="R168" s="83"/>
+      <c r="S168" s="83"/>
+      <c r="T168" s="83"/>
+      <c r="U168" s="83"/>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A169" s="151" t="s">
+      <c r="A169" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="B169" s="151"/>
-      <c r="C169" s="151"/>
-      <c r="D169" s="151"/>
-      <c r="E169" s="151"/>
-      <c r="F169" s="151"/>
-      <c r="G169" s="151"/>
-      <c r="H169" s="151"/>
-      <c r="I169" s="151"/>
-      <c r="J169" s="151"/>
-      <c r="K169" s="151"/>
-      <c r="L169" s="151"/>
-      <c r="M169" s="151"/>
-      <c r="N169" s="151"/>
-      <c r="O169" s="151"/>
-      <c r="P169" s="151"/>
-      <c r="Q169" s="151"/>
-      <c r="R169" s="151"/>
-      <c r="S169" s="151"/>
-      <c r="T169" s="151"/>
-      <c r="U169" s="151"/>
+      <c r="B169" s="83"/>
+      <c r="C169" s="83"/>
+      <c r="D169" s="83"/>
+      <c r="E169" s="83"/>
+      <c r="F169" s="83"/>
+      <c r="G169" s="83"/>
+      <c r="H169" s="83"/>
+      <c r="I169" s="83"/>
+      <c r="J169" s="83"/>
+      <c r="K169" s="83"/>
+      <c r="L169" s="83"/>
+      <c r="M169" s="83"/>
+      <c r="N169" s="83"/>
+      <c r="O169" s="83"/>
+      <c r="P169" s="83"/>
+      <c r="Q169" s="83"/>
+      <c r="R169" s="83"/>
+      <c r="S169" s="83"/>
+      <c r="T169" s="83"/>
+      <c r="U169" s="83"/>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="25"/>
@@ -4876,57 +4878,57 @@
       <c r="U170" s="22"/>
     </row>
     <row r="171" spans="1:21" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="107" t="s">
+      <c r="A171" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="B171" s="107"/>
-      <c r="C171" s="107"/>
-      <c r="D171" s="107"/>
-      <c r="E171" s="107"/>
-      <c r="F171" s="107"/>
-      <c r="G171" s="107"/>
-      <c r="H171" s="107"/>
-      <c r="I171" s="107"/>
-      <c r="J171" s="107"/>
-      <c r="K171" s="107"/>
-      <c r="L171" s="107"/>
-      <c r="M171" s="107"/>
-      <c r="N171" s="107"/>
-      <c r="O171" s="107"/>
-      <c r="P171" s="107"/>
-      <c r="Q171" s="107"/>
-      <c r="R171" s="107"/>
-      <c r="S171" s="107"/>
-      <c r="T171" s="107"/>
-      <c r="U171" s="107"/>
+      <c r="B171" s="118"/>
+      <c r="C171" s="118"/>
+      <c r="D171" s="118"/>
+      <c r="E171" s="118"/>
+      <c r="F171" s="118"/>
+      <c r="G171" s="118"/>
+      <c r="H171" s="118"/>
+      <c r="I171" s="118"/>
+      <c r="J171" s="118"/>
+      <c r="K171" s="118"/>
+      <c r="L171" s="118"/>
+      <c r="M171" s="118"/>
+      <c r="N171" s="118"/>
+      <c r="O171" s="118"/>
+      <c r="P171" s="118"/>
+      <c r="Q171" s="118"/>
+      <c r="R171" s="118"/>
+      <c r="S171" s="118"/>
+      <c r="T171" s="118"/>
+      <c r="U171" s="118"/>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
     </row>
     <row r="173" spans="1:21" ht="81.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="106" t="s">
+      <c r="A173" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="B173" s="106"/>
-      <c r="C173" s="106"/>
-      <c r="D173" s="106"/>
-      <c r="E173" s="106"/>
-      <c r="F173" s="106"/>
-      <c r="G173" s="106"/>
-      <c r="H173" s="106"/>
-      <c r="I173" s="106"/>
-      <c r="J173" s="106"/>
-      <c r="K173" s="106"/>
-      <c r="L173" s="106"/>
-      <c r="M173" s="106"/>
-      <c r="N173" s="106"/>
-      <c r="O173" s="106"/>
-      <c r="P173" s="106"/>
-      <c r="Q173" s="106"/>
-      <c r="R173" s="106"/>
-      <c r="S173" s="106"/>
-      <c r="T173" s="106"/>
-      <c r="U173" s="106"/>
+      <c r="B173" s="40"/>
+      <c r="C173" s="40"/>
+      <c r="D173" s="40"/>
+      <c r="E173" s="40"/>
+      <c r="F173" s="40"/>
+      <c r="G173" s="40"/>
+      <c r="H173" s="40"/>
+      <c r="I173" s="40"/>
+      <c r="J173" s="40"/>
+      <c r="K173" s="40"/>
+      <c r="L173" s="40"/>
+      <c r="M173" s="40"/>
+      <c r="N173" s="40"/>
+      <c r="O173" s="40"/>
+      <c r="P173" s="40"/>
+      <c r="Q173" s="40"/>
+      <c r="R173" s="40"/>
+      <c r="S173" s="40"/>
+      <c r="T173" s="40"/>
+      <c r="U173" s="40"/>
     </row>
     <row r="175" spans="1:21" ht="47.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="176" spans="1:21" x14ac:dyDescent="0.3">
@@ -4940,26 +4942,26 @@
       </c>
     </row>
     <row r="178" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E178" s="104" t="s">
+      <c r="E178" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="F178" s="104"/>
-      <c r="G178" s="104"/>
-      <c r="H178" s="104"/>
-      <c r="I178" s="104"/>
-      <c r="J178" s="104"/>
-      <c r="K178" s="104"/>
-      <c r="L178" s="104"/>
-      <c r="N178" s="105" t="s">
+      <c r="F178" s="71"/>
+      <c r="G178" s="71"/>
+      <c r="H178" s="71"/>
+      <c r="I178" s="71"/>
+      <c r="J178" s="71"/>
+      <c r="K178" s="71"/>
+      <c r="L178" s="71"/>
+      <c r="N178" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="O178" s="105"/>
-      <c r="P178" s="105"/>
-      <c r="Q178" s="105"/>
-      <c r="R178" s="105"/>
-      <c r="S178" s="105"/>
-      <c r="T178" s="105"/>
-      <c r="U178" s="105"/>
+      <c r="O178" s="117"/>
+      <c r="P178" s="117"/>
+      <c r="Q178" s="117"/>
+      <c r="R178" s="117"/>
+      <c r="S178" s="117"/>
+      <c r="T178" s="117"/>
+      <c r="U178" s="117"/>
     </row>
     <row r="179" spans="1:21" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="180" spans="1:21" x14ac:dyDescent="0.3">
@@ -4970,18 +4972,18 @@
     <row r="181" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
-      <c r="E181" s="104" t="s">
+      <c r="E181" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="F181" s="104"/>
-      <c r="G181" s="104"/>
-      <c r="H181" s="104"/>
-      <c r="I181" s="104"/>
-      <c r="J181" s="104"/>
-      <c r="K181" s="104"/>
-      <c r="L181" s="104"/>
-      <c r="M181" s="104"/>
-      <c r="N181" s="104"/>
+      <c r="F181" s="71"/>
+      <c r="G181" s="71"/>
+      <c r="H181" s="71"/>
+      <c r="I181" s="71"/>
+      <c r="J181" s="71"/>
+      <c r="K181" s="71"/>
+      <c r="L181" s="71"/>
+      <c r="M181" s="71"/>
+      <c r="N181" s="71"/>
       <c r="O181" s="7"/>
       <c r="P181" s="7"/>
     </row>
@@ -5051,22 +5053,369 @@
     </row>
   </sheetData>
   <mergeCells count="403">
-    <mergeCell ref="T141:U141"/>
-    <mergeCell ref="T142:U142"/>
-    <mergeCell ref="T146:U146"/>
-    <mergeCell ref="T147:U147"/>
-    <mergeCell ref="T148:U148"/>
-    <mergeCell ref="T161:U161"/>
-    <mergeCell ref="T149:U149"/>
-    <mergeCell ref="T150:U150"/>
-    <mergeCell ref="T151:U151"/>
-    <mergeCell ref="T155:U155"/>
-    <mergeCell ref="T156:U156"/>
-    <mergeCell ref="T157:U157"/>
-    <mergeCell ref="T158:U158"/>
-    <mergeCell ref="T159:U159"/>
-    <mergeCell ref="T160:U160"/>
-    <mergeCell ref="T154:U154"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A68:P68"/>
+    <mergeCell ref="Q68:U68"/>
+    <mergeCell ref="Q69:U69"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A153:D154"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A53:U53"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="A56:L56"/>
+    <mergeCell ref="M55:U55"/>
+    <mergeCell ref="M56:U56"/>
+    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="M57:P57"/>
+    <mergeCell ref="M58:P58"/>
+    <mergeCell ref="Q57:U57"/>
+    <mergeCell ref="Q58:U58"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="F61:L61"/>
+    <mergeCell ref="M61:U61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="F62:L62"/>
+    <mergeCell ref="M62:U62"/>
+    <mergeCell ref="A64:U64"/>
+    <mergeCell ref="K153:M153"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="R74:U74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="H153:J153"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A144:D145"/>
+    <mergeCell ref="E144:G144"/>
+    <mergeCell ref="H144:J144"/>
+    <mergeCell ref="K144:M144"/>
+    <mergeCell ref="N144:P144"/>
+    <mergeCell ref="Q144:S144"/>
+    <mergeCell ref="T144:U144"/>
+    <mergeCell ref="T145:U145"/>
+    <mergeCell ref="N153:P153"/>
+    <mergeCell ref="Q153:S153"/>
+    <mergeCell ref="T153:U153"/>
+    <mergeCell ref="E178:L178"/>
+    <mergeCell ref="N178:U178"/>
+    <mergeCell ref="E132:G132"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="A163:U163"/>
+    <mergeCell ref="A171:U171"/>
+    <mergeCell ref="A173:U173"/>
+    <mergeCell ref="Q132:S132"/>
+    <mergeCell ref="T132:U132"/>
+    <mergeCell ref="A132:D133"/>
+    <mergeCell ref="T133:U133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A138:D139"/>
+    <mergeCell ref="E138:G138"/>
+    <mergeCell ref="H138:J138"/>
+    <mergeCell ref="K138:M138"/>
+    <mergeCell ref="N138:P138"/>
+    <mergeCell ref="Q138:S138"/>
+    <mergeCell ref="T138:U138"/>
+    <mergeCell ref="T139:U139"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="A65:U65"/>
+    <mergeCell ref="R73:U73"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="K72:U72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="A66:U66"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="A67:U67"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="K70:U70"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="K71:U71"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E181:N181"/>
+    <mergeCell ref="A107:U107"/>
+    <mergeCell ref="A109:U109"/>
+    <mergeCell ref="A111:U111"/>
+    <mergeCell ref="A113:U113"/>
+    <mergeCell ref="A115:U115"/>
+    <mergeCell ref="A117:U117"/>
+    <mergeCell ref="A118:U118"/>
+    <mergeCell ref="A116:U116"/>
+    <mergeCell ref="A114:U114"/>
+    <mergeCell ref="A112:U112"/>
+    <mergeCell ref="A110:U110"/>
+    <mergeCell ref="A165:H165"/>
+    <mergeCell ref="A169:U169"/>
+    <mergeCell ref="A168:U168"/>
+    <mergeCell ref="A167:U167"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M87:N87"/>
+    <mergeCell ref="M88:N88"/>
+    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="O96:Q96"/>
+    <mergeCell ref="O97:Q97"/>
+    <mergeCell ref="O98:Q98"/>
+    <mergeCell ref="O99:Q99"/>
+    <mergeCell ref="O100:Q100"/>
+    <mergeCell ref="O101:Q101"/>
+    <mergeCell ref="O102:Q102"/>
+    <mergeCell ref="O103:Q103"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="O90:Q90"/>
+    <mergeCell ref="O91:Q91"/>
+    <mergeCell ref="O92:Q92"/>
+    <mergeCell ref="O93:Q93"/>
+    <mergeCell ref="O94:Q94"/>
+    <mergeCell ref="O89:Q89"/>
+    <mergeCell ref="O88:Q88"/>
+    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="O76:Q76"/>
+    <mergeCell ref="O77:Q77"/>
+    <mergeCell ref="O78:Q78"/>
+    <mergeCell ref="R83:U83"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="O85:Q85"/>
+    <mergeCell ref="O86:Q86"/>
+    <mergeCell ref="O87:Q87"/>
+    <mergeCell ref="O80:Q80"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="O83:Q83"/>
+    <mergeCell ref="O84:Q84"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M102:N102"/>
+    <mergeCell ref="A60:U60"/>
+    <mergeCell ref="O6:T6"/>
+    <mergeCell ref="H49:T49"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="R75:U75"/>
+    <mergeCell ref="R76:U76"/>
+    <mergeCell ref="R77:U77"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="R79:U79"/>
+    <mergeCell ref="R85:U85"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="R86:U86"/>
+    <mergeCell ref="R87:U87"/>
+    <mergeCell ref="R88:U88"/>
+    <mergeCell ref="R89:U89"/>
+    <mergeCell ref="R80:U80"/>
+    <mergeCell ref="R81:U81"/>
+    <mergeCell ref="R82:U82"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="R100:U100"/>
+    <mergeCell ref="R101:U101"/>
+    <mergeCell ref="R102:U102"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="R104:U104"/>
+    <mergeCell ref="R95:U95"/>
+    <mergeCell ref="R96:U96"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="R98:U98"/>
+    <mergeCell ref="R99:U99"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="O104:Q104"/>
+    <mergeCell ref="O95:Q95"/>
     <mergeCell ref="R90:U90"/>
     <mergeCell ref="R91:U91"/>
     <mergeCell ref="R92:U92"/>
@@ -5091,369 +5440,22 @@
     <mergeCell ref="A106:U106"/>
     <mergeCell ref="E104:G104"/>
     <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="R100:U100"/>
-    <mergeCell ref="R101:U101"/>
-    <mergeCell ref="R102:U102"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="R104:U104"/>
-    <mergeCell ref="R95:U95"/>
-    <mergeCell ref="R96:U96"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="R98:U98"/>
-    <mergeCell ref="R99:U99"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="K103:L103"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M102:N102"/>
-    <mergeCell ref="A60:U60"/>
-    <mergeCell ref="O6:T6"/>
-    <mergeCell ref="H49:T49"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="R75:U75"/>
-    <mergeCell ref="R76:U76"/>
-    <mergeCell ref="R77:U77"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="R79:U79"/>
-    <mergeCell ref="R85:U85"/>
-    <mergeCell ref="O79:Q79"/>
-    <mergeCell ref="R86:U86"/>
-    <mergeCell ref="R87:U87"/>
-    <mergeCell ref="R88:U88"/>
-    <mergeCell ref="R89:U89"/>
-    <mergeCell ref="R80:U80"/>
-    <mergeCell ref="R81:U81"/>
-    <mergeCell ref="R82:U82"/>
-    <mergeCell ref="R83:U83"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="O85:Q85"/>
-    <mergeCell ref="O86:Q86"/>
-    <mergeCell ref="O87:Q87"/>
-    <mergeCell ref="O88:Q88"/>
-    <mergeCell ref="O80:Q80"/>
-    <mergeCell ref="O81:Q81"/>
-    <mergeCell ref="O82:Q82"/>
-    <mergeCell ref="O83:Q83"/>
-    <mergeCell ref="O84:Q84"/>
-    <mergeCell ref="O90:Q90"/>
-    <mergeCell ref="O91:Q91"/>
-    <mergeCell ref="O92:Q92"/>
-    <mergeCell ref="O93:Q93"/>
-    <mergeCell ref="O94:Q94"/>
-    <mergeCell ref="O89:Q89"/>
-    <mergeCell ref="O75:Q75"/>
-    <mergeCell ref="O76:Q76"/>
-    <mergeCell ref="O77:Q77"/>
-    <mergeCell ref="O78:Q78"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="O104:Q104"/>
-    <mergeCell ref="O95:Q95"/>
-    <mergeCell ref="O96:Q96"/>
-    <mergeCell ref="O97:Q97"/>
-    <mergeCell ref="O98:Q98"/>
-    <mergeCell ref="O99:Q99"/>
-    <mergeCell ref="O100:Q100"/>
-    <mergeCell ref="O101:Q101"/>
-    <mergeCell ref="O102:Q102"/>
-    <mergeCell ref="O103:Q103"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M87:N87"/>
-    <mergeCell ref="M88:N88"/>
-    <mergeCell ref="M89:N89"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E181:N181"/>
-    <mergeCell ref="A107:U107"/>
-    <mergeCell ref="A109:U109"/>
-    <mergeCell ref="A111:U111"/>
-    <mergeCell ref="A113:U113"/>
-    <mergeCell ref="A115:U115"/>
-    <mergeCell ref="A117:U117"/>
-    <mergeCell ref="A118:U118"/>
-    <mergeCell ref="A116:U116"/>
-    <mergeCell ref="A114:U114"/>
-    <mergeCell ref="A112:U112"/>
-    <mergeCell ref="A110:U110"/>
-    <mergeCell ref="A165:H165"/>
-    <mergeCell ref="A169:U169"/>
-    <mergeCell ref="A168:U168"/>
-    <mergeCell ref="A167:U167"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A65:U65"/>
-    <mergeCell ref="R73:U73"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="K72:U72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="A66:U66"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="A67:U67"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="K70:U70"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="K71:U71"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="E178:L178"/>
-    <mergeCell ref="N178:U178"/>
-    <mergeCell ref="E132:G132"/>
-    <mergeCell ref="H132:J132"/>
-    <mergeCell ref="A163:U163"/>
-    <mergeCell ref="A171:U171"/>
-    <mergeCell ref="A173:U173"/>
-    <mergeCell ref="Q132:S132"/>
-    <mergeCell ref="T132:U132"/>
-    <mergeCell ref="A132:D133"/>
-    <mergeCell ref="T133:U133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A138:D139"/>
-    <mergeCell ref="E138:G138"/>
-    <mergeCell ref="H138:J138"/>
-    <mergeCell ref="K138:M138"/>
-    <mergeCell ref="N138:P138"/>
-    <mergeCell ref="Q138:S138"/>
-    <mergeCell ref="T138:U138"/>
-    <mergeCell ref="T139:U139"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="H153:J153"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A144:D145"/>
-    <mergeCell ref="E144:G144"/>
-    <mergeCell ref="H144:J144"/>
-    <mergeCell ref="K144:M144"/>
-    <mergeCell ref="N144:P144"/>
-    <mergeCell ref="Q144:S144"/>
-    <mergeCell ref="T144:U144"/>
-    <mergeCell ref="T145:U145"/>
-    <mergeCell ref="N153:P153"/>
-    <mergeCell ref="Q153:S153"/>
-    <mergeCell ref="T153:U153"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="R74:U74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A53:U53"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="M55:U55"/>
-    <mergeCell ref="M56:U56"/>
-    <mergeCell ref="A57:L57"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="M57:P57"/>
-    <mergeCell ref="M58:P58"/>
-    <mergeCell ref="Q57:U57"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="F61:L61"/>
-    <mergeCell ref="M61:U61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="F62:L62"/>
-    <mergeCell ref="M62:U62"/>
-    <mergeCell ref="A64:U64"/>
-    <mergeCell ref="K153:M153"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A68:P68"/>
-    <mergeCell ref="Q68:U68"/>
-    <mergeCell ref="Q69:U69"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A153:D154"/>
-    <mergeCell ref="E153:G153"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="T141:U141"/>
+    <mergeCell ref="T142:U142"/>
+    <mergeCell ref="T146:U146"/>
+    <mergeCell ref="T147:U147"/>
+    <mergeCell ref="T148:U148"/>
+    <mergeCell ref="T161:U161"/>
+    <mergeCell ref="T149:U149"/>
+    <mergeCell ref="T150:U150"/>
+    <mergeCell ref="T151:U151"/>
+    <mergeCell ref="T155:U155"/>
+    <mergeCell ref="T156:U156"/>
+    <mergeCell ref="T157:U157"/>
+    <mergeCell ref="T158:U158"/>
+    <mergeCell ref="T159:U159"/>
+    <mergeCell ref="T160:U160"/>
+    <mergeCell ref="T154:U154"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:G4">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
@@ -5502,7 +5504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5733,18 +5735,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5767,6 +5769,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1F3D8C2-E839-4AD6-B75F-D1A823A8A73C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBEEF2B8-1878-4C75-81E0-5896CFFB1B75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -5781,12 +5791,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1F3D8C2-E839-4AD6-B75F-D1A823A8A73C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>